--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$463</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$474</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G463"/>
+  <dimension ref="A1:G474"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -11933,7 +11933,7 @@
         <v>179</v>
       </c>
       <c r="G453" s="0">
-        <v>0.586885245901639</v>
+        <v>0.586</v>
       </c>
     </row>
     <row outlineLevel="0" r="454">
@@ -11960,7 +11960,7 @@
         <v>102</v>
       </c>
       <c r="G454" s="0">
-        <v>0.334426229508197</v>
+        <v>0.334</v>
       </c>
     </row>
     <row outlineLevel="0" r="455">
@@ -11987,7 +11987,7 @@
         <v>10</v>
       </c>
       <c r="G455" s="0">
-        <v>3.27868852459016E-02</v>
+        <v>0.032</v>
       </c>
     </row>
     <row outlineLevel="0" r="456">
@@ -12014,7 +12014,7 @@
         <v>7</v>
       </c>
       <c r="G456" s="0">
-        <v>2.29508196721311E-02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row outlineLevel="0" r="457">
@@ -12041,7 +12041,7 @@
         <v>7</v>
       </c>
       <c r="G457" s="0">
-        <v>2.29508196721311E-02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row outlineLevel="0" r="458">
@@ -12068,7 +12068,7 @@
         <v>279</v>
       </c>
       <c r="G458" s="0">
-        <v>0.914754098360656</v>
+        <v>0.914</v>
       </c>
     </row>
     <row outlineLevel="0" r="459">
@@ -12095,7 +12095,7 @@
         <v>14</v>
       </c>
       <c r="G459" s="0">
-        <v>4.59016393442623E-02</v>
+        <v>0.045</v>
       </c>
     </row>
     <row outlineLevel="0" r="460">
@@ -12122,7 +12122,7 @@
         <v>12</v>
       </c>
       <c r="G460" s="0">
-        <v>0.039344262295082</v>
+        <v>0.039</v>
       </c>
     </row>
     <row outlineLevel="0" r="461">
@@ -12149,7 +12149,7 @@
         <v>135</v>
       </c>
       <c r="G461" s="0">
-        <v>0.442622950819672</v>
+        <v>0.442</v>
       </c>
     </row>
     <row outlineLevel="0" r="462">
@@ -12176,7 +12176,7 @@
         <v>170</v>
       </c>
       <c r="G462" s="0">
-        <v>0.557377049180328</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="463">
@@ -12203,6 +12203,303 @@
         <v>0</v>
       </c>
       <c r="G463" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="464">
+      <c r="A464" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B464" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C464" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D464" s="0">
+        <v>7386</v>
+      </c>
+      <c r="E464" s="0">
+        <v>0.398553852795165</v>
+      </c>
+      <c r="F464" s="0">
+        <v>180</v>
+      </c>
+      <c r="G464" s="0">
+        <v>0.58252427184466</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="465">
+      <c r="A465" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B465" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C465" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D465" s="0">
+        <v>3866</v>
+      </c>
+      <c r="E465" s="0">
+        <v>0.208612130369091</v>
+      </c>
+      <c r="F465" s="0">
+        <v>105</v>
+      </c>
+      <c r="G465" s="0">
+        <v>0.339805825242718</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="466">
+      <c r="A466" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B466" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C466" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D466" s="0">
+        <v>1718</v>
+      </c>
+      <c r="E466" s="0">
+        <v>9.27045111159076E-02</v>
+      </c>
+      <c r="F466" s="0">
+        <v>11</v>
+      </c>
+      <c r="G466" s="0">
+        <v>3.55987055016181E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="467">
+      <c r="A467" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B467" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C467" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D467" s="0">
+        <v>375</v>
+      </c>
+      <c r="E467" s="0">
+        <v>2.02352687243687E-02</v>
+      </c>
+      <c r="F467" s="0">
+        <v>7</v>
+      </c>
+      <c r="G467" s="0">
+        <v>2.26537216828479E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="468">
+      <c r="A468" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B468" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C468" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D468" s="0">
+        <v>5187</v>
+      </c>
+      <c r="E468" s="0">
+        <v>0.279894236995467</v>
+      </c>
+      <c r="F468" s="0">
+        <v>6</v>
+      </c>
+      <c r="G468" s="0">
+        <v>1.94174757281553E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="469">
+      <c r="A469" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B469" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C469" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D469" s="0">
+        <v>9111</v>
+      </c>
+      <c r="E469" s="0">
+        <v>0.491636088927261</v>
+      </c>
+      <c r="F469" s="0">
+        <v>281</v>
+      </c>
+      <c r="G469" s="0">
+        <v>0.909385113268608</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="470">
+      <c r="A470" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B470" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C470" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D470" s="0">
+        <v>2933</v>
+      </c>
+      <c r="E470" s="0">
+        <v>0.158266781782862</v>
+      </c>
+      <c r="F470" s="0">
+        <v>15</v>
+      </c>
+      <c r="G470" s="0">
+        <v>4.85436893203883E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="471">
+      <c r="A471" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B471" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C471" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D471" s="0">
+        <v>6488</v>
+      </c>
+      <c r="E471" s="0">
+        <v>0.350097129289877</v>
+      </c>
+      <c r="F471" s="0">
+        <v>13</v>
+      </c>
+      <c r="G471" s="0">
+        <v>4.20711974110032E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="472">
+      <c r="A472" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B472" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C472" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D472" s="0">
+        <v>7665</v>
+      </c>
+      <c r="E472" s="0">
+        <v>0.413608892726095</v>
+      </c>
+      <c r="F472" s="0">
+        <v>139</v>
+      </c>
+      <c r="G472" s="0">
+        <v>0.449838187702265</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="473">
+      <c r="A473" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B473" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C473" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D473" s="0">
+        <v>9986</v>
+      </c>
+      <c r="E473" s="0">
+        <v>0.538851715950788</v>
+      </c>
+      <c r="F473" s="0">
+        <v>170</v>
+      </c>
+      <c r="G473" s="0">
+        <v>0.550161812297735</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="474">
+      <c r="A474" s="1">
+        <v>43971</v>
+      </c>
+      <c r="B474" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C474" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D474" s="0">
+        <v>881</v>
+      </c>
+      <c r="E474" s="0">
+        <v>4.75393913231168E-02</v>
+      </c>
+      <c r="F474" s="0">
+        <v>0</v>
+      </c>
+      <c r="G474" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$474</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$485</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G474"/>
+  <dimension ref="A1:G485"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -12230,7 +12230,7 @@
         <v>180</v>
       </c>
       <c r="G464" s="0">
-        <v>0.58252427184466</v>
+        <v>0.582</v>
       </c>
     </row>
     <row outlineLevel="0" r="465">
@@ -12257,7 +12257,7 @@
         <v>105</v>
       </c>
       <c r="G465" s="0">
-        <v>0.339805825242718</v>
+        <v>0.339</v>
       </c>
     </row>
     <row outlineLevel="0" r="466">
@@ -12284,7 +12284,7 @@
         <v>11</v>
       </c>
       <c r="G466" s="0">
-        <v>3.55987055016181E-02</v>
+        <v>0.035</v>
       </c>
     </row>
     <row outlineLevel="0" r="467">
@@ -12311,7 +12311,7 @@
         <v>7</v>
       </c>
       <c r="G467" s="0">
-        <v>2.26537216828479E-02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row outlineLevel="0" r="468">
@@ -12338,7 +12338,7 @@
         <v>6</v>
       </c>
       <c r="G468" s="0">
-        <v>1.94174757281553E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="469">
@@ -12365,7 +12365,7 @@
         <v>281</v>
       </c>
       <c r="G469" s="0">
-        <v>0.909385113268608</v>
+        <v>0.909</v>
       </c>
     </row>
     <row outlineLevel="0" r="470">
@@ -12392,7 +12392,7 @@
         <v>15</v>
       </c>
       <c r="G470" s="0">
-        <v>4.85436893203883E-02</v>
+        <v>0.048</v>
       </c>
     </row>
     <row outlineLevel="0" r="471">
@@ -12419,7 +12419,7 @@
         <v>13</v>
       </c>
       <c r="G471" s="0">
-        <v>4.20711974110032E-02</v>
+        <v>0.042</v>
       </c>
     </row>
     <row outlineLevel="0" r="472">
@@ -12446,7 +12446,7 @@
         <v>139</v>
       </c>
       <c r="G472" s="0">
-        <v>0.449838187702265</v>
+        <v>0.449</v>
       </c>
     </row>
     <row outlineLevel="0" r="473">
@@ -12473,7 +12473,7 @@
         <v>170</v>
       </c>
       <c r="G473" s="0">
-        <v>0.550161812297735</v>
+        <v>0.55</v>
       </c>
     </row>
     <row outlineLevel="0" r="474">
@@ -12500,6 +12500,303 @@
         <v>0</v>
       </c>
       <c r="G474" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="475">
+      <c r="A475" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B475" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C475" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D475" s="0">
+        <v>7618</v>
+      </c>
+      <c r="E475" s="0">
+        <v>0.401772058435736</v>
+      </c>
+      <c r="F475" s="0">
+        <v>182</v>
+      </c>
+      <c r="G475" s="0">
+        <v>0.5814696485623</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="476">
+      <c r="A476" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B476" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C476" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D476" s="0">
+        <v>3932</v>
+      </c>
+      <c r="E476" s="0">
+        <v>0.207373028848689</v>
+      </c>
+      <c r="F476" s="0">
+        <v>106</v>
+      </c>
+      <c r="G476" s="0">
+        <v>0.338658146964856</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="477">
+      <c r="A477" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B477" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C477" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D477" s="0">
+        <v>1770</v>
+      </c>
+      <c r="E477" s="0">
+        <v>9.33495068825484E-02</v>
+      </c>
+      <c r="F477" s="0">
+        <v>12</v>
+      </c>
+      <c r="G477" s="0">
+        <v>3.83386581469649E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="478">
+      <c r="A478" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B478" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C478" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D478" s="0">
+        <v>381</v>
+      </c>
+      <c r="E478" s="0">
+        <v>2.00938769052265E-02</v>
+      </c>
+      <c r="F478" s="0">
+        <v>7</v>
+      </c>
+      <c r="G478" s="0">
+        <v>2.23642172523962E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="479">
+      <c r="A479" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B479" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C479" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D479" s="0">
+        <v>5260</v>
+      </c>
+      <c r="E479" s="0">
+        <v>0.277411528927799</v>
+      </c>
+      <c r="F479" s="0">
+        <v>6</v>
+      </c>
+      <c r="G479" s="0">
+        <v>1.91693290734824E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="480">
+      <c r="A480" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B480" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C480" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D480" s="0">
+        <v>9346</v>
+      </c>
+      <c r="E480" s="0">
+        <v>0.492906492273614</v>
+      </c>
+      <c r="F480" s="0">
+        <v>283</v>
+      </c>
+      <c r="G480" s="0">
+        <v>0.904153354632588</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="481">
+      <c r="A481" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B481" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C481" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D481" s="0">
+        <v>3124</v>
+      </c>
+      <c r="E481" s="0">
+        <v>0.164759242655978</v>
+      </c>
+      <c r="F481" s="0">
+        <v>17</v>
+      </c>
+      <c r="G481" s="0">
+        <v>5.43130990415335E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="482">
+      <c r="A482" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B482" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C482" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D482" s="0">
+        <v>6491</v>
+      </c>
+      <c r="E482" s="0">
+        <v>0.342334265070408</v>
+      </c>
+      <c r="F482" s="0">
+        <v>13</v>
+      </c>
+      <c r="G482" s="0">
+        <v>4.15335463258786E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="483">
+      <c r="A483" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B483" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C483" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D483" s="0">
+        <v>7779</v>
+      </c>
+      <c r="E483" s="0">
+        <v>0.410263171773641</v>
+      </c>
+      <c r="F483" s="0">
+        <v>141</v>
+      </c>
+      <c r="G483" s="0">
+        <v>0.450479233226837</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="484">
+      <c r="A484" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B484" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C484" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D484" s="0">
+        <v>10378</v>
+      </c>
+      <c r="E484" s="0">
+        <v>0.547334001371236</v>
+      </c>
+      <c r="F484" s="0">
+        <v>172</v>
+      </c>
+      <c r="G484" s="0">
+        <v>0.549520766773163</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="485">
+      <c r="A485" s="1">
+        <v>43972</v>
+      </c>
+      <c r="B485" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C485" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D485" s="0">
+        <v>804</v>
+      </c>
+      <c r="E485" s="0">
+        <v>4.24028268551237E-02</v>
+      </c>
+      <c r="F485" s="0">
+        <v>0</v>
+      </c>
+      <c r="G485" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$485</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$540</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G485"/>
+  <dimension ref="A1:G540"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -12527,7 +12527,7 @@
         <v>182</v>
       </c>
       <c r="G475" s="0">
-        <v>0.5814696485623</v>
+        <v>0.581</v>
       </c>
     </row>
     <row outlineLevel="0" r="476">
@@ -12554,7 +12554,7 @@
         <v>106</v>
       </c>
       <c r="G476" s="0">
-        <v>0.338658146964856</v>
+        <v>0.338</v>
       </c>
     </row>
     <row outlineLevel="0" r="477">
@@ -12581,7 +12581,7 @@
         <v>12</v>
       </c>
       <c r="G477" s="0">
-        <v>3.83386581469649E-02</v>
+        <v>0.038</v>
       </c>
     </row>
     <row outlineLevel="0" r="478">
@@ -12608,7 +12608,7 @@
         <v>7</v>
       </c>
       <c r="G478" s="0">
-        <v>2.23642172523962E-02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row outlineLevel="0" r="479">
@@ -12635,7 +12635,7 @@
         <v>6</v>
       </c>
       <c r="G479" s="0">
-        <v>1.91693290734824E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="480">
@@ -12662,7 +12662,7 @@
         <v>283</v>
       </c>
       <c r="G480" s="0">
-        <v>0.904153354632588</v>
+        <v>0.904</v>
       </c>
     </row>
     <row outlineLevel="0" r="481">
@@ -12689,7 +12689,7 @@
         <v>17</v>
       </c>
       <c r="G481" s="0">
-        <v>5.43130990415335E-02</v>
+        <v>0.054</v>
       </c>
     </row>
     <row outlineLevel="0" r="482">
@@ -12716,7 +12716,7 @@
         <v>13</v>
       </c>
       <c r="G482" s="0">
-        <v>4.15335463258786E-02</v>
+        <v>0.041</v>
       </c>
     </row>
     <row outlineLevel="0" r="483">
@@ -12743,7 +12743,7 @@
         <v>141</v>
       </c>
       <c r="G483" s="0">
-        <v>0.450479233226837</v>
+        <v>0.45</v>
       </c>
     </row>
     <row outlineLevel="0" r="484">
@@ -12770,7 +12770,7 @@
         <v>172</v>
       </c>
       <c r="G484" s="0">
-        <v>0.549520766773163</v>
+        <v>0.549</v>
       </c>
     </row>
     <row outlineLevel="0" r="485">
@@ -12797,6 +12797,1491 @@
         <v>0</v>
       </c>
       <c r="G485" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="486">
+      <c r="A486" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B486" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C486" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D486" s="0">
+        <v>7796</v>
+      </c>
+      <c r="E486" s="0">
+        <v>0.401979993812519</v>
+      </c>
+      <c r="F486" s="0">
+        <v>183</v>
+      </c>
+      <c r="G486" s="0">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="487">
+      <c r="A487" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B487" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C487" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D487" s="0">
+        <v>4006</v>
+      </c>
+      <c r="E487" s="0">
+        <v>0.20655872950397</v>
+      </c>
+      <c r="F487" s="0">
+        <v>107</v>
+      </c>
+      <c r="G487" s="0">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="488">
+      <c r="A488" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B488" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C488" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D488" s="0">
+        <v>1854</v>
+      </c>
+      <c r="E488" s="0">
+        <v>9.55965762606992E-02</v>
+      </c>
+      <c r="F488" s="0">
+        <v>12</v>
+      </c>
+      <c r="G488" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="489">
+      <c r="A489" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B489" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C489" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D489" s="0">
+        <v>384</v>
+      </c>
+      <c r="E489" s="0">
+        <v>1.97999381251934E-02</v>
+      </c>
+      <c r="F489" s="0">
+        <v>7</v>
+      </c>
+      <c r="G489" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="490">
+      <c r="A490" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B490" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C490" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D490" s="0">
+        <v>5354</v>
+      </c>
+      <c r="E490" s="0">
+        <v>0.276064762297618</v>
+      </c>
+      <c r="F490" s="0">
+        <v>6</v>
+      </c>
+      <c r="G490" s="0">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="491">
+      <c r="A491" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B491" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C491" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D491" s="0">
+        <v>9586</v>
+      </c>
+      <c r="E491" s="0">
+        <v>0.494276580385686</v>
+      </c>
+      <c r="F491" s="0">
+        <v>286</v>
+      </c>
+      <c r="G491" s="0">
+        <v>0.907</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="492">
+      <c r="A492" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B492" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C492" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D492" s="0">
+        <v>3324</v>
+      </c>
+      <c r="E492" s="0">
+        <v>0.171393214396205</v>
+      </c>
+      <c r="F492" s="0">
+        <v>17</v>
+      </c>
+      <c r="G492" s="0">
+        <v>0.053</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="493">
+      <c r="A493" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B493" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C493" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D493" s="0">
+        <v>6484</v>
+      </c>
+      <c r="E493" s="0">
+        <v>0.334330205218109</v>
+      </c>
+      <c r="F493" s="0">
+        <v>12</v>
+      </c>
+      <c r="G493" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="494">
+      <c r="A494" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B494" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C494" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D494" s="0">
+        <v>7987</v>
+      </c>
+      <c r="E494" s="0">
+        <v>0.411828400536248</v>
+      </c>
+      <c r="F494" s="0">
+        <v>143</v>
+      </c>
+      <c r="G494" s="0">
+        <v>0.453</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="495">
+      <c r="A495" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B495" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C495" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D495" s="0">
+        <v>10627</v>
+      </c>
+      <c r="E495" s="0">
+        <v>0.547952975146953</v>
+      </c>
+      <c r="F495" s="0">
+        <v>172</v>
+      </c>
+      <c r="G495" s="0">
+        <v>0.546</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="496">
+      <c r="A496" s="1">
+        <v>43973</v>
+      </c>
+      <c r="B496" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C496" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D496" s="0">
+        <v>780</v>
+      </c>
+      <c r="E496" s="0">
+        <v>0.040218624316799</v>
+      </c>
+      <c r="F496" s="0">
+        <v>0</v>
+      </c>
+      <c r="G496" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="497">
+      <c r="A497" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B497" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C497" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D497" s="0">
+        <v>7933</v>
+      </c>
+      <c r="E497" s="0">
+        <v>0.400879276365658</v>
+      </c>
+      <c r="F497" s="0">
+        <v>193</v>
+      </c>
+      <c r="G497" s="0">
+        <v>0.586</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="498">
+      <c r="A498" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B498" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C498" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D498" s="0">
+        <v>4075</v>
+      </c>
+      <c r="E498" s="0">
+        <v>0.205922482187074</v>
+      </c>
+      <c r="F498" s="0">
+        <v>108</v>
+      </c>
+      <c r="G498" s="0">
+        <v>0.328</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="499">
+      <c r="A499" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B499" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C499" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D499" s="0">
+        <v>1954</v>
+      </c>
+      <c r="E499" s="0">
+        <v>9.87417252008692E-02</v>
+      </c>
+      <c r="F499" s="0">
+        <v>13</v>
+      </c>
+      <c r="G499" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="500">
+      <c r="A500" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B500" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C500" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D500" s="0">
+        <v>385</v>
+      </c>
+      <c r="E500" s="0">
+        <v>1.94552529182879E-02</v>
+      </c>
+      <c r="F500" s="0">
+        <v>7</v>
+      </c>
+      <c r="G500" s="0">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="501">
+      <c r="A501" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B501" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C501" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D501" s="0">
+        <v>5442</v>
+      </c>
+      <c r="E501" s="0">
+        <v>0.275001263328112</v>
+      </c>
+      <c r="F501" s="0">
+        <v>8</v>
+      </c>
+      <c r="G501" s="0">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="502">
+      <c r="A502" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B502" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C502" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D502" s="0">
+        <v>9898</v>
+      </c>
+      <c r="E502" s="0">
+        <v>0.500176865935621</v>
+      </c>
+      <c r="F502" s="0">
+        <v>297</v>
+      </c>
+      <c r="G502" s="0">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="503">
+      <c r="A503" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B503" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C503" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D503" s="0">
+        <v>3470</v>
+      </c>
+      <c r="E503" s="0">
+        <v>0.175349941886907</v>
+      </c>
+      <c r="F503" s="0">
+        <v>19</v>
+      </c>
+      <c r="G503" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="504">
+      <c r="A504" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B504" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C504" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D504" s="0">
+        <v>6421</v>
+      </c>
+      <c r="E504" s="0">
+        <v>0.324473192177472</v>
+      </c>
+      <c r="F504" s="0">
+        <v>13</v>
+      </c>
+      <c r="G504" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="505">
+      <c r="A505" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B505" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C505" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D505" s="0">
+        <v>8188</v>
+      </c>
+      <c r="E505" s="0">
+        <v>0.413765223103745</v>
+      </c>
+      <c r="F505" s="0">
+        <v>148</v>
+      </c>
+      <c r="G505" s="0">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="506">
+      <c r="A506" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B506" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C506" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D506" s="0">
+        <v>10823</v>
+      </c>
+      <c r="E506" s="0">
+        <v>0.546920006063975</v>
+      </c>
+      <c r="F506" s="0">
+        <v>181</v>
+      </c>
+      <c r="G506" s="0">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="507">
+      <c r="A507" s="1">
+        <v>43974</v>
+      </c>
+      <c r="B507" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C507" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D507" s="0">
+        <v>778</v>
+      </c>
+      <c r="E507" s="0">
+        <v>3.93147708322806E-02</v>
+      </c>
+      <c r="F507" s="0">
+        <v>0</v>
+      </c>
+      <c r="G507" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="508">
+      <c r="A508" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B508" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C508" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D508" s="0">
+        <v>8040</v>
+      </c>
+      <c r="E508" s="0">
+        <v>0.399106478034252</v>
+      </c>
+      <c r="F508" s="0">
+        <v>195</v>
+      </c>
+      <c r="G508" s="0">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="509">
+      <c r="A509" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B509" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C509" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D509" s="0">
+        <v>4139</v>
+      </c>
+      <c r="E509" s="0">
+        <v>0.205460412012906</v>
+      </c>
+      <c r="F509" s="0">
+        <v>112</v>
+      </c>
+      <c r="G509" s="0">
+        <v>0.333</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="510">
+      <c r="A510" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B510" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C510" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D510" s="0">
+        <v>2002</v>
+      </c>
+      <c r="E510" s="0">
+        <v>0.099379498634897</v>
+      </c>
+      <c r="F510" s="0">
+        <v>13</v>
+      </c>
+      <c r="G510" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="511">
+      <c r="A511" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B511" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C511" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D511" s="0">
+        <v>387</v>
+      </c>
+      <c r="E511" s="0">
+        <v>0.019210722263589</v>
+      </c>
+      <c r="F511" s="0">
+        <v>7</v>
+      </c>
+      <c r="G511" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="512">
+      <c r="A512" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B512" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C512" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D512" s="0">
+        <v>5577</v>
+      </c>
+      <c r="E512" s="0">
+        <v>0.276842889054356</v>
+      </c>
+      <c r="F512" s="0">
+        <v>9</v>
+      </c>
+      <c r="G512" s="0">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="513">
+      <c r="A513" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B513" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C513" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D513" s="0">
+        <v>10011</v>
+      </c>
+      <c r="E513" s="0">
+        <v>0.496947133283693</v>
+      </c>
+      <c r="F513" s="0">
+        <v>300</v>
+      </c>
+      <c r="G513" s="0">
+        <v>0.892</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="514">
+      <c r="A514" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B514" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C514" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D514" s="0">
+        <v>3578</v>
+      </c>
+      <c r="E514" s="0">
+        <v>0.177612310747084</v>
+      </c>
+      <c r="F514" s="0">
+        <v>20</v>
+      </c>
+      <c r="G514" s="0">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="515">
+      <c r="A515" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B515" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C515" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D515" s="0">
+        <v>6556</v>
+      </c>
+      <c r="E515" s="0">
+        <v>0.325440555969223</v>
+      </c>
+      <c r="F515" s="0">
+        <v>16</v>
+      </c>
+      <c r="G515" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="516">
+      <c r="A516" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B516" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C516" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D516" s="0">
+        <v>8363</v>
+      </c>
+      <c r="E516" s="0">
+        <v>0.415140233308513</v>
+      </c>
+      <c r="F516" s="0">
+        <v>149</v>
+      </c>
+      <c r="G516" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="517">
+      <c r="A517" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B517" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C517" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D517" s="0">
+        <v>11004</v>
+      </c>
+      <c r="E517" s="0">
+        <v>0.546239761727476</v>
+      </c>
+      <c r="F517" s="0">
+        <v>187</v>
+      </c>
+      <c r="G517" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="518">
+      <c r="A518" s="1">
+        <v>43975</v>
+      </c>
+      <c r="B518" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C518" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D518" s="0">
+        <v>778</v>
+      </c>
+      <c r="E518" s="0">
+        <v>3.86200049640109E-02</v>
+      </c>
+      <c r="F518" s="0">
+        <v>0</v>
+      </c>
+      <c r="G518" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="519">
+      <c r="A519" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B519" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C519" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D519" s="0">
+        <v>8135</v>
+      </c>
+      <c r="E519" s="0">
+        <v>0.394768767894405</v>
+      </c>
+      <c r="F519" s="0">
+        <v>196</v>
+      </c>
+      <c r="G519" s="0">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="520">
+      <c r="A520" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B520" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C520" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D520" s="0">
+        <v>4203</v>
+      </c>
+      <c r="E520" s="0">
+        <v>0.203959819478818</v>
+      </c>
+      <c r="F520" s="0">
+        <v>113</v>
+      </c>
+      <c r="G520" s="0">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="521">
+      <c r="A521" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B521" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C521" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D521" s="0">
+        <v>2066</v>
+      </c>
+      <c r="E521" s="0">
+        <v>0.100257194157325</v>
+      </c>
+      <c r="F521" s="0">
+        <v>13</v>
+      </c>
+      <c r="G521" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="522">
+      <c r="A522" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B522" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C522" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D522" s="0">
+        <v>390</v>
+      </c>
+      <c r="E522" s="0">
+        <v>1.89256078031737E-02</v>
+      </c>
+      <c r="F522" s="0">
+        <v>7</v>
+      </c>
+      <c r="G522" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="523">
+      <c r="A523" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B523" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C523" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D523" s="0">
+        <v>5813</v>
+      </c>
+      <c r="E523" s="0">
+        <v>0.282088610666278</v>
+      </c>
+      <c r="F523" s="0">
+        <v>9</v>
+      </c>
+      <c r="G523" s="0">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="524">
+      <c r="A524" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B524" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C524" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D524" s="0">
+        <v>10117</v>
+      </c>
+      <c r="E524" s="0">
+        <v>0.490949677294123</v>
+      </c>
+      <c r="F524" s="0">
+        <v>302</v>
+      </c>
+      <c r="G524" s="0">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="525">
+      <c r="A525" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B525" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C525" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D525" s="0">
+        <v>3706</v>
+      </c>
+      <c r="E525" s="0">
+        <v>0.179841801329645</v>
+      </c>
+      <c r="F525" s="0">
+        <v>20</v>
+      </c>
+      <c r="G525" s="0">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="526">
+      <c r="A526" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B526" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C526" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D526" s="0">
+        <v>6784</v>
+      </c>
+      <c r="E526" s="0">
+        <v>0.329208521376231</v>
+      </c>
+      <c r="F526" s="0">
+        <v>16</v>
+      </c>
+      <c r="G526" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="527">
+      <c r="A527" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B527" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C527" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D527" s="0">
+        <v>8567</v>
+      </c>
+      <c r="E527" s="0">
+        <v>0.415732518076382</v>
+      </c>
+      <c r="F527" s="0">
+        <v>151</v>
+      </c>
+      <c r="G527" s="0">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="528">
+      <c r="A528" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B528" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C528" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D528" s="0">
+        <v>11256</v>
+      </c>
+      <c r="E528" s="0">
+        <v>0.54622215751929</v>
+      </c>
+      <c r="F528" s="0">
+        <v>187</v>
+      </c>
+      <c r="G528" s="0">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="529">
+      <c r="A529" s="1">
+        <v>43976</v>
+      </c>
+      <c r="B529" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C529" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D529" s="0">
+        <v>784</v>
+      </c>
+      <c r="E529" s="0">
+        <v>3.80453244043286E-02</v>
+      </c>
+      <c r="F529" s="0">
+        <v>0</v>
+      </c>
+      <c r="G529" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="530">
+      <c r="A530" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B530" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C530" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D530" s="0">
+        <v>8273</v>
+      </c>
+      <c r="E530" s="0">
+        <v>0.394610064393036</v>
+      </c>
+      <c r="F530" s="0">
+        <v>199</v>
+      </c>
+      <c r="G530" s="0">
+        <v>0.580174927113703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="531">
+      <c r="A531" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B531" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C531" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D531" s="0">
+        <v>4266</v>
+      </c>
+      <c r="E531" s="0">
+        <v>0.203481993799189</v>
+      </c>
+      <c r="F531" s="0">
+        <v>115</v>
+      </c>
+      <c r="G531" s="0">
+        <v>0.335276967930029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="532">
+      <c r="A532" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B532" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C532" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D532" s="0">
+        <v>2172</v>
+      </c>
+      <c r="E532" s="0">
+        <v>0.103601240162175</v>
+      </c>
+      <c r="F532" s="0">
+        <v>13</v>
+      </c>
+      <c r="G532" s="0">
+        <v>3.79008746355685E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="533">
+      <c r="A533" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B533" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C533" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D533" s="0">
+        <v>394</v>
+      </c>
+      <c r="E533" s="0">
+        <v>1.87932268065824E-02</v>
+      </c>
+      <c r="F533" s="0">
+        <v>7</v>
+      </c>
+      <c r="G533" s="0">
+        <v>2.04081632653061E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="534">
+      <c r="A534" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B534" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C534" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D534" s="0">
+        <v>5860</v>
+      </c>
+      <c r="E534" s="0">
+        <v>0.279513474839017</v>
+      </c>
+      <c r="F534" s="0">
+        <v>9</v>
+      </c>
+      <c r="G534" s="0">
+        <v>2.62390670553936E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="535">
+      <c r="A535" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B535" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C535" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D535" s="0">
+        <v>10265</v>
+      </c>
+      <c r="E535" s="0">
+        <v>0.489625566420224</v>
+      </c>
+      <c r="F535" s="0">
+        <v>305</v>
+      </c>
+      <c r="G535" s="0">
+        <v>0.889212827988338</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="536">
+      <c r="A536" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B536" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C536" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D536" s="0">
+        <v>3851</v>
+      </c>
+      <c r="E536" s="0">
+        <v>0.183687097543525</v>
+      </c>
+      <c r="F536" s="0">
+        <v>20</v>
+      </c>
+      <c r="G536" s="0">
+        <v>5.83090379008746E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="537">
+      <c r="A537" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B537" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C537" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D537" s="0">
+        <v>6849</v>
+      </c>
+      <c r="E537" s="0">
+        <v>0.326687336036251</v>
+      </c>
+      <c r="F537" s="0">
+        <v>18</v>
+      </c>
+      <c r="G537" s="0">
+        <v>5.24781341107872E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="538">
+      <c r="A538" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B538" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C538" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D538" s="0">
+        <v>8721</v>
+      </c>
+      <c r="E538" s="0">
+        <v>0.415979012640114</v>
+      </c>
+      <c r="F538" s="0">
+        <v>151</v>
+      </c>
+      <c r="G538" s="0">
+        <v>0.440233236151603</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="539">
+      <c r="A539" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B539" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C539" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D539" s="0">
+        <v>11445</v>
+      </c>
+      <c r="E539" s="0">
+        <v>0.545909849749583</v>
+      </c>
+      <c r="F539" s="0">
+        <v>192</v>
+      </c>
+      <c r="G539" s="0">
+        <v>0.559766763848397</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="540">
+      <c r="A540" s="1">
+        <v>43977</v>
+      </c>
+      <c r="B540" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C540" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D540" s="0">
+        <v>799</v>
+      </c>
+      <c r="E540" s="0">
+        <v>3.81111376103029E-02</v>
+      </c>
+      <c r="F540" s="0">
+        <v>0</v>
+      </c>
+      <c r="G540" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$540</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$551</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G540"/>
+  <dimension ref="A1:G551"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14012,7 +14012,7 @@
         <v>199</v>
       </c>
       <c r="G530" s="0">
-        <v>0.580174927113703</v>
+        <v>0.58</v>
       </c>
     </row>
     <row outlineLevel="0" r="531">
@@ -14039,7 +14039,7 @@
         <v>115</v>
       </c>
       <c r="G531" s="0">
-        <v>0.335276967930029</v>
+        <v>0.335</v>
       </c>
     </row>
     <row outlineLevel="0" r="532">
@@ -14066,7 +14066,7 @@
         <v>13</v>
       </c>
       <c r="G532" s="0">
-        <v>3.79008746355685E-02</v>
+        <v>0.037</v>
       </c>
     </row>
     <row outlineLevel="0" r="533">
@@ -14093,7 +14093,7 @@
         <v>7</v>
       </c>
       <c r="G533" s="0">
-        <v>2.04081632653061E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="534">
@@ -14120,7 +14120,7 @@
         <v>9</v>
       </c>
       <c r="G534" s="0">
-        <v>2.62390670553936E-02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row outlineLevel="0" r="535">
@@ -14147,7 +14147,7 @@
         <v>305</v>
       </c>
       <c r="G535" s="0">
-        <v>0.889212827988338</v>
+        <v>0.889</v>
       </c>
     </row>
     <row outlineLevel="0" r="536">
@@ -14174,7 +14174,7 @@
         <v>20</v>
       </c>
       <c r="G536" s="0">
-        <v>5.83090379008746E-02</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="537">
@@ -14201,7 +14201,7 @@
         <v>18</v>
       </c>
       <c r="G537" s="0">
-        <v>5.24781341107872E-02</v>
+        <v>0.052</v>
       </c>
     </row>
     <row outlineLevel="0" r="538">
@@ -14228,7 +14228,7 @@
         <v>151</v>
       </c>
       <c r="G538" s="0">
-        <v>0.440233236151603</v>
+        <v>0.44</v>
       </c>
     </row>
     <row outlineLevel="0" r="539">
@@ -14255,7 +14255,7 @@
         <v>192</v>
       </c>
       <c r="G539" s="0">
-        <v>0.559766763848397</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="540">
@@ -14282,6 +14282,303 @@
         <v>0</v>
       </c>
       <c r="G540" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="541">
+      <c r="A541" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B541" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C541" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D541" s="0">
+        <v>8465</v>
+      </c>
+      <c r="E541" s="0">
+        <v>0.397305923214118</v>
+      </c>
+      <c r="F541" s="0">
+        <v>199</v>
+      </c>
+      <c r="G541" s="0">
+        <v>0.563739376770538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="542">
+      <c r="A542" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B542" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C542" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D542" s="0">
+        <v>4383</v>
+      </c>
+      <c r="E542" s="0">
+        <v>0.205716699521262</v>
+      </c>
+      <c r="F542" s="0">
+        <v>121</v>
+      </c>
+      <c r="G542" s="0">
+        <v>0.342776203966006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="543">
+      <c r="A543" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B543" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C543" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D543" s="0">
+        <v>2316</v>
+      </c>
+      <c r="E543" s="0">
+        <v>0.108701774148127</v>
+      </c>
+      <c r="F543" s="0">
+        <v>17</v>
+      </c>
+      <c r="G543" s="0">
+        <v>4.81586402266289E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="544">
+      <c r="A544" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B544" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C544" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D544" s="0">
+        <v>397</v>
+      </c>
+      <c r="E544" s="0">
+        <v>1.86332488500892E-02</v>
+      </c>
+      <c r="F544" s="0">
+        <v>7</v>
+      </c>
+      <c r="G544" s="0">
+        <v>1.98300283286119E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="545">
+      <c r="A545" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B545" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C545" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D545" s="0">
+        <v>5745</v>
+      </c>
+      <c r="E545" s="0">
+        <v>0.269642354266404</v>
+      </c>
+      <c r="F545" s="0">
+        <v>9</v>
+      </c>
+      <c r="G545" s="0">
+        <v>2.54957507082153E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="546">
+      <c r="A546" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B546" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C546" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D546" s="0">
+        <v>10507</v>
+      </c>
+      <c r="E546" s="0">
+        <v>0.493147470196189</v>
+      </c>
+      <c r="F546" s="0">
+        <v>313</v>
+      </c>
+      <c r="G546" s="0">
+        <v>0.886685552407932</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="547">
+      <c r="A547" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B547" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C547" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D547" s="0">
+        <v>4118</v>
+      </c>
+      <c r="E547" s="0">
+        <v>0.193278888575988</v>
+      </c>
+      <c r="F547" s="0">
+        <v>22</v>
+      </c>
+      <c r="G547" s="0">
+        <v>6.23229461756374E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="548">
+      <c r="A548" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B548" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C548" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D548" s="0">
+        <v>6681</v>
+      </c>
+      <c r="E548" s="0">
+        <v>0.313573641227823</v>
+      </c>
+      <c r="F548" s="0">
+        <v>18</v>
+      </c>
+      <c r="G548" s="0">
+        <v>5.09915014164306E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="549">
+      <c r="A549" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B549" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C549" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D549" s="0">
+        <v>8889</v>
+      </c>
+      <c r="E549" s="0">
+        <v>0.417206420726556</v>
+      </c>
+      <c r="F549" s="0">
+        <v>157</v>
+      </c>
+      <c r="G549" s="0">
+        <v>0.444759206798867</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="550">
+      <c r="A550" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B550" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C550" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D550" s="0">
+        <v>11613</v>
+      </c>
+      <c r="E550" s="0">
+        <v>0.54505773021684</v>
+      </c>
+      <c r="F550" s="0">
+        <v>196</v>
+      </c>
+      <c r="G550" s="0">
+        <v>0.555240793201133</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="551">
+      <c r="A551" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B551" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C551" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D551" s="0">
+        <v>804</v>
+      </c>
+      <c r="E551" s="0">
+        <v>3.77358490566038E-02</v>
+      </c>
+      <c r="F551" s="0">
+        <v>0</v>
+      </c>
+      <c r="G551" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$551</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$562</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G551"/>
+  <dimension ref="A1:G562"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14309,7 +14309,7 @@
         <v>199</v>
       </c>
       <c r="G541" s="0">
-        <v>0.563739376770538</v>
+        <v>0.563</v>
       </c>
     </row>
     <row outlineLevel="0" r="542">
@@ -14336,7 +14336,7 @@
         <v>121</v>
       </c>
       <c r="G542" s="0">
-        <v>0.342776203966006</v>
+        <v>0.342</v>
       </c>
     </row>
     <row outlineLevel="0" r="543">
@@ -14363,7 +14363,7 @@
         <v>17</v>
       </c>
       <c r="G543" s="0">
-        <v>4.81586402266289E-02</v>
+        <v>0.048</v>
       </c>
     </row>
     <row outlineLevel="0" r="544">
@@ -14390,7 +14390,7 @@
         <v>7</v>
       </c>
       <c r="G544" s="0">
-        <v>1.98300283286119E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="545">
@@ -14417,7 +14417,7 @@
         <v>9</v>
       </c>
       <c r="G545" s="0">
-        <v>2.54957507082153E-02</v>
+        <v>0.025</v>
       </c>
     </row>
     <row outlineLevel="0" r="546">
@@ -14444,7 +14444,7 @@
         <v>313</v>
       </c>
       <c r="G546" s="0">
-        <v>0.886685552407932</v>
+        <v>0.886</v>
       </c>
     </row>
     <row outlineLevel="0" r="547">
@@ -14471,7 +14471,7 @@
         <v>22</v>
       </c>
       <c r="G547" s="0">
-        <v>6.23229461756374E-02</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="548">
@@ -14498,7 +14498,7 @@
         <v>18</v>
       </c>
       <c r="G548" s="0">
-        <v>5.09915014164306E-02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="549">
@@ -14525,7 +14525,7 @@
         <v>157</v>
       </c>
       <c r="G549" s="0">
-        <v>0.444759206798867</v>
+        <v>0.444</v>
       </c>
     </row>
     <row outlineLevel="0" r="550">
@@ -14552,7 +14552,7 @@
         <v>196</v>
       </c>
       <c r="G550" s="0">
-        <v>0.555240793201133</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="551">
@@ -14579,6 +14579,303 @@
         <v>0</v>
       </c>
       <c r="G551" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="552">
+      <c r="A552" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B552" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C552" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D552" s="0">
+        <v>8696</v>
+      </c>
+      <c r="E552" s="0">
+        <v>0.401125513169427</v>
+      </c>
+      <c r="F552" s="0">
+        <v>200</v>
+      </c>
+      <c r="G552" s="0">
+        <v>0.561797752808989</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="553">
+      <c r="A553" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B553" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C553" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D553" s="0">
+        <v>4460</v>
+      </c>
+      <c r="E553" s="0">
+        <v>0.205729046542737</v>
+      </c>
+      <c r="F553" s="0">
+        <v>123</v>
+      </c>
+      <c r="G553" s="0">
+        <v>0.345505617977528</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="554">
+      <c r="A554" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B554" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C554" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D554" s="0">
+        <v>2469</v>
+      </c>
+      <c r="E554" s="0">
+        <v>0.11388901702108</v>
+      </c>
+      <c r="F554" s="0">
+        <v>17</v>
+      </c>
+      <c r="G554" s="0">
+        <v>0.047752808988764</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="555">
+      <c r="A555" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B555" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C555" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D555" s="0">
+        <v>402</v>
+      </c>
+      <c r="E555" s="0">
+        <v>1.85432907421929E-02</v>
+      </c>
+      <c r="F555" s="0">
+        <v>7</v>
+      </c>
+      <c r="G555" s="0">
+        <v>1.96629213483146E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="556">
+      <c r="A556" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B556" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C556" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D556" s="0">
+        <v>5652</v>
+      </c>
+      <c r="E556" s="0">
+        <v>0.260713132524563</v>
+      </c>
+      <c r="F556" s="0">
+        <v>9</v>
+      </c>
+      <c r="G556" s="0">
+        <v>2.52808988764045E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="557">
+      <c r="A557" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B557" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C557" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D557" s="0">
+        <v>10733</v>
+      </c>
+      <c r="E557" s="0">
+        <v>0.495087411780986</v>
+      </c>
+      <c r="F557" s="0">
+        <v>315</v>
+      </c>
+      <c r="G557" s="0">
+        <v>0.884831460674157</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="558">
+      <c r="A558" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B558" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C558" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D558" s="0">
+        <v>4316</v>
+      </c>
+      <c r="E558" s="0">
+        <v>0.199086673739564</v>
+      </c>
+      <c r="F558" s="0">
+        <v>22</v>
+      </c>
+      <c r="G558" s="0">
+        <v>6.17977528089888E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="559">
+      <c r="A559" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B559" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C559" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D559" s="0">
+        <v>6630</v>
+      </c>
+      <c r="E559" s="0">
+        <v>0.30582591447945</v>
+      </c>
+      <c r="F559" s="0">
+        <v>19</v>
+      </c>
+      <c r="G559" s="0">
+        <v>5.33707865168539E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="560">
+      <c r="A560" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B560" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C560" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D560" s="0">
+        <v>9070</v>
+      </c>
+      <c r="E560" s="0">
+        <v>0.418377231422114</v>
+      </c>
+      <c r="F560" s="0">
+        <v>160</v>
+      </c>
+      <c r="G560" s="0">
+        <v>0.449438202247191</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="561">
+      <c r="A561" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B561" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C561" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D561" s="0">
+        <v>11834</v>
+      </c>
+      <c r="E561" s="0">
+        <v>0.545873887171918</v>
+      </c>
+      <c r="F561" s="0">
+        <v>196</v>
+      </c>
+      <c r="G561" s="0">
+        <v>0.550561797752809</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="562">
+      <c r="A562" s="1">
+        <v>43979</v>
+      </c>
+      <c r="B562" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C562" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D562" s="0">
+        <v>775</v>
+      </c>
+      <c r="E562" s="0">
+        <v>3.57488814059689E-02</v>
+      </c>
+      <c r="F562" s="0">
+        <v>0</v>
+      </c>
+      <c r="G562" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$562</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$573</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G562"/>
+  <dimension ref="A1:G573"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14606,7 +14606,7 @@
         <v>200</v>
       </c>
       <c r="G552" s="0">
-        <v>0.561797752808989</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="553">
@@ -14633,7 +14633,7 @@
         <v>123</v>
       </c>
       <c r="G553" s="0">
-        <v>0.345505617977528</v>
+        <v>0.345</v>
       </c>
     </row>
     <row outlineLevel="0" r="554">
@@ -14660,7 +14660,7 @@
         <v>17</v>
       </c>
       <c r="G554" s="0">
-        <v>0.047752808988764</v>
+        <v>0.047</v>
       </c>
     </row>
     <row outlineLevel="0" r="555">
@@ -14687,7 +14687,7 @@
         <v>7</v>
       </c>
       <c r="G555" s="0">
-        <v>1.96629213483146E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="556">
@@ -14714,7 +14714,7 @@
         <v>9</v>
       </c>
       <c r="G556" s="0">
-        <v>2.52808988764045E-02</v>
+        <v>0.025</v>
       </c>
     </row>
     <row outlineLevel="0" r="557">
@@ -14741,7 +14741,7 @@
         <v>315</v>
       </c>
       <c r="G557" s="0">
-        <v>0.884831460674157</v>
+        <v>0.884</v>
       </c>
     </row>
     <row outlineLevel="0" r="558">
@@ -14768,7 +14768,7 @@
         <v>22</v>
       </c>
       <c r="G558" s="0">
-        <v>6.17977528089888E-02</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="559">
@@ -14795,7 +14795,7 @@
         <v>19</v>
       </c>
       <c r="G559" s="0">
-        <v>5.33707865168539E-02</v>
+        <v>0.053</v>
       </c>
     </row>
     <row outlineLevel="0" r="560">
@@ -14822,7 +14822,7 @@
         <v>160</v>
       </c>
       <c r="G560" s="0">
-        <v>0.449438202247191</v>
+        <v>0.449</v>
       </c>
     </row>
     <row outlineLevel="0" r="561">
@@ -14849,7 +14849,7 @@
         <v>196</v>
       </c>
       <c r="G561" s="0">
-        <v>0.550561797752809</v>
+        <v>0.55</v>
       </c>
     </row>
     <row outlineLevel="0" r="562">
@@ -14876,6 +14876,303 @@
         <v>0</v>
       </c>
       <c r="G562" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="563">
+      <c r="A563" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B563" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C563" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D563" s="0">
+        <v>8908</v>
+      </c>
+      <c r="E563" s="0">
+        <v>0.403350690513923</v>
+      </c>
+      <c r="F563" s="0">
+        <v>200</v>
+      </c>
+      <c r="G563" s="0">
+        <v>0.555555555555556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="564">
+      <c r="A564" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B564" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C564" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D564" s="0">
+        <v>4511</v>
+      </c>
+      <c r="E564" s="0">
+        <v>0.204256282544714</v>
+      </c>
+      <c r="F564" s="0">
+        <v>125</v>
+      </c>
+      <c r="G564" s="0">
+        <v>0.347222222222222</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="565">
+      <c r="A565" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B565" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C565" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D565" s="0">
+        <v>2565</v>
+      </c>
+      <c r="E565" s="0">
+        <v>0.116142177948834</v>
+      </c>
+      <c r="F565" s="0">
+        <v>18</v>
+      </c>
+      <c r="G565" s="0">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="566">
+      <c r="A566" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B566" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C566" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D566" s="0">
+        <v>406</v>
+      </c>
+      <c r="E566" s="0">
+        <v>1.83835182250396E-02</v>
+      </c>
+      <c r="F566" s="0">
+        <v>7</v>
+      </c>
+      <c r="G566" s="0">
+        <v>1.94444444444444E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="567">
+      <c r="A567" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B567" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C567" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D567" s="0">
+        <v>5695</v>
+      </c>
+      <c r="E567" s="0">
+        <v>0.257867330767489</v>
+      </c>
+      <c r="F567" s="0">
+        <v>10</v>
+      </c>
+      <c r="G567" s="0">
+        <v>2.77777777777778E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="568">
+      <c r="A568" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B568" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C568" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D568" s="0">
+        <v>10894</v>
+      </c>
+      <c r="E568" s="0">
+        <v>0.493275979171383</v>
+      </c>
+      <c r="F568" s="0">
+        <v>317</v>
+      </c>
+      <c r="G568" s="0">
+        <v>0.880555555555556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="569">
+      <c r="A569" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B569" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C569" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D569" s="0">
+        <v>4516</v>
+      </c>
+      <c r="E569" s="0">
+        <v>0.204482680552411</v>
+      </c>
+      <c r="F569" s="0">
+        <v>23</v>
+      </c>
+      <c r="G569" s="0">
+        <v>6.38888888888889E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="570">
+      <c r="A570" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B570" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C570" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D570" s="0">
+        <v>6675</v>
+      </c>
+      <c r="E570" s="0">
+        <v>0.302241340276206</v>
+      </c>
+      <c r="F570" s="0">
+        <v>20</v>
+      </c>
+      <c r="G570" s="0">
+        <v>5.55555555555556E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="571">
+      <c r="A571" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B571" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C571" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D571" s="0">
+        <v>9267</v>
+      </c>
+      <c r="E571" s="0">
+        <v>0.419606067466606</v>
+      </c>
+      <c r="F571" s="0">
+        <v>163</v>
+      </c>
+      <c r="G571" s="0">
+        <v>0.452777777777778</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="572">
+      <c r="A572" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B572" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C572" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D572" s="0">
+        <v>12044</v>
+      </c>
+      <c r="E572" s="0">
+        <v>0.545347520941816</v>
+      </c>
+      <c r="F572" s="0">
+        <v>197</v>
+      </c>
+      <c r="G572" s="0">
+        <v>0.547222222222222</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="573">
+      <c r="A573" s="1">
+        <v>43980</v>
+      </c>
+      <c r="B573" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C573" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D573" s="0">
+        <v>774</v>
+      </c>
+      <c r="E573" s="0">
+        <v>0.035046411591578</v>
+      </c>
+      <c r="F573" s="0">
+        <v>0</v>
+      </c>
+      <c r="G573" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$573</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$584</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G573"/>
+  <dimension ref="A1:G584"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -14903,7 +14903,7 @@
         <v>200</v>
       </c>
       <c r="G563" s="0">
-        <v>0.555555555555556</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="564">
@@ -14930,7 +14930,7 @@
         <v>125</v>
       </c>
       <c r="G564" s="0">
-        <v>0.347222222222222</v>
+        <v>0.347</v>
       </c>
     </row>
     <row outlineLevel="0" r="565">
@@ -14984,7 +14984,7 @@
         <v>7</v>
       </c>
       <c r="G566" s="0">
-        <v>1.94444444444444E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="567">
@@ -15011,7 +15011,7 @@
         <v>10</v>
       </c>
       <c r="G567" s="0">
-        <v>2.77777777777778E-02</v>
+        <v>0.027</v>
       </c>
     </row>
     <row outlineLevel="0" r="568">
@@ -15038,7 +15038,7 @@
         <v>317</v>
       </c>
       <c r="G568" s="0">
-        <v>0.880555555555556</v>
+        <v>0.88</v>
       </c>
     </row>
     <row outlineLevel="0" r="569">
@@ -15065,7 +15065,7 @@
         <v>23</v>
       </c>
       <c r="G569" s="0">
-        <v>6.38888888888889E-02</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="570">
@@ -15092,7 +15092,7 @@
         <v>20</v>
       </c>
       <c r="G570" s="0">
-        <v>5.55555555555556E-02</v>
+        <v>0.055</v>
       </c>
     </row>
     <row outlineLevel="0" r="571">
@@ -15119,7 +15119,7 @@
         <v>163</v>
       </c>
       <c r="G571" s="0">
-        <v>0.452777777777778</v>
+        <v>0.452</v>
       </c>
     </row>
     <row outlineLevel="0" r="572">
@@ -15146,7 +15146,7 @@
         <v>197</v>
       </c>
       <c r="G572" s="0">
-        <v>0.547222222222222</v>
+        <v>0.547</v>
       </c>
     </row>
     <row outlineLevel="0" r="573">
@@ -15173,6 +15173,303 @@
         <v>0</v>
       </c>
       <c r="G573" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="574">
+      <c r="A574" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B574" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C574" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D574" s="0">
+        <v>9822</v>
+      </c>
+      <c r="E574" s="0">
+        <v>0.435256580696623</v>
+      </c>
+      <c r="F574" s="0">
+        <v>203</v>
+      </c>
+      <c r="G574" s="0">
+        <v>0.557692307692308</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="575">
+      <c r="A575" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B575" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C575" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D575" s="0">
+        <v>5124</v>
+      </c>
+      <c r="E575" s="0">
+        <v>0.22706726934326</v>
+      </c>
+      <c r="F575" s="0">
+        <v>126</v>
+      </c>
+      <c r="G575" s="0">
+        <v>0.346153846153846</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="576">
+      <c r="A576" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B576" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C576" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D576" s="0">
+        <v>2713</v>
+      </c>
+      <c r="E576" s="0">
+        <v>0.120225117433307</v>
+      </c>
+      <c r="F576" s="0">
+        <v>18</v>
+      </c>
+      <c r="G576" s="0">
+        <v>4.94505494505494E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="577">
+      <c r="A577" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B577" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C577" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D577" s="0">
+        <v>410</v>
+      </c>
+      <c r="E577" s="0">
+        <v>1.81689267038908E-02</v>
+      </c>
+      <c r="F577" s="0">
+        <v>7</v>
+      </c>
+      <c r="G577" s="0">
+        <v>1.92307692307692E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="578">
+      <c r="A578" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B578" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C578" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D578" s="0">
+        <v>4497</v>
+      </c>
+      <c r="E578" s="0">
+        <v>0.199282105822919</v>
+      </c>
+      <c r="F578" s="0">
+        <v>10</v>
+      </c>
+      <c r="G578" s="0">
+        <v>2.74725274725275E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="579">
+      <c r="A579" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B579" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C579" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D579" s="0">
+        <v>11130</v>
+      </c>
+      <c r="E579" s="0">
+        <v>0.493219888327572</v>
+      </c>
+      <c r="F579" s="0">
+        <v>320</v>
+      </c>
+      <c r="G579" s="0">
+        <v>0.879120879120879</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="580">
+      <c r="A580" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B580" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C580" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D580" s="0">
+        <v>4798</v>
+      </c>
+      <c r="E580" s="0">
+        <v>0.212620756890898</v>
+      </c>
+      <c r="F580" s="0">
+        <v>23</v>
+      </c>
+      <c r="G580" s="0">
+        <v>6.31868131868132E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="581">
+      <c r="A581" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B581" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C581" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D581" s="0">
+        <v>6638</v>
+      </c>
+      <c r="E581" s="0">
+        <v>0.29415935478153</v>
+      </c>
+      <c r="F581" s="0">
+        <v>21</v>
+      </c>
+      <c r="G581" s="0">
+        <v>5.76923076923077E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="582">
+      <c r="A582" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B582" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C582" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D582" s="0">
+        <v>9508</v>
+      </c>
+      <c r="E582" s="0">
+        <v>0.421341841708765</v>
+      </c>
+      <c r="F582" s="0">
+        <v>166</v>
+      </c>
+      <c r="G582" s="0">
+        <v>0.456043956043956</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="583">
+      <c r="A583" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B583" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C583" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D583" s="0">
+        <v>12280</v>
+      </c>
+      <c r="E583" s="0">
+        <v>0.544181512009217</v>
+      </c>
+      <c r="F583" s="0">
+        <v>198</v>
+      </c>
+      <c r="G583" s="0">
+        <v>0.543956043956044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="584">
+      <c r="A584" s="1">
+        <v>43981</v>
+      </c>
+      <c r="B584" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C584" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D584" s="0">
+        <v>778</v>
+      </c>
+      <c r="E584" s="0">
+        <v>3.44766462820172E-02</v>
+      </c>
+      <c r="F584" s="0">
+        <v>0</v>
+      </c>
+      <c r="G584" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$584</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$595</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G584"/>
+  <dimension ref="A1:G595"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15200,7 +15200,7 @@
         <v>203</v>
       </c>
       <c r="G574" s="0">
-        <v>0.557692307692308</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="575">
@@ -15227,7 +15227,7 @@
         <v>126</v>
       </c>
       <c r="G575" s="0">
-        <v>0.346153846153846</v>
+        <v>0.346</v>
       </c>
     </row>
     <row outlineLevel="0" r="576">
@@ -15254,7 +15254,7 @@
         <v>18</v>
       </c>
       <c r="G576" s="0">
-        <v>4.94505494505494E-02</v>
+        <v>0.049</v>
       </c>
     </row>
     <row outlineLevel="0" r="577">
@@ -15281,7 +15281,7 @@
         <v>7</v>
       </c>
       <c r="G577" s="0">
-        <v>1.92307692307692E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="578">
@@ -15308,7 +15308,7 @@
         <v>10</v>
       </c>
       <c r="G578" s="0">
-        <v>2.74725274725275E-02</v>
+        <v>0.027</v>
       </c>
     </row>
     <row outlineLevel="0" r="579">
@@ -15335,7 +15335,7 @@
         <v>320</v>
       </c>
       <c r="G579" s="0">
-        <v>0.879120879120879</v>
+        <v>0.879</v>
       </c>
     </row>
     <row outlineLevel="0" r="580">
@@ -15362,7 +15362,7 @@
         <v>23</v>
       </c>
       <c r="G580" s="0">
-        <v>6.31868131868132E-02</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="581">
@@ -15389,7 +15389,7 @@
         <v>21</v>
       </c>
       <c r="G581" s="0">
-        <v>5.76923076923077E-02</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="582">
@@ -15416,7 +15416,7 @@
         <v>166</v>
       </c>
       <c r="G582" s="0">
-        <v>0.456043956043956</v>
+        <v>0.456</v>
       </c>
     </row>
     <row outlineLevel="0" r="583">
@@ -15443,7 +15443,7 @@
         <v>198</v>
       </c>
       <c r="G583" s="0">
-        <v>0.543956043956044</v>
+        <v>0.543</v>
       </c>
     </row>
     <row outlineLevel="0" r="584">
@@ -15470,6 +15470,303 @@
         <v>0</v>
       </c>
       <c r="G584" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="585">
+      <c r="A585" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B585" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C585" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D585" s="0">
+        <v>9934</v>
+      </c>
+      <c r="E585" s="0">
+        <v>0.431800399895679</v>
+      </c>
+      <c r="F585" s="0">
+        <v>203</v>
+      </c>
+      <c r="G585" s="0">
+        <v>0.557692307692308</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="586">
+      <c r="A586" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B586" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C586" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D586" s="0">
+        <v>5202</v>
+      </c>
+      <c r="E586" s="0">
+        <v>0.226114926540902</v>
+      </c>
+      <c r="F586" s="0">
+        <v>127</v>
+      </c>
+      <c r="G586" s="0">
+        <v>0.348901098901099</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="587">
+      <c r="A587" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B587" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C587" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D587" s="0">
+        <v>2799</v>
+      </c>
+      <c r="E587" s="0">
+        <v>0.121663913761627</v>
+      </c>
+      <c r="F587" s="0">
+        <v>18</v>
+      </c>
+      <c r="G587" s="0">
+        <v>4.94505494505494E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="588">
+      <c r="A588" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B588" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C588" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D588" s="0">
+        <v>411</v>
+      </c>
+      <c r="E588" s="0">
+        <v>1.78649048074415E-02</v>
+      </c>
+      <c r="F588" s="0">
+        <v>7</v>
+      </c>
+      <c r="G588" s="0">
+        <v>1.92307692307692E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="589">
+      <c r="A589" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B589" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C589" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D589" s="0">
+        <v>4660</v>
+      </c>
+      <c r="E589" s="0">
+        <v>0.202555854994349</v>
+      </c>
+      <c r="F589" s="0">
+        <v>9</v>
+      </c>
+      <c r="G589" s="0">
+        <v>2.47252747252747E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="590">
+      <c r="A590" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B590" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C590" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D590" s="0">
+        <v>11275</v>
+      </c>
+      <c r="E590" s="0">
+        <v>0.490089541858646</v>
+      </c>
+      <c r="F590" s="0">
+        <v>321</v>
+      </c>
+      <c r="G590" s="0">
+        <v>0.881868131868132</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="591">
+      <c r="A591" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B591" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C591" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D591" s="0">
+        <v>4930</v>
+      </c>
+      <c r="E591" s="0">
+        <v>0.214291923845953</v>
+      </c>
+      <c r="F591" s="0">
+        <v>23</v>
+      </c>
+      <c r="G591" s="0">
+        <v>6.31868131868132E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="592">
+      <c r="A592" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B592" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C592" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D592" s="0">
+        <v>6801</v>
+      </c>
+      <c r="E592" s="0">
+        <v>0.295618534295401</v>
+      </c>
+      <c r="F592" s="0">
+        <v>20</v>
+      </c>
+      <c r="G592" s="0">
+        <v>5.49450549450549E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="593">
+      <c r="A593" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B593" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C593" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D593" s="0">
+        <v>9717</v>
+      </c>
+      <c r="E593" s="0">
+        <v>0.422368077892724</v>
+      </c>
+      <c r="F593" s="0">
+        <v>166</v>
+      </c>
+      <c r="G593" s="0">
+        <v>0.456043956043956</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="594">
+      <c r="A594" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B594" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C594" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D594" s="0">
+        <v>12507</v>
+      </c>
+      <c r="E594" s="0">
+        <v>0.543640789359298</v>
+      </c>
+      <c r="F594" s="0">
+        <v>198</v>
+      </c>
+      <c r="G594" s="0">
+        <v>0.543956043956044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="595">
+      <c r="A595" s="1">
+        <v>43982</v>
+      </c>
+      <c r="B595" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C595" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D595" s="0">
+        <v>782</v>
+      </c>
+      <c r="E595" s="0">
+        <v>3.39911327479788E-02</v>
+      </c>
+      <c r="F595" s="0">
+        <v>0</v>
+      </c>
+      <c r="G595" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$595</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$606</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G595"/>
+  <dimension ref="A1:G606"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15497,7 +15497,7 @@
         <v>203</v>
       </c>
       <c r="G585" s="0">
-        <v>0.557692307692308</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="586">
@@ -15524,7 +15524,7 @@
         <v>127</v>
       </c>
       <c r="G586" s="0">
-        <v>0.348901098901099</v>
+        <v>0.348</v>
       </c>
     </row>
     <row outlineLevel="0" r="587">
@@ -15551,7 +15551,7 @@
         <v>18</v>
       </c>
       <c r="G587" s="0">
-        <v>4.94505494505494E-02</v>
+        <v>0.049</v>
       </c>
     </row>
     <row outlineLevel="0" r="588">
@@ -15578,7 +15578,7 @@
         <v>7</v>
       </c>
       <c r="G588" s="0">
-        <v>1.92307692307692E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="589">
@@ -15605,7 +15605,7 @@
         <v>9</v>
       </c>
       <c r="G589" s="0">
-        <v>2.47252747252747E-02</v>
+        <v>0.024</v>
       </c>
     </row>
     <row outlineLevel="0" r="590">
@@ -15632,7 +15632,7 @@
         <v>321</v>
       </c>
       <c r="G590" s="0">
-        <v>0.881868131868132</v>
+        <v>0.881</v>
       </c>
     </row>
     <row outlineLevel="0" r="591">
@@ -15659,7 +15659,7 @@
         <v>23</v>
       </c>
       <c r="G591" s="0">
-        <v>6.31868131868132E-02</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="592">
@@ -15686,7 +15686,7 @@
         <v>20</v>
       </c>
       <c r="G592" s="0">
-        <v>5.49450549450549E-02</v>
+        <v>0.054</v>
       </c>
     </row>
     <row outlineLevel="0" r="593">
@@ -15713,7 +15713,7 @@
         <v>166</v>
       </c>
       <c r="G593" s="0">
-        <v>0.456043956043956</v>
+        <v>0.456</v>
       </c>
     </row>
     <row outlineLevel="0" r="594">
@@ -15740,7 +15740,7 @@
         <v>198</v>
       </c>
       <c r="G594" s="0">
-        <v>0.543956043956044</v>
+        <v>0.543</v>
       </c>
     </row>
     <row outlineLevel="0" r="595">
@@ -15767,6 +15767,303 @@
         <v>0</v>
       </c>
       <c r="G595" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="596">
+      <c r="A596" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B596" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C596" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D596" s="0">
+        <v>10114</v>
+      </c>
+      <c r="E596" s="0">
+        <v>0.429396280886474</v>
+      </c>
+      <c r="F596" s="0">
+        <v>205</v>
+      </c>
+      <c r="G596" s="0">
+        <v>0.55858310626703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="597">
+      <c r="A597" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B597" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C597" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D597" s="0">
+        <v>5265</v>
+      </c>
+      <c r="E597" s="0">
+        <v>0.22352891228666</v>
+      </c>
+      <c r="F597" s="0">
+        <v>129</v>
+      </c>
+      <c r="G597" s="0">
+        <v>0.35149863760218</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="598">
+      <c r="A598" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B598" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C598" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D598" s="0">
+        <v>2866</v>
+      </c>
+      <c r="E598" s="0">
+        <v>0.12167784665025</v>
+      </c>
+      <c r="F598" s="0">
+        <v>18</v>
+      </c>
+      <c r="G598" s="0">
+        <v>4.90463215258856E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="599">
+      <c r="A599" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B599" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C599" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D599" s="0">
+        <v>413</v>
+      </c>
+      <c r="E599" s="0">
+        <v>1.75341767852594E-02</v>
+      </c>
+      <c r="F599" s="0">
+        <v>7</v>
+      </c>
+      <c r="G599" s="0">
+        <v>1.90735694822888E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="600">
+      <c r="A600" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B600" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C600" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D600" s="0">
+        <v>4896</v>
+      </c>
+      <c r="E600" s="0">
+        <v>0.207862783391356</v>
+      </c>
+      <c r="F600" s="0">
+        <v>8</v>
+      </c>
+      <c r="G600" s="0">
+        <v>2.17983651226158E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="601">
+      <c r="A601" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B601" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C601" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D601" s="0">
+        <v>11446</v>
+      </c>
+      <c r="E601" s="0">
+        <v>0.485947185191475</v>
+      </c>
+      <c r="F601" s="0">
+        <v>325</v>
+      </c>
+      <c r="G601" s="0">
+        <v>0.885558583106267</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="602">
+      <c r="A602" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B602" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C602" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D602" s="0">
+        <v>5144</v>
+      </c>
+      <c r="E602" s="0">
+        <v>0.218391780589284</v>
+      </c>
+      <c r="F602" s="0">
+        <v>23</v>
+      </c>
+      <c r="G602" s="0">
+        <v>6.26702997275204E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="603">
+      <c r="A603" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B603" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C603" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D603" s="0">
+        <v>6964</v>
+      </c>
+      <c r="E603" s="0">
+        <v>0.295661034219241</v>
+      </c>
+      <c r="F603" s="0">
+        <v>19</v>
+      </c>
+      <c r="G603" s="0">
+        <v>5.17711171662125E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="604">
+      <c r="A604" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B604" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C604" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D604" s="0">
+        <v>9959</v>
+      </c>
+      <c r="E604" s="0">
+        <v>0.422815657637769</v>
+      </c>
+      <c r="F604" s="0">
+        <v>168</v>
+      </c>
+      <c r="G604" s="0">
+        <v>0.457765667574932</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="605">
+      <c r="A605" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B605" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C605" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D605" s="0">
+        <v>12812</v>
+      </c>
+      <c r="E605" s="0">
+        <v>0.543941581047805</v>
+      </c>
+      <c r="F605" s="0">
+        <v>199</v>
+      </c>
+      <c r="G605" s="0">
+        <v>0.542234332425068</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="606">
+      <c r="A606" s="1">
+        <v>43983</v>
+      </c>
+      <c r="B606" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C606" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D606" s="0">
+        <v>783</v>
+      </c>
+      <c r="E606" s="0">
+        <v>3.32427613144264E-02</v>
+      </c>
+      <c r="F606" s="0">
+        <v>0</v>
+      </c>
+      <c r="G606" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$606</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$617</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G606"/>
+  <dimension ref="A1:G617"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -15794,7 +15794,7 @@
         <v>205</v>
       </c>
       <c r="G596" s="0">
-        <v>0.55858310626703</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="597">
@@ -15821,7 +15821,7 @@
         <v>129</v>
       </c>
       <c r="G597" s="0">
-        <v>0.35149863760218</v>
+        <v>0.351</v>
       </c>
     </row>
     <row outlineLevel="0" r="598">
@@ -15848,7 +15848,7 @@
         <v>18</v>
       </c>
       <c r="G598" s="0">
-        <v>4.90463215258856E-02</v>
+        <v>0.049</v>
       </c>
     </row>
     <row outlineLevel="0" r="599">
@@ -15875,7 +15875,7 @@
         <v>7</v>
       </c>
       <c r="G599" s="0">
-        <v>1.90735694822888E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="600">
@@ -15902,7 +15902,7 @@
         <v>8</v>
       </c>
       <c r="G600" s="0">
-        <v>2.17983651226158E-02</v>
+        <v>0.021</v>
       </c>
     </row>
     <row outlineLevel="0" r="601">
@@ -15929,7 +15929,7 @@
         <v>325</v>
       </c>
       <c r="G601" s="0">
-        <v>0.885558583106267</v>
+        <v>0.885</v>
       </c>
     </row>
     <row outlineLevel="0" r="602">
@@ -15956,7 +15956,7 @@
         <v>23</v>
       </c>
       <c r="G602" s="0">
-        <v>6.26702997275204E-02</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="603">
@@ -15983,7 +15983,7 @@
         <v>19</v>
       </c>
       <c r="G603" s="0">
-        <v>5.17711171662125E-02</v>
+        <v>0.051</v>
       </c>
     </row>
     <row outlineLevel="0" r="604">
@@ -16010,7 +16010,7 @@
         <v>168</v>
       </c>
       <c r="G604" s="0">
-        <v>0.457765667574932</v>
+        <v>0.457</v>
       </c>
     </row>
     <row outlineLevel="0" r="605">
@@ -16037,7 +16037,7 @@
         <v>199</v>
       </c>
       <c r="G605" s="0">
-        <v>0.542234332425068</v>
+        <v>0.542</v>
       </c>
     </row>
     <row outlineLevel="0" r="606">
@@ -16064,6 +16064,303 @@
         <v>0</v>
       </c>
       <c r="G606" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="607">
+      <c r="A607" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B607" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C607" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D607" s="0">
+        <v>10340</v>
+      </c>
+      <c r="E607" s="0">
+        <v>0.424205128205128</v>
+      </c>
+      <c r="F607" s="0">
+        <v>212</v>
+      </c>
+      <c r="G607" s="0">
+        <v>0.556430446194226</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="608">
+      <c r="A608" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B608" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C608" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D608" s="0">
+        <v>5378</v>
+      </c>
+      <c r="E608" s="0">
+        <v>0.220635897435897</v>
+      </c>
+      <c r="F608" s="0">
+        <v>131</v>
+      </c>
+      <c r="G608" s="0">
+        <v>0.343832020997375</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="609">
+      <c r="A609" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B609" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C609" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D609" s="0">
+        <v>3345</v>
+      </c>
+      <c r="E609" s="0">
+        <v>0.137230769230769</v>
+      </c>
+      <c r="F609" s="0">
+        <v>19</v>
+      </c>
+      <c r="G609" s="0">
+        <v>4.98687664041995E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="610">
+      <c r="A610" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B610" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C610" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D610" s="0">
+        <v>417</v>
+      </c>
+      <c r="E610" s="0">
+        <v>1.71076923076923E-02</v>
+      </c>
+      <c r="F610" s="0">
+        <v>7</v>
+      </c>
+      <c r="G610" s="0">
+        <v>1.83727034120735E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="611">
+      <c r="A611" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B611" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C611" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D611" s="0">
+        <v>4895</v>
+      </c>
+      <c r="E611" s="0">
+        <v>0.200820512820513</v>
+      </c>
+      <c r="F611" s="0">
+        <v>12</v>
+      </c>
+      <c r="G611" s="0">
+        <v>0.031496062992126</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="612">
+      <c r="A612" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B612" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C612" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D612" s="0">
+        <v>11668</v>
+      </c>
+      <c r="E612" s="0">
+        <v>0.478687179487179</v>
+      </c>
+      <c r="F612" s="0">
+        <v>332</v>
+      </c>
+      <c r="G612" s="0">
+        <v>0.871391076115486</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="613">
+      <c r="A613" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B613" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C613" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D613" s="0">
+        <v>5368</v>
+      </c>
+      <c r="E613" s="0">
+        <v>0.220225641025641</v>
+      </c>
+      <c r="F613" s="0">
+        <v>26</v>
+      </c>
+      <c r="G613" s="0">
+        <v>0.068241469816273</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="614">
+      <c r="A614" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B614" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C614" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D614" s="0">
+        <v>7339</v>
+      </c>
+      <c r="E614" s="0">
+        <v>0.30108717948718</v>
+      </c>
+      <c r="F614" s="0">
+        <v>23</v>
+      </c>
+      <c r="G614" s="0">
+        <v>6.03674540682415E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="615">
+      <c r="A615" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B615" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C615" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D615" s="0">
+        <v>10175</v>
+      </c>
+      <c r="E615" s="0">
+        <v>0.417435897435897</v>
+      </c>
+      <c r="F615" s="0">
+        <v>175</v>
+      </c>
+      <c r="G615" s="0">
+        <v>0.459317585301837</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="616">
+      <c r="A616" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B616" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C616" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D616" s="0">
+        <v>13119</v>
+      </c>
+      <c r="E616" s="0">
+        <v>0.538215384615385</v>
+      </c>
+      <c r="F616" s="0">
+        <v>206</v>
+      </c>
+      <c r="G616" s="0">
+        <v>0.540682414698163</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="617">
+      <c r="A617" s="1">
+        <v>43984</v>
+      </c>
+      <c r="B617" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C617" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D617" s="0">
+        <v>1081</v>
+      </c>
+      <c r="E617" s="0">
+        <v>4.43487179487179E-02</v>
+      </c>
+      <c r="F617" s="0">
+        <v>0</v>
+      </c>
+      <c r="G617" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$617</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$628</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G617"/>
+  <dimension ref="A1:G628"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16091,7 +16091,7 @@
         <v>212</v>
       </c>
       <c r="G607" s="0">
-        <v>0.556430446194226</v>
+        <v>0.556</v>
       </c>
     </row>
     <row outlineLevel="0" r="608">
@@ -16118,7 +16118,7 @@
         <v>131</v>
       </c>
       <c r="G608" s="0">
-        <v>0.343832020997375</v>
+        <v>0.343</v>
       </c>
     </row>
     <row outlineLevel="0" r="609">
@@ -16145,7 +16145,7 @@
         <v>19</v>
       </c>
       <c r="G609" s="0">
-        <v>4.98687664041995E-02</v>
+        <v>0.049</v>
       </c>
     </row>
     <row outlineLevel="0" r="610">
@@ -16172,7 +16172,7 @@
         <v>7</v>
       </c>
       <c r="G610" s="0">
-        <v>1.83727034120735E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="611">
@@ -16199,7 +16199,7 @@
         <v>12</v>
       </c>
       <c r="G611" s="0">
-        <v>0.031496062992126</v>
+        <v>0.031</v>
       </c>
     </row>
     <row outlineLevel="0" r="612">
@@ -16226,7 +16226,7 @@
         <v>332</v>
       </c>
       <c r="G612" s="0">
-        <v>0.871391076115486</v>
+        <v>0.871</v>
       </c>
     </row>
     <row outlineLevel="0" r="613">
@@ -16253,7 +16253,7 @@
         <v>26</v>
       </c>
       <c r="G613" s="0">
-        <v>0.068241469816273</v>
+        <v>0.068</v>
       </c>
     </row>
     <row outlineLevel="0" r="614">
@@ -16280,7 +16280,7 @@
         <v>23</v>
       </c>
       <c r="G614" s="0">
-        <v>6.03674540682415E-02</v>
+        <v>0.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="615">
@@ -16307,7 +16307,7 @@
         <v>175</v>
       </c>
       <c r="G615" s="0">
-        <v>0.459317585301837</v>
+        <v>0.459</v>
       </c>
     </row>
     <row outlineLevel="0" r="616">
@@ -16334,7 +16334,7 @@
         <v>206</v>
       </c>
       <c r="G616" s="0">
-        <v>0.540682414698163</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="617">
@@ -16361,6 +16361,303 @@
         <v>0</v>
       </c>
       <c r="G617" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="618">
+      <c r="A618" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B618" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C618" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D618" s="0">
+        <v>10589</v>
+      </c>
+      <c r="E618" s="0">
+        <v>0.426597373297881</v>
+      </c>
+      <c r="F618" s="0">
+        <v>214</v>
+      </c>
+      <c r="G618" s="0">
+        <v>0.551546391752577</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="619">
+      <c r="A619" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B619" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C619" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D619" s="0">
+        <v>5472</v>
+      </c>
+      <c r="E619" s="0">
+        <v>0.220449601160261</v>
+      </c>
+      <c r="F619" s="0">
+        <v>131</v>
+      </c>
+      <c r="G619" s="0">
+        <v>0.337628865979381</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="620">
+      <c r="A620" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B620" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C620" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D620" s="0">
+        <v>3546</v>
+      </c>
+      <c r="E620" s="0">
+        <v>0.142857142857143</v>
+      </c>
+      <c r="F620" s="0">
+        <v>21</v>
+      </c>
+      <c r="G620" s="0">
+        <v>5.41237113402062E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="621">
+      <c r="A621" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B621" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C621" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D621" s="0">
+        <v>423</v>
+      </c>
+      <c r="E621" s="0">
+        <v>1.70413343002176E-02</v>
+      </c>
+      <c r="F621" s="0">
+        <v>7</v>
+      </c>
+      <c r="G621" s="0">
+        <v>1.80412371134021E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="622">
+      <c r="A622" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B622" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C622" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D622" s="0">
+        <v>4792</v>
+      </c>
+      <c r="E622" s="0">
+        <v>0.193054548384498</v>
+      </c>
+      <c r="F622" s="0">
+        <v>15</v>
+      </c>
+      <c r="G622" s="0">
+        <v>0.038659793814433</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="623">
+      <c r="A623" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B623" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C623" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D623" s="0">
+        <v>11937</v>
+      </c>
+      <c r="E623" s="0">
+        <v>0.4809040367416</v>
+      </c>
+      <c r="F623" s="0">
+        <v>333</v>
+      </c>
+      <c r="G623" s="0">
+        <v>0.858247422680412</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="624">
+      <c r="A624" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B624" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C624" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D624" s="0">
+        <v>5613</v>
+      </c>
+      <c r="E624" s="0">
+        <v>0.226130045927</v>
+      </c>
+      <c r="F624" s="0">
+        <v>28</v>
+      </c>
+      <c r="G624" s="0">
+        <v>7.21649484536082E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="625">
+      <c r="A625" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B625" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C625" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D625" s="0">
+        <v>7272</v>
+      </c>
+      <c r="E625" s="0">
+        <v>0.2929659173314</v>
+      </c>
+      <c r="F625" s="0">
+        <v>27</v>
+      </c>
+      <c r="G625" s="0">
+        <v>6.95876288659794E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="626">
+      <c r="A626" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B626" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C626" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D626" s="0">
+        <v>10369</v>
+      </c>
+      <c r="E626" s="0">
+        <v>0.417734267988075</v>
+      </c>
+      <c r="F626" s="0">
+        <v>179</v>
+      </c>
+      <c r="G626" s="0">
+        <v>0.461340206185567</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="627">
+      <c r="A627" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B627" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C627" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D627" s="0">
+        <v>13448</v>
+      </c>
+      <c r="E627" s="0">
+        <v>0.541777455483039</v>
+      </c>
+      <c r="F627" s="0">
+        <v>209</v>
+      </c>
+      <c r="G627" s="0">
+        <v>0.538659793814433</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="628">
+      <c r="A628" s="1">
+        <v>43985</v>
+      </c>
+      <c r="B628" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C628" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D628" s="0">
+        <v>1005</v>
+      </c>
+      <c r="E628" s="0">
+        <v>4.04882765288857E-02</v>
+      </c>
+      <c r="F628" s="0">
+        <v>0</v>
+      </c>
+      <c r="G628" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$628</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$639</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G628"/>
+  <dimension ref="A1:G639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16388,7 +16388,7 @@
         <v>214</v>
       </c>
       <c r="G618" s="0">
-        <v>0.551546391752577</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="619">
@@ -16415,7 +16415,7 @@
         <v>131</v>
       </c>
       <c r="G619" s="0">
-        <v>0.337628865979381</v>
+        <v>0.337</v>
       </c>
     </row>
     <row outlineLevel="0" r="620">
@@ -16442,7 +16442,7 @@
         <v>21</v>
       </c>
       <c r="G620" s="0">
-        <v>5.41237113402062E-02</v>
+        <v>0.054</v>
       </c>
     </row>
     <row outlineLevel="0" r="621">
@@ -16469,7 +16469,7 @@
         <v>7</v>
       </c>
       <c r="G621" s="0">
-        <v>1.80412371134021E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="622">
@@ -16496,7 +16496,7 @@
         <v>15</v>
       </c>
       <c r="G622" s="0">
-        <v>0.038659793814433</v>
+        <v>0.038</v>
       </c>
     </row>
     <row outlineLevel="0" r="623">
@@ -16523,7 +16523,7 @@
         <v>333</v>
       </c>
       <c r="G623" s="0">
-        <v>0.858247422680412</v>
+        <v>0.858</v>
       </c>
     </row>
     <row outlineLevel="0" r="624">
@@ -16550,7 +16550,7 @@
         <v>28</v>
       </c>
       <c r="G624" s="0">
-        <v>7.21649484536082E-02</v>
+        <v>0.072</v>
       </c>
     </row>
     <row outlineLevel="0" r="625">
@@ -16577,7 +16577,7 @@
         <v>27</v>
       </c>
       <c r="G625" s="0">
-        <v>6.95876288659794E-02</v>
+        <v>0.069</v>
       </c>
     </row>
     <row outlineLevel="0" r="626">
@@ -16604,7 +16604,7 @@
         <v>179</v>
       </c>
       <c r="G626" s="0">
-        <v>0.461340206185567</v>
+        <v>0.461</v>
       </c>
     </row>
     <row outlineLevel="0" r="627">
@@ -16631,7 +16631,7 @@
         <v>209</v>
       </c>
       <c r="G627" s="0">
-        <v>0.538659793814433</v>
+        <v>0.538</v>
       </c>
     </row>
     <row outlineLevel="0" r="628">
@@ -16658,6 +16658,303 @@
         <v>0</v>
       </c>
       <c r="G628" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="629">
+      <c r="A629" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B629" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C629" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D629" s="0">
+        <v>10736</v>
+      </c>
+      <c r="E629" s="0">
+        <v>0.427388535031847</v>
+      </c>
+      <c r="F629" s="0">
+        <v>223</v>
+      </c>
+      <c r="G629" s="0">
+        <v>0.556109725685786</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="630">
+      <c r="A630" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B630" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C630" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D630" s="0">
+        <v>5551</v>
+      </c>
+      <c r="E630" s="0">
+        <v>0.220979299363057</v>
+      </c>
+      <c r="F630" s="0">
+        <v>136</v>
+      </c>
+      <c r="G630" s="0">
+        <v>0.339152119700748</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="631">
+      <c r="A631" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B631" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C631" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D631" s="0">
+        <v>3613</v>
+      </c>
+      <c r="E631" s="0">
+        <v>0.143829617834395</v>
+      </c>
+      <c r="F631" s="0">
+        <v>21</v>
+      </c>
+      <c r="G631" s="0">
+        <v>5.23690773067332E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="632">
+      <c r="A632" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B632" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C632" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D632" s="0">
+        <v>427</v>
+      </c>
+      <c r="E632" s="0">
+        <v>1.69984076433121E-02</v>
+      </c>
+      <c r="F632" s="0">
+        <v>7</v>
+      </c>
+      <c r="G632" s="0">
+        <v>1.74563591022444E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="633">
+      <c r="A633" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B633" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C633" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D633" s="0">
+        <v>4793</v>
+      </c>
+      <c r="E633" s="0">
+        <v>0.190804140127389</v>
+      </c>
+      <c r="F633" s="0">
+        <v>14</v>
+      </c>
+      <c r="G633" s="0">
+        <v>3.49127182044888E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="634">
+      <c r="A634" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B634" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C634" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D634" s="0">
+        <v>12130</v>
+      </c>
+      <c r="E634" s="0">
+        <v>0.482882165605096</v>
+      </c>
+      <c r="F634" s="0">
+        <v>346</v>
+      </c>
+      <c r="G634" s="0">
+        <v>0.86284289276808</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="635">
+      <c r="A635" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B635" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C635" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D635" s="0">
+        <v>5773</v>
+      </c>
+      <c r="E635" s="0">
+        <v>0.229816878980892</v>
+      </c>
+      <c r="F635" s="0">
+        <v>30</v>
+      </c>
+      <c r="G635" s="0">
+        <v>7.48129675810474E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="636">
+      <c r="A636" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B636" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C636" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D636" s="0">
+        <v>7217</v>
+      </c>
+      <c r="E636" s="0">
+        <v>0.287300955414013</v>
+      </c>
+      <c r="F636" s="0">
+        <v>25</v>
+      </c>
+      <c r="G636" s="0">
+        <v>6.23441396508728E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="637">
+      <c r="A637" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B637" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C637" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D637" s="0">
+        <v>10527</v>
+      </c>
+      <c r="E637" s="0">
+        <v>0.41906847133758</v>
+      </c>
+      <c r="F637" s="0">
+        <v>187</v>
+      </c>
+      <c r="G637" s="0">
+        <v>0.466334164588529</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="638">
+      <c r="A638" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B638" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C638" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D638" s="0">
+        <v>13617</v>
+      </c>
+      <c r="E638" s="0">
+        <v>0.542078025477707</v>
+      </c>
+      <c r="F638" s="0">
+        <v>214</v>
+      </c>
+      <c r="G638" s="0">
+        <v>0.533665835411471</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="639">
+      <c r="A639" s="1">
+        <v>43986</v>
+      </c>
+      <c r="B639" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C639" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D639" s="0">
+        <v>976</v>
+      </c>
+      <c r="E639" s="0">
+        <v>3.88535031847134E-02</v>
+      </c>
+      <c r="F639" s="0">
+        <v>0</v>
+      </c>
+      <c r="G639" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$639</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$650</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G639"/>
+  <dimension ref="A1:G650"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16685,7 +16685,7 @@
         <v>223</v>
       </c>
       <c r="G629" s="0">
-        <v>0.556109725685786</v>
+        <v>0.556</v>
       </c>
     </row>
     <row outlineLevel="0" r="630">
@@ -16712,7 +16712,7 @@
         <v>136</v>
       </c>
       <c r="G630" s="0">
-        <v>0.339152119700748</v>
+        <v>0.339</v>
       </c>
     </row>
     <row outlineLevel="0" r="631">
@@ -16739,7 +16739,7 @@
         <v>21</v>
       </c>
       <c r="G631" s="0">
-        <v>5.23690773067332E-02</v>
+        <v>0.052</v>
       </c>
     </row>
     <row outlineLevel="0" r="632">
@@ -16766,7 +16766,7 @@
         <v>7</v>
       </c>
       <c r="G632" s="0">
-        <v>1.74563591022444E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="633">
@@ -16793,7 +16793,7 @@
         <v>14</v>
       </c>
       <c r="G633" s="0">
-        <v>3.49127182044888E-02</v>
+        <v>0.034</v>
       </c>
     </row>
     <row outlineLevel="0" r="634">
@@ -16820,7 +16820,7 @@
         <v>346</v>
       </c>
       <c r="G634" s="0">
-        <v>0.86284289276808</v>
+        <v>0.862</v>
       </c>
     </row>
     <row outlineLevel="0" r="635">
@@ -16847,7 +16847,7 @@
         <v>30</v>
       </c>
       <c r="G635" s="0">
-        <v>7.48129675810474E-02</v>
+        <v>0.074</v>
       </c>
     </row>
     <row outlineLevel="0" r="636">
@@ -16874,7 +16874,7 @@
         <v>25</v>
       </c>
       <c r="G636" s="0">
-        <v>6.23441396508728E-02</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="637">
@@ -16901,7 +16901,7 @@
         <v>187</v>
       </c>
       <c r="G637" s="0">
-        <v>0.466334164588529</v>
+        <v>0.466</v>
       </c>
     </row>
     <row outlineLevel="0" r="638">
@@ -16928,7 +16928,7 @@
         <v>214</v>
       </c>
       <c r="G638" s="0">
-        <v>0.533665835411471</v>
+        <v>0.533</v>
       </c>
     </row>
     <row outlineLevel="0" r="639">
@@ -16955,6 +16955,303 @@
         <v>0</v>
       </c>
       <c r="G639" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="640">
+      <c r="A640" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B640" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C640" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D640" s="0">
+        <v>10989</v>
+      </c>
+      <c r="E640" s="0">
+        <v>0.430603448275862</v>
+      </c>
+      <c r="F640" s="0">
+        <v>228</v>
+      </c>
+      <c r="G640" s="0">
+        <v>0.558823529411765</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="641">
+      <c r="A641" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B641" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C641" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D641" s="0">
+        <v>5717</v>
+      </c>
+      <c r="E641" s="0">
+        <v>0.224020376175549</v>
+      </c>
+      <c r="F641" s="0">
+        <v>138</v>
+      </c>
+      <c r="G641" s="0">
+        <v>0.338235294117647</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="642">
+      <c r="A642" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B642" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C642" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D642" s="0">
+        <v>3666</v>
+      </c>
+      <c r="E642" s="0">
+        <v>0.143652037617555</v>
+      </c>
+      <c r="F642" s="0">
+        <v>21</v>
+      </c>
+      <c r="G642" s="0">
+        <v>5.14705882352941E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="643">
+      <c r="A643" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B643" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C643" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D643" s="0">
+        <v>434</v>
+      </c>
+      <c r="E643" s="0">
+        <v>1.70062695924765E-02</v>
+      </c>
+      <c r="F643" s="0">
+        <v>7</v>
+      </c>
+      <c r="G643" s="0">
+        <v>0.017156862745098</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="644">
+      <c r="A644" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B644" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C644" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D644" s="0">
+        <v>4714</v>
+      </c>
+      <c r="E644" s="0">
+        <v>0.184717868338558</v>
+      </c>
+      <c r="F644" s="0">
+        <v>14</v>
+      </c>
+      <c r="G644" s="0">
+        <v>3.43137254901961E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="645">
+      <c r="A645" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B645" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C645" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D645" s="0">
+        <v>12365</v>
+      </c>
+      <c r="E645" s="0">
+        <v>0.484521943573668</v>
+      </c>
+      <c r="F645" s="0">
+        <v>351</v>
+      </c>
+      <c r="G645" s="0">
+        <v>0.860294117647059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="646">
+      <c r="A646" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B646" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C646" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D646" s="0">
+        <v>5972</v>
+      </c>
+      <c r="E646" s="0">
+        <v>0.234012539184953</v>
+      </c>
+      <c r="F646" s="0">
+        <v>31</v>
+      </c>
+      <c r="G646" s="0">
+        <v>7.59803921568627E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="647">
+      <c r="A647" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B647" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C647" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D647" s="0">
+        <v>7183</v>
+      </c>
+      <c r="E647" s="0">
+        <v>0.281465517241379</v>
+      </c>
+      <c r="F647" s="0">
+        <v>26</v>
+      </c>
+      <c r="G647" s="0">
+        <v>6.37254901960784E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="648">
+      <c r="A648" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B648" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C648" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D648" s="0">
+        <v>10742</v>
+      </c>
+      <c r="E648" s="0">
+        <v>0.420924764890282</v>
+      </c>
+      <c r="F648" s="0">
+        <v>189</v>
+      </c>
+      <c r="G648" s="0">
+        <v>0.463235294117647</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="649">
+      <c r="A649" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B649" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C649" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D649" s="0">
+        <v>13819</v>
+      </c>
+      <c r="E649" s="0">
+        <v>0.541496865203762</v>
+      </c>
+      <c r="F649" s="0">
+        <v>219</v>
+      </c>
+      <c r="G649" s="0">
+        <v>0.536764705882353</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="650">
+      <c r="A650" s="1">
+        <v>43987</v>
+      </c>
+      <c r="B650" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C650" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D650" s="0">
+        <v>959</v>
+      </c>
+      <c r="E650" s="0">
+        <v>3.75783699059561E-02</v>
+      </c>
+      <c r="F650" s="0">
+        <v>0</v>
+      </c>
+      <c r="G650" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$650</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$661</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G650"/>
+  <dimension ref="A1:G661"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -16982,7 +16982,7 @@
         <v>228</v>
       </c>
       <c r="G640" s="0">
-        <v>0.558823529411765</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="641">
@@ -17009,7 +17009,7 @@
         <v>138</v>
       </c>
       <c r="G641" s="0">
-        <v>0.338235294117647</v>
+        <v>0.338</v>
       </c>
     </row>
     <row outlineLevel="0" r="642">
@@ -17036,7 +17036,7 @@
         <v>21</v>
       </c>
       <c r="G642" s="0">
-        <v>5.14705882352941E-02</v>
+        <v>0.051</v>
       </c>
     </row>
     <row outlineLevel="0" r="643">
@@ -17063,7 +17063,7 @@
         <v>7</v>
       </c>
       <c r="G643" s="0">
-        <v>0.017156862745098</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="644">
@@ -17090,7 +17090,7 @@
         <v>14</v>
       </c>
       <c r="G644" s="0">
-        <v>3.43137254901961E-02</v>
+        <v>0.034</v>
       </c>
     </row>
     <row outlineLevel="0" r="645">
@@ -17117,7 +17117,7 @@
         <v>351</v>
       </c>
       <c r="G645" s="0">
-        <v>0.860294117647059</v>
+        <v>0.86</v>
       </c>
     </row>
     <row outlineLevel="0" r="646">
@@ -17144,7 +17144,7 @@
         <v>31</v>
       </c>
       <c r="G646" s="0">
-        <v>7.59803921568627E-02</v>
+        <v>0.075</v>
       </c>
     </row>
     <row outlineLevel="0" r="647">
@@ -17171,7 +17171,7 @@
         <v>26</v>
       </c>
       <c r="G647" s="0">
-        <v>6.37254901960784E-02</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="648">
@@ -17198,7 +17198,7 @@
         <v>189</v>
       </c>
       <c r="G648" s="0">
-        <v>0.463235294117647</v>
+        <v>0.463</v>
       </c>
     </row>
     <row outlineLevel="0" r="649">
@@ -17225,7 +17225,7 @@
         <v>219</v>
       </c>
       <c r="G649" s="0">
-        <v>0.536764705882353</v>
+        <v>0.536</v>
       </c>
     </row>
     <row outlineLevel="0" r="650">
@@ -17252,6 +17252,303 @@
         <v>0</v>
       </c>
       <c r="G650" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="651">
+      <c r="A651" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B651" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C651" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D651" s="0">
+        <v>11179</v>
+      </c>
+      <c r="E651" s="0">
+        <v>0.428790610256607</v>
+      </c>
+      <c r="F651" s="0">
+        <v>231</v>
+      </c>
+      <c r="G651" s="0">
+        <v>0.553956834532374</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="652">
+      <c r="A652" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B652" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C652" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D652" s="0">
+        <v>5784</v>
+      </c>
+      <c r="E652" s="0">
+        <v>0.221855701737563</v>
+      </c>
+      <c r="F652" s="0">
+        <v>141</v>
+      </c>
+      <c r="G652" s="0">
+        <v>0.338129496402878</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="653">
+      <c r="A653" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B653" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C653" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D653" s="0">
+        <v>3833</v>
+      </c>
+      <c r="E653" s="0">
+        <v>0.147021594875532</v>
+      </c>
+      <c r="F653" s="0">
+        <v>22</v>
+      </c>
+      <c r="G653" s="0">
+        <v>0.052757793764988</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="654">
+      <c r="A654" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B654" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C654" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D654" s="0">
+        <v>439</v>
+      </c>
+      <c r="E654" s="0">
+        <v>1.68386329638295E-02</v>
+      </c>
+      <c r="F654" s="0">
+        <v>8</v>
+      </c>
+      <c r="G654" s="0">
+        <v>1.91846522781775E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="655">
+      <c r="A655" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B655" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C655" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D655" s="0">
+        <v>4836</v>
+      </c>
+      <c r="E655" s="0">
+        <v>0.185493460166468</v>
+      </c>
+      <c r="F655" s="0">
+        <v>15</v>
+      </c>
+      <c r="G655" s="0">
+        <v>3.59712230215827E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="656">
+      <c r="A656" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B656" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C656" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D656" s="0">
+        <v>12534</v>
+      </c>
+      <c r="E656" s="0">
+        <v>0.480764067354532</v>
+      </c>
+      <c r="F656" s="0">
+        <v>357</v>
+      </c>
+      <c r="G656" s="0">
+        <v>0.856115107913669</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="657">
+      <c r="A657" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B657" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C657" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D657" s="0">
+        <v>6149</v>
+      </c>
+      <c r="E657" s="0">
+        <v>0.235855931878332</v>
+      </c>
+      <c r="F657" s="0">
+        <v>32</v>
+      </c>
+      <c r="G657" s="0">
+        <v>7.67386091127098E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="658">
+      <c r="A658" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B658" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C658" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D658" s="0">
+        <v>7388</v>
+      </c>
+      <c r="E658" s="0">
+        <v>0.283380000767136</v>
+      </c>
+      <c r="F658" s="0">
+        <v>28</v>
+      </c>
+      <c r="G658" s="0">
+        <v>6.71462829736211E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="659">
+      <c r="A659" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B659" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C659" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D659" s="0">
+        <v>11003</v>
+      </c>
+      <c r="E659" s="0">
+        <v>0.422039814353113</v>
+      </c>
+      <c r="F659" s="0">
+        <v>194</v>
+      </c>
+      <c r="G659" s="0">
+        <v>0.465227817745803</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="660">
+      <c r="A660" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B660" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C660" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D660" s="0">
+        <v>14108</v>
+      </c>
+      <c r="E660" s="0">
+        <v>0.541137662536918</v>
+      </c>
+      <c r="F660" s="0">
+        <v>223</v>
+      </c>
+      <c r="G660" s="0">
+        <v>0.534772182254197</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="661">
+      <c r="A661" s="1">
+        <v>43988</v>
+      </c>
+      <c r="B661" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C661" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D661" s="0">
+        <v>960</v>
+      </c>
+      <c r="E661" s="0">
+        <v>3.68225231099689E-02</v>
+      </c>
+      <c r="F661" s="0">
+        <v>0</v>
+      </c>
+      <c r="G661" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$661</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$672</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G661"/>
+  <dimension ref="A1:G672"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17279,7 +17279,7 @@
         <v>231</v>
       </c>
       <c r="G651" s="0">
-        <v>0.553956834532374</v>
+        <v>0.553</v>
       </c>
     </row>
     <row outlineLevel="0" r="652">
@@ -17306,7 +17306,7 @@
         <v>141</v>
       </c>
       <c r="G652" s="0">
-        <v>0.338129496402878</v>
+        <v>0.338</v>
       </c>
     </row>
     <row outlineLevel="0" r="653">
@@ -17333,7 +17333,7 @@
         <v>22</v>
       </c>
       <c r="G653" s="0">
-        <v>0.052757793764988</v>
+        <v>0.052</v>
       </c>
     </row>
     <row outlineLevel="0" r="654">
@@ -17360,7 +17360,7 @@
         <v>8</v>
       </c>
       <c r="G654" s="0">
-        <v>1.91846522781775E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="655">
@@ -17387,7 +17387,7 @@
         <v>15</v>
       </c>
       <c r="G655" s="0">
-        <v>3.59712230215827E-02</v>
+        <v>0.035</v>
       </c>
     </row>
     <row outlineLevel="0" r="656">
@@ -17414,7 +17414,7 @@
         <v>357</v>
       </c>
       <c r="G656" s="0">
-        <v>0.856115107913669</v>
+        <v>0.856</v>
       </c>
     </row>
     <row outlineLevel="0" r="657">
@@ -17441,7 +17441,7 @@
         <v>32</v>
       </c>
       <c r="G657" s="0">
-        <v>7.67386091127098E-02</v>
+        <v>0.076</v>
       </c>
     </row>
     <row outlineLevel="0" r="658">
@@ -17468,7 +17468,7 @@
         <v>28</v>
       </c>
       <c r="G658" s="0">
-        <v>6.71462829736211E-02</v>
+        <v>0.067</v>
       </c>
     </row>
     <row outlineLevel="0" r="659">
@@ -17495,7 +17495,7 @@
         <v>194</v>
       </c>
       <c r="G659" s="0">
-        <v>0.465227817745803</v>
+        <v>0.465</v>
       </c>
     </row>
     <row outlineLevel="0" r="660">
@@ -17522,7 +17522,7 @@
         <v>223</v>
       </c>
       <c r="G660" s="0">
-        <v>0.534772182254197</v>
+        <v>0.534</v>
       </c>
     </row>
     <row outlineLevel="0" r="661">
@@ -17549,6 +17549,303 @@
         <v>0</v>
       </c>
       <c r="G661" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="662">
+      <c r="A662" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B662" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C662" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D662" s="0">
+        <v>11315</v>
+      </c>
+      <c r="E662" s="0">
+        <v>0.428907168037603</v>
+      </c>
+      <c r="F662" s="0">
+        <v>231</v>
+      </c>
+      <c r="G662" s="0">
+        <v>0.552631578947368</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="663">
+      <c r="A663" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B663" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C663" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D663" s="0">
+        <v>5858</v>
+      </c>
+      <c r="E663" s="0">
+        <v>0.222053750805504</v>
+      </c>
+      <c r="F663" s="0">
+        <v>142</v>
+      </c>
+      <c r="G663" s="0">
+        <v>0.339712918660287</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="664">
+      <c r="A664" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B664" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C664" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D664" s="0">
+        <v>3837</v>
+      </c>
+      <c r="E664" s="0">
+        <v>0.145445585838293</v>
+      </c>
+      <c r="F664" s="0">
+        <v>22</v>
+      </c>
+      <c r="G664" s="0">
+        <v>5.26315789473684E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="665">
+      <c r="A665" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B665" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C665" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D665" s="0">
+        <v>441</v>
+      </c>
+      <c r="E665" s="0">
+        <v>1.67165763238695E-02</v>
+      </c>
+      <c r="F665" s="0">
+        <v>8</v>
+      </c>
+      <c r="G665" s="0">
+        <v>1.91387559808612E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="666">
+      <c r="A666" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B666" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C666" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D666" s="0">
+        <v>4930</v>
+      </c>
+      <c r="E666" s="0">
+        <v>0.186876918994731</v>
+      </c>
+      <c r="F666" s="0">
+        <v>15</v>
+      </c>
+      <c r="G666" s="0">
+        <v>3.58851674641148E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="667">
+      <c r="A667" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B667" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C667" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D667" s="0">
+        <v>12673</v>
+      </c>
+      <c r="E667" s="0">
+        <v>0.480383609415867</v>
+      </c>
+      <c r="F667" s="0">
+        <v>358</v>
+      </c>
+      <c r="G667" s="0">
+        <v>0.856459330143541</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="668">
+      <c r="A668" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B668" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C668" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D668" s="0">
+        <v>6273</v>
+      </c>
+      <c r="E668" s="0">
+        <v>0.237784769341572</v>
+      </c>
+      <c r="F668" s="0">
+        <v>32</v>
+      </c>
+      <c r="G668" s="0">
+        <v>0.076555023923445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="669">
+      <c r="A669" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B669" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C669" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D669" s="0">
+        <v>7435</v>
+      </c>
+      <c r="E669" s="0">
+        <v>0.281831621242561</v>
+      </c>
+      <c r="F669" s="0">
+        <v>28</v>
+      </c>
+      <c r="G669" s="0">
+        <v>6.69856459330144E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="670">
+      <c r="A670" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B670" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C670" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D670" s="0">
+        <v>11155</v>
+      </c>
+      <c r="E670" s="0">
+        <v>0.422842197035745</v>
+      </c>
+      <c r="F670" s="0">
+        <v>195</v>
+      </c>
+      <c r="G670" s="0">
+        <v>0.466507177033493</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="671">
+      <c r="A671" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B671" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C671" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D671" s="0">
+        <v>14268</v>
+      </c>
+      <c r="E671" s="0">
+        <v>0.540843789090633</v>
+      </c>
+      <c r="F671" s="0">
+        <v>223</v>
+      </c>
+      <c r="G671" s="0">
+        <v>0.533492822966507</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="672">
+      <c r="A672" s="1">
+        <v>43989</v>
+      </c>
+      <c r="B672" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C672" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D672" s="0">
+        <v>958</v>
+      </c>
+      <c r="E672" s="0">
+        <v>3.63140138736212E-02</v>
+      </c>
+      <c r="F672" s="0">
+        <v>0</v>
+      </c>
+      <c r="G672" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$672</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$683</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G672"/>
+  <dimension ref="A1:G683"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17576,7 +17576,7 @@
         <v>231</v>
       </c>
       <c r="G662" s="0">
-        <v>0.552631578947368</v>
+        <v>0.552</v>
       </c>
     </row>
     <row outlineLevel="0" r="663">
@@ -17603,7 +17603,7 @@
         <v>142</v>
       </c>
       <c r="G663" s="0">
-        <v>0.339712918660287</v>
+        <v>0.339</v>
       </c>
     </row>
     <row outlineLevel="0" r="664">
@@ -17630,7 +17630,7 @@
         <v>22</v>
       </c>
       <c r="G664" s="0">
-        <v>5.26315789473684E-02</v>
+        <v>0.052</v>
       </c>
     </row>
     <row outlineLevel="0" r="665">
@@ -17657,7 +17657,7 @@
         <v>8</v>
       </c>
       <c r="G665" s="0">
-        <v>1.91387559808612E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="666">
@@ -17684,7 +17684,7 @@
         <v>15</v>
       </c>
       <c r="G666" s="0">
-        <v>3.58851674641148E-02</v>
+        <v>0.035</v>
       </c>
     </row>
     <row outlineLevel="0" r="667">
@@ -17711,7 +17711,7 @@
         <v>358</v>
       </c>
       <c r="G667" s="0">
-        <v>0.856459330143541</v>
+        <v>0.856</v>
       </c>
     </row>
     <row outlineLevel="0" r="668">
@@ -17738,7 +17738,7 @@
         <v>32</v>
       </c>
       <c r="G668" s="0">
-        <v>0.076555023923445</v>
+        <v>0.076</v>
       </c>
     </row>
     <row outlineLevel="0" r="669">
@@ -17765,7 +17765,7 @@
         <v>28</v>
       </c>
       <c r="G669" s="0">
-        <v>6.69856459330144E-02</v>
+        <v>0.066</v>
       </c>
     </row>
     <row outlineLevel="0" r="670">
@@ -17792,7 +17792,7 @@
         <v>195</v>
       </c>
       <c r="G670" s="0">
-        <v>0.466507177033493</v>
+        <v>0.466</v>
       </c>
     </row>
     <row outlineLevel="0" r="671">
@@ -17819,7 +17819,7 @@
         <v>223</v>
       </c>
       <c r="G671" s="0">
-        <v>0.533492822966507</v>
+        <v>0.533</v>
       </c>
     </row>
     <row outlineLevel="0" r="672">
@@ -17846,6 +17846,303 @@
         <v>0</v>
       </c>
       <c r="G672" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="673">
+      <c r="A673" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B673" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C673" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D673" s="0">
+        <v>11451</v>
+      </c>
+      <c r="E673" s="0">
+        <v>0.42499257719715</v>
+      </c>
+      <c r="F673" s="0">
+        <v>234</v>
+      </c>
+      <c r="G673" s="0">
+        <v>0.555819477434679</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="674">
+      <c r="A674" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B674" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C674" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D674" s="0">
+        <v>5915</v>
+      </c>
+      <c r="E674" s="0">
+        <v>0.219529394299287</v>
+      </c>
+      <c r="F674" s="0">
+        <v>142</v>
+      </c>
+      <c r="G674" s="0">
+        <v>0.33729216152019</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="675">
+      <c r="A675" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B675" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C675" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D675" s="0">
+        <v>3926</v>
+      </c>
+      <c r="E675" s="0">
+        <v>0.145709619952494</v>
+      </c>
+      <c r="F675" s="0">
+        <v>23</v>
+      </c>
+      <c r="G675" s="0">
+        <v>5.46318289786223E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="676">
+      <c r="A676" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B676" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C676" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D676" s="0">
+        <v>451</v>
+      </c>
+      <c r="E676" s="0">
+        <v>1.67384204275534E-02</v>
+      </c>
+      <c r="F676" s="0">
+        <v>8</v>
+      </c>
+      <c r="G676" s="0">
+        <v>1.90023752969121E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="677">
+      <c r="A677" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B677" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C677" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D677" s="0">
+        <v>5201</v>
+      </c>
+      <c r="E677" s="0">
+        <v>0.193029988123515</v>
+      </c>
+      <c r="F677" s="0">
+        <v>14</v>
+      </c>
+      <c r="G677" s="0">
+        <v>3.32541567695962E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="678">
+      <c r="A678" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B678" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C678" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D678" s="0">
+        <v>12811</v>
+      </c>
+      <c r="E678" s="0">
+        <v>0.475467636579572</v>
+      </c>
+      <c r="F678" s="0">
+        <v>361</v>
+      </c>
+      <c r="G678" s="0">
+        <v>0.857482185273159</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="679">
+      <c r="A679" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B679" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C679" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D679" s="0">
+        <v>6400</v>
+      </c>
+      <c r="E679" s="0">
+        <v>0.237529691211401</v>
+      </c>
+      <c r="F679" s="0">
+        <v>32</v>
+      </c>
+      <c r="G679" s="0">
+        <v>7.60095011876485E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="680">
+      <c r="A680" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B680" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C680" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D680" s="0">
+        <v>7733</v>
+      </c>
+      <c r="E680" s="0">
+        <v>0.287002672209026</v>
+      </c>
+      <c r="F680" s="0">
+        <v>28</v>
+      </c>
+      <c r="G680" s="0">
+        <v>6.65083135391924E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="681">
+      <c r="A681" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B681" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C681" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D681" s="0">
+        <v>11430</v>
+      </c>
+      <c r="E681" s="0">
+        <v>0.424213182897862</v>
+      </c>
+      <c r="F681" s="0">
+        <v>196</v>
+      </c>
+      <c r="G681" s="0">
+        <v>0.465558194774347</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="682">
+      <c r="A682" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B682" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C682" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D682" s="0">
+        <v>14545</v>
+      </c>
+      <c r="E682" s="0">
+        <v>0.539823337292161</v>
+      </c>
+      <c r="F682" s="0">
+        <v>225</v>
+      </c>
+      <c r="G682" s="0">
+        <v>0.534441805225653</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="683">
+      <c r="A683" s="1">
+        <v>43990</v>
+      </c>
+      <c r="B683" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C683" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D683" s="0">
+        <v>969</v>
+      </c>
+      <c r="E683" s="0">
+        <v>3.59634798099762E-02</v>
+      </c>
+      <c r="F683" s="0">
+        <v>0</v>
+      </c>
+      <c r="G683" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$683</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$694</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G683"/>
+  <dimension ref="A1:G694"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -17873,7 +17873,7 @@
         <v>234</v>
       </c>
       <c r="G673" s="0">
-        <v>0.555819477434679</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="674">
@@ -17900,7 +17900,7 @@
         <v>142</v>
       </c>
       <c r="G674" s="0">
-        <v>0.33729216152019</v>
+        <v>0.337</v>
       </c>
     </row>
     <row outlineLevel="0" r="675">
@@ -17927,7 +17927,7 @@
         <v>23</v>
       </c>
       <c r="G675" s="0">
-        <v>5.46318289786223E-02</v>
+        <v>0.054</v>
       </c>
     </row>
     <row outlineLevel="0" r="676">
@@ -17954,7 +17954,7 @@
         <v>8</v>
       </c>
       <c r="G676" s="0">
-        <v>1.90023752969121E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="677">
@@ -17981,7 +17981,7 @@
         <v>14</v>
       </c>
       <c r="G677" s="0">
-        <v>3.32541567695962E-02</v>
+        <v>0.033</v>
       </c>
     </row>
     <row outlineLevel="0" r="678">
@@ -18008,7 +18008,7 @@
         <v>361</v>
       </c>
       <c r="G678" s="0">
-        <v>0.857482185273159</v>
+        <v>0.857</v>
       </c>
     </row>
     <row outlineLevel="0" r="679">
@@ -18035,7 +18035,7 @@
         <v>32</v>
       </c>
       <c r="G679" s="0">
-        <v>7.60095011876485E-02</v>
+        <v>0.076</v>
       </c>
     </row>
     <row outlineLevel="0" r="680">
@@ -18062,7 +18062,7 @@
         <v>28</v>
       </c>
       <c r="G680" s="0">
-        <v>6.65083135391924E-02</v>
+        <v>0.066</v>
       </c>
     </row>
     <row outlineLevel="0" r="681">
@@ -18089,7 +18089,7 @@
         <v>196</v>
       </c>
       <c r="G681" s="0">
-        <v>0.465558194774347</v>
+        <v>0.465</v>
       </c>
     </row>
     <row outlineLevel="0" r="682">
@@ -18116,7 +18116,7 @@
         <v>225</v>
       </c>
       <c r="G682" s="0">
-        <v>0.534441805225653</v>
+        <v>0.534</v>
       </c>
     </row>
     <row outlineLevel="0" r="683">
@@ -18144,6 +18144,303 @@
       </c>
       <c r="G683" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="684">
+      <c r="A684" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B684" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C684" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D684" s="0">
+        <v>11778</v>
+      </c>
+      <c r="E684" s="0">
+        <v>0.427126019945603</v>
+      </c>
+      <c r="F684" s="0">
+        <v>241</v>
+      </c>
+      <c r="G684" s="0">
+        <v>0.554022988505747</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="685">
+      <c r="A685" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B685" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C685" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D685" s="0">
+        <v>6052</v>
+      </c>
+      <c r="E685" s="0">
+        <v>0.21947416137806</v>
+      </c>
+      <c r="F685" s="0">
+        <v>148</v>
+      </c>
+      <c r="G685" s="0">
+        <v>0.340229885057471</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="686">
+      <c r="A686" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B686" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C686" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D686" s="0">
+        <v>4091</v>
+      </c>
+      <c r="E686" s="0">
+        <v>0.148359020852221</v>
+      </c>
+      <c r="F686" s="0">
+        <v>22</v>
+      </c>
+      <c r="G686" s="0">
+        <v>5.05747126436782E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="687">
+      <c r="A687" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B687" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C687" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D687" s="0">
+        <v>457</v>
+      </c>
+      <c r="E687" s="0">
+        <v>0.016572982774252</v>
+      </c>
+      <c r="F687" s="0">
+        <v>9</v>
+      </c>
+      <c r="G687" s="0">
+        <v>2.06896551724138E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="688">
+      <c r="A688" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B688" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C688" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D688" s="0">
+        <v>5197</v>
+      </c>
+      <c r="E688" s="0">
+        <v>0.188467815049864</v>
+      </c>
+      <c r="F688" s="0">
+        <v>15</v>
+      </c>
+      <c r="G688" s="0">
+        <v>3.44827586206897E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="689">
+      <c r="A689" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B689" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C689" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D689" s="0">
+        <v>13126</v>
+      </c>
+      <c r="E689" s="0">
+        <v>0.476010879419764</v>
+      </c>
+      <c r="F689" s="0">
+        <v>371</v>
+      </c>
+      <c r="G689" s="0">
+        <v>0.852873563218391</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="690">
+      <c r="A690" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B690" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C690" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D690" s="0">
+        <v>6693</v>
+      </c>
+      <c r="E690" s="0">
+        <v>0.24271985494107</v>
+      </c>
+      <c r="F690" s="0">
+        <v>32</v>
+      </c>
+      <c r="G690" s="0">
+        <v>7.35632183908046E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="691">
+      <c r="A691" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B691" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C691" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D691" s="0">
+        <v>7756</v>
+      </c>
+      <c r="E691" s="0">
+        <v>0.281269265639166</v>
+      </c>
+      <c r="F691" s="0">
+        <v>32</v>
+      </c>
+      <c r="G691" s="0">
+        <v>7.35632183908046E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="692">
+      <c r="A692" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B692" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C692" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D692" s="0">
+        <v>11756</v>
+      </c>
+      <c r="E692" s="0">
+        <v>0.426328195829556</v>
+      </c>
+      <c r="F692" s="0">
+        <v>203</v>
+      </c>
+      <c r="G692" s="0">
+        <v>0.466666666666667</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="693">
+      <c r="A693" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B693" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C693" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D693" s="0">
+        <v>14858</v>
+      </c>
+      <c r="E693" s="0">
+        <v>0.538821396192203</v>
+      </c>
+      <c r="F693" s="0">
+        <v>231</v>
+      </c>
+      <c r="G693" s="0">
+        <v>0.531034482758621</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="694">
+      <c r="A694" s="1">
+        <v>43991</v>
+      </c>
+      <c r="B694" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C694" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D694" s="0">
+        <v>961</v>
+      </c>
+      <c r="E694" s="0">
+        <v>3.48504079782412E-02</v>
+      </c>
+      <c r="F694" s="0">
+        <v>1</v>
+      </c>
+      <c r="G694" s="0">
+        <v>2.29885057471264E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$694</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$705</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G694"/>
+  <dimension ref="A1:G705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18170,7 +18170,7 @@
         <v>241</v>
       </c>
       <c r="G684" s="0">
-        <v>0.554022988505747</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="685">
@@ -18197,7 +18197,7 @@
         <v>148</v>
       </c>
       <c r="G685" s="0">
-        <v>0.340229885057471</v>
+        <v>0.34</v>
       </c>
     </row>
     <row outlineLevel="0" r="686">
@@ -18224,7 +18224,7 @@
         <v>22</v>
       </c>
       <c r="G686" s="0">
-        <v>5.05747126436782E-02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="687">
@@ -18251,7 +18251,7 @@
         <v>9</v>
       </c>
       <c r="G687" s="0">
-        <v>2.06896551724138E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="688">
@@ -18278,7 +18278,7 @@
         <v>15</v>
       </c>
       <c r="G688" s="0">
-        <v>3.44827586206897E-02</v>
+        <v>0.034</v>
       </c>
     </row>
     <row outlineLevel="0" r="689">
@@ -18305,7 +18305,7 @@
         <v>371</v>
       </c>
       <c r="G689" s="0">
-        <v>0.852873563218391</v>
+        <v>0.852</v>
       </c>
     </row>
     <row outlineLevel="0" r="690">
@@ -18332,7 +18332,7 @@
         <v>32</v>
       </c>
       <c r="G690" s="0">
-        <v>7.35632183908046E-02</v>
+        <v>0.073</v>
       </c>
     </row>
     <row outlineLevel="0" r="691">
@@ -18359,7 +18359,7 @@
         <v>32</v>
       </c>
       <c r="G691" s="0">
-        <v>7.35632183908046E-02</v>
+        <v>0.073</v>
       </c>
     </row>
     <row outlineLevel="0" r="692">
@@ -18386,7 +18386,7 @@
         <v>203</v>
       </c>
       <c r="G692" s="0">
-        <v>0.466666666666667</v>
+        <v>0.466</v>
       </c>
     </row>
     <row outlineLevel="0" r="693">
@@ -18413,7 +18413,7 @@
         <v>231</v>
       </c>
       <c r="G693" s="0">
-        <v>0.531034482758621</v>
+        <v>0.531</v>
       </c>
     </row>
     <row outlineLevel="0" r="694">
@@ -18440,7 +18440,304 @@
         <v>1</v>
       </c>
       <c r="G694" s="0">
-        <v>2.29885057471264E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="695">
+      <c r="A695" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B695" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C695" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D695" s="0">
+        <v>12004</v>
+      </c>
+      <c r="E695" s="0">
+        <v>0.430729484373318</v>
+      </c>
+      <c r="F695" s="0">
+        <v>245</v>
+      </c>
+      <c r="G695" s="0">
+        <v>0.561926605504587</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="696">
+      <c r="A696" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B696" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C696" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D696" s="0">
+        <v>6185</v>
+      </c>
+      <c r="E696" s="0">
+        <v>0.221931178011411</v>
+      </c>
+      <c r="F696" s="0">
+        <v>147</v>
+      </c>
+      <c r="G696" s="0">
+        <v>0.337155963302752</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="697">
+      <c r="A697" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B697" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C697" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D697" s="0">
+        <v>4213</v>
+      </c>
+      <c r="E697" s="0">
+        <v>0.151171552621192</v>
+      </c>
+      <c r="F697" s="0">
+        <v>22</v>
+      </c>
+      <c r="G697" s="0">
+        <v>5.04587155963303E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="698">
+      <c r="A698" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B698" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C698" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D698" s="0">
+        <v>461</v>
+      </c>
+      <c r="E698" s="0">
+        <v>1.65416771322975E-02</v>
+      </c>
+      <c r="F698" s="0">
+        <v>9</v>
+      </c>
+      <c r="G698" s="0">
+        <v>2.06422018348624E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="699">
+      <c r="A699" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B699" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C699" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D699" s="0">
+        <v>5006</v>
+      </c>
+      <c r="E699" s="0">
+        <v>0.179626107861782</v>
+      </c>
+      <c r="F699" s="0">
+        <v>13</v>
+      </c>
+      <c r="G699" s="0">
+        <v>2.98165137614679E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="700">
+      <c r="A700" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B700" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C700" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D700" s="0">
+        <v>13402</v>
+      </c>
+      <c r="E700" s="0">
+        <v>0.480892748214862</v>
+      </c>
+      <c r="F700" s="0">
+        <v>375</v>
+      </c>
+      <c r="G700" s="0">
+        <v>0.860091743119266</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="701">
+      <c r="A701" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B701" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C701" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D701" s="0">
+        <v>6933</v>
+      </c>
+      <c r="E701" s="0">
+        <v>0.248771035918045</v>
+      </c>
+      <c r="F701" s="0">
+        <v>31</v>
+      </c>
+      <c r="G701" s="0">
+        <v>7.11009174311927E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="702">
+      <c r="A702" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B702" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C702" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D702" s="0">
+        <v>7534</v>
+      </c>
+      <c r="E702" s="0">
+        <v>0.270336215867092</v>
+      </c>
+      <c r="F702" s="0">
+        <v>30</v>
+      </c>
+      <c r="G702" s="0">
+        <v>6.88073394495413E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="703">
+      <c r="A703" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B703" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C703" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D703" s="0">
+        <v>11929</v>
+      </c>
+      <c r="E703" s="0">
+        <v>0.428038322150059</v>
+      </c>
+      <c r="F703" s="0">
+        <v>206</v>
+      </c>
+      <c r="G703" s="0">
+        <v>0.472477064220183</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="704">
+      <c r="A704" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B704" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C704" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D704" s="0">
+        <v>14992</v>
+      </c>
+      <c r="E704" s="0">
+        <v>0.537945387347949</v>
+      </c>
+      <c r="F704" s="0">
+        <v>230</v>
+      </c>
+      <c r="G704" s="0">
+        <v>0.527522935779816</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="705">
+      <c r="A705" s="1">
+        <v>43992</v>
+      </c>
+      <c r="B705" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C705" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D705" s="0">
+        <v>948</v>
+      </c>
+      <c r="E705" s="0">
+        <v>3.40162905019915E-02</v>
+      </c>
+      <c r="F705" s="0">
+        <v>0</v>
+      </c>
+      <c r="G705" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$705</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$716</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G705"/>
+  <dimension ref="A1:G716"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18467,7 +18467,7 @@
         <v>245</v>
       </c>
       <c r="G695" s="0">
-        <v>0.561926605504587</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="696">
@@ -18494,7 +18494,7 @@
         <v>147</v>
       </c>
       <c r="G696" s="0">
-        <v>0.337155963302752</v>
+        <v>0.337</v>
       </c>
     </row>
     <row outlineLevel="0" r="697">
@@ -18521,7 +18521,7 @@
         <v>22</v>
       </c>
       <c r="G697" s="0">
-        <v>5.04587155963303E-02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="698">
@@ -18548,7 +18548,7 @@
         <v>9</v>
       </c>
       <c r="G698" s="0">
-        <v>2.06422018348624E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="699">
@@ -18575,7 +18575,7 @@
         <v>13</v>
       </c>
       <c r="G699" s="0">
-        <v>2.98165137614679E-02</v>
+        <v>0.029</v>
       </c>
     </row>
     <row outlineLevel="0" r="700">
@@ -18602,7 +18602,7 @@
         <v>375</v>
       </c>
       <c r="G700" s="0">
-        <v>0.860091743119266</v>
+        <v>0.86</v>
       </c>
     </row>
     <row outlineLevel="0" r="701">
@@ -18629,7 +18629,7 @@
         <v>31</v>
       </c>
       <c r="G701" s="0">
-        <v>7.11009174311927E-02</v>
+        <v>0.071</v>
       </c>
     </row>
     <row outlineLevel="0" r="702">
@@ -18656,7 +18656,7 @@
         <v>30</v>
       </c>
       <c r="G702" s="0">
-        <v>6.88073394495413E-02</v>
+        <v>0.068</v>
       </c>
     </row>
     <row outlineLevel="0" r="703">
@@ -18683,7 +18683,7 @@
         <v>206</v>
       </c>
       <c r="G703" s="0">
-        <v>0.472477064220183</v>
+        <v>0.472</v>
       </c>
     </row>
     <row outlineLevel="0" r="704">
@@ -18710,7 +18710,7 @@
         <v>230</v>
       </c>
       <c r="G704" s="0">
-        <v>0.527522935779816</v>
+        <v>0.527</v>
       </c>
     </row>
     <row outlineLevel="0" r="705">
@@ -18737,6 +18737,303 @@
         <v>0</v>
       </c>
       <c r="G705" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="706">
+      <c r="A706" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B706" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C706" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D706" s="0">
+        <v>12204</v>
+      </c>
+      <c r="E706" s="0">
+        <v>0.430628087508821</v>
+      </c>
+      <c r="F706" s="0">
+        <v>248</v>
+      </c>
+      <c r="G706" s="0">
+        <v>0.562358276643991</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="707">
+      <c r="A707" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B707" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C707" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D707" s="0">
+        <v>6319</v>
+      </c>
+      <c r="E707" s="0">
+        <v>0.222971065631616</v>
+      </c>
+      <c r="F707" s="0">
+        <v>148</v>
+      </c>
+      <c r="G707" s="0">
+        <v>0.335600907029478</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="708">
+      <c r="A708" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B708" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C708" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D708" s="0">
+        <v>4379</v>
+      </c>
+      <c r="E708" s="0">
+        <v>0.154516584333098</v>
+      </c>
+      <c r="F708" s="0">
+        <v>23</v>
+      </c>
+      <c r="G708" s="0">
+        <v>5.21541950113379E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="709">
+      <c r="A709" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B709" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C709" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D709" s="0">
+        <v>464</v>
+      </c>
+      <c r="E709" s="0">
+        <v>1.63726182074806E-02</v>
+      </c>
+      <c r="F709" s="0">
+        <v>9</v>
+      </c>
+      <c r="G709" s="0">
+        <v>2.04081632653061E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="710">
+      <c r="A710" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B710" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C710" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D710" s="0">
+        <v>4974</v>
+      </c>
+      <c r="E710" s="0">
+        <v>0.175511644318984</v>
+      </c>
+      <c r="F710" s="0">
+        <v>13</v>
+      </c>
+      <c r="G710" s="0">
+        <v>2.94784580498866E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="711">
+      <c r="A711" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B711" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C711" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D711" s="0">
+        <v>13686</v>
+      </c>
+      <c r="E711" s="0">
+        <v>0.482921665490473</v>
+      </c>
+      <c r="F711" s="0">
+        <v>377</v>
+      </c>
+      <c r="G711" s="0">
+        <v>0.854875283446712</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="712">
+      <c r="A712" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B712" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C712" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D712" s="0">
+        <v>7184</v>
+      </c>
+      <c r="E712" s="0">
+        <v>0.253493295695131</v>
+      </c>
+      <c r="F712" s="0">
+        <v>33</v>
+      </c>
+      <c r="G712" s="0">
+        <v>7.48299319727891E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="713">
+      <c r="A713" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B713" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C713" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D713" s="0">
+        <v>7470</v>
+      </c>
+      <c r="E713" s="0">
+        <v>0.263585038814397</v>
+      </c>
+      <c r="F713" s="0">
+        <v>31</v>
+      </c>
+      <c r="G713" s="0">
+        <v>7.02947845804989E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="714">
+      <c r="A714" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B714" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C714" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D714" s="0">
+        <v>12143</v>
+      </c>
+      <c r="E714" s="0">
+        <v>0.428475652787579</v>
+      </c>
+      <c r="F714" s="0">
+        <v>206</v>
+      </c>
+      <c r="G714" s="0">
+        <v>0.467120181405896</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="715">
+      <c r="A715" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B715" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C715" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D715" s="0">
+        <v>15272</v>
+      </c>
+      <c r="E715" s="0">
+        <v>0.538884968242766</v>
+      </c>
+      <c r="F715" s="0">
+        <v>235</v>
+      </c>
+      <c r="G715" s="0">
+        <v>0.532879818594104</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="716">
+      <c r="A716" s="1">
+        <v>43993</v>
+      </c>
+      <c r="B716" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C716" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D716" s="0">
+        <v>925</v>
+      </c>
+      <c r="E716" s="0">
+        <v>3.26393789696542E-02</v>
+      </c>
+      <c r="F716" s="0">
+        <v>0</v>
+      </c>
+      <c r="G716" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$716</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$749</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G716"/>
+  <dimension ref="A1:G749"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18764,7 +18764,7 @@
         <v>248</v>
       </c>
       <c r="G706" s="0">
-        <v>0.562358276643991</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="707">
@@ -18791,7 +18791,7 @@
         <v>148</v>
       </c>
       <c r="G707" s="0">
-        <v>0.335600907029478</v>
+        <v>0.335</v>
       </c>
     </row>
     <row outlineLevel="0" r="708">
@@ -18818,7 +18818,7 @@
         <v>23</v>
       </c>
       <c r="G708" s="0">
-        <v>5.21541950113379E-02</v>
+        <v>0.052</v>
       </c>
     </row>
     <row outlineLevel="0" r="709">
@@ -18845,7 +18845,7 @@
         <v>9</v>
       </c>
       <c r="G709" s="0">
-        <v>2.04081632653061E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="710">
@@ -18872,7 +18872,7 @@
         <v>13</v>
       </c>
       <c r="G710" s="0">
-        <v>2.94784580498866E-02</v>
+        <v>0.029</v>
       </c>
     </row>
     <row outlineLevel="0" r="711">
@@ -18899,7 +18899,7 @@
         <v>377</v>
       </c>
       <c r="G711" s="0">
-        <v>0.854875283446712</v>
+        <v>0.854</v>
       </c>
     </row>
     <row outlineLevel="0" r="712">
@@ -18926,7 +18926,7 @@
         <v>33</v>
       </c>
       <c r="G712" s="0">
-        <v>7.48299319727891E-02</v>
+        <v>0.074</v>
       </c>
     </row>
     <row outlineLevel="0" r="713">
@@ -18953,7 +18953,7 @@
         <v>31</v>
       </c>
       <c r="G713" s="0">
-        <v>7.02947845804989E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="714">
@@ -18980,7 +18980,7 @@
         <v>206</v>
       </c>
       <c r="G714" s="0">
-        <v>0.467120181405896</v>
+        <v>0.467</v>
       </c>
     </row>
     <row outlineLevel="0" r="715">
@@ -19007,7 +19007,7 @@
         <v>235</v>
       </c>
       <c r="G715" s="0">
-        <v>0.532879818594104</v>
+        <v>0.532</v>
       </c>
     </row>
     <row outlineLevel="0" r="716">
@@ -19034,6 +19034,897 @@
         <v>0</v>
       </c>
       <c r="G716" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="717">
+      <c r="A717" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B717" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C717" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D717" s="0">
+        <v>12617</v>
+      </c>
+      <c r="E717" s="0">
+        <v>0.433186843370185</v>
+      </c>
+      <c r="F717" s="0">
+        <v>261</v>
+      </c>
+      <c r="G717" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="718">
+      <c r="A718" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B718" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C718" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D718" s="0">
+        <v>6396</v>
+      </c>
+      <c r="E718" s="0">
+        <v>0.219597610382476</v>
+      </c>
+      <c r="F718" s="0">
+        <v>162</v>
+      </c>
+      <c r="G718" s="0">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="719">
+      <c r="A719" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B719" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C719" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D719" s="0">
+        <v>4579</v>
+      </c>
+      <c r="E719" s="0">
+        <v>0.157213486232232</v>
+      </c>
+      <c r="F719" s="0">
+        <v>21</v>
+      </c>
+      <c r="G719" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="720">
+      <c r="A720" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B720" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C720" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D720" s="0">
+        <v>467</v>
+      </c>
+      <c r="E720" s="0">
+        <v>1.60337842477512E-02</v>
+      </c>
+      <c r="F720" s="0">
+        <v>10</v>
+      </c>
+      <c r="G720" s="0">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="721">
+      <c r="A721" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B721" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C721" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D721" s="0">
+        <v>5067</v>
+      </c>
+      <c r="E721" s="0">
+        <v>0.173968275767356</v>
+      </c>
+      <c r="F721" s="0">
+        <v>14</v>
+      </c>
+      <c r="G721" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="722">
+      <c r="A722" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B722" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C722" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D722" s="0">
+        <v>14045</v>
+      </c>
+      <c r="E722" s="0">
+        <v>0.482215202911488</v>
+      </c>
+      <c r="F722" s="0">
+        <v>403</v>
+      </c>
+      <c r="G722" s="0">
+        <v>0.861</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="723">
+      <c r="A723" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B723" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C723" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D723" s="0">
+        <v>7479</v>
+      </c>
+      <c r="E723" s="0">
+        <v>0.256780883059809</v>
+      </c>
+      <c r="F723" s="0">
+        <v>33</v>
+      </c>
+      <c r="G723" s="0">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="724">
+      <c r="A724" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B724" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C724" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D724" s="0">
+        <v>7602</v>
+      </c>
+      <c r="E724" s="0">
+        <v>0.261003914028703</v>
+      </c>
+      <c r="F724" s="0">
+        <v>32</v>
+      </c>
+      <c r="G724" s="0">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="725">
+      <c r="A725" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B725" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C725" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D725" s="0">
+        <v>12485</v>
+      </c>
+      <c r="E725" s="0">
+        <v>0.428654810135274</v>
+      </c>
+      <c r="F725" s="0">
+        <v>214</v>
+      </c>
+      <c r="G725" s="0">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="726">
+      <c r="A726" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B726" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C726" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D726" s="0">
+        <v>15684</v>
+      </c>
+      <c r="E726" s="0">
+        <v>0.538487948911625</v>
+      </c>
+      <c r="F726" s="0">
+        <v>254</v>
+      </c>
+      <c r="G726" s="0">
+        <v>0.542</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="727">
+      <c r="A727" s="1">
+        <v>43994</v>
+      </c>
+      <c r="B727" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C727" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D727" s="0">
+        <v>957</v>
+      </c>
+      <c r="E727" s="0">
+        <v>3.28572409531003E-02</v>
+      </c>
+      <c r="F727" s="0">
+        <v>0</v>
+      </c>
+      <c r="G727" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="728">
+      <c r="A728" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B728" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C728" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D728" s="0">
+        <v>12842</v>
+      </c>
+      <c r="E728" s="0">
+        <v>0.434717849768119</v>
+      </c>
+      <c r="F728" s="0">
+        <v>265</v>
+      </c>
+      <c r="G728" s="0">
+        <v>0.561</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="729">
+      <c r="A729" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B729" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C729" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D729" s="0">
+        <v>6500</v>
+      </c>
+      <c r="E729" s="0">
+        <v>0.220033174232423</v>
+      </c>
+      <c r="F729" s="0">
+        <v>162</v>
+      </c>
+      <c r="G729" s="0">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="730">
+      <c r="A730" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B730" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C730" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D730" s="0">
+        <v>4720</v>
+      </c>
+      <c r="E730" s="0">
+        <v>0.159777935750313</v>
+      </c>
+      <c r="F730" s="0">
+        <v>21</v>
+      </c>
+      <c r="G730" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="731">
+      <c r="A731" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B731" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C731" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D731" s="0">
+        <v>467</v>
+      </c>
+      <c r="E731" s="0">
+        <v>1.58085372871602E-02</v>
+      </c>
+      <c r="F731" s="0">
+        <v>10</v>
+      </c>
+      <c r="G731" s="0">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="732">
+      <c r="A732" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B732" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C732" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D732" s="0">
+        <v>5012</v>
+      </c>
+      <c r="E732" s="0">
+        <v>0.169662502961985</v>
+      </c>
+      <c r="F732" s="0">
+        <v>14</v>
+      </c>
+      <c r="G732" s="0">
+        <v>0.029</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="733">
+      <c r="A733" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B733" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C733" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D733" s="0">
+        <v>14310</v>
+      </c>
+      <c r="E733" s="0">
+        <v>0.484411495887072</v>
+      </c>
+      <c r="F733" s="0">
+        <v>407</v>
+      </c>
+      <c r="G733" s="0">
+        <v>0.862</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="734">
+      <c r="A734" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B734" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C734" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D734" s="0">
+        <v>7690</v>
+      </c>
+      <c r="E734" s="0">
+        <v>0.260316170745743</v>
+      </c>
+      <c r="F734" s="0">
+        <v>33</v>
+      </c>
+      <c r="G734" s="0">
+        <v>0.069</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="735">
+      <c r="A735" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B735" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C735" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D735" s="0">
+        <v>7541</v>
+      </c>
+      <c r="E735" s="0">
+        <v>0.255272333367185</v>
+      </c>
+      <c r="F735" s="0">
+        <v>32</v>
+      </c>
+      <c r="G735" s="0">
+        <v>0.067</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="736">
+      <c r="A736" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B736" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C736" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D736" s="0">
+        <v>12689</v>
+      </c>
+      <c r="E736" s="0">
+        <v>0.429538607359263</v>
+      </c>
+      <c r="F736" s="0">
+        <v>217</v>
+      </c>
+      <c r="G736" s="0">
+        <v>0.459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="737">
+      <c r="A737" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B737" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C737" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D737" s="0">
+        <v>15903</v>
+      </c>
+      <c r="E737" s="0">
+        <v>0.538336549202803</v>
+      </c>
+      <c r="F737" s="0">
+        <v>255</v>
+      </c>
+      <c r="G737" s="0">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="738">
+      <c r="A738" s="1">
+        <v>43995</v>
+      </c>
+      <c r="B738" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C738" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D738" s="0">
+        <v>949</v>
+      </c>
+      <c r="E738" s="0">
+        <v>3.21248434379337E-02</v>
+      </c>
+      <c r="F738" s="0">
+        <v>0</v>
+      </c>
+      <c r="G738" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="739">
+      <c r="A739" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B739" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C739" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D739" s="0">
+        <v>12989</v>
+      </c>
+      <c r="E739" s="0">
+        <v>0.426820452155626</v>
+      </c>
+      <c r="F739" s="0">
+        <v>266</v>
+      </c>
+      <c r="G739" s="0">
+        <v>0.56</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="740">
+      <c r="A740" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B740" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C740" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D740" s="0">
+        <v>6570</v>
+      </c>
+      <c r="E740" s="0">
+        <v>0.215891167192429</v>
+      </c>
+      <c r="F740" s="0">
+        <v>162</v>
+      </c>
+      <c r="G740" s="0">
+        <v>0.341052631578947</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="741">
+      <c r="A741" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B741" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C741" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D741" s="0">
+        <v>4893</v>
+      </c>
+      <c r="E741" s="0">
+        <v>0.160784700315457</v>
+      </c>
+      <c r="F741" s="0">
+        <v>21</v>
+      </c>
+      <c r="G741" s="0">
+        <v>4.42105263157895E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="742">
+      <c r="A742" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B742" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C742" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D742" s="0">
+        <v>469</v>
+      </c>
+      <c r="E742" s="0">
+        <v>1.54114090431125E-02</v>
+      </c>
+      <c r="F742" s="0">
+        <v>10</v>
+      </c>
+      <c r="G742" s="0">
+        <v>2.10526315789474E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="743">
+      <c r="A743" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B743" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C743" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D743" s="0">
+        <v>5511</v>
+      </c>
+      <c r="E743" s="0">
+        <v>0.181092271293375</v>
+      </c>
+      <c r="F743" s="0">
+        <v>16</v>
+      </c>
+      <c r="G743" s="0">
+        <v>3.36842105263158E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="744">
+      <c r="A744" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B744" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C744" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D744" s="0">
+        <v>14474</v>
+      </c>
+      <c r="E744" s="0">
+        <v>0.475617770767613</v>
+      </c>
+      <c r="F744" s="0">
+        <v>408</v>
+      </c>
+      <c r="G744" s="0">
+        <v>0.858947368421053</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="745">
+      <c r="A745" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B745" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C745" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D745" s="0">
+        <v>7817</v>
+      </c>
+      <c r="E745" s="0">
+        <v>0.256867770767613</v>
+      </c>
+      <c r="F745" s="0">
+        <v>33</v>
+      </c>
+      <c r="G745" s="0">
+        <v>6.94736842105263E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="746">
+      <c r="A746" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B746" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C746" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D746" s="0">
+        <v>8141</v>
+      </c>
+      <c r="E746" s="0">
+        <v>0.267514458464774</v>
+      </c>
+      <c r="F746" s="0">
+        <v>34</v>
+      </c>
+      <c r="G746" s="0">
+        <v>0.071578947368421</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="747">
+      <c r="A747" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B747" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C747" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D747" s="0">
+        <v>16357</v>
+      </c>
+      <c r="E747" s="0">
+        <v>0.537493427970557</v>
+      </c>
+      <c r="F747" s="0">
+        <v>256</v>
+      </c>
+      <c r="G747" s="0">
+        <v>0.538947368421053</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="748">
+      <c r="A748" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B748" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C748" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D748" s="0">
+        <v>13105</v>
+      </c>
+      <c r="E748" s="0">
+        <v>0.430632229232387</v>
+      </c>
+      <c r="F748" s="0">
+        <v>219</v>
+      </c>
+      <c r="G748" s="0">
+        <v>0.461052631578947</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="749">
+      <c r="A749" s="1">
+        <v>43996</v>
+      </c>
+      <c r="B749" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C749" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D749" s="0">
+        <v>970</v>
+      </c>
+      <c r="E749" s="0">
+        <v>3.18743427970557E-02</v>
+      </c>
+      <c r="F749" s="0">
+        <v>0</v>
+      </c>
+      <c r="G749" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$749</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$760</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G749"/>
+  <dimension ref="A1:G760"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -19682,7 +19682,7 @@
         <v>162</v>
       </c>
       <c r="G740" s="0">
-        <v>0.341052631578947</v>
+        <v>0.341</v>
       </c>
     </row>
     <row outlineLevel="0" r="741">
@@ -19709,7 +19709,7 @@
         <v>21</v>
       </c>
       <c r="G741" s="0">
-        <v>4.42105263157895E-02</v>
+        <v>0.044</v>
       </c>
     </row>
     <row outlineLevel="0" r="742">
@@ -19736,7 +19736,7 @@
         <v>10</v>
       </c>
       <c r="G742" s="0">
-        <v>2.10526315789474E-02</v>
+        <v>0.021</v>
       </c>
     </row>
     <row outlineLevel="0" r="743">
@@ -19763,7 +19763,7 @@
         <v>16</v>
       </c>
       <c r="G743" s="0">
-        <v>3.36842105263158E-02</v>
+        <v>0.033</v>
       </c>
     </row>
     <row outlineLevel="0" r="744">
@@ -19790,7 +19790,7 @@
         <v>408</v>
       </c>
       <c r="G744" s="0">
-        <v>0.858947368421053</v>
+        <v>0.858</v>
       </c>
     </row>
     <row outlineLevel="0" r="745">
@@ -19817,7 +19817,7 @@
         <v>33</v>
       </c>
       <c r="G745" s="0">
-        <v>6.94736842105263E-02</v>
+        <v>0.069</v>
       </c>
     </row>
     <row outlineLevel="0" r="746">
@@ -19844,7 +19844,7 @@
         <v>34</v>
       </c>
       <c r="G746" s="0">
-        <v>0.071578947368421</v>
+        <v>0.071</v>
       </c>
     </row>
     <row outlineLevel="0" r="747">
@@ -19858,20 +19858,20 @@
       </c>
       <c r="C747" s="0" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Female</t>
         </is>
       </c>
       <c r="D747" s="0">
-        <v>16357</v>
+        <v>13105</v>
       </c>
       <c r="E747" s="0">
-        <v>0.537493427970557</v>
+        <v>0.430632229232387</v>
       </c>
       <c r="F747" s="0">
-        <v>256</v>
+        <v>219</v>
       </c>
       <c r="G747" s="0">
-        <v>0.538947368421053</v>
+        <v>0.461</v>
       </c>
     </row>
     <row outlineLevel="0" r="748">
@@ -19885,20 +19885,20 @@
       </c>
       <c r="C748" s="0" t="inlineStr">
         <is>
-          <t>Female</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="D748" s="0">
-        <v>13105</v>
+        <v>16357</v>
       </c>
       <c r="E748" s="0">
-        <v>0.430632229232387</v>
+        <v>0.537493427970557</v>
       </c>
       <c r="F748" s="0">
-        <v>219</v>
+        <v>256</v>
       </c>
       <c r="G748" s="0">
-        <v>0.461052631578947</v>
+        <v>0.538</v>
       </c>
     </row>
     <row outlineLevel="0" r="749">
@@ -19925,6 +19925,303 @@
         <v>0</v>
       </c>
       <c r="G749" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="750">
+      <c r="A750" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B750" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C750" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D750" s="0">
+        <v>13117</v>
+      </c>
+      <c r="E750" s="0">
+        <v>0.420956354300385</v>
+      </c>
+      <c r="F750" s="0">
+        <v>270</v>
+      </c>
+      <c r="G750" s="0">
+        <v>0.559006211180124</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="751">
+      <c r="A751" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B751" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C751" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D751" s="0">
+        <v>6632</v>
+      </c>
+      <c r="E751" s="0">
+        <v>0.212836970474968</v>
+      </c>
+      <c r="F751" s="0">
+        <v>164</v>
+      </c>
+      <c r="G751" s="0">
+        <v>0.339544513457557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="752">
+      <c r="A752" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B752" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C752" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D752" s="0">
+        <v>4960</v>
+      </c>
+      <c r="E752" s="0">
+        <v>0.159178433889602</v>
+      </c>
+      <c r="F752" s="0">
+        <v>22</v>
+      </c>
+      <c r="G752" s="0">
+        <v>4.55486542443064E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="753">
+      <c r="A753" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B753" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C753" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D753" s="0">
+        <v>472</v>
+      </c>
+      <c r="E753" s="0">
+        <v>1.51476251604621E-02</v>
+      </c>
+      <c r="F753" s="0">
+        <v>10</v>
+      </c>
+      <c r="G753" s="0">
+        <v>0.020703933747412</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="754">
+      <c r="A754" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B754" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C754" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D754" s="0">
+        <v>5979</v>
+      </c>
+      <c r="E754" s="0">
+        <v>0.191880616174583</v>
+      </c>
+      <c r="F754" s="0">
+        <v>17</v>
+      </c>
+      <c r="G754" s="0">
+        <v>3.51966873706004E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="755">
+      <c r="A755" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B755" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C755" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D755" s="0">
+        <v>14622</v>
+      </c>
+      <c r="E755" s="0">
+        <v>0.469255455712452</v>
+      </c>
+      <c r="F755" s="0">
+        <v>413</v>
+      </c>
+      <c r="G755" s="0">
+        <v>0.855072463768116</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="756">
+      <c r="A756" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B756" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C756" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D756" s="0">
+        <v>7995</v>
+      </c>
+      <c r="E756" s="0">
+        <v>0.256578947368421</v>
+      </c>
+      <c r="F756" s="0">
+        <v>34</v>
+      </c>
+      <c r="G756" s="0">
+        <v>7.03933747412008E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="757">
+      <c r="A757" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B757" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C757" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D757" s="0">
+        <v>8543</v>
+      </c>
+      <c r="E757" s="0">
+        <v>0.274165596919127</v>
+      </c>
+      <c r="F757" s="0">
+        <v>36</v>
+      </c>
+      <c r="G757" s="0">
+        <v>7.45341614906832E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="758">
+      <c r="A758" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B758" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C758" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D758" s="0">
+        <v>13483</v>
+      </c>
+      <c r="E758" s="0">
+        <v>0.432702182284981</v>
+      </c>
+      <c r="F758" s="0">
+        <v>222</v>
+      </c>
+      <c r="G758" s="0">
+        <v>0.459627329192547</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="759">
+      <c r="A759" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B759" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C759" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D759" s="0">
+        <v>16695</v>
+      </c>
+      <c r="E759" s="0">
+        <v>0.535783055198973</v>
+      </c>
+      <c r="F759" s="0">
+        <v>261</v>
+      </c>
+      <c r="G759" s="0">
+        <v>0.540372670807453</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="760">
+      <c r="A760" s="1">
+        <v>43997</v>
+      </c>
+      <c r="B760" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C760" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D760" s="0">
+        <v>982</v>
+      </c>
+      <c r="E760" s="0">
+        <v>3.15147625160462E-02</v>
+      </c>
+      <c r="F760" s="0">
+        <v>0</v>
+      </c>
+      <c r="G760" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$760</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$771</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G760"/>
+  <dimension ref="A1:G771"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -19952,7 +19952,7 @@
         <v>270</v>
       </c>
       <c r="G750" s="0">
-        <v>0.559006211180124</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="751">
@@ -19979,7 +19979,7 @@
         <v>164</v>
       </c>
       <c r="G751" s="0">
-        <v>0.339544513457557</v>
+        <v>0.339</v>
       </c>
     </row>
     <row outlineLevel="0" r="752">
@@ -20006,7 +20006,7 @@
         <v>22</v>
       </c>
       <c r="G752" s="0">
-        <v>4.55486542443064E-02</v>
+        <v>0.045</v>
       </c>
     </row>
     <row outlineLevel="0" r="753">
@@ -20033,7 +20033,7 @@
         <v>10</v>
       </c>
       <c r="G753" s="0">
-        <v>0.020703933747412</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="754">
@@ -20060,7 +20060,7 @@
         <v>17</v>
       </c>
       <c r="G754" s="0">
-        <v>3.51966873706004E-02</v>
+        <v>0.035</v>
       </c>
     </row>
     <row outlineLevel="0" r="755">
@@ -20087,7 +20087,7 @@
         <v>413</v>
       </c>
       <c r="G755" s="0">
-        <v>0.855072463768116</v>
+        <v>0.855</v>
       </c>
     </row>
     <row outlineLevel="0" r="756">
@@ -20114,7 +20114,7 @@
         <v>34</v>
       </c>
       <c r="G756" s="0">
-        <v>7.03933747412008E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="757">
@@ -20141,7 +20141,7 @@
         <v>36</v>
       </c>
       <c r="G757" s="0">
-        <v>7.45341614906832E-02</v>
+        <v>0.074</v>
       </c>
     </row>
     <row outlineLevel="0" r="758">
@@ -20168,7 +20168,7 @@
         <v>222</v>
       </c>
       <c r="G758" s="0">
-        <v>0.459627329192547</v>
+        <v>0.459</v>
       </c>
     </row>
     <row outlineLevel="0" r="759">
@@ -20195,7 +20195,7 @@
         <v>261</v>
       </c>
       <c r="G759" s="0">
-        <v>0.540372670807453</v>
+        <v>0.54</v>
       </c>
     </row>
     <row outlineLevel="0" r="760">
@@ -20222,6 +20222,303 @@
         <v>0</v>
       </c>
       <c r="G760" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="761">
+      <c r="A761" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B761" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C761" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D761" s="0">
+        <v>13346</v>
+      </c>
+      <c r="E761" s="0">
+        <v>0.419289978008168</v>
+      </c>
+      <c r="F761" s="0">
+        <v>277</v>
+      </c>
+      <c r="G761" s="0">
+        <v>0.561866125760649</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="762">
+      <c r="A762" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B762" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C762" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D762" s="0">
+        <v>6712</v>
+      </c>
+      <c r="E762" s="0">
+        <v>0.210870248193528</v>
+      </c>
+      <c r="F762" s="0">
+        <v>165</v>
+      </c>
+      <c r="G762" s="0">
+        <v>0.334685598377282</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="763">
+      <c r="A763" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B763" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C763" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D763" s="0">
+        <v>5072</v>
+      </c>
+      <c r="E763" s="0">
+        <v>0.159346528432297</v>
+      </c>
+      <c r="F763" s="0">
+        <v>23</v>
+      </c>
+      <c r="G763" s="0">
+        <v>4.66531440162272E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="764">
+      <c r="A764" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B764" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C764" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D764" s="0">
+        <v>484</v>
+      </c>
+      <c r="E764" s="0">
+        <v>0.015205780710022</v>
+      </c>
+      <c r="F764" s="0">
+        <v>10</v>
+      </c>
+      <c r="G764" s="0">
+        <v>2.02839756592292E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="765">
+      <c r="A765" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B765" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C765" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D765" s="0">
+        <v>6216</v>
+      </c>
+      <c r="E765" s="0">
+        <v>0.195287464655985</v>
+      </c>
+      <c r="F765" s="0">
+        <v>18</v>
+      </c>
+      <c r="G765" s="0">
+        <v>3.65111561866126E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="766">
+      <c r="A766" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B766" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C766" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D766" s="0">
+        <v>14875</v>
+      </c>
+      <c r="E766" s="0">
+        <v>0.467326421614829</v>
+      </c>
+      <c r="F766" s="0">
+        <v>421</v>
+      </c>
+      <c r="G766" s="0">
+        <v>0.85395537525355</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="767">
+      <c r="A767" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B767" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C767" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D767" s="0">
+        <v>8242</v>
+      </c>
+      <c r="E767" s="0">
+        <v>0.258938108702482</v>
+      </c>
+      <c r="F767" s="0">
+        <v>35</v>
+      </c>
+      <c r="G767" s="0">
+        <v>7.09939148073022E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="768">
+      <c r="A768" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B768" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C768" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D768" s="0">
+        <v>8713</v>
+      </c>
+      <c r="E768" s="0">
+        <v>0.273735469682689</v>
+      </c>
+      <c r="F768" s="0">
+        <v>37</v>
+      </c>
+      <c r="G768" s="0">
+        <v>7.50507099391481E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="769">
+      <c r="A769" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B769" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C769" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D769" s="0">
+        <v>13793</v>
+      </c>
+      <c r="E769" s="0">
+        <v>0.433333333333333</v>
+      </c>
+      <c r="F769" s="0">
+        <v>224</v>
+      </c>
+      <c r="G769" s="0">
+        <v>0.454361054766734</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="770">
+      <c r="A770" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B770" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C770" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D770" s="0">
+        <v>17049</v>
+      </c>
+      <c r="E770" s="0">
+        <v>0.535626767200754</v>
+      </c>
+      <c r="F770" s="0">
+        <v>269</v>
+      </c>
+      <c r="G770" s="0">
+        <v>0.545638945233266</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="771">
+      <c r="A771" s="1">
+        <v>43998</v>
+      </c>
+      <c r="B771" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C771" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D771" s="0">
+        <v>988</v>
+      </c>
+      <c r="E771" s="0">
+        <v>3.10398994659127E-02</v>
+      </c>
+      <c r="F771" s="0">
+        <v>0</v>
+      </c>
+      <c r="G771" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$771</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$782</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G771"/>
+  <dimension ref="A1:G782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20249,7 +20249,7 @@
         <v>277</v>
       </c>
       <c r="G761" s="0">
-        <v>0.561866125760649</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="762">
@@ -20276,7 +20276,7 @@
         <v>165</v>
       </c>
       <c r="G762" s="0">
-        <v>0.334685598377282</v>
+        <v>0.334</v>
       </c>
     </row>
     <row outlineLevel="0" r="763">
@@ -20303,7 +20303,7 @@
         <v>23</v>
       </c>
       <c r="G763" s="0">
-        <v>4.66531440162272E-02</v>
+        <v>0.046</v>
       </c>
     </row>
     <row outlineLevel="0" r="764">
@@ -20330,7 +20330,7 @@
         <v>10</v>
       </c>
       <c r="G764" s="0">
-        <v>2.02839756592292E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="765">
@@ -20357,7 +20357,7 @@
         <v>18</v>
       </c>
       <c r="G765" s="0">
-        <v>3.65111561866126E-02</v>
+        <v>0.036</v>
       </c>
     </row>
     <row outlineLevel="0" r="766">
@@ -20384,7 +20384,7 @@
         <v>421</v>
       </c>
       <c r="G766" s="0">
-        <v>0.85395537525355</v>
+        <v>0.853</v>
       </c>
     </row>
     <row outlineLevel="0" r="767">
@@ -20411,7 +20411,7 @@
         <v>35</v>
       </c>
       <c r="G767" s="0">
-        <v>7.09939148073022E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="768">
@@ -20438,7 +20438,7 @@
         <v>37</v>
       </c>
       <c r="G768" s="0">
-        <v>7.50507099391481E-02</v>
+        <v>0.075</v>
       </c>
     </row>
     <row outlineLevel="0" r="769">
@@ -20465,7 +20465,7 @@
         <v>224</v>
       </c>
       <c r="G769" s="0">
-        <v>0.454361054766734</v>
+        <v>0.454</v>
       </c>
     </row>
     <row outlineLevel="0" r="770">
@@ -20492,7 +20492,7 @@
         <v>269</v>
       </c>
       <c r="G770" s="0">
-        <v>0.545638945233266</v>
+        <v>0.545</v>
       </c>
     </row>
     <row outlineLevel="0" r="771">
@@ -20519,6 +20519,303 @@
         <v>0</v>
       </c>
       <c r="G771" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="772">
+      <c r="A772" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B772" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C772" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D772" s="0">
+        <v>13596</v>
+      </c>
+      <c r="E772" s="0">
+        <v>0.422984786734281</v>
+      </c>
+      <c r="F772" s="0">
+        <v>282</v>
+      </c>
+      <c r="G772" s="0">
+        <v>0.567404426559356</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="773">
+      <c r="A773" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B773" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C773" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D773" s="0">
+        <v>6801</v>
+      </c>
+      <c r="E773" s="0">
+        <v>0.211585726285661</v>
+      </c>
+      <c r="F773" s="0">
+        <v>166</v>
+      </c>
+      <c r="G773" s="0">
+        <v>0.334004024144869</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="774">
+      <c r="A774" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B774" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C774" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D774" s="0">
+        <v>5209</v>
+      </c>
+      <c r="E774" s="0">
+        <v>0.162057057524189</v>
+      </c>
+      <c r="F774" s="0">
+        <v>23</v>
+      </c>
+      <c r="G774" s="0">
+        <v>4.62776659959759E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="775">
+      <c r="A775" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B775" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C775" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D775" s="0">
+        <v>487</v>
+      </c>
+      <c r="E775" s="0">
+        <v>1.51510437731388E-02</v>
+      </c>
+      <c r="F775" s="0">
+        <v>10</v>
+      </c>
+      <c r="G775" s="0">
+        <v>2.01207243460765E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="776">
+      <c r="A776" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B776" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C776" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D776" s="0">
+        <v>6050</v>
+      </c>
+      <c r="E776" s="0">
+        <v>0.18822138568273</v>
+      </c>
+      <c r="F776" s="0">
+        <v>16</v>
+      </c>
+      <c r="G776" s="0">
+        <v>3.21931589537223E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="777">
+      <c r="A777" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B777" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C777" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D777" s="0">
+        <v>15125</v>
+      </c>
+      <c r="E777" s="0">
+        <v>0.470553464206826</v>
+      </c>
+      <c r="F777" s="0">
+        <v>427</v>
+      </c>
+      <c r="G777" s="0">
+        <v>0.859154929577465</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="778">
+      <c r="A778" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B778" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C778" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D778" s="0">
+        <v>8484</v>
+      </c>
+      <c r="E778" s="0">
+        <v>0.263945493575584</v>
+      </c>
+      <c r="F778" s="0">
+        <v>35</v>
+      </c>
+      <c r="G778" s="0">
+        <v>7.04225352112676E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="779">
+      <c r="A779" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B779" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C779" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D779" s="0">
+        <v>8534</v>
+      </c>
+      <c r="E779" s="0">
+        <v>0.26550104221759</v>
+      </c>
+      <c r="F779" s="0">
+        <v>35</v>
+      </c>
+      <c r="G779" s="0">
+        <v>7.04225352112676E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="780">
+      <c r="A780" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B780" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C780" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D780" s="0">
+        <v>13957</v>
+      </c>
+      <c r="E780" s="0">
+        <v>0.434215847929565</v>
+      </c>
+      <c r="F780" s="0">
+        <v>228</v>
+      </c>
+      <c r="G780" s="0">
+        <v>0.458752515090543</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="781">
+      <c r="A781" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B781" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C781" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D781" s="0">
+        <v>17211</v>
+      </c>
+      <c r="E781" s="0">
+        <v>0.535450953551318</v>
+      </c>
+      <c r="F781" s="0">
+        <v>269</v>
+      </c>
+      <c r="G781" s="0">
+        <v>0.541247484909457</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="782">
+      <c r="A782" s="1">
+        <v>43999</v>
+      </c>
+      <c r="B782" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C782" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D782" s="0">
+        <v>975</v>
+      </c>
+      <c r="E782" s="0">
+        <v>3.03331985191177E-02</v>
+      </c>
+      <c r="F782" s="0">
+        <v>0</v>
+      </c>
+      <c r="G782" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$782</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$793</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G782"/>
+  <dimension ref="A1:G793"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20546,7 +20546,7 @@
         <v>282</v>
       </c>
       <c r="G772" s="0">
-        <v>0.567404426559356</v>
+        <v>0.567</v>
       </c>
     </row>
     <row outlineLevel="0" r="773">
@@ -20573,7 +20573,7 @@
         <v>166</v>
       </c>
       <c r="G773" s="0">
-        <v>0.334004024144869</v>
+        <v>0.334</v>
       </c>
     </row>
     <row outlineLevel="0" r="774">
@@ -20600,7 +20600,7 @@
         <v>23</v>
       </c>
       <c r="G774" s="0">
-        <v>4.62776659959759E-02</v>
+        <v>0.046</v>
       </c>
     </row>
     <row outlineLevel="0" r="775">
@@ -20627,7 +20627,7 @@
         <v>10</v>
       </c>
       <c r="G775" s="0">
-        <v>2.01207243460765E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="776">
@@ -20654,7 +20654,7 @@
         <v>16</v>
       </c>
       <c r="G776" s="0">
-        <v>3.21931589537223E-02</v>
+        <v>0.032</v>
       </c>
     </row>
     <row outlineLevel="0" r="777">
@@ -20681,7 +20681,7 @@
         <v>427</v>
       </c>
       <c r="G777" s="0">
-        <v>0.859154929577465</v>
+        <v>0.859</v>
       </c>
     </row>
     <row outlineLevel="0" r="778">
@@ -20708,7 +20708,7 @@
         <v>35</v>
       </c>
       <c r="G778" s="0">
-        <v>7.04225352112676E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="779">
@@ -20735,7 +20735,7 @@
         <v>35</v>
       </c>
       <c r="G779" s="0">
-        <v>7.04225352112676E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="780">
@@ -20762,7 +20762,7 @@
         <v>228</v>
       </c>
       <c r="G780" s="0">
-        <v>0.458752515090543</v>
+        <v>0.458</v>
       </c>
     </row>
     <row outlineLevel="0" r="781">
@@ -20789,7 +20789,7 @@
         <v>269</v>
       </c>
       <c r="G781" s="0">
-        <v>0.541247484909457</v>
+        <v>0.541</v>
       </c>
     </row>
     <row outlineLevel="0" r="782">
@@ -20817,6 +20817,303 @@
       </c>
       <c r="G782" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="783">
+      <c r="A783" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B783" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C783" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D783" s="0">
+        <v>13903</v>
+      </c>
+      <c r="E783" s="0">
+        <v>0.42349751743885</v>
+      </c>
+      <c r="F783" s="0">
+        <v>287</v>
+      </c>
+      <c r="G783" s="0">
+        <v>0.56385068762279</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="784">
+      <c r="A784" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B784" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C784" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D784" s="0">
+        <v>6895</v>
+      </c>
+      <c r="E784" s="0">
+        <v>0.210027719394438</v>
+      </c>
+      <c r="F784" s="0">
+        <v>167</v>
+      </c>
+      <c r="G784" s="0">
+        <v>0.328094302554027</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="785">
+      <c r="A785" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B785" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C785" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D785" s="0">
+        <v>5360</v>
+      </c>
+      <c r="E785" s="0">
+        <v>0.163270279326205</v>
+      </c>
+      <c r="F785" s="0">
+        <v>23</v>
+      </c>
+      <c r="G785" s="0">
+        <v>4.51866404715128E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="786">
+      <c r="A786" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B786" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C786" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D786" s="0">
+        <v>492</v>
+      </c>
+      <c r="E786" s="0">
+        <v>1.49867495202412E-02</v>
+      </c>
+      <c r="F786" s="0">
+        <v>10</v>
+      </c>
+      <c r="G786" s="0">
+        <v>1.96463654223969E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="787">
+      <c r="A787" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B787" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C787" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D787" s="0">
+        <v>6179</v>
+      </c>
+      <c r="E787" s="0">
+        <v>0.188217734320266</v>
+      </c>
+      <c r="F787" s="0">
+        <v>22</v>
+      </c>
+      <c r="G787" s="0">
+        <v>4.32220039292731E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="788">
+      <c r="A788" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B788" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C788" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D788" s="0">
+        <v>15335</v>
+      </c>
+      <c r="E788" s="0">
+        <v>0.467117487587194</v>
+      </c>
+      <c r="F788" s="0">
+        <v>434</v>
+      </c>
+      <c r="G788" s="0">
+        <v>0.852652259332024</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="789">
+      <c r="A789" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B789" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C789" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D789" s="0">
+        <v>8748</v>
+      </c>
+      <c r="E789" s="0">
+        <v>0.266471717079411</v>
+      </c>
+      <c r="F789" s="0">
+        <v>37</v>
+      </c>
+      <c r="G789" s="0">
+        <v>7.26915520628684E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="790">
+      <c r="A790" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B790" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C790" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D790" s="0">
+        <v>8746</v>
+      </c>
+      <c r="E790" s="0">
+        <v>0.266410795333394</v>
+      </c>
+      <c r="F790" s="0">
+        <v>38</v>
+      </c>
+      <c r="G790" s="0">
+        <v>7.46561886051081E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="791">
+      <c r="A791" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B791" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C791" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D791" s="0">
+        <v>14268</v>
+      </c>
+      <c r="E791" s="0">
+        <v>0.434615736086996</v>
+      </c>
+      <c r="F791" s="0">
+        <v>231</v>
+      </c>
+      <c r="G791" s="0">
+        <v>0.453831041257367</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="792">
+      <c r="A792" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B792" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C792" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D792" s="0">
+        <v>17572</v>
+      </c>
+      <c r="E792" s="0">
+        <v>0.535258460507478</v>
+      </c>
+      <c r="F792" s="0">
+        <v>277</v>
+      </c>
+      <c r="G792" s="0">
+        <v>0.544204322200393</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="793">
+      <c r="A793" s="1">
+        <v>44000</v>
+      </c>
+      <c r="B793" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C793" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D793" s="0">
+        <v>989</v>
+      </c>
+      <c r="E793" s="0">
+        <v>3.01258034055256E-02</v>
+      </c>
+      <c r="F793" s="0">
+        <v>1</v>
+      </c>
+      <c r="G793" s="0">
+        <v>1.96463654223969E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$793</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$804</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G793"/>
+  <dimension ref="A1:G804"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20843,7 +20843,7 @@
         <v>287</v>
       </c>
       <c r="G783" s="0">
-        <v>0.56385068762279</v>
+        <v>0.563</v>
       </c>
     </row>
     <row outlineLevel="0" r="784">
@@ -20870,7 +20870,7 @@
         <v>167</v>
       </c>
       <c r="G784" s="0">
-        <v>0.328094302554027</v>
+        <v>0.328</v>
       </c>
     </row>
     <row outlineLevel="0" r="785">
@@ -20897,7 +20897,7 @@
         <v>23</v>
       </c>
       <c r="G785" s="0">
-        <v>4.51866404715128E-02</v>
+        <v>0.045</v>
       </c>
     </row>
     <row outlineLevel="0" r="786">
@@ -20924,7 +20924,7 @@
         <v>10</v>
       </c>
       <c r="G786" s="0">
-        <v>1.96463654223969E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="787">
@@ -20951,7 +20951,7 @@
         <v>22</v>
       </c>
       <c r="G787" s="0">
-        <v>4.32220039292731E-02</v>
+        <v>0.043</v>
       </c>
     </row>
     <row outlineLevel="0" r="788">
@@ -20978,7 +20978,7 @@
         <v>434</v>
       </c>
       <c r="G788" s="0">
-        <v>0.852652259332024</v>
+        <v>0.852</v>
       </c>
     </row>
     <row outlineLevel="0" r="789">
@@ -21005,7 +21005,7 @@
         <v>37</v>
       </c>
       <c r="G789" s="0">
-        <v>7.26915520628684E-02</v>
+        <v>0.072</v>
       </c>
     </row>
     <row outlineLevel="0" r="790">
@@ -21032,7 +21032,7 @@
         <v>38</v>
       </c>
       <c r="G790" s="0">
-        <v>7.46561886051081E-02</v>
+        <v>0.074</v>
       </c>
     </row>
     <row outlineLevel="0" r="791">
@@ -21059,7 +21059,7 @@
         <v>231</v>
       </c>
       <c r="G791" s="0">
-        <v>0.453831041257367</v>
+        <v>0.453</v>
       </c>
     </row>
     <row outlineLevel="0" r="792">
@@ -21086,7 +21086,7 @@
         <v>277</v>
       </c>
       <c r="G792" s="0">
-        <v>0.544204322200393</v>
+        <v>0.544</v>
       </c>
     </row>
     <row outlineLevel="0" r="793">
@@ -21113,7 +21113,304 @@
         <v>1</v>
       </c>
       <c r="G793" s="0">
-        <v>1.96463654223969E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="794">
+      <c r="A794" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B794" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C794" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D794" s="0">
+        <v>14235</v>
+      </c>
+      <c r="E794" s="0">
+        <v>0.41846723696975</v>
+      </c>
+      <c r="F794" s="0">
+        <v>288</v>
+      </c>
+      <c r="G794" s="0">
+        <v>0.559223300970874</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="795">
+      <c r="A795" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B795" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C795" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D795" s="0">
+        <v>7075</v>
+      </c>
+      <c r="E795" s="0">
+        <v>0.207984243172531</v>
+      </c>
+      <c r="F795" s="0">
+        <v>169</v>
+      </c>
+      <c r="G795" s="0">
+        <v>0.328155339805825</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="796">
+      <c r="A796" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B796" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C796" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D796" s="0">
+        <v>5525</v>
+      </c>
+      <c r="E796" s="0">
+        <v>0.162418790604698</v>
+      </c>
+      <c r="F796" s="0">
+        <v>26</v>
+      </c>
+      <c r="G796" s="0">
+        <v>5.04854368932039E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="797">
+      <c r="A797" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B797" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C797" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D797" s="0">
+        <v>501</v>
+      </c>
+      <c r="E797" s="0">
+        <v>1.47279301525708E-02</v>
+      </c>
+      <c r="F797" s="0">
+        <v>11</v>
+      </c>
+      <c r="G797" s="0">
+        <v>2.13592233009709E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="798">
+      <c r="A798" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B798" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C798" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D798" s="0">
+        <v>6681</v>
+      </c>
+      <c r="E798" s="0">
+        <v>0.19640179910045</v>
+      </c>
+      <c r="F798" s="0">
+        <v>21</v>
+      </c>
+      <c r="G798" s="0">
+        <v>4.07766990291262E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="799">
+      <c r="A799" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B799" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C799" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D799" s="0">
+        <v>15739</v>
+      </c>
+      <c r="E799" s="0">
+        <v>0.462680424493636</v>
+      </c>
+      <c r="F799" s="0">
+        <v>438</v>
+      </c>
+      <c r="G799" s="0">
+        <v>0.850485436893204</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="800">
+      <c r="A800" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B800" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C800" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D800" s="0">
+        <v>9001</v>
+      </c>
+      <c r="E800" s="0">
+        <v>0.264602992621336</v>
+      </c>
+      <c r="F800" s="0">
+        <v>40</v>
+      </c>
+      <c r="G800" s="0">
+        <v>7.76699029126214E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="801">
+      <c r="A801" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B801" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C801" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D801" s="0">
+        <v>9277</v>
+      </c>
+      <c r="E801" s="0">
+        <v>0.272716582885028</v>
+      </c>
+      <c r="F801" s="0">
+        <v>37</v>
+      </c>
+      <c r="G801" s="0">
+        <v>7.18446601941748E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="802">
+      <c r="A802" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B802" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C802" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D802" s="0">
+        <v>14832</v>
+      </c>
+      <c r="E802" s="0">
+        <v>0.43601728547491</v>
+      </c>
+      <c r="F802" s="0">
+        <v>234</v>
+      </c>
+      <c r="G802" s="0">
+        <v>0.454368932038835</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="803">
+      <c r="A803" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B803" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C803" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D803" s="0">
+        <v>18180</v>
+      </c>
+      <c r="E803" s="0">
+        <v>0.534438663021431</v>
+      </c>
+      <c r="F803" s="0">
+        <v>281</v>
+      </c>
+      <c r="G803" s="0">
+        <v>0.545631067961165</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="804">
+      <c r="A804" s="1">
+        <v>44001</v>
+      </c>
+      <c r="B804" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C804" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D804" s="0">
+        <v>1005</v>
+      </c>
+      <c r="E804" s="0">
+        <v>2.95440515036599E-02</v>
+      </c>
+      <c r="F804" s="0">
+        <v>0</v>
+      </c>
+      <c r="G804" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$804</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$837</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G804"/>
+  <dimension ref="A1:G837"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -21140,7 +21140,7 @@
         <v>288</v>
       </c>
       <c r="G794" s="0">
-        <v>0.559223300970874</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="795">
@@ -21167,7 +21167,7 @@
         <v>169</v>
       </c>
       <c r="G795" s="0">
-        <v>0.328155339805825</v>
+        <v>0.328</v>
       </c>
     </row>
     <row outlineLevel="0" r="796">
@@ -21194,7 +21194,7 @@
         <v>26</v>
       </c>
       <c r="G796" s="0">
-        <v>5.04854368932039E-02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="797">
@@ -21221,7 +21221,7 @@
         <v>11</v>
       </c>
       <c r="G797" s="0">
-        <v>2.13592233009709E-02</v>
+        <v>0.021</v>
       </c>
     </row>
     <row outlineLevel="0" r="798">
@@ -21248,7 +21248,7 @@
         <v>21</v>
       </c>
       <c r="G798" s="0">
-        <v>4.07766990291262E-02</v>
+        <v>0.04</v>
       </c>
     </row>
     <row outlineLevel="0" r="799">
@@ -21275,7 +21275,7 @@
         <v>438</v>
       </c>
       <c r="G799" s="0">
-        <v>0.850485436893204</v>
+        <v>0.85</v>
       </c>
     </row>
     <row outlineLevel="0" r="800">
@@ -21302,7 +21302,7 @@
         <v>40</v>
       </c>
       <c r="G800" s="0">
-        <v>7.76699029126214E-02</v>
+        <v>0.077</v>
       </c>
     </row>
     <row outlineLevel="0" r="801">
@@ -21329,7 +21329,7 @@
         <v>37</v>
       </c>
       <c r="G801" s="0">
-        <v>7.18446601941748E-02</v>
+        <v>0.071</v>
       </c>
     </row>
     <row outlineLevel="0" r="802">
@@ -21356,7 +21356,7 @@
         <v>234</v>
       </c>
       <c r="G802" s="0">
-        <v>0.454368932038835</v>
+        <v>0.454</v>
       </c>
     </row>
     <row outlineLevel="0" r="803">
@@ -21383,7 +21383,7 @@
         <v>281</v>
       </c>
       <c r="G803" s="0">
-        <v>0.545631067961165</v>
+        <v>0.545</v>
       </c>
     </row>
     <row outlineLevel="0" r="804">
@@ -21411,6 +21411,897 @@
       </c>
       <c r="G804" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="805">
+      <c r="A805" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B805" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C805" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D805" s="0">
+        <v>14477</v>
+      </c>
+      <c r="E805" s="0">
+        <v>0.420281019566858</v>
+      </c>
+      <c r="F805" s="0">
+        <v>294</v>
+      </c>
+      <c r="G805" s="0">
+        <v>0.561</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="806">
+      <c r="A806" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B806" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C806" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D806" s="0">
+        <v>7218</v>
+      </c>
+      <c r="E806" s="0">
+        <v>0.209545375370145</v>
+      </c>
+      <c r="F806" s="0">
+        <v>170</v>
+      </c>
+      <c r="G806" s="0">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="807">
+      <c r="A807" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B807" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C807" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D807" s="0">
+        <v>5679</v>
+      </c>
+      <c r="E807" s="0">
+        <v>0.164866747953318</v>
+      </c>
+      <c r="F807" s="0">
+        <v>26</v>
+      </c>
+      <c r="G807" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="808">
+      <c r="A808" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B808" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C808" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D808" s="0">
+        <v>503</v>
+      </c>
+      <c r="E808" s="0">
+        <v>1.46025663357139E-02</v>
+      </c>
+      <c r="F808" s="0">
+        <v>11</v>
+      </c>
+      <c r="G808" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="809">
+      <c r="A809" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B809" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C809" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D809" s="0">
+        <v>6569</v>
+      </c>
+      <c r="E809" s="0">
+        <v>0.190704290773965</v>
+      </c>
+      <c r="F809" s="0">
+        <v>23</v>
+      </c>
+      <c r="G809" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="810">
+      <c r="A810" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B810" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C810" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D810" s="0">
+        <v>16028</v>
+      </c>
+      <c r="E810" s="0">
+        <v>0.465308018347558</v>
+      </c>
+      <c r="F810" s="0">
+        <v>444</v>
+      </c>
+      <c r="G810" s="0">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="811">
+      <c r="A811" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B811" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C811" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D811" s="0">
+        <v>9257</v>
+      </c>
+      <c r="E811" s="0">
+        <v>0.268739476281716</v>
+      </c>
+      <c r="F811" s="0">
+        <v>41</v>
+      </c>
+      <c r="G811" s="0">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="812">
+      <c r="A812" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B812" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C812" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D812" s="0">
+        <v>9161</v>
+      </c>
+      <c r="E812" s="0">
+        <v>0.265952505370725</v>
+      </c>
+      <c r="F812" s="0">
+        <v>39</v>
+      </c>
+      <c r="G812" s="0">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="813">
+      <c r="A813" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B813" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C813" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D813" s="0">
+        <v>15058</v>
+      </c>
+      <c r="E813" s="0">
+        <v>0.437147999767752</v>
+      </c>
+      <c r="F813" s="0">
+        <v>239</v>
+      </c>
+      <c r="G813" s="0">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="814">
+      <c r="A814" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B814" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C814" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D814" s="0">
+        <v>18396</v>
+      </c>
+      <c r="E814" s="0">
+        <v>0.534053300818673</v>
+      </c>
+      <c r="F814" s="0">
+        <v>284</v>
+      </c>
+      <c r="G814" s="0">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="815">
+      <c r="A815" s="1">
+        <v>44002</v>
+      </c>
+      <c r="B815" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C815" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D815" s="0">
+        <v>992</v>
+      </c>
+      <c r="E815" s="0">
+        <v>2.87986994135749E-02</v>
+      </c>
+      <c r="F815" s="0">
+        <v>1</v>
+      </c>
+      <c r="G815" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="816">
+      <c r="A816" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B816" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C816" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D816" s="0">
+        <v>14657</v>
+      </c>
+      <c r="E816" s="0">
+        <v>0.417554555295995</v>
+      </c>
+      <c r="F816" s="0">
+        <v>296</v>
+      </c>
+      <c r="G816" s="0">
+        <v>0.562</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="817">
+      <c r="A817" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B817" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C817" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D817" s="0">
+        <v>7312</v>
+      </c>
+      <c r="E817" s="0">
+        <v>0.208307218961883</v>
+      </c>
+      <c r="F817" s="0">
+        <v>170</v>
+      </c>
+      <c r="G817" s="0">
+        <v>0.323</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="818">
+      <c r="A818" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B818" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C818" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D818" s="0">
+        <v>5779</v>
+      </c>
+      <c r="E818" s="0">
+        <v>0.164634493761039</v>
+      </c>
+      <c r="F818" s="0">
+        <v>26</v>
+      </c>
+      <c r="G818" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="819">
+      <c r="A819" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B819" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C819" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D819" s="0">
+        <v>512</v>
+      </c>
+      <c r="E819" s="0">
+        <v>1.45860634721668E-02</v>
+      </c>
+      <c r="F819" s="0">
+        <v>11</v>
+      </c>
+      <c r="G819" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="820">
+      <c r="A820" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B820" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C820" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D820" s="0">
+        <v>6842</v>
+      </c>
+      <c r="E820" s="0">
+        <v>0.194917668508917</v>
+      </c>
+      <c r="F820" s="0">
+        <v>23</v>
+      </c>
+      <c r="G820" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="821">
+      <c r="A821" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B821" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C821" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D821" s="0">
+        <v>16254</v>
+      </c>
+      <c r="E821" s="0">
+        <v>0.463050538430859</v>
+      </c>
+      <c r="F821" s="0">
+        <v>446</v>
+      </c>
+      <c r="G821" s="0">
+        <v>0.847</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="822">
+      <c r="A822" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B822" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C822" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D822" s="0">
+        <v>9404</v>
+      </c>
+      <c r="E822" s="0">
+        <v>0.267904962680189</v>
+      </c>
+      <c r="F822" s="0">
+        <v>41</v>
+      </c>
+      <c r="G822" s="0">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="823">
+      <c r="A823" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B823" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C823" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D823" s="0">
+        <v>9444</v>
+      </c>
+      <c r="E823" s="0">
+        <v>0.269044498888952</v>
+      </c>
+      <c r="F823" s="0">
+        <v>39</v>
+      </c>
+      <c r="G823" s="0">
+        <v>0.074</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="824">
+      <c r="A824" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B824" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C824" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D824" s="0">
+        <v>15383</v>
+      </c>
+      <c r="E824" s="0">
+        <v>0.438237137485044</v>
+      </c>
+      <c r="F824" s="0">
+        <v>240</v>
+      </c>
+      <c r="G824" s="0">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="825">
+      <c r="A825" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B825" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C825" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D825" s="0">
+        <v>18727</v>
+      </c>
+      <c r="E825" s="0">
+        <v>0.533502364537633</v>
+      </c>
+      <c r="F825" s="0">
+        <v>285</v>
+      </c>
+      <c r="G825" s="0">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="826">
+      <c r="A826" s="1">
+        <v>44003</v>
+      </c>
+      <c r="B826" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C826" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D826" s="0">
+        <v>992</v>
+      </c>
+      <c r="E826" s="0">
+        <v>2.82604979773232E-02</v>
+      </c>
+      <c r="F826" s="0">
+        <v>1</v>
+      </c>
+      <c r="G826" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="827">
+      <c r="A827" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B827" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C827" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D827" s="0">
+        <v>14869</v>
+      </c>
+      <c r="E827" s="0">
+        <v>0.418220684611706</v>
+      </c>
+      <c r="F827" s="0">
+        <v>296</v>
+      </c>
+      <c r="G827" s="0">
+        <v>0.55743879472693</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="828">
+      <c r="A828" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B828" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C828" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D828" s="0">
+        <v>7404</v>
+      </c>
+      <c r="E828" s="0">
+        <v>0.208252468146148</v>
+      </c>
+      <c r="F828" s="0">
+        <v>174</v>
+      </c>
+      <c r="G828" s="0">
+        <v>0.327683615819209</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="829">
+      <c r="A829" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B829" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C829" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D829" s="0">
+        <v>5902</v>
+      </c>
+      <c r="E829" s="0">
+        <v>0.166005681658369</v>
+      </c>
+      <c r="F829" s="0">
+        <v>27</v>
+      </c>
+      <c r="G829" s="0">
+        <v>5.08474576271186E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="830">
+      <c r="A830" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B830" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C830" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D830" s="0">
+        <v>520</v>
+      </c>
+      <c r="E830" s="0">
+        <v>1.46260512474334E-02</v>
+      </c>
+      <c r="F830" s="0">
+        <v>11</v>
+      </c>
+      <c r="G830" s="0">
+        <v>2.07156308851224E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="831">
+      <c r="A831" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B831" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C831" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D831" s="0">
+        <v>6858</v>
+      </c>
+      <c r="E831" s="0">
+        <v>0.192895114336343</v>
+      </c>
+      <c r="F831" s="0">
+        <v>23</v>
+      </c>
+      <c r="G831" s="0">
+        <v>4.33145009416196E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="832">
+      <c r="A832" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B832" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C832" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D832" s="0">
+        <v>16489</v>
+      </c>
+      <c r="E832" s="0">
+        <v>0.463786459651787</v>
+      </c>
+      <c r="F832" s="0">
+        <v>449</v>
+      </c>
+      <c r="G832" s="0">
+        <v>0.845574387947269</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="833">
+      <c r="A833" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B833" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C833" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D833" s="0">
+        <v>9594</v>
+      </c>
+      <c r="E833" s="0">
+        <v>0.269850645515146</v>
+      </c>
+      <c r="F833" s="0">
+        <v>42</v>
+      </c>
+      <c r="G833" s="0">
+        <v>7.90960451977401E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="834">
+      <c r="A834" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B834" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C834" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D834" s="0">
+        <v>9470</v>
+      </c>
+      <c r="E834" s="0">
+        <v>0.266362894833066</v>
+      </c>
+      <c r="F834" s="0">
+        <v>40</v>
+      </c>
+      <c r="G834" s="0">
+        <v>7.53295668549906E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="835">
+      <c r="A835" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B835" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C835" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D835" s="0">
+        <v>15610</v>
+      </c>
+      <c r="E835" s="0">
+        <v>0.439062807639299</v>
+      </c>
+      <c r="F835" s="0">
+        <v>240</v>
+      </c>
+      <c r="G835" s="0">
+        <v>0.451977401129944</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="836">
+      <c r="A836" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B836" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C836" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D836" s="0">
+        <v>18954</v>
+      </c>
+      <c r="E836" s="0">
+        <v>0.533119567968948</v>
+      </c>
+      <c r="F836" s="0">
+        <v>290</v>
+      </c>
+      <c r="G836" s="0">
+        <v>0.546139359698682</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="837">
+      <c r="A837" s="1">
+        <v>44004</v>
+      </c>
+      <c r="B837" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C837" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D837" s="0">
+        <v>989</v>
+      </c>
+      <c r="E837" s="0">
+        <v>2.78176243917532E-02</v>
+      </c>
+      <c r="F837" s="0">
+        <v>1</v>
+      </c>
+      <c r="G837" s="0">
+        <v>1.88323917137476E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$837</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$848</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G837"/>
+  <dimension ref="A1:G848"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22031,7 +22031,7 @@
         <v>296</v>
       </c>
       <c r="G827" s="0">
-        <v>0.55743879472693</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="828">
@@ -22058,7 +22058,7 @@
         <v>174</v>
       </c>
       <c r="G828" s="0">
-        <v>0.327683615819209</v>
+        <v>0.327</v>
       </c>
     </row>
     <row outlineLevel="0" r="829">
@@ -22085,7 +22085,7 @@
         <v>27</v>
       </c>
       <c r="G829" s="0">
-        <v>5.08474576271186E-02</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="830">
@@ -22112,7 +22112,7 @@
         <v>11</v>
       </c>
       <c r="G830" s="0">
-        <v>2.07156308851224E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="831">
@@ -22139,7 +22139,7 @@
         <v>23</v>
       </c>
       <c r="G831" s="0">
-        <v>4.33145009416196E-02</v>
+        <v>0.043</v>
       </c>
     </row>
     <row outlineLevel="0" r="832">
@@ -22166,7 +22166,7 @@
         <v>449</v>
       </c>
       <c r="G832" s="0">
-        <v>0.845574387947269</v>
+        <v>0.845</v>
       </c>
     </row>
     <row outlineLevel="0" r="833">
@@ -22193,7 +22193,7 @@
         <v>42</v>
       </c>
       <c r="G833" s="0">
-        <v>7.90960451977401E-02</v>
+        <v>0.079</v>
       </c>
     </row>
     <row outlineLevel="0" r="834">
@@ -22220,7 +22220,7 @@
         <v>40</v>
       </c>
       <c r="G834" s="0">
-        <v>7.53295668549906E-02</v>
+        <v>0.075</v>
       </c>
     </row>
     <row outlineLevel="0" r="835">
@@ -22247,7 +22247,7 @@
         <v>240</v>
       </c>
       <c r="G835" s="0">
-        <v>0.451977401129944</v>
+        <v>0.451</v>
       </c>
     </row>
     <row outlineLevel="0" r="836">
@@ -22274,7 +22274,7 @@
         <v>290</v>
       </c>
       <c r="G836" s="0">
-        <v>0.546139359698682</v>
+        <v>0.546</v>
       </c>
     </row>
     <row outlineLevel="0" r="837">
@@ -22301,7 +22301,304 @@
         <v>1</v>
       </c>
       <c r="G837" s="0">
-        <v>1.88323917137476E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="838">
+      <c r="A838" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B838" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C838" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D838" s="0">
+        <v>15690</v>
+      </c>
+      <c r="E838" s="0">
+        <v>0.432195686306917</v>
+      </c>
+      <c r="F838" s="0">
+        <v>308</v>
+      </c>
+      <c r="G838" s="0">
+        <v>0.568265682656827</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="839">
+      <c r="A839" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B839" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C839" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D839" s="0">
+        <v>8010</v>
+      </c>
+      <c r="E839" s="0">
+        <v>0.220642922072556</v>
+      </c>
+      <c r="F839" s="0">
+        <v>180</v>
+      </c>
+      <c r="G839" s="0">
+        <v>0.33210332103321</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="840">
+      <c r="A840" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B840" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C840" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D840" s="0">
+        <v>6208</v>
+      </c>
+      <c r="E840" s="0">
+        <v>0.171005151089442</v>
+      </c>
+      <c r="F840" s="0">
+        <v>30</v>
+      </c>
+      <c r="G840" s="0">
+        <v>5.53505535055351E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="841">
+      <c r="A841" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B841" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C841" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D841" s="0">
+        <v>523</v>
+      </c>
+      <c r="E841" s="0">
+        <v>1.44065228768972E-02</v>
+      </c>
+      <c r="F841" s="0">
+        <v>11</v>
+      </c>
+      <c r="G841" s="0">
+        <v>2.02952029520295E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="842">
+      <c r="A842" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B842" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C842" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D842" s="0">
+        <v>5872</v>
+      </c>
+      <c r="E842" s="0">
+        <v>0.161749717654188</v>
+      </c>
+      <c r="F842" s="0">
+        <v>13</v>
+      </c>
+      <c r="G842" s="0">
+        <v>2.39852398523985E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="843">
+      <c r="A843" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B843" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C843" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D843" s="0">
+        <v>18628</v>
+      </c>
+      <c r="E843" s="0">
+        <v>0.513125636999697</v>
+      </c>
+      <c r="F843" s="0">
+        <v>493</v>
+      </c>
+      <c r="G843" s="0">
+        <v>0.909594095940959</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="844">
+      <c r="A844" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B844" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C844" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D844" s="0">
+        <v>9927</v>
+      </c>
+      <c r="E844" s="0">
+        <v>0.273448475332617</v>
+      </c>
+      <c r="F844" s="0">
+        <v>45</v>
+      </c>
+      <c r="G844" s="0">
+        <v>8.30258302583026E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="845">
+      <c r="A845" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B845" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C845" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D845" s="0">
+        <v>7748</v>
+      </c>
+      <c r="E845" s="0">
+        <v>0.213425887667686</v>
+      </c>
+      <c r="F845" s="0">
+        <v>4</v>
+      </c>
+      <c r="G845" s="0">
+        <v>7.38007380073801E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="846">
+      <c r="A846" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B846" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C846" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D846" s="0">
+        <v>15990</v>
+      </c>
+      <c r="E846" s="0">
+        <v>0.440459466159822</v>
+      </c>
+      <c r="F846" s="0">
+        <v>245</v>
+      </c>
+      <c r="G846" s="0">
+        <v>0.452029520295203</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="847">
+      <c r="A847" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B847" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C847" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D847" s="0">
+        <v>19319</v>
+      </c>
+      <c r="E847" s="0">
+        <v>0.532159876594221</v>
+      </c>
+      <c r="F847" s="0">
+        <v>297</v>
+      </c>
+      <c r="G847" s="0">
+        <v>0.547970479704797</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="848">
+      <c r="A848" s="1">
+        <v>44005</v>
+      </c>
+      <c r="B848" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C848" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D848" s="0">
+        <v>994</v>
+      </c>
+      <c r="E848" s="0">
+        <v>2.73806572459576E-02</v>
+      </c>
+      <c r="F848" s="0">
+        <v>0</v>
+      </c>
+      <c r="G848" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$848</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$859</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G848"/>
+  <dimension ref="A1:G859"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22328,7 +22328,7 @@
         <v>308</v>
       </c>
       <c r="G838" s="0">
-        <v>0.568265682656827</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="839">
@@ -22355,7 +22355,7 @@
         <v>180</v>
       </c>
       <c r="G839" s="0">
-        <v>0.33210332103321</v>
+        <v>0.332</v>
       </c>
     </row>
     <row outlineLevel="0" r="840">
@@ -22382,7 +22382,7 @@
         <v>30</v>
       </c>
       <c r="G840" s="0">
-        <v>5.53505535055351E-02</v>
+        <v>0.055</v>
       </c>
     </row>
     <row outlineLevel="0" r="841">
@@ -22409,7 +22409,7 @@
         <v>11</v>
       </c>
       <c r="G841" s="0">
-        <v>2.02952029520295E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="842">
@@ -22436,7 +22436,7 @@
         <v>13</v>
       </c>
       <c r="G842" s="0">
-        <v>2.39852398523985E-02</v>
+        <v>0.023</v>
       </c>
     </row>
     <row outlineLevel="0" r="843">
@@ -22463,7 +22463,7 @@
         <v>493</v>
       </c>
       <c r="G843" s="0">
-        <v>0.909594095940959</v>
+        <v>0.909</v>
       </c>
     </row>
     <row outlineLevel="0" r="844">
@@ -22490,7 +22490,7 @@
         <v>45</v>
       </c>
       <c r="G844" s="0">
-        <v>8.30258302583026E-02</v>
+        <v>0.083</v>
       </c>
     </row>
     <row outlineLevel="0" r="845">
@@ -22517,7 +22517,7 @@
         <v>4</v>
       </c>
       <c r="G845" s="0">
-        <v>7.38007380073801E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="846">
@@ -22544,7 +22544,7 @@
         <v>245</v>
       </c>
       <c r="G846" s="0">
-        <v>0.452029520295203</v>
+        <v>0.452</v>
       </c>
     </row>
     <row outlineLevel="0" r="847">
@@ -22571,7 +22571,7 @@
         <v>297</v>
       </c>
       <c r="G847" s="0">
-        <v>0.547970479704797</v>
+        <v>0.547</v>
       </c>
     </row>
     <row outlineLevel="0" r="848">
@@ -22599,6 +22599,303 @@
       </c>
       <c r="G848" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="849">
+      <c r="A849" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B849" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C849" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="D849" s="0">
+        <v>15994</v>
+      </c>
+      <c r="E849" s="0">
+        <v>0.429542097488922</v>
+      </c>
+      <c r="F849" s="0">
+        <v>313</v>
+      </c>
+      <c r="G849" s="0">
+        <v>0.56294964028777</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="850">
+      <c r="A850" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B850" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C850" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="D850" s="0">
+        <v>8117</v>
+      </c>
+      <c r="E850" s="0">
+        <v>0.21799382301598</v>
+      </c>
+      <c r="F850" s="0">
+        <v>186</v>
+      </c>
+      <c r="G850" s="0">
+        <v>0.334532374100719</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="851">
+      <c r="A851" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B851" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C851" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="D851" s="0">
+        <v>6368</v>
+      </c>
+      <c r="E851" s="0">
+        <v>0.171021888008594</v>
+      </c>
+      <c r="F851" s="0">
+        <v>32</v>
+      </c>
+      <c r="G851" s="0">
+        <v>5.75539568345324E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="852">
+      <c r="A852" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B852" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C852" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="D852" s="0">
+        <v>528</v>
+      </c>
+      <c r="E852" s="0">
+        <v>1.41802067946824E-02</v>
+      </c>
+      <c r="F852" s="0">
+        <v>11</v>
+      </c>
+      <c r="G852" s="0">
+        <v>1.97841726618705E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="853">
+      <c r="A853" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B853" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="C853" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D853" s="0">
+        <v>6228</v>
+      </c>
+      <c r="E853" s="0">
+        <v>0.167261984691822</v>
+      </c>
+      <c r="F853" s="0">
+        <v>14</v>
+      </c>
+      <c r="G853" s="0">
+        <v>2.51798561151079E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="854">
+      <c r="A854" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B854" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C854" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="D854" s="0">
+        <v>18929</v>
+      </c>
+      <c r="E854" s="0">
+        <v>0.508365784879817</v>
+      </c>
+      <c r="F854" s="0">
+        <v>503</v>
+      </c>
+      <c r="G854" s="0">
+        <v>0.904676258992806</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="855">
+      <c r="A855" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B855" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C855" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="D855" s="0">
+        <v>10177</v>
+      </c>
+      <c r="E855" s="0">
+        <v>0.273318114677051</v>
+      </c>
+      <c r="F855" s="0">
+        <v>48</v>
+      </c>
+      <c r="G855" s="0">
+        <v>8.63309352517986E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="856">
+      <c r="A856" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B856" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="C856" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D856" s="0">
+        <v>8129</v>
+      </c>
+      <c r="E856" s="0">
+        <v>0.218316100443131</v>
+      </c>
+      <c r="F856" s="0">
+        <v>5</v>
+      </c>
+      <c r="G856" s="0">
+        <v>8.99280575539568E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="857">
+      <c r="A857" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B857" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C857" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="D857" s="0">
+        <v>16443</v>
+      </c>
+      <c r="E857" s="0">
+        <v>0.441600644554854</v>
+      </c>
+      <c r="F857" s="0">
+        <v>251</v>
+      </c>
+      <c r="G857" s="0">
+        <v>0.451438848920863</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="858">
+      <c r="A858" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B858" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C858" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="D858" s="0">
+        <v>19794</v>
+      </c>
+      <c r="E858" s="0">
+        <v>0.531596616087015</v>
+      </c>
+      <c r="F858" s="0">
+        <v>304</v>
+      </c>
+      <c r="G858" s="0">
+        <v>0.546762589928058</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="859">
+      <c r="A859" s="1">
+        <v>44006</v>
+      </c>
+      <c r="B859" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="C859" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="D859" s="0">
+        <v>998</v>
+      </c>
+      <c r="E859" s="0">
+        <v>2.68027393581308E-02</v>
+      </c>
+      <c r="F859" s="0">
+        <v>1</v>
+      </c>
+      <c r="G859" s="0">
+        <v>1.79856115107914E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$872</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$885</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G872"/>
+  <dimension ref="A1:G885"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -437,7 +437,7 @@
     <row outlineLevel="0" r="4">
       <c r="A4" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B4" s="1">
@@ -449,16 +449,16 @@
         </is>
       </c>
       <c r="D4" s="0">
-        <v>106</v>
+        <v>32</v>
       </c>
       <c r="E4" s="0">
-        <v>2.43007794589638E-02</v>
+        <v>7.3360843649702E-03</v>
       </c>
     </row>
     <row outlineLevel="0" r="5">
       <c r="A5" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B5" s="1">
@@ -470,10 +470,10 @@
         </is>
       </c>
       <c r="D5" s="0">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E5" s="0">
-        <v>7.3360843649702E-03</v>
+        <v>2.43007794589638E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="6">
@@ -668,7 +668,7 @@
     <row outlineLevel="0" r="15">
       <c r="A15" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B15" s="1">
@@ -680,16 +680,16 @@
         </is>
       </c>
       <c r="D15" s="0">
-        <v>186</v>
+        <v>51</v>
       </c>
       <c r="E15" s="0">
-        <v>3.92074198988196E-02</v>
+        <v>7.96750507733167E-03</v>
       </c>
     </row>
     <row outlineLevel="0" r="16">
       <c r="A16" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B16" s="1">
@@ -701,10 +701,10 @@
         </is>
       </c>
       <c r="D16" s="0">
-        <v>51</v>
+        <v>186</v>
       </c>
       <c r="E16" s="0">
-        <v>7.96750507733167E-03</v>
+        <v>3.92074198988196E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="17">
@@ -899,7 +899,7 @@
     <row outlineLevel="0" r="26">
       <c r="A26" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B26" s="1">
@@ -911,16 +911,16 @@
         </is>
       </c>
       <c r="D26" s="0">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="E26" s="0">
-        <v>4.60715754833402E-02</v>
+        <v>1.25462772521596E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="27">
       <c r="A27" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B27" s="1">
@@ -932,10 +932,10 @@
         </is>
       </c>
       <c r="D27" s="0">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="E27" s="0">
-        <v>1.25462772521596E-02</v>
+        <v>4.60715754833402E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="28">
@@ -1130,7 +1130,7 @@
     <row outlineLevel="0" r="37">
       <c r="A37" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B37" s="1">
@@ -1142,16 +1142,16 @@
         </is>
       </c>
       <c r="D37" s="0">
-        <v>224</v>
+        <v>61</v>
       </c>
       <c r="E37" s="0">
-        <v>4.38013296832225E-02</v>
+        <v>1.19280406726633E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="38">
       <c r="A38" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B38" s="1">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="D38" s="0">
-        <v>61</v>
+        <v>224</v>
       </c>
       <c r="E38" s="0">
-        <v>1.19280406726633E-02</v>
+        <v>4.38013296832225E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="39">
@@ -1361,7 +1361,7 @@
     <row outlineLevel="0" r="48">
       <c r="A48" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B48" s="1">
@@ -1373,16 +1373,16 @@
         </is>
       </c>
       <c r="D48" s="0">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="E48" s="0">
-        <v>4.82495918737529E-02</v>
+        <v>1.32414293488119E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="49">
       <c r="A49" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B49" s="1">
@@ -1394,10 +1394,10 @@
         </is>
       </c>
       <c r="D49" s="0">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="E49" s="0">
-        <v>1.32414293488119E-02</v>
+        <v>4.82495918737529E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="50">
@@ -1592,7 +1592,7 @@
     <row outlineLevel="0" r="59">
       <c r="A59" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B59" s="1">
@@ -1604,16 +1604,16 @@
         </is>
       </c>
       <c r="D59" s="0">
-        <v>266</v>
+        <v>73</v>
       </c>
       <c r="E59" s="0">
-        <v>4.74153297682709E-02</v>
+        <v>1.30124777183601E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="60">
       <c r="A60" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B60" s="1">
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="D60" s="0">
-        <v>73</v>
+        <v>266</v>
       </c>
       <c r="E60" s="0">
-        <v>1.30124777183601E-02</v>
+        <v>4.74153297682709E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="61">
@@ -1823,7 +1823,7 @@
     <row outlineLevel="0" r="70">
       <c r="A70" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B70" s="1">
@@ -1835,16 +1835,16 @@
         </is>
       </c>
       <c r="D70" s="0">
-        <v>358</v>
+        <v>83</v>
       </c>
       <c r="E70" s="0">
-        <v>6.14803365962562E-02</v>
+        <v>1.42538210544393E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="71">
       <c r="A71" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B71" s="1">
@@ -1856,10 +1856,10 @@
         </is>
       </c>
       <c r="D71" s="0">
-        <v>83</v>
+        <v>358</v>
       </c>
       <c r="E71" s="0">
-        <v>1.42538210544393E-02</v>
+        <v>6.14803365962562E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="72">
@@ -2054,7 +2054,7 @@
     <row outlineLevel="0" r="81">
       <c r="A81" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B81" s="1">
@@ -2066,16 +2066,16 @@
         </is>
       </c>
       <c r="D81" s="0">
-        <v>350</v>
+        <v>88</v>
       </c>
       <c r="E81" s="0">
-        <v>5.75752590886659E-02</v>
+        <v>1.44760651422931E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="82">
       <c r="A82" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B82" s="1">
@@ -2087,10 +2087,10 @@
         </is>
       </c>
       <c r="D82" s="0">
-        <v>88</v>
+        <v>350</v>
       </c>
       <c r="E82" s="0">
-        <v>1.44760651422931E-02</v>
+        <v>5.75752590886659E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="83">
@@ -2285,7 +2285,7 @@
     <row outlineLevel="0" r="92">
       <c r="A92" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B92" s="1">
@@ -2297,16 +2297,16 @@
         </is>
       </c>
       <c r="D92" s="0">
-        <v>378</v>
+        <v>104</v>
       </c>
       <c r="E92" s="0">
-        <v>0.119318181818182</v>
+        <v>3.28282828282828E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="93">
       <c r="A93" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B93" s="1">
@@ -2318,10 +2318,10 @@
         </is>
       </c>
       <c r="D93" s="0">
-        <v>104</v>
+        <v>378</v>
       </c>
       <c r="E93" s="0">
-        <v>3.28282828282828E-02</v>
+        <v>0.119318181818182</v>
       </c>
     </row>
     <row outlineLevel="0" r="94">
@@ -3902,7 +3902,7 @@
     <row outlineLevel="0" r="169">
       <c r="A169" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B169" s="1">
@@ -3914,16 +3914,16 @@
         </is>
       </c>
       <c r="D169" s="0">
-        <v>515</v>
+        <v>176</v>
       </c>
       <c r="E169" s="0">
-        <v>6.23034115654488E-02</v>
+        <v>2.12920396806194E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="170">
       <c r="A170" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B170" s="1">
@@ -3935,10 +3935,10 @@
         </is>
       </c>
       <c r="D170" s="0">
-        <v>176</v>
+        <v>515</v>
       </c>
       <c r="E170" s="0">
-        <v>2.12920396806194E-02</v>
+        <v>6.23034115654488E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="171">
@@ -4133,7 +4133,7 @@
     <row outlineLevel="0" r="180">
       <c r="A180" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B180" s="1">
@@ -4145,16 +4145,16 @@
         </is>
       </c>
       <c r="D180" s="0">
-        <v>531</v>
+        <v>183</v>
       </c>
       <c r="E180" s="0">
-        <v>6.08526243410497E-02</v>
+        <v>2.09718083887234E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="181">
       <c r="A181" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B181" s="1">
@@ -4166,10 +4166,10 @@
         </is>
       </c>
       <c r="D181" s="0">
-        <v>183</v>
+        <v>531</v>
       </c>
       <c r="E181" s="0">
-        <v>2.09718083887234E-02</v>
+        <v>6.08526243410497E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="182">
@@ -4364,7 +4364,7 @@
     <row outlineLevel="0" r="191">
       <c r="A191" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B191" s="1">
@@ -4376,16 +4376,16 @@
         </is>
       </c>
       <c r="D191" s="0">
-        <v>564</v>
+        <v>189</v>
       </c>
       <c r="E191" s="0">
-        <v>0.061378</v>
+        <v>0.020568</v>
       </c>
     </row>
     <row outlineLevel="0" r="192">
       <c r="A192" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B192" s="1">
@@ -4397,10 +4397,10 @@
         </is>
       </c>
       <c r="D192" s="0">
-        <v>189</v>
+        <v>564</v>
       </c>
       <c r="E192" s="0">
-        <v>0.020568</v>
+        <v>0.061378</v>
       </c>
     </row>
     <row outlineLevel="0" r="193">
@@ -4595,7 +4595,7 @@
     <row outlineLevel="0" r="202">
       <c r="A202" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B202" s="1">
@@ -4607,16 +4607,16 @@
         </is>
       </c>
       <c r="D202" s="0">
-        <v>588</v>
+        <v>193</v>
       </c>
       <c r="E202" s="0">
-        <v>6.08254887762491E-02</v>
+        <v>1.99648287990069E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="203">
       <c r="A203" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B203" s="1">
@@ -4628,10 +4628,10 @@
         </is>
       </c>
       <c r="D203" s="0">
-        <v>193</v>
+        <v>588</v>
       </c>
       <c r="E203" s="0">
-        <v>1.99648287990069E-02</v>
+        <v>6.08254887762491E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="204">
@@ -4826,7 +4826,7 @@
     <row outlineLevel="0" r="213">
       <c r="A213" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B213" s="1">
@@ -4838,16 +4838,16 @@
         </is>
       </c>
       <c r="D213" s="0">
-        <v>609</v>
+        <v>203</v>
       </c>
       <c r="E213" s="0">
-        <v>6.14035087719298E-02</v>
+        <v>2.04678362573099E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="214">
       <c r="A214" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B214" s="1">
@@ -4859,10 +4859,10 @@
         </is>
       </c>
       <c r="D214" s="0">
-        <v>203</v>
+        <v>609</v>
       </c>
       <c r="E214" s="0">
-        <v>2.04678362573099E-02</v>
+        <v>6.14035087719298E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="215">
@@ -5057,7 +5057,7 @@
     <row outlineLevel="0" r="224">
       <c r="A224" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B224" s="1">
@@ -5069,16 +5069,16 @@
         </is>
       </c>
       <c r="D224" s="0">
-        <v>645</v>
+        <v>223</v>
       </c>
       <c r="E224" s="0">
-        <v>0.0641663350577</v>
+        <v>2.21846398726622E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="225">
       <c r="A225" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B225" s="1">
@@ -5090,10 +5090,10 @@
         </is>
       </c>
       <c r="D225" s="0">
-        <v>223</v>
+        <v>645</v>
       </c>
       <c r="E225" s="0">
-        <v>2.21846398726622E-02</v>
+        <v>0.0641663350577</v>
       </c>
     </row>
     <row outlineLevel="0" r="226">
@@ -5288,7 +5288,7 @@
     <row outlineLevel="0" r="235">
       <c r="A235" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B235" s="1">
@@ -5300,16 +5300,16 @@
         </is>
       </c>
       <c r="D235" s="0">
-        <v>688</v>
+        <v>239</v>
       </c>
       <c r="E235" s="0">
-        <v>6.63708277059618E-02</v>
+        <v>2.30561450897164E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="236">
       <c r="A236" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B236" s="1">
@@ -5321,10 +5321,10 @@
         </is>
       </c>
       <c r="D236" s="0">
-        <v>239</v>
+        <v>688</v>
       </c>
       <c r="E236" s="0">
-        <v>2.30561450897164E-02</v>
+        <v>6.63708277059618E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="237">
@@ -5519,7 +5519,7 @@
     <row outlineLevel="0" r="246">
       <c r="A246" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B246" s="1">
@@ -5531,16 +5531,16 @@
         </is>
       </c>
       <c r="D246" s="0">
-        <v>719</v>
+        <v>259</v>
       </c>
       <c r="E246" s="0">
-        <v>6.69771774569166E-02</v>
+        <v>0.024126688402422</v>
       </c>
     </row>
     <row outlineLevel="0" r="247">
       <c r="A247" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B247" s="1">
@@ -5552,10 +5552,10 @@
         </is>
       </c>
       <c r="D247" s="0">
-        <v>259</v>
+        <v>719</v>
       </c>
       <c r="E247" s="0">
-        <v>0.024126688402422</v>
+        <v>6.69771774569166E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="248">
@@ -5750,7 +5750,7 @@
     <row outlineLevel="0" r="257">
       <c r="A257" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B257" s="1">
@@ -5762,16 +5762,16 @@
         </is>
       </c>
       <c r="D257" s="0">
-        <v>761</v>
+        <v>274</v>
       </c>
       <c r="E257" s="0">
-        <v>6.39979816668068E-02</v>
+        <v>2.30426372887057E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="258">
       <c r="A258" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B258" s="1">
@@ -5783,10 +5783,10 @@
         </is>
       </c>
       <c r="D258" s="0">
-        <v>274</v>
+        <v>761</v>
       </c>
       <c r="E258" s="0">
-        <v>2.30426372887057E-02</v>
+        <v>6.39979816668068E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="259">
@@ -5981,7 +5981,7 @@
     <row outlineLevel="0" r="268">
       <c r="A268" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B268" s="1">
@@ -5993,16 +5993,16 @@
         </is>
       </c>
       <c r="D268" s="0">
-        <v>799</v>
+        <v>294</v>
       </c>
       <c r="E268" s="0">
-        <v>6.31071795276834E-02</v>
+        <v>2.32209146196983E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="269">
       <c r="A269" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B269" s="1">
@@ -6014,10 +6014,10 @@
         </is>
       </c>
       <c r="D269" s="0">
-        <v>294</v>
+        <v>799</v>
       </c>
       <c r="E269" s="0">
-        <v>2.32209146196983E-02</v>
+        <v>6.31071795276834E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="270">
@@ -6212,7 +6212,7 @@
     <row outlineLevel="0" r="279">
       <c r="A279" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B279" s="1">
@@ -6224,16 +6224,16 @@
         </is>
       </c>
       <c r="D279" s="0">
-        <v>840</v>
+        <v>295</v>
       </c>
       <c r="E279" s="0">
-        <v>0.06374743871898</v>
+        <v>2.23874933596418E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="280">
       <c r="A280" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B280" s="1">
@@ -6245,10 +6245,10 @@
         </is>
       </c>
       <c r="D280" s="0">
-        <v>295</v>
+        <v>840</v>
       </c>
       <c r="E280" s="0">
-        <v>2.23874933596418E-02</v>
+        <v>0.06374743871898</v>
       </c>
     </row>
     <row outlineLevel="0" r="281">
@@ -6443,7 +6443,7 @@
     <row outlineLevel="0" r="290">
       <c r="A290" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B290" s="1">
@@ -6455,16 +6455,16 @@
         </is>
       </c>
       <c r="D290" s="0">
-        <v>876</v>
+        <v>297</v>
       </c>
       <c r="E290" s="0">
-        <v>6.45494068233734E-02</v>
+        <v>2.18849016284725E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="291">
       <c r="A291" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B291" s="1">
@@ -6476,10 +6476,10 @@
         </is>
       </c>
       <c r="D291" s="0">
-        <v>297</v>
+        <v>876</v>
       </c>
       <c r="E291" s="0">
-        <v>2.18849016284725E-02</v>
+        <v>6.45494068233734E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="292">
@@ -6674,7 +6674,7 @@
     <row outlineLevel="0" r="301">
       <c r="A301" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B301" s="1">
@@ -6686,16 +6686,16 @@
         </is>
       </c>
       <c r="D301" s="0">
-        <v>906</v>
+        <v>311</v>
       </c>
       <c r="E301" s="0">
-        <v>6.61796932067202E-02</v>
+        <v>2.27173119065011E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="302">
       <c r="A302" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B302" s="1">
@@ -6707,10 +6707,10 @@
         </is>
       </c>
       <c r="D302" s="0">
-        <v>311</v>
+        <v>906</v>
       </c>
       <c r="E302" s="0">
-        <v>2.27173119065011E-02</v>
+        <v>6.61796932067202E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="303">
@@ -6905,7 +6905,7 @@
     <row outlineLevel="0" r="312">
       <c r="A312" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B312" s="1">
@@ -6917,16 +6917,16 @@
         </is>
       </c>
       <c r="D312" s="0">
-        <v>937</v>
+        <v>320</v>
       </c>
       <c r="E312" s="0">
-        <v>6.72262878461759E-02</v>
+        <v>2.29588176208925E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="313">
       <c r="A313" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B313" s="1">
@@ -6938,10 +6938,10 @@
         </is>
       </c>
       <c r="D313" s="0">
-        <v>320</v>
+        <v>937</v>
       </c>
       <c r="E313" s="0">
-        <v>2.29588176208925E-02</v>
+        <v>6.72262878461759E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="314">
@@ -7136,7 +7136,7 @@
     <row outlineLevel="0" r="323">
       <c r="A323" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B323" s="1">
@@ -7148,16 +7148,16 @@
         </is>
       </c>
       <c r="D323" s="0">
-        <v>979</v>
+        <v>326</v>
       </c>
       <c r="E323" s="0">
-        <v>6.94523269012486E-02</v>
+        <v>2.31271282633371E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="324">
       <c r="A324" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B324" s="1">
@@ -7169,10 +7169,10 @@
         </is>
       </c>
       <c r="D324" s="0">
-        <v>326</v>
+        <v>979</v>
       </c>
       <c r="E324" s="0">
-        <v>2.31271282633371E-02</v>
+        <v>6.94523269012486E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="325">
@@ -7367,7 +7367,7 @@
     <row outlineLevel="0" r="334">
       <c r="A334" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B334" s="1">
@@ -7379,16 +7379,16 @@
         </is>
       </c>
       <c r="D334" s="0">
-        <v>1022</v>
+        <v>334</v>
       </c>
       <c r="E334" s="0">
-        <v>7.07707222491517E-02</v>
+        <v>0.023128592202756</v>
       </c>
     </row>
     <row outlineLevel="0" r="335">
       <c r="A335" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B335" s="1">
@@ -7400,10 +7400,10 @@
         </is>
       </c>
       <c r="D335" s="0">
-        <v>334</v>
+        <v>1022</v>
       </c>
       <c r="E335" s="0">
-        <v>0.023128592202756</v>
+        <v>7.07707222491517E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="336">
@@ -7598,7 +7598,7 @@
     <row outlineLevel="0" r="345">
       <c r="A345" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B345" s="1">
@@ -7610,16 +7610,16 @@
         </is>
       </c>
       <c r="D345" s="0">
-        <v>1047</v>
+        <v>341</v>
       </c>
       <c r="E345" s="0">
-        <v>7.08965330444204E-02</v>
+        <v>0.023090465872156</v>
       </c>
     </row>
     <row outlineLevel="0" r="346">
       <c r="A346" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B346" s="1">
@@ -7631,10 +7631,10 @@
         </is>
       </c>
       <c r="D346" s="0">
-        <v>341</v>
+        <v>1047</v>
       </c>
       <c r="E346" s="0">
-        <v>0.023090465872156</v>
+        <v>7.08965330444204E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="347">
@@ -7829,7 +7829,7 @@
     <row outlineLevel="0" r="356">
       <c r="A356" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B356" s="1">
@@ -7841,16 +7841,16 @@
         </is>
       </c>
       <c r="D356" s="0">
-        <v>1062</v>
+        <v>342</v>
       </c>
       <c r="E356" s="0">
-        <v>7.08708708708709E-02</v>
+        <v>2.28228228228228E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="357">
       <c r="A357" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B357" s="1">
@@ -7862,10 +7862,10 @@
         </is>
       </c>
       <c r="D357" s="0">
-        <v>342</v>
+        <v>1062</v>
       </c>
       <c r="E357" s="0">
-        <v>2.28228228228228E-02</v>
+        <v>7.08708708708709E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="358">
@@ -8060,7 +8060,7 @@
     <row outlineLevel="0" r="367">
       <c r="A367" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B367" s="1">
@@ -8072,16 +8072,16 @@
         </is>
       </c>
       <c r="D367" s="0">
-        <v>1085</v>
+        <v>342</v>
       </c>
       <c r="E367" s="0">
-        <v>6.98018528049408E-02</v>
+        <v>2.20020586721565E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="368">
       <c r="A368" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B368" s="1">
@@ -8093,10 +8093,10 @@
         </is>
       </c>
       <c r="D368" s="0">
-        <v>342</v>
+        <v>1085</v>
       </c>
       <c r="E368" s="0">
-        <v>2.20020586721565E-02</v>
+        <v>6.98018528049408E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="369">
@@ -8291,7 +8291,7 @@
     <row outlineLevel="0" r="378">
       <c r="A378" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B378" s="1">
@@ -8303,16 +8303,16 @@
         </is>
       </c>
       <c r="D378" s="0">
-        <v>1144</v>
+        <v>345</v>
       </c>
       <c r="E378" s="0">
-        <v>7.10694556514183E-02</v>
+        <v>2.14139407857985E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="379">
       <c r="A379" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B379" s="1">
@@ -8324,10 +8324,10 @@
         </is>
       </c>
       <c r="D379" s="0">
-        <v>345</v>
+        <v>1144</v>
       </c>
       <c r="E379" s="0">
-        <v>2.14139407857985E-02</v>
+        <v>7.10694556514183E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="380">
@@ -8522,7 +8522,7 @@
     <row outlineLevel="0" r="389">
       <c r="A389" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B389" s="1">
@@ -8534,16 +8534,16 @@
         </is>
       </c>
       <c r="D389" s="0">
-        <v>1215</v>
+        <v>348</v>
       </c>
       <c r="E389" s="0">
-        <v>7.42211362248015E-02</v>
+        <v>2.12583995113012E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="390">
       <c r="A390" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B390" s="1">
@@ -8555,10 +8555,10 @@
         </is>
       </c>
       <c r="D390" s="0">
-        <v>348</v>
+        <v>1215</v>
       </c>
       <c r="E390" s="0">
-        <v>2.12583995113012E-02</v>
+        <v>7.42211362248015E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="391">
@@ -8753,7 +8753,7 @@
     <row outlineLevel="0" r="400">
       <c r="A400" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B400" s="1">
@@ -8765,16 +8765,16 @@
         </is>
       </c>
       <c r="D400" s="0">
-        <v>1292</v>
+        <v>353</v>
       </c>
       <c r="E400" s="0">
-        <v>7.73699023893646E-02</v>
+        <v>2.11389903587041E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="401">
       <c r="A401" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B401" s="1">
@@ -8786,10 +8786,10 @@
         </is>
       </c>
       <c r="D401" s="0">
-        <v>353</v>
+        <v>1292</v>
       </c>
       <c r="E401" s="0">
-        <v>2.11389903587041E-02</v>
+        <v>7.73699023893646E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="402">
@@ -8984,7 +8984,7 @@
     <row outlineLevel="0" r="411">
       <c r="A411" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B411" s="1">
@@ -8996,16 +8996,16 @@
         </is>
       </c>
       <c r="D411" s="0">
-        <v>1398</v>
+        <v>357</v>
       </c>
       <c r="E411" s="0">
-        <v>8.23806717737183E-02</v>
+        <v>2.10371243370654E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="412">
       <c r="A412" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B412" s="1">
@@ -9017,10 +9017,10 @@
         </is>
       </c>
       <c r="D412" s="0">
-        <v>357</v>
+        <v>1398</v>
       </c>
       <c r="E412" s="0">
-        <v>2.10371243370654E-02</v>
+        <v>8.23806717737183E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="413">
@@ -9215,7 +9215,7 @@
     <row outlineLevel="0" r="422">
       <c r="A422" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B422" s="1">
@@ -9227,16 +9227,16 @@
         </is>
       </c>
       <c r="D422" s="0">
-        <v>1458</v>
+        <v>362</v>
       </c>
       <c r="E422" s="0">
-        <v>8.43359555761222E-02</v>
+        <v>2.09393799167052E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="423">
       <c r="A423" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B423" s="1">
@@ -9248,10 +9248,10 @@
         </is>
       </c>
       <c r="D423" s="0">
-        <v>362</v>
+        <v>1458</v>
       </c>
       <c r="E423" s="0">
-        <v>2.09393799167052E-02</v>
+        <v>8.43359555761222E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="424">
@@ -9446,7 +9446,7 @@
     <row outlineLevel="0" r="433">
       <c r="A433" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B433" s="1">
@@ -9458,16 +9458,16 @@
         </is>
       </c>
       <c r="D433" s="0">
-        <v>1497</v>
+        <v>364</v>
       </c>
       <c r="E433" s="0">
-        <v>8.60938578329883E-02</v>
+        <v>2.09339774557166E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="434">
       <c r="A434" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B434" s="1">
@@ -9479,10 +9479,10 @@
         </is>
       </c>
       <c r="D434" s="0">
-        <v>364</v>
+        <v>1497</v>
       </c>
       <c r="E434" s="0">
-        <v>2.09339774557166E-02</v>
+        <v>8.60938578329883E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="435">
@@ -9677,7 +9677,7 @@
     <row outlineLevel="0" r="444">
       <c r="A444" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B444" s="1">
@@ -9689,16 +9689,16 @@
         </is>
       </c>
       <c r="D444" s="0">
-        <v>1543</v>
+        <v>366</v>
       </c>
       <c r="E444" s="0">
-        <v>8.56698684137472E-02</v>
+        <v>2.03209149963911E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="445">
       <c r="A445" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B445" s="1">
@@ -9710,10 +9710,10 @@
         </is>
       </c>
       <c r="D445" s="0">
-        <v>366</v>
+        <v>1543</v>
       </c>
       <c r="E445" s="0">
-        <v>2.03209149963911E-02</v>
+        <v>8.56698684137472E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="446">
@@ -9908,7 +9908,7 @@
     <row outlineLevel="0" r="455">
       <c r="A455" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B455" s="1">
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="D455" s="0">
-        <v>1650</v>
+        <v>368</v>
       </c>
       <c r="E455" s="0">
-        <v>8.97812602024159E-02</v>
+        <v>2.00239416693873E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="456">
       <c r="A456" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B456" s="1">
@@ -9941,10 +9941,10 @@
         </is>
       </c>
       <c r="D456" s="0">
-        <v>368</v>
+        <v>1650</v>
       </c>
       <c r="E456" s="0">
-        <v>2.00239416693873E-02</v>
+        <v>8.97812602024159E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="457">
@@ -10139,7 +10139,7 @@
     <row outlineLevel="0" r="466">
       <c r="A466" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B466" s="1">
@@ -10151,16 +10151,16 @@
         </is>
       </c>
       <c r="D466" s="0">
-        <v>1718</v>
+        <v>375</v>
       </c>
       <c r="E466" s="0">
-        <v>9.27045111159076E-02</v>
+        <v>2.02352687243687E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="467">
       <c r="A467" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B467" s="1">
@@ -10172,10 +10172,10 @@
         </is>
       </c>
       <c r="D467" s="0">
-        <v>375</v>
+        <v>1718</v>
       </c>
       <c r="E467" s="0">
-        <v>2.02352687243687E-02</v>
+        <v>9.27045111159076E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="468">
@@ -10370,7 +10370,7 @@
     <row outlineLevel="0" r="477">
       <c r="A477" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B477" s="1">
@@ -10382,16 +10382,16 @@
         </is>
       </c>
       <c r="D477" s="0">
-        <v>1770</v>
+        <v>381</v>
       </c>
       <c r="E477" s="0">
-        <v>9.33495068825484E-02</v>
+        <v>2.00938769052265E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="478">
       <c r="A478" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B478" s="1">
@@ -10403,10 +10403,10 @@
         </is>
       </c>
       <c r="D478" s="0">
-        <v>381</v>
+        <v>1770</v>
       </c>
       <c r="E478" s="0">
-        <v>2.00938769052265E-02</v>
+        <v>9.33495068825484E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="479">
@@ -10601,7 +10601,7 @@
     <row outlineLevel="0" r="488">
       <c r="A488" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B488" s="1">
@@ -10613,16 +10613,16 @@
         </is>
       </c>
       <c r="D488" s="0">
-        <v>1854</v>
+        <v>384</v>
       </c>
       <c r="E488" s="0">
-        <v>9.55965762606992E-02</v>
+        <v>1.97999381251934E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="489">
       <c r="A489" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B489" s="1">
@@ -10634,10 +10634,10 @@
         </is>
       </c>
       <c r="D489" s="0">
-        <v>384</v>
+        <v>1854</v>
       </c>
       <c r="E489" s="0">
-        <v>1.97999381251934E-02</v>
+        <v>9.55965762606992E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="490">
@@ -10832,7 +10832,7 @@
     <row outlineLevel="0" r="499">
       <c r="A499" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B499" s="1">
@@ -10844,16 +10844,16 @@
         </is>
       </c>
       <c r="D499" s="0">
-        <v>1954</v>
+        <v>385</v>
       </c>
       <c r="E499" s="0">
-        <v>9.87417252008692E-02</v>
+        <v>1.94552529182879E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="500">
       <c r="A500" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B500" s="1">
@@ -10865,10 +10865,10 @@
         </is>
       </c>
       <c r="D500" s="0">
-        <v>385</v>
+        <v>1954</v>
       </c>
       <c r="E500" s="0">
-        <v>1.94552529182879E-02</v>
+        <v>9.87417252008692E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="501">
@@ -11063,7 +11063,7 @@
     <row outlineLevel="0" r="510">
       <c r="A510" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B510" s="1">
@@ -11075,16 +11075,16 @@
         </is>
       </c>
       <c r="D510" s="0">
-        <v>2002</v>
+        <v>387</v>
       </c>
       <c r="E510" s="0">
-        <v>0.099379498634897</v>
+        <v>0.019210722263589</v>
       </c>
     </row>
     <row outlineLevel="0" r="511">
       <c r="A511" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B511" s="1">
@@ -11096,10 +11096,10 @@
         </is>
       </c>
       <c r="D511" s="0">
-        <v>387</v>
+        <v>2002</v>
       </c>
       <c r="E511" s="0">
-        <v>0.019210722263589</v>
+        <v>0.099379498634897</v>
       </c>
     </row>
     <row outlineLevel="0" r="512">
@@ -11294,7 +11294,7 @@
     <row outlineLevel="0" r="521">
       <c r="A521" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B521" s="1">
@@ -11306,16 +11306,16 @@
         </is>
       </c>
       <c r="D521" s="0">
-        <v>2066</v>
+        <v>390</v>
       </c>
       <c r="E521" s="0">
-        <v>0.100257194157325</v>
+        <v>1.89256078031737E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="522">
       <c r="A522" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B522" s="1">
@@ -11327,10 +11327,10 @@
         </is>
       </c>
       <c r="D522" s="0">
-        <v>390</v>
+        <v>2066</v>
       </c>
       <c r="E522" s="0">
-        <v>1.89256078031737E-02</v>
+        <v>0.100257194157325</v>
       </c>
     </row>
     <row outlineLevel="0" r="523">
@@ -11525,7 +11525,7 @@
     <row outlineLevel="0" r="532">
       <c r="A532" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B532" s="1">
@@ -11537,16 +11537,16 @@
         </is>
       </c>
       <c r="D532" s="0">
-        <v>2172</v>
+        <v>394</v>
       </c>
       <c r="E532" s="0">
-        <v>0.103601240162175</v>
+        <v>1.87932268065824E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="533">
       <c r="A533" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B533" s="1">
@@ -11558,10 +11558,10 @@
         </is>
       </c>
       <c r="D533" s="0">
-        <v>394</v>
+        <v>2172</v>
       </c>
       <c r="E533" s="0">
-        <v>1.87932268065824E-02</v>
+        <v>0.103601240162175</v>
       </c>
     </row>
     <row outlineLevel="0" r="534">
@@ -11756,7 +11756,7 @@
     <row outlineLevel="0" r="543">
       <c r="A543" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B543" s="1">
@@ -11768,16 +11768,16 @@
         </is>
       </c>
       <c r="D543" s="0">
-        <v>2316</v>
+        <v>397</v>
       </c>
       <c r="E543" s="0">
-        <v>0.108701774148127</v>
+        <v>1.86332488500892E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="544">
       <c r="A544" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B544" s="1">
@@ -11789,10 +11789,10 @@
         </is>
       </c>
       <c r="D544" s="0">
-        <v>397</v>
+        <v>2316</v>
       </c>
       <c r="E544" s="0">
-        <v>1.86332488500892E-02</v>
+        <v>0.108701774148127</v>
       </c>
     </row>
     <row outlineLevel="0" r="545">
@@ -11987,7 +11987,7 @@
     <row outlineLevel="0" r="554">
       <c r="A554" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B554" s="1">
@@ -11999,16 +11999,16 @@
         </is>
       </c>
       <c r="D554" s="0">
-        <v>2469</v>
+        <v>402</v>
       </c>
       <c r="E554" s="0">
-        <v>0.11388901702108</v>
+        <v>1.85432907421929E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="555">
       <c r="A555" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B555" s="1">
@@ -12020,10 +12020,10 @@
         </is>
       </c>
       <c r="D555" s="0">
-        <v>402</v>
+        <v>2469</v>
       </c>
       <c r="E555" s="0">
-        <v>1.85432907421929E-02</v>
+        <v>0.11388901702108</v>
       </c>
     </row>
     <row outlineLevel="0" r="556">
@@ -12218,7 +12218,7 @@
     <row outlineLevel="0" r="565">
       <c r="A565" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B565" s="1">
@@ -12230,16 +12230,16 @@
         </is>
       </c>
       <c r="D565" s="0">
-        <v>2565</v>
+        <v>406</v>
       </c>
       <c r="E565" s="0">
-        <v>0.116142177948834</v>
+        <v>1.83835182250396E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="566">
       <c r="A566" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B566" s="1">
@@ -12251,10 +12251,10 @@
         </is>
       </c>
       <c r="D566" s="0">
-        <v>406</v>
+        <v>2565</v>
       </c>
       <c r="E566" s="0">
-        <v>1.83835182250396E-02</v>
+        <v>0.116142177948834</v>
       </c>
     </row>
     <row outlineLevel="0" r="567">
@@ -12449,7 +12449,7 @@
     <row outlineLevel="0" r="576">
       <c r="A576" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B576" s="1">
@@ -12461,16 +12461,16 @@
         </is>
       </c>
       <c r="D576" s="0">
-        <v>2713</v>
+        <v>410</v>
       </c>
       <c r="E576" s="0">
-        <v>0.120225117433307</v>
+        <v>1.81689267038908E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="577">
       <c r="A577" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B577" s="1">
@@ -12482,10 +12482,10 @@
         </is>
       </c>
       <c r="D577" s="0">
-        <v>410</v>
+        <v>2713</v>
       </c>
       <c r="E577" s="0">
-        <v>1.81689267038908E-02</v>
+        <v>0.120225117433307</v>
       </c>
     </row>
     <row outlineLevel="0" r="578">
@@ -12680,7 +12680,7 @@
     <row outlineLevel="0" r="587">
       <c r="A587" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B587" s="1">
@@ -12692,16 +12692,16 @@
         </is>
       </c>
       <c r="D587" s="0">
-        <v>2799</v>
+        <v>411</v>
       </c>
       <c r="E587" s="0">
-        <v>0.121663913761627</v>
+        <v>1.78649048074415E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="588">
       <c r="A588" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B588" s="1">
@@ -12713,10 +12713,10 @@
         </is>
       </c>
       <c r="D588" s="0">
-        <v>411</v>
+        <v>2799</v>
       </c>
       <c r="E588" s="0">
-        <v>1.78649048074415E-02</v>
+        <v>0.121663913761627</v>
       </c>
     </row>
     <row outlineLevel="0" r="589">
@@ -12911,7 +12911,7 @@
     <row outlineLevel="0" r="598">
       <c r="A598" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B598" s="1">
@@ -12923,16 +12923,16 @@
         </is>
       </c>
       <c r="D598" s="0">
-        <v>2866</v>
+        <v>413</v>
       </c>
       <c r="E598" s="0">
-        <v>0.12167784665025</v>
+        <v>1.75341767852594E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="599">
       <c r="A599" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B599" s="1">
@@ -12944,10 +12944,10 @@
         </is>
       </c>
       <c r="D599" s="0">
-        <v>413</v>
+        <v>2866</v>
       </c>
       <c r="E599" s="0">
-        <v>1.75341767852594E-02</v>
+        <v>0.12167784665025</v>
       </c>
     </row>
     <row outlineLevel="0" r="600">
@@ -13142,7 +13142,7 @@
     <row outlineLevel="0" r="609">
       <c r="A609" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B609" s="1">
@@ -13154,16 +13154,16 @@
         </is>
       </c>
       <c r="D609" s="0">
-        <v>3345</v>
+        <v>417</v>
       </c>
       <c r="E609" s="0">
-        <v>0.137230769230769</v>
+        <v>1.71076923076923E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="610">
       <c r="A610" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B610" s="1">
@@ -13175,10 +13175,10 @@
         </is>
       </c>
       <c r="D610" s="0">
-        <v>417</v>
+        <v>3345</v>
       </c>
       <c r="E610" s="0">
-        <v>1.71076923076923E-02</v>
+        <v>0.137230769230769</v>
       </c>
     </row>
     <row outlineLevel="0" r="611">
@@ -13373,7 +13373,7 @@
     <row outlineLevel="0" r="620">
       <c r="A620" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B620" s="1">
@@ -13385,16 +13385,16 @@
         </is>
       </c>
       <c r="D620" s="0">
-        <v>3546</v>
+        <v>423</v>
       </c>
       <c r="E620" s="0">
-        <v>0.142857142857143</v>
+        <v>1.70413343002176E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="621">
       <c r="A621" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B621" s="1">
@@ -13406,10 +13406,10 @@
         </is>
       </c>
       <c r="D621" s="0">
-        <v>423</v>
+        <v>3546</v>
       </c>
       <c r="E621" s="0">
-        <v>1.70413343002176E-02</v>
+        <v>0.142857142857143</v>
       </c>
     </row>
     <row outlineLevel="0" r="622">
@@ -13604,7 +13604,7 @@
     <row outlineLevel="0" r="631">
       <c r="A631" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B631" s="1">
@@ -13616,16 +13616,16 @@
         </is>
       </c>
       <c r="D631" s="0">
-        <v>3613</v>
+        <v>427</v>
       </c>
       <c r="E631" s="0">
-        <v>0.143829617834395</v>
+        <v>1.69984076433121E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="632">
       <c r="A632" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B632" s="1">
@@ -13637,10 +13637,10 @@
         </is>
       </c>
       <c r="D632" s="0">
-        <v>427</v>
+        <v>3613</v>
       </c>
       <c r="E632" s="0">
-        <v>1.69984076433121E-02</v>
+        <v>0.143829617834395</v>
       </c>
     </row>
     <row outlineLevel="0" r="633">
@@ -13835,7 +13835,7 @@
     <row outlineLevel="0" r="642">
       <c r="A642" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B642" s="1">
@@ -13847,16 +13847,16 @@
         </is>
       </c>
       <c r="D642" s="0">
-        <v>3666</v>
+        <v>434</v>
       </c>
       <c r="E642" s="0">
-        <v>0.143652037617555</v>
+        <v>1.70062695924765E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="643">
       <c r="A643" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B643" s="1">
@@ -13868,10 +13868,10 @@
         </is>
       </c>
       <c r="D643" s="0">
-        <v>434</v>
+        <v>3666</v>
       </c>
       <c r="E643" s="0">
-        <v>1.70062695924765E-02</v>
+        <v>0.143652037617555</v>
       </c>
     </row>
     <row outlineLevel="0" r="644">
@@ -14066,7 +14066,7 @@
     <row outlineLevel="0" r="653">
       <c r="A653" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B653" s="1">
@@ -14078,16 +14078,16 @@
         </is>
       </c>
       <c r="D653" s="0">
-        <v>3833</v>
+        <v>439</v>
       </c>
       <c r="E653" s="0">
-        <v>0.147021594875532</v>
+        <v>1.68386329638295E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="654">
       <c r="A654" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B654" s="1">
@@ -14099,10 +14099,10 @@
         </is>
       </c>
       <c r="D654" s="0">
-        <v>439</v>
+        <v>3833</v>
       </c>
       <c r="E654" s="0">
-        <v>1.68386329638295E-02</v>
+        <v>0.147021594875532</v>
       </c>
     </row>
     <row outlineLevel="0" r="655">
@@ -14297,7 +14297,7 @@
     <row outlineLevel="0" r="664">
       <c r="A664" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B664" s="1">
@@ -14309,16 +14309,16 @@
         </is>
       </c>
       <c r="D664" s="0">
-        <v>3837</v>
+        <v>441</v>
       </c>
       <c r="E664" s="0">
-        <v>0.145445585838293</v>
+        <v>1.67165763238695E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="665">
       <c r="A665" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B665" s="1">
@@ -14330,10 +14330,10 @@
         </is>
       </c>
       <c r="D665" s="0">
-        <v>441</v>
+        <v>3837</v>
       </c>
       <c r="E665" s="0">
-        <v>1.67165763238695E-02</v>
+        <v>0.145445585838293</v>
       </c>
     </row>
     <row outlineLevel="0" r="666">
@@ -14528,7 +14528,7 @@
     <row outlineLevel="0" r="675">
       <c r="A675" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B675" s="1">
@@ -14540,16 +14540,16 @@
         </is>
       </c>
       <c r="D675" s="0">
-        <v>3926</v>
+        <v>451</v>
       </c>
       <c r="E675" s="0">
-        <v>0.145709619952494</v>
+        <v>1.67384204275534E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="676">
       <c r="A676" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B676" s="1">
@@ -14561,10 +14561,10 @@
         </is>
       </c>
       <c r="D676" s="0">
-        <v>451</v>
+        <v>3926</v>
       </c>
       <c r="E676" s="0">
-        <v>1.67384204275534E-02</v>
+        <v>0.145709619952494</v>
       </c>
     </row>
     <row outlineLevel="0" r="677">
@@ -14759,7 +14759,7 @@
     <row outlineLevel="0" r="686">
       <c r="A686" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B686" s="1">
@@ -14771,16 +14771,16 @@
         </is>
       </c>
       <c r="D686" s="0">
-        <v>4091</v>
+        <v>457</v>
       </c>
       <c r="E686" s="0">
-        <v>0.148359020852221</v>
+        <v>0.016572982774252</v>
       </c>
     </row>
     <row outlineLevel="0" r="687">
       <c r="A687" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B687" s="1">
@@ -14792,10 +14792,10 @@
         </is>
       </c>
       <c r="D687" s="0">
-        <v>457</v>
+        <v>4091</v>
       </c>
       <c r="E687" s="0">
-        <v>0.016572982774252</v>
+        <v>0.148359020852221</v>
       </c>
     </row>
     <row outlineLevel="0" r="688">
@@ -14990,7 +14990,7 @@
     <row outlineLevel="0" r="697">
       <c r="A697" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B697" s="1">
@@ -15002,16 +15002,16 @@
         </is>
       </c>
       <c r="D697" s="0">
-        <v>4213</v>
+        <v>461</v>
       </c>
       <c r="E697" s="0">
-        <v>0.151171552621192</v>
+        <v>1.65416771322975E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="698">
       <c r="A698" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B698" s="1">
@@ -15023,10 +15023,10 @@
         </is>
       </c>
       <c r="D698" s="0">
-        <v>461</v>
+        <v>4213</v>
       </c>
       <c r="E698" s="0">
-        <v>1.65416771322975E-02</v>
+        <v>0.151171552621192</v>
       </c>
     </row>
     <row outlineLevel="0" r="699">
@@ -15221,7 +15221,7 @@
     <row outlineLevel="0" r="708">
       <c r="A708" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B708" s="1">
@@ -15233,16 +15233,16 @@
         </is>
       </c>
       <c r="D708" s="0">
-        <v>4379</v>
+        <v>464</v>
       </c>
       <c r="E708" s="0">
-        <v>0.154516584333098</v>
+        <v>1.63726182074806E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="709">
       <c r="A709" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B709" s="1">
@@ -15254,10 +15254,10 @@
         </is>
       </c>
       <c r="D709" s="0">
-        <v>464</v>
+        <v>4379</v>
       </c>
       <c r="E709" s="0">
-        <v>1.63726182074806E-02</v>
+        <v>0.154516584333098</v>
       </c>
     </row>
     <row outlineLevel="0" r="710">
@@ -15452,7 +15452,7 @@
     <row outlineLevel="0" r="719">
       <c r="A719" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B719" s="1">
@@ -15464,16 +15464,16 @@
         </is>
       </c>
       <c r="D719" s="0">
-        <v>4579</v>
+        <v>467</v>
       </c>
       <c r="E719" s="0">
-        <v>0.157213486232232</v>
+        <v>1.60337842477512E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="720">
       <c r="A720" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B720" s="1">
@@ -15485,10 +15485,10 @@
         </is>
       </c>
       <c r="D720" s="0">
-        <v>467</v>
+        <v>4579</v>
       </c>
       <c r="E720" s="0">
-        <v>1.60337842477512E-02</v>
+        <v>0.157213486232232</v>
       </c>
     </row>
     <row outlineLevel="0" r="721">
@@ -15683,7 +15683,7 @@
     <row outlineLevel="0" r="730">
       <c r="A730" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B730" s="1">
@@ -15695,16 +15695,16 @@
         </is>
       </c>
       <c r="D730" s="0">
-        <v>4720</v>
+        <v>467</v>
       </c>
       <c r="E730" s="0">
-        <v>0.159777935750313</v>
+        <v>1.58085372871602E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="731">
       <c r="A731" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B731" s="1">
@@ -15716,10 +15716,10 @@
         </is>
       </c>
       <c r="D731" s="0">
-        <v>467</v>
+        <v>4720</v>
       </c>
       <c r="E731" s="0">
-        <v>1.58085372871602E-02</v>
+        <v>0.159777935750313</v>
       </c>
     </row>
     <row outlineLevel="0" r="732">
@@ -15914,7 +15914,7 @@
     <row outlineLevel="0" r="741">
       <c r="A741" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B741" s="1">
@@ -15926,16 +15926,16 @@
         </is>
       </c>
       <c r="D741" s="0">
-        <v>4893</v>
+        <v>469</v>
       </c>
       <c r="E741" s="0">
-        <v>0.160784700315457</v>
+        <v>1.54114090431125E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="742">
       <c r="A742" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B742" s="1">
@@ -15947,10 +15947,10 @@
         </is>
       </c>
       <c r="D742" s="0">
-        <v>469</v>
+        <v>4893</v>
       </c>
       <c r="E742" s="0">
-        <v>1.54114090431125E-02</v>
+        <v>0.160784700315457</v>
       </c>
     </row>
     <row outlineLevel="0" r="743">
@@ -16145,7 +16145,7 @@
     <row outlineLevel="0" r="752">
       <c r="A752" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B752" s="1">
@@ -16157,16 +16157,16 @@
         </is>
       </c>
       <c r="D752" s="0">
-        <v>4960</v>
+        <v>472</v>
       </c>
       <c r="E752" s="0">
-        <v>0.159178433889602</v>
+        <v>1.51476251604621E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="753">
       <c r="A753" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B753" s="1">
@@ -16178,10 +16178,10 @@
         </is>
       </c>
       <c r="D753" s="0">
-        <v>472</v>
+        <v>4960</v>
       </c>
       <c r="E753" s="0">
-        <v>1.51476251604621E-02</v>
+        <v>0.159178433889602</v>
       </c>
     </row>
     <row outlineLevel="0" r="754">
@@ -16376,7 +16376,7 @@
     <row outlineLevel="0" r="763">
       <c r="A763" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B763" s="1">
@@ -16388,16 +16388,16 @@
         </is>
       </c>
       <c r="D763" s="0">
-        <v>5072</v>
+        <v>484</v>
       </c>
       <c r="E763" s="0">
-        <v>0.159346528432297</v>
+        <v>0.015205780710022</v>
       </c>
     </row>
     <row outlineLevel="0" r="764">
       <c r="A764" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B764" s="1">
@@ -16409,10 +16409,10 @@
         </is>
       </c>
       <c r="D764" s="0">
-        <v>484</v>
+        <v>5072</v>
       </c>
       <c r="E764" s="0">
-        <v>0.015205780710022</v>
+        <v>0.159346528432297</v>
       </c>
     </row>
     <row outlineLevel="0" r="765">
@@ -16607,7 +16607,7 @@
     <row outlineLevel="0" r="774">
       <c r="A774" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B774" s="1">
@@ -16619,16 +16619,16 @@
         </is>
       </c>
       <c r="D774" s="0">
-        <v>5209</v>
+        <v>487</v>
       </c>
       <c r="E774" s="0">
-        <v>0.162057057524189</v>
+        <v>1.51510437731388E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="775">
       <c r="A775" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B775" s="1">
@@ -16640,10 +16640,10 @@
         </is>
       </c>
       <c r="D775" s="0">
-        <v>487</v>
+        <v>5209</v>
       </c>
       <c r="E775" s="0">
-        <v>1.51510437731388E-02</v>
+        <v>0.162057057524189</v>
       </c>
     </row>
     <row outlineLevel="0" r="776">
@@ -16838,7 +16838,7 @@
     <row outlineLevel="0" r="785">
       <c r="A785" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B785" s="1">
@@ -16850,16 +16850,16 @@
         </is>
       </c>
       <c r="D785" s="0">
-        <v>5360</v>
+        <v>492</v>
       </c>
       <c r="E785" s="0">
-        <v>0.163270279326205</v>
+        <v>1.49867495202412E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="786">
       <c r="A786" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B786" s="1">
@@ -16871,10 +16871,10 @@
         </is>
       </c>
       <c r="D786" s="0">
-        <v>492</v>
+        <v>5360</v>
       </c>
       <c r="E786" s="0">
-        <v>1.49867495202412E-02</v>
+        <v>0.163270279326205</v>
       </c>
     </row>
     <row outlineLevel="0" r="787">
@@ -17069,7 +17069,7 @@
     <row outlineLevel="0" r="796">
       <c r="A796" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B796" s="1">
@@ -17081,16 +17081,16 @@
         </is>
       </c>
       <c r="D796" s="0">
-        <v>5525</v>
+        <v>501</v>
       </c>
       <c r="E796" s="0">
-        <v>0.162418790604698</v>
+        <v>1.47279301525708E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="797">
       <c r="A797" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B797" s="1">
@@ -17102,10 +17102,10 @@
         </is>
       </c>
       <c r="D797" s="0">
-        <v>501</v>
+        <v>5525</v>
       </c>
       <c r="E797" s="0">
-        <v>1.47279301525708E-02</v>
+        <v>0.162418790604698</v>
       </c>
     </row>
     <row outlineLevel="0" r="798">
@@ -17300,7 +17300,7 @@
     <row outlineLevel="0" r="807">
       <c r="A807" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B807" s="1">
@@ -17312,16 +17312,16 @@
         </is>
       </c>
       <c r="D807" s="0">
-        <v>5679</v>
+        <v>503</v>
       </c>
       <c r="E807" s="0">
-        <v>0.164866747953318</v>
+        <v>1.46025663357139E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="808">
       <c r="A808" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B808" s="1">
@@ -17333,10 +17333,10 @@
         </is>
       </c>
       <c r="D808" s="0">
-        <v>503</v>
+        <v>5679</v>
       </c>
       <c r="E808" s="0">
-        <v>1.46025663357139E-02</v>
+        <v>0.164866747953318</v>
       </c>
     </row>
     <row outlineLevel="0" r="809">
@@ -17531,7 +17531,7 @@
     <row outlineLevel="0" r="818">
       <c r="A818" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B818" s="1">
@@ -17543,16 +17543,16 @@
         </is>
       </c>
       <c r="D818" s="0">
-        <v>5779</v>
+        <v>512</v>
       </c>
       <c r="E818" s="0">
-        <v>0.164634493761039</v>
+        <v>1.45860634721668E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="819">
       <c r="A819" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B819" s="1">
@@ -17564,10 +17564,10 @@
         </is>
       </c>
       <c r="D819" s="0">
-        <v>512</v>
+        <v>5779</v>
       </c>
       <c r="E819" s="0">
-        <v>1.45860634721668E-02</v>
+        <v>0.164634493761039</v>
       </c>
     </row>
     <row outlineLevel="0" r="820">
@@ -17762,7 +17762,7 @@
     <row outlineLevel="0" r="829">
       <c r="A829" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B829" s="1">
@@ -17774,16 +17774,16 @@
         </is>
       </c>
       <c r="D829" s="0">
-        <v>5902</v>
+        <v>520</v>
       </c>
       <c r="E829" s="0">
-        <v>0.166005681658369</v>
+        <v>1.46260512474334E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="830">
       <c r="A830" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B830" s="1">
@@ -17795,10 +17795,10 @@
         </is>
       </c>
       <c r="D830" s="0">
-        <v>520</v>
+        <v>5902</v>
       </c>
       <c r="E830" s="0">
-        <v>1.46260512474334E-02</v>
+        <v>0.166005681658369</v>
       </c>
     </row>
     <row outlineLevel="0" r="831">
@@ -17993,7 +17993,7 @@
     <row outlineLevel="0" r="840">
       <c r="A840" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B840" s="1">
@@ -18005,16 +18005,16 @@
         </is>
       </c>
       <c r="D840" s="0">
-        <v>6208</v>
+        <v>523</v>
       </c>
       <c r="E840" s="0">
-        <v>0.171005151089442</v>
+        <v>1.44065228768972E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="841">
       <c r="A841" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B841" s="1">
@@ -18026,10 +18026,10 @@
         </is>
       </c>
       <c r="D841" s="0">
-        <v>523</v>
+        <v>6208</v>
       </c>
       <c r="E841" s="0">
-        <v>1.44065228768972E-02</v>
+        <v>0.171005151089442</v>
       </c>
     </row>
     <row outlineLevel="0" r="842">
@@ -18224,7 +18224,7 @@
     <row outlineLevel="0" r="851">
       <c r="A851" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B851" s="1">
@@ -18236,16 +18236,16 @@
         </is>
       </c>
       <c r="D851" s="0">
-        <v>6368</v>
+        <v>528</v>
       </c>
       <c r="E851" s="0">
-        <v>0.171021888008594</v>
+        <v>1.41802067946824E-02</v>
       </c>
     </row>
     <row outlineLevel="0" r="852">
       <c r="A852" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B852" s="1">
@@ -18257,10 +18257,10 @@
         </is>
       </c>
       <c r="D852" s="0">
-        <v>528</v>
+        <v>6368</v>
       </c>
       <c r="E852" s="0">
-        <v>1.41802067946824E-02</v>
+        <v>0.171021888008594</v>
       </c>
     </row>
     <row outlineLevel="0" r="853">
@@ -18434,7 +18434,7 @@
         <v>327</v>
       </c>
       <c r="G860" s="0">
-        <v>0.576719576719577</v>
+        <v>0.576</v>
       </c>
     </row>
     <row outlineLevel="0" r="861">
@@ -18461,13 +18461,13 @@
         <v>193</v>
       </c>
       <c r="G861" s="0">
-        <v>0.340388007054674</v>
+        <v>0.34</v>
       </c>
     </row>
     <row outlineLevel="0" r="862">
       <c r="A862" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B862" s="1">
@@ -18479,22 +18479,22 @@
         </is>
       </c>
       <c r="D862" s="0">
-        <v>6448</v>
+        <v>537</v>
       </c>
       <c r="E862" s="0">
-        <v>0.169532523531577</v>
+        <v>1.41189462060262E-02</v>
       </c>
       <c r="F862" s="0">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G862" s="0">
-        <v>5.64373897707231E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="863">
       <c r="A863" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B863" s="1">
@@ -18506,22 +18506,22 @@
         </is>
       </c>
       <c r="D863" s="0">
-        <v>537</v>
+        <v>61</v>
       </c>
       <c r="E863" s="0">
-        <v>1.41189462060262E-02</v>
+        <v>1.60382815375716E-03</v>
       </c>
       <c r="F863" s="0">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G863" s="0">
-        <v>1.94003527336861E-02</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="864">
       <c r="A864" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B864" s="1">
@@ -18533,22 +18533,22 @@
         </is>
       </c>
       <c r="D864" s="0">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="E864" s="0">
-        <v>1.60382815375716E-03</v>
+        <v>1.02539832781196E-03</v>
       </c>
       <c r="F864" s="0">
         <v>1</v>
       </c>
       <c r="G864" s="0">
-        <v>1.7636684303351E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="865">
       <c r="A865" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B865" s="1">
@@ -18560,16 +18560,16 @@
         </is>
       </c>
       <c r="D865" s="0">
-        <v>39</v>
+        <v>6448</v>
       </c>
       <c r="E865" s="0">
-        <v>1.02539832781196E-03</v>
+        <v>0.169532523531577</v>
       </c>
       <c r="F865" s="0">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G865" s="0">
-        <v>1.7636684303351E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="866">
@@ -18596,7 +18596,7 @@
         <v>2</v>
       </c>
       <c r="G866" s="0">
-        <v>3.52733686067019E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="867">
@@ -18623,7 +18623,7 @@
         <v>515</v>
       </c>
       <c r="G867" s="0">
-        <v>0.908289241622575</v>
+        <v>0.908</v>
       </c>
     </row>
     <row outlineLevel="0" r="868">
@@ -18650,7 +18650,7 @@
         <v>49</v>
       </c>
       <c r="G868" s="0">
-        <v>8.64197530864197E-02</v>
+        <v>0.086</v>
       </c>
     </row>
     <row outlineLevel="0" r="869">
@@ -18677,7 +18677,7 @@
         <v>3</v>
       </c>
       <c r="G869" s="0">
-        <v>5.29100529100529E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="870">
@@ -18704,7 +18704,7 @@
         <v>256</v>
       </c>
       <c r="G870" s="0">
-        <v>0.451499118165785</v>
+        <v>0.451</v>
       </c>
     </row>
     <row outlineLevel="0" r="871">
@@ -18731,7 +18731,7 @@
         <v>311</v>
       </c>
       <c r="G871" s="0">
-        <v>0.548500881834215</v>
+        <v>0.548</v>
       </c>
     </row>
     <row outlineLevel="0" r="872">
@@ -18758,6 +18758,357 @@
         <v>0</v>
       </c>
       <c r="G872" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="873">
+      <c r="A873" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B873" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C873" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D873" s="0">
+        <v>16774</v>
+      </c>
+      <c r="E873" s="0">
+        <v>0.42526112970287</v>
+      </c>
+      <c r="F873" s="0">
+        <v>333</v>
+      </c>
+      <c r="G873" s="0">
+        <v>0.577123050259965</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="874">
+      <c r="A874" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B874" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C874" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D874" s="0">
+        <v>8390</v>
+      </c>
+      <c r="E874" s="0">
+        <v>0.212706622046446</v>
+      </c>
+      <c r="F874" s="0">
+        <v>198</v>
+      </c>
+      <c r="G874" s="0">
+        <v>0.34315424610052</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="875">
+      <c r="A875" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B875" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C875" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D875" s="0">
+        <v>6592</v>
+      </c>
+      <c r="E875" s="0">
+        <v>0.167123009836731</v>
+      </c>
+      <c r="F875" s="0">
+        <v>32</v>
+      </c>
+      <c r="G875" s="0">
+        <v>5.54592720970537E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="876">
+      <c r="A876" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B876" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C876" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D876" s="0">
+        <v>544</v>
+      </c>
+      <c r="E876" s="0">
+        <v>1.37917046952642E-02</v>
+      </c>
+      <c r="F876" s="0">
+        <v>11</v>
+      </c>
+      <c r="G876" s="0">
+        <v>1.90641247833622E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="877">
+      <c r="A877" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B877" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C877" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D877" s="0">
+        <v>60</v>
+      </c>
+      <c r="E877" s="0">
+        <v>1.52114390021296E-03</v>
+      </c>
+      <c r="F877" s="0">
+        <v>0</v>
+      </c>
+      <c r="G877" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="878">
+      <c r="A878" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B878" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C878" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D878" s="0">
+        <v>39</v>
+      </c>
+      <c r="E878" s="0">
+        <v>9.88743535138424E-04</v>
+      </c>
+      <c r="F878" s="0">
+        <v>1</v>
+      </c>
+      <c r="G878" s="0">
+        <v>1.73310225303293E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="879">
+      <c r="A879" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B879" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C879" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D879" s="0">
+        <v>7045</v>
+      </c>
+      <c r="E879" s="0">
+        <v>0.178607646283338</v>
+      </c>
+      <c r="F879" s="0">
+        <v>2</v>
+      </c>
+      <c r="G879" s="0">
+        <v>3.46620450606586E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="880">
+      <c r="A880" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B880" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C880" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D880" s="0">
+        <v>19673</v>
+      </c>
+      <c r="E880" s="0">
+        <v>0.498757732481493</v>
+      </c>
+      <c r="F880" s="0">
+        <v>525</v>
+      </c>
+      <c r="G880" s="0">
+        <v>0.909878682842288</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="881">
+      <c r="A881" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B881" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C881" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D881" s="0">
+        <v>10644</v>
+      </c>
+      <c r="E881" s="0">
+        <v>0.269850927897779</v>
+      </c>
+      <c r="F881" s="0">
+        <v>49</v>
+      </c>
+      <c r="G881" s="0">
+        <v>8.49220103986135E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="882">
+      <c r="A882" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B882" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C882" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D882" s="0">
+        <v>9127</v>
+      </c>
+      <c r="E882" s="0">
+        <v>0.231391339620728</v>
+      </c>
+      <c r="F882" s="0">
+        <v>3</v>
+      </c>
+      <c r="G882" s="0">
+        <v>5.19930675909879E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="883">
+      <c r="A883" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B883" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C883" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D883" s="0">
+        <v>17518</v>
+      </c>
+      <c r="E883" s="0">
+        <v>0.444123314065511</v>
+      </c>
+      <c r="F883" s="0">
+        <v>261</v>
+      </c>
+      <c r="G883" s="0">
+        <v>0.452339688041594</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="884">
+      <c r="A884" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B884" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C884" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D884" s="0">
+        <v>20867</v>
+      </c>
+      <c r="E884" s="0">
+        <v>0.529028496095731</v>
+      </c>
+      <c r="F884" s="0">
+        <v>316</v>
+      </c>
+      <c r="G884" s="0">
+        <v>0.547660311958406</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="885">
+      <c r="A885" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B885" s="1">
+        <v>44008</v>
+      </c>
+      <c r="C885" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D885" s="0">
+        <v>1059</v>
+      </c>
+      <c r="E885" s="0">
+        <v>2.68481898387587E-02</v>
+      </c>
+      <c r="F885" s="0">
+        <v>0</v>
+      </c>
+      <c r="G885" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$885</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$898</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G885"/>
+  <dimension ref="A1:G898"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -18785,7 +18785,7 @@
         <v>333</v>
       </c>
       <c r="G873" s="0">
-        <v>0.577123050259965</v>
+        <v>0.577</v>
       </c>
     </row>
     <row outlineLevel="0" r="874">
@@ -18812,13 +18812,13 @@
         <v>198</v>
       </c>
       <c r="G874" s="0">
-        <v>0.34315424610052</v>
+        <v>0.343</v>
       </c>
     </row>
     <row outlineLevel="0" r="875">
       <c r="A875" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B875" s="1">
@@ -18830,22 +18830,22 @@
         </is>
       </c>
       <c r="D875" s="0">
-        <v>6592</v>
+        <v>544</v>
       </c>
       <c r="E875" s="0">
-        <v>0.167123009836731</v>
+        <v>1.37917046952642E-02</v>
       </c>
       <c r="F875" s="0">
-        <v>32</v>
+        <v>11</v>
       </c>
       <c r="G875" s="0">
-        <v>5.54592720970537E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="876">
       <c r="A876" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B876" s="1">
@@ -18857,22 +18857,22 @@
         </is>
       </c>
       <c r="D876" s="0">
-        <v>544</v>
+        <v>60</v>
       </c>
       <c r="E876" s="0">
-        <v>1.37917046952642E-02</v>
+        <v>1.52114390021296E-03</v>
       </c>
       <c r="F876" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G876" s="0">
-        <v>1.90641247833622E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="877">
       <c r="A877" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B877" s="1">
@@ -18884,22 +18884,22 @@
         </is>
       </c>
       <c r="D877" s="0">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E877" s="0">
-        <v>1.52114390021296E-03</v>
+        <v>9.88743535138424E-04</v>
       </c>
       <c r="F877" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G877" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="878">
       <c r="A878" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B878" s="1">
@@ -18911,16 +18911,16 @@
         </is>
       </c>
       <c r="D878" s="0">
-        <v>39</v>
+        <v>6592</v>
       </c>
       <c r="E878" s="0">
-        <v>9.88743535138424E-04</v>
+        <v>0.167123009836731</v>
       </c>
       <c r="F878" s="0">
-        <v>1</v>
+        <v>32</v>
       </c>
       <c r="G878" s="0">
-        <v>1.73310225303293E-03</v>
+        <v>0.055</v>
       </c>
     </row>
     <row outlineLevel="0" r="879">
@@ -18947,7 +18947,7 @@
         <v>2</v>
       </c>
       <c r="G879" s="0">
-        <v>3.46620450606586E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="880">
@@ -18974,7 +18974,7 @@
         <v>525</v>
       </c>
       <c r="G880" s="0">
-        <v>0.909878682842288</v>
+        <v>0.909</v>
       </c>
     </row>
     <row outlineLevel="0" r="881">
@@ -19001,7 +19001,7 @@
         <v>49</v>
       </c>
       <c r="G881" s="0">
-        <v>8.49220103986135E-02</v>
+        <v>0.084</v>
       </c>
     </row>
     <row outlineLevel="0" r="882">
@@ -19028,7 +19028,7 @@
         <v>3</v>
       </c>
       <c r="G882" s="0">
-        <v>5.19930675909879E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="883">
@@ -19055,7 +19055,7 @@
         <v>261</v>
       </c>
       <c r="G883" s="0">
-        <v>0.452339688041594</v>
+        <v>0.452</v>
       </c>
     </row>
     <row outlineLevel="0" r="884">
@@ -19082,7 +19082,7 @@
         <v>316</v>
       </c>
       <c r="G884" s="0">
-        <v>0.547660311958406</v>
+        <v>0.547</v>
       </c>
     </row>
     <row outlineLevel="0" r="885">
@@ -19109,6 +19109,357 @@
         <v>0</v>
       </c>
       <c r="G885" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="886">
+      <c r="A886" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B886" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C886" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D886" s="0">
+        <v>17261</v>
+      </c>
+      <c r="E886" s="0">
+        <v>0.42967738723489</v>
+      </c>
+      <c r="F886" s="0">
+        <v>335</v>
+      </c>
+      <c r="G886" s="0">
+        <v>0.573630136986301</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="887">
+      <c r="A887" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B887" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C887" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D887" s="0">
+        <v>8549</v>
+      </c>
+      <c r="E887" s="0">
+        <v>0.212809917355372</v>
+      </c>
+      <c r="F887" s="0">
+        <v>201</v>
+      </c>
+      <c r="G887" s="0">
+        <v>0.344178082191781</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="888">
+      <c r="A888" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B888" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C888" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D888" s="0">
+        <v>6743</v>
+      </c>
+      <c r="E888" s="0">
+        <v>0.167853231106243</v>
+      </c>
+      <c r="F888" s="0">
+        <v>34</v>
+      </c>
+      <c r="G888" s="0">
+        <v>5.82191780821918E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="889">
+      <c r="A889" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B889" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C889" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D889" s="0">
+        <v>556</v>
+      </c>
+      <c r="E889" s="0">
+        <v>1.38404859105845E-02</v>
+      </c>
+      <c r="F889" s="0">
+        <v>11</v>
+      </c>
+      <c r="G889" s="0">
+        <v>1.88356164383562E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="890">
+      <c r="A890" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B890" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C890" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D890" s="0">
+        <v>61</v>
+      </c>
+      <c r="E890" s="0">
+        <v>1.51847057652096E-03</v>
+      </c>
+      <c r="F890" s="0">
+        <v>0</v>
+      </c>
+      <c r="G890" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="891">
+      <c r="A891" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B891" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C891" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D891" s="0">
+        <v>40</v>
+      </c>
+      <c r="E891" s="0">
+        <v>9.95718410833416E-04</v>
+      </c>
+      <c r="F891" s="0">
+        <v>1</v>
+      </c>
+      <c r="G891" s="0">
+        <v>1.71232876712329E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="892">
+      <c r="A892" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B892" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C892" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D892" s="0">
+        <v>6962</v>
+      </c>
+      <c r="E892" s="0">
+        <v>0.173304789405556</v>
+      </c>
+      <c r="F892" s="0">
+        <v>2</v>
+      </c>
+      <c r="G892" s="0">
+        <v>3.42465753424658E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="893">
+      <c r="A893" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B893" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C893" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D893" s="0">
+        <v>20187</v>
+      </c>
+      <c r="E893" s="0">
+        <v>0.502514188987354</v>
+      </c>
+      <c r="F893" s="0">
+        <v>527</v>
+      </c>
+      <c r="G893" s="0">
+        <v>0.902397260273973</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="894">
+      <c r="A894" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B894" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C894" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D894" s="0">
+        <v>10928</v>
+      </c>
+      <c r="E894" s="0">
+        <v>0.272030269839689</v>
+      </c>
+      <c r="F894" s="0">
+        <v>51</v>
+      </c>
+      <c r="G894" s="0">
+        <v>8.73287671232877E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="895">
+      <c r="A895" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B895" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C895" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D895" s="0">
+        <v>9057</v>
+      </c>
+      <c r="E895" s="0">
+        <v>0.225455541172956</v>
+      </c>
+      <c r="F895" s="0">
+        <v>6</v>
+      </c>
+      <c r="G895" s="0">
+        <v>1.02739726027397E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="896">
+      <c r="A896" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B896" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C896" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D896" s="0">
+        <v>17865</v>
+      </c>
+      <c r="E896" s="0">
+        <v>0.444712735238475</v>
+      </c>
+      <c r="F896" s="0">
+        <v>263</v>
+      </c>
+      <c r="G896" s="0">
+        <v>0.450342465753425</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="897">
+      <c r="A897" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B897" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C897" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D897" s="0">
+        <v>21224</v>
+      </c>
+      <c r="E897" s="0">
+        <v>0.528328188788211</v>
+      </c>
+      <c r="F897" s="0">
+        <v>321</v>
+      </c>
+      <c r="G897" s="0">
+        <v>0.549657534246575</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="898">
+      <c r="A898" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B898" s="1">
+        <v>44009</v>
+      </c>
+      <c r="C898" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D898" s="0">
+        <v>1083</v>
+      </c>
+      <c r="E898" s="0">
+        <v>2.69590759733147E-02</v>
+      </c>
+      <c r="F898" s="0">
+        <v>0</v>
+      </c>
+      <c r="G898" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$898</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$911</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G898"/>
+  <dimension ref="A1:G911"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -19136,7 +19136,7 @@
         <v>335</v>
       </c>
       <c r="G886" s="0">
-        <v>0.573630136986301</v>
+        <v>0.573</v>
       </c>
     </row>
     <row outlineLevel="0" r="887">
@@ -19163,13 +19163,13 @@
         <v>201</v>
       </c>
       <c r="G887" s="0">
-        <v>0.344178082191781</v>
+        <v>0.344</v>
       </c>
     </row>
     <row outlineLevel="0" r="888">
       <c r="A888" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B888" s="1">
@@ -19181,22 +19181,22 @@
         </is>
       </c>
       <c r="D888" s="0">
-        <v>6743</v>
+        <v>556</v>
       </c>
       <c r="E888" s="0">
-        <v>0.167853231106243</v>
+        <v>1.38404859105845E-02</v>
       </c>
       <c r="F888" s="0">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G888" s="0">
-        <v>5.82191780821918E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="889">
       <c r="A889" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B889" s="1">
@@ -19208,22 +19208,22 @@
         </is>
       </c>
       <c r="D889" s="0">
-        <v>556</v>
+        <v>61</v>
       </c>
       <c r="E889" s="0">
-        <v>1.38404859105845E-02</v>
+        <v>1.51847057652096E-03</v>
       </c>
       <c r="F889" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G889" s="0">
-        <v>1.88356164383562E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="890">
       <c r="A890" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B890" s="1">
@@ -19235,22 +19235,22 @@
         </is>
       </c>
       <c r="D890" s="0">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="E890" s="0">
-        <v>1.51847057652096E-03</v>
+        <v>9.95718410833416E-04</v>
       </c>
       <c r="F890" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G890" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="891">
       <c r="A891" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B891" s="1">
@@ -19262,16 +19262,16 @@
         </is>
       </c>
       <c r="D891" s="0">
-        <v>40</v>
+        <v>6743</v>
       </c>
       <c r="E891" s="0">
-        <v>9.95718410833416E-04</v>
+        <v>0.167853231106243</v>
       </c>
       <c r="F891" s="0">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G891" s="0">
-        <v>1.71232876712329E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="892">
@@ -19298,7 +19298,7 @@
         <v>2</v>
       </c>
       <c r="G892" s="0">
-        <v>3.42465753424658E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="893">
@@ -19325,7 +19325,7 @@
         <v>527</v>
       </c>
       <c r="G893" s="0">
-        <v>0.902397260273973</v>
+        <v>0.902</v>
       </c>
     </row>
     <row outlineLevel="0" r="894">
@@ -19352,7 +19352,7 @@
         <v>51</v>
       </c>
       <c r="G894" s="0">
-        <v>8.73287671232877E-02</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="895">
@@ -19379,7 +19379,7 @@
         <v>6</v>
       </c>
       <c r="G895" s="0">
-        <v>1.02739726027397E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="896">
@@ -19406,7 +19406,7 @@
         <v>263</v>
       </c>
       <c r="G896" s="0">
-        <v>0.450342465753425</v>
+        <v>0.45</v>
       </c>
     </row>
     <row outlineLevel="0" r="897">
@@ -19433,7 +19433,7 @@
         <v>321</v>
       </c>
       <c r="G897" s="0">
-        <v>0.549657534246575</v>
+        <v>0.549</v>
       </c>
     </row>
     <row outlineLevel="0" r="898">
@@ -19460,6 +19460,357 @@
         <v>0</v>
       </c>
       <c r="G898" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="899">
+      <c r="A899" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B899" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C899" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D899" s="0">
+        <v>17771</v>
+      </c>
+      <c r="E899" s="0">
+        <v>0.420148001040263</v>
+      </c>
+      <c r="F899" s="0">
+        <v>338</v>
+      </c>
+      <c r="G899" s="0">
+        <v>0.570945945945946</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="900">
+      <c r="A900" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B900" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C900" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D900" s="0">
+        <v>8872</v>
+      </c>
+      <c r="E900" s="0">
+        <v>0.209754828947679</v>
+      </c>
+      <c r="F900" s="0">
+        <v>206</v>
+      </c>
+      <c r="G900" s="0">
+        <v>0.347972972972973</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="901">
+      <c r="A901" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B901" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C901" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D901" s="0">
+        <v>7003</v>
+      </c>
+      <c r="E901" s="0">
+        <v>0.16556729791711</v>
+      </c>
+      <c r="F901" s="0">
+        <v>34</v>
+      </c>
+      <c r="G901" s="0">
+        <v>5.74324324324324E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="902">
+      <c r="A902" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B902" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C902" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D902" s="0">
+        <v>578</v>
+      </c>
+      <c r="E902" s="0">
+        <v>1.36652717686834E-02</v>
+      </c>
+      <c r="F902" s="0">
+        <v>11</v>
+      </c>
+      <c r="G902" s="0">
+        <v>1.85810810810811E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="903">
+      <c r="A903" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B903" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C903" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D903" s="0">
+        <v>60</v>
+      </c>
+      <c r="E903" s="0">
+        <v>1.41854032200865E-03</v>
+      </c>
+      <c r="F903" s="0">
+        <v>0</v>
+      </c>
+      <c r="G903" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="904">
+      <c r="A904" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B904" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C904" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D904" s="0">
+        <v>41</v>
+      </c>
+      <c r="E904" s="0">
+        <v>9.69335886705913E-04</v>
+      </c>
+      <c r="F904" s="0">
+        <v>1</v>
+      </c>
+      <c r="G904" s="0">
+        <v>1.68918918918919E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="905">
+      <c r="A905" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B905" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C905" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D905" s="0">
+        <v>7972</v>
+      </c>
+      <c r="E905" s="0">
+        <v>0.18847672411755</v>
+      </c>
+      <c r="F905" s="0">
+        <v>2</v>
+      </c>
+      <c r="G905" s="0">
+        <v>3.37837837837838E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="906">
+      <c r="A906" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B906" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C906" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D906" s="0">
+        <v>20789</v>
+      </c>
+      <c r="E906" s="0">
+        <v>0.491500579237298</v>
+      </c>
+      <c r="F906" s="0">
+        <v>535</v>
+      </c>
+      <c r="G906" s="0">
+        <v>0.903716216216216</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="907">
+      <c r="A907" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B907" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C907" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D907" s="0">
+        <v>11204</v>
+      </c>
+      <c r="E907" s="0">
+        <v>0.264888762796416</v>
+      </c>
+      <c r="F907" s="0">
+        <v>51</v>
+      </c>
+      <c r="G907" s="0">
+        <v>8.61486486486486E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="908">
+      <c r="A908" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B908" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C908" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D908" s="0">
+        <v>10304</v>
+      </c>
+      <c r="E908" s="0">
+        <v>0.243610657966286</v>
+      </c>
+      <c r="F908" s="0">
+        <v>6</v>
+      </c>
+      <c r="G908" s="0">
+        <v>1.01351351351351E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="909">
+      <c r="A909" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B909" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C909" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D909" s="0">
+        <v>18996</v>
+      </c>
+      <c r="E909" s="0">
+        <v>0.44910986594794</v>
+      </c>
+      <c r="F909" s="0">
+        <v>266</v>
+      </c>
+      <c r="G909" s="0">
+        <v>0.449324324324324</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="910">
+      <c r="A910" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B910" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C910" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D910" s="0">
+        <v>22213</v>
+      </c>
+      <c r="E910" s="0">
+        <v>0.525167269546304</v>
+      </c>
+      <c r="F910" s="0">
+        <v>326</v>
+      </c>
+      <c r="G910" s="0">
+        <v>0.550675675675676</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="911">
+      <c r="A911" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B911" s="1">
+        <v>44011</v>
+      </c>
+      <c r="C911" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D911" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E911" s="0">
+        <v>2.57228645057569E-02</v>
+      </c>
+      <c r="F911" s="0">
+        <v>0</v>
+      </c>
+      <c r="G911" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$911</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$924</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G911"/>
+  <dimension ref="A1:G924"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -19487,7 +19487,7 @@
         <v>338</v>
       </c>
       <c r="G899" s="0">
-        <v>0.570945945945946</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="900">
@@ -19514,13 +19514,13 @@
         <v>206</v>
       </c>
       <c r="G900" s="0">
-        <v>0.347972972972973</v>
+        <v>0.347</v>
       </c>
     </row>
     <row outlineLevel="0" r="901">
       <c r="A901" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B901" s="1">
@@ -19532,22 +19532,22 @@
         </is>
       </c>
       <c r="D901" s="0">
-        <v>7003</v>
+        <v>578</v>
       </c>
       <c r="E901" s="0">
-        <v>0.16556729791711</v>
+        <v>1.36652717686834E-02</v>
       </c>
       <c r="F901" s="0">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="G901" s="0">
-        <v>5.74324324324324E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="902">
       <c r="A902" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B902" s="1">
@@ -19559,22 +19559,22 @@
         </is>
       </c>
       <c r="D902" s="0">
-        <v>578</v>
+        <v>60</v>
       </c>
       <c r="E902" s="0">
-        <v>1.36652717686834E-02</v>
+        <v>1.41854032200865E-03</v>
       </c>
       <c r="F902" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G902" s="0">
-        <v>1.85810810810811E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="903">
       <c r="A903" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B903" s="1">
@@ -19586,22 +19586,22 @@
         </is>
       </c>
       <c r="D903" s="0">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="E903" s="0">
-        <v>1.41854032200865E-03</v>
+        <v>9.69335886705913E-04</v>
       </c>
       <c r="F903" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G903" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="904">
       <c r="A904" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B904" s="1">
@@ -19613,16 +19613,16 @@
         </is>
       </c>
       <c r="D904" s="0">
-        <v>41</v>
+        <v>7003</v>
       </c>
       <c r="E904" s="0">
-        <v>9.69335886705913E-04</v>
+        <v>0.16556729791711</v>
       </c>
       <c r="F904" s="0">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G904" s="0">
-        <v>1.68918918918919E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="905">
@@ -19649,7 +19649,7 @@
         <v>2</v>
       </c>
       <c r="G905" s="0">
-        <v>3.37837837837838E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="906">
@@ -19676,7 +19676,7 @@
         <v>535</v>
       </c>
       <c r="G906" s="0">
-        <v>0.903716216216216</v>
+        <v>0.903</v>
       </c>
     </row>
     <row outlineLevel="0" r="907">
@@ -19703,7 +19703,7 @@
         <v>51</v>
       </c>
       <c r="G907" s="0">
-        <v>8.61486486486486E-02</v>
+        <v>0.086</v>
       </c>
     </row>
     <row outlineLevel="0" r="908">
@@ -19730,7 +19730,7 @@
         <v>6</v>
       </c>
       <c r="G908" s="0">
-        <v>1.01351351351351E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="909">
@@ -19757,7 +19757,7 @@
         <v>266</v>
       </c>
       <c r="G909" s="0">
-        <v>0.449324324324324</v>
+        <v>0.449</v>
       </c>
     </row>
     <row outlineLevel="0" r="910">
@@ -19784,7 +19784,7 @@
         <v>326</v>
       </c>
       <c r="G910" s="0">
-        <v>0.550675675675676</v>
+        <v>0.55</v>
       </c>
     </row>
     <row outlineLevel="0" r="911">
@@ -19811,6 +19811,357 @@
         <v>0</v>
       </c>
       <c r="G911" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="912">
+      <c r="A912" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B912" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C912" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D912" s="0">
+        <v>18255</v>
+      </c>
+      <c r="E912" s="0">
+        <v>0.419568365165828</v>
+      </c>
+      <c r="F912" s="0">
+        <v>342</v>
+      </c>
+      <c r="G912" s="0">
+        <v>0.566225165562914</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="913">
+      <c r="A913" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B913" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C913" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D913" s="0">
+        <v>9048</v>
+      </c>
+      <c r="E913" s="0">
+        <v>0.207956974419086</v>
+      </c>
+      <c r="F913" s="0">
+        <v>212</v>
+      </c>
+      <c r="G913" s="0">
+        <v>0.350993377483444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="914">
+      <c r="A914" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B914" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C914" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D914" s="0">
+        <v>7124</v>
+      </c>
+      <c r="E914" s="0">
+        <v>0.163736238479395</v>
+      </c>
+      <c r="F914" s="0">
+        <v>36</v>
+      </c>
+      <c r="G914" s="0">
+        <v>5.96026490066225E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="915">
+      <c r="A915" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B915" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C915" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D915" s="0">
+        <v>586</v>
+      </c>
+      <c r="E915" s="0">
+        <v>1.34684777862052E-02</v>
+      </c>
+      <c r="F915" s="0">
+        <v>11</v>
+      </c>
+      <c r="G915" s="0">
+        <v>1.82119205298013E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="916">
+      <c r="A916" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B916" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C916" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D916" s="0">
+        <v>61</v>
+      </c>
+      <c r="E916" s="0">
+        <v>1.40200877979269E-03</v>
+      </c>
+      <c r="F916" s="0">
+        <v>0</v>
+      </c>
+      <c r="G916" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="917">
+      <c r="A917" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B917" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C917" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D917" s="0">
+        <v>42</v>
+      </c>
+      <c r="E917" s="0">
+        <v>9.65317520512997E-04</v>
+      </c>
+      <c r="F917" s="0">
+        <v>1</v>
+      </c>
+      <c r="G917" s="0">
+        <v>1.65562913907285E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="918">
+      <c r="A918" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B918" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C918" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D918" s="0">
+        <v>8393</v>
+      </c>
+      <c r="E918" s="0">
+        <v>0.192902617849181</v>
+      </c>
+      <c r="F918" s="0">
+        <v>2</v>
+      </c>
+      <c r="G918" s="0">
+        <v>3.3112582781457E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="919">
+      <c r="A919" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B919" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C919" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D919" s="0">
+        <v>21357</v>
+      </c>
+      <c r="E919" s="0">
+        <v>0.490863959180859</v>
+      </c>
+      <c r="F919" s="0">
+        <v>544</v>
+      </c>
+      <c r="G919" s="0">
+        <v>0.900662251655629</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="920">
+      <c r="A920" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B920" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C920" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D920" s="0">
+        <v>11445</v>
+      </c>
+      <c r="E920" s="0">
+        <v>0.263049024339792</v>
+      </c>
+      <c r="F920" s="0">
+        <v>53</v>
+      </c>
+      <c r="G920" s="0">
+        <v>8.77483443708609E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="921">
+      <c r="A921" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B921" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C921" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D921" s="0">
+        <v>10707</v>
+      </c>
+      <c r="E921" s="0">
+        <v>0.246087016479349</v>
+      </c>
+      <c r="F921" s="0">
+        <v>7</v>
+      </c>
+      <c r="G921" s="0">
+        <v>1.15894039735099E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="922">
+      <c r="A922" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B922" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C922" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D922" s="0">
+        <v>19569</v>
+      </c>
+      <c r="E922" s="0">
+        <v>0.449769013307592</v>
+      </c>
+      <c r="F922" s="0">
+        <v>270</v>
+      </c>
+      <c r="G922" s="0">
+        <v>0.447019867549669</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="923">
+      <c r="A923" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B923" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C923" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D923" s="0">
+        <v>22837</v>
+      </c>
+      <c r="E923" s="0">
+        <v>0.524879909903698</v>
+      </c>
+      <c r="F923" s="0">
+        <v>334</v>
+      </c>
+      <c r="G923" s="0">
+        <v>0.552980132450331</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="924">
+      <c r="A924" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B924" s="1">
+        <v>44012</v>
+      </c>
+      <c r="C924" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D924" s="0">
+        <v>1103</v>
+      </c>
+      <c r="E924" s="0">
+        <v>2.53510767887104E-02</v>
+      </c>
+      <c r="F924" s="0">
+        <v>0</v>
+      </c>
+      <c r="G924" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$924</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$937</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G924"/>
+  <dimension ref="A1:G937"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -19838,7 +19838,7 @@
         <v>342</v>
       </c>
       <c r="G912" s="0">
-        <v>0.566225165562914</v>
+        <v>0.566</v>
       </c>
     </row>
     <row outlineLevel="0" r="913">
@@ -19865,13 +19865,13 @@
         <v>212</v>
       </c>
       <c r="G913" s="0">
-        <v>0.350993377483444</v>
+        <v>0.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="914">
       <c r="A914" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B914" s="1">
@@ -19883,22 +19883,22 @@
         </is>
       </c>
       <c r="D914" s="0">
-        <v>7124</v>
+        <v>586</v>
       </c>
       <c r="E914" s="0">
-        <v>0.163736238479395</v>
+        <v>1.34684777862052E-02</v>
       </c>
       <c r="F914" s="0">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G914" s="0">
-        <v>5.96026490066225E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="915">
       <c r="A915" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B915" s="1">
@@ -19910,22 +19910,22 @@
         </is>
       </c>
       <c r="D915" s="0">
-        <v>586</v>
+        <v>61</v>
       </c>
       <c r="E915" s="0">
-        <v>1.34684777862052E-02</v>
+        <v>1.40200877979269E-03</v>
       </c>
       <c r="F915" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G915" s="0">
-        <v>1.82119205298013E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="916">
       <c r="A916" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B916" s="1">
@@ -19937,22 +19937,22 @@
         </is>
       </c>
       <c r="D916" s="0">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="E916" s="0">
-        <v>1.40200877979269E-03</v>
+        <v>9.65317520512997E-04</v>
       </c>
       <c r="F916" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G916" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="917">
       <c r="A917" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B917" s="1">
@@ -19964,16 +19964,16 @@
         </is>
       </c>
       <c r="D917" s="0">
-        <v>42</v>
+        <v>7124</v>
       </c>
       <c r="E917" s="0">
-        <v>9.65317520512997E-04</v>
+        <v>0.163736238479395</v>
       </c>
       <c r="F917" s="0">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G917" s="0">
-        <v>1.65562913907285E-03</v>
+        <v>0.059</v>
       </c>
     </row>
     <row outlineLevel="0" r="918">
@@ -20000,7 +20000,7 @@
         <v>2</v>
       </c>
       <c r="G918" s="0">
-        <v>3.3112582781457E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="919">
@@ -20027,7 +20027,7 @@
         <v>544</v>
       </c>
       <c r="G919" s="0">
-        <v>0.900662251655629</v>
+        <v>0.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="920">
@@ -20054,7 +20054,7 @@
         <v>53</v>
       </c>
       <c r="G920" s="0">
-        <v>8.77483443708609E-02</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="921">
@@ -20081,7 +20081,7 @@
         <v>7</v>
       </c>
       <c r="G921" s="0">
-        <v>1.15894039735099E-02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row outlineLevel="0" r="922">
@@ -20108,7 +20108,7 @@
         <v>270</v>
       </c>
       <c r="G922" s="0">
-        <v>0.447019867549669</v>
+        <v>0.447</v>
       </c>
     </row>
     <row outlineLevel="0" r="923">
@@ -20135,7 +20135,7 @@
         <v>334</v>
       </c>
       <c r="G923" s="0">
-        <v>0.552980132450331</v>
+        <v>0.552</v>
       </c>
     </row>
     <row outlineLevel="0" r="924">
@@ -20162,6 +20162,357 @@
         <v>0</v>
       </c>
       <c r="G924" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="925">
+      <c r="A925" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B925" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C925" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D925" s="0">
+        <v>19194</v>
+      </c>
+      <c r="E925" s="0">
+        <v>0.423568354849388</v>
+      </c>
+      <c r="F925" s="0">
+        <v>344</v>
+      </c>
+      <c r="G925" s="0">
+        <v>0.564860426929392</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="926">
+      <c r="A926" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B926" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C926" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D926" s="0">
+        <v>9676</v>
+      </c>
+      <c r="E926" s="0">
+        <v>0.213527529515613</v>
+      </c>
+      <c r="F926" s="0">
+        <v>215</v>
+      </c>
+      <c r="G926" s="0">
+        <v>0.35303776683087</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="927">
+      <c r="A927" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B927" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C927" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D927" s="0">
+        <v>7574</v>
+      </c>
+      <c r="E927" s="0">
+        <v>0.167141123248372</v>
+      </c>
+      <c r="F927" s="0">
+        <v>36</v>
+      </c>
+      <c r="G927" s="0">
+        <v>5.91133004926108E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="928">
+      <c r="A928" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B928" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C928" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D928" s="0">
+        <v>598</v>
+      </c>
+      <c r="E928" s="0">
+        <v>1.31965132958182E-02</v>
+      </c>
+      <c r="F928" s="0">
+        <v>11</v>
+      </c>
+      <c r="G928" s="0">
+        <v>1.80623973727422E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="929">
+      <c r="A929" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B929" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C929" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D929" s="0">
+        <v>72</v>
+      </c>
+      <c r="E929" s="0">
+        <v>1.5888778550149E-03</v>
+      </c>
+      <c r="F929" s="0">
+        <v>0</v>
+      </c>
+      <c r="G929" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="930">
+      <c r="A930" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B930" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C930" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D930" s="0">
+        <v>42</v>
+      </c>
+      <c r="E930" s="0">
+        <v>9.26845415425356E-04</v>
+      </c>
+      <c r="F930" s="0">
+        <v>1</v>
+      </c>
+      <c r="G930" s="0">
+        <v>1.64203612479475E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="931">
+      <c r="A931" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B931" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C931" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D931" s="0">
+        <v>8159</v>
+      </c>
+      <c r="E931" s="0">
+        <v>0.180050755820369</v>
+      </c>
+      <c r="F931" s="0">
+        <v>2</v>
+      </c>
+      <c r="G931" s="0">
+        <v>3.28407224958949E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="932">
+      <c r="A932" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B932" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C932" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D932" s="0">
+        <v>22938</v>
+      </c>
+      <c r="E932" s="0">
+        <v>0.506190003310162</v>
+      </c>
+      <c r="F932" s="0">
+        <v>552</v>
+      </c>
+      <c r="G932" s="0">
+        <v>0.9064039408867</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="933">
+      <c r="A933" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B933" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C933" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D933" s="0">
+        <v>11729</v>
+      </c>
+      <c r="E933" s="0">
+        <v>0.258832616131524</v>
+      </c>
+      <c r="F933" s="0">
+        <v>53</v>
+      </c>
+      <c r="G933" s="0">
+        <v>8.70279146141215E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="934">
+      <c r="A934" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B934" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C934" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D934" s="0">
+        <v>10648</v>
+      </c>
+      <c r="E934" s="0">
+        <v>0.234977380558314</v>
+      </c>
+      <c r="F934" s="0">
+        <v>4</v>
+      </c>
+      <c r="G934" s="0">
+        <v>6.56814449917898E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="935">
+      <c r="A935" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B935" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C935" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D935" s="0">
+        <v>20518</v>
+      </c>
+      <c r="E935" s="0">
+        <v>0.452786053183273</v>
+      </c>
+      <c r="F935" s="0">
+        <v>272</v>
+      </c>
+      <c r="G935" s="0">
+        <v>0.446633825944171</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="936">
+      <c r="A936" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B936" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C936" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D936" s="0">
+        <v>23857</v>
+      </c>
+      <c r="E936" s="0">
+        <v>0.526470263709588</v>
+      </c>
+      <c r="F936" s="0">
+        <v>337</v>
+      </c>
+      <c r="G936" s="0">
+        <v>0.553366174055829</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="937">
+      <c r="A937" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B937" s="1">
+        <v>44013</v>
+      </c>
+      <c r="C937" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D937" s="0">
+        <v>940</v>
+      </c>
+      <c r="E937" s="0">
+        <v>2.07436831071389E-02</v>
+      </c>
+      <c r="F937" s="0">
+        <v>0</v>
+      </c>
+      <c r="G937" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$937</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$950</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G937"/>
+  <dimension ref="A1:G950"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20189,7 +20189,7 @@
         <v>344</v>
       </c>
       <c r="G925" s="0">
-        <v>0.564860426929392</v>
+        <v>0.564</v>
       </c>
     </row>
     <row outlineLevel="0" r="926">
@@ -20216,13 +20216,13 @@
         <v>215</v>
       </c>
       <c r="G926" s="0">
-        <v>0.35303776683087</v>
+        <v>0.353</v>
       </c>
     </row>
     <row outlineLevel="0" r="927">
       <c r="A927" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B927" s="1">
@@ -20234,22 +20234,22 @@
         </is>
       </c>
       <c r="D927" s="0">
-        <v>7574</v>
+        <v>598</v>
       </c>
       <c r="E927" s="0">
-        <v>0.167141123248372</v>
+        <v>1.31965132958182E-02</v>
       </c>
       <c r="F927" s="0">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G927" s="0">
-        <v>5.91133004926108E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="928">
       <c r="A928" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B928" s="1">
@@ -20261,22 +20261,22 @@
         </is>
       </c>
       <c r="D928" s="0">
-        <v>598</v>
+        <v>72</v>
       </c>
       <c r="E928" s="0">
-        <v>1.31965132958182E-02</v>
+        <v>1.5888778550149E-03</v>
       </c>
       <c r="F928" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G928" s="0">
-        <v>1.80623973727422E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="929">
       <c r="A929" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B929" s="1">
@@ -20288,22 +20288,22 @@
         </is>
       </c>
       <c r="D929" s="0">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="E929" s="0">
-        <v>1.5888778550149E-03</v>
+        <v>9.26845415425356E-04</v>
       </c>
       <c r="F929" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G929" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="930">
       <c r="A930" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B930" s="1">
@@ -20315,16 +20315,16 @@
         </is>
       </c>
       <c r="D930" s="0">
-        <v>42</v>
+        <v>7574</v>
       </c>
       <c r="E930" s="0">
-        <v>9.26845415425356E-04</v>
+        <v>0.167141123248372</v>
       </c>
       <c r="F930" s="0">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G930" s="0">
-        <v>1.64203612479475E-03</v>
+        <v>0.059</v>
       </c>
     </row>
     <row outlineLevel="0" r="931">
@@ -20351,7 +20351,7 @@
         <v>2</v>
       </c>
       <c r="G931" s="0">
-        <v>3.28407224958949E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="932">
@@ -20378,7 +20378,7 @@
         <v>552</v>
       </c>
       <c r="G932" s="0">
-        <v>0.9064039408867</v>
+        <v>0.906</v>
       </c>
     </row>
     <row outlineLevel="0" r="933">
@@ -20405,7 +20405,7 @@
         <v>53</v>
       </c>
       <c r="G933" s="0">
-        <v>8.70279146141215E-02</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="934">
@@ -20432,7 +20432,7 @@
         <v>4</v>
       </c>
       <c r="G934" s="0">
-        <v>6.56814449917898E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="935">
@@ -20459,7 +20459,7 @@
         <v>272</v>
       </c>
       <c r="G935" s="0">
-        <v>0.446633825944171</v>
+        <v>0.446</v>
       </c>
     </row>
     <row outlineLevel="0" r="936">
@@ -20486,7 +20486,7 @@
         <v>337</v>
       </c>
       <c r="G936" s="0">
-        <v>0.553366174055829</v>
+        <v>0.553</v>
       </c>
     </row>
     <row outlineLevel="0" r="937">
@@ -20514,6 +20514,357 @@
       </c>
       <c r="G937" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="938">
+      <c r="A938" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B938" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C938" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D938" s="0">
+        <v>19775</v>
+      </c>
+      <c r="E938" s="0">
+        <v>0.421731712518661</v>
+      </c>
+      <c r="F938" s="0">
+        <v>351</v>
+      </c>
+      <c r="G938" s="0">
+        <v>0.566129032258065</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="939">
+      <c r="A939" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B939" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C939" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D939" s="0">
+        <v>9850</v>
+      </c>
+      <c r="E939" s="0">
+        <v>0.210066112177437</v>
+      </c>
+      <c r="F939" s="0">
+        <v>217</v>
+      </c>
+      <c r="G939" s="0">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="940">
+      <c r="A940" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B940" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C940" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D940" s="0">
+        <v>7751</v>
+      </c>
+      <c r="E940" s="0">
+        <v>0.165301770100235</v>
+      </c>
+      <c r="F940" s="0">
+        <v>36</v>
+      </c>
+      <c r="G940" s="0">
+        <v>5.80645161290323E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="941">
+      <c r="A941" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B941" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C941" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D941" s="0">
+        <v>615</v>
+      </c>
+      <c r="E941" s="0">
+        <v>1.31158029430582E-02</v>
+      </c>
+      <c r="F941" s="0">
+        <v>11</v>
+      </c>
+      <c r="G941" s="0">
+        <v>0.017741935483871</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="942">
+      <c r="A942" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B942" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C942" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D942" s="0">
+        <v>72</v>
+      </c>
+      <c r="E942" s="0">
+        <v>1.53550863723608E-03</v>
+      </c>
+      <c r="F942" s="0">
+        <v>0</v>
+      </c>
+      <c r="G942" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="943">
+      <c r="A943" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B943" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C943" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D943" s="0">
+        <v>45</v>
+      </c>
+      <c r="E943" s="0">
+        <v>9.59692898272553E-04</v>
+      </c>
+      <c r="F943" s="0">
+        <v>1</v>
+      </c>
+      <c r="G943" s="0">
+        <v>1.61290322580645E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="944">
+      <c r="A944" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B944" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C944" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D944" s="0">
+        <v>8782</v>
+      </c>
+      <c r="E944" s="0">
+        <v>0.187289400725101</v>
+      </c>
+      <c r="F944" s="0">
+        <v>4</v>
+      </c>
+      <c r="G944" s="0">
+        <v>6.45161290322581E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="945">
+      <c r="A945" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B945" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C945" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D945" s="0">
+        <v>23502</v>
+      </c>
+      <c r="E945" s="0">
+        <v>0.501215611004479</v>
+      </c>
+      <c r="F945" s="0">
+        <v>560</v>
+      </c>
+      <c r="G945" s="0">
+        <v>0.903225806451613</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="946">
+      <c r="A946" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B946" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C946" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D946" s="0">
+        <v>11929</v>
+      </c>
+      <c r="E946" s="0">
+        <v>0.254403924077629</v>
+      </c>
+      <c r="F946" s="0">
+        <v>54</v>
+      </c>
+      <c r="G946" s="0">
+        <v>8.70967741935484E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="947">
+      <c r="A947" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B947" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C947" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D947" s="0">
+        <v>11459</v>
+      </c>
+      <c r="E947" s="0">
+        <v>0.244380464917893</v>
+      </c>
+      <c r="F947" s="0">
+        <v>6</v>
+      </c>
+      <c r="G947" s="0">
+        <v>9.67741935483871E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="948">
+      <c r="A948" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B948" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C948" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D948" s="0">
+        <v>21332</v>
+      </c>
+      <c r="E948" s="0">
+        <v>0.454937086798891</v>
+      </c>
+      <c r="F948" s="0">
+        <v>277</v>
+      </c>
+      <c r="G948" s="0">
+        <v>0.446774193548387</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="949">
+      <c r="A949" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B949" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C949" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D949" s="0">
+        <v>24612</v>
+      </c>
+      <c r="E949" s="0">
+        <v>0.524888035828535</v>
+      </c>
+      <c r="F949" s="0">
+        <v>342</v>
+      </c>
+      <c r="G949" s="0">
+        <v>0.551612903225806</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="950">
+      <c r="A950" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B950" s="1">
+        <v>44014</v>
+      </c>
+      <c r="C950" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D950" s="0">
+        <v>946</v>
+      </c>
+      <c r="E950" s="0">
+        <v>2.01748773725741E-02</v>
+      </c>
+      <c r="F950" s="0">
+        <v>1</v>
+      </c>
+      <c r="G950" s="0">
+        <v>1.61290322580645E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$950</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$963</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G950"/>
+  <dimension ref="A1:G963"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20540,7 +20540,7 @@
         <v>351</v>
       </c>
       <c r="G938" s="0">
-        <v>0.566129032258065</v>
+        <v>0.566</v>
       </c>
     </row>
     <row outlineLevel="0" r="939">
@@ -20573,7 +20573,7 @@
     <row outlineLevel="0" r="940">
       <c r="A940" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B940" s="1">
@@ -20585,22 +20585,22 @@
         </is>
       </c>
       <c r="D940" s="0">
-        <v>7751</v>
+        <v>615</v>
       </c>
       <c r="E940" s="0">
-        <v>0.165301770100235</v>
+        <v>1.31158029430582E-02</v>
       </c>
       <c r="F940" s="0">
-        <v>36</v>
+        <v>11</v>
       </c>
       <c r="G940" s="0">
-        <v>5.80645161290323E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="941">
       <c r="A941" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B941" s="1">
@@ -20612,22 +20612,22 @@
         </is>
       </c>
       <c r="D941" s="0">
-        <v>615</v>
+        <v>72</v>
       </c>
       <c r="E941" s="0">
-        <v>1.31158029430582E-02</v>
+        <v>1.53550863723608E-03</v>
       </c>
       <c r="F941" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G941" s="0">
-        <v>0.017741935483871</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="942">
       <c r="A942" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B942" s="1">
@@ -20639,22 +20639,22 @@
         </is>
       </c>
       <c r="D942" s="0">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="E942" s="0">
-        <v>1.53550863723608E-03</v>
+        <v>9.59692898272553E-04</v>
       </c>
       <c r="F942" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G942" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="943">
       <c r="A943" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B943" s="1">
@@ -20666,16 +20666,16 @@
         </is>
       </c>
       <c r="D943" s="0">
-        <v>45</v>
+        <v>7751</v>
       </c>
       <c r="E943" s="0">
-        <v>9.59692898272553E-04</v>
+        <v>0.165301770100235</v>
       </c>
       <c r="F943" s="0">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="G943" s="0">
-        <v>1.61290322580645E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="944">
@@ -20702,7 +20702,7 @@
         <v>4</v>
       </c>
       <c r="G944" s="0">
-        <v>6.45161290322581E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="945">
@@ -20729,7 +20729,7 @@
         <v>560</v>
       </c>
       <c r="G945" s="0">
-        <v>0.903225806451613</v>
+        <v>0.903</v>
       </c>
     </row>
     <row outlineLevel="0" r="946">
@@ -20756,7 +20756,7 @@
         <v>54</v>
       </c>
       <c r="G946" s="0">
-        <v>8.70967741935484E-02</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="947">
@@ -20783,7 +20783,7 @@
         <v>6</v>
       </c>
       <c r="G947" s="0">
-        <v>9.67741935483871E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="948">
@@ -20810,7 +20810,7 @@
         <v>277</v>
       </c>
       <c r="G948" s="0">
-        <v>0.446774193548387</v>
+        <v>0.446</v>
       </c>
     </row>
     <row outlineLevel="0" r="949">
@@ -20837,7 +20837,7 @@
         <v>342</v>
       </c>
       <c r="G949" s="0">
-        <v>0.551612903225806</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="950">
@@ -20864,7 +20864,358 @@
         <v>1</v>
       </c>
       <c r="G950" s="0">
-        <v>1.61290322580645E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="951">
+      <c r="A951" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B951" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C951" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D951" s="0">
+        <v>20445</v>
+      </c>
+      <c r="E951" s="0">
+        <v>0.419711775332567</v>
+      </c>
+      <c r="F951" s="0">
+        <v>356</v>
+      </c>
+      <c r="G951" s="0">
+        <v>0.562401263823065</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="952">
+      <c r="A952" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B952" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C952" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D952" s="0">
+        <v>10097</v>
+      </c>
+      <c r="E952" s="0">
+        <v>0.207279520446707</v>
+      </c>
+      <c r="F952" s="0">
+        <v>221</v>
+      </c>
+      <c r="G952" s="0">
+        <v>0.34913112164297</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="953">
+      <c r="A953" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B953" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C953" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D953" s="0">
+        <v>8004</v>
+      </c>
+      <c r="E953" s="0">
+        <v>0.164312695023813</v>
+      </c>
+      <c r="F953" s="0">
+        <v>39</v>
+      </c>
+      <c r="G953" s="0">
+        <v>6.16113744075829E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="954">
+      <c r="A954" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B954" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C954" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D954" s="0">
+        <v>625</v>
+      </c>
+      <c r="E954" s="0">
+        <v>1.28305140417146E-02</v>
+      </c>
+      <c r="F954" s="0">
+        <v>11</v>
+      </c>
+      <c r="G954" s="0">
+        <v>1.73775671406003E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="955">
+      <c r="A955" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B955" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C955" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D955" s="0">
+        <v>71</v>
+      </c>
+      <c r="E955" s="0">
+        <v>1.45754639513877E-03</v>
+      </c>
+      <c r="F955" s="0">
+        <v>0</v>
+      </c>
+      <c r="G955" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="956">
+      <c r="A956" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B956" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C956" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D956" s="0">
+        <v>46</v>
+      </c>
+      <c r="E956" s="0">
+        <v>9.44325833470192E-04</v>
+      </c>
+      <c r="F956" s="0">
+        <v>1</v>
+      </c>
+      <c r="G956" s="0">
+        <v>1.57977883096367E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="957">
+      <c r="A957" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B957" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C957" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D957" s="0">
+        <v>9424</v>
+      </c>
+      <c r="E957" s="0">
+        <v>0.193463622926589</v>
+      </c>
+      <c r="F957" s="0">
+        <v>5</v>
+      </c>
+      <c r="G957" s="0">
+        <v>7.89889415481832E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="958">
+      <c r="A958" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B958" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C958" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D958" s="0">
+        <v>24213</v>
+      </c>
+      <c r="E958" s="0">
+        <v>0.497064378387256</v>
+      </c>
+      <c r="F958" s="0">
+        <v>570</v>
+      </c>
+      <c r="G958" s="0">
+        <v>0.900473933649289</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="959">
+      <c r="A959" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B959" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C959" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D959" s="0">
+        <v>12146</v>
+      </c>
+      <c r="E959" s="0">
+        <v>0.249343077681064</v>
+      </c>
+      <c r="F959" s="0">
+        <v>57</v>
+      </c>
+      <c r="G959" s="0">
+        <v>9.00473933649289E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="960">
+      <c r="A960" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B960" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C960" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D960" s="0">
+        <v>12353</v>
+      </c>
+      <c r="E960" s="0">
+        <v>0.25359254393168</v>
+      </c>
+      <c r="F960" s="0">
+        <v>6</v>
+      </c>
+      <c r="G960" s="0">
+        <v>9.47867298578199E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="961">
+      <c r="A961" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B961" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C961" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D961" s="0">
+        <v>22246</v>
+      </c>
+      <c r="E961" s="0">
+        <v>0.456684184595172</v>
+      </c>
+      <c r="F961" s="0">
+        <v>283</v>
+      </c>
+      <c r="G961" s="0">
+        <v>0.447077409162717</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="962">
+      <c r="A962" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B962" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C962" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D962" s="0">
+        <v>25517</v>
+      </c>
+      <c r="E962" s="0">
+        <v>0.523833962883889</v>
+      </c>
+      <c r="F962" s="0">
+        <v>349</v>
+      </c>
+      <c r="G962" s="0">
+        <v>0.551342812006319</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="963">
+      <c r="A963" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B963" s="1">
+        <v>44015</v>
+      </c>
+      <c r="C963" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D963" s="0">
+        <v>949</v>
+      </c>
+      <c r="E963" s="0">
+        <v>1.94818525209394E-02</v>
+      </c>
+      <c r="F963" s="0">
+        <v>1</v>
+      </c>
+      <c r="G963" s="0">
+        <v>1.57977883096367E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$963</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$976</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G963"/>
+  <dimension ref="A1:G976"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -20891,7 +20891,7 @@
         <v>356</v>
       </c>
       <c r="G951" s="0">
-        <v>0.562401263823065</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="952">
@@ -20918,13 +20918,13 @@
         <v>221</v>
       </c>
       <c r="G952" s="0">
-        <v>0.34913112164297</v>
+        <v>0.349</v>
       </c>
     </row>
     <row outlineLevel="0" r="953">
       <c r="A953" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B953" s="1">
@@ -20936,22 +20936,22 @@
         </is>
       </c>
       <c r="D953" s="0">
-        <v>8004</v>
+        <v>625</v>
       </c>
       <c r="E953" s="0">
-        <v>0.164312695023813</v>
+        <v>1.28305140417146E-02</v>
       </c>
       <c r="F953" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G953" s="0">
-        <v>6.16113744075829E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="954">
       <c r="A954" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B954" s="1">
@@ -20963,22 +20963,22 @@
         </is>
       </c>
       <c r="D954" s="0">
-        <v>625</v>
+        <v>71</v>
       </c>
       <c r="E954" s="0">
-        <v>1.28305140417146E-02</v>
+        <v>1.45754639513877E-03</v>
       </c>
       <c r="F954" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G954" s="0">
-        <v>1.73775671406003E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="955">
       <c r="A955" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B955" s="1">
@@ -20990,22 +20990,22 @@
         </is>
       </c>
       <c r="D955" s="0">
-        <v>71</v>
+        <v>46</v>
       </c>
       <c r="E955" s="0">
-        <v>1.45754639513877E-03</v>
+        <v>9.44325833470192E-04</v>
       </c>
       <c r="F955" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G955" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="956">
       <c r="A956" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B956" s="1">
@@ -21017,16 +21017,16 @@
         </is>
       </c>
       <c r="D956" s="0">
-        <v>46</v>
+        <v>8004</v>
       </c>
       <c r="E956" s="0">
-        <v>9.44325833470192E-04</v>
+        <v>0.164312695023813</v>
       </c>
       <c r="F956" s="0">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G956" s="0">
-        <v>1.57977883096367E-03</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="957">
@@ -21053,7 +21053,7 @@
         <v>5</v>
       </c>
       <c r="G957" s="0">
-        <v>7.89889415481832E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="958">
@@ -21080,7 +21080,7 @@
         <v>570</v>
       </c>
       <c r="G958" s="0">
-        <v>0.900473933649289</v>
+        <v>0.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="959">
@@ -21107,7 +21107,7 @@
         <v>57</v>
       </c>
       <c r="G959" s="0">
-        <v>9.00473933649289E-02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row outlineLevel="0" r="960">
@@ -21134,7 +21134,7 @@
         <v>6</v>
       </c>
       <c r="G960" s="0">
-        <v>9.47867298578199E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="961">
@@ -21161,7 +21161,7 @@
         <v>283</v>
       </c>
       <c r="G961" s="0">
-        <v>0.447077409162717</v>
+        <v>0.447</v>
       </c>
     </row>
     <row outlineLevel="0" r="962">
@@ -21188,7 +21188,7 @@
         <v>349</v>
       </c>
       <c r="G962" s="0">
-        <v>0.551342812006319</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="963">
@@ -21215,7 +21215,358 @@
         <v>1</v>
       </c>
       <c r="G963" s="0">
-        <v>1.57977883096367E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="964">
+      <c r="A964" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B964" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C964" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D964" s="0">
+        <v>20861</v>
+      </c>
+      <c r="E964" s="0">
+        <v>0.41605504587156</v>
+      </c>
+      <c r="F964" s="0">
+        <v>357</v>
+      </c>
+      <c r="G964" s="0">
+        <v>0.56043956043956</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="965">
+      <c r="A965" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B965" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C965" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D965" s="0">
+        <v>10343</v>
+      </c>
+      <c r="E965" s="0">
+        <v>0.206282409254089</v>
+      </c>
+      <c r="F965" s="0">
+        <v>223</v>
+      </c>
+      <c r="G965" s="0">
+        <v>0.350078492935636</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="966">
+      <c r="A966" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B966" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C966" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D966" s="0">
+        <v>8172</v>
+      </c>
+      <c r="E966" s="0">
+        <v>0.162983645791783</v>
+      </c>
+      <c r="F966" s="0">
+        <v>39</v>
+      </c>
+      <c r="G966" s="0">
+        <v>6.12244897959184E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="967">
+      <c r="A967" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B967" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C967" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D967" s="0">
+        <v>628</v>
+      </c>
+      <c r="E967" s="0">
+        <v>1.25249301954527E-02</v>
+      </c>
+      <c r="F967" s="0">
+        <v>11</v>
+      </c>
+      <c r="G967" s="0">
+        <v>1.72684458398744E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="968">
+      <c r="A968" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B968" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C968" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D968" s="0">
+        <v>72</v>
+      </c>
+      <c r="E968" s="0">
+        <v>1.43597925807738E-03</v>
+      </c>
+      <c r="F968" s="0">
+        <v>0</v>
+      </c>
+      <c r="G968" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="969">
+      <c r="A969" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B969" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C969" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D969" s="0">
+        <v>48</v>
+      </c>
+      <c r="E969" s="0">
+        <v>9.57319505384922E-04</v>
+      </c>
+      <c r="F969" s="0">
+        <v>1</v>
+      </c>
+      <c r="G969" s="0">
+        <v>1.56985871271586E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="970">
+      <c r="A970" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B970" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C970" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D970" s="0">
+        <v>10016</v>
+      </c>
+      <c r="E970" s="0">
+        <v>0.199760670123654</v>
+      </c>
+      <c r="F970" s="0">
+        <v>6</v>
+      </c>
+      <c r="G970" s="0">
+        <v>9.41915227629513E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="971">
+      <c r="A971" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B971" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C971" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D971" s="0">
+        <v>24760</v>
+      </c>
+      <c r="E971" s="0">
+        <v>0.493817311527722</v>
+      </c>
+      <c r="F971" s="0">
+        <v>573</v>
+      </c>
+      <c r="G971" s="0">
+        <v>0.899529042386185</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="972">
+      <c r="A972" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B972" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C972" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D972" s="0">
+        <v>12285</v>
+      </c>
+      <c r="E972" s="0">
+        <v>0.245013960909454</v>
+      </c>
+      <c r="F972" s="0">
+        <v>57</v>
+      </c>
+      <c r="G972" s="0">
+        <v>8.94819466248038E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="973">
+      <c r="A973" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B973" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C973" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D973" s="0">
+        <v>13095</v>
+      </c>
+      <c r="E973" s="0">
+        <v>0.261168727562824</v>
+      </c>
+      <c r="F973" s="0">
+        <v>7</v>
+      </c>
+      <c r="G973" s="0">
+        <v>0.010989010989011</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="974">
+      <c r="A974" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B974" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C974" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D974" s="0">
+        <v>22980</v>
+      </c>
+      <c r="E974" s="0">
+        <v>0.458316713203032</v>
+      </c>
+      <c r="F974" s="0">
+        <v>285</v>
+      </c>
+      <c r="G974" s="0">
+        <v>0.447409733124019</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="975">
+      <c r="A975" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B975" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C975" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D975" s="0">
+        <v>26209</v>
+      </c>
+      <c r="E975" s="0">
+        <v>0.52271639409653</v>
+      </c>
+      <c r="F975" s="0">
+        <v>351</v>
+      </c>
+      <c r="G975" s="0">
+        <v>0.551020408163265</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="976">
+      <c r="A976" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B976" s="1">
+        <v>44016</v>
+      </c>
+      <c r="C976" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D976" s="0">
+        <v>951</v>
+      </c>
+      <c r="E976" s="0">
+        <v>1.89668927004388E-02</v>
+      </c>
+      <c r="F976" s="0">
+        <v>1</v>
+      </c>
+      <c r="G976" s="0">
+        <v>1.56985871271586E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$976</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$989</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G976"/>
+  <dimension ref="A1:G989"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -21242,7 +21242,7 @@
         <v>357</v>
       </c>
       <c r="G964" s="0">
-        <v>0.56043956043956</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="965">
@@ -21269,13 +21269,13 @@
         <v>223</v>
       </c>
       <c r="G965" s="0">
-        <v>0.350078492935636</v>
+        <v>0.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="966">
       <c r="A966" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B966" s="1">
@@ -21287,22 +21287,22 @@
         </is>
       </c>
       <c r="D966" s="0">
-        <v>8172</v>
+        <v>628</v>
       </c>
       <c r="E966" s="0">
-        <v>0.162983645791783</v>
+        <v>1.25249301954527E-02</v>
       </c>
       <c r="F966" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G966" s="0">
-        <v>6.12244897959184E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="967">
       <c r="A967" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B967" s="1">
@@ -21314,22 +21314,22 @@
         </is>
       </c>
       <c r="D967" s="0">
-        <v>628</v>
+        <v>72</v>
       </c>
       <c r="E967" s="0">
-        <v>1.25249301954527E-02</v>
+        <v>1.43597925807738E-03</v>
       </c>
       <c r="F967" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G967" s="0">
-        <v>1.72684458398744E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="968">
       <c r="A968" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B968" s="1">
@@ -21341,22 +21341,22 @@
         </is>
       </c>
       <c r="D968" s="0">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E968" s="0">
-        <v>1.43597925807738E-03</v>
+        <v>9.57319505384922E-04</v>
       </c>
       <c r="F968" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G968" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="969">
       <c r="A969" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B969" s="1">
@@ -21368,16 +21368,16 @@
         </is>
       </c>
       <c r="D969" s="0">
-        <v>48</v>
+        <v>8172</v>
       </c>
       <c r="E969" s="0">
-        <v>9.57319505384922E-04</v>
+        <v>0.162983645791783</v>
       </c>
       <c r="F969" s="0">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G969" s="0">
-        <v>1.56985871271586E-03</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="970">
@@ -21404,7 +21404,7 @@
         <v>6</v>
       </c>
       <c r="G970" s="0">
-        <v>9.41915227629513E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="971">
@@ -21431,7 +21431,7 @@
         <v>573</v>
       </c>
       <c r="G971" s="0">
-        <v>0.899529042386185</v>
+        <v>0.899</v>
       </c>
     </row>
     <row outlineLevel="0" r="972">
@@ -21458,7 +21458,7 @@
         <v>57</v>
       </c>
       <c r="G972" s="0">
-        <v>8.94819466248038E-02</v>
+        <v>0.089</v>
       </c>
     </row>
     <row outlineLevel="0" r="973">
@@ -21485,7 +21485,7 @@
         <v>7</v>
       </c>
       <c r="G973" s="0">
-        <v>0.010989010989011</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="974">
@@ -21512,7 +21512,7 @@
         <v>285</v>
       </c>
       <c r="G974" s="0">
-        <v>0.447409733124019</v>
+        <v>0.447</v>
       </c>
     </row>
     <row outlineLevel="0" r="975">
@@ -21539,7 +21539,7 @@
         <v>351</v>
       </c>
       <c r="G975" s="0">
-        <v>0.551020408163265</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="976">
@@ -21566,7 +21566,358 @@
         <v>1</v>
       </c>
       <c r="G976" s="0">
-        <v>1.56985871271586E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="977">
+      <c r="A977" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B977" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C977" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D977" s="0">
+        <v>21111</v>
+      </c>
+      <c r="E977" s="0">
+        <v>0.410472283253291</v>
+      </c>
+      <c r="F977" s="0">
+        <v>361</v>
+      </c>
+      <c r="G977" s="0">
+        <v>0.558823529411765</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="978">
+      <c r="A978" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B978" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C978" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D978" s="0">
+        <v>10459</v>
+      </c>
+      <c r="E978" s="0">
+        <v>0.203359841340826</v>
+      </c>
+      <c r="F978" s="0">
+        <v>228</v>
+      </c>
+      <c r="G978" s="0">
+        <v>0.352941176470588</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="979">
+      <c r="A979" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B979" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C979" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D979" s="0">
+        <v>8266</v>
+      </c>
+      <c r="E979" s="0">
+        <v>0.160720188213334</v>
+      </c>
+      <c r="F979" s="0">
+        <v>39</v>
+      </c>
+      <c r="G979" s="0">
+        <v>6.03715170278638E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="980">
+      <c r="A980" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B980" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C980" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D980" s="0">
+        <v>632</v>
+      </c>
+      <c r="E980" s="0">
+        <v>1.22883086076491E-02</v>
+      </c>
+      <c r="F980" s="0">
+        <v>11</v>
+      </c>
+      <c r="G980" s="0">
+        <v>1.70278637770898E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="981">
+      <c r="A981" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B981" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C981" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D981" s="0">
+        <v>72</v>
+      </c>
+      <c r="E981" s="0">
+        <v>1.39993389201066E-03</v>
+      </c>
+      <c r="F981" s="0">
+        <v>0</v>
+      </c>
+      <c r="G981" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="982">
+      <c r="A982" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B982" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C982" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D982" s="0">
+        <v>48</v>
+      </c>
+      <c r="E982" s="0">
+        <v>9.33289261340437E-04</v>
+      </c>
+      <c r="F982" s="0">
+        <v>1</v>
+      </c>
+      <c r="G982" s="0">
+        <v>1.54798761609907E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="983">
+      <c r="A983" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B983" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C983" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D983" s="0">
+        <v>10843</v>
+      </c>
+      <c r="E983" s="0">
+        <v>0.210826155431549</v>
+      </c>
+      <c r="F983" s="0">
+        <v>6</v>
+      </c>
+      <c r="G983" s="0">
+        <v>9.28792569659443E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="984">
+      <c r="A984" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B984" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C984" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D984" s="0">
+        <v>24993</v>
+      </c>
+      <c r="E984" s="0">
+        <v>0.485952052264199</v>
+      </c>
+      <c r="F984" s="0">
+        <v>579</v>
+      </c>
+      <c r="G984" s="0">
+        <v>0.896284829721362</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="985">
+      <c r="A985" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B985" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C985" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D985" s="0">
+        <v>12392</v>
+      </c>
+      <c r="E985" s="0">
+        <v>0.240944177636056</v>
+      </c>
+      <c r="F985" s="0">
+        <v>58</v>
+      </c>
+      <c r="G985" s="0">
+        <v>8.97832817337461E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="986">
+      <c r="A986" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B986" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C986" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D986" s="0">
+        <v>14046</v>
+      </c>
+      <c r="E986" s="0">
+        <v>0.273103770099745</v>
+      </c>
+      <c r="F986" s="0">
+        <v>9</v>
+      </c>
+      <c r="G986" s="0">
+        <v>1.39318885448916E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="987">
+      <c r="A987" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B987" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C987" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D987" s="0">
+        <v>23617</v>
+      </c>
+      <c r="E987" s="0">
+        <v>0.459197760105773</v>
+      </c>
+      <c r="F987" s="0">
+        <v>288</v>
+      </c>
+      <c r="G987" s="0">
+        <v>0.445820433436532</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="988">
+      <c r="A988" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B988" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C988" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D988" s="0">
+        <v>26861</v>
+      </c>
+      <c r="E988" s="0">
+        <v>0.522272559351364</v>
+      </c>
+      <c r="F988" s="0">
+        <v>358</v>
+      </c>
+      <c r="G988" s="0">
+        <v>0.554179566563467</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="989">
+      <c r="A989" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B989" s="1">
+        <v>44017</v>
+      </c>
+      <c r="C989" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D989" s="0">
+        <v>953</v>
+      </c>
+      <c r="E989" s="0">
+        <v>1.85296805428633E-02</v>
+      </c>
+      <c r="F989" s="0">
+        <v>0</v>
+      </c>
+      <c r="G989" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$989</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1002</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G989"/>
+  <dimension ref="A1:G1002"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -21593,7 +21593,7 @@
         <v>361</v>
       </c>
       <c r="G977" s="0">
-        <v>0.558823529411765</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="978">
@@ -21620,13 +21620,13 @@
         <v>228</v>
       </c>
       <c r="G978" s="0">
-        <v>0.352941176470588</v>
+        <v>0.352</v>
       </c>
     </row>
     <row outlineLevel="0" r="979">
       <c r="A979" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B979" s="1">
@@ -21638,22 +21638,22 @@
         </is>
       </c>
       <c r="D979" s="0">
-        <v>8266</v>
+        <v>632</v>
       </c>
       <c r="E979" s="0">
-        <v>0.160720188213334</v>
+        <v>1.22883086076491E-02</v>
       </c>
       <c r="F979" s="0">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="G979" s="0">
-        <v>6.03715170278638E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="980">
       <c r="A980" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B980" s="1">
@@ -21665,22 +21665,22 @@
         </is>
       </c>
       <c r="D980" s="0">
-        <v>632</v>
+        <v>72</v>
       </c>
       <c r="E980" s="0">
-        <v>1.22883086076491E-02</v>
+        <v>1.39993389201066E-03</v>
       </c>
       <c r="F980" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G980" s="0">
-        <v>1.70278637770898E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="981">
       <c r="A981" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B981" s="1">
@@ -21692,22 +21692,22 @@
         </is>
       </c>
       <c r="D981" s="0">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E981" s="0">
-        <v>1.39993389201066E-03</v>
+        <v>9.33289261340437E-04</v>
       </c>
       <c r="F981" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G981" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="982">
       <c r="A982" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B982" s="1">
@@ -21719,16 +21719,16 @@
         </is>
       </c>
       <c r="D982" s="0">
-        <v>48</v>
+        <v>8266</v>
       </c>
       <c r="E982" s="0">
-        <v>9.33289261340437E-04</v>
+        <v>0.160720188213334</v>
       </c>
       <c r="F982" s="0">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G982" s="0">
-        <v>1.54798761609907E-03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="983">
@@ -21755,7 +21755,7 @@
         <v>6</v>
       </c>
       <c r="G983" s="0">
-        <v>9.28792569659443E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="984">
@@ -21782,7 +21782,7 @@
         <v>579</v>
       </c>
       <c r="G984" s="0">
-        <v>0.896284829721362</v>
+        <v>0.896</v>
       </c>
     </row>
     <row outlineLevel="0" r="985">
@@ -21809,7 +21809,7 @@
         <v>58</v>
       </c>
       <c r="G985" s="0">
-        <v>8.97832817337461E-02</v>
+        <v>0.089</v>
       </c>
     </row>
     <row outlineLevel="0" r="986">
@@ -21836,7 +21836,7 @@
         <v>9</v>
       </c>
       <c r="G986" s="0">
-        <v>1.39318885448916E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="987">
@@ -21863,7 +21863,7 @@
         <v>288</v>
       </c>
       <c r="G987" s="0">
-        <v>0.445820433436532</v>
+        <v>0.445</v>
       </c>
     </row>
     <row outlineLevel="0" r="988">
@@ -21890,7 +21890,7 @@
         <v>358</v>
       </c>
       <c r="G988" s="0">
-        <v>0.554179566563467</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="989">
@@ -21917,6 +21917,357 @@
         <v>0</v>
       </c>
       <c r="G989" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="990">
+      <c r="A990" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B990" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C990" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D990" s="0">
+        <v>21497</v>
+      </c>
+      <c r="E990" s="0">
+        <v>0.41217524686032</v>
+      </c>
+      <c r="F990" s="0">
+        <v>366</v>
+      </c>
+      <c r="G990" s="0">
+        <v>0.560490045941807</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="991">
+      <c r="A991" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B991" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C991" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D991" s="0">
+        <v>10640</v>
+      </c>
+      <c r="E991" s="0">
+        <v>0.204007285974499</v>
+      </c>
+      <c r="F991" s="0">
+        <v>231</v>
+      </c>
+      <c r="G991" s="0">
+        <v>0.35375191424196</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="992">
+      <c r="A992" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B992" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C992" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D992" s="0">
+        <v>8449</v>
+      </c>
+      <c r="E992" s="0">
+        <v>0.161997890902119</v>
+      </c>
+      <c r="F992" s="0">
+        <v>38</v>
+      </c>
+      <c r="G992" s="0">
+        <v>5.81929555895865E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="993">
+      <c r="A993" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B993" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C993" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D993" s="0">
+        <v>639</v>
+      </c>
+      <c r="E993" s="0">
+        <v>1.22519413287317E-02</v>
+      </c>
+      <c r="F993" s="0">
+        <v>11</v>
+      </c>
+      <c r="G993" s="0">
+        <v>1.68453292496172E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="994">
+      <c r="A994" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B994" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C994" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D994" s="0">
+        <v>72</v>
+      </c>
+      <c r="E994" s="0">
+        <v>1.38050043140638E-03</v>
+      </c>
+      <c r="F994" s="0">
+        <v>0</v>
+      </c>
+      <c r="G994" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="995">
+      <c r="A995" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B995" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C995" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D995" s="0">
+        <v>48</v>
+      </c>
+      <c r="E995" s="0">
+        <v>9.2033362093759E-04</v>
+      </c>
+      <c r="F995" s="0">
+        <v>1</v>
+      </c>
+      <c r="G995" s="0">
+        <v>1.53139356814701E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="996">
+      <c r="A996" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B996" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C996" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D996" s="0">
+        <v>10810</v>
+      </c>
+      <c r="E996" s="0">
+        <v>0.207266800881986</v>
+      </c>
+      <c r="F996" s="0">
+        <v>6</v>
+      </c>
+      <c r="G996" s="0">
+        <v>9.18836140888208E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="997">
+      <c r="A997" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B997" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C997" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D997" s="0">
+        <v>25506</v>
+      </c>
+      <c r="E997" s="0">
+        <v>0.489042277825712</v>
+      </c>
+      <c r="F997" s="0">
+        <v>585</v>
+      </c>
+      <c r="G997" s="0">
+        <v>0.895865237366003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="998">
+      <c r="A998" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B998" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C998" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D998" s="0">
+        <v>12524</v>
+      </c>
+      <c r="E998" s="0">
+        <v>0.240130380596299</v>
+      </c>
+      <c r="F998" s="0">
+        <v>57</v>
+      </c>
+      <c r="G998" s="0">
+        <v>8.72894333843798E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="999">
+      <c r="A999" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B999" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C999" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D999" s="0">
+        <v>14125</v>
+      </c>
+      <c r="E999" s="0">
+        <v>0.270827341577989</v>
+      </c>
+      <c r="F999" s="0">
+        <v>11</v>
+      </c>
+      <c r="G999" s="0">
+        <v>1.68453292496172E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1000">
+      <c r="A1000" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1000" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C1000" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1000" s="0">
+        <v>23986</v>
+      </c>
+      <c r="E1000" s="0">
+        <v>0.459898379829355</v>
+      </c>
+      <c r="F1000" s="0">
+        <v>291</v>
+      </c>
+      <c r="G1000" s="0">
+        <v>0.445635528330781</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1001">
+      <c r="A1001" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1001" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C1001" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1001" s="0">
+        <v>27203</v>
+      </c>
+      <c r="E1001" s="0">
+        <v>0.521579906049276</v>
+      </c>
+      <c r="F1001" s="0">
+        <v>362</v>
+      </c>
+      <c r="G1001" s="0">
+        <v>0.554364471669219</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1002">
+      <c r="A1002" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1002" s="1">
+        <v>44018</v>
+      </c>
+      <c r="C1002" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1002" s="0">
+        <v>966</v>
+      </c>
+      <c r="E1002" s="0">
+        <v>0.018521714121369</v>
+      </c>
+      <c r="F1002" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1002" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1002</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1015</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1002"/>
+  <dimension ref="A1:G1015"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -21944,7 +21944,7 @@
         <v>366</v>
       </c>
       <c r="G990" s="0">
-        <v>0.560490045941807</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="991">
@@ -21971,13 +21971,13 @@
         <v>231</v>
       </c>
       <c r="G991" s="0">
-        <v>0.35375191424196</v>
+        <v>0.353</v>
       </c>
     </row>
     <row outlineLevel="0" r="992">
       <c r="A992" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B992" s="1">
@@ -21989,22 +21989,22 @@
         </is>
       </c>
       <c r="D992" s="0">
-        <v>8449</v>
+        <v>639</v>
       </c>
       <c r="E992" s="0">
-        <v>0.161997890902119</v>
+        <v>1.22519413287317E-02</v>
       </c>
       <c r="F992" s="0">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="G992" s="0">
-        <v>5.81929555895865E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="993">
       <c r="A993" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B993" s="1">
@@ -22016,22 +22016,22 @@
         </is>
       </c>
       <c r="D993" s="0">
-        <v>639</v>
+        <v>72</v>
       </c>
       <c r="E993" s="0">
-        <v>1.22519413287317E-02</v>
+        <v>1.38050043140638E-03</v>
       </c>
       <c r="F993" s="0">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G993" s="0">
-        <v>1.68453292496172E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="994">
       <c r="A994" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B994" s="1">
@@ -22043,22 +22043,22 @@
         </is>
       </c>
       <c r="D994" s="0">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="E994" s="0">
-        <v>1.38050043140638E-03</v>
+        <v>9.2033362093759E-04</v>
       </c>
       <c r="F994" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G994" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="995">
       <c r="A995" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B995" s="1">
@@ -22070,16 +22070,16 @@
         </is>
       </c>
       <c r="D995" s="0">
-        <v>48</v>
+        <v>8449</v>
       </c>
       <c r="E995" s="0">
-        <v>9.2033362093759E-04</v>
+        <v>0.161997890902119</v>
       </c>
       <c r="F995" s="0">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="G995" s="0">
-        <v>1.53139356814701E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="996">
@@ -22106,7 +22106,7 @@
         <v>6</v>
       </c>
       <c r="G996" s="0">
-        <v>9.18836140888208E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="997">
@@ -22133,7 +22133,7 @@
         <v>585</v>
       </c>
       <c r="G997" s="0">
-        <v>0.895865237366003</v>
+        <v>0.895</v>
       </c>
     </row>
     <row outlineLevel="0" r="998">
@@ -22160,7 +22160,7 @@
         <v>57</v>
       </c>
       <c r="G998" s="0">
-        <v>8.72894333843798E-02</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="999">
@@ -22187,7 +22187,7 @@
         <v>11</v>
       </c>
       <c r="G999" s="0">
-        <v>1.68453292496172E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1000">
@@ -22214,7 +22214,7 @@
         <v>291</v>
       </c>
       <c r="G1000" s="0">
-        <v>0.445635528330781</v>
+        <v>0.445</v>
       </c>
     </row>
     <row outlineLevel="0" r="1001">
@@ -22241,7 +22241,7 @@
         <v>362</v>
       </c>
       <c r="G1001" s="0">
-        <v>0.554364471669219</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="1002">
@@ -22268,6 +22268,357 @@
         <v>0</v>
       </c>
       <c r="G1002" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1003">
+      <c r="A1003" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1003" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1003" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1003" s="0">
+        <v>22175</v>
+      </c>
+      <c r="E1003" s="0">
+        <v>0.414377546062713</v>
+      </c>
+      <c r="F1003" s="0">
+        <v>372</v>
+      </c>
+      <c r="G1003" s="0">
+        <v>0.559398496240601</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1004">
+      <c r="A1004" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1004" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1004" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1004" s="0">
+        <v>10872</v>
+      </c>
+      <c r="E1004" s="0">
+        <v>0.203161789438278</v>
+      </c>
+      <c r="F1004" s="0">
+        <v>234</v>
+      </c>
+      <c r="G1004" s="0">
+        <v>0.35187969924812</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1005">
+      <c r="A1005" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1005" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1005" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1005" s="0">
+        <v>8571</v>
+      </c>
+      <c r="E1005" s="0">
+        <v>0.160163695481556</v>
+      </c>
+      <c r="F1005" s="0">
+        <v>39</v>
+      </c>
+      <c r="G1005" s="0">
+        <v>5.86466165413534E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1006">
+      <c r="A1006" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1006" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1006" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1006" s="0">
+        <v>663</v>
+      </c>
+      <c r="E1006" s="0">
+        <v>1.23892813095639E-02</v>
+      </c>
+      <c r="F1006" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1006" s="0">
+        <v>1.80451127819549E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1007">
+      <c r="A1007" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1007" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1007" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1007" s="0">
+        <v>71</v>
+      </c>
+      <c r="E1007" s="0">
+        <v>1.32675561535299E-03</v>
+      </c>
+      <c r="F1007" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1007" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1008">
+      <c r="A1008" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1008" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1008" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1008" s="0">
+        <v>48</v>
+      </c>
+      <c r="E1008" s="0">
+        <v>8.96961542773854E-04</v>
+      </c>
+      <c r="F1008" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1008" s="0">
+        <v>1.50375939849624E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1009">
+      <c r="A1009" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1009" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1009" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1009" s="0">
+        <v>11114</v>
+      </c>
+      <c r="E1009" s="0">
+        <v>0.207683970549763</v>
+      </c>
+      <c r="F1009" s="0">
+        <v>7</v>
+      </c>
+      <c r="G1009" s="0">
+        <v>1.05263157894737E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1010">
+      <c r="A1010" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1010" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1010" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1010" s="0">
+        <v>26246</v>
+      </c>
+      <c r="E1010" s="0">
+        <v>0.49045109690922</v>
+      </c>
+      <c r="F1010" s="0">
+        <v>595</v>
+      </c>
+      <c r="G1010" s="0">
+        <v>0.894736842105263</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1011">
+      <c r="A1011" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1011" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1011" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1011" s="0">
+        <v>12723</v>
+      </c>
+      <c r="E1011" s="0">
+        <v>0.237750868931495</v>
+      </c>
+      <c r="F1011" s="0">
+        <v>58</v>
+      </c>
+      <c r="G1011" s="0">
+        <v>0.087218045112782</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1012">
+      <c r="A1012" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1012" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1012" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1012" s="0">
+        <v>14545</v>
+      </c>
+      <c r="E1012" s="0">
+        <v>0.271798034159285</v>
+      </c>
+      <c r="F1012" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1012" s="0">
+        <v>1.80451127819549E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1013">
+      <c r="A1013" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1013" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1013" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1013" s="0">
+        <v>24706</v>
+      </c>
+      <c r="E1013" s="0">
+        <v>0.461673580745226</v>
+      </c>
+      <c r="F1013" s="0">
+        <v>295</v>
+      </c>
+      <c r="G1013" s="0">
+        <v>0.443609022556391</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1014">
+      <c r="A1014" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1014" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1014" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1014" s="0">
+        <v>27832</v>
+      </c>
+      <c r="E1014" s="0">
+        <v>0.520088201218373</v>
+      </c>
+      <c r="F1014" s="0">
+        <v>370</v>
+      </c>
+      <c r="G1014" s="0">
+        <v>0.556390977443609</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1015">
+      <c r="A1015" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1015" s="1">
+        <v>44019</v>
+      </c>
+      <c r="C1015" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1015" s="0">
+        <v>976</v>
+      </c>
+      <c r="E1015" s="0">
+        <v>1.82382180364017E-02</v>
+      </c>
+      <c r="F1015" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1015" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1015</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1028</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1015"/>
+  <dimension ref="A1:G1028"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22295,7 +22295,7 @@
         <v>372</v>
       </c>
       <c r="G1003" s="0">
-        <v>0.559398496240601</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="1004">
@@ -22322,13 +22322,13 @@
         <v>234</v>
       </c>
       <c r="G1004" s="0">
-        <v>0.35187969924812</v>
+        <v>0.351</v>
       </c>
     </row>
     <row outlineLevel="0" r="1005">
       <c r="A1005" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1005" s="1">
@@ -22340,22 +22340,22 @@
         </is>
       </c>
       <c r="D1005" s="0">
-        <v>8571</v>
+        <v>663</v>
       </c>
       <c r="E1005" s="0">
-        <v>0.160163695481556</v>
+        <v>1.23892813095639E-02</v>
       </c>
       <c r="F1005" s="0">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="G1005" s="0">
-        <v>5.86466165413534E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="1006">
       <c r="A1006" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1006" s="1">
@@ -22367,22 +22367,22 @@
         </is>
       </c>
       <c r="D1006" s="0">
-        <v>663</v>
+        <v>71</v>
       </c>
       <c r="E1006" s="0">
-        <v>1.23892813095639E-02</v>
+        <v>1.32675561535299E-03</v>
       </c>
       <c r="F1006" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1006" s="0">
-        <v>1.80451127819549E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1007">
       <c r="A1007" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1007" s="1">
@@ -22394,22 +22394,22 @@
         </is>
       </c>
       <c r="D1007" s="0">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E1007" s="0">
-        <v>1.32675561535299E-03</v>
+        <v>8.96961542773854E-04</v>
       </c>
       <c r="F1007" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1007" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1008">
       <c r="A1008" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1008" s="1">
@@ -22421,16 +22421,16 @@
         </is>
       </c>
       <c r="D1008" s="0">
-        <v>48</v>
+        <v>8571</v>
       </c>
       <c r="E1008" s="0">
-        <v>8.96961542773854E-04</v>
+        <v>0.160163695481556</v>
       </c>
       <c r="F1008" s="0">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="G1008" s="0">
-        <v>1.50375939849624E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="1009">
@@ -22457,7 +22457,7 @@
         <v>7</v>
       </c>
       <c r="G1009" s="0">
-        <v>1.05263157894737E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1010">
@@ -22484,7 +22484,7 @@
         <v>595</v>
       </c>
       <c r="G1010" s="0">
-        <v>0.894736842105263</v>
+        <v>0.894</v>
       </c>
     </row>
     <row outlineLevel="0" r="1011">
@@ -22511,7 +22511,7 @@
         <v>58</v>
       </c>
       <c r="G1011" s="0">
-        <v>0.087218045112782</v>
+        <v>0.087</v>
       </c>
     </row>
     <row outlineLevel="0" r="1012">
@@ -22538,7 +22538,7 @@
         <v>12</v>
       </c>
       <c r="G1012" s="0">
-        <v>1.80451127819549E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="1013">
@@ -22565,7 +22565,7 @@
         <v>295</v>
       </c>
       <c r="G1013" s="0">
-        <v>0.443609022556391</v>
+        <v>0.443</v>
       </c>
     </row>
     <row outlineLevel="0" r="1014">
@@ -22592,7 +22592,7 @@
         <v>370</v>
       </c>
       <c r="G1014" s="0">
-        <v>0.556390977443609</v>
+        <v>0.556</v>
       </c>
     </row>
     <row outlineLevel="0" r="1015">
@@ -22619,6 +22619,357 @@
         <v>0</v>
       </c>
       <c r="G1015" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1016">
+      <c r="A1016" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1016" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1016" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1016" s="0">
+        <v>23336</v>
+      </c>
+      <c r="E1016" s="0">
+        <v>0.41681849033687</v>
+      </c>
+      <c r="F1016" s="0">
+        <v>386</v>
+      </c>
+      <c r="G1016" s="0">
+        <v>0.563503649635037</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1017">
+      <c r="A1017" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1017" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1017" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1017" s="0">
+        <v>11560</v>
+      </c>
+      <c r="E1017" s="0">
+        <v>0.206480191476441</v>
+      </c>
+      <c r="F1017" s="0">
+        <v>241</v>
+      </c>
+      <c r="G1017" s="0">
+        <v>0.351824817518248</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1018">
+      <c r="A1018" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1018" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1018" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1018" s="0">
+        <v>8978</v>
+      </c>
+      <c r="E1018" s="0">
+        <v>0.160361518951166</v>
+      </c>
+      <c r="F1018" s="0">
+        <v>40</v>
+      </c>
+      <c r="G1018" s="0">
+        <v>5.83941605839416E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1019">
+      <c r="A1019" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1019" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1019" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1019" s="0">
+        <v>677</v>
+      </c>
+      <c r="E1019" s="0">
+        <v>1.20923087914836E-02</v>
+      </c>
+      <c r="F1019" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1019" s="0">
+        <v>1.75182481751825E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1020">
+      <c r="A1020" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1020" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1020" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1020" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1020" s="0">
+        <v>1.3932054442182E-03</v>
+      </c>
+      <c r="F1020" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1020" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1021">
+      <c r="A1021" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1021" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1021" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1021" s="0">
+        <v>48</v>
+      </c>
+      <c r="E1021" s="0">
+        <v>8.57357196441968E-04</v>
+      </c>
+      <c r="F1021" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1021" s="0">
+        <v>1.45985401459854E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1022">
+      <c r="A1022" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1022" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1022" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1022" s="0">
+        <v>11309</v>
+      </c>
+      <c r="E1022" s="0">
+        <v>0.201996927803379</v>
+      </c>
+      <c r="F1022" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1022" s="0">
+        <v>7.2992700729927E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1023">
+      <c r="A1023" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1023" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1023" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1023" s="0">
+        <v>28390</v>
+      </c>
+      <c r="E1023" s="0">
+        <v>0.507091058478905</v>
+      </c>
+      <c r="F1023" s="0">
+        <v>616</v>
+      </c>
+      <c r="G1023" s="0">
+        <v>0.899270072992701</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1024">
+      <c r="A1024" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1024" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1024" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1024" s="0">
+        <v>13088</v>
+      </c>
+      <c r="E1024" s="0">
+        <v>0.23377272889651</v>
+      </c>
+      <c r="F1024" s="0">
+        <v>61</v>
+      </c>
+      <c r="G1024" s="0">
+        <v>0.089051094890511</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1025">
+      <c r="A1025" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1025" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1025" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1025" s="0">
+        <v>14508</v>
+      </c>
+      <c r="E1025" s="0">
+        <v>0.259136212624585</v>
+      </c>
+      <c r="F1025" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1025" s="0">
+        <v>1.16788321167883E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1026">
+      <c r="A1026" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1026" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1026" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1026" s="0">
+        <v>25996</v>
+      </c>
+      <c r="E1026" s="0">
+        <v>0.464330368306362</v>
+      </c>
+      <c r="F1026" s="0">
+        <v>305</v>
+      </c>
+      <c r="G1026" s="0">
+        <v>0.445255474452555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1027">
+      <c r="A1027" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1027" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1027" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1027" s="0">
+        <v>28997</v>
+      </c>
+      <c r="E1027" s="0">
+        <v>0.517933054692244</v>
+      </c>
+      <c r="F1027" s="0">
+        <v>380</v>
+      </c>
+      <c r="G1027" s="0">
+        <v>0.554744525547445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1028">
+      <c r="A1028" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1028" s="1">
+        <v>44020</v>
+      </c>
+      <c r="C1028" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1028" s="0">
+        <v>993</v>
+      </c>
+      <c r="E1028" s="0">
+        <v>1.77365770013932E-02</v>
+      </c>
+      <c r="F1028" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1028" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1028</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1041</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1028"/>
+  <dimension ref="A1:G1041"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22646,7 +22646,7 @@
         <v>386</v>
       </c>
       <c r="G1016" s="0">
-        <v>0.563503649635037</v>
+        <v>0.563</v>
       </c>
     </row>
     <row outlineLevel="0" r="1017">
@@ -22673,13 +22673,13 @@
         <v>241</v>
       </c>
       <c r="G1017" s="0">
-        <v>0.351824817518248</v>
+        <v>0.351</v>
       </c>
     </row>
     <row outlineLevel="0" r="1018">
       <c r="A1018" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1018" s="1">
@@ -22691,22 +22691,22 @@
         </is>
       </c>
       <c r="D1018" s="0">
-        <v>8978</v>
+        <v>677</v>
       </c>
       <c r="E1018" s="0">
-        <v>0.160361518951166</v>
+        <v>1.20923087914836E-02</v>
       </c>
       <c r="F1018" s="0">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="G1018" s="0">
-        <v>5.83941605839416E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="1019">
       <c r="A1019" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1019" s="1">
@@ -22718,22 +22718,22 @@
         </is>
       </c>
       <c r="D1019" s="0">
-        <v>677</v>
+        <v>78</v>
       </c>
       <c r="E1019" s="0">
-        <v>1.20923087914836E-02</v>
+        <v>1.3932054442182E-03</v>
       </c>
       <c r="F1019" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1019" s="0">
-        <v>1.75182481751825E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1020">
       <c r="A1020" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1020" s="1">
@@ -22745,22 +22745,22 @@
         </is>
       </c>
       <c r="D1020" s="0">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="E1020" s="0">
-        <v>1.3932054442182E-03</v>
+        <v>8.57357196441968E-04</v>
       </c>
       <c r="F1020" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1020" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1021">
       <c r="A1021" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1021" s="1">
@@ -22772,16 +22772,16 @@
         </is>
       </c>
       <c r="D1021" s="0">
-        <v>48</v>
+        <v>8978</v>
       </c>
       <c r="E1021" s="0">
-        <v>8.57357196441968E-04</v>
+        <v>0.160361518951166</v>
       </c>
       <c r="F1021" s="0">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="G1021" s="0">
-        <v>1.45985401459854E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="1022">
@@ -22808,7 +22808,7 @@
         <v>5</v>
       </c>
       <c r="G1022" s="0">
-        <v>7.2992700729927E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="1023">
@@ -22835,7 +22835,7 @@
         <v>616</v>
       </c>
       <c r="G1023" s="0">
-        <v>0.899270072992701</v>
+        <v>0.899</v>
       </c>
     </row>
     <row outlineLevel="0" r="1024">
@@ -22862,7 +22862,7 @@
         <v>61</v>
       </c>
       <c r="G1024" s="0">
-        <v>0.089051094890511</v>
+        <v>0.089</v>
       </c>
     </row>
     <row outlineLevel="0" r="1025">
@@ -22889,7 +22889,7 @@
         <v>8</v>
       </c>
       <c r="G1025" s="0">
-        <v>1.16788321167883E-02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row outlineLevel="0" r="1026">
@@ -22916,7 +22916,7 @@
         <v>305</v>
       </c>
       <c r="G1026" s="0">
-        <v>0.445255474452555</v>
+        <v>0.445</v>
       </c>
     </row>
     <row outlineLevel="0" r="1027">
@@ -22943,7 +22943,7 @@
         <v>380</v>
       </c>
       <c r="G1027" s="0">
-        <v>0.554744525547445</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="1028">
@@ -22970,6 +22970,357 @@
         <v>0</v>
       </c>
       <c r="G1028" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1029">
+      <c r="A1029" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1029" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1029" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1029" s="0">
+        <v>24113</v>
+      </c>
+      <c r="E1029" s="0">
+        <v>0.418693893143026</v>
+      </c>
+      <c r="F1029" s="0">
+        <v>397</v>
+      </c>
+      <c r="G1029" s="0">
+        <v>0.559154929577465</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1030">
+      <c r="A1030" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1030" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1030" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1030" s="0">
+        <v>11825</v>
+      </c>
+      <c r="E1030" s="0">
+        <v>0.205327221267212</v>
+      </c>
+      <c r="F1030" s="0">
+        <v>249</v>
+      </c>
+      <c r="G1030" s="0">
+        <v>0.350704225352113</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1031">
+      <c r="A1031" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1031" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1031" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1031" s="0">
+        <v>9149</v>
+      </c>
+      <c r="E1031" s="0">
+        <v>0.158861627684881</v>
+      </c>
+      <c r="F1031" s="0">
+        <v>45</v>
+      </c>
+      <c r="G1031" s="0">
+        <v>6.33802816901408E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1032">
+      <c r="A1032" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1032" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1032" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1032" s="0">
+        <v>688</v>
+      </c>
+      <c r="E1032" s="0">
+        <v>1.19463110555469E-02</v>
+      </c>
+      <c r="F1032" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1032" s="0">
+        <v>1.83098591549296E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1033">
+      <c r="A1033" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1033" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1033" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1033" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1033" s="0">
+        <v>1.35437828827421E-03</v>
+      </c>
+      <c r="F1033" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1033" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1034">
+      <c r="A1034" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1034" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1034" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1034" s="0">
+        <v>50</v>
+      </c>
+      <c r="E1034" s="0">
+        <v>8.68191210432186E-04</v>
+      </c>
+      <c r="F1034" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1034" s="0">
+        <v>1.40845070422535E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1035">
+      <c r="A1035" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1035" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1035" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1035" s="0">
+        <v>11688</v>
+      </c>
+      <c r="E1035" s="0">
+        <v>0.202948377350628</v>
+      </c>
+      <c r="F1035" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1035" s="0">
+        <v>7.04225352112676E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1036">
+      <c r="A1036" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1036" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1036" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1036" s="0">
+        <v>29105</v>
+      </c>
+      <c r="E1036" s="0">
+        <v>0.505374103592575</v>
+      </c>
+      <c r="F1036" s="0">
+        <v>633</v>
+      </c>
+      <c r="G1036" s="0">
+        <v>0.891549295774648</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1037">
+      <c r="A1037" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1037" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1037" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1037" s="0">
+        <v>13253</v>
+      </c>
+      <c r="E1037" s="0">
+        <v>0.230122762237155</v>
+      </c>
+      <c r="F1037" s="0">
+        <v>66</v>
+      </c>
+      <c r="G1037" s="0">
+        <v>9.29577464788732E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1038">
+      <c r="A1038" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1038" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1038" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1038" s="0">
+        <v>15233</v>
+      </c>
+      <c r="E1038" s="0">
+        <v>0.26450313417027</v>
+      </c>
+      <c r="F1038" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1038" s="0">
+        <v>1.54929577464789E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1039">
+      <c r="A1039" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1039" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1039" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1039" s="0">
+        <v>26799</v>
+      </c>
+      <c r="E1039" s="0">
+        <v>0.465333124967443</v>
+      </c>
+      <c r="F1039" s="0">
+        <v>312</v>
+      </c>
+      <c r="G1039" s="0">
+        <v>0.43943661971831</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1040">
+      <c r="A1040" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1040" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1040" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1040" s="0">
+        <v>29784</v>
+      </c>
+      <c r="E1040" s="0">
+        <v>0.517164140230244</v>
+      </c>
+      <c r="F1040" s="0">
+        <v>398</v>
+      </c>
+      <c r="G1040" s="0">
+        <v>0.56056338028169</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1041">
+      <c r="A1041" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1041" s="1">
+        <v>44021</v>
+      </c>
+      <c r="C1041" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1041" s="0">
+        <v>1008</v>
+      </c>
+      <c r="E1041" s="0">
+        <v>1.75027348023129E-02</v>
+      </c>
+      <c r="F1041" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1041" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1041</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1054</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1041"/>
+  <dimension ref="A1:G1054"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -22997,7 +22997,7 @@
         <v>397</v>
       </c>
       <c r="G1029" s="0">
-        <v>0.559154929577465</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="1030">
@@ -23024,13 +23024,13 @@
         <v>249</v>
       </c>
       <c r="G1030" s="0">
-        <v>0.350704225352113</v>
+        <v>0.35</v>
       </c>
     </row>
     <row outlineLevel="0" r="1031">
       <c r="A1031" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1031" s="1">
@@ -23042,22 +23042,22 @@
         </is>
       </c>
       <c r="D1031" s="0">
-        <v>9149</v>
+        <v>688</v>
       </c>
       <c r="E1031" s="0">
-        <v>0.158861627684881</v>
+        <v>1.19463110555469E-02</v>
       </c>
       <c r="F1031" s="0">
-        <v>45</v>
+        <v>13</v>
       </c>
       <c r="G1031" s="0">
-        <v>6.33802816901408E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="1032">
       <c r="A1032" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1032" s="1">
@@ -23069,22 +23069,22 @@
         </is>
       </c>
       <c r="D1032" s="0">
-        <v>688</v>
+        <v>78</v>
       </c>
       <c r="E1032" s="0">
-        <v>1.19463110555469E-02</v>
+        <v>1.35437828827421E-03</v>
       </c>
       <c r="F1032" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1032" s="0">
-        <v>1.83098591549296E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1033">
       <c r="A1033" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1033" s="1">
@@ -23096,22 +23096,22 @@
         </is>
       </c>
       <c r="D1033" s="0">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="E1033" s="0">
-        <v>1.35437828827421E-03</v>
+        <v>8.68191210432186E-04</v>
       </c>
       <c r="F1033" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1033" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1034">
       <c r="A1034" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1034" s="1">
@@ -23123,16 +23123,16 @@
         </is>
       </c>
       <c r="D1034" s="0">
-        <v>50</v>
+        <v>9149</v>
       </c>
       <c r="E1034" s="0">
-        <v>8.68191210432186E-04</v>
+        <v>0.158861627684881</v>
       </c>
       <c r="F1034" s="0">
-        <v>1</v>
+        <v>45</v>
       </c>
       <c r="G1034" s="0">
-        <v>1.40845070422535E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1035">
@@ -23159,7 +23159,7 @@
         <v>5</v>
       </c>
       <c r="G1035" s="0">
-        <v>7.04225352112676E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="1036">
@@ -23186,7 +23186,7 @@
         <v>633</v>
       </c>
       <c r="G1036" s="0">
-        <v>0.891549295774648</v>
+        <v>0.891</v>
       </c>
     </row>
     <row outlineLevel="0" r="1037">
@@ -23213,7 +23213,7 @@
         <v>66</v>
       </c>
       <c r="G1037" s="0">
-        <v>9.29577464788732E-02</v>
+        <v>0.092</v>
       </c>
     </row>
     <row outlineLevel="0" r="1038">
@@ -23240,7 +23240,7 @@
         <v>11</v>
       </c>
       <c r="G1038" s="0">
-        <v>1.54929577464789E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1039">
@@ -23267,7 +23267,7 @@
         <v>312</v>
       </c>
       <c r="G1039" s="0">
-        <v>0.43943661971831</v>
+        <v>0.439</v>
       </c>
     </row>
     <row outlineLevel="0" r="1040">
@@ -23294,7 +23294,7 @@
         <v>398</v>
       </c>
       <c r="G1040" s="0">
-        <v>0.56056338028169</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="1041">
@@ -23321,6 +23321,357 @@
         <v>0</v>
       </c>
       <c r="G1041" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1042">
+      <c r="A1042" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1042" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1042" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1042" s="0">
+        <v>24754</v>
+      </c>
+      <c r="E1042" s="0">
+        <v>0.415712222483458</v>
+      </c>
+      <c r="F1042" s="0">
+        <v>402</v>
+      </c>
+      <c r="G1042" s="0">
+        <v>0.556016597510373</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1043">
+      <c r="A1043" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1043" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1043" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1043" s="0">
+        <v>12100</v>
+      </c>
+      <c r="E1043" s="0">
+        <v>0.203204245457294</v>
+      </c>
+      <c r="F1043" s="0">
+        <v>258</v>
+      </c>
+      <c r="G1043" s="0">
+        <v>0.356846473029046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1044">
+      <c r="A1044" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1044" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1044" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1044" s="0">
+        <v>9311</v>
+      </c>
+      <c r="E1044" s="0">
+        <v>0.156366506566352</v>
+      </c>
+      <c r="F1044" s="0">
+        <v>46</v>
+      </c>
+      <c r="G1044" s="0">
+        <v>6.36237897648686E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1045">
+      <c r="A1045" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1045" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1045" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1045" s="0">
+        <v>694</v>
+      </c>
+      <c r="E1045" s="0">
+        <v>1.16548550700299E-02</v>
+      </c>
+      <c r="F1045" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1045" s="0">
+        <v>0.016597510373444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1046">
+      <c r="A1046" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1046" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1046" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1046" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1046" s="0">
+        <v>1.30991166493131E-03</v>
+      </c>
+      <c r="F1046" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1046" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1047">
+      <c r="A1047" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1047" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1047" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1047" s="0">
+        <v>53</v>
+      </c>
+      <c r="E1047" s="0">
+        <v>8.90068182581534E-04</v>
+      </c>
+      <c r="F1047" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1047" s="0">
+        <v>1.38312586445367E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1048">
+      <c r="A1048" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1048" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1048" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1048" s="0">
+        <v>12556</v>
+      </c>
+      <c r="E1048" s="0">
+        <v>0.210862190575354</v>
+      </c>
+      <c r="F1048" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1048" s="0">
+        <v>5.53250345781466E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1049">
+      <c r="A1049" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1049" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1049" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1049" s="0">
+        <v>29947</v>
+      </c>
+      <c r="E1049" s="0">
+        <v>0.502922110637154</v>
+      </c>
+      <c r="F1049" s="0">
+        <v>644</v>
+      </c>
+      <c r="G1049" s="0">
+        <v>0.89073305670816</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1050">
+      <c r="A1050" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1050" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1050" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1050" s="0">
+        <v>13478</v>
+      </c>
+      <c r="E1050" s="0">
+        <v>0.226346018204413</v>
+      </c>
+      <c r="F1050" s="0">
+        <v>67</v>
+      </c>
+      <c r="G1050" s="0">
+        <v>9.26694329183956E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1051">
+      <c r="A1051" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1051" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1051" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1051" s="0">
+        <v>16121</v>
+      </c>
+      <c r="E1051" s="0">
+        <v>0.270731871158432</v>
+      </c>
+      <c r="F1051" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1051" s="0">
+        <v>0.016597510373444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1052">
+      <c r="A1052" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1052" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1052" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1052" s="0">
+        <v>27766</v>
+      </c>
+      <c r="E1052" s="0">
+        <v>0.46629496523696</v>
+      </c>
+      <c r="F1052" s="0">
+        <v>319</v>
+      </c>
+      <c r="G1052" s="0">
+        <v>0.441217150760719</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1053">
+      <c r="A1053" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1053" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1053" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1053" s="0">
+        <v>30778</v>
+      </c>
+      <c r="E1053" s="0">
+        <v>0.516877707990461</v>
+      </c>
+      <c r="F1053" s="0">
+        <v>404</v>
+      </c>
+      <c r="G1053" s="0">
+        <v>0.558782849239281</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1054">
+      <c r="A1054" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1054" s="1">
+        <v>44022</v>
+      </c>
+      <c r="C1054" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1054" s="0">
+        <v>1002</v>
+      </c>
+      <c r="E1054" s="0">
+        <v>1.68273267725792E-02</v>
+      </c>
+      <c r="F1054" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1054" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1054</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1067</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1054"/>
+  <dimension ref="A1:G1067"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -23348,7 +23348,7 @@
         <v>402</v>
       </c>
       <c r="G1042" s="0">
-        <v>0.556016597510373</v>
+        <v>0.556</v>
       </c>
     </row>
     <row outlineLevel="0" r="1043">
@@ -23375,13 +23375,13 @@
         <v>258</v>
       </c>
       <c r="G1043" s="0">
-        <v>0.356846473029046</v>
+        <v>0.356</v>
       </c>
     </row>
     <row outlineLevel="0" r="1044">
       <c r="A1044" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1044" s="1">
@@ -23393,22 +23393,22 @@
         </is>
       </c>
       <c r="D1044" s="0">
-        <v>9311</v>
+        <v>694</v>
       </c>
       <c r="E1044" s="0">
-        <v>0.156366506566352</v>
+        <v>1.16548550700299E-02</v>
       </c>
       <c r="F1044" s="0">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="G1044" s="0">
-        <v>6.36237897648686E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1045">
       <c r="A1045" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1045" s="1">
@@ -23420,22 +23420,22 @@
         </is>
       </c>
       <c r="D1045" s="0">
-        <v>694</v>
+        <v>78</v>
       </c>
       <c r="E1045" s="0">
-        <v>1.16548550700299E-02</v>
+        <v>1.30991166493131E-03</v>
       </c>
       <c r="F1045" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1045" s="0">
-        <v>0.016597510373444</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1046">
       <c r="A1046" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1046" s="1">
@@ -23447,22 +23447,22 @@
         </is>
       </c>
       <c r="D1046" s="0">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="E1046" s="0">
-        <v>1.30991166493131E-03</v>
+        <v>8.90068182581534E-04</v>
       </c>
       <c r="F1046" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1046" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1047">
       <c r="A1047" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1047" s="1">
@@ -23474,16 +23474,16 @@
         </is>
       </c>
       <c r="D1047" s="0">
-        <v>53</v>
+        <v>9311</v>
       </c>
       <c r="E1047" s="0">
-        <v>8.90068182581534E-04</v>
+        <v>0.156366506566352</v>
       </c>
       <c r="F1047" s="0">
-        <v>1</v>
+        <v>46</v>
       </c>
       <c r="G1047" s="0">
-        <v>1.38312586445367E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1048">
@@ -23510,7 +23510,7 @@
         <v>4</v>
       </c>
       <c r="G1048" s="0">
-        <v>5.53250345781466E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="1049">
@@ -23537,7 +23537,7 @@
         <v>644</v>
       </c>
       <c r="G1049" s="0">
-        <v>0.89073305670816</v>
+        <v>0.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="1050">
@@ -23564,7 +23564,7 @@
         <v>67</v>
       </c>
       <c r="G1050" s="0">
-        <v>9.26694329183956E-02</v>
+        <v>0.092</v>
       </c>
     </row>
     <row outlineLevel="0" r="1051">
@@ -23591,7 +23591,7 @@
         <v>12</v>
       </c>
       <c r="G1051" s="0">
-        <v>0.016597510373444</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1052">
@@ -23618,7 +23618,7 @@
         <v>319</v>
       </c>
       <c r="G1052" s="0">
-        <v>0.441217150760719</v>
+        <v>0.441</v>
       </c>
     </row>
     <row outlineLevel="0" r="1053">
@@ -23645,7 +23645,7 @@
         <v>404</v>
       </c>
       <c r="G1053" s="0">
-        <v>0.558782849239281</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="1054">
@@ -23672,6 +23672,357 @@
         <v>0</v>
       </c>
       <c r="G1054" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1055">
+      <c r="A1055" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1055" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1055" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1055" s="0">
+        <v>25559</v>
+      </c>
+      <c r="E1055" s="0">
+        <v>0.418958790938596</v>
+      </c>
+      <c r="F1055" s="0">
+        <v>411</v>
+      </c>
+      <c r="G1055" s="0">
+        <v>0.556910569105691</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1056">
+      <c r="A1056" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1056" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1056" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1056" s="0">
+        <v>12323</v>
+      </c>
+      <c r="E1056" s="0">
+        <v>0.201996524931974</v>
+      </c>
+      <c r="F1056" s="0">
+        <v>261</v>
+      </c>
+      <c r="G1056" s="0">
+        <v>0.353658536585366</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1057">
+      <c r="A1057" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1057" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1057" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1057" s="0">
+        <v>9498</v>
+      </c>
+      <c r="E1057" s="0">
+        <v>0.155689604301216</v>
+      </c>
+      <c r="F1057" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1057" s="0">
+        <v>6.63956639566396E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1058">
+      <c r="A1058" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1058" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1058" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1058" s="0">
+        <v>705</v>
+      </c>
+      <c r="E1058" s="0">
+        <v>1.15562403697997E-02</v>
+      </c>
+      <c r="F1058" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1058" s="0">
+        <v>0.016260162601626</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1059">
+      <c r="A1059" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1059" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1059" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1059" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1059" s="0">
+        <v>1.27856276431826E-03</v>
+      </c>
+      <c r="F1059" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1059" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1060">
+      <c r="A1060" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1060" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1060" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1060" s="0">
+        <v>56</v>
+      </c>
+      <c r="E1060" s="0">
+        <v>9.17942497459266E-04</v>
+      </c>
+      <c r="F1060" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1060" s="0">
+        <v>1.3550135501355E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1061">
+      <c r="A1061" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1061" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1061" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1061" s="0">
+        <v>12787</v>
+      </c>
+      <c r="E1061" s="0">
+        <v>0.209602334196636</v>
+      </c>
+      <c r="F1061" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1061" s="0">
+        <v>5.42005420054201E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1062">
+      <c r="A1062" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1062" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1062" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1062" s="0">
+        <v>30822</v>
+      </c>
+      <c r="E1062" s="0">
+        <v>0.505228993869455</v>
+      </c>
+      <c r="F1062" s="0">
+        <v>657</v>
+      </c>
+      <c r="G1062" s="0">
+        <v>0.890243902439024</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1063">
+      <c r="A1063" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1063" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1063" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1063" s="0">
+        <v>13706</v>
+      </c>
+      <c r="E1063" s="0">
+        <v>0.224666426253155</v>
+      </c>
+      <c r="F1063" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1063" s="0">
+        <v>9.75609756097561E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1064">
+      <c r="A1064" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1064" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1064" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1064" s="0">
+        <v>16478</v>
+      </c>
+      <c r="E1064" s="0">
+        <v>0.270104579877389</v>
+      </c>
+      <c r="F1064" s="0">
+        <v>9</v>
+      </c>
+      <c r="G1064" s="0">
+        <v>1.21951219512195E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1065">
+      <c r="A1065" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1065" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1065" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1065" s="0">
+        <v>28552</v>
+      </c>
+      <c r="E1065" s="0">
+        <v>0.468019539061732</v>
+      </c>
+      <c r="F1065" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1065" s="0">
+        <v>0.440379403794038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1066">
+      <c r="A1066" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1066" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1066" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1066" s="0">
+        <v>31451</v>
+      </c>
+      <c r="E1066" s="0">
+        <v>0.51553945513556</v>
+      </c>
+      <c r="F1066" s="0">
+        <v>413</v>
+      </c>
+      <c r="G1066" s="0">
+        <v>0.559620596205962</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1067">
+      <c r="A1067" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1067" s="1">
+        <v>44023</v>
+      </c>
+      <c r="C1067" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1067" s="0">
+        <v>1003</v>
+      </c>
+      <c r="E1067" s="0">
+        <v>1.64410058027079E-02</v>
+      </c>
+      <c r="F1067" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1067" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1067</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1080</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1067"/>
+  <dimension ref="A1:G1080"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -23699,7 +23699,7 @@
         <v>411</v>
       </c>
       <c r="G1055" s="0">
-        <v>0.556910569105691</v>
+        <v>0.556</v>
       </c>
     </row>
     <row outlineLevel="0" r="1056">
@@ -23726,13 +23726,13 @@
         <v>261</v>
       </c>
       <c r="G1056" s="0">
-        <v>0.353658536585366</v>
+        <v>0.353</v>
       </c>
     </row>
     <row outlineLevel="0" r="1057">
       <c r="A1057" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1057" s="1">
@@ -23744,22 +23744,22 @@
         </is>
       </c>
       <c r="D1057" s="0">
-        <v>9498</v>
+        <v>705</v>
       </c>
       <c r="E1057" s="0">
-        <v>0.155689604301216</v>
+        <v>1.15562403697997E-02</v>
       </c>
       <c r="F1057" s="0">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G1057" s="0">
-        <v>6.63956639566396E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1058">
       <c r="A1058" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1058" s="1">
@@ -23771,22 +23771,22 @@
         </is>
       </c>
       <c r="D1058" s="0">
-        <v>705</v>
+        <v>78</v>
       </c>
       <c r="E1058" s="0">
-        <v>1.15562403697997E-02</v>
+        <v>1.27856276431826E-03</v>
       </c>
       <c r="F1058" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1058" s="0">
-        <v>0.016260162601626</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1059">
       <c r="A1059" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1059" s="1">
@@ -23798,22 +23798,22 @@
         </is>
       </c>
       <c r="D1059" s="0">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E1059" s="0">
-        <v>1.27856276431826E-03</v>
+        <v>9.17942497459266E-04</v>
       </c>
       <c r="F1059" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1059" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1060">
       <c r="A1060" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1060" s="1">
@@ -23825,16 +23825,16 @@
         </is>
       </c>
       <c r="D1060" s="0">
-        <v>56</v>
+        <v>9498</v>
       </c>
       <c r="E1060" s="0">
-        <v>9.17942497459266E-04</v>
+        <v>0.155689604301216</v>
       </c>
       <c r="F1060" s="0">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G1060" s="0">
-        <v>1.3550135501355E-03</v>
+        <v>0.066</v>
       </c>
     </row>
     <row outlineLevel="0" r="1061">
@@ -23861,7 +23861,7 @@
         <v>4</v>
       </c>
       <c r="G1061" s="0">
-        <v>5.42005420054201E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="1062">
@@ -23888,7 +23888,7 @@
         <v>657</v>
       </c>
       <c r="G1062" s="0">
-        <v>0.890243902439024</v>
+        <v>0.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="1063">
@@ -23915,7 +23915,7 @@
         <v>72</v>
       </c>
       <c r="G1063" s="0">
-        <v>9.75609756097561E-02</v>
+        <v>0.097</v>
       </c>
     </row>
     <row outlineLevel="0" r="1064">
@@ -23942,7 +23942,7 @@
         <v>9</v>
       </c>
       <c r="G1064" s="0">
-        <v>1.21951219512195E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1065">
@@ -23969,7 +23969,7 @@
         <v>325</v>
       </c>
       <c r="G1065" s="0">
-        <v>0.440379403794038</v>
+        <v>0.44</v>
       </c>
     </row>
     <row outlineLevel="0" r="1066">
@@ -23996,7 +23996,7 @@
         <v>413</v>
       </c>
       <c r="G1066" s="0">
-        <v>0.559620596205962</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="1067">
@@ -24023,6 +24023,357 @@
         <v>0</v>
       </c>
       <c r="G1067" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1068">
+      <c r="A1068" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1068" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1068" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1068" s="0">
+        <v>25886</v>
+      </c>
+      <c r="E1068" s="0">
+        <v>0.417785668173015</v>
+      </c>
+      <c r="F1068" s="0">
+        <v>413</v>
+      </c>
+      <c r="G1068" s="0">
+        <v>0.557354925775978</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1069">
+      <c r="A1069" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1069" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1069" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1069" s="0">
+        <v>12551</v>
+      </c>
+      <c r="E1069" s="0">
+        <v>0.202566171723693</v>
+      </c>
+      <c r="F1069" s="0">
+        <v>263</v>
+      </c>
+      <c r="G1069" s="0">
+        <v>0.354925775978408</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1070">
+      <c r="A1070" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1070" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1070" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1070" s="0">
+        <v>9635</v>
+      </c>
+      <c r="E1070" s="0">
+        <v>0.155503550677857</v>
+      </c>
+      <c r="F1070" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1070" s="0">
+        <v>6.61268556005398E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1071">
+      <c r="A1071" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1071" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1071" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1071" s="0">
+        <v>710</v>
+      </c>
+      <c r="E1071" s="0">
+        <v>1.14590058102001E-02</v>
+      </c>
+      <c r="F1071" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1071" s="0">
+        <v>1.61943319838057E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1072">
+      <c r="A1072" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1072" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1072" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1072" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1072" s="0">
+        <v>1.2588766946417E-03</v>
+      </c>
+      <c r="F1072" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1072" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1073">
+      <c r="A1073" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1073" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1073" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1073" s="0">
+        <v>56</v>
+      </c>
+      <c r="E1073" s="0">
+        <v>9.03808908973531E-04</v>
+      </c>
+      <c r="F1073" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1073" s="0">
+        <v>1.34952766531714E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1074">
+      <c r="A1074" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1074" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1074" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1074" s="0">
+        <v>13044</v>
+      </c>
+      <c r="E1074" s="0">
+        <v>0.21052291801162</v>
+      </c>
+      <c r="F1074" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1074" s="0">
+        <v>4.04858299595142E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1075">
+      <c r="A1075" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1075" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1075" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1075" s="0">
+        <v>31367</v>
+      </c>
+      <c r="E1075" s="0">
+        <v>0.506245965138799</v>
+      </c>
+      <c r="F1075" s="0">
+        <v>660</v>
+      </c>
+      <c r="G1075" s="0">
+        <v>0.890688259109312</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1076">
+      <c r="A1076" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1076" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1076" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1076" s="0">
+        <v>13846</v>
+      </c>
+      <c r="E1076" s="0">
+        <v>0.223466752743706</v>
+      </c>
+      <c r="F1076" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1076" s="0">
+        <v>0.097165991902834</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1077">
+      <c r="A1077" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1077" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1077" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1077" s="0">
+        <v>16747</v>
+      </c>
+      <c r="E1077" s="0">
+        <v>0.270287282117495</v>
+      </c>
+      <c r="F1077" s="0">
+        <v>9</v>
+      </c>
+      <c r="G1077" s="0">
+        <v>1.21457489878543E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1078">
+      <c r="A1078" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1078" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1078" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1078" s="0">
+        <v>29033</v>
+      </c>
+      <c r="E1078" s="0">
+        <v>0.468576500968367</v>
+      </c>
+      <c r="F1078" s="0">
+        <v>327</v>
+      </c>
+      <c r="G1078" s="0">
+        <v>0.441295546558704</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1079">
+      <c r="A1079" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1079" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1079" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1079" s="0">
+        <v>31935</v>
+      </c>
+      <c r="E1079" s="0">
+        <v>0.515413169786959</v>
+      </c>
+      <c r="F1079" s="0">
+        <v>414</v>
+      </c>
+      <c r="G1079" s="0">
+        <v>0.558704453441296</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1080">
+      <c r="A1080" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1080" s="1">
+        <v>44024</v>
+      </c>
+      <c r="C1080" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1080" s="0">
+        <v>992</v>
+      </c>
+      <c r="E1080" s="0">
+        <v>0.016010329244674</v>
+      </c>
+      <c r="F1080" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1080" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1080</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1093</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1080"/>
+  <dimension ref="A1:G1093"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -24050,7 +24050,7 @@
         <v>413</v>
       </c>
       <c r="G1068" s="0">
-        <v>0.557354925775978</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="1069">
@@ -24077,13 +24077,13 @@
         <v>263</v>
       </c>
       <c r="G1069" s="0">
-        <v>0.354925775978408</v>
+        <v>0.354</v>
       </c>
     </row>
     <row outlineLevel="0" r="1070">
       <c r="A1070" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1070" s="1">
@@ -24095,22 +24095,22 @@
         </is>
       </c>
       <c r="D1070" s="0">
-        <v>9635</v>
+        <v>710</v>
       </c>
       <c r="E1070" s="0">
-        <v>0.155503550677857</v>
+        <v>1.14590058102001E-02</v>
       </c>
       <c r="F1070" s="0">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G1070" s="0">
-        <v>6.61268556005398E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1071">
       <c r="A1071" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1071" s="1">
@@ -24122,22 +24122,22 @@
         </is>
       </c>
       <c r="D1071" s="0">
-        <v>710</v>
+        <v>78</v>
       </c>
       <c r="E1071" s="0">
-        <v>1.14590058102001E-02</v>
+        <v>1.2588766946417E-03</v>
       </c>
       <c r="F1071" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1071" s="0">
-        <v>1.61943319838057E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1072">
       <c r="A1072" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1072" s="1">
@@ -24149,22 +24149,22 @@
         </is>
       </c>
       <c r="D1072" s="0">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="E1072" s="0">
-        <v>1.2588766946417E-03</v>
+        <v>9.03808908973531E-04</v>
       </c>
       <c r="F1072" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1072" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1073">
       <c r="A1073" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1073" s="1">
@@ -24176,16 +24176,16 @@
         </is>
       </c>
       <c r="D1073" s="0">
-        <v>56</v>
+        <v>9635</v>
       </c>
       <c r="E1073" s="0">
-        <v>9.03808908973531E-04</v>
+        <v>0.155503550677857</v>
       </c>
       <c r="F1073" s="0">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G1073" s="0">
-        <v>1.34952766531714E-03</v>
+        <v>0.066</v>
       </c>
     </row>
     <row outlineLevel="0" r="1074">
@@ -24212,7 +24212,7 @@
         <v>3</v>
       </c>
       <c r="G1074" s="0">
-        <v>4.04858299595142E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="1075">
@@ -24239,7 +24239,7 @@
         <v>660</v>
       </c>
       <c r="G1075" s="0">
-        <v>0.890688259109312</v>
+        <v>0.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="1076">
@@ -24266,7 +24266,7 @@
         <v>72</v>
       </c>
       <c r="G1076" s="0">
-        <v>0.097165991902834</v>
+        <v>0.097</v>
       </c>
     </row>
     <row outlineLevel="0" r="1077">
@@ -24293,7 +24293,7 @@
         <v>9</v>
       </c>
       <c r="G1077" s="0">
-        <v>1.21457489878543E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1078">
@@ -24320,7 +24320,7 @@
         <v>327</v>
       </c>
       <c r="G1078" s="0">
-        <v>0.441295546558704</v>
+        <v>0.441</v>
       </c>
     </row>
     <row outlineLevel="0" r="1079">
@@ -24347,7 +24347,7 @@
         <v>414</v>
       </c>
       <c r="G1079" s="0">
-        <v>0.558704453441296</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="1080">
@@ -24375,6 +24375,357 @@
       </c>
       <c r="G1080" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1081">
+      <c r="A1081" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1081" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1081" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1081" s="0">
+        <v>26607</v>
+      </c>
+      <c r="E1081" s="0">
+        <v>0.407620185678831</v>
+      </c>
+      <c r="F1081" s="0">
+        <v>415</v>
+      </c>
+      <c r="G1081" s="0">
+        <v>0.554072096128171</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1082">
+      <c r="A1082" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1082" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1082" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1082" s="0">
+        <v>12883</v>
+      </c>
+      <c r="E1082" s="0">
+        <v>0.197368017893802</v>
+      </c>
+      <c r="F1082" s="0">
+        <v>266</v>
+      </c>
+      <c r="G1082" s="0">
+        <v>0.355140186915888</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1083">
+      <c r="A1083" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1083" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1083" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1083" s="0">
+        <v>10012</v>
+      </c>
+      <c r="E1083" s="0">
+        <v>0.153384195851334</v>
+      </c>
+      <c r="F1083" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1083" s="0">
+        <v>6.54205607476635E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1084">
+      <c r="A1084" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1084" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1084" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1084" s="0">
+        <v>721</v>
+      </c>
+      <c r="E1084" s="0">
+        <v>1.10457456261299E-02</v>
+      </c>
+      <c r="F1084" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1084" s="0">
+        <v>1.60213618157543E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1085">
+      <c r="A1085" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1085" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1085" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1085" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1085" s="0">
+        <v>1.27156295002604E-03</v>
+      </c>
+      <c r="F1085" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1085" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1086">
+      <c r="A1086" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1086" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1086" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1086" s="0">
+        <v>56</v>
+      </c>
+      <c r="E1086" s="0">
+        <v>8.57921990379018E-04</v>
+      </c>
+      <c r="F1086" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1086" s="0">
+        <v>1.33511348464619E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1087">
+      <c r="A1087" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1087" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1087" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1087" s="0">
+        <v>14912</v>
+      </c>
+      <c r="E1087" s="0">
+        <v>0.228452370009498</v>
+      </c>
+      <c r="F1087" s="0">
+        <v>6</v>
+      </c>
+      <c r="G1087" s="0">
+        <v>8.01068090787717E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1088">
+      <c r="A1088" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1088" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1088" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1088" s="0">
+        <v>31976</v>
+      </c>
+      <c r="E1088" s="0">
+        <v>0.489873456506419</v>
+      </c>
+      <c r="F1088" s="0">
+        <v>666</v>
+      </c>
+      <c r="G1088" s="0">
+        <v>0.889185580774366</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1089">
+      <c r="A1089" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1089" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1089" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1089" s="0">
+        <v>13963</v>
+      </c>
+      <c r="E1089" s="0">
+        <v>0.213913656279683</v>
+      </c>
+      <c r="F1089" s="0">
+        <v>73</v>
+      </c>
+      <c r="G1089" s="0">
+        <v>9.74632843791722E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1090">
+      <c r="A1090" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1090" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1090" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1090" s="0">
+        <v>19335</v>
+      </c>
+      <c r="E1090" s="0">
+        <v>0.296212887213898</v>
+      </c>
+      <c r="F1090" s="0">
+        <v>10</v>
+      </c>
+      <c r="G1090" s="0">
+        <v>1.33511348464619E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1091">
+      <c r="A1091" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1091" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1091" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1091" s="0">
+        <v>30763</v>
+      </c>
+      <c r="E1091" s="0">
+        <v>0.471290253393388</v>
+      </c>
+      <c r="F1091" s="0">
+        <v>330</v>
+      </c>
+      <c r="G1091" s="0">
+        <v>0.440587449933244</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1092">
+      <c r="A1092" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1092" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1092" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1092" s="0">
+        <v>33486</v>
+      </c>
+      <c r="E1092" s="0">
+        <v>0.513006710175568</v>
+      </c>
+      <c r="F1092" s="0">
+        <v>418</v>
+      </c>
+      <c r="G1092" s="0">
+        <v>0.55807743658211</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1093">
+      <c r="A1093" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1093" s="1">
+        <v>44025</v>
+      </c>
+      <c r="C1093" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1093" s="0">
+        <v>1025</v>
+      </c>
+      <c r="E1093" s="0">
+        <v>1.57030364310445E-02</v>
+      </c>
+      <c r="F1093" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1093" s="0">
+        <v>1.33511348464619E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1093</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1106</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1093"/>
+  <dimension ref="A1:G1106"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -24401,7 +24401,7 @@
         <v>415</v>
       </c>
       <c r="G1081" s="0">
-        <v>0.554072096128171</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="1082">
@@ -24428,13 +24428,13 @@
         <v>266</v>
       </c>
       <c r="G1082" s="0">
-        <v>0.355140186915888</v>
+        <v>0.355</v>
       </c>
     </row>
     <row outlineLevel="0" r="1083">
       <c r="A1083" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1083" s="1">
@@ -24446,22 +24446,22 @@
         </is>
       </c>
       <c r="D1083" s="0">
-        <v>10012</v>
+        <v>721</v>
       </c>
       <c r="E1083" s="0">
-        <v>0.153384195851334</v>
+        <v>1.10457456261299E-02</v>
       </c>
       <c r="F1083" s="0">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G1083" s="0">
-        <v>6.54205607476635E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1084">
       <c r="A1084" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1084" s="1">
@@ -24473,22 +24473,22 @@
         </is>
       </c>
       <c r="D1084" s="0">
-        <v>721</v>
+        <v>83</v>
       </c>
       <c r="E1084" s="0">
-        <v>1.10457456261299E-02</v>
+        <v>1.27156295002604E-03</v>
       </c>
       <c r="F1084" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1084" s="0">
-        <v>1.60213618157543E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1085">
       <c r="A1085" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1085" s="1">
@@ -24500,22 +24500,22 @@
         </is>
       </c>
       <c r="D1085" s="0">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="E1085" s="0">
-        <v>1.27156295002604E-03</v>
+        <v>8.57921990379018E-04</v>
       </c>
       <c r="F1085" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1085" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1086">
       <c r="A1086" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1086" s="1">
@@ -24527,16 +24527,16 @@
         </is>
       </c>
       <c r="D1086" s="0">
-        <v>56</v>
+        <v>10012</v>
       </c>
       <c r="E1086" s="0">
-        <v>8.57921990379018E-04</v>
+        <v>0.153384195851334</v>
       </c>
       <c r="F1086" s="0">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G1086" s="0">
-        <v>1.33511348464619E-03</v>
+        <v>0.065</v>
       </c>
     </row>
     <row outlineLevel="0" r="1087">
@@ -24563,7 +24563,7 @@
         <v>6</v>
       </c>
       <c r="G1087" s="0">
-        <v>8.01068090787717E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1088">
@@ -24590,7 +24590,7 @@
         <v>666</v>
       </c>
       <c r="G1088" s="0">
-        <v>0.889185580774366</v>
+        <v>0.889</v>
       </c>
     </row>
     <row outlineLevel="0" r="1089">
@@ -24617,7 +24617,7 @@
         <v>73</v>
       </c>
       <c r="G1089" s="0">
-        <v>9.74632843791722E-02</v>
+        <v>0.097</v>
       </c>
     </row>
     <row outlineLevel="0" r="1090">
@@ -24644,7 +24644,7 @@
         <v>10</v>
       </c>
       <c r="G1090" s="0">
-        <v>1.33511348464619E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1091">
@@ -24671,7 +24671,7 @@
         <v>330</v>
       </c>
       <c r="G1091" s="0">
-        <v>0.440587449933244</v>
+        <v>0.44</v>
       </c>
     </row>
     <row outlineLevel="0" r="1092">
@@ -24698,7 +24698,7 @@
         <v>418</v>
       </c>
       <c r="G1092" s="0">
-        <v>0.55807743658211</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="1093">
@@ -24725,7 +24725,358 @@
         <v>1</v>
       </c>
       <c r="G1093" s="0">
-        <v>1.33511348464619E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1094">
+      <c r="A1094" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1094" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1094" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1094" s="0">
+        <v>27432</v>
+      </c>
+      <c r="E1094" s="0">
+        <v>0.410732466910223</v>
+      </c>
+      <c r="F1094" s="0">
+        <v>426</v>
+      </c>
+      <c r="G1094" s="0">
+        <v>0.555410691003911</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1095">
+      <c r="A1095" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1095" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1095" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1095" s="0">
+        <v>13150</v>
+      </c>
+      <c r="E1095" s="0">
+        <v>0.196891657183925</v>
+      </c>
+      <c r="F1095" s="0">
+        <v>273</v>
+      </c>
+      <c r="G1095" s="0">
+        <v>0.355932203389831</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1096">
+      <c r="A1096" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1096" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1096" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1096" s="0">
+        <v>10157</v>
+      </c>
+      <c r="E1096" s="0">
+        <v>0.152078217643888</v>
+      </c>
+      <c r="F1096" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1096" s="0">
+        <v>6.38852672750978E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1097">
+      <c r="A1097" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1097" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1097" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1097" s="0">
+        <v>729</v>
+      </c>
+      <c r="E1097" s="0">
+        <v>1.09151344552914E-02</v>
+      </c>
+      <c r="F1097" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1097" s="0">
+        <v>0.015645371577575</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1098">
+      <c r="A1098" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1098" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1098" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1098" s="0">
+        <v>84</v>
+      </c>
+      <c r="E1098" s="0">
+        <v>1.2577109660418E-03</v>
+      </c>
+      <c r="F1098" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1098" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1099">
+      <c r="A1099" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1099" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1099" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1099" s="0">
+        <v>56</v>
+      </c>
+      <c r="E1099" s="0">
+        <v>8.38473977361203E-04</v>
+      </c>
+      <c r="F1099" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1099" s="0">
+        <v>1.30378096479791E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1100">
+      <c r="A1100" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1100" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1100" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1100" s="0">
+        <v>15180</v>
+      </c>
+      <c r="E1100" s="0">
+        <v>0.227286338863269</v>
+      </c>
+      <c r="F1100" s="0">
+        <v>6</v>
+      </c>
+      <c r="G1100" s="0">
+        <v>7.82268578878748E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1101">
+      <c r="A1101" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1101" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1101" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1101" s="0">
+        <v>32952</v>
+      </c>
+      <c r="E1101" s="0">
+        <v>0.493382044678685</v>
+      </c>
+      <c r="F1101" s="0">
+        <v>679</v>
+      </c>
+      <c r="G1101" s="0">
+        <v>0.885267275097784</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1102">
+      <c r="A1102" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1102" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1102" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1102" s="0">
+        <v>14228</v>
+      </c>
+      <c r="E1102" s="0">
+        <v>0.213032281248128</v>
+      </c>
+      <c r="F1102" s="0">
+        <v>73</v>
+      </c>
+      <c r="G1102" s="0">
+        <v>9.51760104302477E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1103">
+      <c r="A1103" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1103" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1103" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1103" s="0">
+        <v>19608</v>
+      </c>
+      <c r="E1103" s="0">
+        <v>0.293585674073187</v>
+      </c>
+      <c r="F1103" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1103" s="0">
+        <v>1.95567144719687E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1104">
+      <c r="A1104" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1104" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1104" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1104" s="0">
+        <v>31566</v>
+      </c>
+      <c r="E1104" s="0">
+        <v>0.472629813738995</v>
+      </c>
+      <c r="F1104" s="0">
+        <v>336</v>
+      </c>
+      <c r="G1104" s="0">
+        <v>0.438070404172099</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1105">
+      <c r="A1105" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1105" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1105" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1105" s="0">
+        <v>34190</v>
+      </c>
+      <c r="E1105" s="0">
+        <v>0.511918308678206</v>
+      </c>
+      <c r="F1105" s="0">
+        <v>430</v>
+      </c>
+      <c r="G1105" s="0">
+        <v>0.560625814863103</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1106">
+      <c r="A1106" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1106" s="1">
+        <v>44026</v>
+      </c>
+      <c r="C1106" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1106" s="0">
+        <v>1032</v>
+      </c>
+      <c r="E1106" s="0">
+        <v>1.54518775827993E-02</v>
+      </c>
+      <c r="F1106" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1106" s="0">
+        <v>1.30378096479791E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1106</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1119</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1106"/>
+  <dimension ref="A1:G1119"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -24752,7 +24752,7 @@
         <v>426</v>
       </c>
       <c r="G1094" s="0">
-        <v>0.555410691003911</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="1095">
@@ -24779,13 +24779,13 @@
         <v>273</v>
       </c>
       <c r="G1095" s="0">
-        <v>0.355932203389831</v>
+        <v>0.355</v>
       </c>
     </row>
     <row outlineLevel="0" r="1096">
       <c r="A1096" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1096" s="1">
@@ -24797,22 +24797,22 @@
         </is>
       </c>
       <c r="D1096" s="0">
-        <v>10157</v>
+        <v>729</v>
       </c>
       <c r="E1096" s="0">
-        <v>0.152078217643888</v>
+        <v>1.09151344552914E-02</v>
       </c>
       <c r="F1096" s="0">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="G1096" s="0">
-        <v>6.38852672750978E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1097">
       <c r="A1097" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1097" s="1">
@@ -24824,22 +24824,22 @@
         </is>
       </c>
       <c r="D1097" s="0">
-        <v>729</v>
+        <v>84</v>
       </c>
       <c r="E1097" s="0">
-        <v>1.09151344552914E-02</v>
+        <v>1.2577109660418E-03</v>
       </c>
       <c r="F1097" s="0">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="G1097" s="0">
-        <v>0.015645371577575</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1098">
       <c r="A1098" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1098" s="1">
@@ -24851,22 +24851,22 @@
         </is>
       </c>
       <c r="D1098" s="0">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="E1098" s="0">
-        <v>1.2577109660418E-03</v>
+        <v>8.38473977361203E-04</v>
       </c>
       <c r="F1098" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1098" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1099">
       <c r="A1099" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1099" s="1">
@@ -24878,16 +24878,16 @@
         </is>
       </c>
       <c r="D1099" s="0">
-        <v>56</v>
+        <v>10157</v>
       </c>
       <c r="E1099" s="0">
-        <v>8.38473977361203E-04</v>
+        <v>0.152078217643888</v>
       </c>
       <c r="F1099" s="0">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="G1099" s="0">
-        <v>1.30378096479791E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1100">
@@ -24914,7 +24914,7 @@
         <v>6</v>
       </c>
       <c r="G1100" s="0">
-        <v>7.82268578878748E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="1101">
@@ -24941,7 +24941,7 @@
         <v>679</v>
       </c>
       <c r="G1101" s="0">
-        <v>0.885267275097784</v>
+        <v>0.885</v>
       </c>
     </row>
     <row outlineLevel="0" r="1102">
@@ -24968,7 +24968,7 @@
         <v>73</v>
       </c>
       <c r="G1102" s="0">
-        <v>9.51760104302477E-02</v>
+        <v>0.095</v>
       </c>
     </row>
     <row outlineLevel="0" r="1103">
@@ -24995,7 +24995,7 @@
         <v>15</v>
       </c>
       <c r="G1103" s="0">
-        <v>1.95567144719687E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="1104">
@@ -25022,7 +25022,7 @@
         <v>336</v>
       </c>
       <c r="G1104" s="0">
-        <v>0.438070404172099</v>
+        <v>0.438</v>
       </c>
     </row>
     <row outlineLevel="0" r="1105">
@@ -25049,7 +25049,7 @@
         <v>430</v>
       </c>
       <c r="G1105" s="0">
-        <v>0.560625814863103</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="1106">
@@ -25076,7 +25076,358 @@
         <v>1</v>
       </c>
       <c r="G1106" s="0">
-        <v>1.30378096479791E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1107">
+      <c r="A1107" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1107" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1107" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1107" s="0">
+        <v>29104</v>
+      </c>
+      <c r="E1107" s="0">
+        <v>0.421424537727516</v>
+      </c>
+      <c r="F1107" s="0">
+        <v>434</v>
+      </c>
+      <c r="G1107" s="0">
+        <v>0.554278416347382</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1108">
+      <c r="A1108" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1108" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1108" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1108" s="0">
+        <v>14151</v>
+      </c>
+      <c r="E1108" s="0">
+        <v>0.20490580790895</v>
+      </c>
+      <c r="F1108" s="0">
+        <v>280</v>
+      </c>
+      <c r="G1108" s="0">
+        <v>0.357598978288633</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1109">
+      <c r="A1109" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1109" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1109" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1109" s="0">
+        <v>10575</v>
+      </c>
+      <c r="E1109" s="0">
+        <v>0.153125497748367</v>
+      </c>
+      <c r="F1109" s="0">
+        <v>50</v>
+      </c>
+      <c r="G1109" s="0">
+        <v>6.38569604086845E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1110">
+      <c r="A1110" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1110" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1110" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1110" s="0">
+        <v>741</v>
+      </c>
+      <c r="E1110" s="0">
+        <v>0.010729644806765</v>
+      </c>
+      <c r="F1110" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1110" s="0">
+        <v>0.016602809706258</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1111">
+      <c r="A1111" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1111" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1111" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1111" s="0">
+        <v>91</v>
+      </c>
+      <c r="E1111" s="0">
+        <v>1.31767567802378E-03</v>
+      </c>
+      <c r="F1111" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1111" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1112">
+      <c r="A1112" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1112" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1112" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1112" s="0">
+        <v>57</v>
+      </c>
+      <c r="E1112" s="0">
+        <v>8.25357292828079E-04</v>
+      </c>
+      <c r="F1112" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1112" s="0">
+        <v>1.27713920817369E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1113">
+      <c r="A1113" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1113" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1113" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1113" s="0">
+        <v>14342</v>
+      </c>
+      <c r="E1113" s="0">
+        <v>0.207671478837549</v>
+      </c>
+      <c r="F1113" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1113" s="0">
+        <v>6.38569604086846E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1114">
+      <c r="A1114" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1114" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1114" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1114" s="0">
+        <v>36013</v>
+      </c>
+      <c r="E1114" s="0">
+        <v>0.521466529589783</v>
+      </c>
+      <c r="F1114" s="0">
+        <v>696</v>
+      </c>
+      <c r="G1114" s="0">
+        <v>0.888888888888889</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1115">
+      <c r="A1115" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1115" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1115" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1115" s="0">
+        <v>14622</v>
+      </c>
+      <c r="E1115" s="0">
+        <v>0.211725865539161</v>
+      </c>
+      <c r="F1115" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1115" s="0">
+        <v>9.45083014048531E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1116">
+      <c r="A1116" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1116" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1116" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1116" s="0">
+        <v>18426</v>
+      </c>
+      <c r="E1116" s="0">
+        <v>0.266807604871056</v>
+      </c>
+      <c r="F1116" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1116" s="0">
+        <v>0.016602809706258</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1117">
+      <c r="A1117" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1117" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1117" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1117" s="0">
+        <v>32788</v>
+      </c>
+      <c r="E1117" s="0">
+        <v>0.474768682758721</v>
+      </c>
+      <c r="F1117" s="0">
+        <v>343</v>
+      </c>
+      <c r="G1117" s="0">
+        <v>0.438058748403576</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1118">
+      <c r="A1118" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1118" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1118" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1118" s="0">
+        <v>35230</v>
+      </c>
+      <c r="E1118" s="0">
+        <v>0.510128726777776</v>
+      </c>
+      <c r="F1118" s="0">
+        <v>440</v>
+      </c>
+      <c r="G1118" s="0">
+        <v>0.561941251596424</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1119">
+      <c r="A1119" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1119" s="1">
+        <v>44027</v>
+      </c>
+      <c r="C1119" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1119" s="0">
+        <v>1043</v>
+      </c>
+      <c r="E1119" s="0">
+        <v>1.51025904635033E-02</v>
+      </c>
+      <c r="F1119" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1119" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1119</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1132</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1119"/>
+  <dimension ref="A1:G1132"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -25103,7 +25103,7 @@
         <v>434</v>
       </c>
       <c r="G1107" s="0">
-        <v>0.554278416347382</v>
+        <v>0.554</v>
       </c>
     </row>
     <row outlineLevel="0" r="1108">
@@ -25130,13 +25130,13 @@
         <v>280</v>
       </c>
       <c r="G1108" s="0">
-        <v>0.357598978288633</v>
+        <v>0.357</v>
       </c>
     </row>
     <row outlineLevel="0" r="1109">
       <c r="A1109" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1109" s="1">
@@ -25148,22 +25148,22 @@
         </is>
       </c>
       <c r="D1109" s="0">
-        <v>10575</v>
+        <v>741</v>
       </c>
       <c r="E1109" s="0">
-        <v>0.153125497748367</v>
+        <v>0.010729644806765</v>
       </c>
       <c r="F1109" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G1109" s="0">
-        <v>6.38569604086845E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1110">
       <c r="A1110" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1110" s="1">
@@ -25175,22 +25175,22 @@
         </is>
       </c>
       <c r="D1110" s="0">
-        <v>741</v>
+        <v>91</v>
       </c>
       <c r="E1110" s="0">
-        <v>0.010729644806765</v>
+        <v>1.31767567802378E-03</v>
       </c>
       <c r="F1110" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1110" s="0">
-        <v>0.016602809706258</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1111">
       <c r="A1111" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1111" s="1">
@@ -25202,22 +25202,22 @@
         </is>
       </c>
       <c r="D1111" s="0">
-        <v>91</v>
+        <v>57</v>
       </c>
       <c r="E1111" s="0">
-        <v>1.31767567802378E-03</v>
+        <v>8.25357292828079E-04</v>
       </c>
       <c r="F1111" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1111" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1112">
       <c r="A1112" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1112" s="1">
@@ -25229,16 +25229,16 @@
         </is>
       </c>
       <c r="D1112" s="0">
-        <v>57</v>
+        <v>10575</v>
       </c>
       <c r="E1112" s="0">
-        <v>8.25357292828079E-04</v>
+        <v>0.153125497748367</v>
       </c>
       <c r="F1112" s="0">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G1112" s="0">
-        <v>1.27713920817369E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1113">
@@ -25265,7 +25265,7 @@
         <v>5</v>
       </c>
       <c r="G1113" s="0">
-        <v>6.38569604086846E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1114">
@@ -25292,7 +25292,7 @@
         <v>696</v>
       </c>
       <c r="G1114" s="0">
-        <v>0.888888888888889</v>
+        <v>0.888</v>
       </c>
     </row>
     <row outlineLevel="0" r="1115">
@@ -25319,7 +25319,7 @@
         <v>74</v>
       </c>
       <c r="G1115" s="0">
-        <v>9.45083014048531E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1116">
@@ -25346,7 +25346,7 @@
         <v>13</v>
       </c>
       <c r="G1116" s="0">
-        <v>0.016602809706258</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1117">
@@ -25373,7 +25373,7 @@
         <v>343</v>
       </c>
       <c r="G1117" s="0">
-        <v>0.438058748403576</v>
+        <v>0.438</v>
       </c>
     </row>
     <row outlineLevel="0" r="1118">
@@ -25400,7 +25400,7 @@
         <v>440</v>
       </c>
       <c r="G1118" s="0">
-        <v>0.561941251596424</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="1119">
@@ -25427,6 +25427,357 @@
         <v>0</v>
       </c>
       <c r="G1119" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1120">
+      <c r="A1120" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1120" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1120" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1120" s="0">
+        <v>30043</v>
+      </c>
+      <c r="E1120" s="0">
+        <v>0.419946882862734</v>
+      </c>
+      <c r="F1120" s="0">
+        <v>446</v>
+      </c>
+      <c r="G1120" s="0">
+        <v>0.560301507537688</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1121">
+      <c r="A1121" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1121" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1121" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1121" s="0">
+        <v>14422</v>
+      </c>
+      <c r="E1121" s="0">
+        <v>0.201593514117976</v>
+      </c>
+      <c r="F1121" s="0">
+        <v>282</v>
+      </c>
+      <c r="G1121" s="0">
+        <v>0.35427135678392</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1122">
+      <c r="A1122" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1122" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1122" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1122" s="0">
+        <v>10850</v>
+      </c>
+      <c r="E1122" s="0">
+        <v>0.151663405088063</v>
+      </c>
+      <c r="F1122" s="0">
+        <v>50</v>
+      </c>
+      <c r="G1122" s="0">
+        <v>6.28140703517588E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1123">
+      <c r="A1123" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1123" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1123" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1123" s="0">
+        <v>760</v>
+      </c>
+      <c r="E1123" s="0">
+        <v>1.06234274531731E-02</v>
+      </c>
+      <c r="F1123" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1123" s="0">
+        <v>1.63316582914573E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1124">
+      <c r="A1124" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1124" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1124" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1124" s="0">
+        <v>92</v>
+      </c>
+      <c r="E1124" s="0">
+        <v>1.28599384959463E-03</v>
+      </c>
+      <c r="F1124" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1124" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1125">
+      <c r="A1125" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1125" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1125" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1125" s="0">
+        <v>57</v>
+      </c>
+      <c r="E1125" s="0">
+        <v>7.96757058987979E-04</v>
+      </c>
+      <c r="F1125" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1125" s="0">
+        <v>1.25628140703518E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1126">
+      <c r="A1126" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1126" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1126" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1126" s="0">
+        <v>15316</v>
+      </c>
+      <c r="E1126" s="0">
+        <v>0.214090019569472</v>
+      </c>
+      <c r="F1126" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1126" s="0">
+        <v>5.0251256281407E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1127">
+      <c r="A1127" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1127" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1127" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1127" s="0">
+        <v>37000</v>
+      </c>
+      <c r="E1127" s="0">
+        <v>0.51719317864132</v>
+      </c>
+      <c r="F1127" s="0">
+        <v>711</v>
+      </c>
+      <c r="G1127" s="0">
+        <v>0.89321608040201</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1128">
+      <c r="A1128" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1128" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1128" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1128" s="0">
+        <v>14862</v>
+      </c>
+      <c r="E1128" s="0">
+        <v>0.207743919485602</v>
+      </c>
+      <c r="F1128" s="0">
+        <v>75</v>
+      </c>
+      <c r="G1128" s="0">
+        <v>9.42211055276382E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1129">
+      <c r="A1129" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1129" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1129" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1129" s="0">
+        <v>19678</v>
+      </c>
+      <c r="E1129" s="0">
+        <v>0.275062901873078</v>
+      </c>
+      <c r="F1129" s="0">
+        <v>10</v>
+      </c>
+      <c r="G1129" s="0">
+        <v>1.25628140703518E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1130">
+      <c r="A1130" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1130" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1130" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1130" s="0">
+        <v>34059</v>
+      </c>
+      <c r="E1130" s="0">
+        <v>0.476083310036343</v>
+      </c>
+      <c r="F1130" s="0">
+        <v>350</v>
+      </c>
+      <c r="G1130" s="0">
+        <v>0.439698492462312</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1131">
+      <c r="A1131" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1131" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1131" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1131" s="0">
+        <v>36423</v>
+      </c>
+      <c r="E1131" s="0">
+        <v>0.509127760693318</v>
+      </c>
+      <c r="F1131" s="0">
+        <v>446</v>
+      </c>
+      <c r="G1131" s="0">
+        <v>0.560301507537688</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1132">
+      <c r="A1132" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1132" s="1">
+        <v>44028</v>
+      </c>
+      <c r="C1132" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1132" s="0">
+        <v>1058</v>
+      </c>
+      <c r="E1132" s="0">
+        <v>1.47889292703383E-02</v>
+      </c>
+      <c r="F1132" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1132" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1132</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1145</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1132"/>
+  <dimension ref="A1:G1145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -25454,7 +25454,7 @@
         <v>446</v>
       </c>
       <c r="G1120" s="0">
-        <v>0.560301507537688</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="1121">
@@ -25481,13 +25481,13 @@
         <v>282</v>
       </c>
       <c r="G1121" s="0">
-        <v>0.35427135678392</v>
+        <v>0.354</v>
       </c>
     </row>
     <row outlineLevel="0" r="1122">
       <c r="A1122" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1122" s="1">
@@ -25499,22 +25499,22 @@
         </is>
       </c>
       <c r="D1122" s="0">
-        <v>10850</v>
+        <v>760</v>
       </c>
       <c r="E1122" s="0">
-        <v>0.151663405088063</v>
+        <v>1.06234274531731E-02</v>
       </c>
       <c r="F1122" s="0">
-        <v>50</v>
+        <v>13</v>
       </c>
       <c r="G1122" s="0">
-        <v>6.28140703517588E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1123">
       <c r="A1123" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1123" s="1">
@@ -25526,22 +25526,22 @@
         </is>
       </c>
       <c r="D1123" s="0">
-        <v>760</v>
+        <v>92</v>
       </c>
       <c r="E1123" s="0">
-        <v>1.06234274531731E-02</v>
+        <v>1.28599384959463E-03</v>
       </c>
       <c r="F1123" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1123" s="0">
-        <v>1.63316582914573E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1124">
       <c r="A1124" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1124" s="1">
@@ -25553,22 +25553,22 @@
         </is>
       </c>
       <c r="D1124" s="0">
-        <v>92</v>
+        <v>57</v>
       </c>
       <c r="E1124" s="0">
-        <v>1.28599384959463E-03</v>
+        <v>7.96757058987979E-04</v>
       </c>
       <c r="F1124" s="0">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G1124" s="0">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1125">
       <c r="A1125" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1125" s="1">
@@ -25580,16 +25580,16 @@
         </is>
       </c>
       <c r="D1125" s="0">
-        <v>57</v>
+        <v>10850</v>
       </c>
       <c r="E1125" s="0">
-        <v>7.96757058987979E-04</v>
+        <v>0.151663405088063</v>
       </c>
       <c r="F1125" s="0">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="G1125" s="0">
-        <v>1.25628140703518E-03</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="1126">
@@ -25616,7 +25616,7 @@
         <v>4</v>
       </c>
       <c r="G1126" s="0">
-        <v>5.0251256281407E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="1127">
@@ -25643,7 +25643,7 @@
         <v>711</v>
       </c>
       <c r="G1127" s="0">
-        <v>0.89321608040201</v>
+        <v>0.893</v>
       </c>
     </row>
     <row outlineLevel="0" r="1128">
@@ -25670,7 +25670,7 @@
         <v>75</v>
       </c>
       <c r="G1128" s="0">
-        <v>9.42211055276382E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1129">
@@ -25697,7 +25697,7 @@
         <v>10</v>
       </c>
       <c r="G1129" s="0">
-        <v>1.25628140703518E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1130">
@@ -25724,7 +25724,7 @@
         <v>350</v>
       </c>
       <c r="G1130" s="0">
-        <v>0.439698492462312</v>
+        <v>0.439</v>
       </c>
     </row>
     <row outlineLevel="0" r="1131">
@@ -25751,7 +25751,7 @@
         <v>446</v>
       </c>
       <c r="G1131" s="0">
-        <v>0.560301507537688</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="1132">
@@ -25778,6 +25778,357 @@
         <v>0</v>
       </c>
       <c r="G1132" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1133">
+      <c r="A1133" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1133" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1133" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1133" s="0">
+        <v>30936</v>
+      </c>
+      <c r="E1133" s="0">
+        <v>0.419079098876983</v>
+      </c>
+      <c r="F1133" s="0">
+        <v>457</v>
+      </c>
+      <c r="G1133" s="0">
+        <v>0.560736196319018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1134">
+      <c r="A1134" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1134" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1134" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1134" s="0">
+        <v>14737</v>
+      </c>
+      <c r="E1134" s="0">
+        <v>0.199636949836763</v>
+      </c>
+      <c r="F1134" s="0">
+        <v>289</v>
+      </c>
+      <c r="G1134" s="0">
+        <v>0.354601226993865</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1135">
+      <c r="A1135" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1135" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1135" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1135" s="0">
+        <v>10933</v>
+      </c>
+      <c r="E1135" s="0">
+        <v>0.148105501293705</v>
+      </c>
+      <c r="F1135" s="0">
+        <v>51</v>
+      </c>
+      <c r="G1135" s="0">
+        <v>6.25766871165644E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1136">
+      <c r="A1136" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1136" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1136" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1136" s="0">
+        <v>766</v>
+      </c>
+      <c r="E1136" s="0">
+        <v>1.03767322775979E-02</v>
+      </c>
+      <c r="F1136" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1136" s="0">
+        <v>1.59509202453988E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1137">
+      <c r="A1137" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1137" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1137" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1137" s="0">
+        <v>91</v>
+      </c>
+      <c r="E1137" s="0">
+        <v>1.23274495726033E-03</v>
+      </c>
+      <c r="F1137" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1137" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1138">
+      <c r="A1138" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1138" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1138" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1138" s="0">
+        <v>58</v>
+      </c>
+      <c r="E1138" s="0">
+        <v>7.85705577154933E-04</v>
+      </c>
+      <c r="F1138" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1138" s="0">
+        <v>2.45398773006135E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1139">
+      <c r="A1139" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1139" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1139" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1139" s="0">
+        <v>16298</v>
+      </c>
+      <c r="E1139" s="0">
+        <v>0.220783267180536</v>
+      </c>
+      <c r="F1139" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1139" s="0">
+        <v>3.68098159509202E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1140">
+      <c r="A1140" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1140" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1140" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1140" s="0">
+        <v>37895</v>
+      </c>
+      <c r="E1140" s="0">
+        <v>0.513350221487693</v>
+      </c>
+      <c r="F1140" s="0">
+        <v>733</v>
+      </c>
+      <c r="G1140" s="0">
+        <v>0.899386503067485</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1141">
+      <c r="A1141" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1141" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1141" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1141" s="0">
+        <v>15030</v>
+      </c>
+      <c r="E1141" s="0">
+        <v>0.203606117666184</v>
+      </c>
+      <c r="F1141" s="0">
+        <v>78</v>
+      </c>
+      <c r="G1141" s="0">
+        <v>9.57055214723926E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1142">
+      <c r="A1142" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1142" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1142" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1142" s="0">
+        <v>20894</v>
+      </c>
+      <c r="E1142" s="0">
+        <v>0.283043660846124</v>
+      </c>
+      <c r="F1142" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1142" s="0">
+        <v>4.9079754601227E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1143">
+      <c r="A1143" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1143" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1143" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1143" s="0">
+        <v>35256</v>
+      </c>
+      <c r="E1143" s="0">
+        <v>0.477600617727143</v>
+      </c>
+      <c r="F1143" s="0">
+        <v>360</v>
+      </c>
+      <c r="G1143" s="0">
+        <v>0.441717791411043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1144">
+      <c r="A1144" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1144" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1144" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1144" s="0">
+        <v>37475</v>
+      </c>
+      <c r="E1144" s="0">
+        <v>0.507660629377261</v>
+      </c>
+      <c r="F1144" s="0">
+        <v>455</v>
+      </c>
+      <c r="G1144" s="0">
+        <v>0.558282208588957</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1145">
+      <c r="A1145" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1145" s="1">
+        <v>44029</v>
+      </c>
+      <c r="C1145" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1145" s="0">
+        <v>1088</v>
+      </c>
+      <c r="E1145" s="0">
+        <v>0.014738752895596</v>
+      </c>
+      <c r="F1145" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1145" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1145</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1158</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1145"/>
+  <dimension ref="A1:G1158"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -25805,7 +25805,7 @@
         <v>457</v>
       </c>
       <c r="G1133" s="0">
-        <v>0.560736196319018</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="1134">
@@ -25832,13 +25832,13 @@
         <v>289</v>
       </c>
       <c r="G1134" s="0">
-        <v>0.354601226993865</v>
+        <v>0.354</v>
       </c>
     </row>
     <row outlineLevel="0" r="1135">
       <c r="A1135" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1135" s="1">
@@ -25850,22 +25850,22 @@
         </is>
       </c>
       <c r="D1135" s="0">
-        <v>10933</v>
+        <v>766</v>
       </c>
       <c r="E1135" s="0">
-        <v>0.148105501293705</v>
+        <v>1.03767322775979E-02</v>
       </c>
       <c r="F1135" s="0">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G1135" s="0">
-        <v>6.25766871165644E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1136">
       <c r="A1136" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1136" s="1">
@@ -25877,22 +25877,22 @@
         </is>
       </c>
       <c r="D1136" s="0">
-        <v>766</v>
+        <v>91</v>
       </c>
       <c r="E1136" s="0">
-        <v>1.03767322775979E-02</v>
+        <v>1.23274495726033E-03</v>
       </c>
       <c r="F1136" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1136" s="0">
-        <v>1.59509202453988E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1137">
       <c r="A1137" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1137" s="1">
@@ -25904,22 +25904,22 @@
         </is>
       </c>
       <c r="D1137" s="0">
-        <v>91</v>
+        <v>58</v>
       </c>
       <c r="E1137" s="0">
-        <v>1.23274495726033E-03</v>
+        <v>7.85705577154933E-04</v>
       </c>
       <c r="F1137" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1137" s="0">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1138">
       <c r="A1138" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1138" s="1">
@@ -25931,16 +25931,16 @@
         </is>
       </c>
       <c r="D1138" s="0">
-        <v>58</v>
+        <v>10933</v>
       </c>
       <c r="E1138" s="0">
-        <v>7.85705577154933E-04</v>
+        <v>0.148105501293705</v>
       </c>
       <c r="F1138" s="0">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G1138" s="0">
-        <v>2.45398773006135E-03</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="1139">
@@ -25967,7 +25967,7 @@
         <v>3</v>
       </c>
       <c r="G1139" s="0">
-        <v>3.68098159509202E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1140">
@@ -25994,7 +25994,7 @@
         <v>733</v>
       </c>
       <c r="G1140" s="0">
-        <v>0.899386503067485</v>
+        <v>0.899</v>
       </c>
     </row>
     <row outlineLevel="0" r="1141">
@@ -26021,7 +26021,7 @@
         <v>78</v>
       </c>
       <c r="G1141" s="0">
-        <v>9.57055214723926E-02</v>
+        <v>0.095</v>
       </c>
     </row>
     <row outlineLevel="0" r="1142">
@@ -26048,7 +26048,7 @@
         <v>4</v>
       </c>
       <c r="G1142" s="0">
-        <v>4.9079754601227E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="1143">
@@ -26075,7 +26075,7 @@
         <v>360</v>
       </c>
       <c r="G1143" s="0">
-        <v>0.441717791411043</v>
+        <v>0.441</v>
       </c>
     </row>
     <row outlineLevel="0" r="1144">
@@ -26102,7 +26102,7 @@
         <v>455</v>
       </c>
       <c r="G1144" s="0">
-        <v>0.558282208588957</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="1145">
@@ -26130,6 +26130,357 @@
       </c>
       <c r="G1145" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1146">
+      <c r="A1146" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1146" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1146" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1146" s="0">
+        <v>31837</v>
+      </c>
+      <c r="E1146" s="0">
+        <v>0.417064032697548</v>
+      </c>
+      <c r="F1146" s="0">
+        <v>468</v>
+      </c>
+      <c r="G1146" s="0">
+        <v>0.558472553699284</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1147">
+      <c r="A1147" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1147" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1147" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1147" s="0">
+        <v>15111</v>
+      </c>
+      <c r="E1147" s="0">
+        <v>0.197953783273947</v>
+      </c>
+      <c r="F1147" s="0">
+        <v>300</v>
+      </c>
+      <c r="G1147" s="0">
+        <v>0.35799522673031</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1148">
+      <c r="A1148" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1148" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1148" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1148" s="0">
+        <v>11196</v>
+      </c>
+      <c r="E1148" s="0">
+        <v>0.146667365332215</v>
+      </c>
+      <c r="F1148" s="0">
+        <v>51</v>
+      </c>
+      <c r="G1148" s="0">
+        <v>6.08591885441527E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1149">
+      <c r="A1149" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1149" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1149" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1149" s="0">
+        <v>774</v>
+      </c>
+      <c r="E1149" s="0">
+        <v>0.010139383776986</v>
+      </c>
+      <c r="F1149" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1149" s="0">
+        <v>1.55131264916468E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1150">
+      <c r="A1150" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1150" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1150" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1150" s="0">
+        <v>90</v>
+      </c>
+      <c r="E1150" s="0">
+        <v>1.17899811360302E-03</v>
+      </c>
+      <c r="F1150" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1150" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1151">
+      <c r="A1151" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1151" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1151" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1151" s="0">
+        <v>60</v>
+      </c>
+      <c r="E1151" s="0">
+        <v>7.85998742402012E-04</v>
+      </c>
+      <c r="F1151" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1151" s="0">
+        <v>2.38663484486874E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1152">
+      <c r="A1152" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1152" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1152" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1152" s="0">
+        <v>17268</v>
+      </c>
+      <c r="E1152" s="0">
+        <v>0.226210438063299</v>
+      </c>
+      <c r="F1152" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1152" s="0">
+        <v>4.77326968973747E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1153">
+      <c r="A1153" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1153" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1153" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1153" s="0">
+        <v>38916</v>
+      </c>
+      <c r="E1153" s="0">
+        <v>0.509798784321945</v>
+      </c>
+      <c r="F1153" s="0">
+        <v>753</v>
+      </c>
+      <c r="G1153" s="0">
+        <v>0.898568019093079</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1154">
+      <c r="A1154" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1154" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1154" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1154" s="0">
+        <v>15228</v>
+      </c>
+      <c r="E1154" s="0">
+        <v>0.199486480821631</v>
+      </c>
+      <c r="F1154" s="0">
+        <v>80</v>
+      </c>
+      <c r="G1154" s="0">
+        <v>9.54653937947494E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1155">
+      <c r="A1155" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1155" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1155" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1155" s="0">
+        <v>22192</v>
+      </c>
+      <c r="E1155" s="0">
+        <v>0.290714734856424</v>
+      </c>
+      <c r="F1155" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1155" s="0">
+        <v>5.96658711217184E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1156">
+      <c r="A1156" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1156" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1156" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1156" s="0">
+        <v>36625</v>
+      </c>
+      <c r="E1156" s="0">
+        <v>0.479786732341228</v>
+      </c>
+      <c r="F1156" s="0">
+        <v>367</v>
+      </c>
+      <c r="G1156" s="0">
+        <v>0.437947494033413</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1157">
+      <c r="A1157" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1157" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1157" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1157" s="0">
+        <v>38611</v>
+      </c>
+      <c r="E1157" s="0">
+        <v>0.505803290714735</v>
+      </c>
+      <c r="F1157" s="0">
+        <v>470</v>
+      </c>
+      <c r="G1157" s="0">
+        <v>0.560859188544153</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1158">
+      <c r="A1158" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1158" s="1">
+        <v>44030</v>
+      </c>
+      <c r="C1158" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1158" s="0">
+        <v>1100</v>
+      </c>
+      <c r="E1158" s="0">
+        <v>1.44099769440369E-02</v>
+      </c>
+      <c r="F1158" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1158" s="0">
+        <v>1.19331742243437E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1158</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1171</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1158"/>
+  <dimension ref="A1:G1171"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -26156,7 +26156,7 @@
         <v>468</v>
       </c>
       <c r="G1146" s="0">
-        <v>0.558472553699284</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="1147">
@@ -26183,13 +26183,13 @@
         <v>300</v>
       </c>
       <c r="G1147" s="0">
-        <v>0.35799522673031</v>
+        <v>0.357</v>
       </c>
     </row>
     <row outlineLevel="0" r="1148">
       <c r="A1148" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1148" s="1">
@@ -26201,22 +26201,22 @@
         </is>
       </c>
       <c r="D1148" s="0">
-        <v>11196</v>
+        <v>774</v>
       </c>
       <c r="E1148" s="0">
-        <v>0.146667365332215</v>
+        <v>0.010139383776986</v>
       </c>
       <c r="F1148" s="0">
-        <v>51</v>
+        <v>13</v>
       </c>
       <c r="G1148" s="0">
-        <v>6.08591885441527E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1149">
       <c r="A1149" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1149" s="1">
@@ -26228,22 +26228,22 @@
         </is>
       </c>
       <c r="D1149" s="0">
-        <v>774</v>
+        <v>90</v>
       </c>
       <c r="E1149" s="0">
-        <v>0.010139383776986</v>
+        <v>1.17899811360302E-03</v>
       </c>
       <c r="F1149" s="0">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="G1149" s="0">
-        <v>1.55131264916468E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1150">
       <c r="A1150" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1150" s="1">
@@ -26255,22 +26255,22 @@
         </is>
       </c>
       <c r="D1150" s="0">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="E1150" s="0">
-        <v>1.17899811360302E-03</v>
+        <v>7.85998742402012E-04</v>
       </c>
       <c r="F1150" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1150" s="0">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1151">
       <c r="A1151" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1151" s="1">
@@ -26282,16 +26282,16 @@
         </is>
       </c>
       <c r="D1151" s="0">
-        <v>60</v>
+        <v>11196</v>
       </c>
       <c r="E1151" s="0">
-        <v>7.85998742402012E-04</v>
+        <v>0.146667365332215</v>
       </c>
       <c r="F1151" s="0">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G1151" s="0">
-        <v>2.38663484486874E-03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="1152">
@@ -26318,7 +26318,7 @@
         <v>4</v>
       </c>
       <c r="G1152" s="0">
-        <v>4.77326968973747E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="1153">
@@ -26345,7 +26345,7 @@
         <v>753</v>
       </c>
       <c r="G1153" s="0">
-        <v>0.898568019093079</v>
+        <v>0.898</v>
       </c>
     </row>
     <row outlineLevel="0" r="1154">
@@ -26372,7 +26372,7 @@
         <v>80</v>
       </c>
       <c r="G1154" s="0">
-        <v>9.54653937947494E-02</v>
+        <v>0.095</v>
       </c>
     </row>
     <row outlineLevel="0" r="1155">
@@ -26399,7 +26399,7 @@
         <v>5</v>
       </c>
       <c r="G1155" s="0">
-        <v>5.96658711217184E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="1156">
@@ -26426,7 +26426,7 @@
         <v>367</v>
       </c>
       <c r="G1156" s="0">
-        <v>0.437947494033413</v>
+        <v>0.437</v>
       </c>
     </row>
     <row outlineLevel="0" r="1157">
@@ -26453,7 +26453,7 @@
         <v>470</v>
       </c>
       <c r="G1157" s="0">
-        <v>0.560859188544153</v>
+        <v>0.56</v>
       </c>
     </row>
     <row outlineLevel="0" r="1158">
@@ -26480,7 +26480,358 @@
         <v>1</v>
       </c>
       <c r="G1158" s="0">
-        <v>1.19331742243437E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1159">
+      <c r="A1159" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1159" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1159" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1159" s="0">
+        <v>32383</v>
+      </c>
+      <c r="E1159" s="0">
+        <v>0.414555463099277</v>
+      </c>
+      <c r="F1159" s="0">
+        <v>468</v>
+      </c>
+      <c r="G1159" s="0">
+        <v>0.555160142348754</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1160">
+      <c r="A1160" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1160" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1160" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1160" s="0">
+        <v>15317</v>
+      </c>
+      <c r="E1160" s="0">
+        <v>0.196082698585419</v>
+      </c>
+      <c r="F1160" s="0">
+        <v>304</v>
+      </c>
+      <c r="G1160" s="0">
+        <v>0.36061684460261</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1161">
+      <c r="A1161" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1161" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1161" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1161" s="0">
+        <v>11268</v>
+      </c>
+      <c r="E1161" s="0">
+        <v>0.144248863854573</v>
+      </c>
+      <c r="F1161" s="0">
+        <v>51</v>
+      </c>
+      <c r="G1161" s="0">
+        <v>6.04982206405694E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1162">
+      <c r="A1162" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1162" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1162" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1162" s="0">
+        <v>788</v>
+      </c>
+      <c r="E1162" s="0">
+        <v>1.00876912244767E-02</v>
+      </c>
+      <c r="F1162" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1162" s="0">
+        <v>1.66073546856465E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1163">
+      <c r="A1163" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1163" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1163" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1163" s="0">
+        <v>92</v>
+      </c>
+      <c r="E1163" s="0">
+        <v>1.17775075209627E-03</v>
+      </c>
+      <c r="F1163" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1163" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1164">
+      <c r="A1164" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1164" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1164" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1164" s="0">
+        <v>60</v>
+      </c>
+      <c r="E1164" s="0">
+        <v>7.68098316584523E-04</v>
+      </c>
+      <c r="F1164" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1164" s="0">
+        <v>2.37247924080664E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1165">
+      <c r="A1165" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1165" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1165" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1165" s="0">
+        <v>18207</v>
+      </c>
+      <c r="E1165" s="0">
+        <v>0.233079434167573</v>
+      </c>
+      <c r="F1165" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1165" s="0">
+        <v>4.74495848161329E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1166">
+      <c r="A1166" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1166" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1166" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1166" s="0">
+        <v>39505</v>
+      </c>
+      <c r="E1166" s="0">
+        <v>0.50572873327786</v>
+      </c>
+      <c r="F1166" s="0">
+        <v>758</v>
+      </c>
+      <c r="G1166" s="0">
+        <v>0.899169632265718</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1167">
+      <c r="A1167" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1167" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1167" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1167" s="0">
+        <v>15326</v>
+      </c>
+      <c r="E1167" s="0">
+        <v>0.196197913332907</v>
+      </c>
+      <c r="F1167" s="0">
+        <v>80</v>
+      </c>
+      <c r="G1167" s="0">
+        <v>9.48991696322657E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1168">
+      <c r="A1168" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1168" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1168" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1168" s="0">
+        <v>23284</v>
+      </c>
+      <c r="E1168" s="0">
+        <v>0.298073353389234</v>
+      </c>
+      <c r="F1168" s="0">
+        <v>5</v>
+      </c>
+      <c r="G1168" s="0">
+        <v>5.93119810201661E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1169">
+      <c r="A1169" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1169" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1169" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1169" s="0">
+        <v>37607</v>
+      </c>
+      <c r="E1169" s="0">
+        <v>0.481431223196569</v>
+      </c>
+      <c r="F1169" s="0">
+        <v>369</v>
+      </c>
+      <c r="G1169" s="0">
+        <v>0.437722419928826</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1170">
+      <c r="A1170" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1170" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1170" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1170" s="0">
+        <v>39421</v>
+      </c>
+      <c r="E1170" s="0">
+        <v>0.504653395634641</v>
+      </c>
+      <c r="F1170" s="0">
+        <v>473</v>
+      </c>
+      <c r="G1170" s="0">
+        <v>0.561091340450771</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1171">
+      <c r="A1171" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1171" s="1">
+        <v>44031</v>
+      </c>
+      <c r="C1171" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1171" s="0">
+        <v>1087</v>
+      </c>
+      <c r="E1171" s="0">
+        <v>1.39153811687896E-02</v>
+      </c>
+      <c r="F1171" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1171" s="0">
+        <v>1.18623962040332E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1171</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1184</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1171"/>
+  <dimension ref="A1:G1184"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -26507,7 +26507,7 @@
         <v>468</v>
       </c>
       <c r="G1159" s="0">
-        <v>0.555160142348754</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="1160">
@@ -26534,13 +26534,13 @@
         <v>304</v>
       </c>
       <c r="G1160" s="0">
-        <v>0.36061684460261</v>
+        <v>0.36</v>
       </c>
     </row>
     <row outlineLevel="0" r="1161">
       <c r="A1161" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1161" s="1">
@@ -26552,22 +26552,22 @@
         </is>
       </c>
       <c r="D1161" s="0">
-        <v>11268</v>
+        <v>788</v>
       </c>
       <c r="E1161" s="0">
-        <v>0.144248863854573</v>
+        <v>1.00876912244767E-02</v>
       </c>
       <c r="F1161" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G1161" s="0">
-        <v>6.04982206405694E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1162">
       <c r="A1162" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1162" s="1">
@@ -26579,22 +26579,22 @@
         </is>
       </c>
       <c r="D1162" s="0">
-        <v>788</v>
+        <v>92</v>
       </c>
       <c r="E1162" s="0">
-        <v>1.00876912244767E-02</v>
+        <v>1.17775075209627E-03</v>
       </c>
       <c r="F1162" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G1162" s="0">
-        <v>1.66073546856465E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1163">
       <c r="A1163" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1163" s="1">
@@ -26606,22 +26606,22 @@
         </is>
       </c>
       <c r="D1163" s="0">
-        <v>92</v>
+        <v>60</v>
       </c>
       <c r="E1163" s="0">
-        <v>1.17775075209627E-03</v>
+        <v>7.68098316584523E-04</v>
       </c>
       <c r="F1163" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1163" s="0">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1164">
       <c r="A1164" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1164" s="1">
@@ -26633,16 +26633,16 @@
         </is>
       </c>
       <c r="D1164" s="0">
-        <v>60</v>
+        <v>11268</v>
       </c>
       <c r="E1164" s="0">
-        <v>7.68098316584523E-04</v>
+        <v>0.144248863854573</v>
       </c>
       <c r="F1164" s="0">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G1164" s="0">
-        <v>2.37247924080664E-03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="1165">
@@ -26669,7 +26669,7 @@
         <v>4</v>
       </c>
       <c r="G1165" s="0">
-        <v>4.74495848161329E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="1166">
@@ -26696,7 +26696,7 @@
         <v>758</v>
       </c>
       <c r="G1166" s="0">
-        <v>0.899169632265718</v>
+        <v>0.899</v>
       </c>
     </row>
     <row outlineLevel="0" r="1167">
@@ -26723,7 +26723,7 @@
         <v>80</v>
       </c>
       <c r="G1167" s="0">
-        <v>9.48991696322657E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1168">
@@ -26750,7 +26750,7 @@
         <v>5</v>
       </c>
       <c r="G1168" s="0">
-        <v>5.93119810201661E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="1169">
@@ -26777,7 +26777,7 @@
         <v>369</v>
       </c>
       <c r="G1169" s="0">
-        <v>0.437722419928826</v>
+        <v>0.437</v>
       </c>
     </row>
     <row outlineLevel="0" r="1170">
@@ -26804,7 +26804,7 @@
         <v>473</v>
       </c>
       <c r="G1170" s="0">
-        <v>0.561091340450771</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="1171">
@@ -26831,7 +26831,358 @@
         <v>1</v>
       </c>
       <c r="G1171" s="0">
-        <v>1.18623962040332E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1172">
+      <c r="A1172" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1172" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1172" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1172" s="0">
+        <v>32833</v>
+      </c>
+      <c r="E1172" s="0">
+        <v>0.411678411114176</v>
+      </c>
+      <c r="F1172" s="0">
+        <v>469</v>
+      </c>
+      <c r="G1172" s="0">
+        <v>0.553719008264463</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1173">
+      <c r="A1173" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1173" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1173" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1173" s="0">
+        <v>15478</v>
+      </c>
+      <c r="E1173" s="0">
+        <v>0.194071770694887</v>
+      </c>
+      <c r="F1173" s="0">
+        <v>305</v>
+      </c>
+      <c r="G1173" s="0">
+        <v>0.360094451003542</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1174">
+      <c r="A1174" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1174" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1174" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1174" s="0">
+        <v>11316</v>
+      </c>
+      <c r="E1174" s="0">
+        <v>0.141886300373649</v>
+      </c>
+      <c r="F1174" s="0">
+        <v>51</v>
+      </c>
+      <c r="G1174" s="0">
+        <v>6.02125147579693E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1175">
+      <c r="A1175" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1175" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1175" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1175" s="0">
+        <v>793</v>
+      </c>
+      <c r="E1175" s="0">
+        <v>9.94307495548813E-03</v>
+      </c>
+      <c r="F1175" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1175" s="0">
+        <v>1.65289256198347E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1176">
+      <c r="A1176" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1176" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1176" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1176" s="0">
+        <v>94</v>
+      </c>
+      <c r="E1176" s="0">
+        <v>1.17862426962911E-03</v>
+      </c>
+      <c r="F1176" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1176" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1177">
+      <c r="A1177" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1177" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1177" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1177" s="0">
+        <v>61</v>
+      </c>
+      <c r="E1177" s="0">
+        <v>7.64851919652933E-04</v>
+      </c>
+      <c r="F1177" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1177" s="0">
+        <v>2.36127508854782E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1178">
+      <c r="A1178" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1178" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1178" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1178" s="0">
+        <v>19179</v>
+      </c>
+      <c r="E1178" s="0">
+        <v>0.240476966672518</v>
+      </c>
+      <c r="F1178" s="0">
+        <v>6</v>
+      </c>
+      <c r="G1178" s="0">
+        <v>7.08382526564345E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1179">
+      <c r="A1179" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1179" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1179" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1179" s="0">
+        <v>40006</v>
+      </c>
+      <c r="E1179" s="0">
+        <v>0.501617473731725</v>
+      </c>
+      <c r="F1179" s="0">
+        <v>759</v>
+      </c>
+      <c r="G1179" s="0">
+        <v>0.896103896103896</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1180">
+      <c r="A1180" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1180" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1180" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1180" s="0">
+        <v>15416</v>
+      </c>
+      <c r="E1180" s="0">
+        <v>0.193294380219174</v>
+      </c>
+      <c r="F1180" s="0">
+        <v>80</v>
+      </c>
+      <c r="G1180" s="0">
+        <v>9.44510035419126E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1181">
+      <c r="A1181" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1181" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1181" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1181" s="0">
+        <v>24332</v>
+      </c>
+      <c r="E1181" s="0">
+        <v>0.305088146049101</v>
+      </c>
+      <c r="F1181" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1181" s="0">
+        <v>9.44510035419126E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1182">
+      <c r="A1182" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1182" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1182" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1182" s="0">
+        <v>38543</v>
+      </c>
+      <c r="E1182" s="0">
+        <v>0.483273566216115</v>
+      </c>
+      <c r="F1182" s="0">
+        <v>370</v>
+      </c>
+      <c r="G1182" s="0">
+        <v>0.436835891381346</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1183">
+      <c r="A1183" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1183" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1183" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1183" s="0">
+        <v>40117</v>
+      </c>
+      <c r="E1183" s="0">
+        <v>0.503009253454372</v>
+      </c>
+      <c r="F1183" s="0">
+        <v>476</v>
+      </c>
+      <c r="G1183" s="0">
+        <v>0.56198347107438</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1184">
+      <c r="A1184" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1184" s="1">
+        <v>44032</v>
+      </c>
+      <c r="C1184" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1184" s="0">
+        <v>1094</v>
+      </c>
+      <c r="E1184" s="0">
+        <v>1.37171803295133E-02</v>
+      </c>
+      <c r="F1184" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1184" s="0">
+        <v>1.18063754427391E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1184</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1197</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1184"/>
+  <dimension ref="A1:G1197"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -26858,7 +26858,7 @@
         <v>469</v>
       </c>
       <c r="G1172" s="0">
-        <v>0.553719008264463</v>
+        <v>0.553</v>
       </c>
     </row>
     <row outlineLevel="0" r="1173">
@@ -26885,13 +26885,13 @@
         <v>305</v>
       </c>
       <c r="G1173" s="0">
-        <v>0.360094451003542</v>
+        <v>0.36</v>
       </c>
     </row>
     <row outlineLevel="0" r="1174">
       <c r="A1174" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1174" s="1">
@@ -26903,22 +26903,22 @@
         </is>
       </c>
       <c r="D1174" s="0">
-        <v>11316</v>
+        <v>793</v>
       </c>
       <c r="E1174" s="0">
-        <v>0.141886300373649</v>
+        <v>9.94307495548813E-03</v>
       </c>
       <c r="F1174" s="0">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="G1174" s="0">
-        <v>6.02125147579693E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1175">
       <c r="A1175" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1175" s="1">
@@ -26930,22 +26930,22 @@
         </is>
       </c>
       <c r="D1175" s="0">
-        <v>793</v>
+        <v>94</v>
       </c>
       <c r="E1175" s="0">
-        <v>9.94307495548813E-03</v>
+        <v>1.17862426962911E-03</v>
       </c>
       <c r="F1175" s="0">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="G1175" s="0">
-        <v>1.65289256198347E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1176">
       <c r="A1176" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1176" s="1">
@@ -26957,22 +26957,22 @@
         </is>
       </c>
       <c r="D1176" s="0">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="E1176" s="0">
-        <v>1.17862426962911E-03</v>
+        <v>7.64851919652933E-04</v>
       </c>
       <c r="F1176" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1176" s="0">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1177">
       <c r="A1177" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1177" s="1">
@@ -26984,16 +26984,16 @@
         </is>
       </c>
       <c r="D1177" s="0">
-        <v>61</v>
+        <v>11316</v>
       </c>
       <c r="E1177" s="0">
-        <v>7.64851919652933E-04</v>
+        <v>0.141886300373649</v>
       </c>
       <c r="F1177" s="0">
-        <v>2</v>
+        <v>51</v>
       </c>
       <c r="G1177" s="0">
-        <v>2.36127508854782E-03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="1178">
@@ -27020,7 +27020,7 @@
         <v>6</v>
       </c>
       <c r="G1178" s="0">
-        <v>7.08382526564345E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="1179">
@@ -27047,7 +27047,7 @@
         <v>759</v>
       </c>
       <c r="G1179" s="0">
-        <v>0.896103896103896</v>
+        <v>0.896</v>
       </c>
     </row>
     <row outlineLevel="0" r="1180">
@@ -27074,7 +27074,7 @@
         <v>80</v>
       </c>
       <c r="G1180" s="0">
-        <v>9.44510035419126E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1181">
@@ -27101,7 +27101,7 @@
         <v>8</v>
       </c>
       <c r="G1181" s="0">
-        <v>9.44510035419126E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1182">
@@ -27128,7 +27128,7 @@
         <v>370</v>
       </c>
       <c r="G1182" s="0">
-        <v>0.436835891381346</v>
+        <v>0.436</v>
       </c>
     </row>
     <row outlineLevel="0" r="1183">
@@ -27155,7 +27155,7 @@
         <v>476</v>
       </c>
       <c r="G1183" s="0">
-        <v>0.56198347107438</v>
+        <v>0.561</v>
       </c>
     </row>
     <row outlineLevel="0" r="1184">
@@ -27182,7 +27182,358 @@
         <v>1</v>
       </c>
       <c r="G1184" s="0">
-        <v>1.18063754427391E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1185">
+      <c r="A1185" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1185" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1185" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1185" s="0">
+        <v>34124</v>
+      </c>
+      <c r="E1185" s="0">
+        <v>0.416430733183638</v>
+      </c>
+      <c r="F1185" s="0">
+        <v>481</v>
+      </c>
+      <c r="G1185" s="0">
+        <v>0.552238805970149</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1186">
+      <c r="A1186" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1186" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1186" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1186" s="0">
+        <v>15752</v>
+      </c>
+      <c r="E1186" s="0">
+        <v>0.192228839207263</v>
+      </c>
+      <c r="F1186" s="0">
+        <v>315</v>
+      </c>
+      <c r="G1186" s="0">
+        <v>0.361653272101033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1187">
+      <c r="A1187" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1187" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1187" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1187" s="0">
+        <v>11792</v>
+      </c>
+      <c r="E1187" s="0">
+        <v>0.143903153373035</v>
+      </c>
+      <c r="F1187" s="0">
+        <v>54</v>
+      </c>
+      <c r="G1187" s="0">
+        <v>6.19977037887486E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1188">
+      <c r="A1188" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1188" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1188" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1188" s="0">
+        <v>814</v>
+      </c>
+      <c r="E1188" s="0">
+        <v>9.93361319925803E-03</v>
+      </c>
+      <c r="F1188" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1188" s="0">
+        <v>1.72215843857635E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1189">
+      <c r="A1189" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1189" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1189" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1189" s="0">
+        <v>97</v>
+      </c>
+      <c r="E1189" s="0">
+        <v>1.18373523381822E-03</v>
+      </c>
+      <c r="F1189" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1189" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1190">
+      <c r="A1190" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1190" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1190" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1190" s="0">
+        <v>65</v>
+      </c>
+      <c r="E1190" s="0">
+        <v>7.93224641218393E-04</v>
+      </c>
+      <c r="F1190" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1190" s="0">
+        <v>2.29621125143513E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1191">
+      <c r="A1191" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1191" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1191" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1191" s="0">
+        <v>19300</v>
+      </c>
+      <c r="E1191" s="0">
+        <v>0.235526701161769</v>
+      </c>
+      <c r="F1191" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1191" s="0">
+        <v>4.59242250287026E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1192">
+      <c r="A1192" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1192" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1192" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1192" s="0">
+        <v>41359</v>
+      </c>
+      <c r="E1192" s="0">
+        <v>0.504722737479254</v>
+      </c>
+      <c r="F1192" s="0">
+        <v>777</v>
+      </c>
+      <c r="G1192" s="0">
+        <v>0.892078071182549</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1193">
+      <c r="A1193" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1193" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1193" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1193" s="0">
+        <v>15656</v>
+      </c>
+      <c r="E1193" s="0">
+        <v>0.191057307429464</v>
+      </c>
+      <c r="F1193" s="0">
+        <v>82</v>
+      </c>
+      <c r="G1193" s="0">
+        <v>9.41446613088404E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1194">
+      <c r="A1194" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1194" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1194" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1194" s="0">
+        <v>24929</v>
+      </c>
+      <c r="E1194" s="0">
+        <v>0.304219955091282</v>
+      </c>
+      <c r="F1194" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1194" s="0">
+        <v>1.37772675086108E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1195">
+      <c r="A1195" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1195" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1195" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1195" s="0">
+        <v>39685</v>
+      </c>
+      <c r="E1195" s="0">
+        <v>0.484294152103876</v>
+      </c>
+      <c r="F1195" s="0">
+        <v>376</v>
+      </c>
+      <c r="G1195" s="0">
+        <v>0.431687715269805</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1196">
+      <c r="A1196" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1196" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1196" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1196" s="0">
+        <v>41156</v>
+      </c>
+      <c r="E1196" s="0">
+        <v>0.502245435907449</v>
+      </c>
+      <c r="F1196" s="0">
+        <v>495</v>
+      </c>
+      <c r="G1196" s="0">
+        <v>0.568312284730195</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1197">
+      <c r="A1197" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1197" s="1">
+        <v>44033</v>
+      </c>
+      <c r="C1197" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1197" s="0">
+        <v>1103</v>
+      </c>
+      <c r="E1197" s="0">
+        <v>1.34604119886752E-02</v>
+      </c>
+      <c r="F1197" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1197" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1197</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1223</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1197"/>
+  <dimension ref="A1:G1223"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -27209,7 +27209,7 @@
         <v>481</v>
       </c>
       <c r="G1185" s="0">
-        <v>0.552238805970149</v>
+        <v>0.552</v>
       </c>
     </row>
     <row outlineLevel="0" r="1186">
@@ -27236,13 +27236,13 @@
         <v>315</v>
       </c>
       <c r="G1186" s="0">
-        <v>0.361653272101033</v>
+        <v>0.361</v>
       </c>
     </row>
     <row outlineLevel="0" r="1187">
       <c r="A1187" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1187" s="1">
@@ -27254,22 +27254,22 @@
         </is>
       </c>
       <c r="D1187" s="0">
-        <v>11792</v>
+        <v>814</v>
       </c>
       <c r="E1187" s="0">
-        <v>0.143903153373035</v>
+        <v>9.93361319925803E-03</v>
       </c>
       <c r="F1187" s="0">
-        <v>54</v>
+        <v>15</v>
       </c>
       <c r="G1187" s="0">
-        <v>6.19977037887486E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="1188">
       <c r="A1188" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1188" s="1">
@@ -27281,22 +27281,22 @@
         </is>
       </c>
       <c r="D1188" s="0">
-        <v>814</v>
+        <v>97</v>
       </c>
       <c r="E1188" s="0">
-        <v>9.93361319925803E-03</v>
+        <v>1.18373523381822E-03</v>
       </c>
       <c r="F1188" s="0">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G1188" s="0">
-        <v>1.72215843857635E-02</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1189">
       <c r="A1189" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1189" s="1">
@@ -27308,22 +27308,22 @@
         </is>
       </c>
       <c r="D1189" s="0">
-        <v>97</v>
+        <v>65</v>
       </c>
       <c r="E1189" s="0">
-        <v>1.18373523381822E-03</v>
+        <v>7.93224641218393E-04</v>
       </c>
       <c r="F1189" s="0">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G1189" s="0">
-        <v>0</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1190">
       <c r="A1190" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1190" s="1">
@@ -27335,16 +27335,16 @@
         </is>
       </c>
       <c r="D1190" s="0">
-        <v>65</v>
+        <v>11792</v>
       </c>
       <c r="E1190" s="0">
-        <v>7.93224641218393E-04</v>
+        <v>0.143903153373035</v>
       </c>
       <c r="F1190" s="0">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="G1190" s="0">
-        <v>2.29621125143513E-03</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="1191">
@@ -27371,7 +27371,7 @@
         <v>4</v>
       </c>
       <c r="G1191" s="0">
-        <v>4.59242250287026E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="1192">
@@ -27398,7 +27398,7 @@
         <v>777</v>
       </c>
       <c r="G1192" s="0">
-        <v>0.892078071182549</v>
+        <v>0.892</v>
       </c>
     </row>
     <row outlineLevel="0" r="1193">
@@ -27425,7 +27425,7 @@
         <v>82</v>
       </c>
       <c r="G1193" s="0">
-        <v>9.41446613088404E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1194">
@@ -27452,7 +27452,7 @@
         <v>12</v>
       </c>
       <c r="G1194" s="0">
-        <v>1.37772675086108E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1195">
@@ -27479,7 +27479,7 @@
         <v>376</v>
       </c>
       <c r="G1195" s="0">
-        <v>0.431687715269805</v>
+        <v>0.431</v>
       </c>
     </row>
     <row outlineLevel="0" r="1196">
@@ -27506,7 +27506,7 @@
         <v>495</v>
       </c>
       <c r="G1196" s="0">
-        <v>0.568312284730195</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="1197">
@@ -27533,6 +27533,708 @@
         <v>0</v>
       </c>
       <c r="G1197" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1198">
+      <c r="A1198" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1198" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1198" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1198" s="0">
+        <v>35281</v>
+      </c>
+      <c r="E1198" s="0">
+        <v>0.417937145361716</v>
+      </c>
+      <c r="F1198" s="0">
+        <v>489</v>
+      </c>
+      <c r="G1198" s="0">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1199">
+      <c r="A1199" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1199" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1199" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1199" s="0">
+        <v>16107</v>
+      </c>
+      <c r="E1199" s="0">
+        <v>0.190802800383809</v>
+      </c>
+      <c r="F1199" s="0">
+        <v>319</v>
+      </c>
+      <c r="G1199" s="0">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1200">
+      <c r="A1200" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1200" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1200" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1200" s="0">
+        <v>832</v>
+      </c>
+      <c r="E1200" s="0">
+        <v>9.85583472523307E-03</v>
+      </c>
+      <c r="F1200" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1200" s="0">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1201">
+      <c r="A1201" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1201" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1201" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1201" s="0">
+        <v>97</v>
+      </c>
+      <c r="E1201" s="0">
+        <v>1.14905765426395E-03</v>
+      </c>
+      <c r="F1201" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1201" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1202">
+      <c r="A1202" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1202" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1202" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1202" s="0">
+        <v>69</v>
+      </c>
+      <c r="E1202" s="0">
+        <v>8.17370908703223E-04</v>
+      </c>
+      <c r="F1202" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1202" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1203">
+      <c r="A1203" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1203" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1203" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1203" s="0">
+        <v>12059</v>
+      </c>
+      <c r="E1203" s="0">
+        <v>0.142850373739887</v>
+      </c>
+      <c r="F1203" s="0">
+        <v>55</v>
+      </c>
+      <c r="G1203" s="0">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1204">
+      <c r="A1204" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1204" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1204" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1204" s="0">
+        <v>19972</v>
+      </c>
+      <c r="E1204" s="0">
+        <v>0.236587417226388</v>
+      </c>
+      <c r="F1204" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1204" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1205">
+      <c r="A1205" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1205" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1205" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1205" s="0">
+        <v>44823</v>
+      </c>
+      <c r="E1205" s="0">
+        <v>0.530971249866733</v>
+      </c>
+      <c r="F1205" s="0">
+        <v>793</v>
+      </c>
+      <c r="G1205" s="0">
+        <v>0.893</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1206">
+      <c r="A1206" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1206" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1206" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1206" s="0">
+        <v>15996</v>
+      </c>
+      <c r="E1206" s="0">
+        <v>0.189487899356765</v>
+      </c>
+      <c r="F1206" s="0">
+        <v>83</v>
+      </c>
+      <c r="G1206" s="0">
+        <v>0.093</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1207">
+      <c r="A1207" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1207" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1207" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1207" s="0">
+        <v>23598</v>
+      </c>
+      <c r="E1207" s="0">
+        <v>0.279540850776502</v>
+      </c>
+      <c r="F1207" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1207" s="0">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1208">
+      <c r="A1208" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1208" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1208" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1208" s="0">
+        <v>41042</v>
+      </c>
+      <c r="E1208" s="0">
+        <v>0.486181693260836</v>
+      </c>
+      <c r="F1208" s="0">
+        <v>382</v>
+      </c>
+      <c r="G1208" s="0">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1209">
+      <c r="A1209" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1209" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1209" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1209" s="0">
+        <v>42293</v>
+      </c>
+      <c r="E1209" s="0">
+        <v>0.501000983214281</v>
+      </c>
+      <c r="F1209" s="0">
+        <v>506</v>
+      </c>
+      <c r="G1209" s="0">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1210">
+      <c r="A1210" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1210" s="1">
+        <v>44034</v>
+      </c>
+      <c r="C1210" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1210" s="0">
+        <v>1082</v>
+      </c>
+      <c r="E1210" s="0">
+        <v>1.28173235248824E-02</v>
+      </c>
+      <c r="F1210" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1210" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1211">
+      <c r="A1211" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1211" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1211" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1211" s="0">
+        <v>36998</v>
+      </c>
+      <c r="E1211" s="0">
+        <v>0.425327922563142</v>
+      </c>
+      <c r="F1211" s="0">
+        <v>512</v>
+      </c>
+      <c r="G1211" s="0">
+        <v>0.553513513513514</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1212">
+      <c r="A1212" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1212" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1212" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1212" s="0">
+        <v>17171</v>
+      </c>
+      <c r="E1212" s="0">
+        <v>0.197397312242059</v>
+      </c>
+      <c r="F1212" s="0">
+        <v>325</v>
+      </c>
+      <c r="G1212" s="0">
+        <v>0.351351351351351</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1213">
+      <c r="A1213" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1213" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1213" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1213" s="0">
+        <v>12567</v>
+      </c>
+      <c r="E1213" s="0">
+        <v>0.144469863312909</v>
+      </c>
+      <c r="F1213" s="0">
+        <v>59</v>
+      </c>
+      <c r="G1213" s="0">
+        <v>6.37837837837838E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1214">
+      <c r="A1214" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1214" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1214" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1214" s="0">
+        <v>845</v>
+      </c>
+      <c r="E1214" s="0">
+        <v>9.71409520962902E-03</v>
+      </c>
+      <c r="F1214" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1214" s="0">
+        <v>1.62162162162162E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1215">
+      <c r="A1215" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1215" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1215" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1215" s="0">
+        <v>107</v>
+      </c>
+      <c r="E1215" s="0">
+        <v>1.23006886086427E-03</v>
+      </c>
+      <c r="F1215" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1215" s="0">
+        <v>2.16216216216216E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1216">
+      <c r="A1216" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1216" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1216" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1216" s="0">
+        <v>67</v>
+      </c>
+      <c r="E1216" s="0">
+        <v>7.70230034372952E-04</v>
+      </c>
+      <c r="F1216" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1216" s="0">
+        <v>2.16216216216216E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1217">
+      <c r="A1217" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1217" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1217" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1217" s="0">
+        <v>19232</v>
+      </c>
+      <c r="E1217" s="0">
+        <v>0.221090507777024</v>
+      </c>
+      <c r="F1217" s="0">
+        <v>10</v>
+      </c>
+      <c r="G1217" s="0">
+        <v>1.08108108108108E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1218">
+      <c r="A1218" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1218" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1218" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1218" s="0">
+        <v>46116</v>
+      </c>
+      <c r="E1218" s="0">
+        <v>0.530148183061837</v>
+      </c>
+      <c r="F1218" s="0">
+        <v>825</v>
+      </c>
+      <c r="G1218" s="0">
+        <v>0.891891891891892</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1219">
+      <c r="A1219" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1219" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1219" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1219" s="0">
+        <v>16199</v>
+      </c>
+      <c r="E1219" s="0">
+        <v>0.18622322875832</v>
+      </c>
+      <c r="F1219" s="0">
+        <v>87</v>
+      </c>
+      <c r="G1219" s="0">
+        <v>9.40540540540541E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1220">
+      <c r="A1220" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1220" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1220" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1220" s="0">
+        <v>24672</v>
+      </c>
+      <c r="E1220" s="0">
+        <v>0.283628588179843</v>
+      </c>
+      <c r="F1220" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1220" s="0">
+        <v>1.40540540540541E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1221">
+      <c r="A1221" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1221" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1221" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1221" s="0">
+        <v>42347</v>
+      </c>
+      <c r="E1221" s="0">
+        <v>0.486819869635693</v>
+      </c>
+      <c r="F1221" s="0">
+        <v>396</v>
+      </c>
+      <c r="G1221" s="0">
+        <v>0.428108108108108</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1222">
+      <c r="A1222" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1222" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1222" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1222" s="0">
+        <v>43500</v>
+      </c>
+      <c r="E1222" s="0">
+        <v>0.500074723809305</v>
+      </c>
+      <c r="F1222" s="0">
+        <v>529</v>
+      </c>
+      <c r="G1222" s="0">
+        <v>0.571891891891892</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1223">
+      <c r="A1223" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1223" s="1">
+        <v>44035</v>
+      </c>
+      <c r="C1223" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1223" s="0">
+        <v>1140</v>
+      </c>
+      <c r="E1223" s="0">
+        <v>1.31054065550025E-02</v>
+      </c>
+      <c r="F1223" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1223" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1223</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1236</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1223"/>
+  <dimension ref="A1:G1236"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -27911,7 +27911,7 @@
         <v>512</v>
       </c>
       <c r="G1211" s="0">
-        <v>0.553513513513514</v>
+        <v>0.553</v>
       </c>
     </row>
     <row outlineLevel="0" r="1212">
@@ -27938,13 +27938,13 @@
         <v>325</v>
       </c>
       <c r="G1212" s="0">
-        <v>0.351351351351351</v>
+        <v>0.351</v>
       </c>
     </row>
     <row outlineLevel="0" r="1213">
       <c r="A1213" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1213" s="1">
@@ -27956,22 +27956,22 @@
         </is>
       </c>
       <c r="D1213" s="0">
-        <v>12567</v>
+        <v>845</v>
       </c>
       <c r="E1213" s="0">
-        <v>0.144469863312909</v>
+        <v>9.71409520962902E-03</v>
       </c>
       <c r="F1213" s="0">
-        <v>59</v>
+        <v>15</v>
       </c>
       <c r="G1213" s="0">
-        <v>6.37837837837838E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1214">
       <c r="A1214" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1214" s="1">
@@ -27983,22 +27983,22 @@
         </is>
       </c>
       <c r="D1214" s="0">
-        <v>845</v>
+        <v>107</v>
       </c>
       <c r="E1214" s="0">
-        <v>9.71409520962902E-03</v>
+        <v>1.23006886086427E-03</v>
       </c>
       <c r="F1214" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G1214" s="0">
-        <v>1.62162162162162E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1215">
       <c r="A1215" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1215" s="1">
@@ -28010,22 +28010,22 @@
         </is>
       </c>
       <c r="D1215" s="0">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="E1215" s="0">
-        <v>1.23006886086427E-03</v>
+        <v>7.70230034372952E-04</v>
       </c>
       <c r="F1215" s="0">
         <v>2</v>
       </c>
       <c r="G1215" s="0">
-        <v>2.16216216216216E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1216">
       <c r="A1216" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1216" s="1">
@@ -28037,16 +28037,16 @@
         </is>
       </c>
       <c r="D1216" s="0">
-        <v>67</v>
+        <v>12567</v>
       </c>
       <c r="E1216" s="0">
-        <v>7.70230034372952E-04</v>
+        <v>0.144469863312909</v>
       </c>
       <c r="F1216" s="0">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="G1216" s="0">
-        <v>2.16216216216216E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1217">
@@ -28073,7 +28073,7 @@
         <v>10</v>
       </c>
       <c r="G1217" s="0">
-        <v>1.08108108108108E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1218">
@@ -28100,7 +28100,7 @@
         <v>825</v>
       </c>
       <c r="G1218" s="0">
-        <v>0.891891891891892</v>
+        <v>0.891</v>
       </c>
     </row>
     <row outlineLevel="0" r="1219">
@@ -28127,7 +28127,7 @@
         <v>87</v>
       </c>
       <c r="G1219" s="0">
-        <v>9.40540540540541E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1220">
@@ -28154,7 +28154,7 @@
         <v>13</v>
       </c>
       <c r="G1220" s="0">
-        <v>1.40540540540541E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1221">
@@ -28181,7 +28181,7 @@
         <v>396</v>
       </c>
       <c r="G1221" s="0">
-        <v>0.428108108108108</v>
+        <v>0.428</v>
       </c>
     </row>
     <row outlineLevel="0" r="1222">
@@ -28208,7 +28208,7 @@
         <v>529</v>
       </c>
       <c r="G1222" s="0">
-        <v>0.571891891891892</v>
+        <v>0.571</v>
       </c>
     </row>
     <row outlineLevel="0" r="1223">
@@ -28235,6 +28235,357 @@
         <v>0</v>
       </c>
       <c r="G1223" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1224">
+      <c r="A1224" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1224" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1224" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1224" s="0">
+        <v>37990</v>
+      </c>
+      <c r="E1224" s="0">
+        <v>0.426480163452255</v>
+      </c>
+      <c r="F1224" s="0">
+        <v>523</v>
+      </c>
+      <c r="G1224" s="0">
+        <v>0.557569296375267</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1225">
+      <c r="A1225" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1225" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1225" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1225" s="0">
+        <v>17519</v>
+      </c>
+      <c r="E1225" s="0">
+        <v>0.196670333864703</v>
+      </c>
+      <c r="F1225" s="0">
+        <v>328</v>
+      </c>
+      <c r="G1225" s="0">
+        <v>0.349680170575693</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1226">
+      <c r="A1226" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1226" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1226" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1226" s="0">
+        <v>12673</v>
+      </c>
+      <c r="E1226" s="0">
+        <v>0.142268573609645</v>
+      </c>
+      <c r="F1226" s="0">
+        <v>60</v>
+      </c>
+      <c r="G1226" s="0">
+        <v>6.39658848614073E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1227">
+      <c r="A1227" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1227" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1227" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1227" s="0">
+        <v>865</v>
+      </c>
+      <c r="E1227" s="0">
+        <v>9.71059071824693E-03</v>
+      </c>
+      <c r="F1227" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1227" s="0">
+        <v>1.59914712153518E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1228">
+      <c r="A1228" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1228" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1228" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1228" s="0">
+        <v>108</v>
+      </c>
+      <c r="E1228" s="0">
+        <v>1.21242057522621E-03</v>
+      </c>
+      <c r="F1228" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1228" s="0">
+        <v>2.13219616204691E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1229">
+      <c r="A1229" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1229" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1229" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1229" s="0">
+        <v>70</v>
+      </c>
+      <c r="E1229" s="0">
+        <v>7.85828150609578E-04</v>
+      </c>
+      <c r="F1229" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1229" s="0">
+        <v>2.13219616204691E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1230">
+      <c r="A1230" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1230" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1230" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1230" s="0">
+        <v>19853</v>
+      </c>
+      <c r="E1230" s="0">
+        <v>0.222872089629314</v>
+      </c>
+      <c r="F1230" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1230" s="0">
+        <v>8.52878464818763E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1231">
+      <c r="A1231" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1231" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1231" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1231" s="0">
+        <v>47256</v>
+      </c>
+      <c r="E1231" s="0">
+        <v>0.530501358360089</v>
+      </c>
+      <c r="F1231" s="0">
+        <v>838</v>
+      </c>
+      <c r="G1231" s="0">
+        <v>0.893390191897655</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1232">
+      <c r="A1232" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1232" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1232" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1232" s="0">
+        <v>16401</v>
+      </c>
+      <c r="E1232" s="0">
+        <v>0.184119535687824</v>
+      </c>
+      <c r="F1232" s="0">
+        <v>88</v>
+      </c>
+      <c r="G1232" s="0">
+        <v>0.093816631130064</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1233">
+      <c r="A1233" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1233" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1233" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1233" s="0">
+        <v>25421</v>
+      </c>
+      <c r="E1233" s="0">
+        <v>0.285379105952087</v>
+      </c>
+      <c r="F1233" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1233" s="0">
+        <v>1.27931769722814E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1234">
+      <c r="A1234" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1234" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1234" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1234" s="0">
+        <v>43422</v>
+      </c>
+      <c r="E1234" s="0">
+        <v>0.487460427939559</v>
+      </c>
+      <c r="F1234" s="0">
+        <v>403</v>
+      </c>
+      <c r="G1234" s="0">
+        <v>0.429637526652452</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1235">
+      <c r="A1235" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1235" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1235" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1235" s="0">
+        <v>44498</v>
+      </c>
+      <c r="E1235" s="0">
+        <v>0.499539729226072</v>
+      </c>
+      <c r="F1235" s="0">
+        <v>535</v>
+      </c>
+      <c r="G1235" s="0">
+        <v>0.570362473347548</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1236">
+      <c r="A1236" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1236" s="1">
+        <v>44036</v>
+      </c>
+      <c r="C1236" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1236" s="0">
+        <v>1158</v>
+      </c>
+      <c r="E1236" s="0">
+        <v>1.29998428343699E-02</v>
+      </c>
+      <c r="F1236" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1236" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1236</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1249</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1236"/>
+  <dimension ref="A1:G1249"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -28262,7 +28262,7 @@
         <v>523</v>
       </c>
       <c r="G1224" s="0">
-        <v>0.557569296375267</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="1225">
@@ -28289,13 +28289,13 @@
         <v>328</v>
       </c>
       <c r="G1225" s="0">
-        <v>0.349680170575693</v>
+        <v>0.349</v>
       </c>
     </row>
     <row outlineLevel="0" r="1226">
       <c r="A1226" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1226" s="1">
@@ -28307,22 +28307,22 @@
         </is>
       </c>
       <c r="D1226" s="0">
-        <v>12673</v>
+        <v>865</v>
       </c>
       <c r="E1226" s="0">
-        <v>0.142268573609645</v>
+        <v>9.71059071824693E-03</v>
       </c>
       <c r="F1226" s="0">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G1226" s="0">
-        <v>6.39658848614073E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1227">
       <c r="A1227" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1227" s="1">
@@ -28334,22 +28334,22 @@
         </is>
       </c>
       <c r="D1227" s="0">
-        <v>865</v>
+        <v>108</v>
       </c>
       <c r="E1227" s="0">
-        <v>9.71059071824693E-03</v>
+        <v>1.21242057522621E-03</v>
       </c>
       <c r="F1227" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G1227" s="0">
-        <v>1.59914712153518E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1228">
       <c r="A1228" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1228" s="1">
@@ -28361,22 +28361,22 @@
         </is>
       </c>
       <c r="D1228" s="0">
-        <v>108</v>
+        <v>70</v>
       </c>
       <c r="E1228" s="0">
-        <v>1.21242057522621E-03</v>
+        <v>7.85828150609578E-04</v>
       </c>
       <c r="F1228" s="0">
         <v>2</v>
       </c>
       <c r="G1228" s="0">
-        <v>2.13219616204691E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1229">
       <c r="A1229" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1229" s="1">
@@ -28388,16 +28388,16 @@
         </is>
       </c>
       <c r="D1229" s="0">
-        <v>70</v>
+        <v>12673</v>
       </c>
       <c r="E1229" s="0">
-        <v>7.85828150609578E-04</v>
+        <v>0.142268573609645</v>
       </c>
       <c r="F1229" s="0">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G1229" s="0">
-        <v>2.13219616204691E-03</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1230">
@@ -28424,7 +28424,7 @@
         <v>8</v>
       </c>
       <c r="G1230" s="0">
-        <v>8.52878464818763E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1231">
@@ -28451,7 +28451,7 @@
         <v>838</v>
       </c>
       <c r="G1231" s="0">
-        <v>0.893390191897655</v>
+        <v>0.893</v>
       </c>
     </row>
     <row outlineLevel="0" r="1232">
@@ -28478,7 +28478,7 @@
         <v>88</v>
       </c>
       <c r="G1232" s="0">
-        <v>0.093816631130064</v>
+        <v>0.093</v>
       </c>
     </row>
     <row outlineLevel="0" r="1233">
@@ -28505,7 +28505,7 @@
         <v>12</v>
       </c>
       <c r="G1233" s="0">
-        <v>1.27931769722814E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1234">
@@ -28532,7 +28532,7 @@
         <v>403</v>
       </c>
       <c r="G1234" s="0">
-        <v>0.429637526652452</v>
+        <v>0.429</v>
       </c>
     </row>
     <row outlineLevel="0" r="1235">
@@ -28559,7 +28559,7 @@
         <v>535</v>
       </c>
       <c r="G1235" s="0">
-        <v>0.570362473347548</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1236">
@@ -28586,6 +28586,357 @@
         <v>0</v>
       </c>
       <c r="G1236" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1237">
+      <c r="A1237" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1237" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1237" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1237" s="0">
+        <v>38946</v>
+      </c>
+      <c r="E1237" s="0">
+        <v>0.428939600863474</v>
+      </c>
+      <c r="F1237" s="0">
+        <v>542</v>
+      </c>
+      <c r="G1237" s="0">
+        <v>0.562240663900415</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1238">
+      <c r="A1238" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1238" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1238" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1238" s="0">
+        <v>17834</v>
+      </c>
+      <c r="E1238" s="0">
+        <v>0.196418344420459</v>
+      </c>
+      <c r="F1238" s="0">
+        <v>335</v>
+      </c>
+      <c r="G1238" s="0">
+        <v>0.347510373443983</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1239">
+      <c r="A1239" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1239" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1239" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1239" s="0">
+        <v>12733</v>
+      </c>
+      <c r="E1239" s="0">
+        <v>0.140237455394511</v>
+      </c>
+      <c r="F1239" s="0">
+        <v>60</v>
+      </c>
+      <c r="G1239" s="0">
+        <v>6.22406639004149E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1240">
+      <c r="A1240" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1240" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1240" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1240" s="0">
+        <v>885</v>
+      </c>
+      <c r="E1240" s="0">
+        <v>9.74712542402749E-03</v>
+      </c>
+      <c r="F1240" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1240" s="0">
+        <v>1.55601659751037E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1241">
+      <c r="A1241" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1241" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1241" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1241" s="0">
+        <v>108</v>
+      </c>
+      <c r="E1241" s="0">
+        <v>1.18947971276268E-03</v>
+      </c>
+      <c r="F1241" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1241" s="0">
+        <v>2.0746887966805E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1242">
+      <c r="A1242" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1242" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1242" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1242" s="0">
+        <v>71</v>
+      </c>
+      <c r="E1242" s="0">
+        <v>7.81972774131019E-04</v>
+      </c>
+      <c r="F1242" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1242" s="0">
+        <v>2.0746887966805E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1243">
+      <c r="A1243" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1243" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1243" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1243" s="0">
+        <v>20219</v>
+      </c>
+      <c r="E1243" s="0">
+        <v>0.222686021410635</v>
+      </c>
+      <c r="F1243" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1243" s="0">
+        <v>8.29875518672199E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1244">
+      <c r="A1244" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1244" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1244" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1244" s="0">
+        <v>48322</v>
+      </c>
+      <c r="E1244" s="0">
+        <v>0.532204061852945</v>
+      </c>
+      <c r="F1244" s="0">
+        <v>858</v>
+      </c>
+      <c r="G1244" s="0">
+        <v>0.890041493775934</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1245">
+      <c r="A1245" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1245" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1245" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1245" s="0">
+        <v>16591</v>
+      </c>
+      <c r="E1245" s="0">
+        <v>0.182728314022644</v>
+      </c>
+      <c r="F1245" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1245" s="0">
+        <v>9.43983402489627E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1246">
+      <c r="A1246" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1246" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1246" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1246" s="0">
+        <v>25883</v>
+      </c>
+      <c r="E1246" s="0">
+        <v>0.285067624124411</v>
+      </c>
+      <c r="F1246" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1246" s="0">
+        <v>1.55601659751037E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1247">
+      <c r="A1247" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1247" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1247" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1247" s="0">
+        <v>44352</v>
+      </c>
+      <c r="E1247" s="0">
+        <v>0.488479668707873</v>
+      </c>
+      <c r="F1247" s="0">
+        <v>411</v>
+      </c>
+      <c r="G1247" s="0">
+        <v>0.426348547717842</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1248">
+      <c r="A1248" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1248" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1248" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1248" s="0">
+        <v>45278</v>
+      </c>
+      <c r="E1248" s="0">
+        <v>0.498678355874708</v>
+      </c>
+      <c r="F1248" s="0">
+        <v>553</v>
+      </c>
+      <c r="G1248" s="0">
+        <v>0.573651452282158</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1249">
+      <c r="A1249" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1249" s="1">
+        <v>44037</v>
+      </c>
+      <c r="C1249" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1249" s="0">
+        <v>1166</v>
+      </c>
+      <c r="E1249" s="0">
+        <v>1.28419754174193E-02</v>
+      </c>
+      <c r="F1249" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1249" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1249</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1275</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1249"/>
+  <dimension ref="A1:G1275"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -28613,7 +28613,7 @@
         <v>542</v>
       </c>
       <c r="G1237" s="0">
-        <v>0.562240663900415</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="1238">
@@ -28640,13 +28640,13 @@
         <v>335</v>
       </c>
       <c r="G1238" s="0">
-        <v>0.347510373443983</v>
+        <v>0.347</v>
       </c>
     </row>
     <row outlineLevel="0" r="1239">
       <c r="A1239" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1239" s="1">
@@ -28658,22 +28658,22 @@
         </is>
       </c>
       <c r="D1239" s="0">
-        <v>12733</v>
+        <v>885</v>
       </c>
       <c r="E1239" s="0">
-        <v>0.140237455394511</v>
+        <v>9.74712542402749E-03</v>
       </c>
       <c r="F1239" s="0">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="G1239" s="0">
-        <v>6.22406639004149E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1240">
       <c r="A1240" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1240" s="1">
@@ -28685,22 +28685,22 @@
         </is>
       </c>
       <c r="D1240" s="0">
-        <v>885</v>
+        <v>108</v>
       </c>
       <c r="E1240" s="0">
-        <v>9.74712542402749E-03</v>
+        <v>1.18947971276268E-03</v>
       </c>
       <c r="F1240" s="0">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="G1240" s="0">
-        <v>1.55601659751037E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1241">
       <c r="A1241" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1241" s="1">
@@ -28712,22 +28712,22 @@
         </is>
       </c>
       <c r="D1241" s="0">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="E1241" s="0">
-        <v>1.18947971276268E-03</v>
+        <v>7.81972774131019E-04</v>
       </c>
       <c r="F1241" s="0">
         <v>2</v>
       </c>
       <c r="G1241" s="0">
-        <v>2.0746887966805E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1242">
       <c r="A1242" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1242" s="1">
@@ -28739,16 +28739,16 @@
         </is>
       </c>
       <c r="D1242" s="0">
-        <v>71</v>
+        <v>12733</v>
       </c>
       <c r="E1242" s="0">
-        <v>7.81972774131019E-04</v>
+        <v>0.140237455394511</v>
       </c>
       <c r="F1242" s="0">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="G1242" s="0">
-        <v>2.0746887966805E-03</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="1243">
@@ -28775,7 +28775,7 @@
         <v>8</v>
       </c>
       <c r="G1243" s="0">
-        <v>8.29875518672199E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1244">
@@ -28802,7 +28802,7 @@
         <v>858</v>
       </c>
       <c r="G1244" s="0">
-        <v>0.890041493775934</v>
+        <v>0.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="1245">
@@ -28829,7 +28829,7 @@
         <v>91</v>
       </c>
       <c r="G1245" s="0">
-        <v>9.43983402489627E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1246">
@@ -28856,7 +28856,7 @@
         <v>15</v>
       </c>
       <c r="G1246" s="0">
-        <v>1.55601659751037E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1247">
@@ -28883,7 +28883,7 @@
         <v>411</v>
       </c>
       <c r="G1247" s="0">
-        <v>0.426348547717842</v>
+        <v>0.426</v>
       </c>
     </row>
     <row outlineLevel="0" r="1248">
@@ -28910,7 +28910,7 @@
         <v>553</v>
       </c>
       <c r="G1248" s="0">
-        <v>0.573651452282158</v>
+        <v>0.573</v>
       </c>
     </row>
     <row outlineLevel="0" r="1249">
@@ -28937,6 +28937,708 @@
         <v>0</v>
       </c>
       <c r="G1249" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1250">
+      <c r="A1250" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1250" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1250" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1250" s="0">
+        <v>39810</v>
+      </c>
+      <c r="E1250" s="0">
+        <v>0.423799182422075</v>
+      </c>
+      <c r="F1250" s="0">
+        <v>543</v>
+      </c>
+      <c r="G1250" s="0">
+        <v>0.561</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1251">
+      <c r="A1251" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1251" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1251" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1251" s="0">
+        <v>18149</v>
+      </c>
+      <c r="E1251" s="0">
+        <v>0.193206012604326</v>
+      </c>
+      <c r="F1251" s="0">
+        <v>336</v>
+      </c>
+      <c r="G1251" s="0">
+        <v>0.347</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1252">
+      <c r="A1252" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1252" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1252" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1252" s="0">
+        <v>898</v>
+      </c>
+      <c r="E1252" s="0">
+        <v>9.55970022142735E-03</v>
+      </c>
+      <c r="F1252" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1252" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1253">
+      <c r="A1253" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1253" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1253" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1253" s="0">
+        <v>111</v>
+      </c>
+      <c r="E1253" s="0">
+        <v>1.18165559529893E-03</v>
+      </c>
+      <c r="F1253" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1253" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1254">
+      <c r="A1254" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1254" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1254" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1254" s="0">
+        <v>73</v>
+      </c>
+      <c r="E1254" s="0">
+        <v>7.77124850962357E-04</v>
+      </c>
+      <c r="F1254" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1254" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1255">
+      <c r="A1255" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1255" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1255" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1255" s="0">
+        <v>12786</v>
+      </c>
+      <c r="E1255" s="0">
+        <v>0.136113949923352</v>
+      </c>
+      <c r="F1255" s="0">
+        <v>60</v>
+      </c>
+      <c r="G1255" s="0">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1256">
+      <c r="A1256" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1256" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1256" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1256" s="0">
+        <v>22109</v>
+      </c>
+      <c r="E1256" s="0">
+        <v>0.235362374382558</v>
+      </c>
+      <c r="F1256" s="0">
+        <v>9</v>
+      </c>
+      <c r="G1256" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1257">
+      <c r="A1257" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1257" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1257" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1257" s="0">
+        <v>49169</v>
+      </c>
+      <c r="E1257" s="0">
+        <v>0.52343084653381</v>
+      </c>
+      <c r="F1257" s="0">
+        <v>859</v>
+      </c>
+      <c r="G1257" s="0">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1258">
+      <c r="A1258" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1258" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1258" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1258" s="0">
+        <v>16730</v>
+      </c>
+      <c r="E1258" s="0">
+        <v>0.178099982967127</v>
+      </c>
+      <c r="F1258" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1258" s="0">
+        <v>0.094</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1259">
+      <c r="A1259" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1259" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1259" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1259" s="0">
+        <v>28037</v>
+      </c>
+      <c r="E1259" s="0">
+        <v>0.298469170499063</v>
+      </c>
+      <c r="F1259" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1259" s="0">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1260">
+      <c r="A1260" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1260" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1260" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1260" s="0">
+        <v>46045</v>
+      </c>
+      <c r="E1260" s="0">
+        <v>0.490174161130983</v>
+      </c>
+      <c r="F1260" s="0">
+        <v>410</v>
+      </c>
+      <c r="G1260" s="0">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1261">
+      <c r="A1261" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1261" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1261" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1261" s="0">
+        <v>46696</v>
+      </c>
+      <c r="E1261" s="0">
+        <v>0.497104411514222</v>
+      </c>
+      <c r="F1261" s="0">
+        <v>557</v>
+      </c>
+      <c r="G1261" s="0">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1262">
+      <c r="A1262" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1262" s="1">
+        <v>44038</v>
+      </c>
+      <c r="C1262" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1262" s="0">
+        <v>1195</v>
+      </c>
+      <c r="E1262" s="0">
+        <v>1.27214273547948E-02</v>
+      </c>
+      <c r="F1262" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1262" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1263">
+      <c r="A1263" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1263" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1263" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1263" s="0">
+        <v>40844</v>
+      </c>
+      <c r="E1263" s="0">
+        <v>0.423302138067552</v>
+      </c>
+      <c r="F1263" s="0">
+        <v>547</v>
+      </c>
+      <c r="G1263" s="0">
+        <v>0.559304703476483</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1264">
+      <c r="A1264" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1264" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1264" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1264" s="0">
+        <v>18408</v>
+      </c>
+      <c r="E1264" s="0">
+        <v>0.190778223424432</v>
+      </c>
+      <c r="F1264" s="0">
+        <v>337</v>
+      </c>
+      <c r="G1264" s="0">
+        <v>0.344580777096115</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1265">
+      <c r="A1265" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1265" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1265" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1265" s="0">
+        <v>13397</v>
+      </c>
+      <c r="E1265" s="0">
+        <v>0.13884484241727</v>
+      </c>
+      <c r="F1265" s="0">
+        <v>61</v>
+      </c>
+      <c r="G1265" s="0">
+        <v>6.23721881390593E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1266">
+      <c r="A1266" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1266" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1266" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1266" s="0">
+        <v>909</v>
+      </c>
+      <c r="E1266" s="0">
+        <v>9.42076298852719E-03</v>
+      </c>
+      <c r="F1266" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1266" s="0">
+        <v>1.53374233128834E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1267">
+      <c r="A1267" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1267" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1267" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1267" s="0">
+        <v>112</v>
+      </c>
+      <c r="E1267" s="0">
+        <v>1.16075407559411E-03</v>
+      </c>
+      <c r="F1267" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1267" s="0">
+        <v>2.04498977505112E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1268">
+      <c r="A1268" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1268" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1268" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1268" s="0">
+        <v>71</v>
+      </c>
+      <c r="E1268" s="0">
+        <v>7.35835172921266E-04</v>
+      </c>
+      <c r="F1268" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1268" s="0">
+        <v>2.04498977505112E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1269">
+      <c r="A1269" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1269" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1269" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1269" s="0">
+        <v>22748</v>
+      </c>
+      <c r="E1269" s="0">
+        <v>0.235757443853704</v>
+      </c>
+      <c r="F1269" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1269" s="0">
+        <v>1.43149284253579E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1270">
+      <c r="A1270" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1270" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1270" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1270" s="0">
+        <v>50085</v>
+      </c>
+      <c r="E1270" s="0">
+        <v>0.519074713179741</v>
+      </c>
+      <c r="F1270" s="0">
+        <v>864</v>
+      </c>
+      <c r="G1270" s="0">
+        <v>0.883435582822086</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1271">
+      <c r="A1271" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1271" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1271" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1271" s="0">
+        <v>16867</v>
+      </c>
+      <c r="E1271" s="0">
+        <v>0.174807491009338</v>
+      </c>
+      <c r="F1271" s="0">
+        <v>93</v>
+      </c>
+      <c r="G1271" s="0">
+        <v>9.50920245398773E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1272">
+      <c r="A1272" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1272" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1272" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1272" s="0">
+        <v>29537</v>
+      </c>
+      <c r="E1272" s="0">
+        <v>0.306117795810921</v>
+      </c>
+      <c r="F1272" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1272" s="0">
+        <v>2.14723926380368E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1273">
+      <c r="A1273" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1273" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1273" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1273" s="0">
+        <v>47440</v>
+      </c>
+      <c r="E1273" s="0">
+        <v>0.491662262019505</v>
+      </c>
+      <c r="F1273" s="0">
+        <v>414</v>
+      </c>
+      <c r="G1273" s="0">
+        <v>0.423312883435583</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1274">
+      <c r="A1274" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1274" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1274" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1274" s="0">
+        <v>47846</v>
+      </c>
+      <c r="E1274" s="0">
+        <v>0.495869995543533</v>
+      </c>
+      <c r="F1274" s="0">
+        <v>564</v>
+      </c>
+      <c r="G1274" s="0">
+        <v>0.576687116564417</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1275">
+      <c r="A1275" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1275" s="1">
+        <v>44039</v>
+      </c>
+      <c r="C1275" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1275" s="0">
+        <v>1203</v>
+      </c>
+      <c r="E1275" s="0">
+        <v>1.24677424369617E-02</v>
+      </c>
+      <c r="F1275" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1275" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1301</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1314</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1301"/>
+  <dimension ref="A1:G1314"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -30017,7 +30017,7 @@
         <v>574</v>
       </c>
       <c r="G1289" s="0">
-        <v>0.562745098039216</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="1290">
@@ -30044,13 +30044,13 @@
         <v>347</v>
       </c>
       <c r="G1290" s="0">
-        <v>0.340196078431373</v>
+        <v>0.34</v>
       </c>
     </row>
     <row outlineLevel="0" r="1291">
       <c r="A1291" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1291" s="1">
@@ -30062,22 +30062,22 @@
         </is>
       </c>
       <c r="D1291" s="0">
-        <v>13952</v>
+        <v>930</v>
       </c>
       <c r="E1291" s="0">
-        <v>0.138382495883835</v>
+        <v>9.22417726289897E-03</v>
       </c>
       <c r="F1291" s="0">
-        <v>64</v>
+        <v>15</v>
       </c>
       <c r="G1291" s="0">
-        <v>6.27450980392157E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1292">
       <c r="A1292" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1292" s="1">
@@ -30089,22 +30089,22 @@
         </is>
       </c>
       <c r="D1292" s="0">
-        <v>930</v>
+        <v>119</v>
       </c>
       <c r="E1292" s="0">
-        <v>9.22417726289897E-03</v>
+        <v>1.18029795084406E-03</v>
       </c>
       <c r="F1292" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G1292" s="0">
-        <v>1.47058823529412E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1293">
       <c r="A1293" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1293" s="1">
@@ -30116,22 +30116,22 @@
         </is>
       </c>
       <c r="D1293" s="0">
-        <v>119</v>
+        <v>77</v>
       </c>
       <c r="E1293" s="0">
-        <v>1.18029795084406E-03</v>
+        <v>7.63722203487334E-04</v>
       </c>
       <c r="F1293" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1293" s="0">
-        <v>2.94117647058824E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1294">
       <c r="A1294" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1294" s="1">
@@ -30143,16 +30143,16 @@
         </is>
       </c>
       <c r="D1294" s="0">
-        <v>77</v>
+        <v>13952</v>
       </c>
       <c r="E1294" s="0">
-        <v>7.63722203487334E-04</v>
+        <v>0.138382495883835</v>
       </c>
       <c r="F1294" s="0">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G1294" s="0">
-        <v>1.96078431372549E-03</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="1295">
@@ -30179,7 +30179,7 @@
         <v>15</v>
       </c>
       <c r="G1295" s="0">
-        <v>1.47058823529412E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1296">
@@ -30206,7 +30206,7 @@
         <v>911</v>
       </c>
       <c r="G1296" s="0">
-        <v>0.893137254901961</v>
+        <v>0.893</v>
       </c>
     </row>
     <row outlineLevel="0" r="1297">
@@ -30233,7 +30233,7 @@
         <v>96</v>
       </c>
       <c r="G1297" s="0">
-        <v>9.41176470588235E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1298">
@@ -30260,7 +30260,7 @@
         <v>13</v>
       </c>
       <c r="G1298" s="0">
-        <v>1.27450980392157E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1299">
@@ -30287,7 +30287,7 @@
         <v>438</v>
       </c>
       <c r="G1299" s="0">
-        <v>0.429411764705882</v>
+        <v>0.429</v>
       </c>
     </row>
     <row outlineLevel="0" r="1300">
@@ -30314,7 +30314,7 @@
         <v>582</v>
       </c>
       <c r="G1300" s="0">
-        <v>0.570588235294118</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1301">
@@ -30341,6 +30341,357 @@
         <v>0</v>
       </c>
       <c r="G1301" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1302">
+      <c r="A1302" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1302" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1302" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1302" s="0">
+        <v>44226</v>
+      </c>
+      <c r="E1302" s="0">
+        <v>0.429917080615528</v>
+      </c>
+      <c r="F1302" s="0">
+        <v>581</v>
+      </c>
+      <c r="G1302" s="0">
+        <v>0.56243949661181</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1303">
+      <c r="A1303" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1303" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1303" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1303" s="0">
+        <v>19463</v>
+      </c>
+      <c r="E1303" s="0">
+        <v>0.189198121919686</v>
+      </c>
+      <c r="F1303" s="0">
+        <v>351</v>
+      </c>
+      <c r="G1303" s="0">
+        <v>0.339787028073572</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1304">
+      <c r="A1304" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1304" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1304" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1304" s="0">
+        <v>14203</v>
+      </c>
+      <c r="E1304" s="0">
+        <v>0.1380661216475</v>
+      </c>
+      <c r="F1304" s="0">
+        <v>65</v>
+      </c>
+      <c r="G1304" s="0">
+        <v>6.29235237173282E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1305">
+      <c r="A1305" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1305" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1305" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1305" s="0">
+        <v>941</v>
+      </c>
+      <c r="E1305" s="0">
+        <v>9.14737875591761E-03</v>
+      </c>
+      <c r="F1305" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1305" s="0">
+        <v>1.45208131655373E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1306">
+      <c r="A1306" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1306" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1306" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1306" s="0">
+        <v>120</v>
+      </c>
+      <c r="E1306" s="0">
+        <v>1.16650951191298E-03</v>
+      </c>
+      <c r="F1306" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1306" s="0">
+        <v>2.90416263310745E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1307">
+      <c r="A1307" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1307" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1307" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1307" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1307" s="0">
+        <v>7.58231182743436E-04</v>
+      </c>
+      <c r="F1307" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1307" s="0">
+        <v>1.93610842207164E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1308">
+      <c r="A1308" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1308" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1308" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1308" s="0">
+        <v>23840</v>
+      </c>
+      <c r="E1308" s="0">
+        <v>0.231746556366712</v>
+      </c>
+      <c r="F1308" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1308" s="0">
+        <v>1.54888673765731E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1309">
+      <c r="A1309" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1309" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1309" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1309" s="0">
+        <v>56242</v>
+      </c>
+      <c r="E1309" s="0">
+        <v>0.546723566408414</v>
+      </c>
+      <c r="F1309" s="0">
+        <v>921</v>
+      </c>
+      <c r="G1309" s="0">
+        <v>0.891577928363988</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1310">
+      <c r="A1310" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1310" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1310" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1310" s="0">
+        <v>17621</v>
+      </c>
+      <c r="E1310" s="0">
+        <v>0.171292200911822</v>
+      </c>
+      <c r="F1310" s="0">
+        <v>98</v>
+      </c>
+      <c r="G1310" s="0">
+        <v>9.48693126815102E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1311">
+      <c r="A1311" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1311" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1311" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1311" s="0">
+        <v>29008</v>
+      </c>
+      <c r="E1311" s="0">
+        <v>0.281984232679764</v>
+      </c>
+      <c r="F1311" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1311" s="0">
+        <v>1.35527589545015E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1312">
+      <c r="A1312" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1312" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1312" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1312" s="0">
+        <v>50873</v>
+      </c>
+      <c r="E1312" s="0">
+        <v>0.494531986662908</v>
+      </c>
+      <c r="F1312" s="0">
+        <v>442</v>
+      </c>
+      <c r="G1312" s="0">
+        <v>0.427879961277832</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1313">
+      <c r="A1313" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1313" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1313" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1313" s="0">
+        <v>50756</v>
+      </c>
+      <c r="E1313" s="0">
+        <v>0.493394639888793</v>
+      </c>
+      <c r="F1313" s="0">
+        <v>591</v>
+      </c>
+      <c r="G1313" s="0">
+        <v>0.572120038722168</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1314">
+      <c r="A1314" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1314" s="1">
+        <v>44042</v>
+      </c>
+      <c r="C1314" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1314" s="0">
+        <v>1242</v>
+      </c>
+      <c r="E1314" s="0">
+        <v>1.20733734482993E-02</v>
+      </c>
+      <c r="F1314" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1314" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1314</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1327</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1314"/>
+  <dimension ref="A1:G1327"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -29309,7 +29309,7 @@
         <v>40844</v>
       </c>
       <c r="E1263" s="0">
-        <v>0.422500827540549</v>
+        <v>0.423302138067552</v>
       </c>
       <c r="F1263" s="0">
         <v>547</v>
@@ -29336,7 +29336,7 @@
         <v>18408</v>
       </c>
       <c r="E1264" s="0">
-        <v>0.190417080436941</v>
+        <v>0.190778223424432</v>
       </c>
       <c r="F1264" s="0">
         <v>337</v>
@@ -29363,7 +29363,7 @@
         <v>909</v>
       </c>
       <c r="E1265" s="0">
-        <v>9.40292949354518E-03</v>
+        <v>9.42076298852719E-03</v>
       </c>
       <c r="F1265" s="0">
         <v>15</v>
@@ -29390,7 +29390,7 @@
         <v>112</v>
       </c>
       <c r="E1266" s="0">
-        <v>1.15855676928169E-03</v>
+        <v>1.16075407559411E-03</v>
       </c>
       <c r="F1266" s="0">
         <v>2</v>
@@ -29417,7 +29417,7 @@
         <v>71</v>
       </c>
       <c r="E1267" s="0">
-        <v>7.34442237669646E-04</v>
+        <v>7.35835172921266E-04</v>
       </c>
       <c r="F1267" s="0">
         <v>2</v>
@@ -29441,13 +29441,13 @@
         </is>
       </c>
       <c r="D1268" s="0">
-        <v>13580</v>
+        <v>13397</v>
       </c>
       <c r="E1268" s="0">
-        <v>0.140475008275405</v>
+        <v>0.13884484241727</v>
       </c>
       <c r="F1268" s="0">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="G1268" s="0">
         <v>0.066</v>
@@ -29471,7 +29471,7 @@
         <v>22748</v>
       </c>
       <c r="E1269" s="0">
-        <v>0.235311155246607</v>
+        <v>0.235757443853704</v>
       </c>
       <c r="F1269" s="0">
         <v>14</v>
@@ -29660,7 +29660,7 @@
         <v>42056</v>
       </c>
       <c r="E1276" s="0">
-        <v>0.423802085957575</v>
+        <v>0.42461936109204</v>
       </c>
       <c r="F1276" s="0">
         <v>559</v>
@@ -29687,7 +29687,7 @@
         <v>18749</v>
       </c>
       <c r="E1277" s="0">
-        <v>0.18893535546934</v>
+        <v>0.189299705181535</v>
       </c>
       <c r="F1277" s="0">
         <v>343</v>
@@ -29714,7 +29714,7 @@
         <v>919</v>
       </c>
       <c r="E1278" s="0">
-        <v>9.26084546782889E-03</v>
+        <v>9.27870441419975E-03</v>
       </c>
       <c r="F1278" s="0">
         <v>15</v>
@@ -29741,7 +29741,7 @@
         <v>117</v>
       </c>
       <c r="E1279" s="0">
-        <v>1.17901949916864E-03</v>
+        <v>1.18129316263479E-03</v>
       </c>
       <c r="F1279" s="0">
         <v>3</v>
@@ -29768,7 +29768,7 @@
         <v>74</v>
       </c>
       <c r="E1280" s="0">
-        <v>7.45704640499824E-04</v>
+        <v>7.4714268405961E-04</v>
       </c>
       <c r="F1280" s="0">
         <v>15</v>
@@ -29792,13 +29792,13 @@
         </is>
       </c>
       <c r="D1281" s="0">
-        <v>13916</v>
+        <v>13725</v>
       </c>
       <c r="E1281" s="0">
-        <v>0.140232780772913</v>
+        <v>0.138574774847543</v>
       </c>
       <c r="F1281" s="0">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="G1281" s="0">
         <v>0.065</v>
@@ -29822,7 +29822,7 @@
         <v>23404</v>
       </c>
       <c r="E1282" s="0">
-        <v>0.235844208192674</v>
+        <v>0.236299018617988</v>
       </c>
       <c r="F1282" s="0">
         <v>15</v>
@@ -30368,7 +30368,7 @@
         <v>581</v>
       </c>
       <c r="G1302" s="0">
-        <v>0.56243949661181</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="1303">
@@ -30395,13 +30395,13 @@
         <v>351</v>
       </c>
       <c r="G1303" s="0">
-        <v>0.339787028073572</v>
+        <v>0.339</v>
       </c>
     </row>
     <row outlineLevel="0" r="1304">
       <c r="A1304" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1304" s="1">
@@ -30413,22 +30413,22 @@
         </is>
       </c>
       <c r="D1304" s="0">
-        <v>14203</v>
+        <v>941</v>
       </c>
       <c r="E1304" s="0">
-        <v>0.1380661216475</v>
+        <v>9.14737875591761E-03</v>
       </c>
       <c r="F1304" s="0">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G1304" s="0">
-        <v>6.29235237173282E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1305">
       <c r="A1305" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1305" s="1">
@@ -30440,22 +30440,22 @@
         </is>
       </c>
       <c r="D1305" s="0">
-        <v>941</v>
+        <v>120</v>
       </c>
       <c r="E1305" s="0">
-        <v>9.14737875591761E-03</v>
+        <v>1.16650951191298E-03</v>
       </c>
       <c r="F1305" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G1305" s="0">
-        <v>1.45208131655373E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1306">
       <c r="A1306" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1306" s="1">
@@ -30467,22 +30467,22 @@
         </is>
       </c>
       <c r="D1306" s="0">
-        <v>120</v>
+        <v>78</v>
       </c>
       <c r="E1306" s="0">
-        <v>1.16650951191298E-03</v>
+        <v>7.58231182743436E-04</v>
       </c>
       <c r="F1306" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1306" s="0">
-        <v>2.90416263310745E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1307">
       <c r="A1307" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1307" s="1">
@@ -30494,16 +30494,16 @@
         </is>
       </c>
       <c r="D1307" s="0">
-        <v>78</v>
+        <v>14203</v>
       </c>
       <c r="E1307" s="0">
-        <v>7.58231182743436E-04</v>
+        <v>0.1380661216475</v>
       </c>
       <c r="F1307" s="0">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G1307" s="0">
-        <v>1.93610842207164E-03</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="1308">
@@ -30530,7 +30530,7 @@
         <v>16</v>
       </c>
       <c r="G1308" s="0">
-        <v>1.54888673765731E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1309">
@@ -30557,7 +30557,7 @@
         <v>921</v>
       </c>
       <c r="G1309" s="0">
-        <v>0.891577928363988</v>
+        <v>0.891</v>
       </c>
     </row>
     <row outlineLevel="0" r="1310">
@@ -30584,7 +30584,7 @@
         <v>98</v>
       </c>
       <c r="G1310" s="0">
-        <v>9.48693126815102E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1311">
@@ -30611,7 +30611,7 @@
         <v>14</v>
       </c>
       <c r="G1311" s="0">
-        <v>1.35527589545015E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1312">
@@ -30638,7 +30638,7 @@
         <v>442</v>
       </c>
       <c r="G1312" s="0">
-        <v>0.427879961277832</v>
+        <v>0.427</v>
       </c>
     </row>
     <row outlineLevel="0" r="1313">
@@ -30665,7 +30665,7 @@
         <v>591</v>
       </c>
       <c r="G1313" s="0">
-        <v>0.572120038722168</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="1314">
@@ -30692,6 +30692,357 @@
         <v>0</v>
       </c>
       <c r="G1314" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1315">
+      <c r="A1315" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1315" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1315" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1315" s="0">
+        <v>45421</v>
+      </c>
+      <c r="E1315" s="0">
+        <v>0.428665804698044</v>
+      </c>
+      <c r="F1315" s="0">
+        <v>600</v>
+      </c>
+      <c r="G1315" s="0">
+        <v>0.566037735849057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1316">
+      <c r="A1316" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1316" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1316" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1316" s="0">
+        <v>19808</v>
+      </c>
+      <c r="E1316" s="0">
+        <v>0.186940231599015</v>
+      </c>
+      <c r="F1316" s="0">
+        <v>357</v>
+      </c>
+      <c r="G1316" s="0">
+        <v>0.336792452830189</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1317">
+      <c r="A1317" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1317" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1317" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1317" s="0">
+        <v>14823</v>
+      </c>
+      <c r="E1317" s="0">
+        <v>0.139893732481431</v>
+      </c>
+      <c r="F1317" s="0">
+        <v>65</v>
+      </c>
+      <c r="G1317" s="0">
+        <v>6.13207547169811E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1318">
+      <c r="A1318" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1318" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1318" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1318" s="0">
+        <v>955</v>
+      </c>
+      <c r="E1318" s="0">
+        <v>9.0129200917336E-03</v>
+      </c>
+      <c r="F1318" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1318" s="0">
+        <v>1.41509433962264E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1319">
+      <c r="A1319" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1319" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1319" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1319" s="0">
+        <v>125</v>
+      </c>
+      <c r="E1319" s="0">
+        <v>1.17970158268764E-03</v>
+      </c>
+      <c r="F1319" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1319" s="0">
+        <v>2.83018867924528E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1320">
+      <c r="A1320" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1320" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1320" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1320" s="0">
+        <v>77</v>
+      </c>
+      <c r="E1320" s="0">
+        <v>7.26696174935588E-04</v>
+      </c>
+      <c r="F1320" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1320" s="0">
+        <v>1.88679245283019E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1321">
+      <c r="A1321" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1321" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1321" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1321" s="0">
+        <v>24750</v>
+      </c>
+      <c r="E1321" s="0">
+        <v>0.233580913372153</v>
+      </c>
+      <c r="F1321" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1321" s="0">
+        <v>1.69811320754717E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1322">
+      <c r="A1322" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1322" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1322" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1322" s="0">
+        <v>57323</v>
+      </c>
+      <c r="E1322" s="0">
+        <v>0.54099227059523</v>
+      </c>
+      <c r="F1322" s="0">
+        <v>943</v>
+      </c>
+      <c r="G1322" s="0">
+        <v>0.889622641509434</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1323">
+      <c r="A1323" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1323" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1323" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1323" s="0">
+        <v>17824</v>
+      </c>
+      <c r="E1323" s="0">
+        <v>0.168216008078596</v>
+      </c>
+      <c r="F1323" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1323" s="0">
+        <v>9.43396226415094E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1324">
+      <c r="A1324" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1324" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1324" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1324" s="0">
+        <v>30812</v>
+      </c>
+      <c r="E1324" s="0">
+        <v>0.290791721326173</v>
+      </c>
+      <c r="F1324" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1324" s="0">
+        <v>1.60377358490566E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1325">
+      <c r="A1325" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1325" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1325" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1325" s="0">
+        <v>52586</v>
+      </c>
+      <c r="E1325" s="0">
+        <v>0.496286299417699</v>
+      </c>
+      <c r="F1325" s="0">
+        <v>456</v>
+      </c>
+      <c r="G1325" s="0">
+        <v>0.430188679245283</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1326">
+      <c r="A1326" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1326" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1326" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1326" s="0">
+        <v>52129</v>
+      </c>
+      <c r="E1326" s="0">
+        <v>0.491973310431393</v>
+      </c>
+      <c r="F1326" s="0">
+        <v>604</v>
+      </c>
+      <c r="G1326" s="0">
+        <v>0.569811320754717</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1327">
+      <c r="A1327" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1327" s="1">
+        <v>44043</v>
+      </c>
+      <c r="C1327" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1327" s="0">
+        <v>1244</v>
+      </c>
+      <c r="E1327" s="0">
+        <v>1.17403901509074E-02</v>
+      </c>
+      <c r="F1327" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1327" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1327</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1340</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1327"/>
+  <dimension ref="A1:G1340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -30719,7 +30719,7 @@
         <v>600</v>
       </c>
       <c r="G1315" s="0">
-        <v>0.566037735849057</v>
+        <v>0.566</v>
       </c>
     </row>
     <row outlineLevel="0" r="1316">
@@ -30746,13 +30746,13 @@
         <v>357</v>
       </c>
       <c r="G1316" s="0">
-        <v>0.336792452830189</v>
+        <v>0.336</v>
       </c>
     </row>
     <row outlineLevel="0" r="1317">
       <c r="A1317" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1317" s="1">
@@ -30764,22 +30764,22 @@
         </is>
       </c>
       <c r="D1317" s="0">
-        <v>14823</v>
+        <v>955</v>
       </c>
       <c r="E1317" s="0">
-        <v>0.139893732481431</v>
+        <v>9.0129200917336E-03</v>
       </c>
       <c r="F1317" s="0">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G1317" s="0">
-        <v>6.13207547169811E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1318">
       <c r="A1318" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1318" s="1">
@@ -30791,22 +30791,22 @@
         </is>
       </c>
       <c r="D1318" s="0">
-        <v>955</v>
+        <v>125</v>
       </c>
       <c r="E1318" s="0">
-        <v>9.0129200917336E-03</v>
+        <v>1.17970158268764E-03</v>
       </c>
       <c r="F1318" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G1318" s="0">
-        <v>1.41509433962264E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1319">
       <c r="A1319" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1319" s="1">
@@ -30818,22 +30818,22 @@
         </is>
       </c>
       <c r="D1319" s="0">
-        <v>125</v>
+        <v>77</v>
       </c>
       <c r="E1319" s="0">
-        <v>1.17970158268764E-03</v>
+        <v>7.26696174935588E-04</v>
       </c>
       <c r="F1319" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1319" s="0">
-        <v>2.83018867924528E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1320">
       <c r="A1320" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1320" s="1">
@@ -30845,16 +30845,16 @@
         </is>
       </c>
       <c r="D1320" s="0">
-        <v>77</v>
+        <v>14823</v>
       </c>
       <c r="E1320" s="0">
-        <v>7.26696174935588E-04</v>
+        <v>0.139893732481431</v>
       </c>
       <c r="F1320" s="0">
-        <v>2</v>
+        <v>65</v>
       </c>
       <c r="G1320" s="0">
-        <v>1.88679245283019E-03</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="1321">
@@ -30881,7 +30881,7 @@
         <v>18</v>
       </c>
       <c r="G1321" s="0">
-        <v>1.69811320754717E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1322">
@@ -30908,7 +30908,7 @@
         <v>943</v>
       </c>
       <c r="G1322" s="0">
-        <v>0.889622641509434</v>
+        <v>0.889</v>
       </c>
     </row>
     <row outlineLevel="0" r="1323">
@@ -30935,7 +30935,7 @@
         <v>100</v>
       </c>
       <c r="G1323" s="0">
-        <v>9.43396226415094E-02</v>
+        <v>0.094</v>
       </c>
     </row>
     <row outlineLevel="0" r="1324">
@@ -30962,7 +30962,7 @@
         <v>17</v>
       </c>
       <c r="G1324" s="0">
-        <v>1.60377358490566E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1325">
@@ -30989,7 +30989,7 @@
         <v>456</v>
       </c>
       <c r="G1325" s="0">
-        <v>0.430188679245283</v>
+        <v>0.43</v>
       </c>
     </row>
     <row outlineLevel="0" r="1326">
@@ -31016,7 +31016,7 @@
         <v>604</v>
       </c>
       <c r="G1326" s="0">
-        <v>0.569811320754717</v>
+        <v>0.569</v>
       </c>
     </row>
     <row outlineLevel="0" r="1327">
@@ -31043,6 +31043,357 @@
         <v>0</v>
       </c>
       <c r="G1327" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1328">
+      <c r="A1328" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1328" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1328" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1328" s="0">
+        <v>46418</v>
+      </c>
+      <c r="E1328" s="0">
+        <v>0.429065296162094</v>
+      </c>
+      <c r="F1328" s="0">
+        <v>604</v>
+      </c>
+      <c r="G1328" s="0">
+        <v>0.566073102155576</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1329">
+      <c r="A1329" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1329" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1329" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1329" s="0">
+        <v>20191</v>
+      </c>
+      <c r="E1329" s="0">
+        <v>0.186635731716335</v>
+      </c>
+      <c r="F1329" s="0">
+        <v>359</v>
+      </c>
+      <c r="G1329" s="0">
+        <v>0.336457357075914</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1330">
+      <c r="A1330" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1330" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1330" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1330" s="0">
+        <v>15265</v>
+      </c>
+      <c r="E1330" s="0">
+        <v>0.141102196258227</v>
+      </c>
+      <c r="F1330" s="0">
+        <v>64</v>
+      </c>
+      <c r="G1330" s="0">
+        <v>5.99812558575445E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1331">
+      <c r="A1331" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1331" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1331" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1331" s="0">
+        <v>972</v>
+      </c>
+      <c r="E1331" s="0">
+        <v>8.98469274569252E-03</v>
+      </c>
+      <c r="F1331" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1331" s="0">
+        <v>1.49953139643861E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1332">
+      <c r="A1332" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1332" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1332" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1332" s="0">
+        <v>131</v>
+      </c>
+      <c r="E1332" s="0">
+        <v>1.21089994823634E-03</v>
+      </c>
+      <c r="F1332" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1332" s="0">
+        <v>2.8116213683224E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1333">
+      <c r="A1333" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1333" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1333" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1333" s="0">
+        <v>78</v>
+      </c>
+      <c r="E1333" s="0">
+        <v>7.20993862308659E-04</v>
+      </c>
+      <c r="F1333" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1333" s="0">
+        <v>1.87441424554827E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1334">
+      <c r="A1334" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1334" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1334" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1334" s="0">
+        <v>25129</v>
+      </c>
+      <c r="E1334" s="0">
+        <v>0.232280189307106</v>
+      </c>
+      <c r="F1334" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1334" s="0">
+        <v>1.78069353327085E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1335">
+      <c r="A1335" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1335" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1335" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1335" s="0">
+        <v>58354</v>
+      </c>
+      <c r="E1335" s="0">
+        <v>0.53939584411743</v>
+      </c>
+      <c r="F1335" s="0">
+        <v>949</v>
+      </c>
+      <c r="G1335" s="0">
+        <v>0.889409559512652</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1336">
+      <c r="A1336" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1336" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1336" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1336" s="0">
+        <v>18005</v>
+      </c>
+      <c r="E1336" s="0">
+        <v>0.166429416549582</v>
+      </c>
+      <c r="F1336" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1336" s="0">
+        <v>9.37207122774133E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1337">
+      <c r="A1337" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1337" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1337" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1337" s="0">
+        <v>31825</v>
+      </c>
+      <c r="E1337" s="0">
+        <v>0.294174739332988</v>
+      </c>
+      <c r="F1337" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1337" s="0">
+        <v>1.68697282099344E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1338">
+      <c r="A1338" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1338" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1338" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1338" s="0">
+        <v>53761</v>
+      </c>
+      <c r="E1338" s="0">
+        <v>0.496940397840716</v>
+      </c>
+      <c r="F1338" s="0">
+        <v>460</v>
+      </c>
+      <c r="G1338" s="0">
+        <v>0.431115276476101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1339">
+      <c r="A1339" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1339" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1339" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1339" s="0">
+        <v>53157</v>
+      </c>
+      <c r="E1339" s="0">
+        <v>0.491357317163351</v>
+      </c>
+      <c r="F1339" s="0">
+        <v>607</v>
+      </c>
+      <c r="G1339" s="0">
+        <v>0.568884723523899</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1340">
+      <c r="A1340" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1340" s="1">
+        <v>44044</v>
+      </c>
+      <c r="C1340" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1340" s="0">
+        <v>1266</v>
+      </c>
+      <c r="E1340" s="0">
+        <v>1.17022849959329E-02</v>
+      </c>
+      <c r="F1340" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1340" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1340</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1353</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1340"/>
+  <dimension ref="A1:G1353"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -31070,7 +31070,7 @@
         <v>604</v>
       </c>
       <c r="G1328" s="0">
-        <v>0.566073102155576</v>
+        <v>0.566</v>
       </c>
     </row>
     <row outlineLevel="0" r="1329">
@@ -31097,13 +31097,13 @@
         <v>359</v>
       </c>
       <c r="G1329" s="0">
-        <v>0.336457357075914</v>
+        <v>0.336</v>
       </c>
     </row>
     <row outlineLevel="0" r="1330">
       <c r="A1330" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1330" s="1">
@@ -31115,22 +31115,22 @@
         </is>
       </c>
       <c r="D1330" s="0">
-        <v>15265</v>
+        <v>972</v>
       </c>
       <c r="E1330" s="0">
-        <v>0.141102196258227</v>
+        <v>8.98469274569252E-03</v>
       </c>
       <c r="F1330" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G1330" s="0">
-        <v>5.99812558575445E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1331">
       <c r="A1331" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1331" s="1">
@@ -31142,22 +31142,22 @@
         </is>
       </c>
       <c r="D1331" s="0">
-        <v>972</v>
+        <v>131</v>
       </c>
       <c r="E1331" s="0">
-        <v>8.98469274569252E-03</v>
+        <v>1.21089994823634E-03</v>
       </c>
       <c r="F1331" s="0">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G1331" s="0">
-        <v>1.49953139643861E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1332">
       <c r="A1332" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1332" s="1">
@@ -31169,22 +31169,22 @@
         </is>
       </c>
       <c r="D1332" s="0">
-        <v>131</v>
+        <v>78</v>
       </c>
       <c r="E1332" s="0">
-        <v>1.21089994823634E-03</v>
+        <v>7.20993862308659E-04</v>
       </c>
       <c r="F1332" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1332" s="0">
-        <v>2.8116213683224E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1333">
       <c r="A1333" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1333" s="1">
@@ -31196,16 +31196,16 @@
         </is>
       </c>
       <c r="D1333" s="0">
-        <v>78</v>
+        <v>15265</v>
       </c>
       <c r="E1333" s="0">
-        <v>7.20993862308659E-04</v>
+        <v>0.141102196258227</v>
       </c>
       <c r="F1333" s="0">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G1333" s="0">
-        <v>1.87441424554827E-03</v>
+        <v>0.059</v>
       </c>
     </row>
     <row outlineLevel="0" r="1334">
@@ -31232,7 +31232,7 @@
         <v>19</v>
       </c>
       <c r="G1334" s="0">
-        <v>1.78069353327085E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="1335">
@@ -31259,7 +31259,7 @@
         <v>949</v>
       </c>
       <c r="G1335" s="0">
-        <v>0.889409559512652</v>
+        <v>0.889</v>
       </c>
     </row>
     <row outlineLevel="0" r="1336">
@@ -31286,7 +31286,7 @@
         <v>100</v>
       </c>
       <c r="G1336" s="0">
-        <v>9.37207122774133E-02</v>
+        <v>0.093</v>
       </c>
     </row>
     <row outlineLevel="0" r="1337">
@@ -31313,7 +31313,7 @@
         <v>18</v>
       </c>
       <c r="G1337" s="0">
-        <v>1.68697282099344E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1338">
@@ -31340,7 +31340,7 @@
         <v>460</v>
       </c>
       <c r="G1338" s="0">
-        <v>0.431115276476101</v>
+        <v>0.431</v>
       </c>
     </row>
     <row outlineLevel="0" r="1339">
@@ -31367,7 +31367,7 @@
         <v>607</v>
       </c>
       <c r="G1339" s="0">
-        <v>0.568884723523899</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="1340">
@@ -31394,6 +31394,357 @@
         <v>0</v>
       </c>
       <c r="G1340" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1341">
+      <c r="A1341" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1341" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1341" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1341" s="0">
+        <v>47067</v>
+      </c>
+      <c r="E1341" s="0">
+        <v>0.429337663166921</v>
+      </c>
+      <c r="F1341" s="0">
+        <v>610</v>
+      </c>
+      <c r="G1341" s="0">
+        <v>0.568499534016775</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1342">
+      <c r="A1342" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1342" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1342" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1342" s="0">
+        <v>20401</v>
+      </c>
+      <c r="E1342" s="0">
+        <v>0.186094666459905</v>
+      </c>
+      <c r="F1342" s="0">
+        <v>359</v>
+      </c>
+      <c r="G1342" s="0">
+        <v>0.33457595526561</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1343">
+      <c r="A1343" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1343" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1343" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1343" s="0">
+        <v>15253</v>
+      </c>
+      <c r="E1343" s="0">
+        <v>0.139135431964753</v>
+      </c>
+      <c r="F1343" s="0">
+        <v>64</v>
+      </c>
+      <c r="G1343" s="0">
+        <v>0.059645852749301</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1344">
+      <c r="A1344" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1344" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1344" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1344" s="0">
+        <v>983</v>
+      </c>
+      <c r="E1344" s="0">
+        <v>8.96676913534075E-03</v>
+      </c>
+      <c r="F1344" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1344" s="0">
+        <v>1.49114631873253E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1345">
+      <c r="A1345" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1345" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1345" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1345" s="0">
+        <v>133</v>
+      </c>
+      <c r="E1345" s="0">
+        <v>1.21320477619565E-03</v>
+      </c>
+      <c r="F1345" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1345" s="0">
+        <v>2.79589934762349E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1346">
+      <c r="A1346" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1346" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1346" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1346" s="0">
+        <v>80</v>
+      </c>
+      <c r="E1346" s="0">
+        <v>7.29747233801892E-04</v>
+      </c>
+      <c r="F1346" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1346" s="0">
+        <v>1.86393289841566E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1347">
+      <c r="A1347" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1347" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1347" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1347" s="0">
+        <v>25710</v>
+      </c>
+      <c r="E1347" s="0">
+        <v>0.234522517263083</v>
+      </c>
+      <c r="F1347" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1347" s="0">
+        <v>1.77073625349487E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1348">
+      <c r="A1348" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1348" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1348" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1348" s="0">
+        <v>59028</v>
+      </c>
+      <c r="E1348" s="0">
+        <v>0.538443996460726</v>
+      </c>
+      <c r="F1348" s="0">
+        <v>955</v>
+      </c>
+      <c r="G1348" s="0">
+        <v>0.890027958993476</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1349">
+      <c r="A1349" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1349" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1349" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1349" s="0">
+        <v>18101</v>
+      </c>
+      <c r="E1349" s="0">
+        <v>0.165114433488101</v>
+      </c>
+      <c r="F1349" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1349" s="0">
+        <v>9.31966449207828E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1350">
+      <c r="A1350" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1350" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1350" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1350" s="0">
+        <v>32498</v>
+      </c>
+      <c r="E1350" s="0">
+        <v>0.296441570051173</v>
+      </c>
+      <c r="F1350" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1350" s="0">
+        <v>1.67753960857409E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1351">
+      <c r="A1351" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1351" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1351" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1351" s="0">
+        <v>54548</v>
+      </c>
+      <c r="E1351" s="0">
+        <v>0.49757815136782</v>
+      </c>
+      <c r="F1351" s="0">
+        <v>464</v>
+      </c>
+      <c r="G1351" s="0">
+        <v>0.432432432432432</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1352">
+      <c r="A1352" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1352" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1352" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1352" s="0">
+        <v>53805</v>
+      </c>
+      <c r="E1352" s="0">
+        <v>0.490800623933885</v>
+      </c>
+      <c r="F1352" s="0">
+        <v>609</v>
+      </c>
+      <c r="G1352" s="0">
+        <v>0.567567567567568</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1353">
+      <c r="A1353" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1353" s="1">
+        <v>44045</v>
+      </c>
+      <c r="C1353" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1353" s="0">
+        <v>1274</v>
+      </c>
+      <c r="E1353" s="0">
+        <v>1.16212246982951E-02</v>
+      </c>
+      <c r="F1353" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1353" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1353</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1366</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1353"/>
+  <dimension ref="A1:G1366"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -31421,7 +31421,7 @@
         <v>610</v>
       </c>
       <c r="G1341" s="0">
-        <v>0.568499534016775</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="1342">
@@ -31448,13 +31448,13 @@
         <v>359</v>
       </c>
       <c r="G1342" s="0">
-        <v>0.33457595526561</v>
+        <v>0.334</v>
       </c>
     </row>
     <row outlineLevel="0" r="1343">
       <c r="A1343" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1343" s="1">
@@ -31466,22 +31466,22 @@
         </is>
       </c>
       <c r="D1343" s="0">
-        <v>15253</v>
+        <v>983</v>
       </c>
       <c r="E1343" s="0">
-        <v>0.139135431964753</v>
+        <v>8.96676913534075E-03</v>
       </c>
       <c r="F1343" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G1343" s="0">
-        <v>0.059645852749301</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1344">
       <c r="A1344" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1344" s="1">
@@ -31493,22 +31493,22 @@
         </is>
       </c>
       <c r="D1344" s="0">
-        <v>983</v>
+        <v>133</v>
       </c>
       <c r="E1344" s="0">
-        <v>8.96676913534075E-03</v>
+        <v>1.21320477619565E-03</v>
       </c>
       <c r="F1344" s="0">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G1344" s="0">
-        <v>1.49114631873253E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1345">
       <c r="A1345" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1345" s="1">
@@ -31520,22 +31520,22 @@
         </is>
       </c>
       <c r="D1345" s="0">
-        <v>133</v>
+        <v>80</v>
       </c>
       <c r="E1345" s="0">
-        <v>1.21320477619565E-03</v>
+        <v>7.29747233801892E-04</v>
       </c>
       <c r="F1345" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1345" s="0">
-        <v>2.79589934762349E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1346">
       <c r="A1346" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1346" s="1">
@@ -31547,16 +31547,16 @@
         </is>
       </c>
       <c r="D1346" s="0">
-        <v>80</v>
+        <v>15253</v>
       </c>
       <c r="E1346" s="0">
-        <v>7.29747233801892E-04</v>
+        <v>0.139135431964753</v>
       </c>
       <c r="F1346" s="0">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G1346" s="0">
-        <v>1.86393289841566E-03</v>
+        <v>0.059</v>
       </c>
     </row>
     <row outlineLevel="0" r="1347">
@@ -31583,7 +31583,7 @@
         <v>19</v>
       </c>
       <c r="G1347" s="0">
-        <v>1.77073625349487E-02</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="1348">
@@ -31610,7 +31610,7 @@
         <v>955</v>
       </c>
       <c r="G1348" s="0">
-        <v>0.890027958993476</v>
+        <v>0.89</v>
       </c>
     </row>
     <row outlineLevel="0" r="1349">
@@ -31637,7 +31637,7 @@
         <v>100</v>
       </c>
       <c r="G1349" s="0">
-        <v>9.31966449207828E-02</v>
+        <v>0.093</v>
       </c>
     </row>
     <row outlineLevel="0" r="1350">
@@ -31664,7 +31664,7 @@
         <v>18</v>
       </c>
       <c r="G1350" s="0">
-        <v>1.67753960857409E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1351">
@@ -31691,7 +31691,7 @@
         <v>464</v>
       </c>
       <c r="G1351" s="0">
-        <v>0.432432432432432</v>
+        <v>0.432</v>
       </c>
     </row>
     <row outlineLevel="0" r="1352">
@@ -31718,7 +31718,7 @@
         <v>609</v>
       </c>
       <c r="G1352" s="0">
-        <v>0.567567567567568</v>
+        <v>0.567</v>
       </c>
     </row>
     <row outlineLevel="0" r="1353">
@@ -31745,6 +31745,357 @@
         <v>0</v>
       </c>
       <c r="G1353" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1354">
+      <c r="A1354" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1354" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1354" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1354" s="0">
+        <v>47702</v>
+      </c>
+      <c r="E1354" s="0">
+        <v>0.431161647203442</v>
+      </c>
+      <c r="F1354" s="0">
+        <v>622</v>
+      </c>
+      <c r="G1354" s="0">
+        <v>0.56959706959707</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1355">
+      <c r="A1355" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1355" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1355" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1355" s="0">
+        <v>20564</v>
+      </c>
+      <c r="E1355" s="0">
+        <v>0.185870783470118</v>
+      </c>
+      <c r="F1355" s="0">
+        <v>364</v>
+      </c>
+      <c r="G1355" s="0">
+        <v>0.333333333333333</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1356">
+      <c r="A1356" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1356" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1356" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1356" s="0">
+        <v>15282</v>
+      </c>
+      <c r="E1356" s="0">
+        <v>0.138128638056329</v>
+      </c>
+      <c r="F1356" s="0">
+        <v>64</v>
+      </c>
+      <c r="G1356" s="0">
+        <v>5.86080586080586E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1357">
+      <c r="A1357" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1357" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1357" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1357" s="0">
+        <v>988</v>
+      </c>
+      <c r="E1357" s="0">
+        <v>8.9301854730829E-03</v>
+      </c>
+      <c r="F1357" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1357" s="0">
+        <v>1.46520146520147E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1358">
+      <c r="A1358" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1358" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1358" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1358" s="0">
+        <v>134</v>
+      </c>
+      <c r="E1358" s="0">
+        <v>1.21117900141003E-03</v>
+      </c>
+      <c r="F1358" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1358" s="0">
+        <v>2.74725274725275E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1359">
+      <c r="A1359" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1359" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1359" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1359" s="0">
+        <v>81</v>
+      </c>
+      <c r="E1359" s="0">
+        <v>7.3213059040457E-04</v>
+      </c>
+      <c r="F1359" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1359" s="0">
+        <v>1.83150183150183E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1360">
+      <c r="A1360" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1360" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1360" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1360" s="0">
+        <v>25885</v>
+      </c>
+      <c r="E1360" s="0">
+        <v>0.233965436205213</v>
+      </c>
+      <c r="F1360" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1360" s="0">
+        <v>1.92307692307692E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1361">
+      <c r="A1361" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1361" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1361" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1361" s="0">
+        <v>59628</v>
+      </c>
+      <c r="E1361" s="0">
+        <v>0.538956578328935</v>
+      </c>
+      <c r="F1361" s="0">
+        <v>970</v>
+      </c>
+      <c r="G1361" s="0">
+        <v>0.888278388278388</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1362">
+      <c r="A1362" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1362" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1362" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1362" s="0">
+        <v>18171</v>
+      </c>
+      <c r="E1362" s="0">
+        <v>0.164241295780759</v>
+      </c>
+      <c r="F1362" s="0">
+        <v>101</v>
+      </c>
+      <c r="G1362" s="0">
+        <v>9.24908424908425E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1363">
+      <c r="A1363" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1363" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1363" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1363" s="0">
+        <v>32837</v>
+      </c>
+      <c r="E1363" s="0">
+        <v>0.296802125890307</v>
+      </c>
+      <c r="F1363" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1363" s="0">
+        <v>1.92307692307692E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1364">
+      <c r="A1364" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1364" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1364" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1364" s="0">
+        <v>55092</v>
+      </c>
+      <c r="E1364" s="0">
+        <v>0.497957265266279</v>
+      </c>
+      <c r="F1364" s="0">
+        <v>470</v>
+      </c>
+      <c r="G1364" s="0">
+        <v>0.43040293040293</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1365">
+      <c r="A1365" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1365" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1365" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1365" s="0">
+        <v>54250</v>
+      </c>
+      <c r="E1365" s="0">
+        <v>0.490346722585777</v>
+      </c>
+      <c r="F1365" s="0">
+        <v>622</v>
+      </c>
+      <c r="G1365" s="0">
+        <v>0.56959706959707</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1366">
+      <c r="A1366" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1366" s="1">
+        <v>44046</v>
+      </c>
+      <c r="C1366" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1366" s="0">
+        <v>1294</v>
+      </c>
+      <c r="E1366" s="0">
+        <v>1.16960121479446E-02</v>
+      </c>
+      <c r="F1366" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1366" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1366</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1379</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1366"/>
+  <dimension ref="A1:G1379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -31772,7 +31772,7 @@
         <v>622</v>
       </c>
       <c r="G1354" s="0">
-        <v>0.56959706959707</v>
+        <v>0.569</v>
       </c>
     </row>
     <row outlineLevel="0" r="1355">
@@ -31799,13 +31799,13 @@
         <v>364</v>
       </c>
       <c r="G1355" s="0">
-        <v>0.333333333333333</v>
+        <v>0.333</v>
       </c>
     </row>
     <row outlineLevel="0" r="1356">
       <c r="A1356" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1356" s="1">
@@ -31817,22 +31817,22 @@
         </is>
       </c>
       <c r="D1356" s="0">
-        <v>15282</v>
+        <v>988</v>
       </c>
       <c r="E1356" s="0">
-        <v>0.138128638056329</v>
+        <v>8.9301854730829E-03</v>
       </c>
       <c r="F1356" s="0">
-        <v>64</v>
+        <v>16</v>
       </c>
       <c r="G1356" s="0">
-        <v>5.86080586080586E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1357">
       <c r="A1357" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1357" s="1">
@@ -31844,22 +31844,22 @@
         </is>
       </c>
       <c r="D1357" s="0">
-        <v>988</v>
+        <v>134</v>
       </c>
       <c r="E1357" s="0">
-        <v>8.9301854730829E-03</v>
+        <v>1.21117900141003E-03</v>
       </c>
       <c r="F1357" s="0">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="G1357" s="0">
-        <v>1.46520146520147E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1358">
       <c r="A1358" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1358" s="1">
@@ -31871,22 +31871,22 @@
         </is>
       </c>
       <c r="D1358" s="0">
-        <v>134</v>
+        <v>81</v>
       </c>
       <c r="E1358" s="0">
-        <v>1.21117900141003E-03</v>
+        <v>7.3213059040457E-04</v>
       </c>
       <c r="F1358" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1358" s="0">
-        <v>2.74725274725275E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1359">
       <c r="A1359" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1359" s="1">
@@ -31898,16 +31898,16 @@
         </is>
       </c>
       <c r="D1359" s="0">
-        <v>81</v>
+        <v>15282</v>
       </c>
       <c r="E1359" s="0">
-        <v>7.3213059040457E-04</v>
+        <v>0.138128638056329</v>
       </c>
       <c r="F1359" s="0">
-        <v>2</v>
+        <v>64</v>
       </c>
       <c r="G1359" s="0">
-        <v>1.83150183150183E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="1360">
@@ -31934,7 +31934,7 @@
         <v>21</v>
       </c>
       <c r="G1360" s="0">
-        <v>1.92307692307692E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="1361">
@@ -31961,7 +31961,7 @@
         <v>970</v>
       </c>
       <c r="G1361" s="0">
-        <v>0.888278388278388</v>
+        <v>0.888</v>
       </c>
     </row>
     <row outlineLevel="0" r="1362">
@@ -31988,7 +31988,7 @@
         <v>101</v>
       </c>
       <c r="G1362" s="0">
-        <v>9.24908424908425E-02</v>
+        <v>0.092</v>
       </c>
     </row>
     <row outlineLevel="0" r="1363">
@@ -32015,7 +32015,7 @@
         <v>21</v>
       </c>
       <c r="G1363" s="0">
-        <v>1.92307692307692E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="1364">
@@ -32042,7 +32042,7 @@
         <v>470</v>
       </c>
       <c r="G1364" s="0">
-        <v>0.43040293040293</v>
+        <v>0.43</v>
       </c>
     </row>
     <row outlineLevel="0" r="1365">
@@ -32069,7 +32069,7 @@
         <v>622</v>
       </c>
       <c r="G1365" s="0">
-        <v>0.56959706959707</v>
+        <v>0.569</v>
       </c>
     </row>
     <row outlineLevel="0" r="1366">
@@ -32096,6 +32096,357 @@
         <v>0</v>
       </c>
       <c r="G1366" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1367">
+      <c r="A1367" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1367" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1367" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1367" s="0">
+        <v>48849</v>
+      </c>
+      <c r="E1367" s="0">
+        <v>0.434441173593262</v>
+      </c>
+      <c r="F1367" s="0">
+        <v>638</v>
+      </c>
+      <c r="G1367" s="0">
+        <v>0.571172784243509</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1368">
+      <c r="A1368" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1368" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1368" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1368" s="0">
+        <v>20847</v>
+      </c>
+      <c r="E1368" s="0">
+        <v>0.185403900712374</v>
+      </c>
+      <c r="F1368" s="0">
+        <v>372</v>
+      </c>
+      <c r="G1368" s="0">
+        <v>0.333034914950761</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1369">
+      <c r="A1369" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1369" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1369" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1369" s="0">
+        <v>15900</v>
+      </c>
+      <c r="E1369" s="0">
+        <v>0.141407493707811</v>
+      </c>
+      <c r="F1369" s="0">
+        <v>67</v>
+      </c>
+      <c r="G1369" s="0">
+        <v>5.99820948970457E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1370">
+      <c r="A1370" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1370" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1370" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1370" s="0">
+        <v>998</v>
+      </c>
+      <c r="E1370" s="0">
+        <v>8.87576595725758E-03</v>
+      </c>
+      <c r="F1370" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1370" s="0">
+        <v>1.34288272157565E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1371">
+      <c r="A1371" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1371" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1371" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1371" s="0">
+        <v>138</v>
+      </c>
+      <c r="E1371" s="0">
+        <v>1.22731032274704E-03</v>
+      </c>
+      <c r="F1371" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1371" s="0">
+        <v>2.6857654431513E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1372">
+      <c r="A1372" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1372" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1372" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1372" s="0">
+        <v>82</v>
+      </c>
+      <c r="E1372" s="0">
+        <v>7.29271351197517E-04</v>
+      </c>
+      <c r="F1372" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1372" s="0">
+        <v>1.7905102954342E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1373">
+      <c r="A1373" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1373" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1373" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1373" s="0">
+        <v>25627</v>
+      </c>
+      <c r="E1373" s="0">
+        <v>0.227915084355351</v>
+      </c>
+      <c r="F1373" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1373" s="0">
+        <v>0.017905102954342</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1374">
+      <c r="A1374" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1374" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1374" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1374" s="0">
+        <v>60903</v>
+      </c>
+      <c r="E1374" s="0">
+        <v>0.541644062219297</v>
+      </c>
+      <c r="F1374" s="0">
+        <v>992</v>
+      </c>
+      <c r="G1374" s="0">
+        <v>0.888093106535363</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1375">
+      <c r="A1375" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1375" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1375" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1375" s="0">
+        <v>18388</v>
+      </c>
+      <c r="E1375" s="0">
+        <v>0.163534653729511</v>
+      </c>
+      <c r="F1375" s="0">
+        <v>103</v>
+      </c>
+      <c r="G1375" s="0">
+        <v>9.22112802148612E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1376">
+      <c r="A1376" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1376" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1376" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1376" s="0">
+        <v>33150</v>
+      </c>
+      <c r="E1376" s="0">
+        <v>0.294821284051191</v>
+      </c>
+      <c r="F1376" s="0">
+        <v>22</v>
+      </c>
+      <c r="G1376" s="0">
+        <v>1.96956132497762E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1377">
+      <c r="A1377" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1377" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1377" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1377" s="0">
+        <v>56029</v>
+      </c>
+      <c r="E1377" s="0">
+        <v>0.498296884588362</v>
+      </c>
+      <c r="F1377" s="0">
+        <v>481</v>
+      </c>
+      <c r="G1377" s="0">
+        <v>0.430617726051925</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1378">
+      <c r="A1378" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1378" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1378" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1378" s="0">
+        <v>55094</v>
+      </c>
+      <c r="E1378" s="0">
+        <v>0.489981412474098</v>
+      </c>
+      <c r="F1378" s="0">
+        <v>636</v>
+      </c>
+      <c r="G1378" s="0">
+        <v>0.569382273948075</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1379">
+      <c r="A1379" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1379" s="1">
+        <v>44047</v>
+      </c>
+      <c r="C1379" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1379" s="0">
+        <v>1318</v>
+      </c>
+      <c r="E1379" s="0">
+        <v>1.17217029375406E-02</v>
+      </c>
+      <c r="F1379" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1379" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1379</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1392</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1379"/>
+  <dimension ref="A1:G1392"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -32123,7 +32123,7 @@
         <v>638</v>
       </c>
       <c r="G1367" s="0">
-        <v>0.571172784243509</v>
+        <v>0.571</v>
       </c>
     </row>
     <row outlineLevel="0" r="1368">
@@ -32150,13 +32150,13 @@
         <v>372</v>
       </c>
       <c r="G1368" s="0">
-        <v>0.333034914950761</v>
+        <v>0.333</v>
       </c>
     </row>
     <row outlineLevel="0" r="1369">
       <c r="A1369" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1369" s="1">
@@ -32168,22 +32168,22 @@
         </is>
       </c>
       <c r="D1369" s="0">
-        <v>15900</v>
+        <v>998</v>
       </c>
       <c r="E1369" s="0">
-        <v>0.141407493707811</v>
+        <v>8.87576595725758E-03</v>
       </c>
       <c r="F1369" s="0">
-        <v>67</v>
+        <v>15</v>
       </c>
       <c r="G1369" s="0">
-        <v>5.99820948970457E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1370">
       <c r="A1370" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1370" s="1">
@@ -32195,22 +32195,22 @@
         </is>
       </c>
       <c r="D1370" s="0">
-        <v>998</v>
+        <v>138</v>
       </c>
       <c r="E1370" s="0">
-        <v>8.87576595725758E-03</v>
+        <v>1.22731032274704E-03</v>
       </c>
       <c r="F1370" s="0">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="G1370" s="0">
-        <v>1.34288272157565E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1371">
       <c r="A1371" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1371" s="1">
@@ -32222,22 +32222,22 @@
         </is>
       </c>
       <c r="D1371" s="0">
-        <v>138</v>
+        <v>82</v>
       </c>
       <c r="E1371" s="0">
-        <v>1.22731032274704E-03</v>
+        <v>7.29271351197517E-04</v>
       </c>
       <c r="F1371" s="0">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G1371" s="0">
-        <v>2.6857654431513E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1372">
       <c r="A1372" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1372" s="1">
@@ -32249,16 +32249,16 @@
         </is>
       </c>
       <c r="D1372" s="0">
-        <v>82</v>
+        <v>15900</v>
       </c>
       <c r="E1372" s="0">
-        <v>7.29271351197517E-04</v>
+        <v>0.141407493707811</v>
       </c>
       <c r="F1372" s="0">
-        <v>2</v>
+        <v>67</v>
       </c>
       <c r="G1372" s="0">
-        <v>1.7905102954342E-03</v>
+        <v>0.059</v>
       </c>
     </row>
     <row outlineLevel="0" r="1373">
@@ -32285,7 +32285,7 @@
         <v>20</v>
       </c>
       <c r="G1373" s="0">
-        <v>0.017905102954342</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="1374">
@@ -32312,7 +32312,7 @@
         <v>992</v>
       </c>
       <c r="G1374" s="0">
-        <v>0.888093106535363</v>
+        <v>0.888</v>
       </c>
     </row>
     <row outlineLevel="0" r="1375">
@@ -32339,7 +32339,7 @@
         <v>103</v>
       </c>
       <c r="G1375" s="0">
-        <v>9.22112802148612E-02</v>
+        <v>0.092</v>
       </c>
     </row>
     <row outlineLevel="0" r="1376">
@@ -32366,7 +32366,7 @@
         <v>22</v>
       </c>
       <c r="G1376" s="0">
-        <v>1.96956132497762E-02</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="1377">
@@ -32393,7 +32393,7 @@
         <v>481</v>
       </c>
       <c r="G1377" s="0">
-        <v>0.430617726051925</v>
+        <v>0.43</v>
       </c>
     </row>
     <row outlineLevel="0" r="1378">
@@ -32420,7 +32420,7 @@
         <v>636</v>
       </c>
       <c r="G1378" s="0">
-        <v>0.569382273948075</v>
+        <v>0.569</v>
       </c>
     </row>
     <row outlineLevel="0" r="1379">
@@ -32447,6 +32447,357 @@
         <v>0</v>
       </c>
       <c r="G1379" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1380">
+      <c r="A1380" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1380" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1380" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1380" s="0">
+        <v>51004</v>
+      </c>
+      <c r="E1380" s="0">
+        <v>0.44701922908377</v>
+      </c>
+      <c r="F1380" s="0">
+        <v>661</v>
+      </c>
+      <c r="G1380" s="0">
+        <v>0.577797202797203</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1381">
+      <c r="A1381" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1381" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1381" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1381" s="0">
+        <v>22003</v>
+      </c>
+      <c r="E1381" s="0">
+        <v>0.192842994618661</v>
+      </c>
+      <c r="F1381" s="0">
+        <v>384</v>
+      </c>
+      <c r="G1381" s="0">
+        <v>0.335664335664336</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1382">
+      <c r="A1382" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1382" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1382" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1382" s="0">
+        <v>16183</v>
+      </c>
+      <c r="E1382" s="0">
+        <v>0.14183421269435</v>
+      </c>
+      <c r="F1382" s="0">
+        <v>70</v>
+      </c>
+      <c r="G1382" s="0">
+        <v>6.11888111888112E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1383">
+      <c r="A1383" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1383" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1383" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1383" s="0">
+        <v>1015</v>
+      </c>
+      <c r="E1383" s="0">
+        <v>8.89586145243563E-03</v>
+      </c>
+      <c r="F1383" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1383" s="0">
+        <v>1.31118881118881E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1384">
+      <c r="A1384" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1384" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1384" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1384" s="0">
+        <v>142</v>
+      </c>
+      <c r="E1384" s="0">
+        <v>1.24454416378902E-03</v>
+      </c>
+      <c r="F1384" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1384" s="0">
+        <v>3.4965034965035E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1385">
+      <c r="A1385" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1385" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1385" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1385" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1385" s="0">
+        <v>7.27444828130204E-04</v>
+      </c>
+      <c r="F1385" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1385" s="0">
+        <v>1.74825174825175E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1386">
+      <c r="A1386" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1386" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1386" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1386" s="0">
+        <v>23668</v>
+      </c>
+      <c r="E1386" s="0">
+        <v>0.207435713158863</v>
+      </c>
+      <c r="F1386" s="0">
+        <v>8</v>
+      </c>
+      <c r="G1386" s="0">
+        <v>6.99300699300699E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1387">
+      <c r="A1387" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1387" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1387" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1387" s="0">
+        <v>62165</v>
+      </c>
+      <c r="E1387" s="0">
+        <v>0.544838647478483</v>
+      </c>
+      <c r="F1387" s="0">
+        <v>1033</v>
+      </c>
+      <c r="G1387" s="0">
+        <v>0.902972027972028</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1388">
+      <c r="A1388" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1388" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1388" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1388" s="0">
+        <v>18536</v>
+      </c>
+      <c r="E1388" s="0">
+        <v>0.162456835352066</v>
+      </c>
+      <c r="F1388" s="0">
+        <v>104</v>
+      </c>
+      <c r="G1388" s="0">
+        <v>9.09090909090909E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1389">
+      <c r="A1389" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1389" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1389" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1389" s="0">
+        <v>33397</v>
+      </c>
+      <c r="E1389" s="0">
+        <v>0.292704517169451</v>
+      </c>
+      <c r="F1389" s="0">
+        <v>7</v>
+      </c>
+      <c r="G1389" s="0">
+        <v>6.11888111888112E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1390">
+      <c r="A1390" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1390" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1390" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1390" s="0">
+        <v>56896</v>
+      </c>
+      <c r="E1390" s="0">
+        <v>0.498659047485495</v>
+      </c>
+      <c r="F1390" s="0">
+        <v>491</v>
+      </c>
+      <c r="G1390" s="0">
+        <v>0.429195804195804</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1391">
+      <c r="A1391" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1391" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1391" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1391" s="0">
+        <v>55891</v>
+      </c>
+      <c r="E1391" s="0">
+        <v>0.489850829988256</v>
+      </c>
+      <c r="F1391" s="0">
+        <v>653</v>
+      </c>
+      <c r="G1391" s="0">
+        <v>0.570804195804196</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1392">
+      <c r="A1392" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1392" s="1">
+        <v>44048</v>
+      </c>
+      <c r="C1392" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1392" s="0">
+        <v>1311</v>
+      </c>
+      <c r="E1392" s="0">
+        <v>1.14901225262494E-02</v>
+      </c>
+      <c r="F1392" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1392" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1392</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1405</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1392"/>
+  <dimension ref="A1:G1405"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -32474,7 +32474,7 @@
         <v>661</v>
       </c>
       <c r="G1380" s="0">
-        <v>0.577797202797203</v>
+        <v>0.577</v>
       </c>
     </row>
     <row outlineLevel="0" r="1381">
@@ -32501,13 +32501,13 @@
         <v>384</v>
       </c>
       <c r="G1381" s="0">
-        <v>0.335664335664336</v>
+        <v>0.335</v>
       </c>
     </row>
     <row outlineLevel="0" r="1382">
       <c r="A1382" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1382" s="1">
@@ -32519,22 +32519,22 @@
         </is>
       </c>
       <c r="D1382" s="0">
-        <v>16183</v>
+        <v>1015</v>
       </c>
       <c r="E1382" s="0">
-        <v>0.14183421269435</v>
+        <v>8.89586145243563E-03</v>
       </c>
       <c r="F1382" s="0">
-        <v>70</v>
+        <v>15</v>
       </c>
       <c r="G1382" s="0">
-        <v>6.11888111888112E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1383">
       <c r="A1383" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1383" s="1">
@@ -32546,22 +32546,22 @@
         </is>
       </c>
       <c r="D1383" s="0">
-        <v>1015</v>
+        <v>142</v>
       </c>
       <c r="E1383" s="0">
-        <v>8.89586145243563E-03</v>
+        <v>1.24454416378902E-03</v>
       </c>
       <c r="F1383" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1383" s="0">
-        <v>1.31118881118881E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1384">
       <c r="A1384" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1384" s="1">
@@ -32573,22 +32573,22 @@
         </is>
       </c>
       <c r="D1384" s="0">
-        <v>142</v>
+        <v>83</v>
       </c>
       <c r="E1384" s="0">
-        <v>1.24454416378902E-03</v>
+        <v>7.27444828130204E-04</v>
       </c>
       <c r="F1384" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1384" s="0">
-        <v>3.4965034965035E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1385">
       <c r="A1385" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1385" s="1">
@@ -32600,16 +32600,16 @@
         </is>
       </c>
       <c r="D1385" s="0">
-        <v>83</v>
+        <v>16183</v>
       </c>
       <c r="E1385" s="0">
-        <v>7.27444828130204E-04</v>
+        <v>0.14183421269435</v>
       </c>
       <c r="F1385" s="0">
-        <v>2</v>
+        <v>70</v>
       </c>
       <c r="G1385" s="0">
-        <v>1.74825174825175E-03</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="1386">
@@ -32636,7 +32636,7 @@
         <v>8</v>
       </c>
       <c r="G1386" s="0">
-        <v>6.99300699300699E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1387">
@@ -32663,7 +32663,7 @@
         <v>1033</v>
       </c>
       <c r="G1387" s="0">
-        <v>0.902972027972028</v>
+        <v>0.902</v>
       </c>
     </row>
     <row outlineLevel="0" r="1388">
@@ -32690,7 +32690,7 @@
         <v>104</v>
       </c>
       <c r="G1388" s="0">
-        <v>9.09090909090909E-02</v>
+        <v>0.09</v>
       </c>
     </row>
     <row outlineLevel="0" r="1389">
@@ -32717,7 +32717,7 @@
         <v>7</v>
       </c>
       <c r="G1389" s="0">
-        <v>6.11888111888112E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1390">
@@ -32744,7 +32744,7 @@
         <v>491</v>
       </c>
       <c r="G1390" s="0">
-        <v>0.429195804195804</v>
+        <v>0.429</v>
       </c>
     </row>
     <row outlineLevel="0" r="1391">
@@ -32771,7 +32771,7 @@
         <v>653</v>
       </c>
       <c r="G1391" s="0">
-        <v>0.570804195804196</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1392">
@@ -32798,6 +32798,357 @@
         <v>0</v>
       </c>
       <c r="G1392" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1393">
+      <c r="A1393" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1393" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1393" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1393" s="0">
+        <v>52258</v>
+      </c>
+      <c r="E1393" s="0">
+        <v>0.449144821658788</v>
+      </c>
+      <c r="F1393" s="0">
+        <v>689</v>
+      </c>
+      <c r="G1393" s="0">
+        <v>0.580944350758853</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1394">
+      <c r="A1394" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1394" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1394" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1394" s="0">
+        <v>22345</v>
+      </c>
+      <c r="E1394" s="0">
+        <v>0.192049849591749</v>
+      </c>
+      <c r="F1394" s="0">
+        <v>394</v>
+      </c>
+      <c r="G1394" s="0">
+        <v>0.33220910623946</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1395">
+      <c r="A1395" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1395" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1395" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1395" s="0">
+        <v>16548</v>
+      </c>
+      <c r="E1395" s="0">
+        <v>0.14222604211431</v>
+      </c>
+      <c r="F1395" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1395" s="0">
+        <v>0.06070826306914</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1396">
+      <c r="A1396" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1396" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1396" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1396" s="0">
+        <v>1039</v>
+      </c>
+      <c r="E1396" s="0">
+        <v>8.92995272883541E-03</v>
+      </c>
+      <c r="F1396" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1396" s="0">
+        <v>1.26475548060708E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1397">
+      <c r="A1397" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1397" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1397" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1397" s="0">
+        <v>143</v>
+      </c>
+      <c r="E1397" s="0">
+        <v>1.22905027932961E-03</v>
+      </c>
+      <c r="F1397" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1397" s="0">
+        <v>3.37268128161889E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1398">
+      <c r="A1398" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1398" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1398" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1398" s="0">
+        <v>82</v>
+      </c>
+      <c r="E1398" s="0">
+        <v>7.04770090244951E-04</v>
+      </c>
+      <c r="F1398" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1398" s="0">
+        <v>1.68634064080944E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1399">
+      <c r="A1399" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1399" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1399" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1399" s="0">
+        <v>23935</v>
+      </c>
+      <c r="E1399" s="0">
+        <v>0.205715513536743</v>
+      </c>
+      <c r="F1399" s="0">
+        <v>10</v>
+      </c>
+      <c r="G1399" s="0">
+        <v>8.43170320404722E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1400">
+      <c r="A1400" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1400" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1400" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1400" s="0">
+        <v>63488</v>
+      </c>
+      <c r="E1400" s="0">
+        <v>0.545663944993554</v>
+      </c>
+      <c r="F1400" s="0">
+        <v>1069</v>
+      </c>
+      <c r="G1400" s="0">
+        <v>0.901349072512648</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1401">
+      <c r="A1401" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1401" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1401" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1401" s="0">
+        <v>18733</v>
+      </c>
+      <c r="E1401" s="0">
+        <v>0.161005586592179</v>
+      </c>
+      <c r="F1401" s="0">
+        <v>105</v>
+      </c>
+      <c r="G1401" s="0">
+        <v>8.85328836424958E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1402">
+      <c r="A1402" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1402" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1402" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1402" s="0">
+        <v>34129</v>
+      </c>
+      <c r="E1402" s="0">
+        <v>0.293330468414267</v>
+      </c>
+      <c r="F1402" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1402" s="0">
+        <v>1.01180438448567E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1403">
+      <c r="A1403" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1403" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1403" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1403" s="0">
+        <v>58094</v>
+      </c>
+      <c r="E1403" s="0">
+        <v>0.499303824666953</v>
+      </c>
+      <c r="F1403" s="0">
+        <v>511</v>
+      </c>
+      <c r="G1403" s="0">
+        <v>0.430860033726813</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1404">
+      <c r="A1404" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1404" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1404" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1404" s="0">
+        <v>56936</v>
+      </c>
+      <c r="E1404" s="0">
+        <v>0.489351095831543</v>
+      </c>
+      <c r="F1404" s="0">
+        <v>675</v>
+      </c>
+      <c r="G1404" s="0">
+        <v>0.569139966273187</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1405">
+      <c r="A1405" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1405" s="1">
+        <v>44049</v>
+      </c>
+      <c r="C1405" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1405" s="0">
+        <v>1320</v>
+      </c>
+      <c r="E1405" s="0">
+        <v>1.13450795015041E-02</v>
+      </c>
+      <c r="F1405" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1405" s="0">
         <v>0</v>
       </c>
     </row>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1405</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1444</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1405"/>
+  <dimension ref="A1:G1444"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -32825,7 +32825,7 @@
         <v>689</v>
       </c>
       <c r="G1393" s="0">
-        <v>0.580944350758853</v>
+        <v>0.58</v>
       </c>
     </row>
     <row outlineLevel="0" r="1394">
@@ -32852,13 +32852,13 @@
         <v>394</v>
       </c>
       <c r="G1394" s="0">
-        <v>0.33220910623946</v>
+        <v>0.332</v>
       </c>
     </row>
     <row outlineLevel="0" r="1395">
       <c r="A1395" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1395" s="1">
@@ -32870,22 +32870,22 @@
         </is>
       </c>
       <c r="D1395" s="0">
-        <v>16548</v>
+        <v>1039</v>
       </c>
       <c r="E1395" s="0">
-        <v>0.14222604211431</v>
+        <v>8.92995272883541E-03</v>
       </c>
       <c r="F1395" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="G1395" s="0">
-        <v>0.06070826306914</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1396">
       <c r="A1396" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1396" s="1">
@@ -32897,22 +32897,22 @@
         </is>
       </c>
       <c r="D1396" s="0">
-        <v>1039</v>
+        <v>143</v>
       </c>
       <c r="E1396" s="0">
-        <v>8.92995272883541E-03</v>
+        <v>1.22905027932961E-03</v>
       </c>
       <c r="F1396" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1396" s="0">
-        <v>1.26475548060708E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1397">
       <c r="A1397" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1397" s="1">
@@ -32924,22 +32924,22 @@
         </is>
       </c>
       <c r="D1397" s="0">
-        <v>143</v>
+        <v>82</v>
       </c>
       <c r="E1397" s="0">
-        <v>1.22905027932961E-03</v>
+        <v>7.04770090244951E-04</v>
       </c>
       <c r="F1397" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1397" s="0">
-        <v>3.37268128161889E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1398">
       <c r="A1398" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1398" s="1">
@@ -32951,16 +32951,16 @@
         </is>
       </c>
       <c r="D1398" s="0">
-        <v>82</v>
+        <v>16548</v>
       </c>
       <c r="E1398" s="0">
-        <v>7.04770090244951E-04</v>
+        <v>0.14222604211431</v>
       </c>
       <c r="F1398" s="0">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G1398" s="0">
-        <v>1.68634064080944E-03</v>
+        <v>0.06</v>
       </c>
     </row>
     <row outlineLevel="0" r="1399">
@@ -32987,7 +32987,7 @@
         <v>10</v>
       </c>
       <c r="G1399" s="0">
-        <v>8.43170320404722E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1400">
@@ -33014,7 +33014,7 @@
         <v>1069</v>
       </c>
       <c r="G1400" s="0">
-        <v>0.901349072512648</v>
+        <v>0.901</v>
       </c>
     </row>
     <row outlineLevel="0" r="1401">
@@ -33041,7 +33041,7 @@
         <v>105</v>
       </c>
       <c r="G1401" s="0">
-        <v>8.85328836424958E-02</v>
+        <v>0.088</v>
       </c>
     </row>
     <row outlineLevel="0" r="1402">
@@ -33068,7 +33068,7 @@
         <v>12</v>
       </c>
       <c r="G1402" s="0">
-        <v>1.01180438448567E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1403">
@@ -33095,7 +33095,7 @@
         <v>511</v>
       </c>
       <c r="G1403" s="0">
-        <v>0.430860033726813</v>
+        <v>0.43</v>
       </c>
     </row>
     <row outlineLevel="0" r="1404">
@@ -33122,7 +33122,7 @@
         <v>675</v>
       </c>
       <c r="G1404" s="0">
-        <v>0.569139966273187</v>
+        <v>0.569</v>
       </c>
     </row>
     <row outlineLevel="0" r="1405">
@@ -33150,6 +33150,1059 @@
       </c>
       <c r="G1405" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1406">
+      <c r="A1406" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1406" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1406" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1406" s="0">
+        <v>53435</v>
+      </c>
+      <c r="E1406" s="0">
+        <v>0.449857722550555</v>
+      </c>
+      <c r="F1406" s="0">
+        <v>699</v>
+      </c>
+      <c r="G1406" s="0">
+        <v>0.579</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1407">
+      <c r="A1407" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1407" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1407" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1407" s="0">
+        <v>22584</v>
+      </c>
+      <c r="E1407" s="0">
+        <v>0.190129817649139</v>
+      </c>
+      <c r="F1407" s="0">
+        <v>403</v>
+      </c>
+      <c r="G1407" s="0">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1408">
+      <c r="A1408" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1408" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1408" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1408" s="0">
+        <v>1060</v>
+      </c>
+      <c r="E1408" s="0">
+        <v>8.92391103029079E-03</v>
+      </c>
+      <c r="F1408" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1408" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1409">
+      <c r="A1409" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1409" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1409" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1409" s="0">
+        <v>145</v>
+      </c>
+      <c r="E1409" s="0">
+        <v>1.22072367867185E-03</v>
+      </c>
+      <c r="F1409" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1409" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1410">
+      <c r="A1410" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1410" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1410" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1410" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1410" s="0">
+        <v>6.9875907123975E-04</v>
+      </c>
+      <c r="F1410" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1410" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1411">
+      <c r="A1411" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1411" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1411" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1411" s="0">
+        <v>16965</v>
+      </c>
+      <c r="E1411" s="0">
+        <v>0.142824670404607</v>
+      </c>
+      <c r="F1411" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1411" s="0">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1412">
+      <c r="A1412" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1412" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1412" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1412" s="0">
+        <v>24510</v>
+      </c>
+      <c r="E1412" s="0">
+        <v>0.206344395615497</v>
+      </c>
+      <c r="F1412" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1412" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1413">
+      <c r="A1413" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1413" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1413" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1413" s="0">
+        <v>64773</v>
+      </c>
+      <c r="E1413" s="0">
+        <v>0.545309895438703</v>
+      </c>
+      <c r="F1413" s="0">
+        <v>1087</v>
+      </c>
+      <c r="G1413" s="0">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1414">
+      <c r="A1414" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1414" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1414" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1414" s="0">
+        <v>18932</v>
+      </c>
+      <c r="E1414" s="0">
+        <v>0.15938441851459</v>
+      </c>
+      <c r="F1414" s="0">
+        <v>105</v>
+      </c>
+      <c r="G1414" s="0">
+        <v>0.087</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1415">
+      <c r="A1415" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1415" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1415" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1415" s="0">
+        <v>35077</v>
+      </c>
+      <c r="E1415" s="0">
+        <v>0.295305686046707</v>
+      </c>
+      <c r="F1415" s="0">
+        <v>14</v>
+      </c>
+      <c r="G1415" s="0">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1416">
+      <c r="A1416" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1416" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1416" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1416" s="0">
+        <v>59449</v>
+      </c>
+      <c r="E1416" s="0">
+        <v>0.500488289471469</v>
+      </c>
+      <c r="F1416" s="0">
+        <v>520</v>
+      </c>
+      <c r="G1416" s="0">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1417">
+      <c r="A1417" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1417" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1417" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1417" s="0">
+        <v>58004</v>
+      </c>
+      <c r="E1417" s="0">
+        <v>0.488323146604704</v>
+      </c>
+      <c r="F1417" s="0">
+        <v>685</v>
+      </c>
+      <c r="G1417" s="0">
+        <v>0.567</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1418">
+      <c r="A1418" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1418" s="1">
+        <v>44050</v>
+      </c>
+      <c r="C1418" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1418" s="0">
+        <v>1329</v>
+      </c>
+      <c r="E1418" s="0">
+        <v>1.11885639238268E-02</v>
+      </c>
+      <c r="F1418" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1418" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1419">
+      <c r="A1419" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1419" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1419" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1419" s="0">
+        <v>54369</v>
+      </c>
+      <c r="E1419" s="0">
+        <v>0.450876974748103</v>
+      </c>
+      <c r="F1419" s="0">
+        <v>707</v>
+      </c>
+      <c r="G1419" s="0">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1420">
+      <c r="A1420" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1420" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1420" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1420" s="0">
+        <v>22800</v>
+      </c>
+      <c r="E1420" s="0">
+        <v>0.189078243562632</v>
+      </c>
+      <c r="F1420" s="0">
+        <v>403</v>
+      </c>
+      <c r="G1420" s="0">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1421">
+      <c r="A1421" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1421" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1421" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1421" s="0">
+        <v>1071</v>
+      </c>
+      <c r="E1421" s="0">
+        <v>8.88170170419206E-03</v>
+      </c>
+      <c r="F1421" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1421" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1422">
+      <c r="A1422" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1422" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1422" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1422" s="0">
+        <v>148</v>
+      </c>
+      <c r="E1422" s="0">
+        <v>1.22735000207323E-03</v>
+      </c>
+      <c r="F1422" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1422" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1423">
+      <c r="A1423" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1423" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1423" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1423" s="0">
+        <v>84</v>
+      </c>
+      <c r="E1423" s="0">
+        <v>6.9660405523075E-04</v>
+      </c>
+      <c r="F1423" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1423" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1424">
+      <c r="A1424" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1424" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1424" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1424" s="0">
+        <v>17188</v>
+      </c>
+      <c r="E1424" s="0">
+        <v>0.142538458348883</v>
+      </c>
+      <c r="F1424" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1424" s="0">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1425">
+      <c r="A1425" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1425" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1425" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1425" s="0">
+        <v>24925</v>
+      </c>
+      <c r="E1425" s="0">
+        <v>0.206700667578886</v>
+      </c>
+      <c r="F1425" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1425" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1426">
+      <c r="A1426" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1426" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1426" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1426" s="0">
+        <v>65762</v>
+      </c>
+      <c r="E1426" s="0">
+        <v>0.545358046191483</v>
+      </c>
+      <c r="F1426" s="0">
+        <v>1095</v>
+      </c>
+      <c r="G1426" s="0">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1427">
+      <c r="A1427" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1427" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1427" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1427" s="0">
+        <v>19089</v>
+      </c>
+      <c r="E1427" s="0">
+        <v>0.158303271551188</v>
+      </c>
+      <c r="F1427" s="0">
+        <v>105</v>
+      </c>
+      <c r="G1427" s="0">
+        <v>0.086</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1428">
+      <c r="A1428" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1428" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1428" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1428" s="0">
+        <v>35734</v>
+      </c>
+      <c r="E1428" s="0">
+        <v>0.296338682257329</v>
+      </c>
+      <c r="F1428" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1428" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1429">
+      <c r="A1429" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1429" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1429" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1429" s="0">
+        <v>60447</v>
+      </c>
+      <c r="E1429" s="0">
+        <v>0.501281253887299</v>
+      </c>
+      <c r="F1429" s="0">
+        <v>524</v>
+      </c>
+      <c r="G1429" s="0">
+        <v>0.431</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1430">
+      <c r="A1430" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1430" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1430" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1430" s="0">
+        <v>58796</v>
+      </c>
+      <c r="E1430" s="0">
+        <v>0.487589667039847</v>
+      </c>
+      <c r="F1430" s="0">
+        <v>690</v>
+      </c>
+      <c r="G1430" s="0">
+        <v>0.567</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1431">
+      <c r="A1431" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1431" s="1">
+        <v>44051</v>
+      </c>
+      <c r="C1431" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1431" s="0">
+        <v>1342</v>
+      </c>
+      <c r="E1431" s="0">
+        <v>1.11290790728532E-02</v>
+      </c>
+      <c r="F1431" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1431" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1432">
+      <c r="A1432" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1432" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1432" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1432" s="0">
+        <v>55187</v>
+      </c>
+      <c r="E1432" s="0">
+        <v>0.449727817980312</v>
+      </c>
+      <c r="F1432" s="0">
+        <v>712</v>
+      </c>
+      <c r="G1432" s="0">
+        <v>0.582174979558463</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1433">
+      <c r="A1433" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1433" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1433" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1433" s="0">
+        <v>23066</v>
+      </c>
+      <c r="E1433" s="0">
+        <v>0.187968576830302</v>
+      </c>
+      <c r="F1433" s="0">
+        <v>406</v>
+      </c>
+      <c r="G1433" s="0">
+        <v>0.331970564186427</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1434">
+      <c r="A1434" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1434" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1434" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1434" s="0">
+        <v>17556</v>
+      </c>
+      <c r="E1434" s="0">
+        <v>0.143066692743986</v>
+      </c>
+      <c r="F1434" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1434" s="0">
+        <v>5.88716271463614E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1435">
+      <c r="A1435" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1435" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1435" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1435" s="0">
+        <v>1085</v>
+      </c>
+      <c r="E1435" s="0">
+        <v>8.84184105873916E-03</v>
+      </c>
+      <c r="F1435" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1435" s="0">
+        <v>1.22649223221586E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1436">
+      <c r="A1436" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1436" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1436" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1436" s="0">
+        <v>150</v>
+      </c>
+      <c r="E1436" s="0">
+        <v>1.22237433991786E-03</v>
+      </c>
+      <c r="F1436" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1436" s="0">
+        <v>3.27064595257563E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1437">
+      <c r="A1437" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1437" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1437" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1437" s="0">
+        <v>84</v>
+      </c>
+      <c r="E1437" s="0">
+        <v>0.000684529630354</v>
+      </c>
+      <c r="F1437" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1437" s="0">
+        <v>1.63532297628782E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1438">
+      <c r="A1438" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1438" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1438" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1438" s="0">
+        <v>25584</v>
+      </c>
+      <c r="E1438" s="0">
+        <v>0.20848816741639</v>
+      </c>
+      <c r="F1438" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1438" s="0">
+        <v>9.8119378577269E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1439">
+      <c r="A1439" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1439" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1439" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1439" s="0">
+        <v>66653</v>
+      </c>
+      <c r="E1439" s="0">
+        <v>0.543166112523633</v>
+      </c>
+      <c r="F1439" s="0">
+        <v>1102</v>
+      </c>
+      <c r="G1439" s="0">
+        <v>0.901062959934587</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1440">
+      <c r="A1440" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1440" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1440" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1440" s="0">
+        <v>19175</v>
+      </c>
+      <c r="E1440" s="0">
+        <v>0.156260186452833</v>
+      </c>
+      <c r="F1440" s="0">
+        <v>105</v>
+      </c>
+      <c r="G1440" s="0">
+        <v>8.58544562551104E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1441">
+      <c r="A1441" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1441" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1441" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1441" s="0">
+        <v>36884</v>
+      </c>
+      <c r="E1441" s="0">
+        <v>0.300573701023535</v>
+      </c>
+      <c r="F1441" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1441" s="0">
+        <v>1.30825838103025E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1442">
+      <c r="A1442" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1442" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1442" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1442" s="0">
+        <v>61562</v>
+      </c>
+      <c r="E1442" s="0">
+        <v>0.501678727426821</v>
+      </c>
+      <c r="F1442" s="0">
+        <v>529</v>
+      </c>
+      <c r="G1442" s="0">
+        <v>0.432542927228128</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1443">
+      <c r="A1443" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1443" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1443" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1443" s="0">
+        <v>59804</v>
+      </c>
+      <c r="E1443" s="0">
+        <v>0.487352500162983</v>
+      </c>
+      <c r="F1443" s="0">
+        <v>693</v>
+      </c>
+      <c r="G1443" s="0">
+        <v>0.566639411283729</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1444">
+      <c r="A1444" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1444" s="1">
+        <v>44052</v>
+      </c>
+      <c r="C1444" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1444" s="0">
+        <v>1346</v>
+      </c>
+      <c r="E1444" s="0">
+        <v>1.09687724101962E-02</v>
+      </c>
+      <c r="F1444" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1444" s="0">
+        <v>8.17661488143908E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1444</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1483</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1444"/>
+  <dimension ref="A1:G1483"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -33878,7 +33878,7 @@
         <v>712</v>
       </c>
       <c r="G1432" s="0">
-        <v>0.582174979558463</v>
+        <v>0.582</v>
       </c>
     </row>
     <row outlineLevel="0" r="1433">
@@ -33905,13 +33905,13 @@
         <v>406</v>
       </c>
       <c r="G1433" s="0">
-        <v>0.331970564186427</v>
+        <v>0.331</v>
       </c>
     </row>
     <row outlineLevel="0" r="1434">
       <c r="A1434" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1434" s="1">
@@ -33923,22 +33923,22 @@
         </is>
       </c>
       <c r="D1434" s="0">
-        <v>17556</v>
+        <v>1085</v>
       </c>
       <c r="E1434" s="0">
-        <v>0.143066692743986</v>
+        <v>8.84184105873916E-03</v>
       </c>
       <c r="F1434" s="0">
-        <v>72</v>
+        <v>15</v>
       </c>
       <c r="G1434" s="0">
-        <v>5.88716271463614E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1435">
       <c r="A1435" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1435" s="1">
@@ -33950,22 +33950,22 @@
         </is>
       </c>
       <c r="D1435" s="0">
-        <v>1085</v>
+        <v>150</v>
       </c>
       <c r="E1435" s="0">
-        <v>8.84184105873916E-03</v>
+        <v>1.22237433991786E-03</v>
       </c>
       <c r="F1435" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1435" s="0">
-        <v>1.22649223221586E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1436">
       <c r="A1436" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1436" s="1">
@@ -33977,22 +33977,22 @@
         </is>
       </c>
       <c r="D1436" s="0">
-        <v>150</v>
+        <v>84</v>
       </c>
       <c r="E1436" s="0">
-        <v>1.22237433991786E-03</v>
+        <v>0.000684529630354</v>
       </c>
       <c r="F1436" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1436" s="0">
-        <v>3.27064595257563E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1437">
       <c r="A1437" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1437" s="1">
@@ -34004,16 +34004,16 @@
         </is>
       </c>
       <c r="D1437" s="0">
-        <v>84</v>
+        <v>17556</v>
       </c>
       <c r="E1437" s="0">
-        <v>0.000684529630354</v>
+        <v>0.143066692743986</v>
       </c>
       <c r="F1437" s="0">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="G1437" s="0">
-        <v>1.63532297628782E-03</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="1438">
@@ -34040,7 +34040,7 @@
         <v>12</v>
       </c>
       <c r="G1438" s="0">
-        <v>9.8119378577269E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1439">
@@ -34067,7 +34067,7 @@
         <v>1102</v>
       </c>
       <c r="G1439" s="0">
-        <v>0.901062959934587</v>
+        <v>0.901</v>
       </c>
     </row>
     <row outlineLevel="0" r="1440">
@@ -34094,7 +34094,7 @@
         <v>105</v>
       </c>
       <c r="G1440" s="0">
-        <v>8.58544562551104E-02</v>
+        <v>0.085</v>
       </c>
     </row>
     <row outlineLevel="0" r="1441">
@@ -34121,7 +34121,7 @@
         <v>16</v>
       </c>
       <c r="G1441" s="0">
-        <v>1.30825838103025E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1442">
@@ -34148,7 +34148,7 @@
         <v>529</v>
       </c>
       <c r="G1442" s="0">
-        <v>0.432542927228128</v>
+        <v>0.432</v>
       </c>
     </row>
     <row outlineLevel="0" r="1443">
@@ -34175,7 +34175,7 @@
         <v>693</v>
       </c>
       <c r="G1443" s="0">
-        <v>0.566639411283729</v>
+        <v>0.566</v>
       </c>
     </row>
     <row outlineLevel="0" r="1444">
@@ -34202,7 +34202,1060 @@
         <v>1</v>
       </c>
       <c r="G1444" s="0">
-        <v>8.17661488143908E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1445">
+      <c r="A1445" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1445" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1445" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1445" s="0">
+        <v>55873</v>
+      </c>
+      <c r="E1445" s="0">
+        <v>0.450901431638072</v>
+      </c>
+      <c r="F1445" s="0">
+        <v>717</v>
+      </c>
+      <c r="G1445" s="0">
+        <v>0.581</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1446">
+      <c r="A1446" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1446" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1446" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1446" s="0">
+        <v>23239</v>
+      </c>
+      <c r="E1446" s="0">
+        <v>0.187541359329858</v>
+      </c>
+      <c r="F1446" s="0">
+        <v>410</v>
+      </c>
+      <c r="G1446" s="0">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1447">
+      <c r="A1447" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1447" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1447" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1447" s="0">
+        <v>1091</v>
+      </c>
+      <c r="E1447" s="0">
+        <v>8.80449343899802E-03</v>
+      </c>
+      <c r="F1447" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1447" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1448">
+      <c r="A1448" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1448" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1448" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1448" s="0">
+        <v>152</v>
+      </c>
+      <c r="E1448" s="0">
+        <v>1.22665719773391E-03</v>
+      </c>
+      <c r="F1448" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1448" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1449">
+      <c r="A1449" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1449" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1449" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1449" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1449" s="0">
+        <v>6.6981939086786E-04</v>
+      </c>
+      <c r="F1449" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1449" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1450">
+      <c r="A1450" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1450" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1450" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1450" s="0">
+        <v>17594</v>
+      </c>
+      <c r="E1450" s="0">
+        <v>0.1419855706377</v>
+      </c>
+      <c r="F1450" s="0">
+        <v>72</v>
+      </c>
+      <c r="G1450" s="0">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1451">
+      <c r="A1451" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1451" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1451" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1451" s="0">
+        <v>25882</v>
+      </c>
+      <c r="E1451" s="0">
+        <v>0.208870668366771</v>
+      </c>
+      <c r="F1451" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1451" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1452">
+      <c r="A1452" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1452" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1452" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1452" s="0">
+        <v>67317</v>
+      </c>
+      <c r="E1452" s="0">
+        <v>0.543255806446406</v>
+      </c>
+      <c r="F1452" s="0">
+        <v>1112</v>
+      </c>
+      <c r="G1452" s="0">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1453">
+      <c r="A1453" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1453" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1453" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1453" s="0">
+        <v>19255</v>
+      </c>
+      <c r="E1453" s="0">
+        <v>0.155390028568201</v>
+      </c>
+      <c r="F1453" s="0">
+        <v>105</v>
+      </c>
+      <c r="G1453" s="0">
+        <v>0.085</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1454">
+      <c r="A1454" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1454" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1454" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1454" s="0">
+        <v>37342</v>
+      </c>
+      <c r="E1454" s="0">
+        <v>0.301354164985393</v>
+      </c>
+      <c r="F1454" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1454" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1455">
+      <c r="A1455" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1455" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1455" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1455" s="0">
+        <v>62223</v>
+      </c>
+      <c r="E1455" s="0">
+        <v>0.502146650096034</v>
+      </c>
+      <c r="F1455" s="0">
+        <v>534</v>
+      </c>
+      <c r="G1455" s="0">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1456">
+      <c r="A1456" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1456" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1456" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1456" s="0">
+        <v>60340</v>
+      </c>
+      <c r="E1456" s="0">
+        <v>0.486950627047791</v>
+      </c>
+      <c r="F1456" s="0">
+        <v>698</v>
+      </c>
+      <c r="G1456" s="0">
+        <v>0.566</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1457">
+      <c r="A1457" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1457" s="1">
+        <v>44053</v>
+      </c>
+      <c r="C1457" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1457" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E1457" s="0">
+        <v>1.09027228561744E-02</v>
+      </c>
+      <c r="F1457" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1457" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1458">
+      <c r="A1458" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1458" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1458" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1458" s="0">
+        <v>56636</v>
+      </c>
+      <c r="E1458" s="0">
+        <v>0.453396309490454</v>
+      </c>
+      <c r="F1458" s="0">
+        <v>743</v>
+      </c>
+      <c r="G1458" s="0">
+        <v>0.584</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1459">
+      <c r="A1459" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1459" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1459" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1459" s="0">
+        <v>23462</v>
+      </c>
+      <c r="E1459" s="0">
+        <v>0.187823720129688</v>
+      </c>
+      <c r="F1459" s="0">
+        <v>415</v>
+      </c>
+      <c r="G1459" s="0">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1460">
+      <c r="A1460" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1460" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1460" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1460" s="0">
+        <v>1103</v>
+      </c>
+      <c r="E1460" s="0">
+        <v>8.83000440299404E-03</v>
+      </c>
+      <c r="F1460" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1460" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1461">
+      <c r="A1461" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1461" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1461" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1461" s="0">
+        <v>155</v>
+      </c>
+      <c r="E1461" s="0">
+        <v>1.24084377376616E-03</v>
+      </c>
+      <c r="F1461" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1461" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1462">
+      <c r="A1462" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1462" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1462" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1462" s="0">
+        <v>83</v>
+      </c>
+      <c r="E1462" s="0">
+        <v>6.64451827242525E-04</v>
+      </c>
+      <c r="F1462" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1462" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1463">
+      <c r="A1463" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1463" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1463" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1463" s="0">
+        <v>17569</v>
+      </c>
+      <c r="E1463" s="0">
+        <v>0.140647640395469</v>
+      </c>
+      <c r="F1463" s="0">
+        <v>73</v>
+      </c>
+      <c r="G1463" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1464">
+      <c r="A1464" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1464" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1464" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1464" s="0">
+        <v>25907</v>
+      </c>
+      <c r="E1464" s="0">
+        <v>0.207397029980387</v>
+      </c>
+      <c r="F1464" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1464" s="0">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1465">
+      <c r="A1465" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1465" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1465" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1465" s="0">
+        <v>68314</v>
+      </c>
+      <c r="E1465" s="0">
+        <v>0.546883881039107</v>
+      </c>
+      <c r="F1465" s="0">
+        <v>1143</v>
+      </c>
+      <c r="G1465" s="0">
+        <v>0.899</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1466">
+      <c r="A1466" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1466" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1466" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1466" s="0">
+        <v>19420</v>
+      </c>
+      <c r="E1466" s="0">
+        <v>0.155465716687347</v>
+      </c>
+      <c r="F1466" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1466" s="0">
+        <v>0.083</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1467">
+      <c r="A1467" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1467" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1467" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1467" s="0">
+        <v>37181</v>
+      </c>
+      <c r="E1467" s="0">
+        <v>0.297650402273546</v>
+      </c>
+      <c r="F1467" s="0">
+        <v>22</v>
+      </c>
+      <c r="G1467" s="0">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1468">
+      <c r="A1468" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1468" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1468" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1468" s="0">
+        <v>62779</v>
+      </c>
+      <c r="E1468" s="0">
+        <v>0.502573750150102</v>
+      </c>
+      <c r="F1468" s="0">
+        <v>545</v>
+      </c>
+      <c r="G1468" s="0">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1469">
+      <c r="A1469" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1469" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1469" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1469" s="0">
+        <v>60786</v>
+      </c>
+      <c r="E1469" s="0">
+        <v>0.48661890085258</v>
+      </c>
+      <c r="F1469" s="0">
+        <v>725</v>
+      </c>
+      <c r="G1469" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1470">
+      <c r="A1470" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1470" s="1">
+        <v>44054</v>
+      </c>
+      <c r="C1470" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1470" s="0">
+        <v>1350</v>
+      </c>
+      <c r="E1470" s="0">
+        <v>1.08073489973182E-02</v>
+      </c>
+      <c r="F1470" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1470" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1471">
+      <c r="A1471" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1471" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1471" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1471" s="0">
+        <v>58694</v>
+      </c>
+      <c r="E1471" s="0">
+        <v>0.464376982902534</v>
+      </c>
+      <c r="F1471" s="0">
+        <v>758</v>
+      </c>
+      <c r="G1471" s="0">
+        <v>0.588052754072925</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1472">
+      <c r="A1472" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1472" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1472" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1472" s="0">
+        <v>24484</v>
+      </c>
+      <c r="E1472" s="0">
+        <v>0.193713259436836</v>
+      </c>
+      <c r="F1472" s="0">
+        <v>419</v>
+      </c>
+      <c r="G1472" s="0">
+        <v>0.325058184639255</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1473">
+      <c r="A1473" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1473" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1473" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1473" s="0">
+        <v>17778</v>
+      </c>
+      <c r="E1473" s="0">
+        <v>0.140656523699888</v>
+      </c>
+      <c r="F1473" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1473" s="0">
+        <v>5.74088440651668E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1474">
+      <c r="A1474" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1474" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1474" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1474" s="0">
+        <v>1111</v>
+      </c>
+      <c r="E1474" s="0">
+        <v>0.008790043752423</v>
+      </c>
+      <c r="F1474" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1474" s="0">
+        <v>1.24127230411171E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1475">
+      <c r="A1475" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1475" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1475" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1475" s="0">
+        <v>160</v>
+      </c>
+      <c r="E1475" s="0">
+        <v>1.26589288963788E-03</v>
+      </c>
+      <c r="F1475" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1475" s="0">
+        <v>3.10318076027929E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1476">
+      <c r="A1476" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1476" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1476" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1476" s="0">
+        <v>85</v>
+      </c>
+      <c r="E1476" s="0">
+        <v>6.72505597620121E-04</v>
+      </c>
+      <c r="F1476" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1476" s="0">
+        <v>1.55159038013964E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1477">
+      <c r="A1477" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1477" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1477" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1477" s="0">
+        <v>24081</v>
+      </c>
+      <c r="E1477" s="0">
+        <v>0.19052479172106</v>
+      </c>
+      <c r="F1477" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1477" s="0">
+        <v>1.24127230411171E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1478">
+      <c r="A1478" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1478" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1478" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1478" s="0">
+        <v>71459</v>
+      </c>
+      <c r="E1478" s="0">
+        <v>0.565371500003956</v>
+      </c>
+      <c r="F1478" s="0">
+        <v>1165</v>
+      </c>
+      <c r="G1478" s="0">
+        <v>0.903801396431342</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1479">
+      <c r="A1479" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1479" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1479" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1479" s="0">
+        <v>19677</v>
+      </c>
+      <c r="E1479" s="0">
+        <v>0.155681089933778</v>
+      </c>
+      <c r="F1479" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1479" s="0">
+        <v>8.22342901474011E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1480">
+      <c r="A1480" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1480" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1480" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1480" s="0">
+        <v>35257</v>
+      </c>
+      <c r="E1480" s="0">
+        <v>0.278947410062266</v>
+      </c>
+      <c r="F1480" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1480" s="0">
+        <v>1.39643134212568E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1481">
+      <c r="A1481" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1481" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1481" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1481" s="0">
+        <v>63587</v>
+      </c>
+      <c r="E1481" s="0">
+        <v>0.503089569833772</v>
+      </c>
+      <c r="F1481" s="0">
+        <v>552</v>
+      </c>
+      <c r="G1481" s="0">
+        <v>0.428238944918542</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1482">
+      <c r="A1482" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1482" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1482" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1482" s="0">
+        <v>61509</v>
+      </c>
+      <c r="E1482" s="0">
+        <v>0.486648785929601</v>
+      </c>
+      <c r="F1482" s="0">
+        <v>736</v>
+      </c>
+      <c r="G1482" s="0">
+        <v>0.570985259891389</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1483">
+      <c r="A1483" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1483" s="1">
+        <v>44055</v>
+      </c>
+      <c r="C1483" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1483" s="0">
+        <v>1297</v>
+      </c>
+      <c r="E1483" s="0">
+        <v>0.010261644236627</v>
+      </c>
+      <c r="F1483" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1483" s="0">
+        <v>7.75795190069822E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1483</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1496</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1483"/>
+  <dimension ref="A1:G1496"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -34931,7 +34931,7 @@
         <v>758</v>
       </c>
       <c r="G1471" s="0">
-        <v>0.588052754072925</v>
+        <v>0.588</v>
       </c>
     </row>
     <row outlineLevel="0" r="1472">
@@ -34958,13 +34958,13 @@
         <v>419</v>
       </c>
       <c r="G1472" s="0">
-        <v>0.325058184639255</v>
+        <v>0.325</v>
       </c>
     </row>
     <row outlineLevel="0" r="1473">
       <c r="A1473" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1473" s="1">
@@ -34976,22 +34976,22 @@
         </is>
       </c>
       <c r="D1473" s="0">
-        <v>17778</v>
+        <v>1111</v>
       </c>
       <c r="E1473" s="0">
-        <v>0.140656523699888</v>
+        <v>0.008790043752423</v>
       </c>
       <c r="F1473" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G1473" s="0">
-        <v>5.74088440651668E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1474">
       <c r="A1474" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1474" s="1">
@@ -35003,22 +35003,22 @@
         </is>
       </c>
       <c r="D1474" s="0">
-        <v>1111</v>
+        <v>160</v>
       </c>
       <c r="E1474" s="0">
-        <v>0.008790043752423</v>
+        <v>1.26589288963788E-03</v>
       </c>
       <c r="F1474" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1474" s="0">
-        <v>1.24127230411171E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1475">
       <c r="A1475" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1475" s="1">
@@ -35030,22 +35030,22 @@
         </is>
       </c>
       <c r="D1475" s="0">
-        <v>160</v>
+        <v>85</v>
       </c>
       <c r="E1475" s="0">
-        <v>1.26589288963788E-03</v>
+        <v>6.72505597620121E-04</v>
       </c>
       <c r="F1475" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1475" s="0">
-        <v>3.10318076027929E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1476">
       <c r="A1476" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1476" s="1">
@@ -35057,16 +35057,16 @@
         </is>
       </c>
       <c r="D1476" s="0">
-        <v>85</v>
+        <v>17778</v>
       </c>
       <c r="E1476" s="0">
-        <v>6.72505597620121E-04</v>
+        <v>0.140656523699888</v>
       </c>
       <c r="F1476" s="0">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G1476" s="0">
-        <v>1.55159038013964E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="1477">
@@ -35093,7 +35093,7 @@
         <v>16</v>
       </c>
       <c r="G1477" s="0">
-        <v>1.24127230411171E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1478">
@@ -35120,7 +35120,7 @@
         <v>1165</v>
       </c>
       <c r="G1478" s="0">
-        <v>0.903801396431342</v>
+        <v>0.903</v>
       </c>
     </row>
     <row outlineLevel="0" r="1479">
@@ -35147,7 +35147,7 @@
         <v>106</v>
       </c>
       <c r="G1479" s="0">
-        <v>8.22342901474011E-02</v>
+        <v>0.082</v>
       </c>
     </row>
     <row outlineLevel="0" r="1480">
@@ -35174,7 +35174,7 @@
         <v>18</v>
       </c>
       <c r="G1480" s="0">
-        <v>1.39643134212568E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1481">
@@ -35201,7 +35201,7 @@
         <v>552</v>
       </c>
       <c r="G1481" s="0">
-        <v>0.428238944918542</v>
+        <v>0.428</v>
       </c>
     </row>
     <row outlineLevel="0" r="1482">
@@ -35228,7 +35228,7 @@
         <v>736</v>
       </c>
       <c r="G1482" s="0">
-        <v>0.570985259891389</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1483">
@@ -35255,7 +35255,358 @@
         <v>1</v>
       </c>
       <c r="G1483" s="0">
-        <v>7.75795190069822E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1484">
+      <c r="A1484" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1484" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1484" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1484" s="0">
+        <v>59985</v>
+      </c>
+      <c r="E1484" s="0">
+        <v>0.466769381609356</v>
+      </c>
+      <c r="F1484" s="0">
+        <v>778</v>
+      </c>
+      <c r="G1484" s="0">
+        <v>0.592536176694593</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1485">
+      <c r="A1485" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1485" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1485" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1485" s="0">
+        <v>24862</v>
+      </c>
+      <c r="E1485" s="0">
+        <v>0.193462038269098</v>
+      </c>
+      <c r="F1485" s="0">
+        <v>423</v>
+      </c>
+      <c r="G1485" s="0">
+        <v>0.322162985529322</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1486">
+      <c r="A1486" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1486" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1486" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1486" s="0">
+        <v>18000</v>
+      </c>
+      <c r="E1486" s="0">
+        <v>0.140065830940542</v>
+      </c>
+      <c r="F1486" s="0">
+        <v>74</v>
+      </c>
+      <c r="G1486" s="0">
+        <v>5.63594821020564E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1487">
+      <c r="A1487" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1487" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1487" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1487" s="0">
+        <v>1122</v>
+      </c>
+      <c r="E1487" s="0">
+        <v>8.73077012862712E-03</v>
+      </c>
+      <c r="F1487" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1487" s="0">
+        <v>1.21858339680122E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1488">
+      <c r="A1488" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1488" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1488" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1488" s="0">
+        <v>169</v>
+      </c>
+      <c r="E1488" s="0">
+        <v>1.31506252383064E-03</v>
+      </c>
+      <c r="F1488" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1488" s="0">
+        <v>3.04645849200305E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1489">
+      <c r="A1489" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1489" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1489" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1489" s="0">
+        <v>87</v>
+      </c>
+      <c r="E1489" s="0">
+        <v>6.76984849545953E-04</v>
+      </c>
+      <c r="F1489" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1489" s="0">
+        <v>1.52322924600152E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1490">
+      <c r="A1490" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1490" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1490" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1490" s="0">
+        <v>24286</v>
+      </c>
+      <c r="E1490" s="0">
+        <v>0.188979931679</v>
+      </c>
+      <c r="F1490" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1490" s="0">
+        <v>1.21858339680122E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1491">
+      <c r="A1491" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1491" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1491" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1491" s="0">
+        <v>75050</v>
+      </c>
+      <c r="E1491" s="0">
+        <v>0.583996700671538</v>
+      </c>
+      <c r="F1491" s="0">
+        <v>1188</v>
+      </c>
+      <c r="G1491" s="0">
+        <v>0.904798172124905</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1492">
+      <c r="A1492" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1492" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1492" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1492" s="0">
+        <v>19912</v>
+      </c>
+      <c r="E1492" s="0">
+        <v>0.154943934760449</v>
+      </c>
+      <c r="F1492" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1492" s="0">
+        <v>8.07311500380807E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1493">
+      <c r="A1493" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1493" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1493" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1493" s="0">
+        <v>33549</v>
+      </c>
+      <c r="E1493" s="0">
+        <v>0.261059364568014</v>
+      </c>
+      <c r="F1493" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1493" s="0">
+        <v>1.44706778370145E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1494">
+      <c r="A1494" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1494" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1494" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1494" s="0">
+        <v>64725</v>
+      </c>
+      <c r="E1494" s="0">
+        <v>0.503653383757033</v>
+      </c>
+      <c r="F1494" s="0">
+        <v>563</v>
+      </c>
+      <c r="G1494" s="0">
+        <v>0.428789032749429</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1495">
+      <c r="A1495" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1495" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1495" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1495" s="0">
+        <v>62487</v>
+      </c>
+      <c r="E1495" s="0">
+        <v>0.486238532110092</v>
+      </c>
+      <c r="F1495" s="0">
+        <v>749</v>
+      </c>
+      <c r="G1495" s="0">
+        <v>0.57044935262757</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1496">
+      <c r="A1496" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1496" s="1">
+        <v>44056</v>
+      </c>
+      <c r="C1496" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1496" s="0">
+        <v>1299</v>
+      </c>
+      <c r="E1496" s="0">
+        <v>1.01080841328758E-02</v>
+      </c>
+      <c r="F1496" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1496" s="0">
+        <v>7.61614623000762E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1496</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1509</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1496"/>
+  <dimension ref="A1:G1509"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -35282,7 +35282,7 @@
         <v>778</v>
       </c>
       <c r="G1484" s="0">
-        <v>0.592536176694593</v>
+        <v>0.592</v>
       </c>
     </row>
     <row outlineLevel="0" r="1485">
@@ -35309,13 +35309,13 @@
         <v>423</v>
       </c>
       <c r="G1485" s="0">
-        <v>0.322162985529322</v>
+        <v>0.322</v>
       </c>
     </row>
     <row outlineLevel="0" r="1486">
       <c r="A1486" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1486" s="1">
@@ -35327,22 +35327,22 @@
         </is>
       </c>
       <c r="D1486" s="0">
-        <v>18000</v>
+        <v>1122</v>
       </c>
       <c r="E1486" s="0">
-        <v>0.140065830940542</v>
+        <v>8.73077012862712E-03</v>
       </c>
       <c r="F1486" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G1486" s="0">
-        <v>5.63594821020564E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1487">
       <c r="A1487" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1487" s="1">
@@ -35354,22 +35354,22 @@
         </is>
       </c>
       <c r="D1487" s="0">
-        <v>1122</v>
+        <v>169</v>
       </c>
       <c r="E1487" s="0">
-        <v>8.73077012862712E-03</v>
+        <v>1.31506252383064E-03</v>
       </c>
       <c r="F1487" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1487" s="0">
-        <v>1.21858339680122E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1488">
       <c r="A1488" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1488" s="1">
@@ -35381,22 +35381,22 @@
         </is>
       </c>
       <c r="D1488" s="0">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="E1488" s="0">
-        <v>1.31506252383064E-03</v>
+        <v>6.76984849545953E-04</v>
       </c>
       <c r="F1488" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1488" s="0">
-        <v>3.04645849200305E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1489">
       <c r="A1489" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1489" s="1">
@@ -35408,16 +35408,16 @@
         </is>
       </c>
       <c r="D1489" s="0">
-        <v>87</v>
+        <v>18000</v>
       </c>
       <c r="E1489" s="0">
-        <v>6.76984849545953E-04</v>
+        <v>0.140065830940542</v>
       </c>
       <c r="F1489" s="0">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G1489" s="0">
-        <v>1.52322924600152E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1490">
@@ -35444,7 +35444,7 @@
         <v>16</v>
       </c>
       <c r="G1490" s="0">
-        <v>1.21858339680122E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1491">
@@ -35471,7 +35471,7 @@
         <v>1188</v>
       </c>
       <c r="G1491" s="0">
-        <v>0.904798172124905</v>
+        <v>0.904</v>
       </c>
     </row>
     <row outlineLevel="0" r="1492">
@@ -35498,7 +35498,7 @@
         <v>106</v>
       </c>
       <c r="G1492" s="0">
-        <v>8.07311500380807E-02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row outlineLevel="0" r="1493">
@@ -35525,7 +35525,7 @@
         <v>19</v>
       </c>
       <c r="G1493" s="0">
-        <v>1.44706778370145E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1494">
@@ -35552,7 +35552,7 @@
         <v>563</v>
       </c>
       <c r="G1494" s="0">
-        <v>0.428789032749429</v>
+        <v>0.428</v>
       </c>
     </row>
     <row outlineLevel="0" r="1495">
@@ -35579,7 +35579,7 @@
         <v>749</v>
       </c>
       <c r="G1495" s="0">
-        <v>0.57044935262757</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1496">
@@ -35606,7 +35606,358 @@
         <v>1</v>
       </c>
       <c r="G1496" s="0">
-        <v>7.61614623000762E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1497">
+      <c r="A1497" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1497" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1497" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1497" s="0">
+        <v>60956</v>
+      </c>
+      <c r="E1497" s="0">
+        <v>0.467246163516227</v>
+      </c>
+      <c r="F1497" s="0">
+        <v>786</v>
+      </c>
+      <c r="G1497" s="0">
+        <v>0.592760180995475</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1498">
+      <c r="A1498" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1498" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1498" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1498" s="0">
+        <v>25051</v>
+      </c>
+      <c r="E1498" s="0">
+        <v>0.192023486486072</v>
+      </c>
+      <c r="F1498" s="0">
+        <v>426</v>
+      </c>
+      <c r="G1498" s="0">
+        <v>0.321266968325792</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1499">
+      <c r="A1499" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1499" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1499" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1499" s="0">
+        <v>18241</v>
+      </c>
+      <c r="E1499" s="0">
+        <v>0.139822778212145</v>
+      </c>
+      <c r="F1499" s="0">
+        <v>76</v>
+      </c>
+      <c r="G1499" s="0">
+        <v>0.057315233785822</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1500">
+      <c r="A1500" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1500" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1500" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1500" s="0">
+        <v>1136</v>
+      </c>
+      <c r="E1500" s="0">
+        <v>8.70778334789741E-03</v>
+      </c>
+      <c r="F1500" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1500" s="0">
+        <v>1.20663650075415E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1501">
+      <c r="A1501" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1501" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1501" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1501" s="0">
+        <v>171</v>
+      </c>
+      <c r="E1501" s="0">
+        <v>1.31076668353033E-03</v>
+      </c>
+      <c r="F1501" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1501" s="0">
+        <v>3.01659125188537E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1502">
+      <c r="A1502" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1502" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1502" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1502" s="0">
+        <v>86</v>
+      </c>
+      <c r="E1502" s="0">
+        <v>6.592159928866E-04</v>
+      </c>
+      <c r="F1502" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1502" s="0">
+        <v>1.50829562594268E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1503">
+      <c r="A1503" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1503" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1503" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1503" s="0">
+        <v>24817</v>
+      </c>
+      <c r="E1503" s="0">
+        <v>0.190229805761241</v>
+      </c>
+      <c r="F1503" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1503" s="0">
+        <v>1.20663650075415E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1504">
+      <c r="A1504" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1504" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1504" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1504" s="0">
+        <v>76069</v>
+      </c>
+      <c r="E1504" s="0">
+        <v>0.583091876312683</v>
+      </c>
+      <c r="F1504" s="0">
+        <v>1200</v>
+      </c>
+      <c r="G1504" s="0">
+        <v>0.904977375565611</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1505">
+      <c r="A1505" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1505" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1505" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1505" s="0">
+        <v>20100</v>
+      </c>
+      <c r="E1505" s="0">
+        <v>0.154072575081635</v>
+      </c>
+      <c r="F1505" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1505" s="0">
+        <v>7.99396681749623E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1506">
+      <c r="A1506" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1506" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1506" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1506" s="0">
+        <v>34289</v>
+      </c>
+      <c r="E1506" s="0">
+        <v>0.262835548605682</v>
+      </c>
+      <c r="F1506" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1506" s="0">
+        <v>1.50829562594268E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1507">
+      <c r="A1507" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1507" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1507" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1507" s="0">
+        <v>65793</v>
+      </c>
+      <c r="E1507" s="0">
+        <v>0.504323230464977</v>
+      </c>
+      <c r="F1507" s="0">
+        <v>568</v>
+      </c>
+      <c r="G1507" s="0">
+        <v>0.428355957767722</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1508">
+      <c r="A1508" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1508" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1508" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1508" s="0">
+        <v>63346</v>
+      </c>
+      <c r="E1508" s="0">
+        <v>0.485566235876681</v>
+      </c>
+      <c r="F1508" s="0">
+        <v>757</v>
+      </c>
+      <c r="G1508" s="0">
+        <v>0.570889894419306</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1509">
+      <c r="A1509" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1509" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1509" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1509" s="0">
+        <v>1319</v>
+      </c>
+      <c r="E1509" s="0">
+        <v>1.01105336583421E-02</v>
+      </c>
+      <c r="F1509" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1509" s="0">
+        <v>7.54147812971342E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1509</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1522</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1509"/>
+  <dimension ref="A1:G1522"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -35633,7 +35633,7 @@
         <v>786</v>
       </c>
       <c r="G1497" s="0">
-        <v>0.592760180995475</v>
+        <v>0.592</v>
       </c>
     </row>
     <row outlineLevel="0" r="1498">
@@ -35660,13 +35660,13 @@
         <v>426</v>
       </c>
       <c r="G1498" s="0">
-        <v>0.321266968325792</v>
+        <v>0.321</v>
       </c>
     </row>
     <row outlineLevel="0" r="1499">
       <c r="A1499" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1499" s="1">
@@ -35678,22 +35678,22 @@
         </is>
       </c>
       <c r="D1499" s="0">
-        <v>18241</v>
+        <v>1136</v>
       </c>
       <c r="E1499" s="0">
-        <v>0.139822778212145</v>
+        <v>8.70778334789741E-03</v>
       </c>
       <c r="F1499" s="0">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="G1499" s="0">
-        <v>0.057315233785822</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1500">
       <c r="A1500" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1500" s="1">
@@ -35705,22 +35705,22 @@
         </is>
       </c>
       <c r="D1500" s="0">
-        <v>1136</v>
+        <v>171</v>
       </c>
       <c r="E1500" s="0">
-        <v>8.70778334789741E-03</v>
+        <v>1.31076668353033E-03</v>
       </c>
       <c r="F1500" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1500" s="0">
-        <v>1.20663650075415E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1501">
       <c r="A1501" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1501" s="1">
@@ -35732,22 +35732,22 @@
         </is>
       </c>
       <c r="D1501" s="0">
-        <v>171</v>
+        <v>86</v>
       </c>
       <c r="E1501" s="0">
-        <v>1.31076668353033E-03</v>
+        <v>6.592159928866E-04</v>
       </c>
       <c r="F1501" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1501" s="0">
-        <v>3.01659125188537E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1502">
       <c r="A1502" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1502" s="1">
@@ -35759,16 +35759,16 @@
         </is>
       </c>
       <c r="D1502" s="0">
-        <v>86</v>
+        <v>18241</v>
       </c>
       <c r="E1502" s="0">
-        <v>6.592159928866E-04</v>
+        <v>0.139822778212145</v>
       </c>
       <c r="F1502" s="0">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G1502" s="0">
-        <v>1.50829562594268E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="1503">
@@ -35795,7 +35795,7 @@
         <v>16</v>
       </c>
       <c r="G1503" s="0">
-        <v>1.20663650075415E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1504">
@@ -35822,7 +35822,7 @@
         <v>1200</v>
       </c>
       <c r="G1504" s="0">
-        <v>0.904977375565611</v>
+        <v>0.904</v>
       </c>
     </row>
     <row outlineLevel="0" r="1505">
@@ -35849,7 +35849,7 @@
         <v>106</v>
       </c>
       <c r="G1505" s="0">
-        <v>7.99396681749623E-02</v>
+        <v>0.079</v>
       </c>
     </row>
     <row outlineLevel="0" r="1506">
@@ -35876,7 +35876,7 @@
         <v>20</v>
       </c>
       <c r="G1506" s="0">
-        <v>1.50829562594268E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1507">
@@ -35903,7 +35903,7 @@
         <v>568</v>
       </c>
       <c r="G1507" s="0">
-        <v>0.428355957767722</v>
+        <v>0.428</v>
       </c>
     </row>
     <row outlineLevel="0" r="1508">
@@ -35930,7 +35930,7 @@
         <v>757</v>
       </c>
       <c r="G1508" s="0">
-        <v>0.570889894419306</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1509">
@@ -35957,7 +35957,358 @@
         <v>1</v>
       </c>
       <c r="G1509" s="0">
-        <v>7.54147812971342E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1510">
+      <c r="A1510" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1510" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1510" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1510" s="0">
+        <v>61902</v>
+      </c>
+      <c r="E1510" s="0">
+        <v>0.46985510106492</v>
+      </c>
+      <c r="F1510" s="0">
+        <v>798</v>
+      </c>
+      <c r="G1510" s="0">
+        <v>0.593308550185874</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1511">
+      <c r="A1511" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1511" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1511" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1511" s="0">
+        <v>25257</v>
+      </c>
+      <c r="E1511" s="0">
+        <v>0.191708350095258</v>
+      </c>
+      <c r="F1511" s="0">
+        <v>432</v>
+      </c>
+      <c r="G1511" s="0">
+        <v>0.321189591078067</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1512">
+      <c r="A1512" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1512" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1512" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1512" s="0">
+        <v>18366</v>
+      </c>
+      <c r="E1512" s="0">
+        <v>0.139403553781111</v>
+      </c>
+      <c r="F1512" s="0">
+        <v>76</v>
+      </c>
+      <c r="G1512" s="0">
+        <v>5.65055762081784E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1513">
+      <c r="A1513" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1513" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1513" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1513" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E1513" s="0">
+        <v>8.73644181651195E-03</v>
+      </c>
+      <c r="F1513" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1513" s="0">
+        <v>1.11524163568773E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1514">
+      <c r="A1514" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1514" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1514" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1514" s="0">
+        <v>173</v>
+      </c>
+      <c r="E1514" s="0">
+        <v>1.31312287945836E-03</v>
+      </c>
+      <c r="F1514" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1514" s="0">
+        <v>2.97397769516729E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1515">
+      <c r="A1515" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1515" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1515" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1515" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1515" s="0">
+        <v>6.67946898221591E-04</v>
+      </c>
+      <c r="F1515" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1515" s="0">
+        <v>1.48698884758364E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1516">
+      <c r="A1516" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1516" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1516" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1516" s="0">
+        <v>24810</v>
+      </c>
+      <c r="E1516" s="0">
+        <v>0.188315483464519</v>
+      </c>
+      <c r="F1516" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1516" s="0">
+        <v>1.33828996282528E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1517">
+      <c r="A1517" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1517" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1517" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1517" s="0">
+        <v>77023</v>
+      </c>
+      <c r="E1517" s="0">
+        <v>0.584628112974109</v>
+      </c>
+      <c r="F1517" s="0">
+        <v>1214</v>
+      </c>
+      <c r="G1517" s="0">
+        <v>0.902602230483271</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1518">
+      <c r="A1518" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1518" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1518" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1518" s="0">
+        <v>20242</v>
+      </c>
+      <c r="E1518" s="0">
+        <v>0.153642967202289</v>
+      </c>
+      <c r="F1518" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1518" s="0">
+        <v>7.88104089219331E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1519">
+      <c r="A1519" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1519" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1519" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1519" s="0">
+        <v>34482</v>
+      </c>
+      <c r="E1519" s="0">
+        <v>0.261728919823601</v>
+      </c>
+      <c r="F1519" s="0">
+        <v>25</v>
+      </c>
+      <c r="G1519" s="0">
+        <v>1.85873605947955E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1520">
+      <c r="A1520" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1520" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1520" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1520" s="0">
+        <v>66497</v>
+      </c>
+      <c r="E1520" s="0">
+        <v>0.504732555580013</v>
+      </c>
+      <c r="F1520" s="0">
+        <v>574</v>
+      </c>
+      <c r="G1520" s="0">
+        <v>0.426765799256506</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1521">
+      <c r="A1521" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1521" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1521" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1521" s="0">
+        <v>63938</v>
+      </c>
+      <c r="E1521" s="0">
+        <v>0.485308963391956</v>
+      </c>
+      <c r="F1521" s="0">
+        <v>770</v>
+      </c>
+      <c r="G1521" s="0">
+        <v>0.572490706319703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1522">
+      <c r="A1522" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1522" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1522" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1522" s="0">
+        <v>1312</v>
+      </c>
+      <c r="E1522" s="0">
+        <v>0.009958481028031</v>
+      </c>
+      <c r="F1522" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1522" s="0">
+        <v>7.43494423791822E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1522</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1535</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1522"/>
+  <dimension ref="A1:G1535"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -35984,7 +35984,7 @@
         <v>798</v>
       </c>
       <c r="G1510" s="0">
-        <v>0.593308550185874</v>
+        <v>0.593</v>
       </c>
     </row>
     <row outlineLevel="0" r="1511">
@@ -36011,13 +36011,13 @@
         <v>432</v>
       </c>
       <c r="G1511" s="0">
-        <v>0.321189591078067</v>
+        <v>0.321</v>
       </c>
     </row>
     <row outlineLevel="0" r="1512">
       <c r="A1512" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1512" s="1">
@@ -36029,22 +36029,22 @@
         </is>
       </c>
       <c r="D1512" s="0">
-        <v>18366</v>
+        <v>1151</v>
       </c>
       <c r="E1512" s="0">
-        <v>0.139403553781111</v>
+        <v>8.73644181651195E-03</v>
       </c>
       <c r="F1512" s="0">
-        <v>76</v>
+        <v>15</v>
       </c>
       <c r="G1512" s="0">
-        <v>5.65055762081784E-02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row outlineLevel="0" r="1513">
       <c r="A1513" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1513" s="1">
@@ -36056,22 +36056,22 @@
         </is>
       </c>
       <c r="D1513" s="0">
-        <v>1151</v>
+        <v>173</v>
       </c>
       <c r="E1513" s="0">
-        <v>8.73644181651195E-03</v>
+        <v>1.31312287945836E-03</v>
       </c>
       <c r="F1513" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1513" s="0">
-        <v>1.11524163568773E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1514">
       <c r="A1514" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1514" s="1">
@@ -36083,22 +36083,22 @@
         </is>
       </c>
       <c r="D1514" s="0">
-        <v>173</v>
+        <v>88</v>
       </c>
       <c r="E1514" s="0">
-        <v>1.31312287945836E-03</v>
+        <v>6.67946898221591E-04</v>
       </c>
       <c r="F1514" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1514" s="0">
-        <v>2.97397769516729E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1515">
       <c r="A1515" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1515" s="1">
@@ -36110,16 +36110,16 @@
         </is>
       </c>
       <c r="D1515" s="0">
-        <v>88</v>
+        <v>18366</v>
       </c>
       <c r="E1515" s="0">
-        <v>6.67946898221591E-04</v>
+        <v>0.139403553781111</v>
       </c>
       <c r="F1515" s="0">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="G1515" s="0">
-        <v>1.48698884758364E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1516">
@@ -36146,7 +36146,7 @@
         <v>18</v>
       </c>
       <c r="G1516" s="0">
-        <v>1.33828996282528E-02</v>
+        <v>0.013</v>
       </c>
     </row>
     <row outlineLevel="0" r="1517">
@@ -36173,7 +36173,7 @@
         <v>1214</v>
       </c>
       <c r="G1517" s="0">
-        <v>0.902602230483271</v>
+        <v>0.902</v>
       </c>
     </row>
     <row outlineLevel="0" r="1518">
@@ -36200,7 +36200,7 @@
         <v>106</v>
       </c>
       <c r="G1518" s="0">
-        <v>7.88104089219331E-02</v>
+        <v>0.078</v>
       </c>
     </row>
     <row outlineLevel="0" r="1519">
@@ -36227,7 +36227,7 @@
         <v>25</v>
       </c>
       <c r="G1519" s="0">
-        <v>1.85873605947955E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="1520">
@@ -36254,7 +36254,7 @@
         <v>574</v>
       </c>
       <c r="G1520" s="0">
-        <v>0.426765799256506</v>
+        <v>0.426</v>
       </c>
     </row>
     <row outlineLevel="0" r="1521">
@@ -36281,7 +36281,7 @@
         <v>770</v>
       </c>
       <c r="G1521" s="0">
-        <v>0.572490706319703</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="1522">
@@ -36308,7 +36308,358 @@
         <v>1</v>
       </c>
       <c r="G1522" s="0">
-        <v>7.43494423791822E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1523">
+      <c r="A1523" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1523" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1523" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1523" s="0">
+        <v>62356</v>
+      </c>
+      <c r="E1523" s="0">
+        <v>0.466359529721483</v>
+      </c>
+      <c r="F1523" s="0">
+        <v>810</v>
+      </c>
+      <c r="G1523" s="0">
+        <v>0.592972181551977</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1524">
+      <c r="A1524" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1524" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1524" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1524" s="0">
+        <v>25411</v>
+      </c>
+      <c r="E1524" s="0">
+        <v>0.190048463816675</v>
+      </c>
+      <c r="F1524" s="0">
+        <v>436</v>
+      </c>
+      <c r="G1524" s="0">
+        <v>0.319180087847731</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1525">
+      <c r="A1525" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1525" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1525" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1525" s="0">
+        <v>18394</v>
+      </c>
+      <c r="E1525" s="0">
+        <v>0.137568432704101</v>
+      </c>
+      <c r="F1525" s="0">
+        <v>79</v>
+      </c>
+      <c r="G1525" s="0">
+        <v>5.78330893118594E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1526">
+      <c r="A1526" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1526" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1526" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1526" s="0">
+        <v>1160</v>
+      </c>
+      <c r="E1526" s="0">
+        <v>8.67562150357495E-03</v>
+      </c>
+      <c r="F1526" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1526" s="0">
+        <v>1.09809663250366E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1527">
+      <c r="A1527" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1527" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1527" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1527" s="0">
+        <v>175</v>
+      </c>
+      <c r="E1527" s="0">
+        <v>1.30882220959105E-03</v>
+      </c>
+      <c r="F1527" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1527" s="0">
+        <v>2.92825768667643E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1528">
+      <c r="A1528" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1528" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1528" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1528" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1528" s="0">
+        <v>6.58150596822928E-04</v>
+      </c>
+      <c r="F1528" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1528" s="0">
+        <v>1.46412884333821E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1529">
+      <c r="A1529" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1529" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1529" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1529" s="0">
+        <v>26124</v>
+      </c>
+      <c r="E1529" s="0">
+        <v>0.195380979447752</v>
+      </c>
+      <c r="F1529" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1529" s="0">
+        <v>1.46412884333821E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1530">
+      <c r="A1530" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1530" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1530" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1530" s="0">
+        <v>77510</v>
+      </c>
+      <c r="E1530" s="0">
+        <v>0.579696054088013</v>
+      </c>
+      <c r="F1530" s="0">
+        <v>1227</v>
+      </c>
+      <c r="G1530" s="0">
+        <v>0.898243045387994</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1531">
+      <c r="A1531" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1531" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1531" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1531" s="0">
+        <v>20318</v>
+      </c>
+      <c r="E1531" s="0">
+        <v>0.151957998025548</v>
+      </c>
+      <c r="F1531" s="0">
+        <v>107</v>
+      </c>
+      <c r="G1531" s="0">
+        <v>7.83308931185944E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1532">
+      <c r="A1532" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1532" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1532" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1532" s="0">
+        <v>35880</v>
+      </c>
+      <c r="E1532" s="0">
+        <v>0.268345947886439</v>
+      </c>
+      <c r="F1532" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1532" s="0">
+        <v>2.34260614934114E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1533">
+      <c r="A1533" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1533" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1533" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1533" s="0">
+        <v>67536</v>
+      </c>
+      <c r="E1533" s="0">
+        <v>0.505100667125378</v>
+      </c>
+      <c r="F1533" s="0">
+        <v>579</v>
+      </c>
+      <c r="G1533" s="0">
+        <v>0.423865300146413</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1534">
+      <c r="A1534" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1534" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1534" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1534" s="0">
+        <v>64850</v>
+      </c>
+      <c r="E1534" s="0">
+        <v>0.485012115954169</v>
+      </c>
+      <c r="F1534" s="0">
+        <v>786</v>
+      </c>
+      <c r="G1534" s="0">
+        <v>0.575402635431918</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1535">
+      <c r="A1535" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1535" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1535" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1535" s="0">
+        <v>1322</v>
+      </c>
+      <c r="E1535" s="0">
+        <v>9.88721692045352E-03</v>
+      </c>
+      <c r="F1535" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1535" s="0">
+        <v>7.32064421669107E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1535</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1548</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1535"/>
+  <dimension ref="A1:G1548"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -36335,7 +36335,7 @@
         <v>810</v>
       </c>
       <c r="G1523" s="0">
-        <v>0.592972181551977</v>
+        <v>0.592</v>
       </c>
     </row>
     <row outlineLevel="0" r="1524">
@@ -36362,13 +36362,13 @@
         <v>436</v>
       </c>
       <c r="G1524" s="0">
-        <v>0.319180087847731</v>
+        <v>0.319</v>
       </c>
     </row>
     <row outlineLevel="0" r="1525">
       <c r="A1525" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1525" s="1">
@@ -36380,22 +36380,22 @@
         </is>
       </c>
       <c r="D1525" s="0">
-        <v>18394</v>
+        <v>1160</v>
       </c>
       <c r="E1525" s="0">
-        <v>0.137568432704101</v>
+        <v>8.67562150357495E-03</v>
       </c>
       <c r="F1525" s="0">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G1525" s="0">
-        <v>5.78330893118594E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1526">
       <c r="A1526" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1526" s="1">
@@ -36407,22 +36407,22 @@
         </is>
       </c>
       <c r="D1526" s="0">
-        <v>1160</v>
+        <v>175</v>
       </c>
       <c r="E1526" s="0">
-        <v>8.67562150357495E-03</v>
+        <v>1.30882220959105E-03</v>
       </c>
       <c r="F1526" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1526" s="0">
-        <v>1.09809663250366E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1527">
       <c r="A1527" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1527" s="1">
@@ -36434,22 +36434,22 @@
         </is>
       </c>
       <c r="D1527" s="0">
-        <v>175</v>
+        <v>88</v>
       </c>
       <c r="E1527" s="0">
-        <v>1.30882220959105E-03</v>
+        <v>6.58150596822928E-04</v>
       </c>
       <c r="F1527" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1527" s="0">
-        <v>2.92825768667643E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1528">
       <c r="A1528" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1528" s="1">
@@ -36461,16 +36461,16 @@
         </is>
       </c>
       <c r="D1528" s="0">
-        <v>88</v>
+        <v>18394</v>
       </c>
       <c r="E1528" s="0">
-        <v>6.58150596822928E-04</v>
+        <v>0.137568432704101</v>
       </c>
       <c r="F1528" s="0">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="G1528" s="0">
-        <v>1.46412884333821E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="1529">
@@ -36497,7 +36497,7 @@
         <v>20</v>
       </c>
       <c r="G1529" s="0">
-        <v>1.46412884333821E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1530">
@@ -36524,7 +36524,7 @@
         <v>1227</v>
       </c>
       <c r="G1530" s="0">
-        <v>0.898243045387994</v>
+        <v>0.898</v>
       </c>
     </row>
     <row outlineLevel="0" r="1531">
@@ -36551,7 +36551,7 @@
         <v>107</v>
       </c>
       <c r="G1531" s="0">
-        <v>7.83308931185944E-02</v>
+        <v>0.078</v>
       </c>
     </row>
     <row outlineLevel="0" r="1532">
@@ -36578,7 +36578,7 @@
         <v>32</v>
       </c>
       <c r="G1532" s="0">
-        <v>2.34260614934114E-02</v>
+        <v>0.023</v>
       </c>
     </row>
     <row outlineLevel="0" r="1533">
@@ -36605,7 +36605,7 @@
         <v>579</v>
       </c>
       <c r="G1533" s="0">
-        <v>0.423865300146413</v>
+        <v>0.423</v>
       </c>
     </row>
     <row outlineLevel="0" r="1534">
@@ -36632,7 +36632,7 @@
         <v>786</v>
       </c>
       <c r="G1534" s="0">
-        <v>0.575402635431918</v>
+        <v>0.575</v>
       </c>
     </row>
     <row outlineLevel="0" r="1535">
@@ -36659,7 +36659,358 @@
         <v>1</v>
       </c>
       <c r="G1535" s="0">
-        <v>7.32064421669107E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1536">
+      <c r="A1536" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1536" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1536" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1536" s="0">
+        <v>63075</v>
+      </c>
+      <c r="E1536" s="0">
+        <v>0.468109897286707</v>
+      </c>
+      <c r="F1536" s="0">
+        <v>825</v>
+      </c>
+      <c r="G1536" s="0">
+        <v>0.594808940158616</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1537">
+      <c r="A1537" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1537" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1537" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1537" s="0">
+        <v>25587</v>
+      </c>
+      <c r="E1537" s="0">
+        <v>0.189893427536662</v>
+      </c>
+      <c r="F1537" s="0">
+        <v>439</v>
+      </c>
+      <c r="G1537" s="0">
+        <v>0.316510454217736</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1538">
+      <c r="A1538" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1538" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1538" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1538" s="0">
+        <v>18660</v>
+      </c>
+      <c r="E1538" s="0">
+        <v>0.13848483049338</v>
+      </c>
+      <c r="F1538" s="0">
+        <v>79</v>
+      </c>
+      <c r="G1538" s="0">
+        <v>0.056957462148522</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1539">
+      <c r="A1539" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1539" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1539" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1539" s="0">
+        <v>1168</v>
+      </c>
+      <c r="E1539" s="0">
+        <v>8.66828949712047E-03</v>
+      </c>
+      <c r="F1539" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1539" s="0">
+        <v>1.08147080028839E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1540">
+      <c r="A1540" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1540" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1540" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1540" s="0">
+        <v>177</v>
+      </c>
+      <c r="E1540" s="0">
+        <v>1.31360208988897E-03</v>
+      </c>
+      <c r="F1540" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1540" s="0">
+        <v>2.88392213410238E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1541">
+      <c r="A1541" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1541" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1541" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1541" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1541" s="0">
+        <v>6.53090304577569E-04</v>
+      </c>
+      <c r="F1541" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1541" s="0">
+        <v>1.44196106705119E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1542">
+      <c r="A1542" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1542" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1542" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1542" s="0">
+        <v>25989</v>
+      </c>
+      <c r="E1542" s="0">
+        <v>0.192876862791664</v>
+      </c>
+      <c r="F1542" s="0">
+        <v>23</v>
+      </c>
+      <c r="G1542" s="0">
+        <v>1.65825522710887E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1543">
+      <c r="A1543" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1543" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1543" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1543" s="0">
+        <v>78237</v>
+      </c>
+      <c r="E1543" s="0">
+        <v>0.580634388173128</v>
+      </c>
+      <c r="F1543" s="0">
+        <v>1246</v>
+      </c>
+      <c r="G1543" s="0">
+        <v>0.898341744772891</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1544">
+      <c r="A1544" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1544" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1544" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1544" s="0">
+        <v>20425</v>
+      </c>
+      <c r="E1544" s="0">
+        <v>0.151583743988601</v>
+      </c>
+      <c r="F1544" s="0">
+        <v>108</v>
+      </c>
+      <c r="G1544" s="0">
+        <v>7.78658976207642E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1545">
+      <c r="A1545" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1545" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1545" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1545" s="0">
+        <v>36082</v>
+      </c>
+      <c r="E1545" s="0">
+        <v>0.267781867838271</v>
+      </c>
+      <c r="F1545" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1545" s="0">
+        <v>2.37923576063446E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1546">
+      <c r="A1546" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1546" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1546" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1546" s="0">
+        <v>68091</v>
+      </c>
+      <c r="E1546" s="0">
+        <v>0.505336044647628</v>
+      </c>
+      <c r="F1546" s="0">
+        <v>587</v>
+      </c>
+      <c r="G1546" s="0">
+        <v>0.423215573179524</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1547">
+      <c r="A1547" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1547" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1547" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1547" s="0">
+        <v>65331</v>
+      </c>
+      <c r="E1547" s="0">
+        <v>0.484852757822241</v>
+      </c>
+      <c r="F1547" s="0">
+        <v>799</v>
+      </c>
+      <c r="G1547" s="0">
+        <v>0.57606344628695</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1548">
+      <c r="A1548" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1548" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1548" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1548" s="0">
+        <v>1322</v>
+      </c>
+      <c r="E1548" s="0">
+        <v>9.81119753013121E-03</v>
+      </c>
+      <c r="F1548" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1548" s="0">
+        <v>7.20980533525595E-04</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1548</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1561</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1548"/>
+  <dimension ref="A1:G1561"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -36686,7 +36686,7 @@
         <v>825</v>
       </c>
       <c r="G1536" s="0">
-        <v>0.594808940158616</v>
+        <v>0.594</v>
       </c>
     </row>
     <row outlineLevel="0" r="1537">
@@ -36713,13 +36713,13 @@
         <v>439</v>
       </c>
       <c r="G1537" s="0">
-        <v>0.316510454217736</v>
+        <v>0.316</v>
       </c>
     </row>
     <row outlineLevel="0" r="1538">
       <c r="A1538" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1538" s="1">
@@ -36731,22 +36731,22 @@
         </is>
       </c>
       <c r="D1538" s="0">
-        <v>18660</v>
+        <v>1168</v>
       </c>
       <c r="E1538" s="0">
-        <v>0.13848483049338</v>
+        <v>8.66828949712047E-03</v>
       </c>
       <c r="F1538" s="0">
-        <v>79</v>
+        <v>15</v>
       </c>
       <c r="G1538" s="0">
-        <v>0.056957462148522</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1539">
       <c r="A1539" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1539" s="1">
@@ -36758,22 +36758,22 @@
         </is>
       </c>
       <c r="D1539" s="0">
-        <v>1168</v>
+        <v>177</v>
       </c>
       <c r="E1539" s="0">
-        <v>8.66828949712047E-03</v>
+        <v>1.31360208988897E-03</v>
       </c>
       <c r="F1539" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1539" s="0">
-        <v>1.08147080028839E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1540">
       <c r="A1540" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1540" s="1">
@@ -36785,22 +36785,22 @@
         </is>
       </c>
       <c r="D1540" s="0">
-        <v>177</v>
+        <v>88</v>
       </c>
       <c r="E1540" s="0">
-        <v>1.31360208988897E-03</v>
+        <v>6.53090304577569E-04</v>
       </c>
       <c r="F1540" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1540" s="0">
-        <v>2.88392213410238E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1541">
       <c r="A1541" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1541" s="1">
@@ -36812,16 +36812,16 @@
         </is>
       </c>
       <c r="D1541" s="0">
-        <v>88</v>
+        <v>18660</v>
       </c>
       <c r="E1541" s="0">
-        <v>6.53090304577569E-04</v>
+        <v>0.13848483049338</v>
       </c>
       <c r="F1541" s="0">
-        <v>2</v>
+        <v>79</v>
       </c>
       <c r="G1541" s="0">
-        <v>1.44196106705119E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1542">
@@ -36848,7 +36848,7 @@
         <v>23</v>
       </c>
       <c r="G1542" s="0">
-        <v>1.65825522710887E-02</v>
+        <v>0.016</v>
       </c>
     </row>
     <row outlineLevel="0" r="1543">
@@ -36875,7 +36875,7 @@
         <v>1246</v>
       </c>
       <c r="G1543" s="0">
-        <v>0.898341744772891</v>
+        <v>0.898</v>
       </c>
     </row>
     <row outlineLevel="0" r="1544">
@@ -36902,7 +36902,7 @@
         <v>108</v>
       </c>
       <c r="G1544" s="0">
-        <v>7.78658976207642E-02</v>
+        <v>0.077</v>
       </c>
     </row>
     <row outlineLevel="0" r="1545">
@@ -36929,7 +36929,7 @@
         <v>33</v>
       </c>
       <c r="G1545" s="0">
-        <v>2.37923576063446E-02</v>
+        <v>0.023</v>
       </c>
     </row>
     <row outlineLevel="0" r="1546">
@@ -36956,7 +36956,7 @@
         <v>587</v>
       </c>
       <c r="G1546" s="0">
-        <v>0.423215573179524</v>
+        <v>0.423</v>
       </c>
     </row>
     <row outlineLevel="0" r="1547">
@@ -36983,7 +36983,7 @@
         <v>799</v>
       </c>
       <c r="G1547" s="0">
-        <v>0.57606344628695</v>
+        <v>0.576</v>
       </c>
     </row>
     <row outlineLevel="0" r="1548">
@@ -37010,7 +37010,358 @@
         <v>1</v>
       </c>
       <c r="G1548" s="0">
-        <v>7.20980533525595E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1549">
+      <c r="A1549" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1549" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1549" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1549" s="0">
+        <v>63936</v>
+      </c>
+      <c r="E1549" s="0">
+        <v>0.47088629969509</v>
+      </c>
+      <c r="F1549" s="0">
+        <v>853</v>
+      </c>
+      <c r="G1549" s="0">
+        <v>0.598176718092567</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1550">
+      <c r="A1550" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1550" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1550" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1550" s="0">
+        <v>25849</v>
+      </c>
+      <c r="E1550" s="0">
+        <v>0.190376938826614</v>
+      </c>
+      <c r="F1550" s="0">
+        <v>445</v>
+      </c>
+      <c r="G1550" s="0">
+        <v>0.312061711079944</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1551">
+      <c r="A1551" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1551" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1551" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1551" s="0">
+        <v>18570</v>
+      </c>
+      <c r="E1551" s="0">
+        <v>0.13676737026617</v>
+      </c>
+      <c r="F1551" s="0">
+        <v>82</v>
+      </c>
+      <c r="G1551" s="0">
+        <v>5.75035063113604E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1552">
+      <c r="A1552" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1552" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1552" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1552" s="0">
+        <v>1185</v>
+      </c>
+      <c r="E1552" s="0">
+        <v>8.72748162441633E-03</v>
+      </c>
+      <c r="F1552" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1552" s="0">
+        <v>1.05189340813464E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1553">
+      <c r="A1553" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1553" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1553" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1553" s="0">
+        <v>180</v>
+      </c>
+      <c r="E1553" s="0">
+        <v>1.32569341130375E-03</v>
+      </c>
+      <c r="F1553" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1553" s="0">
+        <v>2.80504908835905E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1554">
+      <c r="A1554" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1554" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1554" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1554" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1554" s="0">
+        <v>6.48116778859609E-04</v>
+      </c>
+      <c r="F1554" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1554" s="0">
+        <v>1.40252454417952E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1555">
+      <c r="A1555" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1555" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1555" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1555" s="0">
+        <v>25970</v>
+      </c>
+      <c r="E1555" s="0">
+        <v>0.191268099397546</v>
+      </c>
+      <c r="F1555" s="0">
+        <v>25</v>
+      </c>
+      <c r="G1555" s="0">
+        <v>0.017531556802244</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1556">
+      <c r="A1556" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1556" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1556" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1556" s="0">
+        <v>79229</v>
+      </c>
+      <c r="E1556" s="0">
+        <v>0.583518684912136</v>
+      </c>
+      <c r="F1556" s="0">
+        <v>1280</v>
+      </c>
+      <c r="G1556" s="0">
+        <v>0.897615708274895</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1557">
+      <c r="A1557" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1557" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1557" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1557" s="0">
+        <v>20553</v>
+      </c>
+      <c r="E1557" s="0">
+        <v>0.151372092680699</v>
+      </c>
+      <c r="F1557" s="0">
+        <v>108</v>
+      </c>
+      <c r="G1557" s="0">
+        <v>7.57363253856942E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1558">
+      <c r="A1558" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1558" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1558" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1558" s="0">
+        <v>35996</v>
+      </c>
+      <c r="E1558" s="0">
+        <v>0.265109222407165</v>
+      </c>
+      <c r="F1558" s="0">
+        <v>38</v>
+      </c>
+      <c r="G1558" s="0">
+        <v>2.66479663394109E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1559">
+      <c r="A1559" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1559" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1559" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1559" s="0">
+        <v>68628</v>
+      </c>
+      <c r="E1559" s="0">
+        <v>0.505442707949741</v>
+      </c>
+      <c r="F1559" s="0">
+        <v>607</v>
+      </c>
+      <c r="G1559" s="0">
+        <v>0.425666199158485</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1560">
+      <c r="A1560" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1560" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1560" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1560" s="0">
+        <v>65800</v>
+      </c>
+      <c r="E1560" s="0">
+        <v>0.48461459146548</v>
+      </c>
+      <c r="F1560" s="0">
+        <v>817</v>
+      </c>
+      <c r="G1560" s="0">
+        <v>0.572931276297335</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1561">
+      <c r="A1561" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1561" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1561" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1561" s="0">
+        <v>1350</v>
+      </c>
+      <c r="E1561" s="0">
+        <v>9.94270058477809E-03</v>
+      </c>
+      <c r="F1561" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1561" s="0">
+        <v>1.40252454417952E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1561</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1574</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1561"/>
+  <dimension ref="A1:G1574"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -37037,7 +37037,7 @@
         <v>853</v>
       </c>
       <c r="G1549" s="0">
-        <v>0.598176718092567</v>
+        <v>0.598</v>
       </c>
     </row>
     <row outlineLevel="0" r="1550">
@@ -37064,13 +37064,13 @@
         <v>445</v>
       </c>
       <c r="G1550" s="0">
-        <v>0.312061711079944</v>
+        <v>0.312</v>
       </c>
     </row>
     <row outlineLevel="0" r="1551">
       <c r="A1551" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1551" s="1">
@@ -37082,22 +37082,22 @@
         </is>
       </c>
       <c r="D1551" s="0">
-        <v>18570</v>
+        <v>1185</v>
       </c>
       <c r="E1551" s="0">
-        <v>0.13676737026617</v>
+        <v>8.72748162441633E-03</v>
       </c>
       <c r="F1551" s="0">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G1551" s="0">
-        <v>5.75035063113604E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1552">
       <c r="A1552" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1552" s="1">
@@ -37109,22 +37109,22 @@
         </is>
       </c>
       <c r="D1552" s="0">
-        <v>1185</v>
+        <v>180</v>
       </c>
       <c r="E1552" s="0">
-        <v>8.72748162441633E-03</v>
+        <v>1.32569341130375E-03</v>
       </c>
       <c r="F1552" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1552" s="0">
-        <v>1.05189340813464E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1553">
       <c r="A1553" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1553" s="1">
@@ -37136,22 +37136,22 @@
         </is>
       </c>
       <c r="D1553" s="0">
-        <v>180</v>
+        <v>88</v>
       </c>
       <c r="E1553" s="0">
-        <v>1.32569341130375E-03</v>
+        <v>6.48116778859609E-04</v>
       </c>
       <c r="F1553" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1553" s="0">
-        <v>2.80504908835905E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1554">
       <c r="A1554" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1554" s="1">
@@ -37163,16 +37163,16 @@
         </is>
       </c>
       <c r="D1554" s="0">
-        <v>88</v>
+        <v>18570</v>
       </c>
       <c r="E1554" s="0">
-        <v>6.48116778859609E-04</v>
+        <v>0.13676737026617</v>
       </c>
       <c r="F1554" s="0">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="G1554" s="0">
-        <v>1.40252454417952E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="1555">
@@ -37199,7 +37199,7 @@
         <v>25</v>
       </c>
       <c r="G1555" s="0">
-        <v>0.017531556802244</v>
+        <v>0.017</v>
       </c>
     </row>
     <row outlineLevel="0" r="1556">
@@ -37226,7 +37226,7 @@
         <v>1280</v>
       </c>
       <c r="G1556" s="0">
-        <v>0.897615708274895</v>
+        <v>0.897</v>
       </c>
     </row>
     <row outlineLevel="0" r="1557">
@@ -37253,7 +37253,7 @@
         <v>108</v>
       </c>
       <c r="G1557" s="0">
-        <v>7.57363253856942E-02</v>
+        <v>0.075</v>
       </c>
     </row>
     <row outlineLevel="0" r="1558">
@@ -37280,7 +37280,7 @@
         <v>38</v>
       </c>
       <c r="G1558" s="0">
-        <v>2.66479663394109E-02</v>
+        <v>0.026</v>
       </c>
     </row>
     <row outlineLevel="0" r="1559">
@@ -37307,7 +37307,7 @@
         <v>607</v>
       </c>
       <c r="G1559" s="0">
-        <v>0.425666199158485</v>
+        <v>0.425</v>
       </c>
     </row>
     <row outlineLevel="0" r="1560">
@@ -37334,7 +37334,7 @@
         <v>817</v>
       </c>
       <c r="G1560" s="0">
-        <v>0.572931276297335</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="1561">
@@ -37361,7 +37361,358 @@
         <v>2</v>
       </c>
       <c r="G1561" s="0">
-        <v>1.40252454417952E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1562">
+      <c r="A1562" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1562" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1562" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1562" s="0">
+        <v>65711</v>
+      </c>
+      <c r="E1562" s="0">
+        <v>0.476857764876633</v>
+      </c>
+      <c r="F1562" s="0">
+        <v>873</v>
+      </c>
+      <c r="G1562" s="0">
+        <v>0.601239669421488</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1563">
+      <c r="A1563" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1563" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1563" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1563" s="0">
+        <v>26597</v>
+      </c>
+      <c r="E1563" s="0">
+        <v>0.193011611030479</v>
+      </c>
+      <c r="F1563" s="0">
+        <v>449</v>
+      </c>
+      <c r="G1563" s="0">
+        <v>0.309228650137741</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1564">
+      <c r="A1564" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1564" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1564" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1564" s="0">
+        <v>18896</v>
+      </c>
+      <c r="E1564" s="0">
+        <v>0.137126269956459</v>
+      </c>
+      <c r="F1564" s="0">
+        <v>82</v>
+      </c>
+      <c r="G1564" s="0">
+        <v>5.64738292011019E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1565">
+      <c r="A1565" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1565" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1565" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1565" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E1565" s="0">
+        <v>8.67924528301887E-03</v>
+      </c>
+      <c r="F1565" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1565" s="0">
+        <v>1.03305785123967E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1566">
+      <c r="A1566" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1566" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1566" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1566" s="0">
+        <v>188</v>
+      </c>
+      <c r="E1566" s="0">
+        <v>1.36429608127721E-03</v>
+      </c>
+      <c r="F1566" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1566" s="0">
+        <v>2.75482093663912E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1567">
+      <c r="A1567" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1567" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1567" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1567" s="0">
+        <v>89</v>
+      </c>
+      <c r="E1567" s="0">
+        <v>6.45863570391872E-04</v>
+      </c>
+      <c r="F1567" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1567" s="0">
+        <v>1.37741046831956E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1568">
+      <c r="A1568" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1568" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1568" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1568" s="0">
+        <v>25123</v>
+      </c>
+      <c r="E1568" s="0">
+        <v>0.182314949201742</v>
+      </c>
+      <c r="F1568" s="0">
+        <v>27</v>
+      </c>
+      <c r="G1568" s="0">
+        <v>1.85950413223141E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1569">
+      <c r="A1569" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1569" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1569" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1569" s="0">
+        <v>82135</v>
+      </c>
+      <c r="E1569" s="0">
+        <v>0.596044992743106</v>
+      </c>
+      <c r="F1569" s="0">
+        <v>1307</v>
+      </c>
+      <c r="G1569" s="0">
+        <v>0.900137741046832</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1570">
+      <c r="A1570" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1570" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1570" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1570" s="0">
+        <v>20826</v>
+      </c>
+      <c r="E1570" s="0">
+        <v>0.151132075471698</v>
+      </c>
+      <c r="F1570" s="0">
+        <v>110</v>
+      </c>
+      <c r="G1570" s="0">
+        <v>7.57575757575758E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1571">
+      <c r="A1571" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1571" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1571" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1571" s="0">
+        <v>34839</v>
+      </c>
+      <c r="E1571" s="0">
+        <v>0.252822931785196</v>
+      </c>
+      <c r="F1571" s="0">
+        <v>35</v>
+      </c>
+      <c r="G1571" s="0">
+        <v>2.41046831955923E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1572">
+      <c r="A1572" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1572" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1572" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1572" s="0">
+        <v>69687</v>
+      </c>
+      <c r="E1572" s="0">
+        <v>0.505711175616836</v>
+      </c>
+      <c r="F1572" s="0">
+        <v>621</v>
+      </c>
+      <c r="G1572" s="0">
+        <v>0.427685950413223</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1573">
+      <c r="A1573" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1573" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1573" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1573" s="0">
+        <v>66816</v>
+      </c>
+      <c r="E1573" s="0">
+        <v>0.484876632801161</v>
+      </c>
+      <c r="F1573" s="0">
+        <v>829</v>
+      </c>
+      <c r="G1573" s="0">
+        <v>0.570936639118457</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1574">
+      <c r="A1574" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1574" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1574" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1574" s="0">
+        <v>1297</v>
+      </c>
+      <c r="E1574" s="0">
+        <v>9.4121915820029E-03</v>
+      </c>
+      <c r="F1574" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1574" s="0">
+        <v>1.37741046831956E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1574</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1587</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1574"/>
+  <dimension ref="A1:G1587"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -37388,7 +37388,7 @@
         <v>873</v>
       </c>
       <c r="G1562" s="0">
-        <v>0.601239669421488</v>
+        <v>0.601</v>
       </c>
     </row>
     <row outlineLevel="0" r="1563">
@@ -37415,13 +37415,13 @@
         <v>449</v>
       </c>
       <c r="G1563" s="0">
-        <v>0.309228650137741</v>
+        <v>0.309</v>
       </c>
     </row>
     <row outlineLevel="0" r="1564">
       <c r="A1564" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1564" s="1">
@@ -37433,22 +37433,22 @@
         </is>
       </c>
       <c r="D1564" s="0">
-        <v>18896</v>
+        <v>1196</v>
       </c>
       <c r="E1564" s="0">
-        <v>0.137126269956459</v>
+        <v>8.67924528301887E-03</v>
       </c>
       <c r="F1564" s="0">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="G1564" s="0">
-        <v>5.64738292011019E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1565">
       <c r="A1565" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1565" s="1">
@@ -37460,22 +37460,22 @@
         </is>
       </c>
       <c r="D1565" s="0">
-        <v>1196</v>
+        <v>188</v>
       </c>
       <c r="E1565" s="0">
-        <v>8.67924528301887E-03</v>
+        <v>1.36429608127721E-03</v>
       </c>
       <c r="F1565" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1565" s="0">
-        <v>1.03305785123967E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1566">
       <c r="A1566" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1566" s="1">
@@ -37487,22 +37487,22 @@
         </is>
       </c>
       <c r="D1566" s="0">
-        <v>188</v>
+        <v>89</v>
       </c>
       <c r="E1566" s="0">
-        <v>1.36429608127721E-03</v>
+        <v>6.45863570391872E-04</v>
       </c>
       <c r="F1566" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1566" s="0">
-        <v>2.75482093663912E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1567">
       <c r="A1567" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1567" s="1">
@@ -37514,16 +37514,16 @@
         </is>
       </c>
       <c r="D1567" s="0">
-        <v>89</v>
+        <v>18896</v>
       </c>
       <c r="E1567" s="0">
-        <v>6.45863570391872E-04</v>
+        <v>0.137126269956459</v>
       </c>
       <c r="F1567" s="0">
-        <v>2</v>
+        <v>82</v>
       </c>
       <c r="G1567" s="0">
-        <v>1.37741046831956E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1568">
@@ -37550,7 +37550,7 @@
         <v>27</v>
       </c>
       <c r="G1568" s="0">
-        <v>1.85950413223141E-02</v>
+        <v>0.018</v>
       </c>
     </row>
     <row outlineLevel="0" r="1569">
@@ -37577,7 +37577,7 @@
         <v>1307</v>
       </c>
       <c r="G1569" s="0">
-        <v>0.900137741046832</v>
+        <v>0.9</v>
       </c>
     </row>
     <row outlineLevel="0" r="1570">
@@ -37604,7 +37604,7 @@
         <v>110</v>
       </c>
       <c r="G1570" s="0">
-        <v>7.57575757575758E-02</v>
+        <v>0.075</v>
       </c>
     </row>
     <row outlineLevel="0" r="1571">
@@ -37631,7 +37631,7 @@
         <v>35</v>
       </c>
       <c r="G1571" s="0">
-        <v>2.41046831955923E-02</v>
+        <v>0.024</v>
       </c>
     </row>
     <row outlineLevel="0" r="1572">
@@ -37658,7 +37658,7 @@
         <v>621</v>
       </c>
       <c r="G1572" s="0">
-        <v>0.427685950413223</v>
+        <v>0.427</v>
       </c>
     </row>
     <row outlineLevel="0" r="1573">
@@ -37685,7 +37685,7 @@
         <v>829</v>
       </c>
       <c r="G1573" s="0">
-        <v>0.570936639118457</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1574">
@@ -37712,7 +37712,358 @@
         <v>2</v>
       </c>
       <c r="G1574" s="0">
-        <v>1.37741046831956E-03</v>
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1575">
+      <c r="A1575" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1575" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1575" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1575" s="0">
+        <v>66776</v>
+      </c>
+      <c r="E1575" s="0">
+        <v>0.479798814442249</v>
+      </c>
+      <c r="F1575" s="0">
+        <v>895</v>
+      </c>
+      <c r="G1575" s="0">
+        <v>0.601478494623656</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1576">
+      <c r="A1576" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1576" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1576" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1576" s="0">
+        <v>26868</v>
+      </c>
+      <c r="E1576" s="0">
+        <v>0.193051913059098</v>
+      </c>
+      <c r="F1576" s="0">
+        <v>458</v>
+      </c>
+      <c r="G1576" s="0">
+        <v>0.307795698924731</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1577">
+      <c r="A1577" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1577" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1577" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1577" s="0">
+        <v>19072</v>
+      </c>
+      <c r="E1577" s="0">
+        <v>0.137036105622418</v>
+      </c>
+      <c r="F1577" s="0">
+        <v>85</v>
+      </c>
+      <c r="G1577" s="0">
+        <v>5.71236559139785E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1578">
+      <c r="A1578" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1578" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1578" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1578" s="0">
+        <v>1205</v>
+      </c>
+      <c r="E1578" s="0">
+        <v>8.65816418178552E-03</v>
+      </c>
+      <c r="F1578" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1578" s="0">
+        <v>1.00806451612903E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1579">
+      <c r="A1579" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1579" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1579" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1579" s="0">
+        <v>193</v>
+      </c>
+      <c r="E1579" s="0">
+        <v>1.38674330878391E-03</v>
+      </c>
+      <c r="F1579" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1579" s="0">
+        <v>2.68817204301075E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1580">
+      <c r="A1580" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1580" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1580" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1580" s="0">
+        <v>90</v>
+      </c>
+      <c r="E1580" s="0">
+        <v>6.46667864199749E-04</v>
+      </c>
+      <c r="F1580" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1580" s="0">
+        <v>1.34408602150538E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1581">
+      <c r="A1581" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1581" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1581" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1581" s="0">
+        <v>24971</v>
+      </c>
+      <c r="E1581" s="0">
+        <v>0.179421591521466</v>
+      </c>
+      <c r="F1581" s="0">
+        <v>29</v>
+      </c>
+      <c r="G1581" s="0">
+        <v>0.019489247311828</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1582">
+      <c r="A1582" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1582" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1582" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1582" s="0">
+        <v>83560</v>
+      </c>
+      <c r="E1582" s="0">
+        <v>0.600395185917011</v>
+      </c>
+      <c r="F1582" s="0">
+        <v>1335</v>
+      </c>
+      <c r="G1582" s="0">
+        <v>0.897177419354839</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1583">
+      <c r="A1583" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1583" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1583" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1583" s="0">
+        <v>21025</v>
+      </c>
+      <c r="E1583" s="0">
+        <v>0.151068798275552</v>
+      </c>
+      <c r="F1583" s="0">
+        <v>112</v>
+      </c>
+      <c r="G1583" s="0">
+        <v>7.52688172043011E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1584">
+      <c r="A1584" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1584" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1584" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1584" s="0">
+        <v>34590</v>
+      </c>
+      <c r="E1584" s="0">
+        <v>0.248536015807437</v>
+      </c>
+      <c r="F1584" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1584" s="0">
+        <v>2.75537634408602E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1585">
+      <c r="A1585" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1585" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1585" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1585" s="0">
+        <v>70407</v>
+      </c>
+      <c r="E1585" s="0">
+        <v>0.505888270163463</v>
+      </c>
+      <c r="F1585" s="0">
+        <v>634</v>
+      </c>
+      <c r="G1585" s="0">
+        <v>0.426075268817204</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1586">
+      <c r="A1586" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1586" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1586" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1586" s="0">
+        <v>67475</v>
+      </c>
+      <c r="E1586" s="0">
+        <v>0.484821268187534</v>
+      </c>
+      <c r="F1586" s="0">
+        <v>851</v>
+      </c>
+      <c r="G1586" s="0">
+        <v>0.571908602150538</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1587">
+      <c r="A1587" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1587" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1587" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1587" s="0">
+        <v>1293</v>
+      </c>
+      <c r="E1587" s="0">
+        <v>9.29046164900305E-03</v>
+      </c>
+      <c r="F1587" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1587" s="0">
+        <v>2.01612903225806E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1587</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1600</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1587"/>
+  <dimension ref="A1:G1600"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -37739,7 +37739,7 @@
         <v>895</v>
       </c>
       <c r="G1575" s="0">
-        <v>0.601478494623656</v>
+        <v>0.601</v>
       </c>
     </row>
     <row outlineLevel="0" r="1576">
@@ -37766,13 +37766,13 @@
         <v>458</v>
       </c>
       <c r="G1576" s="0">
-        <v>0.307795698924731</v>
+        <v>0.307</v>
       </c>
     </row>
     <row outlineLevel="0" r="1577">
       <c r="A1577" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1577" s="1">
@@ -37784,22 +37784,22 @@
         </is>
       </c>
       <c r="D1577" s="0">
-        <v>19072</v>
+        <v>1205</v>
       </c>
       <c r="E1577" s="0">
-        <v>0.137036105622418</v>
+        <v>8.65816418178552E-03</v>
       </c>
       <c r="F1577" s="0">
-        <v>85</v>
+        <v>15</v>
       </c>
       <c r="G1577" s="0">
-        <v>5.71236559139785E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1578">
       <c r="A1578" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1578" s="1">
@@ -37811,22 +37811,22 @@
         </is>
       </c>
       <c r="D1578" s="0">
-        <v>1205</v>
+        <v>193</v>
       </c>
       <c r="E1578" s="0">
-        <v>8.65816418178552E-03</v>
+        <v>1.38674330878391E-03</v>
       </c>
       <c r="F1578" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1578" s="0">
-        <v>1.00806451612903E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1579">
       <c r="A1579" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1579" s="1">
@@ -37838,22 +37838,22 @@
         </is>
       </c>
       <c r="D1579" s="0">
-        <v>193</v>
+        <v>90</v>
       </c>
       <c r="E1579" s="0">
-        <v>1.38674330878391E-03</v>
+        <v>6.46667864199749E-04</v>
       </c>
       <c r="F1579" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1579" s="0">
-        <v>2.68817204301075E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1580">
       <c r="A1580" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1580" s="1">
@@ -37865,16 +37865,16 @@
         </is>
       </c>
       <c r="D1580" s="0">
-        <v>90</v>
+        <v>19072</v>
       </c>
       <c r="E1580" s="0">
-        <v>6.46667864199749E-04</v>
+        <v>0.137036105622418</v>
       </c>
       <c r="F1580" s="0">
-        <v>2</v>
+        <v>85</v>
       </c>
       <c r="G1580" s="0">
-        <v>1.34408602150538E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="1581">
@@ -37901,7 +37901,7 @@
         <v>29</v>
       </c>
       <c r="G1581" s="0">
-        <v>0.019489247311828</v>
+        <v>0.019</v>
       </c>
     </row>
     <row outlineLevel="0" r="1582">
@@ -37928,7 +37928,7 @@
         <v>1335</v>
       </c>
       <c r="G1582" s="0">
-        <v>0.897177419354839</v>
+        <v>0.897</v>
       </c>
     </row>
     <row outlineLevel="0" r="1583">
@@ -37955,7 +37955,7 @@
         <v>112</v>
       </c>
       <c r="G1583" s="0">
-        <v>7.52688172043011E-02</v>
+        <v>0.075</v>
       </c>
     </row>
     <row outlineLevel="0" r="1584">
@@ -37982,7 +37982,7 @@
         <v>41</v>
       </c>
       <c r="G1584" s="0">
-        <v>2.75537634408602E-02</v>
+        <v>0.027</v>
       </c>
     </row>
     <row outlineLevel="0" r="1585">
@@ -38009,7 +38009,7 @@
         <v>634</v>
       </c>
       <c r="G1585" s="0">
-        <v>0.426075268817204</v>
+        <v>0.426</v>
       </c>
     </row>
     <row outlineLevel="0" r="1586">
@@ -38036,7 +38036,7 @@
         <v>851</v>
       </c>
       <c r="G1586" s="0">
-        <v>0.571908602150538</v>
+        <v>0.571</v>
       </c>
     </row>
     <row outlineLevel="0" r="1587">
@@ -38063,7 +38063,358 @@
         <v>3</v>
       </c>
       <c r="G1587" s="0">
-        <v>2.01612903225806E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1588">
+      <c r="A1588" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1588" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1588" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1588" s="0">
+        <v>67673</v>
+      </c>
+      <c r="E1588" s="0">
+        <v>0.480481951662833</v>
+      </c>
+      <c r="F1588" s="0">
+        <v>933</v>
+      </c>
+      <c r="G1588" s="0">
+        <v>0.602324080051646</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1589">
+      <c r="A1589" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1589" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1589" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1589" s="0">
+        <v>27118</v>
+      </c>
+      <c r="E1589" s="0">
+        <v>0.192539263298401</v>
+      </c>
+      <c r="F1589" s="0">
+        <v>473</v>
+      </c>
+      <c r="G1589" s="0">
+        <v>0.305358295674629</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1590">
+      <c r="A1590" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1590" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1590" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1590" s="0">
+        <v>19269</v>
+      </c>
+      <c r="E1590" s="0">
+        <v>0.136810939763142</v>
+      </c>
+      <c r="F1590" s="0">
+        <v>90</v>
+      </c>
+      <c r="G1590" s="0">
+        <v>5.81020012911556E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1591">
+      <c r="A1591" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1591" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1591" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1591" s="0">
+        <v>1219</v>
+      </c>
+      <c r="E1591" s="0">
+        <v>8.65496577773991E-03</v>
+      </c>
+      <c r="F1591" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1591" s="0">
+        <v>9.68366688185926E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1592">
+      <c r="A1592" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1592" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1592" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1592" s="0">
+        <v>194</v>
+      </c>
+      <c r="E1592" s="0">
+        <v>1.37741046831956E-03</v>
+      </c>
+      <c r="F1592" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1592" s="0">
+        <v>2.5823111684958E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1593">
+      <c r="A1593" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1593" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1593" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1593" s="0">
+        <v>95</v>
+      </c>
+      <c r="E1593" s="0">
+        <v>6.74505126238959E-04</v>
+      </c>
+      <c r="F1593" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1593" s="0">
+        <v>1.2911555842479E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1594">
+      <c r="A1594" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1594" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1594" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1594" s="0">
+        <v>25276</v>
+      </c>
+      <c r="E1594" s="0">
+        <v>0.179460963903326</v>
+      </c>
+      <c r="F1594" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1594" s="0">
+        <v>2.06584893479664E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1595">
+      <c r="A1595" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1595" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1595" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1595" s="0">
+        <v>84594</v>
+      </c>
+      <c r="E1595" s="0">
+        <v>0.600621964726932</v>
+      </c>
+      <c r="F1595" s="0">
+        <v>1386</v>
+      </c>
+      <c r="G1595" s="0">
+        <v>0.894770819883796</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1596">
+      <c r="A1596" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1596" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1596" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1596" s="0">
+        <v>21184</v>
+      </c>
+      <c r="E1596" s="0">
+        <v>0.150407543097328</v>
+      </c>
+      <c r="F1596" s="0">
+        <v>114</v>
+      </c>
+      <c r="G1596" s="0">
+        <v>7.35958683021304E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1597">
+      <c r="A1597" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1597" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1597" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1597" s="0">
+        <v>35066</v>
+      </c>
+      <c r="E1597" s="0">
+        <v>0.248970492175741</v>
+      </c>
+      <c r="F1597" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1597" s="0">
+        <v>3.16333118140736E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1598">
+      <c r="A1598" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1598" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1598" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1598" s="0">
+        <v>71287</v>
+      </c>
+      <c r="E1598" s="0">
+        <v>0.506141546675755</v>
+      </c>
+      <c r="F1598" s="0">
+        <v>660</v>
+      </c>
+      <c r="G1598" s="0">
+        <v>0.426081342801808</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1599">
+      <c r="A1599" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1599" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1599" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1599" s="0">
+        <v>68252</v>
+      </c>
+      <c r="E1599" s="0">
+        <v>0.48459288290591</v>
+      </c>
+      <c r="F1599" s="0">
+        <v>885</v>
+      </c>
+      <c r="G1599" s="0">
+        <v>0.571336346029697</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1600">
+      <c r="A1600" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1600" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1600" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1600" s="0">
+        <v>1305</v>
+      </c>
+      <c r="E1600" s="0">
+        <v>9.26557041833518E-03</v>
+      </c>
+      <c r="F1600" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1600" s="0">
+        <v>2.5823111684958E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1496</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1613</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1496"/>
+  <dimension ref="A1:G1613"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -35282,7 +35282,7 @@
         <v>778</v>
       </c>
       <c r="G1484" s="0">
-        <v>0.592536176694593</v>
+        <v>0.592</v>
       </c>
     </row>
     <row outlineLevel="0" r="1485">
@@ -35309,13 +35309,13 @@
         <v>423</v>
       </c>
       <c r="G1485" s="0">
-        <v>0.322162985529322</v>
+        <v>0.322</v>
       </c>
     </row>
     <row outlineLevel="0" r="1486">
       <c r="A1486" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1486" s="1">
@@ -35327,22 +35327,22 @@
         </is>
       </c>
       <c r="D1486" s="0">
-        <v>18000</v>
+        <v>1122</v>
       </c>
       <c r="E1486" s="0">
-        <v>0.140065830940542</v>
+        <v>8.73077012862712E-03</v>
       </c>
       <c r="F1486" s="0">
-        <v>74</v>
+        <v>16</v>
       </c>
       <c r="G1486" s="0">
-        <v>5.63594821020564E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1487">
       <c r="A1487" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1487" s="1">
@@ -35354,22 +35354,22 @@
         </is>
       </c>
       <c r="D1487" s="0">
-        <v>1122</v>
+        <v>169</v>
       </c>
       <c r="E1487" s="0">
-        <v>8.73077012862712E-03</v>
+        <v>1.31506252383064E-03</v>
       </c>
       <c r="F1487" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1487" s="0">
-        <v>1.21858339680122E-02</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="1488">
       <c r="A1488" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1488" s="1">
@@ -35381,22 +35381,22 @@
         </is>
       </c>
       <c r="D1488" s="0">
-        <v>169</v>
+        <v>87</v>
       </c>
       <c r="E1488" s="0">
-        <v>1.31506252383064E-03</v>
+        <v>6.76984849545953E-04</v>
       </c>
       <c r="F1488" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1488" s="0">
-        <v>3.04645849200305E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1489">
       <c r="A1489" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1489" s="1">
@@ -35408,16 +35408,16 @@
         </is>
       </c>
       <c r="D1489" s="0">
-        <v>87</v>
+        <v>18000</v>
       </c>
       <c r="E1489" s="0">
-        <v>6.76984849545953E-04</v>
+        <v>0.140065830940542</v>
       </c>
       <c r="F1489" s="0">
-        <v>2</v>
+        <v>74</v>
       </c>
       <c r="G1489" s="0">
-        <v>1.52322924600152E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1490">
@@ -35444,7 +35444,7 @@
         <v>16</v>
       </c>
       <c r="G1490" s="0">
-        <v>1.21858339680122E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1491">
@@ -35471,7 +35471,7 @@
         <v>1188</v>
       </c>
       <c r="G1491" s="0">
-        <v>0.904798172124905</v>
+        <v>0.904</v>
       </c>
     </row>
     <row outlineLevel="0" r="1492">
@@ -35498,7 +35498,7 @@
         <v>106</v>
       </c>
       <c r="G1492" s="0">
-        <v>8.07311500380807E-02</v>
+        <v>0.08</v>
       </c>
     </row>
     <row outlineLevel="0" r="1493">
@@ -35525,7 +35525,7 @@
         <v>19</v>
       </c>
       <c r="G1493" s="0">
-        <v>1.44706778370145E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1494">
@@ -35552,7 +35552,7 @@
         <v>563</v>
       </c>
       <c r="G1494" s="0">
-        <v>0.428789032749429</v>
+        <v>0.428</v>
       </c>
     </row>
     <row outlineLevel="0" r="1495">
@@ -35579,7 +35579,7 @@
         <v>749</v>
       </c>
       <c r="G1495" s="0">
-        <v>0.57044935262757</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1496">
@@ -35606,7 +35606,3166 @@
         <v>1</v>
       </c>
       <c r="G1496" s="0">
-        <v>7.61614623000762E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1497">
+      <c r="A1497" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1497" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1497" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1497" s="0">
+        <v>60956</v>
+      </c>
+      <c r="E1497" s="0">
+        <v>0.467246163516227</v>
+      </c>
+      <c r="F1497" s="0">
+        <v>786</v>
+      </c>
+      <c r="G1497" s="0">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1498">
+      <c r="A1498" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1498" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1498" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1498" s="0">
+        <v>25051</v>
+      </c>
+      <c r="E1498" s="0">
+        <v>0.192023486486072</v>
+      </c>
+      <c r="F1498" s="0">
+        <v>426</v>
+      </c>
+      <c r="G1498" s="0">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1499">
+      <c r="A1499" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1499" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1499" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1499" s="0">
+        <v>1136</v>
+      </c>
+      <c r="E1499" s="0">
+        <v>8.70778334789741E-03</v>
+      </c>
+      <c r="F1499" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1499" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1500">
+      <c r="A1500" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1500" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1500" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1500" s="0">
+        <v>171</v>
+      </c>
+      <c r="E1500" s="0">
+        <v>1.31076668353033E-03</v>
+      </c>
+      <c r="F1500" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1500" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1501">
+      <c r="A1501" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1501" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1501" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1501" s="0">
+        <v>86</v>
+      </c>
+      <c r="E1501" s="0">
+        <v>6.592159928866E-04</v>
+      </c>
+      <c r="F1501" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1501" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1502">
+      <c r="A1502" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1502" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1502" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1502" s="0">
+        <v>18241</v>
+      </c>
+      <c r="E1502" s="0">
+        <v>0.139822778212145</v>
+      </c>
+      <c r="F1502" s="0">
+        <v>76</v>
+      </c>
+      <c r="G1502" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1503">
+      <c r="A1503" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1503" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1503" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1503" s="0">
+        <v>24817</v>
+      </c>
+      <c r="E1503" s="0">
+        <v>0.190229805761241</v>
+      </c>
+      <c r="F1503" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1503" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1504">
+      <c r="A1504" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1504" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1504" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1504" s="0">
+        <v>76069</v>
+      </c>
+      <c r="E1504" s="0">
+        <v>0.583091876312683</v>
+      </c>
+      <c r="F1504" s="0">
+        <v>1200</v>
+      </c>
+      <c r="G1504" s="0">
+        <v>0.904</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1505">
+      <c r="A1505" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1505" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1505" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1505" s="0">
+        <v>20100</v>
+      </c>
+      <c r="E1505" s="0">
+        <v>0.154072575081635</v>
+      </c>
+      <c r="F1505" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1505" s="0">
+        <v>0.079</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1506">
+      <c r="A1506" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1506" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1506" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1506" s="0">
+        <v>34289</v>
+      </c>
+      <c r="E1506" s="0">
+        <v>0.262835548605682</v>
+      </c>
+      <c r="F1506" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1506" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1507">
+      <c r="A1507" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1507" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1507" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1507" s="0">
+        <v>65793</v>
+      </c>
+      <c r="E1507" s="0">
+        <v>0.504323230464977</v>
+      </c>
+      <c r="F1507" s="0">
+        <v>568</v>
+      </c>
+      <c r="G1507" s="0">
+        <v>0.428</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1508">
+      <c r="A1508" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1508" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1508" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1508" s="0">
+        <v>63346</v>
+      </c>
+      <c r="E1508" s="0">
+        <v>0.485566235876681</v>
+      </c>
+      <c r="F1508" s="0">
+        <v>757</v>
+      </c>
+      <c r="G1508" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1509">
+      <c r="A1509" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1509" s="1">
+        <v>44057</v>
+      </c>
+      <c r="C1509" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1509" s="0">
+        <v>1319</v>
+      </c>
+      <c r="E1509" s="0">
+        <v>1.01105336583421E-02</v>
+      </c>
+      <c r="F1509" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1509" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1510">
+      <c r="A1510" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1510" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1510" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1510" s="0">
+        <v>61902</v>
+      </c>
+      <c r="E1510" s="0">
+        <v>0.46985510106492</v>
+      </c>
+      <c r="F1510" s="0">
+        <v>798</v>
+      </c>
+      <c r="G1510" s="0">
+        <v>0.593</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1511">
+      <c r="A1511" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1511" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1511" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1511" s="0">
+        <v>25257</v>
+      </c>
+      <c r="E1511" s="0">
+        <v>0.191708350095258</v>
+      </c>
+      <c r="F1511" s="0">
+        <v>432</v>
+      </c>
+      <c r="G1511" s="0">
+        <v>0.321</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1512">
+      <c r="A1512" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1512" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1512" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1512" s="0">
+        <v>1151</v>
+      </c>
+      <c r="E1512" s="0">
+        <v>8.73644181651195E-03</v>
+      </c>
+      <c r="F1512" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1512" s="0">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1513">
+      <c r="A1513" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1513" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1513" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1513" s="0">
+        <v>173</v>
+      </c>
+      <c r="E1513" s="0">
+        <v>1.31312287945836E-03</v>
+      </c>
+      <c r="F1513" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1513" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1514">
+      <c r="A1514" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1514" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1514" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1514" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1514" s="0">
+        <v>6.67946898221591E-04</v>
+      </c>
+      <c r="F1514" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1514" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1515">
+      <c r="A1515" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1515" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1515" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1515" s="0">
+        <v>18366</v>
+      </c>
+      <c r="E1515" s="0">
+        <v>0.139403553781111</v>
+      </c>
+      <c r="F1515" s="0">
+        <v>76</v>
+      </c>
+      <c r="G1515" s="0">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1516">
+      <c r="A1516" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1516" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1516" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1516" s="0">
+        <v>24810</v>
+      </c>
+      <c r="E1516" s="0">
+        <v>0.188315483464519</v>
+      </c>
+      <c r="F1516" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1516" s="0">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1517">
+      <c r="A1517" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1517" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1517" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1517" s="0">
+        <v>77023</v>
+      </c>
+      <c r="E1517" s="0">
+        <v>0.584628112974109</v>
+      </c>
+      <c r="F1517" s="0">
+        <v>1214</v>
+      </c>
+      <c r="G1517" s="0">
+        <v>0.902</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1518">
+      <c r="A1518" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1518" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1518" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1518" s="0">
+        <v>20242</v>
+      </c>
+      <c r="E1518" s="0">
+        <v>0.153642967202289</v>
+      </c>
+      <c r="F1518" s="0">
+        <v>106</v>
+      </c>
+      <c r="G1518" s="0">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1519">
+      <c r="A1519" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1519" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1519" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1519" s="0">
+        <v>34482</v>
+      </c>
+      <c r="E1519" s="0">
+        <v>0.261728919823601</v>
+      </c>
+      <c r="F1519" s="0">
+        <v>25</v>
+      </c>
+      <c r="G1519" s="0">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1520">
+      <c r="A1520" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1520" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1520" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1520" s="0">
+        <v>66497</v>
+      </c>
+      <c r="E1520" s="0">
+        <v>0.504732555580013</v>
+      </c>
+      <c r="F1520" s="0">
+        <v>574</v>
+      </c>
+      <c r="G1520" s="0">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1521">
+      <c r="A1521" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1521" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1521" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1521" s="0">
+        <v>63938</v>
+      </c>
+      <c r="E1521" s="0">
+        <v>0.485308963391956</v>
+      </c>
+      <c r="F1521" s="0">
+        <v>770</v>
+      </c>
+      <c r="G1521" s="0">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1522">
+      <c r="A1522" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1522" s="1">
+        <v>44058</v>
+      </c>
+      <c r="C1522" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1522" s="0">
+        <v>1312</v>
+      </c>
+      <c r="E1522" s="0">
+        <v>0.009958481028031</v>
+      </c>
+      <c r="F1522" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1522" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1523">
+      <c r="A1523" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1523" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1523" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1523" s="0">
+        <v>62356</v>
+      </c>
+      <c r="E1523" s="0">
+        <v>0.466359529721483</v>
+      </c>
+      <c r="F1523" s="0">
+        <v>810</v>
+      </c>
+      <c r="G1523" s="0">
+        <v>0.592</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1524">
+      <c r="A1524" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1524" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1524" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1524" s="0">
+        <v>25411</v>
+      </c>
+      <c r="E1524" s="0">
+        <v>0.190048463816675</v>
+      </c>
+      <c r="F1524" s="0">
+        <v>436</v>
+      </c>
+      <c r="G1524" s="0">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1525">
+      <c r="A1525" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1525" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1525" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1525" s="0">
+        <v>1160</v>
+      </c>
+      <c r="E1525" s="0">
+        <v>8.67562150357495E-03</v>
+      </c>
+      <c r="F1525" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1525" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1526">
+      <c r="A1526" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1526" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1526" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1526" s="0">
+        <v>175</v>
+      </c>
+      <c r="E1526" s="0">
+        <v>1.30882220959105E-03</v>
+      </c>
+      <c r="F1526" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1526" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1527">
+      <c r="A1527" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1527" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1527" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1527" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1527" s="0">
+        <v>6.58150596822928E-04</v>
+      </c>
+      <c r="F1527" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1527" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1528">
+      <c r="A1528" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1528" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1528" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1528" s="0">
+        <v>18394</v>
+      </c>
+      <c r="E1528" s="0">
+        <v>0.137568432704101</v>
+      </c>
+      <c r="F1528" s="0">
+        <v>79</v>
+      </c>
+      <c r="G1528" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1529">
+      <c r="A1529" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1529" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1529" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1529" s="0">
+        <v>26124</v>
+      </c>
+      <c r="E1529" s="0">
+        <v>0.195380979447752</v>
+      </c>
+      <c r="F1529" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1529" s="0">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1530">
+      <c r="A1530" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1530" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1530" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1530" s="0">
+        <v>77510</v>
+      </c>
+      <c r="E1530" s="0">
+        <v>0.579696054088013</v>
+      </c>
+      <c r="F1530" s="0">
+        <v>1227</v>
+      </c>
+      <c r="G1530" s="0">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1531">
+      <c r="A1531" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1531" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1531" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1531" s="0">
+        <v>20318</v>
+      </c>
+      <c r="E1531" s="0">
+        <v>0.151957998025548</v>
+      </c>
+      <c r="F1531" s="0">
+        <v>107</v>
+      </c>
+      <c r="G1531" s="0">
+        <v>0.078</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1532">
+      <c r="A1532" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1532" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1532" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1532" s="0">
+        <v>35880</v>
+      </c>
+      <c r="E1532" s="0">
+        <v>0.268345947886439</v>
+      </c>
+      <c r="F1532" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1532" s="0">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1533">
+      <c r="A1533" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1533" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1533" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1533" s="0">
+        <v>67536</v>
+      </c>
+      <c r="E1533" s="0">
+        <v>0.505100667125378</v>
+      </c>
+      <c r="F1533" s="0">
+        <v>579</v>
+      </c>
+      <c r="G1533" s="0">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1534">
+      <c r="A1534" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1534" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1534" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1534" s="0">
+        <v>64850</v>
+      </c>
+      <c r="E1534" s="0">
+        <v>0.485012115954169</v>
+      </c>
+      <c r="F1534" s="0">
+        <v>786</v>
+      </c>
+      <c r="G1534" s="0">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1535">
+      <c r="A1535" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1535" s="1">
+        <v>44059</v>
+      </c>
+      <c r="C1535" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1535" s="0">
+        <v>1322</v>
+      </c>
+      <c r="E1535" s="0">
+        <v>9.88721692045352E-03</v>
+      </c>
+      <c r="F1535" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1535" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1536">
+      <c r="A1536" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1536" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1536" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1536" s="0">
+        <v>63075</v>
+      </c>
+      <c r="E1536" s="0">
+        <v>0.468109897286707</v>
+      </c>
+      <c r="F1536" s="0">
+        <v>825</v>
+      </c>
+      <c r="G1536" s="0">
+        <v>0.594</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1537">
+      <c r="A1537" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1537" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1537" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1537" s="0">
+        <v>25587</v>
+      </c>
+      <c r="E1537" s="0">
+        <v>0.189893427536662</v>
+      </c>
+      <c r="F1537" s="0">
+        <v>439</v>
+      </c>
+      <c r="G1537" s="0">
+        <v>0.316</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1538">
+      <c r="A1538" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1538" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1538" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1538" s="0">
+        <v>1168</v>
+      </c>
+      <c r="E1538" s="0">
+        <v>8.66828949712047E-03</v>
+      </c>
+      <c r="F1538" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1538" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1539">
+      <c r="A1539" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1539" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1539" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1539" s="0">
+        <v>177</v>
+      </c>
+      <c r="E1539" s="0">
+        <v>1.31360208988897E-03</v>
+      </c>
+      <c r="F1539" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1539" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1540">
+      <c r="A1540" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1540" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1540" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1540" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1540" s="0">
+        <v>6.53090304577569E-04</v>
+      </c>
+      <c r="F1540" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1540" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1541">
+      <c r="A1541" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1541" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1541" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1541" s="0">
+        <v>18660</v>
+      </c>
+      <c r="E1541" s="0">
+        <v>0.13848483049338</v>
+      </c>
+      <c r="F1541" s="0">
+        <v>79</v>
+      </c>
+      <c r="G1541" s="0">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1542">
+      <c r="A1542" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1542" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1542" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1542" s="0">
+        <v>25989</v>
+      </c>
+      <c r="E1542" s="0">
+        <v>0.192876862791664</v>
+      </c>
+      <c r="F1542" s="0">
+        <v>23</v>
+      </c>
+      <c r="G1542" s="0">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1543">
+      <c r="A1543" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1543" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1543" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1543" s="0">
+        <v>78237</v>
+      </c>
+      <c r="E1543" s="0">
+        <v>0.580634388173128</v>
+      </c>
+      <c r="F1543" s="0">
+        <v>1246</v>
+      </c>
+      <c r="G1543" s="0">
+        <v>0.898</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1544">
+      <c r="A1544" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1544" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1544" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1544" s="0">
+        <v>20425</v>
+      </c>
+      <c r="E1544" s="0">
+        <v>0.151583743988601</v>
+      </c>
+      <c r="F1544" s="0">
+        <v>108</v>
+      </c>
+      <c r="G1544" s="0">
+        <v>0.077</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1545">
+      <c r="A1545" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1545" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1545" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1545" s="0">
+        <v>36082</v>
+      </c>
+      <c r="E1545" s="0">
+        <v>0.267781867838271</v>
+      </c>
+      <c r="F1545" s="0">
+        <v>33</v>
+      </c>
+      <c r="G1545" s="0">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1546">
+      <c r="A1546" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1546" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1546" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1546" s="0">
+        <v>68091</v>
+      </c>
+      <c r="E1546" s="0">
+        <v>0.505336044647628</v>
+      </c>
+      <c r="F1546" s="0">
+        <v>587</v>
+      </c>
+      <c r="G1546" s="0">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1547">
+      <c r="A1547" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1547" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1547" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1547" s="0">
+        <v>65331</v>
+      </c>
+      <c r="E1547" s="0">
+        <v>0.484852757822241</v>
+      </c>
+      <c r="F1547" s="0">
+        <v>799</v>
+      </c>
+      <c r="G1547" s="0">
+        <v>0.576</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1548">
+      <c r="A1548" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1548" s="1">
+        <v>44060</v>
+      </c>
+      <c r="C1548" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1548" s="0">
+        <v>1322</v>
+      </c>
+      <c r="E1548" s="0">
+        <v>9.81119753013121E-03</v>
+      </c>
+      <c r="F1548" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1548" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1549">
+      <c r="A1549" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1549" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1549" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1549" s="0">
+        <v>63936</v>
+      </c>
+      <c r="E1549" s="0">
+        <v>0.47088629969509</v>
+      </c>
+      <c r="F1549" s="0">
+        <v>853</v>
+      </c>
+      <c r="G1549" s="0">
+        <v>0.598</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1550">
+      <c r="A1550" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1550" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1550" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1550" s="0">
+        <v>25849</v>
+      </c>
+      <c r="E1550" s="0">
+        <v>0.190376938826614</v>
+      </c>
+      <c r="F1550" s="0">
+        <v>445</v>
+      </c>
+      <c r="G1550" s="0">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1551">
+      <c r="A1551" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1551" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1551" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1551" s="0">
+        <v>1185</v>
+      </c>
+      <c r="E1551" s="0">
+        <v>8.72748162441633E-03</v>
+      </c>
+      <c r="F1551" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1551" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1552">
+      <c r="A1552" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1552" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1552" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1552" s="0">
+        <v>180</v>
+      </c>
+      <c r="E1552" s="0">
+        <v>1.32569341130375E-03</v>
+      </c>
+      <c r="F1552" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1552" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1553">
+      <c r="A1553" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1553" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1553" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1553" s="0">
+        <v>88</v>
+      </c>
+      <c r="E1553" s="0">
+        <v>6.48116778859609E-04</v>
+      </c>
+      <c r="F1553" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1553" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1554">
+      <c r="A1554" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1554" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1554" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1554" s="0">
+        <v>18570</v>
+      </c>
+      <c r="E1554" s="0">
+        <v>0.13676737026617</v>
+      </c>
+      <c r="F1554" s="0">
+        <v>82</v>
+      </c>
+      <c r="G1554" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1555">
+      <c r="A1555" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1555" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1555" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1555" s="0">
+        <v>25970</v>
+      </c>
+      <c r="E1555" s="0">
+        <v>0.191268099397546</v>
+      </c>
+      <c r="F1555" s="0">
+        <v>25</v>
+      </c>
+      <c r="G1555" s="0">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1556">
+      <c r="A1556" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1556" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1556" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1556" s="0">
+        <v>79229</v>
+      </c>
+      <c r="E1556" s="0">
+        <v>0.583518684912136</v>
+      </c>
+      <c r="F1556" s="0">
+        <v>1280</v>
+      </c>
+      <c r="G1556" s="0">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1557">
+      <c r="A1557" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1557" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1557" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1557" s="0">
+        <v>20553</v>
+      </c>
+      <c r="E1557" s="0">
+        <v>0.151372092680699</v>
+      </c>
+      <c r="F1557" s="0">
+        <v>108</v>
+      </c>
+      <c r="G1557" s="0">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1558">
+      <c r="A1558" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1558" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1558" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1558" s="0">
+        <v>35996</v>
+      </c>
+      <c r="E1558" s="0">
+        <v>0.265109222407165</v>
+      </c>
+      <c r="F1558" s="0">
+        <v>38</v>
+      </c>
+      <c r="G1558" s="0">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1559">
+      <c r="A1559" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1559" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1559" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1559" s="0">
+        <v>68628</v>
+      </c>
+      <c r="E1559" s="0">
+        <v>0.505442707949741</v>
+      </c>
+      <c r="F1559" s="0">
+        <v>607</v>
+      </c>
+      <c r="G1559" s="0">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1560">
+      <c r="A1560" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1560" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1560" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1560" s="0">
+        <v>65800</v>
+      </c>
+      <c r="E1560" s="0">
+        <v>0.48461459146548</v>
+      </c>
+      <c r="F1560" s="0">
+        <v>817</v>
+      </c>
+      <c r="G1560" s="0">
+        <v>0.572</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1561">
+      <c r="A1561" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1561" s="1">
+        <v>44061</v>
+      </c>
+      <c r="C1561" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1561" s="0">
+        <v>1350</v>
+      </c>
+      <c r="E1561" s="0">
+        <v>9.94270058477809E-03</v>
+      </c>
+      <c r="F1561" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1561" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1562">
+      <c r="A1562" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1562" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1562" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1562" s="0">
+        <v>65711</v>
+      </c>
+      <c r="E1562" s="0">
+        <v>0.476857764876633</v>
+      </c>
+      <c r="F1562" s="0">
+        <v>873</v>
+      </c>
+      <c r="G1562" s="0">
+        <v>0.601</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1563">
+      <c r="A1563" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1563" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1563" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1563" s="0">
+        <v>26597</v>
+      </c>
+      <c r="E1563" s="0">
+        <v>0.193011611030479</v>
+      </c>
+      <c r="F1563" s="0">
+        <v>449</v>
+      </c>
+      <c r="G1563" s="0">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1564">
+      <c r="A1564" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1564" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1564" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1564" s="0">
+        <v>1196</v>
+      </c>
+      <c r="E1564" s="0">
+        <v>8.67924528301887E-03</v>
+      </c>
+      <c r="F1564" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1564" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1565">
+      <c r="A1565" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1565" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1565" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1565" s="0">
+        <v>188</v>
+      </c>
+      <c r="E1565" s="0">
+        <v>1.36429608127721E-03</v>
+      </c>
+      <c r="F1565" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1565" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1566">
+      <c r="A1566" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1566" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1566" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1566" s="0">
+        <v>89</v>
+      </c>
+      <c r="E1566" s="0">
+        <v>6.45863570391872E-04</v>
+      </c>
+      <c r="F1566" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1566" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1567">
+      <c r="A1567" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1567" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1567" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1567" s="0">
+        <v>18896</v>
+      </c>
+      <c r="E1567" s="0">
+        <v>0.137126269956459</v>
+      </c>
+      <c r="F1567" s="0">
+        <v>82</v>
+      </c>
+      <c r="G1567" s="0">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1568">
+      <c r="A1568" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1568" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1568" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1568" s="0">
+        <v>25123</v>
+      </c>
+      <c r="E1568" s="0">
+        <v>0.182314949201742</v>
+      </c>
+      <c r="F1568" s="0">
+        <v>27</v>
+      </c>
+      <c r="G1568" s="0">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1569">
+      <c r="A1569" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1569" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1569" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1569" s="0">
+        <v>82135</v>
+      </c>
+      <c r="E1569" s="0">
+        <v>0.596044992743106</v>
+      </c>
+      <c r="F1569" s="0">
+        <v>1307</v>
+      </c>
+      <c r="G1569" s="0">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1570">
+      <c r="A1570" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1570" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1570" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1570" s="0">
+        <v>20826</v>
+      </c>
+      <c r="E1570" s="0">
+        <v>0.151132075471698</v>
+      </c>
+      <c r="F1570" s="0">
+        <v>110</v>
+      </c>
+      <c r="G1570" s="0">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1571">
+      <c r="A1571" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1571" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1571" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1571" s="0">
+        <v>34839</v>
+      </c>
+      <c r="E1571" s="0">
+        <v>0.252822931785196</v>
+      </c>
+      <c r="F1571" s="0">
+        <v>35</v>
+      </c>
+      <c r="G1571" s="0">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1572">
+      <c r="A1572" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1572" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1572" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1572" s="0">
+        <v>69687</v>
+      </c>
+      <c r="E1572" s="0">
+        <v>0.505711175616836</v>
+      </c>
+      <c r="F1572" s="0">
+        <v>621</v>
+      </c>
+      <c r="G1572" s="0">
+        <v>0.427</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1573">
+      <c r="A1573" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1573" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1573" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1573" s="0">
+        <v>66816</v>
+      </c>
+      <c r="E1573" s="0">
+        <v>0.484876632801161</v>
+      </c>
+      <c r="F1573" s="0">
+        <v>829</v>
+      </c>
+      <c r="G1573" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1574">
+      <c r="A1574" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1574" s="1">
+        <v>44062</v>
+      </c>
+      <c r="C1574" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1574" s="0">
+        <v>1297</v>
+      </c>
+      <c r="E1574" s="0">
+        <v>9.4121915820029E-03</v>
+      </c>
+      <c r="F1574" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1574" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1575">
+      <c r="A1575" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1575" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1575" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1575" s="0">
+        <v>66776</v>
+      </c>
+      <c r="E1575" s="0">
+        <v>0.479798814442249</v>
+      </c>
+      <c r="F1575" s="0">
+        <v>895</v>
+      </c>
+      <c r="G1575" s="0">
+        <v>0.601</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1576">
+      <c r="A1576" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1576" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1576" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1576" s="0">
+        <v>26868</v>
+      </c>
+      <c r="E1576" s="0">
+        <v>0.193051913059098</v>
+      </c>
+      <c r="F1576" s="0">
+        <v>458</v>
+      </c>
+      <c r="G1576" s="0">
+        <v>0.307</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1577">
+      <c r="A1577" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1577" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1577" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1577" s="0">
+        <v>1205</v>
+      </c>
+      <c r="E1577" s="0">
+        <v>8.65816418178552E-03</v>
+      </c>
+      <c r="F1577" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1577" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1578">
+      <c r="A1578" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1578" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1578" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1578" s="0">
+        <v>193</v>
+      </c>
+      <c r="E1578" s="0">
+        <v>1.38674330878391E-03</v>
+      </c>
+      <c r="F1578" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1578" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1579">
+      <c r="A1579" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1579" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1579" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1579" s="0">
+        <v>90</v>
+      </c>
+      <c r="E1579" s="0">
+        <v>6.46667864199749E-04</v>
+      </c>
+      <c r="F1579" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1579" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1580">
+      <c r="A1580" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1580" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1580" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1580" s="0">
+        <v>19072</v>
+      </c>
+      <c r="E1580" s="0">
+        <v>0.137036105622418</v>
+      </c>
+      <c r="F1580" s="0">
+        <v>85</v>
+      </c>
+      <c r="G1580" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1581">
+      <c r="A1581" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1581" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1581" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1581" s="0">
+        <v>24971</v>
+      </c>
+      <c r="E1581" s="0">
+        <v>0.179421591521466</v>
+      </c>
+      <c r="F1581" s="0">
+        <v>29</v>
+      </c>
+      <c r="G1581" s="0">
+        <v>0.019</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1582">
+      <c r="A1582" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1582" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1582" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1582" s="0">
+        <v>83560</v>
+      </c>
+      <c r="E1582" s="0">
+        <v>0.600395185917011</v>
+      </c>
+      <c r="F1582" s="0">
+        <v>1335</v>
+      </c>
+      <c r="G1582" s="0">
+        <v>0.897</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1583">
+      <c r="A1583" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1583" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1583" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1583" s="0">
+        <v>21025</v>
+      </c>
+      <c r="E1583" s="0">
+        <v>0.151068798275552</v>
+      </c>
+      <c r="F1583" s="0">
+        <v>112</v>
+      </c>
+      <c r="G1583" s="0">
+        <v>0.075</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1584">
+      <c r="A1584" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1584" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1584" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1584" s="0">
+        <v>34590</v>
+      </c>
+      <c r="E1584" s="0">
+        <v>0.248536015807437</v>
+      </c>
+      <c r="F1584" s="0">
+        <v>41</v>
+      </c>
+      <c r="G1584" s="0">
+        <v>0.027</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1585">
+      <c r="A1585" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1585" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1585" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1585" s="0">
+        <v>70407</v>
+      </c>
+      <c r="E1585" s="0">
+        <v>0.505888270163463</v>
+      </c>
+      <c r="F1585" s="0">
+        <v>634</v>
+      </c>
+      <c r="G1585" s="0">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1586">
+      <c r="A1586" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1586" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1586" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1586" s="0">
+        <v>67475</v>
+      </c>
+      <c r="E1586" s="0">
+        <v>0.484821268187534</v>
+      </c>
+      <c r="F1586" s="0">
+        <v>851</v>
+      </c>
+      <c r="G1586" s="0">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1587">
+      <c r="A1587" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1587" s="1">
+        <v>44063</v>
+      </c>
+      <c r="C1587" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1587" s="0">
+        <v>1293</v>
+      </c>
+      <c r="E1587" s="0">
+        <v>9.29046164900305E-03</v>
+      </c>
+      <c r="F1587" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1587" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1588">
+      <c r="A1588" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1588" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1588" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1588" s="0">
+        <v>67673</v>
+      </c>
+      <c r="E1588" s="0">
+        <v>0.480481951662833</v>
+      </c>
+      <c r="F1588" s="0">
+        <v>933</v>
+      </c>
+      <c r="G1588" s="0">
+        <v>0.602</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1589">
+      <c r="A1589" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1589" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1589" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1589" s="0">
+        <v>27118</v>
+      </c>
+      <c r="E1589" s="0">
+        <v>0.192539263298401</v>
+      </c>
+      <c r="F1589" s="0">
+        <v>473</v>
+      </c>
+      <c r="G1589" s="0">
+        <v>0.305</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1590">
+      <c r="A1590" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1590" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1590" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1590" s="0">
+        <v>1219</v>
+      </c>
+      <c r="E1590" s="0">
+        <v>8.65496577773991E-03</v>
+      </c>
+      <c r="F1590" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1590" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1591">
+      <c r="A1591" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1591" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1591" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1591" s="0">
+        <v>194</v>
+      </c>
+      <c r="E1591" s="0">
+        <v>1.37741046831956E-03</v>
+      </c>
+      <c r="F1591" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1591" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1592">
+      <c r="A1592" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1592" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1592" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1592" s="0">
+        <v>95</v>
+      </c>
+      <c r="E1592" s="0">
+        <v>6.74505126238959E-04</v>
+      </c>
+      <c r="F1592" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1592" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1593">
+      <c r="A1593" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1593" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1593" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1593" s="0">
+        <v>19269</v>
+      </c>
+      <c r="E1593" s="0">
+        <v>0.136810939763142</v>
+      </c>
+      <c r="F1593" s="0">
+        <v>90</v>
+      </c>
+      <c r="G1593" s="0">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1594">
+      <c r="A1594" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1594" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1594" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1594" s="0">
+        <v>25276</v>
+      </c>
+      <c r="E1594" s="0">
+        <v>0.179460963903326</v>
+      </c>
+      <c r="F1594" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1594" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1595">
+      <c r="A1595" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1595" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1595" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1595" s="0">
+        <v>84594</v>
+      </c>
+      <c r="E1595" s="0">
+        <v>0.600621964726932</v>
+      </c>
+      <c r="F1595" s="0">
+        <v>1386</v>
+      </c>
+      <c r="G1595" s="0">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1596">
+      <c r="A1596" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1596" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1596" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1596" s="0">
+        <v>21184</v>
+      </c>
+      <c r="E1596" s="0">
+        <v>0.150407543097328</v>
+      </c>
+      <c r="F1596" s="0">
+        <v>114</v>
+      </c>
+      <c r="G1596" s="0">
+        <v>0.073</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1597">
+      <c r="A1597" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1597" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1597" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1597" s="0">
+        <v>35066</v>
+      </c>
+      <c r="E1597" s="0">
+        <v>0.248970492175741</v>
+      </c>
+      <c r="F1597" s="0">
+        <v>49</v>
+      </c>
+      <c r="G1597" s="0">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1598">
+      <c r="A1598" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1598" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1598" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1598" s="0">
+        <v>71287</v>
+      </c>
+      <c r="E1598" s="0">
+        <v>0.506141546675755</v>
+      </c>
+      <c r="F1598" s="0">
+        <v>660</v>
+      </c>
+      <c r="G1598" s="0">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1599">
+      <c r="A1599" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1599" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1599" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1599" s="0">
+        <v>68252</v>
+      </c>
+      <c r="E1599" s="0">
+        <v>0.48459288290591</v>
+      </c>
+      <c r="F1599" s="0">
+        <v>885</v>
+      </c>
+      <c r="G1599" s="0">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1600">
+      <c r="A1600" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1600" s="1">
+        <v>44064</v>
+      </c>
+      <c r="C1600" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1600" s="0">
+        <v>1305</v>
+      </c>
+      <c r="E1600" s="0">
+        <v>9.26557041833518E-03</v>
+      </c>
+      <c r="F1600" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1600" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1601">
+      <c r="A1601" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1601" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1601" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1601" s="0">
+        <v>68770</v>
+      </c>
+      <c r="E1601" s="0">
+        <v>0.484012865719333</v>
+      </c>
+      <c r="F1601" s="0">
+        <v>944</v>
+      </c>
+      <c r="G1601" s="0">
+        <v>0.603966730646193</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1602">
+      <c r="A1602" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1602" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1602" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1602" s="0">
+        <v>27337</v>
+      </c>
+      <c r="E1602" s="0">
+        <v>0.192401624402638</v>
+      </c>
+      <c r="F1602" s="0">
+        <v>477</v>
+      </c>
+      <c r="G1602" s="0">
+        <v>0.305182341650672</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1603">
+      <c r="A1603" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1603" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1603" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1603" s="0">
+        <v>19278</v>
+      </c>
+      <c r="E1603" s="0">
+        <v>0.135681256730221</v>
+      </c>
+      <c r="F1603" s="0">
+        <v>89</v>
+      </c>
+      <c r="G1603" s="0">
+        <v>5.69417786308381E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1604">
+      <c r="A1604" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1604" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1604" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1604" s="0">
+        <v>1232</v>
+      </c>
+      <c r="E1604" s="0">
+        <v>8.67098808442952E-03</v>
+      </c>
+      <c r="F1604" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1604" s="0">
+        <v>9.59692898272553E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1605">
+      <c r="A1605" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1605" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1605" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1605" s="0">
+        <v>197</v>
+      </c>
+      <c r="E1605" s="0">
+        <v>1.38651351674725E-03</v>
+      </c>
+      <c r="F1605" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1605" s="0">
+        <v>2.55918106206014E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1606">
+      <c r="A1606" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1606" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1606" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1606" s="0">
+        <v>95</v>
+      </c>
+      <c r="E1606" s="0">
+        <v>6.68623269497406E-04</v>
+      </c>
+      <c r="F1606" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1606" s="0">
+        <v>1.27959053103007E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1607">
+      <c r="A1607" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1607" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1607" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1607" s="0">
+        <v>25174</v>
+      </c>
+      <c r="E1607" s="0">
+        <v>0.177178128277134</v>
+      </c>
+      <c r="F1607" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1607" s="0">
+        <v>2.04734484964811E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1608">
+      <c r="A1608" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1608" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1608" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1608" s="0">
+        <v>85801</v>
+      </c>
+      <c r="E1608" s="0">
+        <v>0.603879422591021</v>
+      </c>
+      <c r="F1608" s="0">
+        <v>1399</v>
+      </c>
+      <c r="G1608" s="0">
+        <v>0.895073576455534</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1609">
+      <c r="A1609" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1609" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1609" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1609" s="0">
+        <v>21334</v>
+      </c>
+      <c r="E1609" s="0">
+        <v>0.150151671910081</v>
+      </c>
+      <c r="F1609" s="0">
+        <v>114</v>
+      </c>
+      <c r="G1609" s="0">
+        <v>0.072936660268714</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1610">
+      <c r="A1610" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1610" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1610" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1610" s="0">
+        <v>34948</v>
+      </c>
+      <c r="E1610" s="0">
+        <v>0.245968905498899</v>
+      </c>
+      <c r="F1610" s="0">
+        <v>50</v>
+      </c>
+      <c r="G1610" s="0">
+        <v>3.19897632757518E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1611">
+      <c r="A1611" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1611" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1611" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1611" s="0">
+        <v>71927</v>
+      </c>
+      <c r="E1611" s="0">
+        <v>0.506232272685684</v>
+      </c>
+      <c r="F1611" s="0">
+        <v>663</v>
+      </c>
+      <c r="G1611" s="0">
+        <v>0.424184261036468</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1612">
+      <c r="A1612" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1612" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1612" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1612" s="0">
+        <v>68843</v>
+      </c>
+      <c r="E1612" s="0">
+        <v>0.484526649915894</v>
+      </c>
+      <c r="F1612" s="0">
+        <v>896</v>
+      </c>
+      <c r="G1612" s="0">
+        <v>0.573256557901472</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1613">
+      <c r="A1613" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1613" s="1">
+        <v>44065</v>
+      </c>
+      <c r="C1613" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1613" s="0">
+        <v>1313</v>
+      </c>
+      <c r="E1613" s="0">
+        <v>9.24107739842205E-03</v>
+      </c>
+      <c r="F1613" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1613" s="0">
+        <v>2.55918106206014E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1613</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1626</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1613"/>
+  <dimension ref="A1:G1626"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -38441,7 +38441,7 @@
         <v>944</v>
       </c>
       <c r="G1601" s="0">
-        <v>0.603966730646193</v>
+        <v>0.603</v>
       </c>
     </row>
     <row outlineLevel="0" r="1602">
@@ -38468,13 +38468,13 @@
         <v>477</v>
       </c>
       <c r="G1602" s="0">
-        <v>0.305182341650672</v>
+        <v>0.305</v>
       </c>
     </row>
     <row outlineLevel="0" r="1603">
       <c r="A1603" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1603" s="1">
@@ -38486,22 +38486,22 @@
         </is>
       </c>
       <c r="D1603" s="0">
-        <v>19278</v>
+        <v>1232</v>
       </c>
       <c r="E1603" s="0">
-        <v>0.135681256730221</v>
+        <v>8.67098808442952E-03</v>
       </c>
       <c r="F1603" s="0">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G1603" s="0">
-        <v>5.69417786308381E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1604">
       <c r="A1604" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1604" s="1">
@@ -38513,22 +38513,22 @@
         </is>
       </c>
       <c r="D1604" s="0">
-        <v>1232</v>
+        <v>197</v>
       </c>
       <c r="E1604" s="0">
-        <v>8.67098808442952E-03</v>
+        <v>1.38651351674725E-03</v>
       </c>
       <c r="F1604" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1604" s="0">
-        <v>9.59692898272553E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1605">
       <c r="A1605" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1605" s="1">
@@ -38540,22 +38540,22 @@
         </is>
       </c>
       <c r="D1605" s="0">
-        <v>197</v>
+        <v>95</v>
       </c>
       <c r="E1605" s="0">
-        <v>1.38651351674725E-03</v>
+        <v>6.68623269497406E-04</v>
       </c>
       <c r="F1605" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1605" s="0">
-        <v>2.55918106206014E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1606">
       <c r="A1606" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1606" s="1">
@@ -38567,16 +38567,16 @@
         </is>
       </c>
       <c r="D1606" s="0">
-        <v>95</v>
+        <v>19278</v>
       </c>
       <c r="E1606" s="0">
-        <v>6.68623269497406E-04</v>
+        <v>0.135681256730221</v>
       </c>
       <c r="F1606" s="0">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G1606" s="0">
-        <v>1.27959053103007E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1607">
@@ -38603,7 +38603,7 @@
         <v>32</v>
       </c>
       <c r="G1607" s="0">
-        <v>2.04734484964811E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="1608">
@@ -38630,7 +38630,7 @@
         <v>1399</v>
       </c>
       <c r="G1608" s="0">
-        <v>0.895073576455534</v>
+        <v>0.895</v>
       </c>
     </row>
     <row outlineLevel="0" r="1609">
@@ -38657,7 +38657,7 @@
         <v>114</v>
       </c>
       <c r="G1609" s="0">
-        <v>0.072936660268714</v>
+        <v>0.072</v>
       </c>
     </row>
     <row outlineLevel="0" r="1610">
@@ -38684,7 +38684,7 @@
         <v>50</v>
       </c>
       <c r="G1610" s="0">
-        <v>3.19897632757518E-02</v>
+        <v>0.031</v>
       </c>
     </row>
     <row outlineLevel="0" r="1611">
@@ -38711,7 +38711,7 @@
         <v>663</v>
       </c>
       <c r="G1611" s="0">
-        <v>0.424184261036468</v>
+        <v>0.424</v>
       </c>
     </row>
     <row outlineLevel="0" r="1612">
@@ -38738,7 +38738,7 @@
         <v>896</v>
       </c>
       <c r="G1612" s="0">
-        <v>0.573256557901472</v>
+        <v>0.573</v>
       </c>
     </row>
     <row outlineLevel="0" r="1613">
@@ -38765,7 +38765,358 @@
         <v>4</v>
       </c>
       <c r="G1613" s="0">
-        <v>2.55918106206014E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1614">
+      <c r="A1614" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1614" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1614" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1614" s="0">
+        <v>69516</v>
+      </c>
+      <c r="E1614" s="0">
+        <v>0.482961295566811</v>
+      </c>
+      <c r="F1614" s="0">
+        <v>946</v>
+      </c>
+      <c r="G1614" s="0">
+        <v>0.603701340140396</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1615">
+      <c r="A1615" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1615" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1615" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1615" s="0">
+        <v>27512</v>
+      </c>
+      <c r="E1615" s="0">
+        <v>0.191139178946345</v>
+      </c>
+      <c r="F1615" s="0">
+        <v>478</v>
+      </c>
+      <c r="G1615" s="0">
+        <v>0.305041480536056</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1616">
+      <c r="A1616" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1616" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1616" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1616" s="0">
+        <v>19423</v>
+      </c>
+      <c r="E1616" s="0">
+        <v>0.134940981123686</v>
+      </c>
+      <c r="F1616" s="0">
+        <v>90</v>
+      </c>
+      <c r="G1616" s="0">
+        <v>5.74345883854499E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1617">
+      <c r="A1617" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1617" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1617" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1617" s="0">
+        <v>1243</v>
+      </c>
+      <c r="E1617" s="0">
+        <v>8.63572257307016E-03</v>
+      </c>
+      <c r="F1617" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1617" s="0">
+        <v>9.57243139757498E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1618">
+      <c r="A1618" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1618" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1618" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1618" s="0">
+        <v>198</v>
+      </c>
+      <c r="E1618" s="0">
+        <v>1.37560182579879E-03</v>
+      </c>
+      <c r="F1618" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1618" s="0">
+        <v>2.55264837268666E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1619">
+      <c r="A1619" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1619" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1619" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1619" s="0">
+        <v>96</v>
+      </c>
+      <c r="E1619" s="0">
+        <v>6.66958460993351E-04</v>
+      </c>
+      <c r="F1619" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1619" s="0">
+        <v>1.27632418634333E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1620">
+      <c r="A1620" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1620" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1620" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1620" s="0">
+        <v>25949</v>
+      </c>
+      <c r="E1620" s="0">
+        <v>0.180280261503297</v>
+      </c>
+      <c r="F1620" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1620" s="0">
+        <v>2.04211869814933E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1621">
+      <c r="A1621" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1621" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1621" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1621" s="0">
+        <v>86443</v>
+      </c>
+      <c r="E1621" s="0">
+        <v>0.600561356704669</v>
+      </c>
+      <c r="F1621" s="0">
+        <v>1401</v>
+      </c>
+      <c r="G1621" s="0">
+        <v>0.894065092533504</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1622">
+      <c r="A1622" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1622" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1622" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1622" s="0">
+        <v>21421</v>
+      </c>
+      <c r="E1622" s="0">
+        <v>0.14882205409311</v>
+      </c>
+      <c r="F1622" s="0">
+        <v>115</v>
+      </c>
+      <c r="G1622" s="0">
+        <v>7.33886407147415E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1623">
+      <c r="A1623" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1623" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1623" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1623" s="0">
+        <v>36073</v>
+      </c>
+      <c r="E1623" s="0">
+        <v>0.25061658920222</v>
+      </c>
+      <c r="F1623" s="0">
+        <v>51</v>
+      </c>
+      <c r="G1623" s="0">
+        <v>3.25462667517549E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1624">
+      <c r="A1624" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1624" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1624" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1624" s="0">
+        <v>72907</v>
+      </c>
+      <c r="E1624" s="0">
+        <v>0.506520213704607</v>
+      </c>
+      <c r="F1624" s="0">
+        <v>666</v>
+      </c>
+      <c r="G1624" s="0">
+        <v>0.425015954052329</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1625">
+      <c r="A1625" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1625" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1625" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1625" s="0">
+        <v>69716</v>
+      </c>
+      <c r="E1625" s="0">
+        <v>0.484350792360547</v>
+      </c>
+      <c r="F1625" s="0">
+        <v>897</v>
+      </c>
+      <c r="G1625" s="0">
+        <v>0.572431397574984</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1626">
+      <c r="A1626" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1626" s="1">
+        <v>44066</v>
+      </c>
+      <c r="C1626" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1626" s="0">
+        <v>1314</v>
+      </c>
+      <c r="E1626" s="0">
+        <v>9.1289939348465E-03</v>
+      </c>
+      <c r="F1626" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1626" s="0">
+        <v>2.55264837268666E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1626</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1639</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1626"/>
+  <dimension ref="A1:G1639"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -38792,7 +38792,7 @@
         <v>946</v>
       </c>
       <c r="G1614" s="0">
-        <v>0.603701340140396</v>
+        <v>0.603</v>
       </c>
     </row>
     <row outlineLevel="0" r="1615">
@@ -38819,13 +38819,13 @@
         <v>478</v>
       </c>
       <c r="G1615" s="0">
-        <v>0.305041480536056</v>
+        <v>0.305</v>
       </c>
     </row>
     <row outlineLevel="0" r="1616">
       <c r="A1616" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1616" s="1">
@@ -38837,22 +38837,22 @@
         </is>
       </c>
       <c r="D1616" s="0">
-        <v>19423</v>
+        <v>1243</v>
       </c>
       <c r="E1616" s="0">
-        <v>0.134940981123686</v>
+        <v>8.63572257307016E-03</v>
       </c>
       <c r="F1616" s="0">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G1616" s="0">
-        <v>5.74345883854499E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1617">
       <c r="A1617" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1617" s="1">
@@ -38864,22 +38864,22 @@
         </is>
       </c>
       <c r="D1617" s="0">
-        <v>1243</v>
+        <v>198</v>
       </c>
       <c r="E1617" s="0">
-        <v>8.63572257307016E-03</v>
+        <v>1.37560182579879E-03</v>
       </c>
       <c r="F1617" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1617" s="0">
-        <v>9.57243139757498E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1618">
       <c r="A1618" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1618" s="1">
@@ -38891,22 +38891,22 @@
         </is>
       </c>
       <c r="D1618" s="0">
-        <v>198</v>
+        <v>96</v>
       </c>
       <c r="E1618" s="0">
-        <v>1.37560182579879E-03</v>
+        <v>6.66958460993351E-04</v>
       </c>
       <c r="F1618" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1618" s="0">
-        <v>2.55264837268666E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1619">
       <c r="A1619" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1619" s="1">
@@ -38918,16 +38918,16 @@
         </is>
       </c>
       <c r="D1619" s="0">
-        <v>96</v>
+        <v>19423</v>
       </c>
       <c r="E1619" s="0">
-        <v>6.66958460993351E-04</v>
+        <v>0.134940981123686</v>
       </c>
       <c r="F1619" s="0">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G1619" s="0">
-        <v>1.27632418634333E-03</v>
+        <v>0.057</v>
       </c>
     </row>
     <row outlineLevel="0" r="1620">
@@ -38954,7 +38954,7 @@
         <v>32</v>
       </c>
       <c r="G1620" s="0">
-        <v>2.04211869814933E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="1621">
@@ -38981,7 +38981,7 @@
         <v>1401</v>
       </c>
       <c r="G1621" s="0">
-        <v>0.894065092533504</v>
+        <v>0.894</v>
       </c>
     </row>
     <row outlineLevel="0" r="1622">
@@ -39008,7 +39008,7 @@
         <v>115</v>
       </c>
       <c r="G1622" s="0">
-        <v>7.33886407147415E-02</v>
+        <v>0.073</v>
       </c>
     </row>
     <row outlineLevel="0" r="1623">
@@ -39035,7 +39035,7 @@
         <v>51</v>
       </c>
       <c r="G1623" s="0">
-        <v>3.25462667517549E-02</v>
+        <v>0.032</v>
       </c>
     </row>
     <row outlineLevel="0" r="1624">
@@ -39062,7 +39062,7 @@
         <v>666</v>
       </c>
       <c r="G1624" s="0">
-        <v>0.425015954052329</v>
+        <v>0.425</v>
       </c>
     </row>
     <row outlineLevel="0" r="1625">
@@ -39089,7 +39089,7 @@
         <v>897</v>
       </c>
       <c r="G1625" s="0">
-        <v>0.572431397574984</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="1626">
@@ -39116,7 +39116,358 @@
         <v>4</v>
       </c>
       <c r="G1626" s="0">
-        <v>2.55264837268666E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1627">
+      <c r="A1627" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1627" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1627" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1627" s="0">
+        <v>70068</v>
+      </c>
+      <c r="E1627" s="0">
+        <v>0.484550911454732</v>
+      </c>
+      <c r="F1627" s="0">
+        <v>962</v>
+      </c>
+      <c r="G1627" s="0">
+        <v>0.605793450881612</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1628">
+      <c r="A1628" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1628" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1628" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1628" s="0">
+        <v>27672</v>
+      </c>
+      <c r="E1628" s="0">
+        <v>0.191364000995823</v>
+      </c>
+      <c r="F1628" s="0">
+        <v>483</v>
+      </c>
+      <c r="G1628" s="0">
+        <v>0.304156171284635</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1629">
+      <c r="A1629" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1629" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1629" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1629" s="0">
+        <v>19463</v>
+      </c>
+      <c r="E1629" s="0">
+        <v>0.134595170258084</v>
+      </c>
+      <c r="F1629" s="0">
+        <v>90</v>
+      </c>
+      <c r="G1629" s="0">
+        <v>5.66750629722922E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1630">
+      <c r="A1630" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1630" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1630" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1630" s="0">
+        <v>1248</v>
+      </c>
+      <c r="E1630" s="0">
+        <v>8.63046665375785E-03</v>
+      </c>
+      <c r="F1630" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1630" s="0">
+        <v>9.44584382871537E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1631">
+      <c r="A1631" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1631" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1631" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1631" s="0">
+        <v>197</v>
+      </c>
+      <c r="E1631" s="0">
+        <v>1.36234129069735E-03</v>
+      </c>
+      <c r="F1631" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1631" s="0">
+        <v>2.51889168765743E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1632">
+      <c r="A1632" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1632" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1632" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1632" s="0">
+        <v>96</v>
+      </c>
+      <c r="E1632" s="0">
+        <v>6.63882050289065E-04</v>
+      </c>
+      <c r="F1632" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1632" s="0">
+        <v>1.25944584382872E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1633">
+      <c r="A1633" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1633" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1633" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1633" s="0">
+        <v>25860</v>
+      </c>
+      <c r="E1633" s="0">
+        <v>0.178833227296617</v>
+      </c>
+      <c r="F1633" s="0">
+        <v>32</v>
+      </c>
+      <c r="G1633" s="0">
+        <v>2.01511335012594E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1634">
+      <c r="A1634" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1634" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1634" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1634" s="0">
+        <v>87052</v>
+      </c>
+      <c r="E1634" s="0">
+        <v>0.602002710851705</v>
+      </c>
+      <c r="F1634" s="0">
+        <v>1422</v>
+      </c>
+      <c r="G1634" s="0">
+        <v>0.895465994962217</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1635">
+      <c r="A1635" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1635" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1635" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1635" s="0">
+        <v>21501</v>
+      </c>
+      <c r="E1635" s="0">
+        <v>0.148688832950679</v>
+      </c>
+      <c r="F1635" s="0">
+        <v>115</v>
+      </c>
+      <c r="G1635" s="0">
+        <v>7.24181360201511E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1636">
+      <c r="A1636" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1636" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1636" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1636" s="0">
+        <v>36051</v>
+      </c>
+      <c r="E1636" s="0">
+        <v>0.249308456197616</v>
+      </c>
+      <c r="F1636" s="0">
+        <v>51</v>
+      </c>
+      <c r="G1636" s="0">
+        <v>3.21158690176322E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1637">
+      <c r="A1637" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1637" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1637" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1637" s="0">
+        <v>73283</v>
+      </c>
+      <c r="E1637" s="0">
+        <v>0.506784044701391</v>
+      </c>
+      <c r="F1637" s="0">
+        <v>674</v>
+      </c>
+      <c r="G1637" s="0">
+        <v>0.424433249370277</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1638">
+      <c r="A1638" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1638" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1638" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1638" s="0">
+        <v>70013</v>
+      </c>
+      <c r="E1638" s="0">
+        <v>0.48417056236342</v>
+      </c>
+      <c r="F1638" s="0">
+        <v>910</v>
+      </c>
+      <c r="G1638" s="0">
+        <v>0.573047858942065</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1639">
+      <c r="A1639" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1639" s="1">
+        <v>44067</v>
+      </c>
+      <c r="C1639" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1639" s="0">
+        <v>1308</v>
+      </c>
+      <c r="E1639" s="0">
+        <v>9.04539293518851E-03</v>
+      </c>
+      <c r="F1639" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1639" s="0">
+        <v>2.51889168765743E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1639</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1652</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1639"/>
+  <dimension ref="A1:G1652"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -39143,7 +39143,7 @@
         <v>962</v>
       </c>
       <c r="G1627" s="0">
-        <v>0.605793450881612</v>
+        <v>0.605</v>
       </c>
     </row>
     <row outlineLevel="0" r="1628">
@@ -39170,13 +39170,13 @@
         <v>483</v>
       </c>
       <c r="G1628" s="0">
-        <v>0.304156171284635</v>
+        <v>0.304</v>
       </c>
     </row>
     <row outlineLevel="0" r="1629">
       <c r="A1629" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1629" s="1">
@@ -39188,22 +39188,22 @@
         </is>
       </c>
       <c r="D1629" s="0">
-        <v>19463</v>
+        <v>1248</v>
       </c>
       <c r="E1629" s="0">
-        <v>0.134595170258084</v>
+        <v>8.63046665375785E-03</v>
       </c>
       <c r="F1629" s="0">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="G1629" s="0">
-        <v>5.66750629722922E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1630">
       <c r="A1630" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1630" s="1">
@@ -39215,22 +39215,22 @@
         </is>
       </c>
       <c r="D1630" s="0">
-        <v>1248</v>
+        <v>197</v>
       </c>
       <c r="E1630" s="0">
-        <v>8.63046665375785E-03</v>
+        <v>1.36234129069735E-03</v>
       </c>
       <c r="F1630" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1630" s="0">
-        <v>9.44584382871537E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1631">
       <c r="A1631" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1631" s="1">
@@ -39242,22 +39242,22 @@
         </is>
       </c>
       <c r="D1631" s="0">
-        <v>197</v>
+        <v>96</v>
       </c>
       <c r="E1631" s="0">
-        <v>1.36234129069735E-03</v>
+        <v>6.63882050289065E-04</v>
       </c>
       <c r="F1631" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1631" s="0">
-        <v>2.51889168765743E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1632">
       <c r="A1632" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1632" s="1">
@@ -39269,16 +39269,16 @@
         </is>
       </c>
       <c r="D1632" s="0">
-        <v>96</v>
+        <v>19463</v>
       </c>
       <c r="E1632" s="0">
-        <v>6.63882050289065E-04</v>
+        <v>0.134595170258084</v>
       </c>
       <c r="F1632" s="0">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G1632" s="0">
-        <v>1.25944584382872E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1633">
@@ -39305,7 +39305,7 @@
         <v>32</v>
       </c>
       <c r="G1633" s="0">
-        <v>2.01511335012594E-02</v>
+        <v>0.02</v>
       </c>
     </row>
     <row outlineLevel="0" r="1634">
@@ -39332,7 +39332,7 @@
         <v>1422</v>
       </c>
       <c r="G1634" s="0">
-        <v>0.895465994962217</v>
+        <v>0.895</v>
       </c>
     </row>
     <row outlineLevel="0" r="1635">
@@ -39359,7 +39359,7 @@
         <v>115</v>
       </c>
       <c r="G1635" s="0">
-        <v>7.24181360201511E-02</v>
+        <v>0.072</v>
       </c>
     </row>
     <row outlineLevel="0" r="1636">
@@ -39386,7 +39386,7 @@
         <v>51</v>
       </c>
       <c r="G1636" s="0">
-        <v>3.21158690176322E-02</v>
+        <v>0.032</v>
       </c>
     </row>
     <row outlineLevel="0" r="1637">
@@ -39413,7 +39413,7 @@
         <v>674</v>
       </c>
       <c r="G1637" s="0">
-        <v>0.424433249370277</v>
+        <v>0.424</v>
       </c>
     </row>
     <row outlineLevel="0" r="1638">
@@ -39440,7 +39440,7 @@
         <v>910</v>
       </c>
       <c r="G1638" s="0">
-        <v>0.573047858942065</v>
+        <v>0.573</v>
       </c>
     </row>
     <row outlineLevel="0" r="1639">
@@ -39467,7 +39467,358 @@
         <v>4</v>
       </c>
       <c r="G1639" s="0">
-        <v>2.51889168765743E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1640">
+      <c r="A1640" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1640" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1640" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1640" s="0">
+        <v>70860</v>
+      </c>
+      <c r="E1640" s="0">
+        <v>0.487288281287607</v>
+      </c>
+      <c r="F1640" s="0">
+        <v>986</v>
+      </c>
+      <c r="G1640" s="0">
+        <v>0.605651105651106</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1641">
+      <c r="A1641" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1641" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1641" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1641" s="0">
+        <v>27872</v>
+      </c>
+      <c r="E1641" s="0">
+        <v>0.191669474683153</v>
+      </c>
+      <c r="F1641" s="0">
+        <v>493</v>
+      </c>
+      <c r="G1641" s="0">
+        <v>0.302825552825553</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1642">
+      <c r="A1642" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1642" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1642" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1642" s="0">
+        <v>19387</v>
+      </c>
+      <c r="E1642" s="0">
+        <v>0.133320038234869</v>
+      </c>
+      <c r="F1642" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1642" s="0">
+        <v>5.65110565110565E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1643">
+      <c r="A1643" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1643" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1643" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1643" s="0">
+        <v>1262</v>
+      </c>
+      <c r="E1643" s="0">
+        <v>8.67849013526617E-03</v>
+      </c>
+      <c r="F1643" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1643" s="0">
+        <v>9.21375921375921E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1644">
+      <c r="A1644" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1644" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1644" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1644" s="0">
+        <v>197</v>
+      </c>
+      <c r="E1644" s="0">
+        <v>1.35472468831017E-03</v>
+      </c>
+      <c r="F1644" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1644" s="0">
+        <v>2.45700245700246E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1645">
+      <c r="A1645" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1645" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1645" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1645" s="0">
+        <v>98</v>
+      </c>
+      <c r="E1645" s="0">
+        <v>6.73923956621303E-04</v>
+      </c>
+      <c r="F1645" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1645" s="0">
+        <v>1.22850122850123E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1646">
+      <c r="A1646" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1646" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1646" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1646" s="0">
+        <v>25741</v>
+      </c>
+      <c r="E1646" s="0">
+        <v>0.177015067014173</v>
+      </c>
+      <c r="F1646" s="0">
+        <v>36</v>
+      </c>
+      <c r="G1646" s="0">
+        <v>2.21130221130221E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1647">
+      <c r="A1647" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1647" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1647" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1647" s="0">
+        <v>88078</v>
+      </c>
+      <c r="E1647" s="0">
+        <v>0.60569259440093</v>
+      </c>
+      <c r="F1647" s="0">
+        <v>1455</v>
+      </c>
+      <c r="G1647" s="0">
+        <v>0.893734643734644</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1648">
+      <c r="A1648" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1648" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1648" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1648" s="0">
+        <v>21633</v>
+      </c>
+      <c r="E1648" s="0">
+        <v>0.148765275036619</v>
+      </c>
+      <c r="F1648" s="0">
+        <v>117</v>
+      </c>
+      <c r="G1648" s="0">
+        <v>7.18673218673219E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1649">
+      <c r="A1649" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1649" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1649" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1649" s="0">
+        <v>35706</v>
+      </c>
+      <c r="E1649" s="0">
+        <v>0.245542130562451</v>
+      </c>
+      <c r="F1649" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1649" s="0">
+        <v>3.43980343980344E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1650">
+      <c r="A1650" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1650" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1650" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1650" s="0">
+        <v>73710</v>
+      </c>
+      <c r="E1650" s="0">
+        <v>0.506887090230166</v>
+      </c>
+      <c r="F1650" s="0">
+        <v>691</v>
+      </c>
+      <c r="G1650" s="0">
+        <v>0.424447174447174</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1651">
+      <c r="A1651" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1651" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1651" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1651" s="0">
+        <v>70396</v>
+      </c>
+      <c r="E1651" s="0">
+        <v>0.484097457656258</v>
+      </c>
+      <c r="F1651" s="0">
+        <v>933</v>
+      </c>
+      <c r="G1651" s="0">
+        <v>0.573095823095823</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1652">
+      <c r="A1652" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1652" s="1">
+        <v>44068</v>
+      </c>
+      <c r="C1652" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1652" s="0">
+        <v>1311</v>
+      </c>
+      <c r="E1652" s="0">
+        <v>9.01545211357682E-03</v>
+      </c>
+      <c r="F1652" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1652" s="0">
+        <v>2.45700245700246E-03</v>
       </c>
     </row>
   </sheetData>

--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1652</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1691</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1652"/>
+  <dimension ref="A1:G1691"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -39494,7 +39494,7 @@
         <v>986</v>
       </c>
       <c r="G1640" s="0">
-        <v>0.605651105651106</v>
+        <v>0.605</v>
       </c>
     </row>
     <row outlineLevel="0" r="1641">
@@ -39521,13 +39521,13 @@
         <v>493</v>
       </c>
       <c r="G1641" s="0">
-        <v>0.302825552825553</v>
+        <v>0.302</v>
       </c>
     </row>
     <row outlineLevel="0" r="1642">
       <c r="A1642" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1642" s="1">
@@ -39539,22 +39539,22 @@
         </is>
       </c>
       <c r="D1642" s="0">
-        <v>19387</v>
+        <v>1262</v>
       </c>
       <c r="E1642" s="0">
-        <v>0.133320038234869</v>
+        <v>8.67849013526617E-03</v>
       </c>
       <c r="F1642" s="0">
-        <v>92</v>
+        <v>15</v>
       </c>
       <c r="G1642" s="0">
-        <v>5.65110565110565E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1643">
       <c r="A1643" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1643" s="1">
@@ -39566,22 +39566,22 @@
         </is>
       </c>
       <c r="D1643" s="0">
-        <v>1262</v>
+        <v>197</v>
       </c>
       <c r="E1643" s="0">
-        <v>8.67849013526617E-03</v>
+        <v>1.35472468831017E-03</v>
       </c>
       <c r="F1643" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1643" s="0">
-        <v>9.21375921375921E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1644">
       <c r="A1644" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1644" s="1">
@@ -39593,22 +39593,22 @@
         </is>
       </c>
       <c r="D1644" s="0">
-        <v>197</v>
+        <v>98</v>
       </c>
       <c r="E1644" s="0">
-        <v>1.35472468831017E-03</v>
+        <v>6.73923956621303E-04</v>
       </c>
       <c r="F1644" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1644" s="0">
-        <v>2.45700245700246E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1645">
       <c r="A1645" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1645" s="1">
@@ -39620,16 +39620,16 @@
         </is>
       </c>
       <c r="D1645" s="0">
-        <v>98</v>
+        <v>19387</v>
       </c>
       <c r="E1645" s="0">
-        <v>6.73923956621303E-04</v>
+        <v>0.133320038234869</v>
       </c>
       <c r="F1645" s="0">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G1645" s="0">
-        <v>1.22850122850123E-03</v>
+        <v>0.056</v>
       </c>
     </row>
     <row outlineLevel="0" r="1646">
@@ -39656,7 +39656,7 @@
         <v>36</v>
       </c>
       <c r="G1646" s="0">
-        <v>2.21130221130221E-02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row outlineLevel="0" r="1647">
@@ -39683,7 +39683,7 @@
         <v>1455</v>
       </c>
       <c r="G1647" s="0">
-        <v>0.893734643734644</v>
+        <v>0.893</v>
       </c>
     </row>
     <row outlineLevel="0" r="1648">
@@ -39710,7 +39710,7 @@
         <v>117</v>
       </c>
       <c r="G1648" s="0">
-        <v>7.18673218673219E-02</v>
+        <v>0.071</v>
       </c>
     </row>
     <row outlineLevel="0" r="1649">
@@ -39737,7 +39737,7 @@
         <v>56</v>
       </c>
       <c r="G1649" s="0">
-        <v>3.43980343980344E-02</v>
+        <v>0.034</v>
       </c>
     </row>
     <row outlineLevel="0" r="1650">
@@ -39764,7 +39764,7 @@
         <v>691</v>
       </c>
       <c r="G1650" s="0">
-        <v>0.424447174447174</v>
+        <v>0.424</v>
       </c>
     </row>
     <row outlineLevel="0" r="1651">
@@ -39791,7 +39791,7 @@
         <v>933</v>
       </c>
       <c r="G1651" s="0">
-        <v>0.573095823095823</v>
+        <v>0.573</v>
       </c>
     </row>
     <row outlineLevel="0" r="1652">
@@ -39818,10 +39818,1529 @@
         <v>4</v>
       </c>
       <c r="G1652" s="0">
-        <v>2.45700245700246E-03</v>
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1653">
+      <c r="A1653" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1653" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1653" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1653" s="0">
+        <v>72663</v>
+      </c>
+      <c r="E1653" s="0">
+        <v>0.493121958833549</v>
+      </c>
+      <c r="F1653" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G1653" s="0">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1654">
+      <c r="A1654" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1654" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1654" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1654" s="0">
+        <v>28500</v>
+      </c>
+      <c r="E1654" s="0">
+        <v>0.193413096441878</v>
+      </c>
+      <c r="F1654" s="0">
+        <v>496</v>
+      </c>
+      <c r="G1654" s="0">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1655">
+      <c r="A1655" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1655" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1655" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1655" s="0">
+        <v>1276</v>
+      </c>
+      <c r="E1655" s="0">
+        <v>8.65947758104687E-03</v>
+      </c>
+      <c r="F1655" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1655" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1656">
+      <c r="A1656" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1656" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1656" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1656" s="0">
+        <v>200</v>
+      </c>
+      <c r="E1656" s="0">
+        <v>1.35728488731142E-03</v>
+      </c>
+      <c r="F1656" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1656" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1657">
+      <c r="A1657" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1657" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1657" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1657" s="0">
+        <v>103</v>
+      </c>
+      <c r="E1657" s="0">
+        <v>6.99001716965382E-04</v>
+      </c>
+      <c r="F1657" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1657" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1658">
+      <c r="A1658" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1658" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1658" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1658" s="0">
+        <v>19589</v>
+      </c>
+      <c r="E1658" s="0">
+        <v>0.132939268287717</v>
+      </c>
+      <c r="F1658" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1658" s="0">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1659">
+      <c r="A1659" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1659" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1659" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1659" s="0">
+        <v>25022</v>
+      </c>
+      <c r="E1659" s="0">
+        <v>0.169809912251532</v>
+      </c>
+      <c r="F1659" s="0">
+        <v>35</v>
+      </c>
+      <c r="G1659" s="0">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1660">
+      <c r="A1660" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1660" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1660" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1660" s="0">
+        <v>90825</v>
+      </c>
+      <c r="E1660" s="0">
+        <v>0.6163769994503</v>
+      </c>
+      <c r="F1660" s="0">
+        <v>1475</v>
+      </c>
+      <c r="G1660" s="0">
+        <v>0.895</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1661">
+      <c r="A1661" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1661" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1661" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1661" s="0">
+        <v>21870</v>
+      </c>
+      <c r="E1661" s="0">
+        <v>0.148419102427504</v>
+      </c>
+      <c r="F1661" s="0">
+        <v>117</v>
+      </c>
+      <c r="G1661" s="0">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1662">
+      <c r="A1662" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1662" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1662" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1662" s="0">
+        <v>34658</v>
+      </c>
+      <c r="E1662" s="0">
+        <v>0.235203898122196</v>
+      </c>
+      <c r="F1662" s="0">
+        <v>56</v>
+      </c>
+      <c r="G1662" s="0">
+        <v>0.033</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1663">
+      <c r="A1663" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1663" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1663" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1663" s="0">
+        <v>74754</v>
+      </c>
+      <c r="E1663" s="0">
+        <v>0.50731237233039</v>
+      </c>
+      <c r="F1663" s="0">
+        <v>699</v>
+      </c>
+      <c r="G1663" s="0">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1664">
+      <c r="A1664" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1664" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1664" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1664" s="0">
+        <v>71288</v>
+      </c>
+      <c r="E1664" s="0">
+        <v>0.483790625233283</v>
+      </c>
+      <c r="F1664" s="0">
+        <v>946</v>
+      </c>
+      <c r="G1664" s="0">
+        <v>0.574</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1665">
+      <c r="A1665" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1665" s="1">
+        <v>44069</v>
+      </c>
+      <c r="C1665" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1665" s="0">
+        <v>1311</v>
+      </c>
+      <c r="E1665" s="0">
+        <v>8.89700243632637E-03</v>
+      </c>
+      <c r="F1665" s="0">
+        <v>3</v>
+      </c>
+      <c r="G1665" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1666">
+      <c r="A1666" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1666" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1666" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1666" s="0">
+        <v>73846</v>
+      </c>
+      <c r="E1666" s="0">
+        <v>0.495016054538507</v>
+      </c>
+      <c r="F1666" s="0">
+        <v>1022</v>
+      </c>
+      <c r="G1666" s="0">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1667">
+      <c r="A1667" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1667" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1667" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1667" s="0">
+        <v>28785</v>
+      </c>
+      <c r="E1667" s="0">
+        <v>0.192956113125842</v>
+      </c>
+      <c r="F1667" s="0">
+        <v>499</v>
+      </c>
+      <c r="G1667" s="0">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1668">
+      <c r="A1668" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1668" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1668" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1668" s="0">
+        <v>1284</v>
+      </c>
+      <c r="E1668" s="0">
+        <v>8.60710957976659E-03</v>
+      </c>
+      <c r="F1668" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1668" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1669">
+      <c r="A1669" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1669" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1669" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1669" s="0">
+        <v>200</v>
+      </c>
+      <c r="E1669" s="0">
+        <v>1.34067127410695E-03</v>
+      </c>
+      <c r="F1669" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1669" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1670">
+      <c r="A1670" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1670" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1670" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1670" s="0">
+        <v>105</v>
+      </c>
+      <c r="E1670" s="0">
+        <v>7.03852418906146E-04</v>
+      </c>
+      <c r="F1670" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1670" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1671">
+      <c r="A1671" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1671" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1671" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1671" s="0">
+        <v>19658</v>
+      </c>
+      <c r="E1671" s="0">
+        <v>0.131774579531972</v>
+      </c>
+      <c r="F1671" s="0">
+        <v>93</v>
+      </c>
+      <c r="G1671" s="0">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1672">
+      <c r="A1672" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1672" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1672" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1672" s="0">
+        <v>25301</v>
+      </c>
+      <c r="E1672" s="0">
+        <v>0.169601619530899</v>
+      </c>
+      <c r="F1672" s="0">
+        <v>38</v>
+      </c>
+      <c r="G1672" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1673">
+      <c r="A1673" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1673" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1673" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1673" s="0">
+        <v>91955</v>
+      </c>
+      <c r="E1673" s="0">
+        <v>0.616407135052521</v>
+      </c>
+      <c r="F1673" s="0">
+        <v>1497</v>
+      </c>
+      <c r="G1673" s="0">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1674">
+      <c r="A1674" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1674" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1674" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1674" s="0">
+        <v>22027</v>
+      </c>
+      <c r="E1674" s="0">
+        <v>0.147654830773768</v>
+      </c>
+      <c r="F1674" s="0">
+        <v>118</v>
+      </c>
+      <c r="G1674" s="0">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1675">
+      <c r="A1675" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1675" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1675" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1675" s="0">
+        <v>35197</v>
+      </c>
+      <c r="E1675" s="0">
+        <v>0.235938034173711</v>
+      </c>
+      <c r="F1675" s="0">
+        <v>58</v>
+      </c>
+      <c r="G1675" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1676">
+      <c r="A1676" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1676" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1676" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1676" s="0">
+        <v>75695</v>
+      </c>
+      <c r="E1676" s="0">
+        <v>0.507410560467626</v>
+      </c>
+      <c r="F1676" s="0">
+        <v>707</v>
+      </c>
+      <c r="G1676" s="0">
+        <v>0.422</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1677">
+      <c r="A1677" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1677" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1677" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1677" s="0">
+        <v>72160</v>
+      </c>
+      <c r="E1677" s="0">
+        <v>0.483714195697786</v>
+      </c>
+      <c r="F1677" s="0">
+        <v>962</v>
+      </c>
+      <c r="G1677" s="0">
+        <v>0.575</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1678">
+      <c r="A1678" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1678" s="1">
+        <v>44070</v>
+      </c>
+      <c r="C1678" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1678" s="0">
+        <v>1324</v>
+      </c>
+      <c r="E1678" s="0">
+        <v>8.87524383458798E-03</v>
+      </c>
+      <c r="F1678" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1678" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1679">
+      <c r="A1679" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1679" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1679" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1679" s="0">
+        <v>74880</v>
+      </c>
+      <c r="E1679" s="0">
+        <v>0.496502337300666</v>
+      </c>
+      <c r="F1679" s="0">
+        <v>1060</v>
+      </c>
+      <c r="G1679" s="0">
+        <v>0.623162845385068</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1680">
+      <c r="A1680" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1680" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1680" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1680" s="0">
+        <v>29034</v>
+      </c>
+      <c r="E1680" s="0">
+        <v>0.192514007227398</v>
+      </c>
+      <c r="F1680" s="0">
+        <v>516</v>
+      </c>
+      <c r="G1680" s="0">
+        <v>0.303350970017637</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1681">
+      <c r="A1681" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1681" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1681" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1681" s="0">
+        <v>19798</v>
+      </c>
+      <c r="E1681" s="0">
+        <v>0.131273414448165</v>
+      </c>
+      <c r="F1681" s="0">
+        <v>89</v>
+      </c>
+      <c r="G1681" s="0">
+        <v>5.23221634332745E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1682">
+      <c r="A1682" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1682" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1682" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1682" s="0">
+        <v>1306</v>
+      </c>
+      <c r="E1682" s="0">
+        <v>8.6596160859331E-03</v>
+      </c>
+      <c r="F1682" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1682" s="0">
+        <v>8.81834215167548E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1683">
+      <c r="A1683" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1683" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1683" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1683" s="0">
+        <v>203</v>
+      </c>
+      <c r="E1683" s="0">
+        <v>1.34601995822697E-03</v>
+      </c>
+      <c r="F1683" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1683" s="0">
+        <v>2.35155790711346E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1684">
+      <c r="A1684" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1684" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1684" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1684" s="0">
+        <v>106</v>
+      </c>
+      <c r="E1684" s="0">
+        <v>7.02847859960879E-04</v>
+      </c>
+      <c r="F1684" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1684" s="0">
+        <v>1.17577895355673E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1685">
+      <c r="A1685" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1685" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1685" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1685" s="0">
+        <v>25488</v>
+      </c>
+      <c r="E1685" s="0">
+        <v>0.16900175711965</v>
+      </c>
+      <c r="F1685" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1685" s="0">
+        <v>8.81834215167548E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1686">
+      <c r="A1686" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1686" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1686" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1686" s="0">
+        <v>93188</v>
+      </c>
+      <c r="E1686" s="0">
+        <v>0.617896097868249</v>
+      </c>
+      <c r="F1686" s="0">
+        <v>1569</v>
+      </c>
+      <c r="G1686" s="0">
+        <v>0.922398589065256</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1687">
+      <c r="A1687" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1687" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1687" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1687" s="0">
+        <v>22206</v>
+      </c>
+      <c r="E1687" s="0">
+        <v>0.147239996021616</v>
+      </c>
+      <c r="F1687" s="0">
+        <v>121</v>
+      </c>
+      <c r="G1687" s="0">
+        <v>7.11346266901823E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1688">
+      <c r="A1688" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1688" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1688" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1688" s="0">
+        <v>35421</v>
+      </c>
+      <c r="E1688" s="0">
+        <v>0.234863906110135</v>
+      </c>
+      <c r="F1688" s="0">
+        <v>11</v>
+      </c>
+      <c r="G1688" s="0">
+        <v>6.46678424456202E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1689">
+      <c r="A1689" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1689" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1689" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1689" s="0">
+        <v>76573</v>
+      </c>
+      <c r="E1689" s="0">
+        <v>0.507728011139476</v>
+      </c>
+      <c r="F1689" s="0">
+        <v>728</v>
+      </c>
+      <c r="G1689" s="0">
+        <v>0.42798353909465</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1690">
+      <c r="A1690" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1690" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1690" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1690" s="0">
+        <v>72916</v>
+      </c>
+      <c r="E1690" s="0">
+        <v>0.483479759970825</v>
+      </c>
+      <c r="F1690" s="0">
+        <v>973</v>
+      </c>
+      <c r="G1690" s="0">
+        <v>0.57201646090535</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1691">
+      <c r="A1691" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1691" s="1">
+        <v>44071</v>
+      </c>
+      <c r="C1691" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1691" s="0">
+        <v>1326</v>
+      </c>
+      <c r="E1691" s="0">
+        <v>8.7922288896993E-03</v>
+      </c>
+      <c r="F1691" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1691" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100E87656C07D1F6245B36B45FCE68A7EBD" ma:contentTypeVersion="2" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="776cd0b89f99ab89a388ef8b7cc56775">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" xmlns:ns2="2773c6ec-81e5-4cca-8f30-56e38046ef00" xmlns:ns3="98a58c6c-0c6a-4735-9794-66dbf75df29f" xmlns:ns4="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xmlns:ns5="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8" xmlns:ns6="02185938-6661-46e9-9ba5-a10ade488092" xmlns:ns7="5b8cec1f-45e7-4890-bbf0-fbf2b01e70bf" xmlns:ns8="96141c66-ad2a-44ad-a05c-0d7e139c648b" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="176368d66d413c205fa34d84ccc8f626" ns1:_="" ns2:_="" ns3:_="" ns4:_="" ns5:_="" ns6:_="" ns7:_="" ns8:_="">
+    <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
+    <xsd:import namespace="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
+    <xsd:import namespace="98a58c6c-0c6a-4735-9794-66dbf75df29f"/>
+    <xsd:import namespace="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2"/>
+    <xsd:import namespace="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8"/>
+    <xsd:import namespace="02185938-6661-46e9-9ba5-a10ade488092"/>
+    <xsd:import namespace="5b8cec1f-45e7-4890-bbf0-fbf2b01e70bf"/>
+    <xsd:import namespace="96141c66-ad2a-44ad-a05c-0d7e139c648b"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:TaxCatchAll" minOccurs="0"/>
+                <xsd:element ref="ns2:TaxCatchAllLabel" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocId" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdUrl" minOccurs="0"/>
+                <xsd:element ref="ns3:_dlc_DocIdPersistId" minOccurs="0"/>
+                <xsd:element ref="ns2:Doc_x0020_Type" minOccurs="0"/>
+                <xsd:element ref="ns2:Doc_x0020_Subject" minOccurs="0"/>
+                <xsd:element ref="ns4:Assigned_x0020_To0" minOccurs="0"/>
+                <xsd:element ref="ns4:Project_x0020_ID" minOccurs="0"/>
+                <xsd:element ref="ns5:Home" minOccurs="0"/>
+                <xsd:element ref="ns4:Present" minOccurs="0"/>
+                <xsd:element ref="ns6:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns7:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:e67c2c055ae043d09da25150149f3d62" minOccurs="0"/>
+                <xsd:element ref="ns1:PublishingStartDate" minOccurs="0"/>
+                <xsd:element ref="ns1:PublishingExpirationDate" minOccurs="0"/>
+                <xsd:element ref="ns8:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns8:MediaServiceFastMetadata" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="http://schemas.microsoft.com/sharepoint/v3" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="PublishingStartDate" ma:index="23" nillable="true" ma:displayName="Scheduling Start Date" ma:description="Scheduling Start Date is a site column created by the Publishing feature. It is used to specify the date and time on which this page will first appear to site visitors." ma:internalName="PublishingStartDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="PublishingExpirationDate" ma:index="24" nillable="true" ma:displayName="Scheduling End Date" ma:description="Scheduling End Date is a site column created by the Publishing feature. It is used to specify the date and time on which this page will no longer appear to site visitors." ma:internalName="PublishingExpirationDate">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="2773c6ec-81e5-4cca-8f30-56e38046ef00" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="TaxCatchAll" ma:index="8" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{8e035300-2479-40f3-af3d-8675ff565826}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="2773c6ec-81e5-4cca-8f30-56e38046ef00">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="TaxCatchAllLabel" ma:index="9" nillable="true" ma:displayName="Taxonomy Catch All Column1" ma:hidden="true" ma:list="{8e035300-2479-40f3-af3d-8675ff565826}" ma:internalName="TaxCatchAllLabel" ma:readOnly="true" ma:showField="CatchAllDataLabel" ma:web="2773c6ec-81e5-4cca-8f30-56e38046ef00">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:MultiChoiceLookup">
+            <xsd:sequence>
+              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Doc_x0020_Type" ma:index="13" nillable="true" ma:displayName="​Doc Type" ma:format="Dropdown" ma:internalName="Doc_x0020_Type">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Agenda"/>
+          <xsd:enumeration value="Agreement"/>
+          <xsd:enumeration value="Brochure"/>
+          <xsd:enumeration value="Charter"/>
+          <xsd:enumeration value="Code"/>
+          <xsd:enumeration value="Contract"/>
+          <xsd:enumeration value="Design"/>
+          <xsd:enumeration value="Diagram"/>
+          <xsd:enumeration value="Form"/>
+          <xsd:enumeration value="Journal"/>
+          <xsd:enumeration value="Letter"/>
+          <xsd:enumeration value="Memorandum"/>
+          <xsd:enumeration value="Minutes"/>
+          <xsd:enumeration value="Notes"/>
+          <xsd:enumeration value="Plan"/>
+          <xsd:enumeration value="Policy"/>
+          <xsd:enumeration value="Procedures"/>
+          <xsd:enumeration value="Profile"/>
+          <xsd:enumeration value="Record"/>
+          <xsd:enumeration value="Report"/>
+          <xsd:enumeration value="Reference"/>
+          <xsd:enumeration value="Requirements"/>
+          <xsd:enumeration value="Research"/>
+          <xsd:enumeration value="Review"/>
+          <xsd:enumeration value="Schedule"/>
+          <xsd:enumeration value="Source"/>
+          <xsd:enumeration value="Speech"/>
+          <xsd:enumeration value="Survey"/>
+          <xsd:enumeration value="Template"/>
+          <xsd:enumeration value="Training"/>
+          <xsd:enumeration value="Transcript"/>
+          <xsd:enumeration value="Other"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Doc_x0020_Subject" ma:index="14" nillable="true" ma:displayName="​Doc Subject" ma:format="Dropdown" ma:internalName="Doc_x0020_Subject">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Choice">
+          <xsd:enumeration value="Administrative"/>
+          <xsd:enumeration value="Business"/>
+          <xsd:enumeration value="Governance"/>
+          <xsd:enumeration value="Legal"/>
+          <xsd:enumeration value="Legislative"/>
+          <xsd:enumeration value="Management"/>
+          <xsd:enumeration value="Medical"/>
+          <xsd:enumeration value="Scientific"/>
+          <xsd:enumeration value="Statistics"/>
+          <xsd:enumeration value="Technical"/>
+          <xsd:enumeration value="Other"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="e67c2c055ae043d09da25150149f3d62" ma:index="22" nillable="true" ma:taxonomy="true" ma:internalName="e67c2c055ae043d09da25150149f3d62" ma:taxonomyFieldName="Topic_x0020_Tag" ma:displayName="Topic Space Tag" ma:default="" ma:fieldId="{e67c2c05-5ae0-43d0-9da2-5150149f3d62}" ma:taxonomyMulti="true" ma:sspId="0ec6819c-d561-498f-ad6b-029f1b52bec6" ma:termSetId="b55bc1da-e7a9-4ebc-8f3d-0292a135c2d2" ma:anchorId="00000000-0000-0000-0000-000000000000" ma:open="false" ma:isKeyword="false">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="98a58c6c-0c6a-4735-9794-66dbf75df29f" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="_dlc_DocId" ma:index="10" nillable="true" ma:displayName="Document ID Value" ma:description="The value of the document ID assigned to this item." ma:internalName="_dlc_DocId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdUrl" ma:index="11" nillable="true" ma:displayName="Document ID" ma:description="Permanent link to this document." ma:hidden="true" ma:internalName="_dlc_DocIdUrl" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:URL">
+            <xsd:sequence>
+              <xsd:element name="Url" type="dms:ValidUrl" minOccurs="0" nillable="true"/>
+              <xsd:element name="Description" type="xsd:string" nillable="true"/>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="_dlc_DocIdPersistId" ma:index="12" nillable="true" ma:displayName="Persist ID" ma:description="Keep ID on add." ma:hidden="true" ma:internalName="_dlc_DocIdPersistId" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Assigned_x0020_To0" ma:index="15" nillable="true" ma:displayName="Assigned To" ma:list="UserInfo" ma:SharePointGroup="134" ma:internalName="Assigned_x0020_To0" ma:showField="ImnName">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:User">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="Project_x0020_ID" ma:index="16" nillable="true" ma:displayName="Project ID" ma:internalName="Project_x0020_ID">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="Present" ma:index="18" nillable="true" ma:displayName="Presented" ma:default="0" ma:internalName="Present">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="Home" ma:index="17" nillable="true" ma:displayName="Home" ma:default="0" ma:internalName="Home">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Boolean"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="02185938-6661-46e9-9ba5-a10ade488092" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="19" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="5b8cec1f-45e7-4890-bbf0-fbf2b01e70bf" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithDetails" ma:index="20" nillable="true" ma:displayName="Shared With Details" ma:description="" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="96141c66-ad2a-44ad-a05c-0d7e139c648b" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="25" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="26" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<spe:Receivers xmlns:spe="http://schemas.microsoft.com/sharepoint/events">
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10001</Type>
+    <SequenceNumber>1000</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10002</Type>
+    <SequenceNumber>1001</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10004</Type>
+    <SequenceNumber>1002</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+  <Receiver>
+    <Name>Document ID Generator</Name>
+    <Synchronization>Synchronous</Synchronization>
+    <Type>10006</Type>
+    <SequenceNumber>1003</SequenceNumber>
+    <Url/>
+    <Assembly>Microsoft.Office.DocumentManagement, Version=16.0.0.0, Culture=neutral, PublicKeyToken=71e9bce111e9429c</Assembly>
+    <Class>Microsoft.Office.DocumentManagement.Internal.DocIdHandler</Class>
+    <Data/>
+    <Filter/>
+  </Receiver>
+</spe:Receivers>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-221</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-221</Url>
+      <Description>HJYU5V3E37X6-122305290-221</Description>
+    </_dlc_DocIdUrl>
+    <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
+    <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </e67c2c055ae043d09da25150149f3d62>
+    <Assigned_x0020_To0 xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">
+      <UserInfo>
+        <DisplayName/>
+        <AccountId xsi:nil="true"/>
+        <AccountType/>
+      </UserInfo>
+    </Assigned_x0020_To0>
+    <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
+    <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68434AFE-10D9-4FDF-AD64-F593A0FC1543}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{962BE509-1E50-45D8-A229-2434736A963E}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D7E399-D063-4EBD-A54A-4CAE435231D0}"/>
+</file>
+
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF203BB9-15D6-40D3-AAAE-083C6686515D}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1691</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1704</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1691"/>
+  <dimension ref="A1:G1704"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -40547,7 +40547,7 @@
         <v>1060</v>
       </c>
       <c r="G1679" s="0">
-        <v>0.623162845385068</v>
+        <v>0.623</v>
       </c>
     </row>
     <row outlineLevel="0" r="1680">
@@ -40574,13 +40574,13 @@
         <v>516</v>
       </c>
       <c r="G1680" s="0">
-        <v>0.303350970017637</v>
+        <v>0.303</v>
       </c>
     </row>
     <row outlineLevel="0" r="1681">
       <c r="A1681" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1681" s="1">
@@ -40592,22 +40592,22 @@
         </is>
       </c>
       <c r="D1681" s="0">
-        <v>19798</v>
+        <v>1306</v>
       </c>
       <c r="E1681" s="0">
-        <v>0.131273414448165</v>
+        <v>8.6596160859331E-03</v>
       </c>
       <c r="F1681" s="0">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G1681" s="0">
-        <v>5.23221634332745E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1682">
       <c r="A1682" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1682" s="1">
@@ -40619,22 +40619,22 @@
         </is>
       </c>
       <c r="D1682" s="0">
-        <v>1306</v>
+        <v>203</v>
       </c>
       <c r="E1682" s="0">
-        <v>8.6596160859331E-03</v>
+        <v>1.34601995822697E-03</v>
       </c>
       <c r="F1682" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1682" s="0">
-        <v>8.81834215167548E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1683">
       <c r="A1683" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1683" s="1">
@@ -40646,22 +40646,22 @@
         </is>
       </c>
       <c r="D1683" s="0">
-        <v>203</v>
+        <v>106</v>
       </c>
       <c r="E1683" s="0">
-        <v>1.34601995822697E-03</v>
+        <v>7.02847859960879E-04</v>
       </c>
       <c r="F1683" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1683" s="0">
-        <v>2.35155790711346E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1684">
       <c r="A1684" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1684" s="1">
@@ -40673,16 +40673,16 @@
         </is>
       </c>
       <c r="D1684" s="0">
-        <v>106</v>
+        <v>19798</v>
       </c>
       <c r="E1684" s="0">
-        <v>7.02847859960879E-04</v>
+        <v>0.131273414448165</v>
       </c>
       <c r="F1684" s="0">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G1684" s="0">
-        <v>1.17577895355673E-03</v>
+        <v>0.052</v>
       </c>
     </row>
     <row outlineLevel="0" r="1685">
@@ -40709,7 +40709,7 @@
         <v>15</v>
       </c>
       <c r="G1685" s="0">
-        <v>8.81834215167548E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1686">
@@ -40736,7 +40736,7 @@
         <v>1569</v>
       </c>
       <c r="G1686" s="0">
-        <v>0.922398589065256</v>
+        <v>0.922</v>
       </c>
     </row>
     <row outlineLevel="0" r="1687">
@@ -40763,7 +40763,7 @@
         <v>121</v>
       </c>
       <c r="G1687" s="0">
-        <v>7.11346266901823E-02</v>
+        <v>0.071</v>
       </c>
     </row>
     <row outlineLevel="0" r="1688">
@@ -40790,7 +40790,7 @@
         <v>11</v>
       </c>
       <c r="G1688" s="0">
-        <v>6.46678424456202E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1689">
@@ -40817,7 +40817,7 @@
         <v>728</v>
       </c>
       <c r="G1689" s="0">
-        <v>0.42798353909465</v>
+        <v>0.427</v>
       </c>
     </row>
     <row outlineLevel="0" r="1690">
@@ -40844,7 +40844,7 @@
         <v>973</v>
       </c>
       <c r="G1690" s="0">
-        <v>0.57201646090535</v>
+        <v>0.572</v>
       </c>
     </row>
     <row outlineLevel="0" r="1691">
@@ -40872,6 +40872,357 @@
       </c>
       <c r="G1691" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1692">
+      <c r="A1692" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1692" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1692" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1692" s="0">
+        <v>75948</v>
+      </c>
+      <c r="E1692" s="0">
+        <v>0.498739164696612</v>
+      </c>
+      <c r="F1692" s="0">
+        <v>1078</v>
+      </c>
+      <c r="G1692" s="0">
+        <v>0.624927536231884</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1693">
+      <c r="A1693" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1693" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1693" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1693" s="0">
+        <v>29268</v>
+      </c>
+      <c r="E1693" s="0">
+        <v>0.192198581560284</v>
+      </c>
+      <c r="F1693" s="0">
+        <v>522</v>
+      </c>
+      <c r="G1693" s="0">
+        <v>0.302608695652174</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1694">
+      <c r="A1694" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1694" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1694" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1694" s="0">
+        <v>19851</v>
+      </c>
+      <c r="E1694" s="0">
+        <v>0.130358550039401</v>
+      </c>
+      <c r="F1694" s="0">
+        <v>89</v>
+      </c>
+      <c r="G1694" s="0">
+        <v>5.15942028985507E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1695">
+      <c r="A1695" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1695" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1695" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1695" s="0">
+        <v>1324</v>
+      </c>
+      <c r="E1695" s="0">
+        <v>8.69451011294983E-03</v>
+      </c>
+      <c r="F1695" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1695" s="0">
+        <v>8.69565217391304E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1696">
+      <c r="A1696" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1696" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1696" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1696" s="0">
+        <v>202</v>
+      </c>
+      <c r="E1696" s="0">
+        <v>1.32650380877331E-03</v>
+      </c>
+      <c r="F1696" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1696" s="0">
+        <v>2.31884057971014E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1697">
+      <c r="A1697" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1697" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1697" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1697" s="0">
+        <v>112</v>
+      </c>
+      <c r="E1697" s="0">
+        <v>7.35487260309955E-04</v>
+      </c>
+      <c r="F1697" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1697" s="0">
+        <v>1.15942028985507E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1698">
+      <c r="A1698" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1698" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1698" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1698" s="0">
+        <v>25575</v>
+      </c>
+      <c r="E1698" s="0">
+        <v>0.167947202521671</v>
+      </c>
+      <c r="F1698" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1698" s="0">
+        <v>8.69565217391304E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1699">
+      <c r="A1699" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1699" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1699" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1699" s="0">
+        <v>94356</v>
+      </c>
+      <c r="E1699" s="0">
+        <v>0.619621749408983</v>
+      </c>
+      <c r="F1699" s="0">
+        <v>1591</v>
+      </c>
+      <c r="G1699" s="0">
+        <v>0.92231884057971</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1700">
+      <c r="A1700" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1700" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1700" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1700" s="0">
+        <v>22358</v>
+      </c>
+      <c r="E1700" s="0">
+        <v>0.146821644339375</v>
+      </c>
+      <c r="F1700" s="0">
+        <v>122</v>
+      </c>
+      <c r="G1700" s="0">
+        <v>7.07246376811594E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1701">
+      <c r="A1701" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1701" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1701" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1701" s="0">
+        <v>35566</v>
+      </c>
+      <c r="E1701" s="0">
+        <v>0.233556606251642</v>
+      </c>
+      <c r="F1701" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1701" s="0">
+        <v>6.95652173913044E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1702">
+      <c r="A1702" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1702" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1702" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1702" s="0">
+        <v>77308</v>
+      </c>
+      <c r="E1702" s="0">
+        <v>0.507670081428947</v>
+      </c>
+      <c r="F1702" s="0">
+        <v>740</v>
+      </c>
+      <c r="G1702" s="0">
+        <v>0.428985507246377</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1703">
+      <c r="A1703" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1703" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1703" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1703" s="0">
+        <v>73636</v>
+      </c>
+      <c r="E1703" s="0">
+        <v>0.483556606251642</v>
+      </c>
+      <c r="F1703" s="0">
+        <v>984</v>
+      </c>
+      <c r="G1703" s="0">
+        <v>0.570434782608696</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1704">
+      <c r="A1704" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1704" s="1">
+        <v>44072</v>
+      </c>
+      <c r="C1704" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1704" s="0">
+        <v>1336</v>
+      </c>
+      <c r="E1704" s="0">
+        <v>8.77331231941161E-03</v>
+      </c>
+      <c r="F1704" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1704" s="0">
+        <v>5.79710144927536E-04</v>
       </c>
     </row>
   </sheetData>
@@ -41303,11 +41654,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-221</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-241</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-221</Url>
-      <Description>HJYU5V3E37X6-122305290-221</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-241</Url>
+      <Description>HJYU5V3E37X6-122305290-241</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -41330,17 +41681,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{68434AFE-10D9-4FDF-AD64-F593A0FC1543}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93428560-B45B-43B6-8B4E-0FFC59F92EAA}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{962BE509-1E50-45D8-A229-2434736A963E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCF1CFB-6222-4CF2-B409-403D251CA815}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E8D7E399-D063-4EBD-A54A-4CAE435231D0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56DB4548-B5FA-4FE9-8052-DCAAF2432254}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF203BB9-15D6-40D3-AAAE-083C6686515D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F79B10-3709-4478-BBC4-D698F9AEFF8A}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1704</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1743</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1704"/>
+  <dimension ref="A1:G1743"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -40898,7 +40898,7 @@
         <v>1078</v>
       </c>
       <c r="G1692" s="0">
-        <v>0.624927536231884</v>
+        <v>0.624</v>
       </c>
     </row>
     <row outlineLevel="0" r="1693">
@@ -40925,13 +40925,13 @@
         <v>522</v>
       </c>
       <c r="G1693" s="0">
-        <v>0.302608695652174</v>
+        <v>0.302</v>
       </c>
     </row>
     <row outlineLevel="0" r="1694">
       <c r="A1694" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1694" s="1">
@@ -40943,22 +40943,22 @@
         </is>
       </c>
       <c r="D1694" s="0">
-        <v>19851</v>
+        <v>1324</v>
       </c>
       <c r="E1694" s="0">
-        <v>0.130358550039401</v>
+        <v>8.69451011294983E-03</v>
       </c>
       <c r="F1694" s="0">
-        <v>89</v>
+        <v>15</v>
       </c>
       <c r="G1694" s="0">
-        <v>5.15942028985507E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1695">
       <c r="A1695" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1695" s="1">
@@ -40970,22 +40970,22 @@
         </is>
       </c>
       <c r="D1695" s="0">
-        <v>1324</v>
+        <v>202</v>
       </c>
       <c r="E1695" s="0">
-        <v>8.69451011294983E-03</v>
+        <v>1.32650380877331E-03</v>
       </c>
       <c r="F1695" s="0">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="G1695" s="0">
-        <v>8.69565217391304E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1696">
       <c r="A1696" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1696" s="1">
@@ -40997,22 +40997,22 @@
         </is>
       </c>
       <c r="D1696" s="0">
-        <v>202</v>
+        <v>112</v>
       </c>
       <c r="E1696" s="0">
-        <v>1.32650380877331E-03</v>
+        <v>7.35487260309955E-04</v>
       </c>
       <c r="F1696" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1696" s="0">
-        <v>2.31884057971014E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1697">
       <c r="A1697" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1697" s="1">
@@ -41024,16 +41024,16 @@
         </is>
       </c>
       <c r="D1697" s="0">
-        <v>112</v>
+        <v>19851</v>
       </c>
       <c r="E1697" s="0">
-        <v>7.35487260309955E-04</v>
+        <v>0.130358550039401</v>
       </c>
       <c r="F1697" s="0">
-        <v>2</v>
+        <v>89</v>
       </c>
       <c r="G1697" s="0">
-        <v>1.15942028985507E-03</v>
+        <v>0.051</v>
       </c>
     </row>
     <row outlineLevel="0" r="1698">
@@ -41060,7 +41060,7 @@
         <v>15</v>
       </c>
       <c r="G1698" s="0">
-        <v>8.69565217391304E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1699">
@@ -41087,7 +41087,7 @@
         <v>1591</v>
       </c>
       <c r="G1699" s="0">
-        <v>0.92231884057971</v>
+        <v>0.922</v>
       </c>
     </row>
     <row outlineLevel="0" r="1700">
@@ -41114,7 +41114,7 @@
         <v>122</v>
       </c>
       <c r="G1700" s="0">
-        <v>7.07246376811594E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="1701">
@@ -41141,7 +41141,7 @@
         <v>12</v>
       </c>
       <c r="G1701" s="0">
-        <v>6.95652173913044E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1702">
@@ -41168,7 +41168,7 @@
         <v>740</v>
       </c>
       <c r="G1702" s="0">
-        <v>0.428985507246377</v>
+        <v>0.428</v>
       </c>
     </row>
     <row outlineLevel="0" r="1703">
@@ -41195,7 +41195,7 @@
         <v>984</v>
       </c>
       <c r="G1703" s="0">
-        <v>0.570434782608696</v>
+        <v>0.57</v>
       </c>
     </row>
     <row outlineLevel="0" r="1704">
@@ -41222,7 +41222,1060 @@
         <v>1</v>
       </c>
       <c r="G1704" s="0">
-        <v>5.79710144927536E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1705">
+      <c r="A1705" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1705" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1705" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1705" s="0">
+        <v>76504</v>
+      </c>
+      <c r="E1705" s="0">
+        <v>0.499650589426248</v>
+      </c>
+      <c r="F1705" s="0">
+        <v>1093</v>
+      </c>
+      <c r="G1705" s="0">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1706">
+      <c r="A1706" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1706" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1706" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1706" s="0">
+        <v>29368</v>
+      </c>
+      <c r="E1706" s="0">
+        <v>0.191803546354048</v>
+      </c>
+      <c r="F1706" s="0">
+        <v>527</v>
+      </c>
+      <c r="G1706" s="0">
+        <v>0.301</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1707">
+      <c r="A1707" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1707" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1707" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1707" s="0">
+        <v>1331</v>
+      </c>
+      <c r="E1707" s="0">
+        <v>8.69281259184273E-03</v>
+      </c>
+      <c r="F1707" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1707" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1708">
+      <c r="A1708" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1708" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1708" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1708" s="0">
+        <v>204</v>
+      </c>
+      <c r="E1708" s="0">
+        <v>1.33233190738987E-03</v>
+      </c>
+      <c r="F1708" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1708" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1709">
+      <c r="A1709" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1709" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1709" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1709" s="0">
+        <v>112</v>
+      </c>
+      <c r="E1709" s="0">
+        <v>7.31476341312086E-04</v>
+      </c>
+      <c r="F1709" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1709" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1710">
+      <c r="A1710" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1710" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1710" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1710" s="0">
+        <v>19881</v>
+      </c>
+      <c r="E1710" s="0">
+        <v>0.129843581621657</v>
+      </c>
+      <c r="F1710" s="0">
+        <v>90</v>
+      </c>
+      <c r="G1710" s="0">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1711">
+      <c r="A1711" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1711" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1711" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1711" s="0">
+        <v>25715</v>
+      </c>
+      <c r="E1711" s="0">
+        <v>0.167945661757503</v>
+      </c>
+      <c r="F1711" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1711" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1712">
+      <c r="A1712" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1712" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1712" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1712" s="0">
+        <v>94888</v>
+      </c>
+      <c r="E1712" s="0">
+        <v>0.619717206021618</v>
+      </c>
+      <c r="F1712" s="0">
+        <v>1608</v>
+      </c>
+      <c r="G1712" s="0">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1713">
+      <c r="A1713" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1713" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1713" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1713" s="0">
+        <v>22416</v>
+      </c>
+      <c r="E1713" s="0">
+        <v>0.146399764882605</v>
+      </c>
+      <c r="F1713" s="0">
+        <v>124</v>
+      </c>
+      <c r="G1713" s="0">
+        <v>0.07</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1714">
+      <c r="A1714" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1714" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1714" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1714" s="0">
+        <v>35811</v>
+      </c>
+      <c r="E1714" s="0">
+        <v>0.233883029095778</v>
+      </c>
+      <c r="F1714" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1714" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1715">
+      <c r="A1715" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1715" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1715" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1715" s="0">
+        <v>77748</v>
+      </c>
+      <c r="E1715" s="0">
+        <v>0.507775201645822</v>
+      </c>
+      <c r="F1715" s="0">
+        <v>750</v>
+      </c>
+      <c r="G1715" s="0">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1716">
+      <c r="A1716" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1716" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1716" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1716" s="0">
+        <v>74022</v>
+      </c>
+      <c r="E1716" s="0">
+        <v>0.483440551219671</v>
+      </c>
+      <c r="F1716" s="0">
+        <v>996</v>
+      </c>
+      <c r="G1716" s="0">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1717">
+      <c r="A1717" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1717" s="1">
+        <v>44073</v>
+      </c>
+      <c r="C1717" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1717" s="0">
+        <v>1345</v>
+      </c>
+      <c r="E1717" s="0">
+        <v>8.78424713450674E-03</v>
+      </c>
+      <c r="F1717" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1717" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1718">
+      <c r="A1718" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1718" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1718" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1718" s="0">
+        <v>77155</v>
+      </c>
+      <c r="E1718" s="0">
+        <v>0.497989453505709</v>
+      </c>
+      <c r="F1718" s="0">
+        <v>1093</v>
+      </c>
+      <c r="G1718" s="0">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1719">
+      <c r="A1719" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1719" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1719" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1719" s="0">
+        <v>29496</v>
+      </c>
+      <c r="E1719" s="0">
+        <v>0.190379067080609</v>
+      </c>
+      <c r="F1719" s="0">
+        <v>531</v>
+      </c>
+      <c r="G1719" s="0">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1720">
+      <c r="A1720" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1720" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1720" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1720" s="0">
+        <v>1340</v>
+      </c>
+      <c r="E1720" s="0">
+        <v>8.64889984703065E-03</v>
+      </c>
+      <c r="F1720" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1720" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1721">
+      <c r="A1721" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1721" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1721" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1721" s="0">
+        <v>204</v>
+      </c>
+      <c r="E1721" s="0">
+        <v>1.31669818566735E-03</v>
+      </c>
+      <c r="F1721" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1721" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1722">
+      <c r="A1722" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1722" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1722" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1722" s="0">
+        <v>112</v>
+      </c>
+      <c r="E1722" s="0">
+        <v>7.2289312154286E-04</v>
+      </c>
+      <c r="F1722" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1722" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1723">
+      <c r="A1723" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1723" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1723" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1723" s="0">
+        <v>20839</v>
+      </c>
+      <c r="E1723" s="0">
+        <v>0.134503301427068</v>
+      </c>
+      <c r="F1723" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1723" s="0">
+        <v>0.052</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1724">
+      <c r="A1724" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1724" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1724" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1724" s="0">
+        <v>25787</v>
+      </c>
+      <c r="E1724" s="0">
+        <v>0.166439686832373</v>
+      </c>
+      <c r="F1724" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1724" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1725">
+      <c r="A1725" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1725" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1725" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1725" s="0">
+        <v>95548</v>
+      </c>
+      <c r="E1725" s="0">
+        <v>0.616705285510511</v>
+      </c>
+      <c r="F1725" s="0">
+        <v>1611</v>
+      </c>
+      <c r="G1725" s="0">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1726">
+      <c r="A1726" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1726" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1726" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1726" s="0">
+        <v>22479</v>
+      </c>
+      <c r="E1726" s="0">
+        <v>0.145088522135375</v>
+      </c>
+      <c r="F1726" s="0">
+        <v>126</v>
+      </c>
+      <c r="G1726" s="0">
+        <v>0.071</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1727">
+      <c r="A1727" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1727" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1727" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1727" s="0">
+        <v>36906</v>
+      </c>
+      <c r="E1727" s="0">
+        <v>0.238206192354114</v>
+      </c>
+      <c r="F1727" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1727" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1728">
+      <c r="A1728" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1728" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1728" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1728" s="0">
+        <v>78207</v>
+      </c>
+      <c r="E1728" s="0">
+        <v>0.504779485325915</v>
+      </c>
+      <c r="F1728" s="0">
+        <v>755</v>
+      </c>
+      <c r="G1728" s="0">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1729">
+      <c r="A1729" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1729" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1729" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1729" s="0">
+        <v>74651</v>
+      </c>
+      <c r="E1729" s="0">
+        <v>0.481827628716929</v>
+      </c>
+      <c r="F1729" s="0">
+        <v>998</v>
+      </c>
+      <c r="G1729" s="0">
+        <v>0.568</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1730">
+      <c r="A1730" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1730" s="1">
+        <v>44074</v>
+      </c>
+      <c r="C1730" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1730" s="0">
+        <v>2075</v>
+      </c>
+      <c r="E1730" s="0">
+        <v>1.33928859571557E-02</v>
+      </c>
+      <c r="F1730" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1730" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1731">
+      <c r="A1731" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1731" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1731" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1731" s="0">
+        <v>78058</v>
+      </c>
+      <c r="E1731" s="0">
+        <v>0.49931874444281</v>
+      </c>
+      <c r="F1731" s="0">
+        <v>1115</v>
+      </c>
+      <c r="G1731" s="0">
+        <v>0.626052779337451</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1732">
+      <c r="A1732" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1732" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1732" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1732" s="0">
+        <v>29689</v>
+      </c>
+      <c r="E1732" s="0">
+        <v>0.189913579694107</v>
+      </c>
+      <c r="F1732" s="0">
+        <v>536</v>
+      </c>
+      <c r="G1732" s="0">
+        <v>0.300954519932622</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1733">
+      <c r="A1733" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1733" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1733" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1733" s="0">
+        <v>20989</v>
+      </c>
+      <c r="E1733" s="0">
+        <v>0.134261717275745</v>
+      </c>
+      <c r="F1733" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1733" s="0">
+        <v>0.051656372824256</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1734">
+      <c r="A1734" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1734" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1734" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1734" s="0">
+        <v>1351</v>
+      </c>
+      <c r="E1734" s="0">
+        <v>8.64203058933403E-03</v>
+      </c>
+      <c r="F1734" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1734" s="0">
+        <v>8.98371701291409E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1735">
+      <c r="A1735" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1735" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1735" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1735" s="0">
+        <v>206</v>
+      </c>
+      <c r="E1735" s="0">
+        <v>1.31773375381407E-03</v>
+      </c>
+      <c r="F1735" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1735" s="0">
+        <v>2.24592925322852E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1736">
+      <c r="A1736" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1736" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1736" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1736" s="0">
+        <v>113</v>
+      </c>
+      <c r="E1736" s="0">
+        <v>7.22834534859175E-04</v>
+      </c>
+      <c r="F1736" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1736" s="0">
+        <v>1.12296462661426E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1737">
+      <c r="A1737" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1737" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1737" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1737" s="0">
+        <v>25923</v>
+      </c>
+      <c r="E1737" s="0">
+        <v>0.165823359709331</v>
+      </c>
+      <c r="F1737" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1737" s="0">
+        <v>8.98371701291409E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1738">
+      <c r="A1738" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1738" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1738" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1738" s="0">
+        <v>96659</v>
+      </c>
+      <c r="E1738" s="0">
+        <v>0.618304984999584</v>
+      </c>
+      <c r="F1738" s="0">
+        <v>1637</v>
+      </c>
+      <c r="G1738" s="0">
+        <v>0.919146546883773</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1739">
+      <c r="A1739" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1739" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1739" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1739" s="0">
+        <v>22612</v>
+      </c>
+      <c r="E1739" s="0">
+        <v>0.144643668161378</v>
+      </c>
+      <c r="F1739" s="0">
+        <v>126</v>
+      </c>
+      <c r="G1739" s="0">
+        <v>7.07467714766985E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1740">
+      <c r="A1740" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1740" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1740" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1740" s="0">
+        <v>37058</v>
+      </c>
+      <c r="E1740" s="0">
+        <v>0.237051346839038</v>
+      </c>
+      <c r="F1740" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1740" s="0">
+        <v>1.01066816395284E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1741">
+      <c r="A1741" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1741" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1741" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1741" s="0">
+        <v>78894</v>
+      </c>
+      <c r="E1741" s="0">
+        <v>0.504666440647609</v>
+      </c>
+      <c r="F1741" s="0">
+        <v>768</v>
+      </c>
+      <c r="G1741" s="0">
+        <v>0.431218416619876</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1742">
+      <c r="A1742" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1742" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1742" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1742" s="0">
+        <v>75282</v>
+      </c>
+      <c r="E1742" s="0">
+        <v>0.481561322595296</v>
+      </c>
+      <c r="F1742" s="0">
+        <v>1012</v>
+      </c>
+      <c r="G1742" s="0">
+        <v>0.568220101066816</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1743">
+      <c r="A1743" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1743" s="1">
+        <v>44075</v>
+      </c>
+      <c r="C1743" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1743" s="0">
+        <v>2153</v>
+      </c>
+      <c r="E1743" s="0">
+        <v>1.37722367570956E-02</v>
+      </c>
+      <c r="F1743" s="0">
+        <v>1</v>
+      </c>
+      <c r="G1743" s="0">
+        <v>5.61482313307131E-04</v>
       </c>
     </row>
   </sheetData>
@@ -41654,11 +42707,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-241</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-307</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-241</Url>
-      <Description>HJYU5V3E37X6-122305290-241</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-307</Url>
+      <Description>HJYU5V3E37X6-122305290-307</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -41681,17 +42734,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{93428560-B45B-43B6-8B4E-0FFC59F92EAA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D0B5B4D-A88B-4E01-812D-84F0D777750E}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBCF1CFB-6222-4CF2-B409-403D251CA815}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACB6956-6CB8-4393-AC91-AC4522221E63}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{56DB4548-B5FA-4FE9-8052-DCAAF2432254}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E9AAF0-7450-4BED-9D05-B08959270B48}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{92F79B10-3709-4478-BBC4-D698F9AEFF8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59849C03-C16C-4BE4-AE98-1AD04AC88834}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1743</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1756</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1743"/>
+  <dimension ref="A1:G1756"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -41951,7 +41951,7 @@
         <v>1115</v>
       </c>
       <c r="G1731" s="0">
-        <v>0.626052779337451</v>
+        <v>0.626</v>
       </c>
     </row>
     <row outlineLevel="0" r="1732">
@@ -41978,13 +41978,13 @@
         <v>536</v>
       </c>
       <c r="G1732" s="0">
-        <v>0.300954519932622</v>
+        <v>0.3</v>
       </c>
     </row>
     <row outlineLevel="0" r="1733">
       <c r="A1733" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1733" s="1">
@@ -41996,22 +41996,22 @@
         </is>
       </c>
       <c r="D1733" s="0">
-        <v>20989</v>
+        <v>1351</v>
       </c>
       <c r="E1733" s="0">
-        <v>0.134261717275745</v>
+        <v>8.64203058933403E-03</v>
       </c>
       <c r="F1733" s="0">
-        <v>92</v>
+        <v>16</v>
       </c>
       <c r="G1733" s="0">
-        <v>0.051656372824256</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1734">
       <c r="A1734" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1734" s="1">
@@ -42023,22 +42023,22 @@
         </is>
       </c>
       <c r="D1734" s="0">
-        <v>1351</v>
+        <v>206</v>
       </c>
       <c r="E1734" s="0">
-        <v>8.64203058933403E-03</v>
+        <v>1.31773375381407E-03</v>
       </c>
       <c r="F1734" s="0">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G1734" s="0">
-        <v>8.98371701291409E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1735">
       <c r="A1735" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1735" s="1">
@@ -42050,22 +42050,22 @@
         </is>
       </c>
       <c r="D1735" s="0">
-        <v>206</v>
+        <v>113</v>
       </c>
       <c r="E1735" s="0">
-        <v>1.31773375381407E-03</v>
+        <v>7.22834534859175E-04</v>
       </c>
       <c r="F1735" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1735" s="0">
-        <v>2.24592925322852E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1736">
       <c r="A1736" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1736" s="1">
@@ -42077,16 +42077,16 @@
         </is>
       </c>
       <c r="D1736" s="0">
-        <v>113</v>
+        <v>20989</v>
       </c>
       <c r="E1736" s="0">
-        <v>7.22834534859175E-04</v>
+        <v>0.134261717275745</v>
       </c>
       <c r="F1736" s="0">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G1736" s="0">
-        <v>1.12296462661426E-03</v>
+        <v>0.051</v>
       </c>
     </row>
     <row outlineLevel="0" r="1737">
@@ -42113,7 +42113,7 @@
         <v>16</v>
       </c>
       <c r="G1737" s="0">
-        <v>8.98371701291409E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1738">
@@ -42140,7 +42140,7 @@
         <v>1637</v>
       </c>
       <c r="G1738" s="0">
-        <v>0.919146546883773</v>
+        <v>0.919</v>
       </c>
     </row>
     <row outlineLevel="0" r="1739">
@@ -42167,7 +42167,7 @@
         <v>126</v>
       </c>
       <c r="G1739" s="0">
-        <v>7.07467714766985E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="1740">
@@ -42194,7 +42194,7 @@
         <v>18</v>
       </c>
       <c r="G1740" s="0">
-        <v>1.01066816395284E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1741">
@@ -42221,7 +42221,7 @@
         <v>768</v>
       </c>
       <c r="G1741" s="0">
-        <v>0.431218416619876</v>
+        <v>0.431</v>
       </c>
     </row>
     <row outlineLevel="0" r="1742">
@@ -42248,7 +42248,7 @@
         <v>1012</v>
       </c>
       <c r="G1742" s="0">
-        <v>0.568220101066816</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="1743">
@@ -42275,7 +42275,358 @@
         <v>1</v>
       </c>
       <c r="G1743" s="0">
-        <v>5.61482313307131E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1744">
+      <c r="A1744" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1744" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1744" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1744" s="0">
+        <v>79780</v>
+      </c>
+      <c r="E1744" s="0">
+        <v>0.505477377701466</v>
+      </c>
+      <c r="F1744" s="0">
+        <v>1128</v>
+      </c>
+      <c r="G1744" s="0">
+        <v>0.62771285475793</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1745">
+      <c r="A1745" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1745" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1745" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1745" s="0">
+        <v>30177</v>
+      </c>
+      <c r="E1745" s="0">
+        <v>0.191198180332127</v>
+      </c>
+      <c r="F1745" s="0">
+        <v>539</v>
+      </c>
+      <c r="G1745" s="0">
+        <v>0.299944351697273</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1746">
+      <c r="A1746" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1746" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1746" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1746" s="0">
+        <v>21157</v>
+      </c>
+      <c r="E1746" s="0">
+        <v>0.134048444221984</v>
+      </c>
+      <c r="F1746" s="0">
+        <v>90</v>
+      </c>
+      <c r="G1746" s="0">
+        <v>5.00834724540902E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1747">
+      <c r="A1747" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1747" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1747" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1747" s="0">
+        <v>1377</v>
+      </c>
+      <c r="E1747" s="0">
+        <v>8.72452179863271E-03</v>
+      </c>
+      <c r="F1747" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1747" s="0">
+        <v>9.46021146355036E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1748">
+      <c r="A1748" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1748" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1748" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1748" s="0">
+        <v>208</v>
+      </c>
+      <c r="E1748" s="0">
+        <v>1.3178653116308E-03</v>
+      </c>
+      <c r="F1748" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1748" s="0">
+        <v>2.22593210907067E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1749">
+      <c r="A1749" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1749" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1749" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1749" s="0">
+        <v>115</v>
+      </c>
+      <c r="E1749" s="0">
+        <v>7.28627455949718E-04</v>
+      </c>
+      <c r="F1749" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1749" s="0">
+        <v>1.11296605453534E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1750">
+      <c r="A1750" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1750" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1750" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1750" s="0">
+        <v>25017</v>
+      </c>
+      <c r="E1750" s="0">
+        <v>0.15850498317821</v>
+      </c>
+      <c r="F1750" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1750" s="0">
+        <v>9.46021146355036E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1751">
+      <c r="A1751" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1751" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1751" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1751" s="0">
+        <v>99278</v>
+      </c>
+      <c r="E1751" s="0">
+        <v>0.62901457888501</v>
+      </c>
+      <c r="F1751" s="0">
+        <v>1652</v>
+      </c>
+      <c r="G1751" s="0">
+        <v>0.919309961046188</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1752">
+      <c r="A1752" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1752" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1752" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1752" s="0">
+        <v>22834</v>
+      </c>
+      <c r="E1752" s="0">
+        <v>0.144673733297008</v>
+      </c>
+      <c r="F1752" s="0">
+        <v>127</v>
+      </c>
+      <c r="G1752" s="0">
+        <v>7.06733444629939E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1753">
+      <c r="A1753" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1753" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1753" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1753" s="0">
+        <v>35719</v>
+      </c>
+      <c r="E1753" s="0">
+        <v>0.226311687817983</v>
+      </c>
+      <c r="F1753" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1753" s="0">
+        <v>0.010016694490818</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1754">
+      <c r="A1754" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1754" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1754" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1754" s="0">
+        <v>79689</v>
+      </c>
+      <c r="E1754" s="0">
+        <v>0.504900811627627</v>
+      </c>
+      <c r="F1754" s="0">
+        <v>776</v>
+      </c>
+      <c r="G1754" s="0">
+        <v>0.431830829159711</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1755">
+      <c r="A1755" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1755" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1755" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1755" s="0">
+        <v>76044</v>
+      </c>
+      <c r="E1755" s="0">
+        <v>0.481806489219482</v>
+      </c>
+      <c r="F1755" s="0">
+        <v>1021</v>
+      </c>
+      <c r="G1755" s="0">
+        <v>0.568169170840289</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1756">
+      <c r="A1756" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1756" s="1">
+        <v>44076</v>
+      </c>
+      <c r="C1756" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1756" s="0">
+        <v>2098</v>
+      </c>
+      <c r="E1756" s="0">
+        <v>1.32926991528914E-02</v>
+      </c>
+      <c r="F1756" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1756" s="0">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -42707,11 +43058,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-307</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-327</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-307</Url>
-      <Description>HJYU5V3E37X6-122305290-307</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-327</Url>
+      <Description>HJYU5V3E37X6-122305290-327</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -42734,17 +43085,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D0B5B4D-A88B-4E01-812D-84F0D777750E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6AB634-3BCD-4BB0-A7E5-572414448D33}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACB6956-6CB8-4393-AC91-AC4522221E63}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C1A31C2-17FE-4363-BF90-5868B469DBB9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{54E9AAF0-7450-4BED-9D05-B08959270B48}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB83E348-43CB-4D29-832F-2C13C9FA919C}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{59849C03-C16C-4BE4-AE98-1AD04AC88834}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562379B6-58F2-4453-9A88-96B4A6198441}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1756</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1769</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1756"/>
+  <dimension ref="A1:G1769"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -42302,7 +42302,7 @@
         <v>1128</v>
       </c>
       <c r="G1744" s="0">
-        <v>0.62771285475793</v>
+        <v>0.627</v>
       </c>
     </row>
     <row outlineLevel="0" r="1745">
@@ -42329,13 +42329,13 @@
         <v>539</v>
       </c>
       <c r="G1745" s="0">
-        <v>0.299944351697273</v>
+        <v>0.299</v>
       </c>
     </row>
     <row outlineLevel="0" r="1746">
       <c r="A1746" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1746" s="1">
@@ -42347,22 +42347,22 @@
         </is>
       </c>
       <c r="D1746" s="0">
-        <v>21157</v>
+        <v>1377</v>
       </c>
       <c r="E1746" s="0">
-        <v>0.134048444221984</v>
+        <v>8.72452179863271E-03</v>
       </c>
       <c r="F1746" s="0">
-        <v>90</v>
+        <v>17</v>
       </c>
       <c r="G1746" s="0">
-        <v>5.00834724540902E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1747">
       <c r="A1747" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1747" s="1">
@@ -42374,22 +42374,22 @@
         </is>
       </c>
       <c r="D1747" s="0">
-        <v>1377</v>
+        <v>208</v>
       </c>
       <c r="E1747" s="0">
-        <v>8.72452179863271E-03</v>
+        <v>1.3178653116308E-03</v>
       </c>
       <c r="F1747" s="0">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="G1747" s="0">
-        <v>9.46021146355036E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1748">
       <c r="A1748" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1748" s="1">
@@ -42401,22 +42401,22 @@
         </is>
       </c>
       <c r="D1748" s="0">
-        <v>208</v>
+        <v>115</v>
       </c>
       <c r="E1748" s="0">
-        <v>1.3178653116308E-03</v>
+        <v>7.28627455949718E-04</v>
       </c>
       <c r="F1748" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1748" s="0">
-        <v>2.22593210907067E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1749">
       <c r="A1749" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1749" s="1">
@@ -42428,16 +42428,16 @@
         </is>
       </c>
       <c r="D1749" s="0">
-        <v>115</v>
+        <v>21157</v>
       </c>
       <c r="E1749" s="0">
-        <v>7.28627455949718E-04</v>
+        <v>0.134048444221984</v>
       </c>
       <c r="F1749" s="0">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="G1749" s="0">
-        <v>1.11296605453534E-03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="1750">
@@ -42464,7 +42464,7 @@
         <v>17</v>
       </c>
       <c r="G1750" s="0">
-        <v>9.46021146355036E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1751">
@@ -42491,7 +42491,7 @@
         <v>1652</v>
       </c>
       <c r="G1751" s="0">
-        <v>0.919309961046188</v>
+        <v>0.919</v>
       </c>
     </row>
     <row outlineLevel="0" r="1752">
@@ -42518,7 +42518,7 @@
         <v>127</v>
       </c>
       <c r="G1752" s="0">
-        <v>7.06733444629939E-02</v>
+        <v>0.07</v>
       </c>
     </row>
     <row outlineLevel="0" r="1753">
@@ -42545,7 +42545,7 @@
         <v>18</v>
       </c>
       <c r="G1753" s="0">
-        <v>0.010016694490818</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1754">
@@ -42572,7 +42572,7 @@
         <v>776</v>
       </c>
       <c r="G1754" s="0">
-        <v>0.431830829159711</v>
+        <v>0.431</v>
       </c>
     </row>
     <row outlineLevel="0" r="1755">
@@ -42599,7 +42599,7 @@
         <v>1021</v>
       </c>
       <c r="G1755" s="0">
-        <v>0.568169170840289</v>
+        <v>0.568</v>
       </c>
     </row>
     <row outlineLevel="0" r="1756">
@@ -42626,6 +42626,357 @@
         <v>0</v>
       </c>
       <c r="G1756" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1757">
+      <c r="A1757" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1757" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1757" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1757" s="0">
+        <v>80882</v>
+      </c>
+      <c r="E1757" s="0">
+        <v>0.506950973386986</v>
+      </c>
+      <c r="F1757" s="0">
+        <v>1142</v>
+      </c>
+      <c r="G1757" s="0">
+        <v>0.629201101928375</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1758">
+      <c r="A1758" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1758" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1758" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1758" s="0">
+        <v>30391</v>
+      </c>
+      <c r="E1758" s="0">
+        <v>0.190484249056698</v>
+      </c>
+      <c r="F1758" s="0">
+        <v>542</v>
+      </c>
+      <c r="G1758" s="0">
+        <v>0.29862258953168</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1759">
+      <c r="A1759" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1759" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1759" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1759" s="0">
+        <v>21296</v>
+      </c>
+      <c r="E1759" s="0">
+        <v>0.133478745941609</v>
+      </c>
+      <c r="F1759" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1759" s="0">
+        <v>0.050137741046832</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1760">
+      <c r="A1760" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1760" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1760" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1760" s="0">
+        <v>1399</v>
+      </c>
+      <c r="E1760" s="0">
+        <v>8.76863099043536E-03</v>
+      </c>
+      <c r="F1760" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1760" s="0">
+        <v>9.91735537190083E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1761">
+      <c r="A1761" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1761" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1761" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1761" s="0">
+        <v>215</v>
+      </c>
+      <c r="E1761" s="0">
+        <v>1.34757374048864E-03</v>
+      </c>
+      <c r="F1761" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1761" s="0">
+        <v>2.20385674931129E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1762">
+      <c r="A1762" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1762" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1762" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1762" s="0">
+        <v>119</v>
+      </c>
+      <c r="E1762" s="0">
+        <v>7.45866395898362E-04</v>
+      </c>
+      <c r="F1762" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1762" s="0">
+        <v>1.10192837465565E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1763">
+      <c r="A1763" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1763" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1763" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1763" s="0">
+        <v>25244</v>
+      </c>
+      <c r="E1763" s="0">
+        <v>0.158223960487884</v>
+      </c>
+      <c r="F1763" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1763" s="0">
+        <v>8.81542699724518E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1764">
+      <c r="A1764" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1764" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1764" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1764" s="0">
+        <v>100521</v>
+      </c>
+      <c r="E1764" s="0">
+        <v>0.630043999849573</v>
+      </c>
+      <c r="F1764" s="0">
+        <v>1669</v>
+      </c>
+      <c r="G1764" s="0">
+        <v>0.919559228650138</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1765">
+      <c r="A1765" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1765" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1765" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1765" s="0">
+        <v>23000</v>
+      </c>
+      <c r="E1765" s="0">
+        <v>0.144159051308087</v>
+      </c>
+      <c r="F1765" s="0">
+        <v>127</v>
+      </c>
+      <c r="G1765" s="0">
+        <v>6.99724517906336E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1766">
+      <c r="A1766" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1766" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1766" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1766" s="0">
+        <v>36025</v>
+      </c>
+      <c r="E1766" s="0">
+        <v>0.22579694884234</v>
+      </c>
+      <c r="F1766" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1766" s="0">
+        <v>1.04683195592286E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1767">
+      <c r="A1767" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1767" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1767" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1767" s="0">
+        <v>80602</v>
+      </c>
+      <c r="E1767" s="0">
+        <v>0.505195993631931</v>
+      </c>
+      <c r="F1767" s="0">
+        <v>787</v>
+      </c>
+      <c r="G1767" s="0">
+        <v>0.433608815426997</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1768">
+      <c r="A1768" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1768" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1768" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1768" s="0">
+        <v>76803</v>
+      </c>
+      <c r="E1768" s="0">
+        <v>0.481384679026738</v>
+      </c>
+      <c r="F1768" s="0">
+        <v>1028</v>
+      </c>
+      <c r="G1768" s="0">
+        <v>0.566391184573003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1769">
+      <c r="A1769" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1769" s="1">
+        <v>44077</v>
+      </c>
+      <c r="C1769" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1769" s="0">
+        <v>2141</v>
+      </c>
+      <c r="E1769" s="0">
+        <v>0.013419327341331</v>
+      </c>
+      <c r="F1769" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1769" s="0">
         <v>0</v>
       </c>
     </row>
@@ -43058,11 +43409,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-327</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-337</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-327</Url>
-      <Description>HJYU5V3E37X6-122305290-327</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-337</Url>
+      <Description>HJYU5V3E37X6-122305290-337</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -43085,17 +43436,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6AB634-3BCD-4BB0-A7E5-572414448D33}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0045A67A-1BF6-4442-8AB4-0A8117384397}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C1A31C2-17FE-4363-BF90-5868B469DBB9}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2077783-3348-4DE6-9741-600A6CEAB060}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB83E348-43CB-4D29-832F-2C13C9FA919C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18846CFA-26BE-44EB-8382-C215578DA2BA}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{562379B6-58F2-4453-9A88-96B4A6198441}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D371A3-612F-4D51-BD4D-8D4C0D1DD370}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1769</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1782</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1769"/>
+  <dimension ref="A1:G1782"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -42653,7 +42653,7 @@
         <v>1142</v>
       </c>
       <c r="G1757" s="0">
-        <v>0.629201101928375</v>
+        <v>0.629</v>
       </c>
     </row>
     <row outlineLevel="0" r="1758">
@@ -42680,13 +42680,13 @@
         <v>542</v>
       </c>
       <c r="G1758" s="0">
-        <v>0.29862258953168</v>
+        <v>0.298</v>
       </c>
     </row>
     <row outlineLevel="0" r="1759">
       <c r="A1759" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1759" s="1">
@@ -42698,22 +42698,22 @@
         </is>
       </c>
       <c r="D1759" s="0">
-        <v>21296</v>
+        <v>1399</v>
       </c>
       <c r="E1759" s="0">
-        <v>0.133478745941609</v>
+        <v>8.76863099043536E-03</v>
       </c>
       <c r="F1759" s="0">
-        <v>91</v>
+        <v>18</v>
       </c>
       <c r="G1759" s="0">
-        <v>0.050137741046832</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1760">
       <c r="A1760" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1760" s="1">
@@ -42725,22 +42725,22 @@
         </is>
       </c>
       <c r="D1760" s="0">
-        <v>1399</v>
+        <v>215</v>
       </c>
       <c r="E1760" s="0">
-        <v>8.76863099043536E-03</v>
+        <v>1.34757374048864E-03</v>
       </c>
       <c r="F1760" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G1760" s="0">
-        <v>9.91735537190083E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1761">
       <c r="A1761" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1761" s="1">
@@ -42752,22 +42752,22 @@
         </is>
       </c>
       <c r="D1761" s="0">
-        <v>215</v>
+        <v>119</v>
       </c>
       <c r="E1761" s="0">
-        <v>1.34757374048864E-03</v>
+        <v>7.45866395898362E-04</v>
       </c>
       <c r="F1761" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1761" s="0">
-        <v>2.20385674931129E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1762">
       <c r="A1762" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1762" s="1">
@@ -42779,16 +42779,16 @@
         </is>
       </c>
       <c r="D1762" s="0">
-        <v>119</v>
+        <v>21296</v>
       </c>
       <c r="E1762" s="0">
-        <v>7.45866395898362E-04</v>
+        <v>0.133478745941609</v>
       </c>
       <c r="F1762" s="0">
-        <v>2</v>
+        <v>91</v>
       </c>
       <c r="G1762" s="0">
-        <v>1.10192837465565E-03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="1763">
@@ -42815,7 +42815,7 @@
         <v>16</v>
       </c>
       <c r="G1763" s="0">
-        <v>8.81542699724518E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1764">
@@ -42842,7 +42842,7 @@
         <v>1669</v>
       </c>
       <c r="G1764" s="0">
-        <v>0.919559228650138</v>
+        <v>0.919</v>
       </c>
     </row>
     <row outlineLevel="0" r="1765">
@@ -42869,7 +42869,7 @@
         <v>127</v>
       </c>
       <c r="G1765" s="0">
-        <v>6.99724517906336E-02</v>
+        <v>0.069</v>
       </c>
     </row>
     <row outlineLevel="0" r="1766">
@@ -42896,7 +42896,7 @@
         <v>19</v>
       </c>
       <c r="G1766" s="0">
-        <v>1.04683195592286E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1767">
@@ -42923,7 +42923,7 @@
         <v>787</v>
       </c>
       <c r="G1767" s="0">
-        <v>0.433608815426997</v>
+        <v>0.433</v>
       </c>
     </row>
     <row outlineLevel="0" r="1768">
@@ -42950,7 +42950,7 @@
         <v>1028</v>
       </c>
       <c r="G1768" s="0">
-        <v>0.566391184573003</v>
+        <v>0.566</v>
       </c>
     </row>
     <row outlineLevel="0" r="1769">
@@ -42977,6 +42977,357 @@
         <v>0</v>
       </c>
       <c r="G1769" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1770">
+      <c r="A1770" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1770" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1770" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1770" s="0">
+        <v>82029</v>
+      </c>
+      <c r="E1770" s="0">
+        <v>0.510775419217046</v>
+      </c>
+      <c r="F1770" s="0">
+        <v>1158</v>
+      </c>
+      <c r="G1770" s="0">
+        <v>0.630375612411541</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1771">
+      <c r="A1771" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1771" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1771" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1771" s="0">
+        <v>30607</v>
+      </c>
+      <c r="E1771" s="0">
+        <v>0.190582638529985</v>
+      </c>
+      <c r="F1771" s="0">
+        <v>547</v>
+      </c>
+      <c r="G1771" s="0">
+        <v>0.29776810016331</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1772">
+      <c r="A1772" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1772" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1772" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1772" s="0">
+        <v>21339</v>
+      </c>
+      <c r="E1772" s="0">
+        <v>0.132872967739123</v>
+      </c>
+      <c r="F1772" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1772" s="0">
+        <v>0.050081654872074</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1773">
+      <c r="A1773" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1773" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1773" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1773" s="0">
+        <v>1419</v>
+      </c>
+      <c r="E1773" s="0">
+        <v>8.83578149031426E-03</v>
+      </c>
+      <c r="F1773" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1773" s="0">
+        <v>9.79858464888405E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1774">
+      <c r="A1774" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1774" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1774" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1774" s="0">
+        <v>215</v>
+      </c>
+      <c r="E1774" s="0">
+        <v>1.33875477125974E-03</v>
+      </c>
+      <c r="F1774" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1774" s="0">
+        <v>2.17746325530757E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1775">
+      <c r="A1775" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1775" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1775" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1775" s="0">
+        <v>121</v>
+      </c>
+      <c r="E1775" s="0">
+        <v>7.53438731732224E-04</v>
+      </c>
+      <c r="F1775" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1775" s="0">
+        <v>1.08873162765378E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1776">
+      <c r="A1776" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1776" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1776" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1776" s="0">
+        <v>24867</v>
+      </c>
+      <c r="E1776" s="0">
+        <v>0.154840999520539</v>
+      </c>
+      <c r="F1776" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1776" s="0">
+        <v>8.70985302123027E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1777">
+      <c r="A1777" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1777" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1777" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1777" s="0">
+        <v>101790</v>
+      </c>
+      <c r="E1777" s="0">
+        <v>0.633822549611761</v>
+      </c>
+      <c r="F1777" s="0">
+        <v>1691</v>
+      </c>
+      <c r="G1777" s="0">
+        <v>0.920522591181274</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1778">
+      <c r="A1778" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1778" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1778" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1778" s="0">
+        <v>23161</v>
+      </c>
+      <c r="E1778" s="0">
+        <v>0.144218136079752</v>
+      </c>
+      <c r="F1778" s="0">
+        <v>127</v>
+      </c>
+      <c r="G1778" s="0">
+        <v>6.91344583560152E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1779">
+      <c r="A1779" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1779" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1779" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1779" s="0">
+        <v>35646</v>
+      </c>
+      <c r="E1779" s="0">
+        <v>0.221959314308486</v>
+      </c>
+      <c r="F1779" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1779" s="0">
+        <v>1.03429504627109E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1780">
+      <c r="A1780" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1780" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1780" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1780" s="0">
+        <v>81202</v>
+      </c>
+      <c r="E1780" s="0">
+        <v>0.50562588342248</v>
+      </c>
+      <c r="F1780" s="0">
+        <v>800</v>
+      </c>
+      <c r="G1780" s="0">
+        <v>0.435492651061513</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1781">
+      <c r="A1781" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1781" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1781" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1781" s="0">
+        <v>77310</v>
+      </c>
+      <c r="E1781" s="0">
+        <v>0.48139130867949</v>
+      </c>
+      <c r="F1781" s="0">
+        <v>1037</v>
+      </c>
+      <c r="G1781" s="0">
+        <v>0.564507348938487</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1782">
+      <c r="A1782" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1782" s="1">
+        <v>44078</v>
+      </c>
+      <c r="C1782" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1782" s="0">
+        <v>2085</v>
+      </c>
+      <c r="E1782" s="0">
+        <v>1.29828078980305E-02</v>
+      </c>
+      <c r="F1782" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1782" s="0">
         <v>0</v>
       </c>
     </row>
@@ -43409,11 +43760,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-337</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-357</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-337</Url>
-      <Description>HJYU5V3E37X6-122305290-337</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-357</Url>
+      <Description>HJYU5V3E37X6-122305290-357</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -43436,17 +43787,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0045A67A-1BF6-4442-8AB4-0A8117384397}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D059299-60D3-42E1-9B19-52F7539D08EB}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B2077783-3348-4DE6-9741-600A6CEAB060}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CB1BD-F5B1-4D6B-8C90-A9F5EB85285E}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18846CFA-26BE-44EB-8382-C215578DA2BA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7B1B41-7EBB-464A-815A-1B447A6EF81D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{03D371A3-612F-4D51-BD4D-8D4C0D1DD370}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA212FB-ADDC-4F2C-A455-057BC6F03A77}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1782</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1834</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1782"/>
+  <dimension ref="A1:G1834"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -43004,7 +43004,7 @@
         <v>1158</v>
       </c>
       <c r="G1770" s="0">
-        <v>0.630375612411541</v>
+        <v>0.63</v>
       </c>
     </row>
     <row outlineLevel="0" r="1771">
@@ -43031,13 +43031,13 @@
         <v>547</v>
       </c>
       <c r="G1771" s="0">
-        <v>0.29776810016331</v>
+        <v>0.297</v>
       </c>
     </row>
     <row outlineLevel="0" r="1772">
       <c r="A1772" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1772" s="1">
@@ -43049,22 +43049,22 @@
         </is>
       </c>
       <c r="D1772" s="0">
-        <v>21339</v>
+        <v>1419</v>
       </c>
       <c r="E1772" s="0">
-        <v>0.132872967739123</v>
+        <v>8.83578149031426E-03</v>
       </c>
       <c r="F1772" s="0">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G1772" s="0">
-        <v>0.050081654872074</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1773">
       <c r="A1773" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1773" s="1">
@@ -43076,22 +43076,22 @@
         </is>
       </c>
       <c r="D1773" s="0">
-        <v>1419</v>
+        <v>215</v>
       </c>
       <c r="E1773" s="0">
-        <v>8.83578149031426E-03</v>
+        <v>1.33875477125974E-03</v>
       </c>
       <c r="F1773" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G1773" s="0">
-        <v>9.79858464888405E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1774">
       <c r="A1774" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1774" s="1">
@@ -43103,22 +43103,22 @@
         </is>
       </c>
       <c r="D1774" s="0">
-        <v>215</v>
+        <v>121</v>
       </c>
       <c r="E1774" s="0">
-        <v>1.33875477125974E-03</v>
+        <v>7.53438731732224E-04</v>
       </c>
       <c r="F1774" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1774" s="0">
-        <v>2.17746325530757E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1775">
       <c r="A1775" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1775" s="1">
@@ -43130,16 +43130,16 @@
         </is>
       </c>
       <c r="D1775" s="0">
-        <v>121</v>
+        <v>21339</v>
       </c>
       <c r="E1775" s="0">
-        <v>7.53438731732224E-04</v>
+        <v>0.132872967739123</v>
       </c>
       <c r="F1775" s="0">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G1775" s="0">
-        <v>1.08873162765378E-03</v>
+        <v>0.05</v>
       </c>
     </row>
     <row outlineLevel="0" r="1776">
@@ -43166,7 +43166,7 @@
         <v>16</v>
       </c>
       <c r="G1776" s="0">
-        <v>8.70985302123027E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1777">
@@ -43193,7 +43193,7 @@
         <v>1691</v>
       </c>
       <c r="G1777" s="0">
-        <v>0.920522591181274</v>
+        <v>0.92</v>
       </c>
     </row>
     <row outlineLevel="0" r="1778">
@@ -43220,7 +43220,7 @@
         <v>127</v>
       </c>
       <c r="G1778" s="0">
-        <v>6.91344583560152E-02</v>
+        <v>0.069</v>
       </c>
     </row>
     <row outlineLevel="0" r="1779">
@@ -43247,7 +43247,7 @@
         <v>19</v>
       </c>
       <c r="G1779" s="0">
-        <v>1.03429504627109E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1780">
@@ -43274,7 +43274,7 @@
         <v>800</v>
       </c>
       <c r="G1780" s="0">
-        <v>0.435492651061513</v>
+        <v>0.435</v>
       </c>
     </row>
     <row outlineLevel="0" r="1781">
@@ -43301,7 +43301,7 @@
         <v>1037</v>
       </c>
       <c r="G1781" s="0">
-        <v>0.564507348938487</v>
+        <v>0.564</v>
       </c>
     </row>
     <row outlineLevel="0" r="1782">
@@ -43328,6 +43328,1410 @@
         <v>0</v>
       </c>
       <c r="G1782" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1783">
+      <c r="A1783" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1783" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1783" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1783" s="0">
+        <v>82967</v>
+      </c>
+      <c r="E1783" s="0">
+        <v>0.511000110863379</v>
+      </c>
+      <c r="F1783" s="0">
+        <v>1181</v>
+      </c>
+      <c r="G1783" s="0">
+        <v>0.634</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1784">
+      <c r="A1784" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1784" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1784" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1784" s="0">
+        <v>30826</v>
+      </c>
+      <c r="E1784" s="0">
+        <v>0.189859696234341</v>
+      </c>
+      <c r="F1784" s="0">
+        <v>549</v>
+      </c>
+      <c r="G1784" s="0">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1785">
+      <c r="A1785" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1785" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1785" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1785" s="0">
+        <v>1436</v>
+      </c>
+      <c r="E1785" s="0">
+        <v>8.84443404244836E-03</v>
+      </c>
+      <c r="F1785" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1785" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1786">
+      <c r="A1786" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1786" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1786" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1786" s="0">
+        <v>217</v>
+      </c>
+      <c r="E1786" s="0">
+        <v>1.33651962897722E-03</v>
+      </c>
+      <c r="F1786" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1786" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1787">
+      <c r="A1787" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1787" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1787" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1787" s="0">
+        <v>120</v>
+      </c>
+      <c r="E1787" s="0">
+        <v>7.39089195747774E-04</v>
+      </c>
+      <c r="F1787" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1787" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1788">
+      <c r="A1788" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1788" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1788" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1788" s="0">
+        <v>21407</v>
+      </c>
+      <c r="E1788" s="0">
+        <v>0.131847353444772</v>
+      </c>
+      <c r="F1788" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1788" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1789">
+      <c r="A1789" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1789" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1789" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1789" s="0">
+        <v>25389</v>
+      </c>
+      <c r="E1789" s="0">
+        <v>0.156372796590335</v>
+      </c>
+      <c r="F1789" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1789" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1790">
+      <c r="A1790" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1790" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1790" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1790" s="0">
+        <v>102870</v>
+      </c>
+      <c r="E1790" s="0">
+        <v>0.633584213054779</v>
+      </c>
+      <c r="F1790" s="0">
+        <v>1715</v>
+      </c>
+      <c r="G1790" s="0">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1791">
+      <c r="A1791" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1791" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1791" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1791" s="0">
+        <v>23303</v>
+      </c>
+      <c r="E1791" s="0">
+        <v>0.143524962737586</v>
+      </c>
+      <c r="F1791" s="0">
+        <v>127</v>
+      </c>
+      <c r="G1791" s="0">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1792">
+      <c r="A1792" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1792" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1792" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1792" s="0">
+        <v>36189</v>
+      </c>
+      <c r="E1792" s="0">
+        <v>0.222890824207635</v>
+      </c>
+      <c r="F1792" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1792" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1793">
+      <c r="A1793" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1793" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1793" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1793" s="0">
+        <v>82155</v>
+      </c>
+      <c r="E1793" s="0">
+        <v>0.505998940638819</v>
+      </c>
+      <c r="F1793" s="0">
+        <v>812</v>
+      </c>
+      <c r="G1793" s="0">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1794">
+      <c r="A1794" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1794" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1794" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1794" s="0">
+        <v>78185</v>
+      </c>
+      <c r="E1794" s="0">
+        <v>0.481547406412831</v>
+      </c>
+      <c r="F1794" s="0">
+        <v>1050</v>
+      </c>
+      <c r="G1794" s="0">
+        <v>0.563</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1795">
+      <c r="A1795" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1795" s="1">
+        <v>44079</v>
+      </c>
+      <c r="C1795" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1795" s="0">
+        <v>2022</v>
+      </c>
+      <c r="E1795" s="0">
+        <v>0.01245365294835</v>
+      </c>
+      <c r="F1795" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1795" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1796">
+      <c r="A1796" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1796" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1796" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1796" s="0">
+        <v>83815</v>
+      </c>
+      <c r="E1796" s="0">
+        <v>0.510674725515762</v>
+      </c>
+      <c r="F1796" s="0">
+        <v>1184</v>
+      </c>
+      <c r="G1796" s="0">
+        <v>0.634</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1797">
+      <c r="A1797" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1797" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1797" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1797" s="0">
+        <v>31000</v>
+      </c>
+      <c r="E1797" s="0">
+        <v>0.188879275678442</v>
+      </c>
+      <c r="F1797" s="0">
+        <v>549</v>
+      </c>
+      <c r="G1797" s="0">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1798">
+      <c r="A1798" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1798" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1798" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1798" s="0">
+        <v>1452</v>
+      </c>
+      <c r="E1798" s="0">
+        <v>8.84686155758381E-03</v>
+      </c>
+      <c r="F1798" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1798" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1799">
+      <c r="A1799" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1799" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1799" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1799" s="0">
+        <v>218</v>
+      </c>
+      <c r="E1799" s="0">
+        <v>1.32824780960969E-03</v>
+      </c>
+      <c r="F1799" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1799" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1800">
+      <c r="A1800" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1800" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1800" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1800" s="0">
+        <v>121</v>
+      </c>
+      <c r="E1800" s="0">
+        <v>7.37238463131984E-04</v>
+      </c>
+      <c r="F1800" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1800" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1801">
+      <c r="A1801" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1801" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1801" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1801" s="0">
+        <v>21720</v>
+      </c>
+      <c r="E1801" s="0">
+        <v>0.132337350572121</v>
+      </c>
+      <c r="F1801" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1801" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1802">
+      <c r="A1802" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1802" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1802" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1802" s="0">
+        <v>25800</v>
+      </c>
+      <c r="E1802" s="0">
+        <v>0.157196300403349</v>
+      </c>
+      <c r="F1802" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1802" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1803">
+      <c r="A1803" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1803" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1803" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1803" s="0">
+        <v>103566</v>
+      </c>
+      <c r="E1803" s="0">
+        <v>0.631015195642372</v>
+      </c>
+      <c r="F1803" s="0">
+        <v>1718</v>
+      </c>
+      <c r="G1803" s="0">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1804">
+      <c r="A1804" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1804" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1804" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1804" s="0">
+        <v>23385</v>
+      </c>
+      <c r="E1804" s="0">
+        <v>0.142481995540012</v>
+      </c>
+      <c r="F1804" s="0">
+        <v>127</v>
+      </c>
+      <c r="G1804" s="0">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1805">
+      <c r="A1805" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1805" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1805" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1805" s="0">
+        <v>37175</v>
+      </c>
+      <c r="E1805" s="0">
+        <v>0.226502808817616</v>
+      </c>
+      <c r="F1805" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1805" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1806">
+      <c r="A1806" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1806" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1806" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1806" s="0">
+        <v>82995</v>
+      </c>
+      <c r="E1806" s="0">
+        <v>0.505678564030074</v>
+      </c>
+      <c r="F1806" s="0">
+        <v>815</v>
+      </c>
+      <c r="G1806" s="0">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1807">
+      <c r="A1807" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1807" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1807" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1807" s="0">
+        <v>79092</v>
+      </c>
+      <c r="E1807" s="0">
+        <v>0.481898053934173</v>
+      </c>
+      <c r="F1807" s="0">
+        <v>1050</v>
+      </c>
+      <c r="G1807" s="0">
+        <v>0.563</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1808">
+      <c r="A1808" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1808" s="1">
+        <v>44080</v>
+      </c>
+      <c r="C1808" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1808" s="0">
+        <v>2039</v>
+      </c>
+      <c r="E1808" s="0">
+        <v>0.012423382035753</v>
+      </c>
+      <c r="F1808" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1808" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1809">
+      <c r="A1809" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1809" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1809" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1809" s="0">
+        <v>84449</v>
+      </c>
+      <c r="E1809" s="0">
+        <v>0.511474238230502</v>
+      </c>
+      <c r="F1809" s="0">
+        <v>1189</v>
+      </c>
+      <c r="G1809" s="0">
+        <v>0.636</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1810">
+      <c r="A1810" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1810" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1810" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1810" s="0">
+        <v>31120</v>
+      </c>
+      <c r="E1810" s="0">
+        <v>0.188481548552774</v>
+      </c>
+      <c r="F1810" s="0">
+        <v>549</v>
+      </c>
+      <c r="G1810" s="0">
+        <v>0.293</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1811">
+      <c r="A1811" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1811" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1811" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1811" s="0">
+        <v>1456</v>
+      </c>
+      <c r="E1811" s="0">
+        <v>8.8184169245771E-03</v>
+      </c>
+      <c r="F1811" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1811" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1812">
+      <c r="A1812" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1812" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1812" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1812" s="0">
+        <v>218</v>
+      </c>
+      <c r="E1812" s="0">
+        <v>1.32033989667432E-03</v>
+      </c>
+      <c r="F1812" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1812" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1813">
+      <c r="A1813" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1813" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1813" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1813" s="0">
+        <v>122</v>
+      </c>
+      <c r="E1813" s="0">
+        <v>7.38905813735169E-04</v>
+      </c>
+      <c r="F1813" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1813" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1814">
+      <c r="A1814" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1814" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1814" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1814" s="0">
+        <v>21837</v>
+      </c>
+      <c r="E1814" s="0">
+        <v>0.132258084053565</v>
+      </c>
+      <c r="F1814" s="0">
+        <v>91</v>
+      </c>
+      <c r="G1814" s="0">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1815">
+      <c r="A1815" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1815" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1815" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1815" s="0">
+        <v>25907</v>
+      </c>
+      <c r="E1815" s="0">
+        <v>0.156908466528172</v>
+      </c>
+      <c r="F1815" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1815" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1816">
+      <c r="A1816" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1816" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1816" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1816" s="0">
+        <v>104154</v>
+      </c>
+      <c r="E1816" s="0">
+        <v>0.630819640358793</v>
+      </c>
+      <c r="F1816" s="0">
+        <v>1720</v>
+      </c>
+      <c r="G1816" s="0">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1817">
+      <c r="A1817" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1817" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1817" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1817" s="0">
+        <v>23435</v>
+      </c>
+      <c r="E1817" s="0">
+        <v>0.141936538892489</v>
+      </c>
+      <c r="F1817" s="0">
+        <v>128</v>
+      </c>
+      <c r="G1817" s="0">
+        <v>0.068</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1818">
+      <c r="A1818" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1818" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1818" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1818" s="0">
+        <v>37520</v>
+      </c>
+      <c r="E1818" s="0">
+        <v>0.227243820748718</v>
+      </c>
+      <c r="F1818" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1818" s="0">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1819">
+      <c r="A1819" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1819" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1819" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1819" s="0">
+        <v>83565</v>
+      </c>
+      <c r="E1819" s="0">
+        <v>0.506120199383438</v>
+      </c>
+      <c r="F1819" s="0">
+        <v>816</v>
+      </c>
+      <c r="G1819" s="0">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1820">
+      <c r="A1820" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1820" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1820" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1820" s="0">
+        <v>79507</v>
+      </c>
+      <c r="E1820" s="0">
+        <v>0.481542496169197</v>
+      </c>
+      <c r="F1820" s="0">
+        <v>1053</v>
+      </c>
+      <c r="G1820" s="0">
+        <v>0.563</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1821">
+      <c r="A1821" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1821" s="1">
+        <v>44081</v>
+      </c>
+      <c r="C1821" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1821" s="0">
+        <v>2037</v>
+      </c>
+      <c r="E1821" s="0">
+        <v>1.23373044473651E-02</v>
+      </c>
+      <c r="F1821" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1821" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1822">
+      <c r="A1822" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1822" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1822" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1822" s="0">
+        <v>84961</v>
+      </c>
+      <c r="E1822" s="0">
+        <v>0.51257284892069</v>
+      </c>
+      <c r="F1822" s="0">
+        <v>1207</v>
+      </c>
+      <c r="G1822" s="0">
+        <v>0.636603375527426</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1823">
+      <c r="A1823" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1823" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1823" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1823" s="0">
+        <v>31249</v>
+      </c>
+      <c r="E1823" s="0">
+        <v>0.188526370404334</v>
+      </c>
+      <c r="F1823" s="0">
+        <v>556</v>
+      </c>
+      <c r="G1823" s="0">
+        <v>0.293248945147679</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1824">
+      <c r="A1824" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1824" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1824" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1824" s="0">
+        <v>21873</v>
+      </c>
+      <c r="E1824" s="0">
+        <v>0.131960616335051</v>
+      </c>
+      <c r="F1824" s="0">
+        <v>92</v>
+      </c>
+      <c r="G1824" s="0">
+        <v>4.85232067510548E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1825">
+      <c r="A1825" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1825" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1825" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1825" s="0">
+        <v>1467</v>
+      </c>
+      <c r="E1825" s="0">
+        <v>8.85046514714577E-03</v>
+      </c>
+      <c r="F1825" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1825" s="0">
+        <v>9.49367088607595E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1826">
+      <c r="A1826" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1826" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1826" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1826" s="0">
+        <v>220</v>
+      </c>
+      <c r="E1826" s="0">
+        <v>1.32726812022636E-03</v>
+      </c>
+      <c r="F1826" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1826" s="0">
+        <v>2.10970464135021E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1827">
+      <c r="A1827" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1827" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1827" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1827" s="0">
+        <v>123</v>
+      </c>
+      <c r="E1827" s="0">
+        <v>7.42063539944737E-04</v>
+      </c>
+      <c r="F1827" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1827" s="0">
+        <v>1.05485232067511E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1828">
+      <c r="A1828" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1828" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1828" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1828" s="0">
+        <v>25861</v>
+      </c>
+      <c r="E1828" s="0">
+        <v>0.156020367532609</v>
+      </c>
+      <c r="F1828" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1828" s="0">
+        <v>8.9662447257384E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1829">
+      <c r="A1829" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1829" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1829" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1829" s="0">
+        <v>104714</v>
+      </c>
+      <c r="E1829" s="0">
+        <v>0.631743427006286</v>
+      </c>
+      <c r="F1829" s="0">
+        <v>1744</v>
+      </c>
+      <c r="G1829" s="0">
+        <v>0.919831223628692</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1830">
+      <c r="A1830" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1830" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1830" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1830" s="0">
+        <v>23499</v>
+      </c>
+      <c r="E1830" s="0">
+        <v>0.141770334350906</v>
+      </c>
+      <c r="F1830" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1830" s="0">
+        <v>6.80379746835443E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1831">
+      <c r="A1831" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1831" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1831" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1831" s="0">
+        <v>37541</v>
+      </c>
+      <c r="E1831" s="0">
+        <v>0.226486238642808</v>
+      </c>
+      <c r="F1831" s="0">
+        <v>23</v>
+      </c>
+      <c r="G1831" s="0">
+        <v>1.21308016877637E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1832">
+      <c r="A1832" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1832" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1832" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1832" s="0">
+        <v>83970</v>
+      </c>
+      <c r="E1832" s="0">
+        <v>0.506594109342761</v>
+      </c>
+      <c r="F1832" s="0">
+        <v>829</v>
+      </c>
+      <c r="G1832" s="0">
+        <v>0.437236286919831</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1833">
+      <c r="A1833" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1833" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1833" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1833" s="0">
+        <v>79837</v>
+      </c>
+      <c r="E1833" s="0">
+        <v>0.481659567793236</v>
+      </c>
+      <c r="F1833" s="0">
+        <v>1067</v>
+      </c>
+      <c r="G1833" s="0">
+        <v>0.562763713080169</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1834">
+      <c r="A1834" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1834" s="1">
+        <v>44082</v>
+      </c>
+      <c r="C1834" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1834" s="0">
+        <v>1947</v>
+      </c>
+      <c r="E1834" s="0">
+        <v>1.17463228640033E-02</v>
+      </c>
+      <c r="F1834" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1834" s="0">
         <v>0</v>
       </c>
     </row>
@@ -43760,11 +45164,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-357</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-387</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-357</Url>
-      <Description>HJYU5V3E37X6-122305290-357</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-387</Url>
+      <Description>HJYU5V3E37X6-122305290-387</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -43787,17 +45191,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7D059299-60D3-42E1-9B19-52F7539D08EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F0828D-17B7-4628-9D77-A6E39D1674DF}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{812CB1BD-F5B1-4D6B-8C90-A9F5EB85285E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192E7267-EF66-44A8-9D1F-888B963BB601}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DC7B1B41-7EBB-464A-815A-1B447A6EF81D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1F4129-4AEA-4D3F-B927-5E5BE0A8135E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CA212FB-ADDC-4F2C-A455-057BC6F03A77}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A044F844-CC83-4897-8D4F-99DA8F1B0BC2}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1834</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1860</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1834"/>
+  <dimension ref="A1:G1860"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -44408,7 +44408,7 @@
         <v>1207</v>
       </c>
       <c r="G1822" s="0">
-        <v>0.636603375527426</v>
+        <v>0.636</v>
       </c>
     </row>
     <row outlineLevel="0" r="1823">
@@ -44435,13 +44435,13 @@
         <v>556</v>
       </c>
       <c r="G1823" s="0">
-        <v>0.293248945147679</v>
+        <v>0.293</v>
       </c>
     </row>
     <row outlineLevel="0" r="1824">
       <c r="A1824" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1824" s="1">
@@ -44453,22 +44453,22 @@
         </is>
       </c>
       <c r="D1824" s="0">
-        <v>21873</v>
+        <v>1467</v>
       </c>
       <c r="E1824" s="0">
-        <v>0.131960616335051</v>
+        <v>8.85046514714577E-03</v>
       </c>
       <c r="F1824" s="0">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="G1824" s="0">
-        <v>4.85232067510548E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1825">
       <c r="A1825" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1825" s="1">
@@ -44480,22 +44480,22 @@
         </is>
       </c>
       <c r="D1825" s="0">
-        <v>1467</v>
+        <v>220</v>
       </c>
       <c r="E1825" s="0">
-        <v>8.85046514714577E-03</v>
+        <v>1.32726812022636E-03</v>
       </c>
       <c r="F1825" s="0">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="G1825" s="0">
-        <v>9.49367088607595E-03</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1826">
       <c r="A1826" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1826" s="1">
@@ -44507,22 +44507,22 @@
         </is>
       </c>
       <c r="D1826" s="0">
-        <v>220</v>
+        <v>123</v>
       </c>
       <c r="E1826" s="0">
-        <v>1.32726812022636E-03</v>
+        <v>7.42063539944737E-04</v>
       </c>
       <c r="F1826" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1826" s="0">
-        <v>2.10970464135021E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1827">
       <c r="A1827" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1827" s="1">
@@ -44534,16 +44534,16 @@
         </is>
       </c>
       <c r="D1827" s="0">
-        <v>123</v>
+        <v>21873</v>
       </c>
       <c r="E1827" s="0">
-        <v>7.42063539944737E-04</v>
+        <v>0.131960616335051</v>
       </c>
       <c r="F1827" s="0">
-        <v>2</v>
+        <v>92</v>
       </c>
       <c r="G1827" s="0">
-        <v>1.05485232067511E-03</v>
+        <v>0.048</v>
       </c>
     </row>
     <row outlineLevel="0" r="1828">
@@ -44570,7 +44570,7 @@
         <v>17</v>
       </c>
       <c r="G1828" s="0">
-        <v>8.9662447257384E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1829">
@@ -44597,7 +44597,7 @@
         <v>1744</v>
       </c>
       <c r="G1829" s="0">
-        <v>0.919831223628692</v>
+        <v>0.919</v>
       </c>
     </row>
     <row outlineLevel="0" r="1830">
@@ -44624,7 +44624,7 @@
         <v>129</v>
       </c>
       <c r="G1830" s="0">
-        <v>6.80379746835443E-02</v>
+        <v>0.068</v>
       </c>
     </row>
     <row outlineLevel="0" r="1831">
@@ -44651,7 +44651,7 @@
         <v>23</v>
       </c>
       <c r="G1831" s="0">
-        <v>1.21308016877637E-02</v>
+        <v>0.012</v>
       </c>
     </row>
     <row outlineLevel="0" r="1832">
@@ -44678,7 +44678,7 @@
         <v>829</v>
       </c>
       <c r="G1832" s="0">
-        <v>0.437236286919831</v>
+        <v>0.437</v>
       </c>
     </row>
     <row outlineLevel="0" r="1833">
@@ -44705,7 +44705,7 @@
         <v>1067</v>
       </c>
       <c r="G1833" s="0">
-        <v>0.562763713080169</v>
+        <v>0.562</v>
       </c>
     </row>
     <row outlineLevel="0" r="1834">
@@ -44732,6 +44732,708 @@
         <v>0</v>
       </c>
       <c r="G1834" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1835">
+      <c r="A1835" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1835" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1835" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1835" s="0">
+        <v>86311</v>
+      </c>
+      <c r="E1835" s="0">
+        <v>0.518113658328681</v>
+      </c>
+      <c r="F1835" s="0">
+        <v>1234</v>
+      </c>
+      <c r="G1835" s="0">
+        <v>0.639</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1836">
+      <c r="A1836" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1836" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1836" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1836" s="0">
+        <v>31637</v>
+      </c>
+      <c r="E1836" s="0">
+        <v>0.189912778308031</v>
+      </c>
+      <c r="F1836" s="0">
+        <v>560</v>
+      </c>
+      <c r="G1836" s="0">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1837">
+      <c r="A1837" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1837" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1837" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1837" s="0">
+        <v>1485</v>
+      </c>
+      <c r="E1837" s="0">
+        <v>8.91426101676601E-03</v>
+      </c>
+      <c r="F1837" s="0">
+        <v>18</v>
+      </c>
+      <c r="G1837" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1838">
+      <c r="A1838" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1838" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1838" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1838" s="0">
+        <v>222</v>
+      </c>
+      <c r="E1838" s="0">
+        <v>1.33263700048623E-03</v>
+      </c>
+      <c r="F1838" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1838" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1839">
+      <c r="A1839" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1839" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1839" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1839" s="0">
+        <v>124</v>
+      </c>
+      <c r="E1839" s="0">
+        <v>7.44355802073391E-04</v>
+      </c>
+      <c r="F1839" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1839" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1840">
+      <c r="A1840" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1840" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1840" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1840" s="0">
+        <v>21848</v>
+      </c>
+      <c r="E1840" s="0">
+        <v>0.131150690029834</v>
+      </c>
+      <c r="F1840" s="0">
+        <v>93</v>
+      </c>
+      <c r="G1840" s="0">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1841">
+      <c r="A1841" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1841" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1841" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1841" s="0">
+        <v>24960</v>
+      </c>
+      <c r="E1841" s="0">
+        <v>0.149831619514128</v>
+      </c>
+      <c r="F1841" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1841" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1842">
+      <c r="A1842" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1842" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1842" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1842" s="0">
+        <v>107106</v>
+      </c>
+      <c r="E1842" s="0">
+        <v>0.642943326910263</v>
+      </c>
+      <c r="F1842" s="0">
+        <v>1775</v>
+      </c>
+      <c r="G1842" s="0">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1843">
+      <c r="A1843" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1843" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1843" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1843" s="0">
+        <v>23623</v>
+      </c>
+      <c r="E1843" s="0">
+        <v>0.141805783164353</v>
+      </c>
+      <c r="F1843" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1843" s="0">
+        <v>0.066</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1844">
+      <c r="A1844" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1844" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1844" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1844" s="0">
+        <v>35858</v>
+      </c>
+      <c r="E1844" s="0">
+        <v>0.215250889925384</v>
+      </c>
+      <c r="F1844" s="0">
+        <v>27</v>
+      </c>
+      <c r="G1844" s="0">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1845">
+      <c r="A1845" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1845" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1845" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1845" s="0">
+        <v>84469</v>
+      </c>
+      <c r="E1845" s="0">
+        <v>0.507056372946268</v>
+      </c>
+      <c r="F1845" s="0">
+        <v>845</v>
+      </c>
+      <c r="G1845" s="0">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1846">
+      <c r="A1846" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1846" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1846" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1846" s="0">
+        <v>80270</v>
+      </c>
+      <c r="E1846" s="0">
+        <v>0.48185032445509</v>
+      </c>
+      <c r="F1846" s="0">
+        <v>1086</v>
+      </c>
+      <c r="G1846" s="0">
+        <v>0.562</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1847">
+      <c r="A1847" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1847" s="1">
+        <v>44083</v>
+      </c>
+      <c r="C1847" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1847" s="0">
+        <v>1848</v>
+      </c>
+      <c r="E1847" s="0">
+        <v>1.10933025986422E-02</v>
+      </c>
+      <c r="F1847" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1847" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1848">
+      <c r="A1848" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1848" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1848" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1848" s="0">
+        <v>87392</v>
+      </c>
+      <c r="E1848" s="0">
+        <v>0.519457669834816</v>
+      </c>
+      <c r="F1848" s="0">
+        <v>1281</v>
+      </c>
+      <c r="G1848" s="0">
+        <v>0.644366197183099</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1849">
+      <c r="A1849" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1849" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1849" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1849" s="0">
+        <v>31823</v>
+      </c>
+      <c r="E1849" s="0">
+        <v>0.189155774294596</v>
+      </c>
+      <c r="F1849" s="0">
+        <v>564</v>
+      </c>
+      <c r="G1849" s="0">
+        <v>0.283702213279678</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1850">
+      <c r="A1850" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1850" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1850" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1850" s="0">
+        <v>22073</v>
+      </c>
+      <c r="E1850" s="0">
+        <v>0.131201816485078</v>
+      </c>
+      <c r="F1850" s="0">
+        <v>94</v>
+      </c>
+      <c r="G1850" s="0">
+        <v>4.72837022132797E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1851">
+      <c r="A1851" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1851" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1851" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1851" s="0">
+        <v>1503</v>
+      </c>
+      <c r="E1851" s="0">
+        <v>8.93382549617504E-03</v>
+      </c>
+      <c r="F1851" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1851" s="0">
+        <v>1.00603621730382E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1852">
+      <c r="A1852" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1852" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1852" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1852" s="0">
+        <v>220</v>
+      </c>
+      <c r="E1852" s="0">
+        <v>1.30767904800965E-03</v>
+      </c>
+      <c r="F1852" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1852" s="0">
+        <v>2.01207243460765E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1853">
+      <c r="A1853" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1853" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1853" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1853" s="0">
+        <v>125</v>
+      </c>
+      <c r="E1853" s="0">
+        <v>7.42999459096394E-04</v>
+      </c>
+      <c r="F1853" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1853" s="0">
+        <v>1.00603621730382E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1854">
+      <c r="A1854" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1854" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1854" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1854" s="0">
+        <v>25101</v>
+      </c>
+      <c r="E1854" s="0">
+        <v>0.149200235382229</v>
+      </c>
+      <c r="F1854" s="0">
+        <v>23</v>
+      </c>
+      <c r="G1854" s="0">
+        <v>0.011569416498994</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1855">
+      <c r="A1855" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1855" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1855" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1855" s="0">
+        <v>108335</v>
+      </c>
+      <c r="E1855" s="0">
+        <v>0.643942771209663</v>
+      </c>
+      <c r="F1855" s="0">
+        <v>1829</v>
+      </c>
+      <c r="G1855" s="0">
+        <v>0.920020120724346</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1856">
+      <c r="A1856" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1856" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1856" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1856" s="0">
+        <v>23760</v>
+      </c>
+      <c r="E1856" s="0">
+        <v>0.141229337185043</v>
+      </c>
+      <c r="F1856" s="0">
+        <v>129</v>
+      </c>
+      <c r="G1856" s="0">
+        <v>6.48893360160966E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1857">
+      <c r="A1857" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1857" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1857" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1857" s="0">
+        <v>36142</v>
+      </c>
+      <c r="E1857" s="0">
+        <v>0.214827891605295</v>
+      </c>
+      <c r="F1857" s="0">
+        <v>30</v>
+      </c>
+      <c r="G1857" s="0">
+        <v>1.50905432595573E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1858">
+      <c r="A1858" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1858" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1858" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1858" s="0">
+        <v>85322</v>
+      </c>
+      <c r="E1858" s="0">
+        <v>0.50715359879218</v>
+      </c>
+      <c r="F1858" s="0">
+        <v>875</v>
+      </c>
+      <c r="G1858" s="0">
+        <v>0.440140845070423</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1859">
+      <c r="A1859" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1859" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1859" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1859" s="0">
+        <v>81013</v>
+      </c>
+      <c r="E1859" s="0">
+        <v>0.481540921438209</v>
+      </c>
+      <c r="F1859" s="0">
+        <v>1113</v>
+      </c>
+      <c r="G1859" s="0">
+        <v>0.559859154929577</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1860">
+      <c r="A1860" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1860" s="1">
+        <v>44084</v>
+      </c>
+      <c r="C1860" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1860" s="0">
+        <v>1902</v>
+      </c>
+      <c r="E1860" s="0">
+        <v>1.13054797696107E-02</v>
+      </c>
+      <c r="F1860" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1860" s="0">
         <v>0</v>
       </c>
     </row>
@@ -45164,11 +45866,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-387</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-413</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-387</Url>
-      <Description>HJYU5V3E37X6-122305290-387</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-413</Url>
+      <Description>HJYU5V3E37X6-122305290-413</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -45191,17 +45893,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F4F0828D-17B7-4628-9D77-A6E39D1674DF}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E55860-9A9C-488A-AF5F-C0CACD422868}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{192E7267-EF66-44A8-9D1F-888B963BB601}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD24312-2ABE-4C8B-9F38-23337A15E2E4}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA1F4129-4AEA-4D3F-B927-5E5BE0A8135E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA836944-0ED3-4C67-B413-30F20593EF23}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A044F844-CC83-4897-8D4F-99DA8F1B0BC2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{388638AA-AA8A-44AA-90C8-6A9D2CC80D65}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1860</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1873</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1860"/>
+  <dimension ref="A1:G1873"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -45110,7 +45110,7 @@
         <v>1281</v>
       </c>
       <c r="G1848" s="0">
-        <v>0.644366197183099</v>
+        <v>0.644</v>
       </c>
     </row>
     <row outlineLevel="0" r="1849">
@@ -45137,13 +45137,13 @@
         <v>564</v>
       </c>
       <c r="G1849" s="0">
-        <v>0.283702213279678</v>
+        <v>0.283</v>
       </c>
     </row>
     <row outlineLevel="0" r="1850">
       <c r="A1850" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1850" s="1">
@@ -45155,22 +45155,22 @@
         </is>
       </c>
       <c r="D1850" s="0">
-        <v>22073</v>
+        <v>1503</v>
       </c>
       <c r="E1850" s="0">
-        <v>0.131201816485078</v>
+        <v>8.93382549617504E-03</v>
       </c>
       <c r="F1850" s="0">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="G1850" s="0">
-        <v>4.72837022132797E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1851">
       <c r="A1851" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1851" s="1">
@@ -45182,22 +45182,22 @@
         </is>
       </c>
       <c r="D1851" s="0">
-        <v>1503</v>
+        <v>220</v>
       </c>
       <c r="E1851" s="0">
-        <v>8.93382549617504E-03</v>
+        <v>1.30767904800965E-03</v>
       </c>
       <c r="F1851" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1851" s="0">
-        <v>1.00603621730382E-02</v>
+        <v>0.002</v>
       </c>
     </row>
     <row outlineLevel="0" r="1852">
       <c r="A1852" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1852" s="1">
@@ -45209,22 +45209,22 @@
         </is>
       </c>
       <c r="D1852" s="0">
-        <v>220</v>
+        <v>125</v>
       </c>
       <c r="E1852" s="0">
-        <v>1.30767904800965E-03</v>
+        <v>7.42999459096394E-04</v>
       </c>
       <c r="F1852" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1852" s="0">
-        <v>2.01207243460765E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1853">
       <c r="A1853" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1853" s="1">
@@ -45236,16 +45236,16 @@
         </is>
       </c>
       <c r="D1853" s="0">
-        <v>125</v>
+        <v>22073</v>
       </c>
       <c r="E1853" s="0">
-        <v>7.42999459096394E-04</v>
+        <v>0.131201816485078</v>
       </c>
       <c r="F1853" s="0">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="G1853" s="0">
-        <v>1.00603621730382E-03</v>
+        <v>0.047</v>
       </c>
     </row>
     <row outlineLevel="0" r="1854">
@@ -45272,7 +45272,7 @@
         <v>23</v>
       </c>
       <c r="G1854" s="0">
-        <v>0.011569416498994</v>
+        <v>0.011</v>
       </c>
     </row>
     <row outlineLevel="0" r="1855">
@@ -45299,7 +45299,7 @@
         <v>1829</v>
       </c>
       <c r="G1855" s="0">
-        <v>0.920020120724346</v>
+        <v>0.92</v>
       </c>
     </row>
     <row outlineLevel="0" r="1856">
@@ -45326,7 +45326,7 @@
         <v>129</v>
       </c>
       <c r="G1856" s="0">
-        <v>6.48893360160966E-02</v>
+        <v>0.064</v>
       </c>
     </row>
     <row outlineLevel="0" r="1857">
@@ -45353,7 +45353,7 @@
         <v>30</v>
       </c>
       <c r="G1857" s="0">
-        <v>1.50905432595573E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="1858">
@@ -45380,7 +45380,7 @@
         <v>875</v>
       </c>
       <c r="G1858" s="0">
-        <v>0.440140845070423</v>
+        <v>0.44</v>
       </c>
     </row>
     <row outlineLevel="0" r="1859">
@@ -45407,7 +45407,7 @@
         <v>1113</v>
       </c>
       <c r="G1859" s="0">
-        <v>0.559859154929577</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="1860">
@@ -45434,6 +45434,357 @@
         <v>0</v>
       </c>
       <c r="G1860" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1861">
+      <c r="A1861" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1861" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1861" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1861" s="0">
+        <v>88570</v>
+      </c>
+      <c r="E1861" s="0">
+        <v>0.521432482235266</v>
+      </c>
+      <c r="F1861" s="0">
+        <v>1307</v>
+      </c>
+      <c r="G1861" s="0">
+        <v>0.645432098765432</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1862">
+      <c r="A1862" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1862" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1862" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1862" s="0">
+        <v>32042</v>
+      </c>
+      <c r="E1862" s="0">
+        <v>0.188638812191288</v>
+      </c>
+      <c r="F1862" s="0">
+        <v>574</v>
+      </c>
+      <c r="G1862" s="0">
+        <v>0.283456790123457</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1863">
+      <c r="A1863" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1863" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1863" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1863" s="0">
+        <v>22099</v>
+      </c>
+      <c r="E1863" s="0">
+        <v>0.130102025797868</v>
+      </c>
+      <c r="F1863" s="0">
+        <v>96</v>
+      </c>
+      <c r="G1863" s="0">
+        <v>4.74074074074074E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1864">
+      <c r="A1864" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1864" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1864" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1864" s="0">
+        <v>1520</v>
+      </c>
+      <c r="E1864" s="0">
+        <v>8.94859854349784E-03</v>
+      </c>
+      <c r="F1864" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1864" s="0">
+        <v>9.87654320987654E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1865">
+      <c r="A1865" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1865" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1865" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1865" s="0">
+        <v>226</v>
+      </c>
+      <c r="E1865" s="0">
+        <v>1.33051530975692E-03</v>
+      </c>
+      <c r="F1865" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1865" s="0">
+        <v>1.97530864197531E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1866">
+      <c r="A1866" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1866" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1866" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1866" s="0">
+        <v>126</v>
+      </c>
+      <c r="E1866" s="0">
+        <v>7.417917213689E-04</v>
+      </c>
+      <c r="F1866" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1866" s="0">
+        <v>9.87654320987654E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1867">
+      <c r="A1867" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1867" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1867" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1867" s="0">
+        <v>25276</v>
+      </c>
+      <c r="E1867" s="0">
+        <v>0.148805774200955</v>
+      </c>
+      <c r="F1867" s="0">
+        <v>22</v>
+      </c>
+      <c r="G1867" s="0">
+        <v>1.08641975308642E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1868">
+      <c r="A1868" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1868" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1868" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1868" s="0">
+        <v>109552</v>
+      </c>
+      <c r="E1868" s="0">
+        <v>0.644958465550839</v>
+      </c>
+      <c r="F1868" s="0">
+        <v>1864</v>
+      </c>
+      <c r="G1868" s="0">
+        <v>0.920493827160494</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1869">
+      <c r="A1869" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1869" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1869" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1869" s="0">
+        <v>23879</v>
+      </c>
+      <c r="E1869" s="0">
+        <v>0.140581305671174</v>
+      </c>
+      <c r="F1869" s="0">
+        <v>131</v>
+      </c>
+      <c r="G1869" s="0">
+        <v>6.46913580246914E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1870">
+      <c r="A1870" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1870" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1870" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1870" s="0">
+        <v>36428</v>
+      </c>
+      <c r="E1870" s="0">
+        <v>0.214460228777986</v>
+      </c>
+      <c r="F1870" s="0">
+        <v>30</v>
+      </c>
+      <c r="G1870" s="0">
+        <v>1.48148148148148E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1871">
+      <c r="A1871" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1871" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1871" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1871" s="0">
+        <v>86149</v>
+      </c>
+      <c r="E1871" s="0">
+        <v>0.507179484160392</v>
+      </c>
+      <c r="F1871" s="0">
+        <v>897</v>
+      </c>
+      <c r="G1871" s="0">
+        <v>0.442962962962963</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1872">
+      <c r="A1872" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1872" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1872" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1872" s="0">
+        <v>81847</v>
+      </c>
+      <c r="E1872" s="0">
+        <v>0.481852595387939</v>
+      </c>
+      <c r="F1872" s="0">
+        <v>1128</v>
+      </c>
+      <c r="G1872" s="0">
+        <v>0.557037037037037</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1873">
+      <c r="A1873" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1873" s="1">
+        <v>44085</v>
+      </c>
+      <c r="C1873" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1873" s="0">
+        <v>1863</v>
+      </c>
+      <c r="E1873" s="0">
+        <v>1.09679204516687E-02</v>
+      </c>
+      <c r="F1873" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1873" s="0">
         <v>0</v>
       </c>
     </row>
@@ -45866,11 +46217,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-413</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-417</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-413</Url>
-      <Description>HJYU5V3E37X6-122305290-413</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-417</Url>
+      <Description>HJYU5V3E37X6-122305290-417</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -45893,17 +46244,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16E55860-9A9C-488A-AF5F-C0CACD422868}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2946844-8812-481F-BAB1-8D2F44F85548}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EFD24312-2ABE-4C8B-9F38-23337A15E2E4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91C0AF8-84DC-4D5C-9A35-274C0F70F998}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{AA836944-0ED3-4C67-B413-30F20593EF23}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EFCC49-C438-4BD3-B40F-B44F1C224F44}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{388638AA-AA8A-44AA-90C8-6A9D2CC80D65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01FF2E5-DBC2-4B41-9C41-E87AAEC11325}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1873</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1899</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1873"/>
+  <dimension ref="A1:G1899"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -45461,7 +45461,7 @@
         <v>1307</v>
       </c>
       <c r="G1861" s="0">
-        <v>0.645432098765432</v>
+        <v>0.645</v>
       </c>
     </row>
     <row outlineLevel="0" r="1862">
@@ -45488,13 +45488,13 @@
         <v>574</v>
       </c>
       <c r="G1862" s="0">
-        <v>0.283456790123457</v>
+        <v>0.283</v>
       </c>
     </row>
     <row outlineLevel="0" r="1863">
       <c r="A1863" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1863" s="1">
@@ -45506,22 +45506,22 @@
         </is>
       </c>
       <c r="D1863" s="0">
-        <v>22099</v>
+        <v>1520</v>
       </c>
       <c r="E1863" s="0">
-        <v>0.130102025797868</v>
+        <v>8.94859854349784E-03</v>
       </c>
       <c r="F1863" s="0">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G1863" s="0">
-        <v>4.74074074074074E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1864">
       <c r="A1864" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1864" s="1">
@@ -45533,22 +45533,22 @@
         </is>
       </c>
       <c r="D1864" s="0">
-        <v>1520</v>
+        <v>226</v>
       </c>
       <c r="E1864" s="0">
-        <v>8.94859854349784E-03</v>
+        <v>1.33051530975692E-03</v>
       </c>
       <c r="F1864" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1864" s="0">
-        <v>9.87654320987654E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1865">
       <c r="A1865" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1865" s="1">
@@ -45560,22 +45560,22 @@
         </is>
       </c>
       <c r="D1865" s="0">
-        <v>226</v>
+        <v>126</v>
       </c>
       <c r="E1865" s="0">
-        <v>1.33051530975692E-03</v>
+        <v>7.417917213689E-04</v>
       </c>
       <c r="F1865" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1865" s="0">
-        <v>1.97530864197531E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1866">
       <c r="A1866" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1866" s="1">
@@ -45587,16 +45587,16 @@
         </is>
       </c>
       <c r="D1866" s="0">
-        <v>126</v>
+        <v>22099</v>
       </c>
       <c r="E1866" s="0">
-        <v>7.417917213689E-04</v>
+        <v>0.130102025797868</v>
       </c>
       <c r="F1866" s="0">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G1866" s="0">
-        <v>9.87654320987654E-04</v>
+        <v>0.047</v>
       </c>
     </row>
     <row outlineLevel="0" r="1867">
@@ -45623,7 +45623,7 @@
         <v>22</v>
       </c>
       <c r="G1867" s="0">
-        <v>1.08641975308642E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="1868">
@@ -45650,7 +45650,7 @@
         <v>1864</v>
       </c>
       <c r="G1868" s="0">
-        <v>0.920493827160494</v>
+        <v>0.92</v>
       </c>
     </row>
     <row outlineLevel="0" r="1869">
@@ -45677,7 +45677,7 @@
         <v>131</v>
       </c>
       <c r="G1869" s="0">
-        <v>6.46913580246914E-02</v>
+        <v>0.064</v>
       </c>
     </row>
     <row outlineLevel="0" r="1870">
@@ -45704,7 +45704,7 @@
         <v>30</v>
       </c>
       <c r="G1870" s="0">
-        <v>1.48148148148148E-02</v>
+        <v>0.014</v>
       </c>
     </row>
     <row outlineLevel="0" r="1871">
@@ -45731,7 +45731,7 @@
         <v>897</v>
       </c>
       <c r="G1871" s="0">
-        <v>0.442962962962963</v>
+        <v>0.442</v>
       </c>
     </row>
     <row outlineLevel="0" r="1872">
@@ -45758,7 +45758,7 @@
         <v>1128</v>
       </c>
       <c r="G1872" s="0">
-        <v>0.557037037037037</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="1873">
@@ -45785,6 +45785,708 @@
         <v>0</v>
       </c>
       <c r="G1873" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1874">
+      <c r="A1874" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1874" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1874" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1874" s="0">
+        <v>89460</v>
+      </c>
+      <c r="E1874" s="0">
+        <v>0.523491582353664</v>
+      </c>
+      <c r="F1874" s="0">
+        <v>1341</v>
+      </c>
+      <c r="G1874" s="0">
+        <v>0.649</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1875">
+      <c r="A1875" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1875" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1875" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1875" s="0">
+        <v>32224</v>
+      </c>
+      <c r="E1875" s="0">
+        <v>0.188564640618874</v>
+      </c>
+      <c r="F1875" s="0">
+        <v>584</v>
+      </c>
+      <c r="G1875" s="0">
+        <v>0.282</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1876">
+      <c r="A1876" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1876" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1876" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1876" s="0">
+        <v>1527</v>
+      </c>
+      <c r="E1876" s="0">
+        <v>8.93552030241499E-03</v>
+      </c>
+      <c r="F1876" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1876" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1877">
+      <c r="A1877" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1877" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1877" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1877" s="0">
+        <v>227</v>
+      </c>
+      <c r="E1877" s="0">
+        <v>1.32833209472705E-03</v>
+      </c>
+      <c r="F1877" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1877" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1878">
+      <c r="A1878" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1878" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1878" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1878" s="0">
+        <v>128</v>
+      </c>
+      <c r="E1878" s="0">
+        <v>7.49015454295428E-04</v>
+      </c>
+      <c r="F1878" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1878" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1879">
+      <c r="A1879" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1879" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1879" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1879" s="0">
+        <v>22132</v>
+      </c>
+      <c r="E1879" s="0">
+        <v>0.129509453394269</v>
+      </c>
+      <c r="F1879" s="0">
+        <v>96</v>
+      </c>
+      <c r="G1879" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1880">
+      <c r="A1880" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1880" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1880" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1880" s="0">
+        <v>25193</v>
+      </c>
+      <c r="E1880" s="0">
+        <v>0.147421455781756</v>
+      </c>
+      <c r="F1880" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1880" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1881">
+      <c r="A1881" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1881" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1881" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1881" s="0">
+        <v>110598</v>
+      </c>
+      <c r="E1881" s="0">
+        <v>0.64718446261067</v>
+      </c>
+      <c r="F1881" s="0">
+        <v>1918</v>
+      </c>
+      <c r="G1881" s="0">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1882">
+      <c r="A1882" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1882" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1882" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1882" s="0">
+        <v>23943</v>
+      </c>
+      <c r="E1882" s="0">
+        <v>0.140106851735902</v>
+      </c>
+      <c r="F1882" s="0">
+        <v>133</v>
+      </c>
+      <c r="G1882" s="0">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1883">
+      <c r="A1883" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1883" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1883" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1883" s="0">
+        <v>36350</v>
+      </c>
+      <c r="E1883" s="0">
+        <v>0.212708685653428</v>
+      </c>
+      <c r="F1883" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1883" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1884">
+      <c r="A1884" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1884" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1884" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1884" s="0">
+        <v>86688</v>
+      </c>
+      <c r="E1884" s="0">
+        <v>0.507270716421579</v>
+      </c>
+      <c r="F1884" s="0">
+        <v>915</v>
+      </c>
+      <c r="G1884" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1885">
+      <c r="A1885" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1885" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1885" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1885" s="0">
+        <v>82381</v>
+      </c>
+      <c r="E1885" s="0">
+        <v>0.482067516721185</v>
+      </c>
+      <c r="F1885" s="0">
+        <v>1149</v>
+      </c>
+      <c r="G1885" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1886">
+      <c r="A1886" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1886" s="1">
+        <v>44086</v>
+      </c>
+      <c r="C1886" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1886" s="0">
+        <v>1822</v>
+      </c>
+      <c r="E1886" s="0">
+        <v>1.06617668572365E-02</v>
+      </c>
+      <c r="F1886" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1886" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1887">
+      <c r="A1887" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1887" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1887" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1887" s="0">
+        <v>89903</v>
+      </c>
+      <c r="E1887" s="0">
+        <v>0.523227255796629</v>
+      </c>
+      <c r="F1887" s="0">
+        <v>1350</v>
+      </c>
+      <c r="G1887" s="0">
+        <v>0.649663137632339</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1888">
+      <c r="A1888" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1888" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1888" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1888" s="0">
+        <v>32340</v>
+      </c>
+      <c r="E1888" s="0">
+        <v>0.188215848775491</v>
+      </c>
+      <c r="F1888" s="0">
+        <v>589</v>
+      </c>
+      <c r="G1888" s="0">
+        <v>0.28344562078922</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1889">
+      <c r="A1889" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1889" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1889" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1889" s="0">
+        <v>22157</v>
+      </c>
+      <c r="E1889" s="0">
+        <v>0.128951718037061</v>
+      </c>
+      <c r="F1889" s="0">
+        <v>96</v>
+      </c>
+      <c r="G1889" s="0">
+        <v>4.61982675649663E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1890">
+      <c r="A1890" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1890" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1890" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1890" s="0">
+        <v>1541</v>
+      </c>
+      <c r="E1890" s="0">
+        <v>8.96847937424341E-03</v>
+      </c>
+      <c r="F1890" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1890" s="0">
+        <v>9.62463907603465E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1891">
+      <c r="A1891" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1891" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1891" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1891" s="0">
+        <v>229</v>
+      </c>
+      <c r="E1891" s="0">
+        <v>1.33275910233728E-03</v>
+      </c>
+      <c r="F1891" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1891" s="0">
+        <v>1.92492781520693E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1892">
+      <c r="A1892" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1892" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1892" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1892" s="0">
+        <v>132</v>
+      </c>
+      <c r="E1892" s="0">
+        <v>7.68227954185678E-04</v>
+      </c>
+      <c r="F1892" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1892" s="0">
+        <v>9.62463907603465E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1893">
+      <c r="A1893" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1893" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1893" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1893" s="0">
+        <v>25522</v>
+      </c>
+      <c r="E1893" s="0">
+        <v>0.148535710960052</v>
+      </c>
+      <c r="F1893" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1893" s="0">
+        <v>8.18094321462945E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1894">
+      <c r="A1894" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1894" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1894" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1894" s="0">
+        <v>111084</v>
+      </c>
+      <c r="E1894" s="0">
+        <v>0.646498742899711</v>
+      </c>
+      <c r="F1894" s="0">
+        <v>1931</v>
+      </c>
+      <c r="G1894" s="0">
+        <v>0.929258902791145</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1895">
+      <c r="A1895" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1895" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1895" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1895" s="0">
+        <v>23983</v>
+      </c>
+      <c r="E1895" s="0">
+        <v>0.139578871403296</v>
+      </c>
+      <c r="F1895" s="0">
+        <v>134</v>
+      </c>
+      <c r="G1895" s="0">
+        <v>6.44850818094321E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1896">
+      <c r="A1896" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1896" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1896" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1896" s="0">
+        <v>36757</v>
+      </c>
+      <c r="E1896" s="0">
+        <v>0.213922385696992</v>
+      </c>
+      <c r="F1896" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1896" s="0">
+        <v>6.25601539942252E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1897">
+      <c r="A1897" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1897" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1897" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1897" s="0">
+        <v>87184</v>
+      </c>
+      <c r="E1897" s="0">
+        <v>0.507402923922153</v>
+      </c>
+      <c r="F1897" s="0">
+        <v>921</v>
+      </c>
+      <c r="G1897" s="0">
+        <v>0.443214629451396</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1898">
+      <c r="A1898" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1898" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1898" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1898" s="0">
+        <v>82814</v>
+      </c>
+      <c r="E1898" s="0">
+        <v>0.481969922711612</v>
+      </c>
+      <c r="F1898" s="0">
+        <v>1157</v>
+      </c>
+      <c r="G1898" s="0">
+        <v>0.556785370548604</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1899">
+      <c r="A1899" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1899" s="1">
+        <v>44087</v>
+      </c>
+      <c r="C1899" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1899" s="0">
+        <v>1826</v>
+      </c>
+      <c r="E1899" s="0">
+        <v>1.06271533662352E-02</v>
+      </c>
+      <c r="F1899" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1899" s="0">
         <v>0</v>
       </c>
     </row>
@@ -46217,11 +46919,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-417</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-441</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-417</Url>
-      <Description>HJYU5V3E37X6-122305290-417</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-441</Url>
+      <Description>HJYU5V3E37X6-122305290-441</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -46244,17 +46946,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2946844-8812-481F-BAB1-8D2F44F85548}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6644D5-7323-4F7B-958C-FFF4E0D8AAB3}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F91C0AF8-84DC-4D5C-9A35-274C0F70F998}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75ACD39-9FA0-4AFD-AE20-3D6A0F7C1884}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{43EFCC49-C438-4BD3-B40F-B44F1C224F44}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA4C80B-4E2C-47CD-9AAE-5812B6A1E39D}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C01FF2E5-DBC2-4B41-9C41-E87AAEC11325}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2151C294-BBEC-4D98-BB37-A2DB0317339E}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1899</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1977</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1899"/>
+  <dimension ref="A1:G1977"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -46163,7 +46163,7 @@
         <v>1350</v>
       </c>
       <c r="G1887" s="0">
-        <v>0.649663137632339</v>
+        <v>0.649</v>
       </c>
     </row>
     <row outlineLevel="0" r="1888">
@@ -46190,13 +46190,13 @@
         <v>589</v>
       </c>
       <c r="G1888" s="0">
-        <v>0.28344562078922</v>
+        <v>0.283</v>
       </c>
     </row>
     <row outlineLevel="0" r="1889">
       <c r="A1889" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1889" s="1">
@@ -46208,22 +46208,22 @@
         </is>
       </c>
       <c r="D1889" s="0">
-        <v>22157</v>
+        <v>1541</v>
       </c>
       <c r="E1889" s="0">
-        <v>0.128951718037061</v>
+        <v>8.96847937424341E-03</v>
       </c>
       <c r="F1889" s="0">
-        <v>96</v>
+        <v>20</v>
       </c>
       <c r="G1889" s="0">
-        <v>4.61982675649663E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1890">
       <c r="A1890" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1890" s="1">
@@ -46235,22 +46235,22 @@
         </is>
       </c>
       <c r="D1890" s="0">
-        <v>1541</v>
+        <v>229</v>
       </c>
       <c r="E1890" s="0">
-        <v>8.96847937424341E-03</v>
+        <v>1.33275910233728E-03</v>
       </c>
       <c r="F1890" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1890" s="0">
-        <v>9.62463907603465E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1891">
       <c r="A1891" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1891" s="1">
@@ -46262,22 +46262,22 @@
         </is>
       </c>
       <c r="D1891" s="0">
-        <v>229</v>
+        <v>132</v>
       </c>
       <c r="E1891" s="0">
-        <v>1.33275910233728E-03</v>
+        <v>7.68227954185678E-04</v>
       </c>
       <c r="F1891" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1891" s="0">
-        <v>1.92492781520693E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1892">
       <c r="A1892" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1892" s="1">
@@ -46289,16 +46289,16 @@
         </is>
       </c>
       <c r="D1892" s="0">
-        <v>132</v>
+        <v>22157</v>
       </c>
       <c r="E1892" s="0">
-        <v>7.68227954185678E-04</v>
+        <v>0.128951718037061</v>
       </c>
       <c r="F1892" s="0">
-        <v>2</v>
+        <v>96</v>
       </c>
       <c r="G1892" s="0">
-        <v>9.62463907603465E-04</v>
+        <v>0.046</v>
       </c>
     </row>
     <row outlineLevel="0" r="1893">
@@ -46325,7 +46325,7 @@
         <v>17</v>
       </c>
       <c r="G1893" s="0">
-        <v>8.18094321462945E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1894">
@@ -46352,7 +46352,7 @@
         <v>1931</v>
       </c>
       <c r="G1894" s="0">
-        <v>0.929258902791145</v>
+        <v>0.929</v>
       </c>
     </row>
     <row outlineLevel="0" r="1895">
@@ -46379,7 +46379,7 @@
         <v>134</v>
       </c>
       <c r="G1895" s="0">
-        <v>6.44850818094321E-02</v>
+        <v>0.064</v>
       </c>
     </row>
     <row outlineLevel="0" r="1896">
@@ -46406,7 +46406,7 @@
         <v>13</v>
       </c>
       <c r="G1896" s="0">
-        <v>6.25601539942252E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1897">
@@ -46433,7 +46433,7 @@
         <v>921</v>
       </c>
       <c r="G1897" s="0">
-        <v>0.443214629451396</v>
+        <v>0.443</v>
       </c>
     </row>
     <row outlineLevel="0" r="1898">
@@ -46460,7 +46460,7 @@
         <v>1157</v>
       </c>
       <c r="G1898" s="0">
-        <v>0.556785370548604</v>
+        <v>0.556</v>
       </c>
     </row>
     <row outlineLevel="0" r="1899">
@@ -46487,6 +46487,2112 @@
         <v>0</v>
       </c>
       <c r="G1899" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1900">
+      <c r="A1900" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1900" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1900" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1900" s="0">
+        <v>91086</v>
+      </c>
+      <c r="E1900" s="0">
+        <v>0.522659719751655</v>
+      </c>
+      <c r="F1900" s="0">
+        <v>1365</v>
+      </c>
+      <c r="G1900" s="0">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1901">
+      <c r="A1901" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1901" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1901" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1901" s="0">
+        <v>32563</v>
+      </c>
+      <c r="E1901" s="0">
+        <v>0.186849443979022</v>
+      </c>
+      <c r="F1901" s="0">
+        <v>590</v>
+      </c>
+      <c r="G1901" s="0">
+        <v>0.281</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1902">
+      <c r="A1902" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1902" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1902" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1902" s="0">
+        <v>1561</v>
+      </c>
+      <c r="E1902" s="0">
+        <v>8.95715941563285E-03</v>
+      </c>
+      <c r="F1902" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1902" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1903">
+      <c r="A1903" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1903" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1903" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1903" s="0">
+        <v>230</v>
+      </c>
+      <c r="E1903" s="0">
+        <v>1.31976083638408E-03</v>
+      </c>
+      <c r="F1903" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1903" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1904">
+      <c r="A1904" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1904" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1904" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1904" s="0">
+        <v>132</v>
+      </c>
+      <c r="E1904" s="0">
+        <v>7.57427958272605E-04</v>
+      </c>
+      <c r="F1904" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1904" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1905">
+      <c r="A1905" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1905" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1905" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1905" s="0">
+        <v>22406</v>
+      </c>
+      <c r="E1905" s="0">
+        <v>0.128567657826182</v>
+      </c>
+      <c r="F1905" s="0">
+        <v>97</v>
+      </c>
+      <c r="G1905" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1906">
+      <c r="A1906" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1906" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1906" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1906" s="0">
+        <v>26296</v>
+      </c>
+      <c r="E1906" s="0">
+        <v>0.150888830232852</v>
+      </c>
+      <c r="F1906" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1906" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1907">
+      <c r="A1907" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1907" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1907" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1907" s="0">
+        <v>111978</v>
+      </c>
+      <c r="E1907" s="0">
+        <v>0.642539908420074</v>
+      </c>
+      <c r="F1907" s="0">
+        <v>1946</v>
+      </c>
+      <c r="G1907" s="0">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1908">
+      <c r="A1908" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1908" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1908" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1908" s="0">
+        <v>24075</v>
+      </c>
+      <c r="E1908" s="0">
+        <v>0.138144531025856</v>
+      </c>
+      <c r="F1908" s="0">
+        <v>135</v>
+      </c>
+      <c r="G1908" s="0">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1909">
+      <c r="A1909" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1909" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1909" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1909" s="0">
+        <v>38221</v>
+      </c>
+      <c r="E1909" s="0">
+        <v>0.21931556055407</v>
+      </c>
+      <c r="F1909" s="0">
+        <v>16</v>
+      </c>
+      <c r="G1909" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1910">
+      <c r="A1910" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1910" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1910" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1910" s="0">
+        <v>88445</v>
+      </c>
+      <c r="E1910" s="0">
+        <v>0.50750542249561</v>
+      </c>
+      <c r="F1910" s="0">
+        <v>926</v>
+      </c>
+      <c r="G1910" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1911">
+      <c r="A1911" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1911" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1911" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1911" s="0">
+        <v>83968</v>
+      </c>
+      <c r="E1911" s="0">
+        <v>0.481815990910865</v>
+      </c>
+      <c r="F1911" s="0">
+        <v>1171</v>
+      </c>
+      <c r="G1911" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1912">
+      <c r="A1912" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1912" s="1">
+        <v>44088</v>
+      </c>
+      <c r="C1912" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1912" s="0">
+        <v>1861</v>
+      </c>
+      <c r="E1912" s="0">
+        <v>1.06785865935251E-02</v>
+      </c>
+      <c r="F1912" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1912" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1913">
+      <c r="A1913" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1913" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1913" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1913" s="0">
+        <v>91962</v>
+      </c>
+      <c r="E1913" s="0">
+        <v>0.52480440104776</v>
+      </c>
+      <c r="F1913" s="0">
+        <v>1391</v>
+      </c>
+      <c r="G1913" s="0">
+        <v>0.653</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1914">
+      <c r="A1914" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1914" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1914" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1914" s="0">
+        <v>32758</v>
+      </c>
+      <c r="E1914" s="0">
+        <v>0.186941808241692</v>
+      </c>
+      <c r="F1914" s="0">
+        <v>596</v>
+      </c>
+      <c r="G1914" s="0">
+        <v>0.28</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1915">
+      <c r="A1915" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1915" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1915" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1915" s="0">
+        <v>1573</v>
+      </c>
+      <c r="E1915" s="0">
+        <v>8.9767221553264E-03</v>
+      </c>
+      <c r="F1915" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1915" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1916">
+      <c r="A1916" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1916" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1916" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1916" s="0">
+        <v>231</v>
+      </c>
+      <c r="E1916" s="0">
+        <v>1.31825989693604E-03</v>
+      </c>
+      <c r="F1916" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1916" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1917">
+      <c r="A1917" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1917" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1917" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1917" s="0">
+        <v>133</v>
+      </c>
+      <c r="E1917" s="0">
+        <v>7.58998122478329E-04</v>
+      </c>
+      <c r="F1917" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1917" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1918">
+      <c r="A1918" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1918" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1918" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1918" s="0">
+        <v>22434</v>
+      </c>
+      <c r="E1918" s="0">
+        <v>0.128025292328412</v>
+      </c>
+      <c r="F1918" s="0">
+        <v>97</v>
+      </c>
+      <c r="G1918" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1919">
+      <c r="A1919" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1919" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1919" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1919" s="0">
+        <v>26140</v>
+      </c>
+      <c r="E1919" s="0">
+        <v>0.149174518207395</v>
+      </c>
+      <c r="F1919" s="0">
+        <v>17</v>
+      </c>
+      <c r="G1919" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1920">
+      <c r="A1920" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1920" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1920" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1920" s="0">
+        <v>113033</v>
+      </c>
+      <c r="E1920" s="0">
+        <v>0.645051389308969</v>
+      </c>
+      <c r="F1920" s="0">
+        <v>1978</v>
+      </c>
+      <c r="G1920" s="0">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1921">
+      <c r="A1921" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1921" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1921" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1921" s="0">
+        <v>24161</v>
+      </c>
+      <c r="E1921" s="0">
+        <v>0.137880854415029</v>
+      </c>
+      <c r="F1921" s="0">
+        <v>136</v>
+      </c>
+      <c r="G1921" s="0">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1922">
+      <c r="A1922" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1922" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1922" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1922" s="0">
+        <v>38037</v>
+      </c>
+      <c r="E1922" s="0">
+        <v>0.217067756276001</v>
+      </c>
+      <c r="F1922" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1922" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1923">
+      <c r="A1923" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1923" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1923" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1923" s="0">
+        <v>88967</v>
+      </c>
+      <c r="E1923" s="0">
+        <v>0.507712676409996</v>
+      </c>
+      <c r="F1923" s="0">
+        <v>939</v>
+      </c>
+      <c r="G1923" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1924">
+      <c r="A1924" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1924" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1924" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1924" s="0">
+        <v>84399</v>
+      </c>
+      <c r="E1924" s="0">
+        <v>0.481644229616906</v>
+      </c>
+      <c r="F1924" s="0">
+        <v>1188</v>
+      </c>
+      <c r="G1924" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1925">
+      <c r="A1925" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1925" s="1">
+        <v>44089</v>
+      </c>
+      <c r="C1925" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1925" s="0">
+        <v>1865</v>
+      </c>
+      <c r="E1925" s="0">
+        <v>1.06430939730984E-02</v>
+      </c>
+      <c r="F1925" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1925" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1926">
+      <c r="A1926" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1926" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1926" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1926" s="0">
+        <v>93765</v>
+      </c>
+      <c r="E1926" s="0">
+        <v>0.529485507123617</v>
+      </c>
+      <c r="F1926" s="0">
+        <v>1408</v>
+      </c>
+      <c r="G1926" s="0">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1927">
+      <c r="A1927" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1927" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1927" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1927" s="0">
+        <v>33154</v>
+      </c>
+      <c r="E1927" s="0">
+        <v>0.187218711706675</v>
+      </c>
+      <c r="F1927" s="0">
+        <v>599</v>
+      </c>
+      <c r="G1927" s="0">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1928">
+      <c r="A1928" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1928" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1928" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1928" s="0">
+        <v>1592</v>
+      </c>
+      <c r="E1928" s="0">
+        <v>8.98993150259477E-03</v>
+      </c>
+      <c r="F1928" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1928" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1929">
+      <c r="A1929" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1929" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1929" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1929" s="0">
+        <v>237</v>
+      </c>
+      <c r="E1929" s="0">
+        <v>1.33832522997171E-03</v>
+      </c>
+      <c r="F1929" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1929" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1930">
+      <c r="A1930" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1930" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1930" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1930" s="0">
+        <v>134</v>
+      </c>
+      <c r="E1930" s="0">
+        <v>7.56690214414384E-04</v>
+      </c>
+      <c r="F1930" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1930" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1931">
+      <c r="A1931" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1931" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1931" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1931" s="0">
+        <v>22613</v>
+      </c>
+      <c r="E1931" s="0">
+        <v>0.127694297153377</v>
+      </c>
+      <c r="F1931" s="0">
+        <v>99</v>
+      </c>
+      <c r="G1931" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1932">
+      <c r="A1932" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1932" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1932" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1932" s="0">
+        <v>25592</v>
+      </c>
+      <c r="E1932" s="0">
+        <v>0.14451653706935</v>
+      </c>
+      <c r="F1932" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1932" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1933">
+      <c r="A1933" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1933" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1933" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1933" s="0">
+        <v>115632</v>
+      </c>
+      <c r="E1933" s="0">
+        <v>0.652967185620627</v>
+      </c>
+      <c r="F1933" s="0">
+        <v>2001</v>
+      </c>
+      <c r="G1933" s="0">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1934">
+      <c r="A1934" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1934" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1934" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1934" s="0">
+        <v>24293</v>
+      </c>
+      <c r="E1934" s="0">
+        <v>0.137181159543049</v>
+      </c>
+      <c r="F1934" s="0">
+        <v>138</v>
+      </c>
+      <c r="G1934" s="0">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1935">
+      <c r="A1935" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1935" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1935" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1935" s="0">
+        <v>37162</v>
+      </c>
+      <c r="E1935" s="0">
+        <v>0.209851654836323</v>
+      </c>
+      <c r="F1935" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1935" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1936">
+      <c r="A1936" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1936" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1936" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1936" s="0">
+        <v>90003</v>
+      </c>
+      <c r="E1936" s="0">
+        <v>0.508241711701028</v>
+      </c>
+      <c r="F1936" s="0">
+        <v>949</v>
+      </c>
+      <c r="G1936" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1937">
+      <c r="A1937" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1937" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1937" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1937" s="0">
+        <v>85312</v>
+      </c>
+      <c r="E1937" s="0">
+        <v>0.481751907254626</v>
+      </c>
+      <c r="F1937" s="0">
+        <v>1202</v>
+      </c>
+      <c r="G1937" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1938">
+      <c r="A1938" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1938" s="1">
+        <v>44090</v>
+      </c>
+      <c r="C1938" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1938" s="0">
+        <v>1772</v>
+      </c>
+      <c r="E1938" s="0">
+        <v>1.00063810443454E-02</v>
+      </c>
+      <c r="F1938" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1938" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1939">
+      <c r="A1939" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1939" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1939" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1939" s="0">
+        <v>94707</v>
+      </c>
+      <c r="E1939" s="0">
+        <v>0.531643651060963</v>
+      </c>
+      <c r="F1939" s="0">
+        <v>1417</v>
+      </c>
+      <c r="G1939" s="0">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1940">
+      <c r="A1940" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1940" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1940" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1940" s="0">
+        <v>33291</v>
+      </c>
+      <c r="E1940" s="0">
+        <v>0.186881104749074</v>
+      </c>
+      <c r="F1940" s="0">
+        <v>602</v>
+      </c>
+      <c r="G1940" s="0">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1941">
+      <c r="A1941" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1941" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1941" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1941" s="0">
+        <v>1622</v>
+      </c>
+      <c r="E1941" s="0">
+        <v>9.10519815875154E-03</v>
+      </c>
+      <c r="F1941" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1941" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1942">
+      <c r="A1942" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1942" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1942" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1942" s="0">
+        <v>238</v>
+      </c>
+      <c r="E1942" s="0">
+        <v>1.33602784326934E-03</v>
+      </c>
+      <c r="F1942" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1942" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1943">
+      <c r="A1943" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1943" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1943" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1943" s="0">
+        <v>136</v>
+      </c>
+      <c r="E1943" s="0">
+        <v>7.63444481868194E-04</v>
+      </c>
+      <c r="F1943" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1943" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1944">
+      <c r="A1944" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1944" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1944" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1944" s="0">
+        <v>22599</v>
+      </c>
+      <c r="E1944" s="0">
+        <v>0.126860895924554</v>
+      </c>
+      <c r="F1944" s="0">
+        <v>100</v>
+      </c>
+      <c r="G1944" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1945">
+      <c r="A1945" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1945" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1945" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1945" s="0">
+        <v>25547</v>
+      </c>
+      <c r="E1945" s="0">
+        <v>0.14340967778152</v>
+      </c>
+      <c r="F1945" s="0">
+        <v>19</v>
+      </c>
+      <c r="G1945" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1946">
+      <c r="A1946" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1946" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1946" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1946" s="0">
+        <v>116641</v>
+      </c>
+      <c r="E1946" s="0">
+        <v>0.654771528011676</v>
+      </c>
+      <c r="F1946" s="0">
+        <v>2012</v>
+      </c>
+      <c r="G1946" s="0">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1947">
+      <c r="A1947" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1947" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1947" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1947" s="0">
+        <v>24365</v>
+      </c>
+      <c r="E1947" s="0">
+        <v>0.136774447064107</v>
+      </c>
+      <c r="F1947" s="0">
+        <v>140</v>
+      </c>
+      <c r="G1947" s="0">
+        <v>0.064</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1948">
+      <c r="A1948" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1948" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1948" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1948" s="0">
+        <v>37134</v>
+      </c>
+      <c r="E1948" s="0">
+        <v>0.208454024924217</v>
+      </c>
+      <c r="F1948" s="0">
+        <v>12</v>
+      </c>
+      <c r="G1948" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1949">
+      <c r="A1949" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1949" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1949" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1949" s="0">
+        <v>90573</v>
+      </c>
+      <c r="E1949" s="0">
+        <v>0.508437184237117</v>
+      </c>
+      <c r="F1949" s="0">
+        <v>954</v>
+      </c>
+      <c r="G1949" s="0">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1950">
+      <c r="A1950" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1950" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1950" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1950" s="0">
+        <v>85837</v>
+      </c>
+      <c r="E1950" s="0">
+        <v>0.48185135286853</v>
+      </c>
+      <c r="F1950" s="0">
+        <v>1210</v>
+      </c>
+      <c r="G1950" s="0">
+        <v>0.559</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1951">
+      <c r="A1951" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1951" s="1">
+        <v>44091</v>
+      </c>
+      <c r="C1951" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1951" s="0">
+        <v>1730</v>
+      </c>
+      <c r="E1951" s="0">
+        <v>9.71146289435276E-03</v>
+      </c>
+      <c r="F1951" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1951" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1952">
+      <c r="A1952" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1952" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1952" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1952" s="0">
+        <v>96056</v>
+      </c>
+      <c r="E1952" s="0">
+        <v>0.532175050000831</v>
+      </c>
+      <c r="F1952" s="0">
+        <v>1444</v>
+      </c>
+      <c r="G1952" s="0">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1953">
+      <c r="A1953" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1953" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1953" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1953" s="0">
+        <v>33512</v>
+      </c>
+      <c r="E1953" s="0">
+        <v>0.185665135708627</v>
+      </c>
+      <c r="F1953" s="0">
+        <v>604</v>
+      </c>
+      <c r="G1953" s="0">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1954">
+      <c r="A1954" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1954" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1954" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1954" s="0">
+        <v>1641</v>
+      </c>
+      <c r="E1954" s="0">
+        <v>9.09156384870663E-03</v>
+      </c>
+      <c r="F1954" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1954" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1955">
+      <c r="A1955" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1955" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1955" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1955" s="0">
+        <v>238</v>
+      </c>
+      <c r="E1955" s="0">
+        <v>1.31858147226824E-03</v>
+      </c>
+      <c r="F1955" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1955" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1956">
+      <c r="A1956" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1956" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1956" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1956" s="0">
+        <v>137</v>
+      </c>
+      <c r="E1956" s="0">
+        <v>7.59015385297263E-04</v>
+      </c>
+      <c r="F1956" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1956" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1957">
+      <c r="A1957" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1957" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1957" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1957" s="0">
+        <v>22716</v>
+      </c>
+      <c r="E1957" s="0">
+        <v>0.125852507243888</v>
+      </c>
+      <c r="F1957" s="0">
+        <v>101</v>
+      </c>
+      <c r="G1957" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1958">
+      <c r="A1958" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1958" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1958" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1958" s="0">
+        <v>26197</v>
+      </c>
+      <c r="E1958" s="0">
+        <v>0.145138146340382</v>
+      </c>
+      <c r="F1958" s="0">
+        <v>21</v>
+      </c>
+      <c r="G1958" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1959">
+      <c r="A1959" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1959" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1959" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1959" s="0">
+        <v>117872</v>
+      </c>
+      <c r="E1959" s="0">
+        <v>0.653041324786562</v>
+      </c>
+      <c r="F1959" s="0">
+        <v>2043</v>
+      </c>
+      <c r="G1959" s="0">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1960">
+      <c r="A1960" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1960" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1960" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1960" s="0">
+        <v>24478</v>
+      </c>
+      <c r="E1960" s="0">
+        <v>0.135614442345302</v>
+      </c>
+      <c r="F1960" s="0">
+        <v>140</v>
+      </c>
+      <c r="G1960" s="0">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1961">
+      <c r="A1961" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1961" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1961" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1961" s="0">
+        <v>38147</v>
+      </c>
+      <c r="E1961" s="0">
+        <v>0.211344232868136</v>
+      </c>
+      <c r="F1961" s="0">
+        <v>13</v>
+      </c>
+      <c r="G1961" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1962">
+      <c r="A1962" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1962" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1962" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1962" s="0">
+        <v>91863</v>
+      </c>
+      <c r="E1962" s="0">
+        <v>0.508944747004105</v>
+      </c>
+      <c r="F1962" s="0">
+        <v>968</v>
+      </c>
+      <c r="G1962" s="0">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1963">
+      <c r="A1963" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1963" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1963" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1963" s="0">
+        <v>86915</v>
+      </c>
+      <c r="E1963" s="0">
+        <v>0.481531549000814</v>
+      </c>
+      <c r="F1963" s="0">
+        <v>1228</v>
+      </c>
+      <c r="G1963" s="0">
+        <v>0.559</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1964">
+      <c r="A1964" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1964" s="1">
+        <v>44092</v>
+      </c>
+      <c r="C1964" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1964" s="0">
+        <v>1719</v>
+      </c>
+      <c r="E1964" s="0">
+        <v>9.52370399508025E-03</v>
+      </c>
+      <c r="F1964" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1964" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1965">
+      <c r="A1965" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1965" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1965" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1965" s="0">
+        <v>97022</v>
+      </c>
+      <c r="E1965" s="0">
+        <v>0.534736192329102</v>
+      </c>
+      <c r="F1965" s="0">
+        <v>1458</v>
+      </c>
+      <c r="G1965" s="0">
+        <v>0.657942238267148</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1966">
+      <c r="A1966" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1966" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1966" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1966" s="0">
+        <v>33663</v>
+      </c>
+      <c r="E1966" s="0">
+        <v>0.185533429968199</v>
+      </c>
+      <c r="F1966" s="0">
+        <v>609</v>
+      </c>
+      <c r="G1966" s="0">
+        <v>0.274819494584838</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1967">
+      <c r="A1967" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1967" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1967" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1967" s="0">
+        <v>22681</v>
+      </c>
+      <c r="E1967" s="0">
+        <v>0.125006200430999</v>
+      </c>
+      <c r="F1967" s="0">
+        <v>101</v>
+      </c>
+      <c r="G1967" s="0">
+        <v>4.55776173285199E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1968">
+      <c r="A1968" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1968" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1968" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1968" s="0">
+        <v>1657</v>
+      </c>
+      <c r="E1968" s="0">
+        <v>9.1325459245256E-03</v>
+      </c>
+      <c r="F1968" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1968" s="0">
+        <v>9.02527075812274E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1969">
+      <c r="A1969" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1969" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1969" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1969" s="0">
+        <v>242</v>
+      </c>
+      <c r="E1969" s="0">
+        <v>1.33378160152999E-03</v>
+      </c>
+      <c r="F1969" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1969" s="0">
+        <v>1.80505415162455E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1970">
+      <c r="A1970" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1970" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1970" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1970" s="0">
+        <v>138</v>
+      </c>
+      <c r="E1970" s="0">
+        <v>7.60586202525367E-04</v>
+      </c>
+      <c r="F1970" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1970" s="0">
+        <v>9.02527075812274E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1971">
+      <c r="A1971" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1971" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1971" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1971" s="0">
+        <v>26036</v>
+      </c>
+      <c r="E1971" s="0">
+        <v>0.143497263543119</v>
+      </c>
+      <c r="F1971" s="0">
+        <v>22</v>
+      </c>
+      <c r="G1971" s="0">
+        <v>9.92779783393502E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1972">
+      <c r="A1972" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1972" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1972" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1972" s="0">
+        <v>118814</v>
+      </c>
+      <c r="E1972" s="0">
+        <v>0.654842674397456</v>
+      </c>
+      <c r="F1972" s="0">
+        <v>2061</v>
+      </c>
+      <c r="G1972" s="0">
+        <v>0.930054151624549</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1973">
+      <c r="A1973" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1973" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1973" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1973" s="0">
+        <v>24558</v>
+      </c>
+      <c r="E1973" s="0">
+        <v>0.135351275084188</v>
+      </c>
+      <c r="F1973" s="0">
+        <v>140</v>
+      </c>
+      <c r="G1973" s="0">
+        <v>6.31768953068592E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1974">
+      <c r="A1974" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1974" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1974" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1974" s="0">
+        <v>38067</v>
+      </c>
+      <c r="E1974" s="0">
+        <v>0.209806050518356</v>
+      </c>
+      <c r="F1974" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1974" s="0">
+        <v>6.76895306859206E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1975">
+      <c r="A1975" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1975" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1975" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1975" s="0">
+        <v>92368</v>
+      </c>
+      <c r="E1975" s="0">
+        <v>0.509085698223645</v>
+      </c>
+      <c r="F1975" s="0">
+        <v>980</v>
+      </c>
+      <c r="G1975" s="0">
+        <v>0.442238267148014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1976">
+      <c r="A1976" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1976" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1976" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1976" s="0">
+        <v>87372</v>
+      </c>
+      <c r="E1976" s="0">
+        <v>0.481550273094539</v>
+      </c>
+      <c r="F1976" s="0">
+        <v>1236</v>
+      </c>
+      <c r="G1976" s="0">
+        <v>0.557761732851986</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1977">
+      <c r="A1977" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1977" s="1">
+        <v>44093</v>
+      </c>
+      <c r="C1977" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1977" s="0">
+        <v>1699</v>
+      </c>
+      <c r="E1977" s="0">
+        <v>9.36402868181593E-03</v>
+      </c>
+      <c r="F1977" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1977" s="0">
         <v>0</v>
       </c>
     </row>
@@ -46919,11 +49025,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-441</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-523</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-441</Url>
-      <Description>HJYU5V3E37X6-122305290-441</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-523</Url>
+      <Description>HJYU5V3E37X6-122305290-523</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -46946,17 +49052,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6A6644D5-7323-4F7B-958C-FFF4E0D8AAB3}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACBBEE0-A0EE-4DA3-89A2-09EC98194849}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C75ACD39-9FA0-4AFD-AE20-3D6A0F7C1884}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B67463-721A-4F0C-AC4B-2BA236F2E4A8}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3DA4C80B-4E2C-47CD-9AAE-5812B6A1E39D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704FB163-4CA2-4506-A4DD-AE65FE144544}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2151C294-BBEC-4D98-BB37-A2DB0317339E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22FB0DDC-52E1-420D-A35F-149CC68FB448}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$1977</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2003</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1977"/>
+  <dimension ref="A1:G2003"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -48269,7 +48269,7 @@
         <v>1458</v>
       </c>
       <c r="G1965" s="0">
-        <v>0.657942238267148</v>
+        <v>0.657</v>
       </c>
     </row>
     <row outlineLevel="0" r="1966">
@@ -48296,13 +48296,13 @@
         <v>609</v>
       </c>
       <c r="G1966" s="0">
-        <v>0.274819494584838</v>
+        <v>0.274</v>
       </c>
     </row>
     <row outlineLevel="0" r="1967">
       <c r="A1967" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1967" s="1">
@@ -48314,22 +48314,22 @@
         </is>
       </c>
       <c r="D1967" s="0">
-        <v>22681</v>
+        <v>1657</v>
       </c>
       <c r="E1967" s="0">
-        <v>0.125006200430999</v>
+        <v>9.1325459245256E-03</v>
       </c>
       <c r="F1967" s="0">
-        <v>101</v>
+        <v>20</v>
       </c>
       <c r="G1967" s="0">
-        <v>4.55776173285199E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1968">
       <c r="A1968" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1968" s="1">
@@ -48341,22 +48341,22 @@
         </is>
       </c>
       <c r="D1968" s="0">
-        <v>1657</v>
+        <v>242</v>
       </c>
       <c r="E1968" s="0">
-        <v>9.1325459245256E-03</v>
+        <v>1.33378160152999E-03</v>
       </c>
       <c r="F1968" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1968" s="0">
-        <v>9.02527075812274E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1969">
       <c r="A1969" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1969" s="1">
@@ -48368,22 +48368,22 @@
         </is>
       </c>
       <c r="D1969" s="0">
-        <v>242</v>
+        <v>138</v>
       </c>
       <c r="E1969" s="0">
-        <v>1.33378160152999E-03</v>
+        <v>7.60586202525367E-04</v>
       </c>
       <c r="F1969" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1969" s="0">
-        <v>1.80505415162455E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1970">
       <c r="A1970" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1970" s="1">
@@ -48395,16 +48395,16 @@
         </is>
       </c>
       <c r="D1970" s="0">
-        <v>138</v>
+        <v>22681</v>
       </c>
       <c r="E1970" s="0">
-        <v>7.60586202525367E-04</v>
+        <v>0.125006200430999</v>
       </c>
       <c r="F1970" s="0">
-        <v>2</v>
+        <v>101</v>
       </c>
       <c r="G1970" s="0">
-        <v>9.02527075812274E-04</v>
+        <v>0.045</v>
       </c>
     </row>
     <row outlineLevel="0" r="1971">
@@ -48431,7 +48431,7 @@
         <v>22</v>
       </c>
       <c r="G1971" s="0">
-        <v>9.92779783393502E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="1972">
@@ -48458,7 +48458,7 @@
         <v>2061</v>
       </c>
       <c r="G1972" s="0">
-        <v>0.930054151624549</v>
+        <v>0.93</v>
       </c>
     </row>
     <row outlineLevel="0" r="1973">
@@ -48485,7 +48485,7 @@
         <v>140</v>
       </c>
       <c r="G1973" s="0">
-        <v>6.31768953068592E-02</v>
+        <v>0.063</v>
       </c>
     </row>
     <row outlineLevel="0" r="1974">
@@ -48512,7 +48512,7 @@
         <v>15</v>
       </c>
       <c r="G1974" s="0">
-        <v>6.76895306859206E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="1975">
@@ -48539,7 +48539,7 @@
         <v>980</v>
       </c>
       <c r="G1975" s="0">
-        <v>0.442238267148014</v>
+        <v>0.442</v>
       </c>
     </row>
     <row outlineLevel="0" r="1976">
@@ -48566,7 +48566,7 @@
         <v>1236</v>
       </c>
       <c r="G1976" s="0">
-        <v>0.557761732851986</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="1977">
@@ -48593,6 +48593,708 @@
         <v>0</v>
       </c>
       <c r="G1977" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1978">
+      <c r="A1978" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1978" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1978" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1978" s="0">
+        <v>97973</v>
+      </c>
+      <c r="E1978" s="0">
+        <v>0.533872075155029</v>
+      </c>
+      <c r="F1978" s="0">
+        <v>1459</v>
+      </c>
+      <c r="G1978" s="0">
+        <v>0.657</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1979">
+      <c r="A1979" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1979" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1979" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1979" s="0">
+        <v>33861</v>
+      </c>
+      <c r="E1979" s="0">
+        <v>0.184514532951164</v>
+      </c>
+      <c r="F1979" s="0">
+        <v>610</v>
+      </c>
+      <c r="G1979" s="0">
+        <v>0.275</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1980">
+      <c r="A1980" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1980" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1980" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1980" s="0">
+        <v>1686</v>
+      </c>
+      <c r="E1980" s="0">
+        <v>9.18730996000305E-03</v>
+      </c>
+      <c r="F1980" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1980" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1981">
+      <c r="A1981" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1981" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1981" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1981" s="0">
+        <v>245</v>
+      </c>
+      <c r="E1981" s="0">
+        <v>1.33504800723651E-03</v>
+      </c>
+      <c r="F1981" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1981" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1982">
+      <c r="A1982" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1982" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1982" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1982" s="0">
+        <v>139</v>
+      </c>
+      <c r="E1982" s="0">
+        <v>7.57435400023976E-04</v>
+      </c>
+      <c r="F1982" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1982" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1983">
+      <c r="A1983" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1983" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1983" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1983" s="0">
+        <v>22856</v>
+      </c>
+      <c r="E1983" s="0">
+        <v>0.124546356136317</v>
+      </c>
+      <c r="F1983" s="0">
+        <v>101</v>
+      </c>
+      <c r="G1983" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1984">
+      <c r="A1984" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1984" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1984" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1984" s="0">
+        <v>26754</v>
+      </c>
+      <c r="E1984" s="0">
+        <v>0.145787242390226</v>
+      </c>
+      <c r="F1984" s="0">
+        <v>22</v>
+      </c>
+      <c r="G1984" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1985">
+      <c r="A1985" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1985" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1985" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1985" s="0">
+        <v>119642</v>
+      </c>
+      <c r="E1985" s="0">
+        <v>0.651950259925673</v>
+      </c>
+      <c r="F1985" s="0">
+        <v>2063</v>
+      </c>
+      <c r="G1985" s="0">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1986">
+      <c r="A1986" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1986" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1986" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1986" s="0">
+        <v>24624</v>
+      </c>
+      <c r="E1986" s="0">
+        <v>0.134180498490578</v>
+      </c>
+      <c r="F1986" s="0">
+        <v>140</v>
+      </c>
+      <c r="G1986" s="0">
+        <v>0.063</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1987">
+      <c r="A1987" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1987" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1987" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1987" s="0">
+        <v>39248</v>
+      </c>
+      <c r="E1987" s="0">
+        <v>0.213869241583748</v>
+      </c>
+      <c r="F1987" s="0">
+        <v>15</v>
+      </c>
+      <c r="G1987" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1988">
+      <c r="A1988" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B1988" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1988" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1988" s="0">
+        <v>93467</v>
+      </c>
+      <c r="E1988" s="0">
+        <v>0.509318090172957</v>
+      </c>
+      <c r="F1988" s="0">
+        <v>981</v>
+      </c>
+      <c r="G1988" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1989">
+      <c r="A1989" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B1989" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1989" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1989" s="0">
+        <v>88307</v>
+      </c>
+      <c r="E1989" s="0">
+        <v>0.481200344387894</v>
+      </c>
+      <c r="F1989" s="0">
+        <v>1237</v>
+      </c>
+      <c r="G1989" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1990">
+      <c r="A1990" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1990" s="1">
+        <v>44094</v>
+      </c>
+      <c r="C1990" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D1990" s="0">
+        <v>1740</v>
+      </c>
+      <c r="E1990" s="0">
+        <v>9.48156543914906E-03</v>
+      </c>
+      <c r="F1990" s="0">
+        <v>0</v>
+      </c>
+      <c r="G1990" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1991">
+      <c r="A1991" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B1991" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1991" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1991" s="0">
+        <v>98566</v>
+      </c>
+      <c r="E1991" s="0">
+        <v>0.534496689424052</v>
+      </c>
+      <c r="F1991" s="0">
+        <v>1469</v>
+      </c>
+      <c r="G1991" s="0">
+        <v>0.657859381997313</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1992">
+      <c r="A1992" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B1992" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1992" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1992" s="0">
+        <v>33954</v>
+      </c>
+      <c r="E1992" s="0">
+        <v>0.184123334544409</v>
+      </c>
+      <c r="F1992" s="0">
+        <v>611</v>
+      </c>
+      <c r="G1992" s="0">
+        <v>0.273622928795343</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1993">
+      <c r="A1993" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B1993" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1993" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1993" s="0">
+        <v>22935</v>
+      </c>
+      <c r="E1993" s="0">
+        <v>0.124370285615127</v>
+      </c>
+      <c r="F1993" s="0">
+        <v>102</v>
+      </c>
+      <c r="G1993" s="0">
+        <v>4.56784594715629E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1994">
+      <c r="A1994" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B1994" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1994" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1994" s="0">
+        <v>1693</v>
+      </c>
+      <c r="E1994" s="0">
+        <v>9.18067990174015E-03</v>
+      </c>
+      <c r="F1994" s="0">
+        <v>20</v>
+      </c>
+      <c r="G1994" s="0">
+        <v>8.95656068069861E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1995">
+      <c r="A1995" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B1995" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1995" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1995" s="0">
+        <v>247</v>
+      </c>
+      <c r="E1995" s="0">
+        <v>1.33941401992311E-03</v>
+      </c>
+      <c r="F1995" s="0">
+        <v>4</v>
+      </c>
+      <c r="G1995" s="0">
+        <v>1.79131213613972E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1996">
+      <c r="A1996" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B1996" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1996" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1996" s="0">
+        <v>139</v>
+      </c>
+      <c r="E1996" s="0">
+        <v>7.53759306758347E-04</v>
+      </c>
+      <c r="F1996" s="0">
+        <v>2</v>
+      </c>
+      <c r="G1996" s="0">
+        <v>8.95656068069861E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1997">
+      <c r="A1997" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B1997" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1997" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D1997" s="0">
+        <v>26875</v>
+      </c>
+      <c r="E1997" s="0">
+        <v>0.14573583718799</v>
+      </c>
+      <c r="F1997" s="0">
+        <v>25</v>
+      </c>
+      <c r="G1997" s="0">
+        <v>1.11957008508733E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1998">
+      <c r="A1998" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B1998" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1998" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1998" s="0">
+        <v>120172</v>
+      </c>
+      <c r="E1998" s="0">
+        <v>0.651660168429957</v>
+      </c>
+      <c r="F1998" s="0">
+        <v>2073</v>
+      </c>
+      <c r="G1998" s="0">
+        <v>0.928347514554411</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="1999">
+      <c r="A1999" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B1999" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C1999" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D1999" s="0">
+        <v>24653</v>
+      </c>
+      <c r="E1999" s="0">
+        <v>0.133686533737507</v>
+      </c>
+      <c r="F1999" s="0">
+        <v>140</v>
+      </c>
+      <c r="G1999" s="0">
+        <v>6.26959247648903E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2000">
+      <c r="A2000" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2000" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C2000" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2000" s="0">
+        <v>39584</v>
+      </c>
+      <c r="E2000" s="0">
+        <v>0.214653297832535</v>
+      </c>
+      <c r="F2000" s="0">
+        <v>20</v>
+      </c>
+      <c r="G2000" s="0">
+        <v>8.95656068069861E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2001">
+      <c r="A2001" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2001" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C2001" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2001" s="0">
+        <v>93929</v>
+      </c>
+      <c r="E2001" s="0">
+        <v>0.509351495859747</v>
+      </c>
+      <c r="F2001" s="0">
+        <v>988</v>
+      </c>
+      <c r="G2001" s="0">
+        <v>0.442454097626511</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2002">
+      <c r="A2002" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2002" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C2002" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2002" s="0">
+        <v>88698</v>
+      </c>
+      <c r="E2002" s="0">
+        <v>0.480985201373035</v>
+      </c>
+      <c r="F2002" s="0">
+        <v>1245</v>
+      </c>
+      <c r="G2002" s="0">
+        <v>0.557545902373489</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2003">
+      <c r="A2003" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2003" s="1">
+        <v>44095</v>
+      </c>
+      <c r="C2003" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2003" s="0">
+        <v>1782</v>
+      </c>
+      <c r="E2003" s="0">
+        <v>9.66330276721852E-03</v>
+      </c>
+      <c r="F2003" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2003" s="0">
         <v>0</v>
       </c>
     </row>
@@ -49025,11 +49727,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-523</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-548</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-523</Url>
-      <Description>HJYU5V3E37X6-122305290-523</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-548</Url>
+      <Description>HJYU5V3E37X6-122305290-548</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -49052,17 +49754,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8ACBBEE0-A0EE-4DA3-89A2-09EC98194849}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3508AF0-7F1C-4647-B6E8-DBE3BBB465F2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74B67463-721A-4F0C-AC4B-2BA236F2E4A8}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4769A2E7-0F57-4E1B-97B5-FED52AE41762}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{704FB163-4CA2-4506-A4DD-AE65FE144544}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3C8072-C5CD-4B75-9E24-423E74656C1A}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22FB0DDC-52E1-420D-A35F-149CC68FB448}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CFAC685-07E5-4384-914C-15E127670E83}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2003</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2016</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2003"/>
+  <dimension ref="A1:G2016"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -48971,7 +48971,7 @@
         <v>1469</v>
       </c>
       <c r="G1991" s="0">
-        <v>0.657859381997313</v>
+        <v>0.657</v>
       </c>
     </row>
     <row outlineLevel="0" r="1992">
@@ -48998,13 +48998,13 @@
         <v>611</v>
       </c>
       <c r="G1992" s="0">
-        <v>0.273622928795343</v>
+        <v>0.273</v>
       </c>
     </row>
     <row outlineLevel="0" r="1993">
       <c r="A1993" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B1993" s="1">
@@ -49016,22 +49016,22 @@
         </is>
       </c>
       <c r="D1993" s="0">
-        <v>22935</v>
+        <v>1693</v>
       </c>
       <c r="E1993" s="0">
-        <v>0.124370285615127</v>
+        <v>9.18067990174015E-03</v>
       </c>
       <c r="F1993" s="0">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="G1993" s="0">
-        <v>4.56784594715629E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="1994">
       <c r="A1994" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B1994" s="1">
@@ -49043,22 +49043,22 @@
         </is>
       </c>
       <c r="D1994" s="0">
-        <v>1693</v>
+        <v>247</v>
       </c>
       <c r="E1994" s="0">
-        <v>9.18067990174015E-03</v>
+        <v>1.33941401992311E-03</v>
       </c>
       <c r="F1994" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G1994" s="0">
-        <v>8.95656068069861E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="1995">
       <c r="A1995" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B1995" s="1">
@@ -49070,22 +49070,22 @@
         </is>
       </c>
       <c r="D1995" s="0">
-        <v>247</v>
+        <v>139</v>
       </c>
       <c r="E1995" s="0">
-        <v>1.33941401992311E-03</v>
+        <v>7.53759306758347E-04</v>
       </c>
       <c r="F1995" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G1995" s="0">
-        <v>1.79131213613972E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="1996">
       <c r="A1996" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B1996" s="1">
@@ -49097,16 +49097,16 @@
         </is>
       </c>
       <c r="D1996" s="0">
-        <v>139</v>
+        <v>22935</v>
       </c>
       <c r="E1996" s="0">
-        <v>7.53759306758347E-04</v>
+        <v>0.124370285615127</v>
       </c>
       <c r="F1996" s="0">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="G1996" s="0">
-        <v>8.95656068069861E-04</v>
+        <v>0.045</v>
       </c>
     </row>
     <row outlineLevel="0" r="1997">
@@ -49133,7 +49133,7 @@
         <v>25</v>
       </c>
       <c r="G1997" s="0">
-        <v>1.11957008508733E-02</v>
+        <v>0.011</v>
       </c>
     </row>
     <row outlineLevel="0" r="1998">
@@ -49160,7 +49160,7 @@
         <v>2073</v>
       </c>
       <c r="G1998" s="0">
-        <v>0.928347514554411</v>
+        <v>0.928</v>
       </c>
     </row>
     <row outlineLevel="0" r="1999">
@@ -49187,7 +49187,7 @@
         <v>140</v>
       </c>
       <c r="G1999" s="0">
-        <v>6.26959247648903E-02</v>
+        <v>0.062</v>
       </c>
     </row>
     <row outlineLevel="0" r="2000">
@@ -49214,7 +49214,7 @@
         <v>20</v>
       </c>
       <c r="G2000" s="0">
-        <v>8.95656068069861E-03</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2001">
@@ -49241,7 +49241,7 @@
         <v>988</v>
       </c>
       <c r="G2001" s="0">
-        <v>0.442454097626511</v>
+        <v>0.442</v>
       </c>
     </row>
     <row outlineLevel="0" r="2002">
@@ -49268,7 +49268,7 @@
         <v>1245</v>
       </c>
       <c r="G2002" s="0">
-        <v>0.557545902373489</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="2003">
@@ -49295,6 +49295,357 @@
         <v>0</v>
       </c>
       <c r="G2003" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2004">
+      <c r="A2004" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2004" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2004" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2004" s="0">
+        <v>99338</v>
+      </c>
+      <c r="E2004" s="0">
+        <v>0.536532935813511</v>
+      </c>
+      <c r="F2004" s="0">
+        <v>1500</v>
+      </c>
+      <c r="G2004" s="0">
+        <v>0.663423264042459</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2005">
+      <c r="A2005" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2005" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2005" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2005" s="0">
+        <v>34086</v>
+      </c>
+      <c r="E2005" s="0">
+        <v>0.184101367554605</v>
+      </c>
+      <c r="F2005" s="0">
+        <v>622</v>
+      </c>
+      <c r="G2005" s="0">
+        <v>0.275099513489606</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2006">
+      <c r="A2006" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2006" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2006" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2006" s="0">
+        <v>22908</v>
+      </c>
+      <c r="E2006" s="0">
+        <v>0.123728044591354</v>
+      </c>
+      <c r="F2006" s="0">
+        <v>100</v>
+      </c>
+      <c r="G2006" s="0">
+        <v>4.42282176028306E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2007">
+      <c r="A2007" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2007" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2007" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2007" s="0">
+        <v>1704</v>
+      </c>
+      <c r="E2007" s="0">
+        <v>9.20344805236892E-03</v>
+      </c>
+      <c r="F2007" s="0">
+        <v>20</v>
+      </c>
+      <c r="G2007" s="0">
+        <v>8.84564352056612E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2008">
+      <c r="A2008" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2008" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2008" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2008" s="0">
+        <v>247</v>
+      </c>
+      <c r="E2008" s="0">
+        <v>1.33406788083047E-03</v>
+      </c>
+      <c r="F2008" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2008" s="0">
+        <v>1.76912870411322E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2009">
+      <c r="A2009" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2009" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2009" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2009" s="0">
+        <v>144</v>
+      </c>
+      <c r="E2009" s="0">
+        <v>7.77756173439627E-04</v>
+      </c>
+      <c r="F2009" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2009" s="0">
+        <v>8.84564352056612E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2010">
+      <c r="A2010" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2010" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2010" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2010" s="0">
+        <v>26721</v>
+      </c>
+      <c r="E2010" s="0">
+        <v>0.144322379933891</v>
+      </c>
+      <c r="F2010" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2010" s="0">
+        <v>5.74966828836798E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2011">
+      <c r="A2011" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2011" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2011" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2011" s="0">
+        <v>121181</v>
+      </c>
+      <c r="E2011" s="0">
+        <v>0.654508825372135</v>
+      </c>
+      <c r="F2011" s="0">
+        <v>2106</v>
+      </c>
+      <c r="G2011" s="0">
+        <v>0.931446262715613</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2012">
+      <c r="A2012" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2012" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2012" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2012" s="0">
+        <v>24739</v>
+      </c>
+      <c r="E2012" s="0">
+        <v>0.13361743038002</v>
+      </c>
+      <c r="F2012" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2012" s="0">
+        <v>6.19195046439628E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2013">
+      <c r="A2013" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2013" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2013" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2013" s="0">
+        <v>39228</v>
+      </c>
+      <c r="E2013" s="0">
+        <v>0.211873744247845</v>
+      </c>
+      <c r="F2013" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2013" s="0">
+        <v>6.63423264042459E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2014">
+      <c r="A2014" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2014" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2014" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2014" s="0">
+        <v>94334</v>
+      </c>
+      <c r="E2014" s="0">
+        <v>0.509505908786484</v>
+      </c>
+      <c r="F2014" s="0">
+        <v>1001</v>
+      </c>
+      <c r="G2014" s="0">
+        <v>0.442724458204334</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2015">
+      <c r="A2015" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2015" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2015" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2015" s="0">
+        <v>89024</v>
+      </c>
+      <c r="E2015" s="0">
+        <v>0.480826149890898</v>
+      </c>
+      <c r="F2015" s="0">
+        <v>1260</v>
+      </c>
+      <c r="G2015" s="0">
+        <v>0.557275541795666</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2016">
+      <c r="A2016" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2016" s="1">
+        <v>44096</v>
+      </c>
+      <c r="C2016" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2016" s="0">
+        <v>1790</v>
+      </c>
+      <c r="E2016" s="0">
+        <v>9.66794132261758E-03</v>
+      </c>
+      <c r="F2016" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2016" s="0">
         <v>0</v>
       </c>
     </row>
@@ -49727,11 +50078,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-548</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-580</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-548</Url>
-      <Description>HJYU5V3E37X6-122305290-548</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-580</Url>
+      <Description>HJYU5V3E37X6-122305290-580</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -49754,17 +50105,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F3508AF0-7F1C-4647-B6E8-DBE3BBB465F2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8257AA-9FF8-4875-85BB-D8F497BBF04F}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4769A2E7-0F57-4E1B-97B5-FED52AE41762}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35B56C0-B81F-4855-BC75-77ECF1B6ACCD}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6E3C8072-C5CD-4B75-9E24-423E74656C1A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F43348-CCF9-4F43-9E41-05097B00FE92}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CFAC685-07E5-4384-914C-15E127670E83}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6BB1122-14A7-4551-8873-93BFFBECAA35}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2016</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2029</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2016"/>
+  <dimension ref="A1:G2029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -49322,7 +49322,7 @@
         <v>1500</v>
       </c>
       <c r="G2004" s="0">
-        <v>0.663423264042459</v>
+        <v>0.663</v>
       </c>
     </row>
     <row outlineLevel="0" r="2005">
@@ -49349,13 +49349,13 @@
         <v>622</v>
       </c>
       <c r="G2005" s="0">
-        <v>0.275099513489606</v>
+        <v>0.275</v>
       </c>
     </row>
     <row outlineLevel="0" r="2006">
       <c r="A2006" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2006" s="1">
@@ -49367,22 +49367,22 @@
         </is>
       </c>
       <c r="D2006" s="0">
-        <v>22908</v>
+        <v>1704</v>
       </c>
       <c r="E2006" s="0">
-        <v>0.123728044591354</v>
+        <v>9.20344805236892E-03</v>
       </c>
       <c r="F2006" s="0">
-        <v>100</v>
+        <v>20</v>
       </c>
       <c r="G2006" s="0">
-        <v>4.42282176028306E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2007">
       <c r="A2007" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2007" s="1">
@@ -49394,22 +49394,22 @@
         </is>
       </c>
       <c r="D2007" s="0">
-        <v>1704</v>
+        <v>247</v>
       </c>
       <c r="E2007" s="0">
-        <v>9.20344805236892E-03</v>
+        <v>1.33406788083047E-03</v>
       </c>
       <c r="F2007" s="0">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="G2007" s="0">
-        <v>8.84564352056612E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2008">
       <c r="A2008" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2008" s="1">
@@ -49421,22 +49421,22 @@
         </is>
       </c>
       <c r="D2008" s="0">
-        <v>247</v>
+        <v>144</v>
       </c>
       <c r="E2008" s="0">
-        <v>1.33406788083047E-03</v>
+        <v>7.77756173439627E-04</v>
       </c>
       <c r="F2008" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2008" s="0">
-        <v>1.76912870411322E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2009">
       <c r="A2009" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2009" s="1">
@@ -49448,16 +49448,16 @@
         </is>
       </c>
       <c r="D2009" s="0">
-        <v>144</v>
+        <v>22908</v>
       </c>
       <c r="E2009" s="0">
-        <v>7.77756173439627E-04</v>
+        <v>0.123728044591354</v>
       </c>
       <c r="F2009" s="0">
-        <v>2</v>
+        <v>100</v>
       </c>
       <c r="G2009" s="0">
-        <v>8.84564352056612E-04</v>
+        <v>0.044</v>
       </c>
     </row>
     <row outlineLevel="0" r="2010">
@@ -49484,7 +49484,7 @@
         <v>13</v>
       </c>
       <c r="G2010" s="0">
-        <v>5.74966828836798E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="2011">
@@ -49511,7 +49511,7 @@
         <v>2106</v>
       </c>
       <c r="G2011" s="0">
-        <v>0.931446262715613</v>
+        <v>0.931</v>
       </c>
     </row>
     <row outlineLevel="0" r="2012">
@@ -49538,7 +49538,7 @@
         <v>140</v>
       </c>
       <c r="G2012" s="0">
-        <v>6.19195046439628E-02</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="2013">
@@ -49565,7 +49565,7 @@
         <v>15</v>
       </c>
       <c r="G2013" s="0">
-        <v>6.63423264042459E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="2014">
@@ -49592,7 +49592,7 @@
         <v>1001</v>
       </c>
       <c r="G2014" s="0">
-        <v>0.442724458204334</v>
+        <v>0.442</v>
       </c>
     </row>
     <row outlineLevel="0" r="2015">
@@ -49619,7 +49619,7 @@
         <v>1260</v>
       </c>
       <c r="G2015" s="0">
-        <v>0.557275541795666</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="2016">
@@ -49646,6 +49646,357 @@
         <v>0</v>
       </c>
       <c r="G2016" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2017">
+      <c r="A2017" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2017" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2017" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2017" s="0">
+        <v>101155</v>
+      </c>
+      <c r="E2017" s="0">
+        <v>0.541778917995383</v>
+      </c>
+      <c r="F2017" s="0">
+        <v>1513</v>
+      </c>
+      <c r="G2017" s="0">
+        <v>0.665054945054945</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2018">
+      <c r="A2018" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2018" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2018" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2018" s="0">
+        <v>34474</v>
+      </c>
+      <c r="E2018" s="0">
+        <v>0.184640269081833</v>
+      </c>
+      <c r="F2018" s="0">
+        <v>624</v>
+      </c>
+      <c r="G2018" s="0">
+        <v>0.274285714285714</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2019">
+      <c r="A2019" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2019" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2019" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2019" s="0">
+        <v>23027</v>
+      </c>
+      <c r="E2019" s="0">
+        <v>0.123330958871827</v>
+      </c>
+      <c r="F2019" s="0">
+        <v>99</v>
+      </c>
+      <c r="G2019" s="0">
+        <v>4.35164835164835E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2020">
+      <c r="A2020" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2020" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2020" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2020" s="0">
+        <v>1719</v>
+      </c>
+      <c r="E2020" s="0">
+        <v>9.20684059150871E-03</v>
+      </c>
+      <c r="F2020" s="0">
+        <v>21</v>
+      </c>
+      <c r="G2020" s="0">
+        <v>9.23076923076923E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2021">
+      <c r="A2021" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2021" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2021" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2021" s="0">
+        <v>254</v>
+      </c>
+      <c r="E2021" s="0">
+        <v>1.36040576512112E-03</v>
+      </c>
+      <c r="F2021" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2021" s="0">
+        <v>1.75824175824176E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2022">
+      <c r="A2022" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2022" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2022" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2022" s="0">
+        <v>144</v>
+      </c>
+      <c r="E2022" s="0">
+        <v>7.71253662115913E-04</v>
+      </c>
+      <c r="F2022" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2022" s="0">
+        <v>8.79120879120879E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2023">
+      <c r="A2023" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2023" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2023" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2023" s="0">
+        <v>25936</v>
+      </c>
+      <c r="E2023" s="0">
+        <v>0.138911354032211</v>
+      </c>
+      <c r="F2023" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2023" s="0">
+        <v>5.27472527472527E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2024">
+      <c r="A2024" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2024" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2024" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2024" s="0">
+        <v>123915</v>
+      </c>
+      <c r="E2024" s="0">
+        <v>0.663679844035371</v>
+      </c>
+      <c r="F2024" s="0">
+        <v>2123</v>
+      </c>
+      <c r="G2024" s="0">
+        <v>0.933186813186813</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2025">
+      <c r="A2025" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2025" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2025" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2025" s="0">
+        <v>24874</v>
+      </c>
+      <c r="E2025" s="0">
+        <v>0.133223358274106</v>
+      </c>
+      <c r="F2025" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2025" s="0">
+        <v>6.15384615384615E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2026">
+      <c r="A2026" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2026" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2026" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2026" s="0">
+        <v>37920</v>
+      </c>
+      <c r="E2026" s="0">
+        <v>0.203096797690524</v>
+      </c>
+      <c r="F2026" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2026" s="0">
+        <v>5.27472527472527E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2027">
+      <c r="A2027" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2027" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2027" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2027" s="0">
+        <v>95170</v>
+      </c>
+      <c r="E2027" s="0">
+        <v>0.509723687663691</v>
+      </c>
+      <c r="F2027" s="0">
+        <v>1004</v>
+      </c>
+      <c r="G2027" s="0">
+        <v>0.441318681318681</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2028">
+      <c r="A2028" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2028" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2028" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2028" s="0">
+        <v>89799</v>
+      </c>
+      <c r="E2028" s="0">
+        <v>0.480956997252409</v>
+      </c>
+      <c r="F2028" s="0">
+        <v>1271</v>
+      </c>
+      <c r="G2028" s="0">
+        <v>0.558681318681319</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2029">
+      <c r="A2029" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2029" s="1">
+        <v>44097</v>
+      </c>
+      <c r="C2029" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2029" s="0">
+        <v>1740</v>
+      </c>
+      <c r="E2029" s="0">
+        <v>9.31931508390062E-03</v>
+      </c>
+      <c r="F2029" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2029" s="0">
         <v>0</v>
       </c>
     </row>
@@ -50077,13 +50428,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-580</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-580</Url>
-      <Description>HJYU5V3E37X6-122305290-580</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -50098,24 +50442,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-613</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-613</Url>
+      <Description>HJYU5V3E37X6-122305290-613</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E8257AA-9FF8-4875-85BB-D8F497BBF04F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72EE6ED9-B5E6-443B-AC72-E2FC59378291}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A35B56C0-B81F-4855-BC75-77ECF1B6ACCD}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575AE224-21C3-4830-9F7C-E477BCF197CB}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2F43348-CCF9-4F43-9E41-05097B00FE92}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA393AD0-9D82-4D90-B654-7508A1CEB342}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6BB1122-14A7-4551-8873-93BFFBECAA35}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41A5A94F-54D7-4D76-8916-F9DEB4004994}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2029</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2068</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2029"/>
+  <dimension ref="A1:G2068"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -49673,7 +49673,7 @@
         <v>1513</v>
       </c>
       <c r="G2017" s="0">
-        <v>0.665054945054945</v>
+        <v>0.665</v>
       </c>
     </row>
     <row outlineLevel="0" r="2018">
@@ -49700,13 +49700,13 @@
         <v>624</v>
       </c>
       <c r="G2018" s="0">
-        <v>0.274285714285714</v>
+        <v>0.274</v>
       </c>
     </row>
     <row outlineLevel="0" r="2019">
       <c r="A2019" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2019" s="1">
@@ -49718,22 +49718,22 @@
         </is>
       </c>
       <c r="D2019" s="0">
-        <v>23027</v>
+        <v>1719</v>
       </c>
       <c r="E2019" s="0">
-        <v>0.123330958871827</v>
+        <v>9.20684059150871E-03</v>
       </c>
       <c r="F2019" s="0">
-        <v>99</v>
+        <v>21</v>
       </c>
       <c r="G2019" s="0">
-        <v>4.35164835164835E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="2020">
       <c r="A2020" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2020" s="1">
@@ -49745,22 +49745,22 @@
         </is>
       </c>
       <c r="D2020" s="0">
-        <v>1719</v>
+        <v>254</v>
       </c>
       <c r="E2020" s="0">
-        <v>9.20684059150871E-03</v>
+        <v>1.36040576512112E-03</v>
       </c>
       <c r="F2020" s="0">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="G2020" s="0">
-        <v>9.23076923076923E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2021">
       <c r="A2021" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2021" s="1">
@@ -49772,22 +49772,22 @@
         </is>
       </c>
       <c r="D2021" s="0">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="E2021" s="0">
-        <v>1.36040576512112E-03</v>
+        <v>7.71253662115913E-04</v>
       </c>
       <c r="F2021" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2021" s="0">
-        <v>1.75824175824176E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2022">
       <c r="A2022" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2022" s="1">
@@ -49799,16 +49799,16 @@
         </is>
       </c>
       <c r="D2022" s="0">
-        <v>144</v>
+        <v>23027</v>
       </c>
       <c r="E2022" s="0">
-        <v>7.71253662115913E-04</v>
+        <v>0.123330958871827</v>
       </c>
       <c r="F2022" s="0">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="G2022" s="0">
-        <v>8.79120879120879E-04</v>
+        <v>0.043</v>
       </c>
     </row>
     <row outlineLevel="0" r="2023">
@@ -49835,7 +49835,7 @@
         <v>12</v>
       </c>
       <c r="G2023" s="0">
-        <v>5.27472527472527E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="2024">
@@ -49862,7 +49862,7 @@
         <v>2123</v>
       </c>
       <c r="G2024" s="0">
-        <v>0.933186813186813</v>
+        <v>0.933</v>
       </c>
     </row>
     <row outlineLevel="0" r="2025">
@@ -49889,7 +49889,7 @@
         <v>140</v>
       </c>
       <c r="G2025" s="0">
-        <v>6.15384615384615E-02</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="2026">
@@ -49916,7 +49916,7 @@
         <v>12</v>
       </c>
       <c r="G2026" s="0">
-        <v>5.27472527472527E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="2027">
@@ -49943,7 +49943,7 @@
         <v>1004</v>
       </c>
       <c r="G2027" s="0">
-        <v>0.441318681318681</v>
+        <v>0.441</v>
       </c>
     </row>
     <row outlineLevel="0" r="2028">
@@ -49970,7 +49970,7 @@
         <v>1271</v>
       </c>
       <c r="G2028" s="0">
-        <v>0.558681318681319</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="2029">
@@ -49997,6 +49997,1059 @@
         <v>0</v>
       </c>
       <c r="G2029" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2030">
+      <c r="A2030" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2030" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2030" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2030" s="0">
+        <v>101871</v>
+      </c>
+      <c r="E2030" s="0">
+        <v>0.543184532696327</v>
+      </c>
+      <c r="F2030" s="0">
+        <v>1541</v>
+      </c>
+      <c r="G2030" s="0">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2031">
+      <c r="A2031" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2031" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2031" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2031" s="0">
+        <v>34597</v>
+      </c>
+      <c r="E2031" s="0">
+        <v>0.184474043424476</v>
+      </c>
+      <c r="F2031" s="0">
+        <v>633</v>
+      </c>
+      <c r="G2031" s="0">
+        <v>0.274</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2032">
+      <c r="A2032" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2032" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2032" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2032" s="0">
+        <v>1730</v>
+      </c>
+      <c r="E2032" s="0">
+        <v>9.22450198353453E-03</v>
+      </c>
+      <c r="F2032" s="0">
+        <v>21</v>
+      </c>
+      <c r="G2032" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2033">
+      <c r="A2033" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2033" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2033" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2033" s="0">
+        <v>255</v>
+      </c>
+      <c r="E2033" s="0">
+        <v>1.35968092820885E-03</v>
+      </c>
+      <c r="F2033" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2033" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2034">
+      <c r="A2034" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2034" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2034" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2034" s="0">
+        <v>144</v>
+      </c>
+      <c r="E2034" s="0">
+        <v>7.67819818282643E-04</v>
+      </c>
+      <c r="F2034" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2034" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2035">
+      <c r="A2035" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2035" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2035" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2035" s="0">
+        <v>23056</v>
+      </c>
+      <c r="E2035" s="0">
+        <v>0.122936484238365</v>
+      </c>
+      <c r="F2035" s="0">
+        <v>101</v>
+      </c>
+      <c r="G2035" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2036">
+      <c r="A2036" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2036" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2036" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2036" s="0">
+        <v>25891</v>
+      </c>
+      <c r="E2036" s="0">
+        <v>0.138052936910805</v>
+      </c>
+      <c r="F2036" s="0">
+        <v>8</v>
+      </c>
+      <c r="G2036" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2037">
+      <c r="A2037" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2037" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2037" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2037" s="0">
+        <v>124703</v>
+      </c>
+      <c r="E2037" s="0">
+        <v>0.664926630550697</v>
+      </c>
+      <c r="F2037" s="0">
+        <v>2162</v>
+      </c>
+      <c r="G2037" s="0">
+        <v>0.935</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2038">
+      <c r="A2038" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2038" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2038" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2038" s="0">
+        <v>24930</v>
+      </c>
+      <c r="E2038" s="0">
+        <v>0.132928806040183</v>
+      </c>
+      <c r="F2038" s="0">
+        <v>144</v>
+      </c>
+      <c r="G2038" s="0">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2039">
+      <c r="A2039" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2039" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2039" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2039" s="0">
+        <v>37911</v>
+      </c>
+      <c r="E2039" s="0">
+        <v>0.20214456340912</v>
+      </c>
+      <c r="F2039" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2039" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2040">
+      <c r="A2040" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2040" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2040" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2040" s="0">
+        <v>95639</v>
+      </c>
+      <c r="E2040" s="0">
+        <v>0.509954997227317</v>
+      </c>
+      <c r="F2040" s="0">
+        <v>1023</v>
+      </c>
+      <c r="G2040" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2041">
+      <c r="A2041" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2041" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2041" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2041" s="0">
+        <v>90167</v>
+      </c>
+      <c r="E2041" s="0">
+        <v>0.480777844132577</v>
+      </c>
+      <c r="F2041" s="0">
+        <v>1287</v>
+      </c>
+      <c r="G2041" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2042">
+      <c r="A2042" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2042" s="1">
+        <v>44098</v>
+      </c>
+      <c r="C2042" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2042" s="0">
+        <v>1738</v>
+      </c>
+      <c r="E2042" s="0">
+        <v>9.26715864010579E-03</v>
+      </c>
+      <c r="F2042" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2042" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2043">
+      <c r="A2043" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2043" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2043" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2043" s="0">
+        <v>102487</v>
+      </c>
+      <c r="E2043" s="0">
+        <v>0.540959810824791</v>
+      </c>
+      <c r="F2043" s="0">
+        <v>1569</v>
+      </c>
+      <c r="G2043" s="0">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2044">
+      <c r="A2044" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2044" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2044" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2044" s="0">
+        <v>34523</v>
+      </c>
+      <c r="E2044" s="0">
+        <v>0.182223653235086</v>
+      </c>
+      <c r="F2044" s="0">
+        <v>642</v>
+      </c>
+      <c r="G2044" s="0">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2045">
+      <c r="A2045" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2045" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2045" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2045" s="0">
+        <v>1744</v>
+      </c>
+      <c r="E2045" s="0">
+        <v>9.2054007833036E-03</v>
+      </c>
+      <c r="F2045" s="0">
+        <v>22</v>
+      </c>
+      <c r="G2045" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2046">
+      <c r="A2046" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2046" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2046" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2046" s="0">
+        <v>251</v>
+      </c>
+      <c r="E2046" s="0">
+        <v>1.32485986044106E-03</v>
+      </c>
+      <c r="F2046" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2046" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2047">
+      <c r="A2047" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2047" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2047" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2047" s="0">
+        <v>145</v>
+      </c>
+      <c r="E2047" s="0">
+        <v>7.65357289896228E-04</v>
+      </c>
+      <c r="F2047" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2047" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2048">
+      <c r="A2048" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2048" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2048" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2048" s="0">
+        <v>23162</v>
+      </c>
+      <c r="E2048" s="0">
+        <v>0.122256589990182</v>
+      </c>
+      <c r="F2048" s="0">
+        <v>103</v>
+      </c>
+      <c r="G2048" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2049">
+      <c r="A2049" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2049" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2049" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2049" s="0">
+        <v>27142</v>
+      </c>
+      <c r="E2049" s="0">
+        <v>0.143264328016299</v>
+      </c>
+      <c r="F2049" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2049" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2050">
+      <c r="A2050" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2050" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2050" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2050" s="0">
+        <v>125885</v>
+      </c>
+      <c r="E2050" s="0">
+        <v>0.664462085783356</v>
+      </c>
+      <c r="F2050" s="0">
+        <v>2200</v>
+      </c>
+      <c r="G2050" s="0">
+        <v>0.935</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2051">
+      <c r="A2051" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2051" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2051" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2051" s="0">
+        <v>25004</v>
+      </c>
+      <c r="E2051" s="0">
+        <v>0.131979266734933</v>
+      </c>
+      <c r="F2051" s="0">
+        <v>145</v>
+      </c>
+      <c r="G2051" s="0">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2052">
+      <c r="A2052" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2052" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2052" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2052" s="0">
+        <v>38565</v>
+      </c>
+      <c r="E2052" s="0">
+        <v>0.203558647481711</v>
+      </c>
+      <c r="F2052" s="0">
+        <v>7</v>
+      </c>
+      <c r="G2052" s="0">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2053">
+      <c r="A2053" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2053" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2053" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2053" s="0">
+        <v>96664</v>
+      </c>
+      <c r="E2053" s="0">
+        <v>0.510224117727786</v>
+      </c>
+      <c r="F2053" s="0">
+        <v>1040</v>
+      </c>
+      <c r="G2053" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2054">
+      <c r="A2054" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2054" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2054" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2054" s="0">
+        <v>91036</v>
+      </c>
+      <c r="E2054" s="0">
+        <v>0.480517698227538</v>
+      </c>
+      <c r="F2054" s="0">
+        <v>1312</v>
+      </c>
+      <c r="G2054" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2055">
+      <c r="A2055" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2055" s="1">
+        <v>44099</v>
+      </c>
+      <c r="C2055" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2055" s="0">
+        <v>1754</v>
+      </c>
+      <c r="E2055" s="0">
+        <v>9.25818404467575E-03</v>
+      </c>
+      <c r="F2055" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2055" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2056">
+      <c r="A2056" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2056" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2056" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2056" s="0">
+        <v>103540</v>
+      </c>
+      <c r="E2056" s="0">
+        <v>0.54240378016774</v>
+      </c>
+      <c r="F2056" s="0">
+        <v>1584</v>
+      </c>
+      <c r="G2056" s="0">
+        <v>0.667228306655434</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2057">
+      <c r="A2057" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2057" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2057" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2057" s="0">
+        <v>34699</v>
+      </c>
+      <c r="E2057" s="0">
+        <v>0.1817738919069</v>
+      </c>
+      <c r="F2057" s="0">
+        <v>645</v>
+      </c>
+      <c r="G2057" s="0">
+        <v>0.271693344566133</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2058">
+      <c r="A2058" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2058" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2058" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2058" s="0">
+        <v>23233</v>
+      </c>
+      <c r="E2058" s="0">
+        <v>0.121708199967521</v>
+      </c>
+      <c r="F2058" s="0">
+        <v>103</v>
+      </c>
+      <c r="G2058" s="0">
+        <v>4.33866891322662E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2059">
+      <c r="A2059" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2059" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2059" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2059" s="0">
+        <v>1773</v>
+      </c>
+      <c r="E2059" s="0">
+        <v>9.28802300789456E-03</v>
+      </c>
+      <c r="F2059" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2059" s="0">
+        <v>9.6882898062342E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2060">
+      <c r="A2060" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2060" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2060" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2060" s="0">
+        <v>251</v>
+      </c>
+      <c r="E2060" s="0">
+        <v>1.31488650591175E-03</v>
+      </c>
+      <c r="F2060" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2060" s="0">
+        <v>1.6849199663016E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2061">
+      <c r="A2061" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2061" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2061" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2061" s="0">
+        <v>145</v>
+      </c>
+      <c r="E2061" s="0">
+        <v>7.59595790267744E-04</v>
+      </c>
+      <c r="F2061" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2061" s="0">
+        <v>8.424599831508E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2062">
+      <c r="A2062" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2062" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2062" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2062" s="0">
+        <v>27250</v>
+      </c>
+      <c r="E2062" s="0">
+        <v>0.142751622653766</v>
+      </c>
+      <c r="F2062" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2062" s="0">
+        <v>5.4759898904802E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2063">
+      <c r="A2063" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2063" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2063" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2063" s="0">
+        <v>126962</v>
+      </c>
+      <c r="E2063" s="0">
+        <v>0.665102073958437</v>
+      </c>
+      <c r="F2063" s="0">
+        <v>2220</v>
+      </c>
+      <c r="G2063" s="0">
+        <v>0.935130581297388</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2064">
+      <c r="A2064" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2064" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2064" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2064" s="0">
+        <v>25075</v>
+      </c>
+      <c r="E2064" s="0">
+        <v>0.13135768579975</v>
+      </c>
+      <c r="F2064" s="0">
+        <v>145</v>
+      </c>
+      <c r="G2064" s="0">
+        <v>0.061078348778433</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2065">
+      <c r="A2065" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2065" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2065" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2065" s="0">
+        <v>38854</v>
+      </c>
+      <c r="E2065" s="0">
+        <v>0.203540240241813</v>
+      </c>
+      <c r="F2065" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2065" s="0">
+        <v>3.7910699241786E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2066">
+      <c r="A2066" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2066" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2066" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2066" s="0">
+        <v>97451</v>
+      </c>
+      <c r="E2066" s="0">
+        <v>0.510505995568151</v>
+      </c>
+      <c r="F2066" s="0">
+        <v>1047</v>
+      </c>
+      <c r="G2066" s="0">
+        <v>0.441027801179444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2067">
+      <c r="A2067" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2067" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2067" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2067" s="0">
+        <v>91656</v>
+      </c>
+      <c r="E2067" s="0">
+        <v>0.480148356915727</v>
+      </c>
+      <c r="F2067" s="0">
+        <v>1327</v>
+      </c>
+      <c r="G2067" s="0">
+        <v>0.558972198820556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2068">
+      <c r="A2068" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2068" s="1">
+        <v>44100</v>
+      </c>
+      <c r="C2068" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2068" s="0">
+        <v>1784</v>
+      </c>
+      <c r="E2068" s="0">
+        <v>9.34564751612177E-03</v>
+      </c>
+      <c r="F2068" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2068" s="0">
         <v>0</v>
       </c>
     </row>
@@ -50428,6 +51481,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-639</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-639</Url>
+      <Description>HJYU5V3E37X6-122305290-639</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -50442,31 +51502,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-613</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-613</Url>
-      <Description>HJYU5V3E37X6-122305290-613</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{72EE6ED9-B5E6-443B-AC72-E2FC59378291}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F50FD0-6361-4E4A-AE47-534DD502FC29}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{575AE224-21C3-4830-9F7C-E477BCF197CB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1CC1671-81D8-40FC-9468-6C3A3EE78B59}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA393AD0-9D82-4D90-B654-7508A1CEB342}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A51F40D-61AF-4DF6-BACA-024F291E97B7}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{41A5A94F-54D7-4D76-8916-F9DEB4004994}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BBB3C32-9665-46C6-AC2C-C4A125F57698}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2068</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2172</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2068"/>
+  <dimension ref="A1:G2172"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -50726,7 +50726,7 @@
         <v>1584</v>
       </c>
       <c r="G2056" s="0">
-        <v>0.667228306655434</v>
+        <v>0.667</v>
       </c>
     </row>
     <row outlineLevel="0" r="2057">
@@ -50753,13 +50753,13 @@
         <v>645</v>
       </c>
       <c r="G2057" s="0">
-        <v>0.271693344566133</v>
+        <v>0.271</v>
       </c>
     </row>
     <row outlineLevel="0" r="2058">
       <c r="A2058" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2058" s="1">
@@ -50771,22 +50771,22 @@
         </is>
       </c>
       <c r="D2058" s="0">
-        <v>23233</v>
+        <v>1773</v>
       </c>
       <c r="E2058" s="0">
-        <v>0.121708199967521</v>
+        <v>9.28802300789456E-03</v>
       </c>
       <c r="F2058" s="0">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="G2058" s="0">
-        <v>4.33866891322662E-02</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="2059">
       <c r="A2059" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2059" s="1">
@@ -50798,22 +50798,22 @@
         </is>
       </c>
       <c r="D2059" s="0">
-        <v>1773</v>
+        <v>251</v>
       </c>
       <c r="E2059" s="0">
-        <v>9.28802300789456E-03</v>
+        <v>1.31488650591175E-03</v>
       </c>
       <c r="F2059" s="0">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2059" s="0">
-        <v>9.6882898062342E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2060">
       <c r="A2060" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2060" s="1">
@@ -50825,22 +50825,22 @@
         </is>
       </c>
       <c r="D2060" s="0">
-        <v>251</v>
+        <v>145</v>
       </c>
       <c r="E2060" s="0">
-        <v>1.31488650591175E-03</v>
+        <v>7.59595790267744E-04</v>
       </c>
       <c r="F2060" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2060" s="0">
-        <v>1.6849199663016E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2061">
       <c r="A2061" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2061" s="1">
@@ -50852,16 +50852,16 @@
         </is>
       </c>
       <c r="D2061" s="0">
-        <v>145</v>
+        <v>23233</v>
       </c>
       <c r="E2061" s="0">
-        <v>7.59595790267744E-04</v>
+        <v>0.121708199967521</v>
       </c>
       <c r="F2061" s="0">
-        <v>2</v>
+        <v>103</v>
       </c>
       <c r="G2061" s="0">
-        <v>8.424599831508E-04</v>
+        <v>0.043</v>
       </c>
     </row>
     <row outlineLevel="0" r="2062">
@@ -50888,7 +50888,7 @@
         <v>13</v>
       </c>
       <c r="G2062" s="0">
-        <v>5.4759898904802E-03</v>
+        <v>0.005</v>
       </c>
     </row>
     <row outlineLevel="0" r="2063">
@@ -50915,7 +50915,7 @@
         <v>2220</v>
       </c>
       <c r="G2063" s="0">
-        <v>0.935130581297388</v>
+        <v>0.935</v>
       </c>
     </row>
     <row outlineLevel="0" r="2064">
@@ -50942,7 +50942,7 @@
         <v>145</v>
       </c>
       <c r="G2064" s="0">
-        <v>0.061078348778433</v>
+        <v>0.061</v>
       </c>
     </row>
     <row outlineLevel="0" r="2065">
@@ -50969,7 +50969,7 @@
         <v>9</v>
       </c>
       <c r="G2065" s="0">
-        <v>3.7910699241786E-03</v>
+        <v>0.003</v>
       </c>
     </row>
     <row outlineLevel="0" r="2066">
@@ -50996,7 +50996,7 @@
         <v>1047</v>
       </c>
       <c r="G2066" s="0">
-        <v>0.441027801179444</v>
+        <v>0.441</v>
       </c>
     </row>
     <row outlineLevel="0" r="2067">
@@ -51023,7 +51023,7 @@
         <v>1327</v>
       </c>
       <c r="G2067" s="0">
-        <v>0.558972198820556</v>
+        <v>0.558</v>
       </c>
     </row>
     <row outlineLevel="0" r="2068">
@@ -51050,6 +51050,2814 @@
         <v>0</v>
       </c>
       <c r="G2068" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2069">
+      <c r="A2069" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2069" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2069" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2069" s="0">
+        <v>104678</v>
+      </c>
+      <c r="E2069" s="0">
+        <v>0.542387108474313</v>
+      </c>
+      <c r="F2069" s="0">
+        <v>1586</v>
+      </c>
+      <c r="G2069" s="0">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2070">
+      <c r="A2070" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2070" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2070" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2070" s="0">
+        <v>34911</v>
+      </c>
+      <c r="E2070" s="0">
+        <v>0.180890696650172</v>
+      </c>
+      <c r="F2070" s="0">
+        <v>647</v>
+      </c>
+      <c r="G2070" s="0">
+        <v>0.272</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2071">
+      <c r="A2071" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2071" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2071" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2071" s="0">
+        <v>1788</v>
+      </c>
+      <c r="E2071" s="0">
+        <v>9.26448871732428E-03</v>
+      </c>
+      <c r="F2071" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2071" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2072">
+      <c r="A2072" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2072" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2072" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2072" s="0">
+        <v>256</v>
+      </c>
+      <c r="E2072" s="0">
+        <v>1.3264592346952E-03</v>
+      </c>
+      <c r="F2072" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2072" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2073">
+      <c r="A2073" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2073" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2073" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2073" s="0">
+        <v>149</v>
+      </c>
+      <c r="E2073" s="0">
+        <v>7.7204072644369E-04</v>
+      </c>
+      <c r="F2073" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2073" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2074">
+      <c r="A2074" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2074" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2074" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2074" s="0">
+        <v>23370</v>
+      </c>
+      <c r="E2074" s="0">
+        <v>0.121091219979792</v>
+      </c>
+      <c r="F2074" s="0">
+        <v>103</v>
+      </c>
+      <c r="G2074" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2075">
+      <c r="A2075" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2075" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2075" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2075" s="0">
+        <v>27843</v>
+      </c>
+      <c r="E2075" s="0">
+        <v>0.14426798621726</v>
+      </c>
+      <c r="F2075" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2075" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2076">
+      <c r="A2076" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2076" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2076" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2076" s="0">
+        <v>128013</v>
+      </c>
+      <c r="E2076" s="0">
+        <v>0.663296976605612</v>
+      </c>
+      <c r="F2076" s="0">
+        <v>2224</v>
+      </c>
+      <c r="G2076" s="0">
+        <v>0.935</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2077">
+      <c r="A2077" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2077" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2077" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2077" s="0">
+        <v>25132</v>
+      </c>
+      <c r="E2077" s="0">
+        <v>0.130220990181093</v>
+      </c>
+      <c r="F2077" s="0">
+        <v>145</v>
+      </c>
+      <c r="G2077" s="0">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2078">
+      <c r="A2078" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2078" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2078" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2078" s="0">
+        <v>39850</v>
+      </c>
+      <c r="E2078" s="0">
+        <v>0.206482033213296</v>
+      </c>
+      <c r="F2078" s="0">
+        <v>8</v>
+      </c>
+      <c r="G2078" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2079">
+      <c r="A2079" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2079" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2079" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2079" s="0">
+        <v>98608</v>
+      </c>
+      <c r="E2079" s="0">
+        <v>0.510935516464157</v>
+      </c>
+      <c r="F2079" s="0">
+        <v>1047</v>
+      </c>
+      <c r="G2079" s="0">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2080">
+      <c r="A2080" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2080" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2080" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2080" s="0">
+        <v>92587</v>
+      </c>
+      <c r="E2080" s="0">
+        <v>0.479737817041892</v>
+      </c>
+      <c r="F2080" s="0">
+        <v>1330</v>
+      </c>
+      <c r="G2080" s="0">
+        <v>0.559</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2081">
+      <c r="A2081" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2081" s="1">
+        <v>44101</v>
+      </c>
+      <c r="C2081" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2081" s="0">
+        <v>1800</v>
+      </c>
+      <c r="E2081" s="0">
+        <v>9.32666649395062E-03</v>
+      </c>
+      <c r="F2081" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2081" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2082">
+      <c r="A2082" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2082" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2082" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2082" s="0">
+        <v>105301</v>
+      </c>
+      <c r="E2082" s="0">
+        <v>0.543539528833647</v>
+      </c>
+      <c r="F2082" s="0">
+        <v>1595</v>
+      </c>
+      <c r="G2082" s="0">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2083">
+      <c r="A2083" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2083" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2083" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2083" s="0">
+        <v>35036</v>
+      </c>
+      <c r="E2083" s="0">
+        <v>0.180847769083063</v>
+      </c>
+      <c r="F2083" s="0">
+        <v>649</v>
+      </c>
+      <c r="G2083" s="0">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2084">
+      <c r="A2084" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2084" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2084" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2084" s="0">
+        <v>1798</v>
+      </c>
+      <c r="E2084" s="0">
+        <v>9.28086222203869E-03</v>
+      </c>
+      <c r="F2084" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2084" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2085">
+      <c r="A2085" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2085" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2085" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2085" s="0">
+        <v>256</v>
+      </c>
+      <c r="E2085" s="0">
+        <v>1.32141308611897E-03</v>
+      </c>
+      <c r="F2085" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2085" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2086">
+      <c r="A2086" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2086" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2086" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2086" s="0">
+        <v>149</v>
+      </c>
+      <c r="E2086" s="0">
+        <v>7.69103710280181E-04</v>
+      </c>
+      <c r="F2086" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2086" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2087">
+      <c r="A2087" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2087" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2087" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2087" s="0">
+        <v>23369</v>
+      </c>
+      <c r="E2087" s="0">
+        <v>0.120625400037165</v>
+      </c>
+      <c r="F2087" s="0">
+        <v>103</v>
+      </c>
+      <c r="G2087" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2088">
+      <c r="A2088" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2088" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2088" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2088" s="0">
+        <v>27823</v>
+      </c>
+      <c r="E2088" s="0">
+        <v>0.143615923027688</v>
+      </c>
+      <c r="F2088" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2088" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2089">
+      <c r="A2089" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2089" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2089" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2089" s="0">
+        <v>128579</v>
+      </c>
+      <c r="E2089" s="0">
+        <v>0.663695207812855</v>
+      </c>
+      <c r="F2089" s="0">
+        <v>2234</v>
+      </c>
+      <c r="G2089" s="0">
+        <v>0.935</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2090">
+      <c r="A2090" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2090" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2090" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2090" s="0">
+        <v>25170</v>
+      </c>
+      <c r="E2090" s="0">
+        <v>0.129921747568806</v>
+      </c>
+      <c r="F2090" s="0">
+        <v>146</v>
+      </c>
+      <c r="G2090" s="0">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2091">
+      <c r="A2091" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2091" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2091" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2091" s="0">
+        <v>39983</v>
+      </c>
+      <c r="E2091" s="0">
+        <v>0.206383044618339</v>
+      </c>
+      <c r="F2091" s="0">
+        <v>9</v>
+      </c>
+      <c r="G2091" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2092">
+      <c r="A2092" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2092" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2092" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2092" s="0">
+        <v>98996</v>
+      </c>
+      <c r="E2092" s="0">
+        <v>0.510994569818099</v>
+      </c>
+      <c r="F2092" s="0">
+        <v>1054</v>
+      </c>
+      <c r="G2092" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2093">
+      <c r="A2093" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2093" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2093" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2093" s="0">
+        <v>92936</v>
+      </c>
+      <c r="E2093" s="0">
+        <v>0.479714244420127</v>
+      </c>
+      <c r="F2093" s="0">
+        <v>1335</v>
+      </c>
+      <c r="G2093" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2094">
+      <c r="A2094" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2094" s="1">
+        <v>44102</v>
+      </c>
+      <c r="C2094" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2094" s="0">
+        <v>1800</v>
+      </c>
+      <c r="E2094" s="0">
+        <v>0.009291185761774</v>
+      </c>
+      <c r="F2094" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2094" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2095">
+      <c r="A2095" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2095" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2095" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2095" s="0">
+        <v>106065</v>
+      </c>
+      <c r="E2095" s="0">
+        <v>0.545010302603655</v>
+      </c>
+      <c r="F2095" s="0">
+        <v>1616</v>
+      </c>
+      <c r="G2095" s="0">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2096">
+      <c r="A2096" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2096" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2096" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2096" s="0">
+        <v>35154</v>
+      </c>
+      <c r="E2096" s="0">
+        <v>0.180637271274491</v>
+      </c>
+      <c r="F2096" s="0">
+        <v>658</v>
+      </c>
+      <c r="G2096" s="0">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2097">
+      <c r="A2097" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2097" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2097" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2097" s="0">
+        <v>1810</v>
+      </c>
+      <c r="E2097" s="0">
+        <v>9.30060479623454E-03</v>
+      </c>
+      <c r="F2097" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2097" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2098">
+      <c r="A2098" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2098" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2098" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2098" s="0">
+        <v>260</v>
+      </c>
+      <c r="E2098" s="0">
+        <v>1.33599847901712E-03</v>
+      </c>
+      <c r="F2098" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2098" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2099">
+      <c r="A2099" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2099" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2099" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2099" s="0">
+        <v>150</v>
+      </c>
+      <c r="E2099" s="0">
+        <v>7.70768353279106E-04</v>
+      </c>
+      <c r="F2099" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2099" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2100">
+      <c r="A2100" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2100" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2100" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2100" s="0">
+        <v>23364</v>
+      </c>
+      <c r="E2100" s="0">
+        <v>0.120054878706753</v>
+      </c>
+      <c r="F2100" s="0">
+        <v>104</v>
+      </c>
+      <c r="G2100" s="0">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2101">
+      <c r="A2101" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2101" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2101" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2101" s="0">
+        <v>27808</v>
+      </c>
+      <c r="E2101" s="0">
+        <v>0.142890175786569</v>
+      </c>
+      <c r="F2101" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2101" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2102">
+      <c r="A2102" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2102" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2102" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2102" s="0">
+        <v>129454</v>
+      </c>
+      <c r="E2102" s="0">
+        <v>0.665193642702622</v>
+      </c>
+      <c r="F2102" s="0">
+        <v>2258</v>
+      </c>
+      <c r="G2102" s="0">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2103">
+      <c r="A2103" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2103" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2103" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2103" s="0">
+        <v>25219</v>
+      </c>
+      <c r="E2103" s="0">
+        <v>0.129586714008972</v>
+      </c>
+      <c r="F2103" s="0">
+        <v>148</v>
+      </c>
+      <c r="G2103" s="0">
+        <v>0.061</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2104">
+      <c r="A2104" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2104" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2104" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2104" s="0">
+        <v>39938</v>
+      </c>
+      <c r="E2104" s="0">
+        <v>0.205219643288406</v>
+      </c>
+      <c r="F2104" s="0">
+        <v>14</v>
+      </c>
+      <c r="G2104" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2105">
+      <c r="A2105" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2105" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2105" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2105" s="0">
+        <v>99450</v>
+      </c>
+      <c r="E2105" s="0">
+        <v>0.511019418224047</v>
+      </c>
+      <c r="F2105" s="0">
+        <v>1073</v>
+      </c>
+      <c r="G2105" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2106">
+      <c r="A2106" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2106" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2106" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2106" s="0">
+        <v>93361</v>
+      </c>
+      <c r="E2106" s="0">
+        <v>0.479731361536604</v>
+      </c>
+      <c r="F2106" s="0">
+        <v>1347</v>
+      </c>
+      <c r="G2106" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2107">
+      <c r="A2107" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2107" s="1">
+        <v>44103</v>
+      </c>
+      <c r="C2107" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2107" s="0">
+        <v>1800</v>
+      </c>
+      <c r="E2107" s="0">
+        <v>9.24922023934927E-03</v>
+      </c>
+      <c r="F2107" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2107" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2108">
+      <c r="A2108" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2108" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2108" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2108" s="0">
+        <v>107989</v>
+      </c>
+      <c r="E2108" s="0">
+        <v>0.55057382774461</v>
+      </c>
+      <c r="F2108" s="0">
+        <v>1643</v>
+      </c>
+      <c r="G2108" s="0">
+        <v>0.669</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2109">
+      <c r="A2109" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2109" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2109" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2109" s="0">
+        <v>35639</v>
+      </c>
+      <c r="E2109" s="0">
+        <v>0.181702772013725</v>
+      </c>
+      <c r="F2109" s="0">
+        <v>667</v>
+      </c>
+      <c r="G2109" s="0">
+        <v>0.271</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2110">
+      <c r="A2110" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2110" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2110" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2110" s="0">
+        <v>1816</v>
+      </c>
+      <c r="E2110" s="0">
+        <v>9.25873997522165E-03</v>
+      </c>
+      <c r="F2110" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2110" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2111">
+      <c r="A2111" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2111" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2111" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2111" s="0">
+        <v>264</v>
+      </c>
+      <c r="E2111" s="0">
+        <v>1.34598422547275E-03</v>
+      </c>
+      <c r="F2111" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2111" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2112">
+      <c r="A2112" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2112" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2112" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2112" s="0">
+        <v>151</v>
+      </c>
+      <c r="E2112" s="0">
+        <v>7.69862189569642E-04</v>
+      </c>
+      <c r="F2112" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2112" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2113">
+      <c r="A2113" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2113" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2113" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2113" s="0">
+        <v>23518</v>
+      </c>
+      <c r="E2113" s="0">
+        <v>0.119904761419198</v>
+      </c>
+      <c r="F2113" s="0">
+        <v>105</v>
+      </c>
+      <c r="G2113" s="0">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2114">
+      <c r="A2114" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2114" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2114" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2114" s="0">
+        <v>26762</v>
+      </c>
+      <c r="E2114" s="0">
+        <v>0.136444052432204</v>
+      </c>
+      <c r="F2114" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2114" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2115">
+      <c r="A2115" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2115" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2115" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2115" s="0">
+        <v>131629</v>
+      </c>
+      <c r="E2115" s="0">
+        <v>0.671100597025579</v>
+      </c>
+      <c r="F2115" s="0">
+        <v>2290</v>
+      </c>
+      <c r="G2115" s="0">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2116">
+      <c r="A2116" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2116" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2116" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2116" s="0">
+        <v>25311</v>
+      </c>
+      <c r="E2116" s="0">
+        <v>0.1290462376172</v>
+      </c>
+      <c r="F2116" s="0">
+        <v>149</v>
+      </c>
+      <c r="G2116" s="0">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2117">
+      <c r="A2117" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2117" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2117" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2117" s="0">
+        <v>39199</v>
+      </c>
+      <c r="E2117" s="0">
+        <v>0.199853165357221</v>
+      </c>
+      <c r="F2117" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2117" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2118">
+      <c r="A2118" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2118" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2118" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2118" s="0">
+        <v>100276</v>
+      </c>
+      <c r="E2118" s="0">
+        <v>0.5112496749754</v>
+      </c>
+      <c r="F2118" s="0">
+        <v>1090</v>
+      </c>
+      <c r="G2118" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2119">
+      <c r="A2119" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2119" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2119" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2119" s="0">
+        <v>94092</v>
+      </c>
+      <c r="E2119" s="0">
+        <v>0.47972101417872</v>
+      </c>
+      <c r="F2119" s="0">
+        <v>1364</v>
+      </c>
+      <c r="G2119" s="0">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2120">
+      <c r="A2120" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2120" s="1">
+        <v>44104</v>
+      </c>
+      <c r="C2120" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2120" s="0">
+        <v>1771</v>
+      </c>
+      <c r="E2120" s="0">
+        <v>9.02931084587971E-03</v>
+      </c>
+      <c r="F2120" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2120" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2121">
+      <c r="A2121" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2121" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2121" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2121" s="0">
+        <v>108862</v>
+      </c>
+      <c r="E2121" s="0">
+        <v>0.551389845617732</v>
+      </c>
+      <c r="F2121" s="0">
+        <v>1682</v>
+      </c>
+      <c r="G2121" s="0">
+        <v>0.672</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2122">
+      <c r="A2122" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2122" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2122" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2122" s="0">
+        <v>35791</v>
+      </c>
+      <c r="E2122" s="0">
+        <v>0.181282669476073</v>
+      </c>
+      <c r="F2122" s="0">
+        <v>673</v>
+      </c>
+      <c r="G2122" s="0">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2123">
+      <c r="A2123" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2123" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2123" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2123" s="0">
+        <v>1822</v>
+      </c>
+      <c r="E2123" s="0">
+        <v>9.22849386117752E-03</v>
+      </c>
+      <c r="F2123" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2123" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2124">
+      <c r="A2124" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2124" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2124" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2124" s="0">
+        <v>264</v>
+      </c>
+      <c r="E2124" s="0">
+        <v>1.33716925321123E-03</v>
+      </c>
+      <c r="F2124" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2124" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2125">
+      <c r="A2125" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2125" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2125" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2125" s="0">
+        <v>151</v>
+      </c>
+      <c r="E2125" s="0">
+        <v>7.64820292556424E-04</v>
+      </c>
+      <c r="F2125" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2125" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2126">
+      <c r="A2126" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2126" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2126" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2126" s="0">
+        <v>23609</v>
+      </c>
+      <c r="E2126" s="0">
+        <v>0.119580412496454</v>
+      </c>
+      <c r="F2126" s="0">
+        <v>106</v>
+      </c>
+      <c r="G2126" s="0">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2127">
+      <c r="A2127" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2127" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2127" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2127" s="0">
+        <v>26933</v>
+      </c>
+      <c r="E2127" s="0">
+        <v>0.136416589002796</v>
+      </c>
+      <c r="F2127" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2127" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2128">
+      <c r="A2128" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2128" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2128" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2128" s="0">
+        <v>132560</v>
+      </c>
+      <c r="E2128" s="0">
+        <v>0.67142104623364</v>
+      </c>
+      <c r="F2128" s="0">
+        <v>2335</v>
+      </c>
+      <c r="G2128" s="0">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2129">
+      <c r="A2129" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2129" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2129" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2129" s="0">
+        <v>25358</v>
+      </c>
+      <c r="E2129" s="0">
+        <v>0.128439158798979</v>
+      </c>
+      <c r="F2129" s="0">
+        <v>150</v>
+      </c>
+      <c r="G2129" s="0">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2130">
+      <c r="A2130" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2130" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2130" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2130" s="0">
+        <v>39514</v>
+      </c>
+      <c r="E2130" s="0">
+        <v>0.200139794967381</v>
+      </c>
+      <c r="F2130" s="0">
+        <v>16</v>
+      </c>
+      <c r="G2130" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2131">
+      <c r="A2131" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2131" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2131" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2131" s="0">
+        <v>100967</v>
+      </c>
+      <c r="E2131" s="0">
+        <v>0.511401393897646</v>
+      </c>
+      <c r="F2131" s="0">
+        <v>1112</v>
+      </c>
+      <c r="G2131" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2132">
+      <c r="A2132" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2132" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2132" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2132" s="0">
+        <v>94690</v>
+      </c>
+      <c r="E2132" s="0">
+        <v>0.479608168888529</v>
+      </c>
+      <c r="F2132" s="0">
+        <v>1389</v>
+      </c>
+      <c r="G2132" s="0">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2133">
+      <c r="A2133" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2133" s="1">
+        <v>44105</v>
+      </c>
+      <c r="C2133" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2133" s="0">
+        <v>1775</v>
+      </c>
+      <c r="E2133" s="0">
+        <v>8.99043721382552E-03</v>
+      </c>
+      <c r="F2133" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2133" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2134">
+      <c r="A2134" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2134" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2134" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2134" s="0">
+        <v>109561</v>
+      </c>
+      <c r="E2134" s="0">
+        <v>0.552214432241448</v>
+      </c>
+      <c r="F2134" s="0">
+        <v>1694</v>
+      </c>
+      <c r="G2134" s="0">
+        <v>0.673</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2135">
+      <c r="A2135" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2135" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2135" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2135" s="0">
+        <v>35919</v>
+      </c>
+      <c r="E2135" s="0">
+        <v>0.181040609264981</v>
+      </c>
+      <c r="F2135" s="0">
+        <v>674</v>
+      </c>
+      <c r="G2135" s="0">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2136">
+      <c r="A2136" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2136" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2136" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2136" s="0">
+        <v>1831</v>
+      </c>
+      <c r="E2136" s="0">
+        <v>9.22869109842089E-03</v>
+      </c>
+      <c r="F2136" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2136" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2137">
+      <c r="A2137" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2137" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2137" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2137" s="0">
+        <v>264</v>
+      </c>
+      <c r="E2137" s="0">
+        <v>0.001330625040952</v>
+      </c>
+      <c r="F2137" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2137" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2138">
+      <c r="A2138" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2138" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2138" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2138" s="0">
+        <v>151</v>
+      </c>
+      <c r="E2138" s="0">
+        <v>7.61077201453607E-04</v>
+      </c>
+      <c r="F2138" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2138" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2139">
+      <c r="A2139" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2139" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2139" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2139" s="0">
+        <v>23584</v>
+      </c>
+      <c r="E2139" s="0">
+        <v>0.118869170325045</v>
+      </c>
+      <c r="F2139" s="0">
+        <v>105</v>
+      </c>
+      <c r="G2139" s="0">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2140">
+      <c r="A2140" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2140" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2140" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2140" s="0">
+        <v>27093</v>
+      </c>
+      <c r="E2140" s="0">
+        <v>0.136555394827699</v>
+      </c>
+      <c r="F2140" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2140" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2141">
+      <c r="A2141" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2141" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2141" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2141" s="0">
+        <v>133419</v>
+      </c>
+      <c r="E2141" s="0">
+        <v>0.672464630071118</v>
+      </c>
+      <c r="F2141" s="0">
+        <v>2347</v>
+      </c>
+      <c r="G2141" s="0">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2142">
+      <c r="A2142" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2142" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2142" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2142" s="0">
+        <v>25408</v>
+      </c>
+      <c r="E2142" s="0">
+        <v>0.128062579698896</v>
+      </c>
+      <c r="F2142" s="0">
+        <v>149</v>
+      </c>
+      <c r="G2142" s="0">
+        <v>0.059</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2143">
+      <c r="A2143" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2143" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2143" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2143" s="0">
+        <v>39576</v>
+      </c>
+      <c r="E2143" s="0">
+        <v>0.199472790229986</v>
+      </c>
+      <c r="F2143" s="0">
+        <v>19</v>
+      </c>
+      <c r="G2143" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2144">
+      <c r="A2144" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2144" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2144" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2144" s="0">
+        <v>101515</v>
+      </c>
+      <c r="E2144" s="0">
+        <v>0.511660609970615</v>
+      </c>
+      <c r="F2144" s="0">
+        <v>1118</v>
+      </c>
+      <c r="G2144" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2145">
+      <c r="A2145" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2145" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2145" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2145" s="0">
+        <v>95114</v>
+      </c>
+      <c r="E2145" s="0">
+        <v>0.479397992973897</v>
+      </c>
+      <c r="F2145" s="0">
+        <v>1396</v>
+      </c>
+      <c r="G2145" s="0">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2146">
+      <c r="A2146" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2146" s="1">
+        <v>44106</v>
+      </c>
+      <c r="C2146" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2146" s="0">
+        <v>1774</v>
+      </c>
+      <c r="E2146" s="0">
+        <v>8.94139705548807E-03</v>
+      </c>
+      <c r="F2146" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2146" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2147">
+      <c r="A2147" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2147" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2147" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2147" s="0">
+        <v>110266</v>
+      </c>
+      <c r="E2147" s="0">
+        <v>0.552448708634986</v>
+      </c>
+      <c r="F2147" s="0">
+        <v>1731</v>
+      </c>
+      <c r="G2147" s="0">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2148">
+      <c r="A2148" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2148" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2148" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2148" s="0">
+        <v>36035</v>
+      </c>
+      <c r="E2148" s="0">
+        <v>0.180540594704276</v>
+      </c>
+      <c r="F2148" s="0">
+        <v>684</v>
+      </c>
+      <c r="G2148" s="0">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2149">
+      <c r="A2149" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2149" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2149" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2149" s="0">
+        <v>1835</v>
+      </c>
+      <c r="E2149" s="0">
+        <v>9.19361707457602E-03</v>
+      </c>
+      <c r="F2149" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2149" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2150">
+      <c r="A2150" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2150" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2150" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2150" s="0">
+        <v>266</v>
+      </c>
+      <c r="E2150" s="0">
+        <v>1.33269871489767E-03</v>
+      </c>
+      <c r="F2150" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2150" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2151">
+      <c r="A2151" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2151" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2151" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2151" s="0">
+        <v>152</v>
+      </c>
+      <c r="E2151" s="0">
+        <v>7.61542122798667E-04</v>
+      </c>
+      <c r="F2151" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2151" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2152">
+      <c r="A2152" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2152" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2152" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2152" s="0">
+        <v>23666</v>
+      </c>
+      <c r="E2152" s="0">
+        <v>0.118570104461535</v>
+      </c>
+      <c r="F2152" s="0">
+        <v>105</v>
+      </c>
+      <c r="G2152" s="0">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2153">
+      <c r="A2153" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2153" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2153" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2153" s="0">
+        <v>27375</v>
+      </c>
+      <c r="E2153" s="0">
+        <v>0.137152734286931</v>
+      </c>
+      <c r="F2153" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2153" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2154">
+      <c r="A2154" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2154" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2154" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2154" s="0">
+        <v>134097</v>
+      </c>
+      <c r="E2154" s="0">
+        <v>0.671845487111401</v>
+      </c>
+      <c r="F2154" s="0">
+        <v>2400</v>
+      </c>
+      <c r="G2154" s="0">
+        <v>0.937</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2155">
+      <c r="A2155" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2155" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2155" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2155" s="0">
+        <v>25460</v>
+      </c>
+      <c r="E2155" s="0">
+        <v>0.127558305568777</v>
+      </c>
+      <c r="F2155" s="0">
+        <v>150</v>
+      </c>
+      <c r="G2155" s="0">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2156">
+      <c r="A2156" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2156" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2156" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2156" s="0">
+        <v>40038</v>
+      </c>
+      <c r="E2156" s="0">
+        <v>0.200596207319823</v>
+      </c>
+      <c r="F2156" s="0">
+        <v>10</v>
+      </c>
+      <c r="G2156" s="0">
+        <v>0.003</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2157">
+      <c r="A2157" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2157" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2157" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2157" s="0">
+        <v>102160</v>
+      </c>
+      <c r="E2157" s="0">
+        <v>0.51183646884942</v>
+      </c>
+      <c r="F2157" s="0">
+        <v>1143</v>
+      </c>
+      <c r="G2157" s="0">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2158">
+      <c r="A2158" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2158" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2158" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2158" s="0">
+        <v>95666</v>
+      </c>
+      <c r="E2158" s="0">
+        <v>0.479300583681956</v>
+      </c>
+      <c r="F2158" s="0">
+        <v>1417</v>
+      </c>
+      <c r="G2158" s="0">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2159">
+      <c r="A2159" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2159" s="1">
+        <v>44107</v>
+      </c>
+      <c r="C2159" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2159" s="0">
+        <v>1769</v>
+      </c>
+      <c r="E2159" s="0">
+        <v>8.86294746862396E-03</v>
+      </c>
+      <c r="F2159" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2159" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2160">
+      <c r="A2160" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2160" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2160" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2160" s="0">
+        <v>111153</v>
+      </c>
+      <c r="E2160" s="0">
+        <v>0.552422841807067</v>
+      </c>
+      <c r="F2160" s="0">
+        <v>1740</v>
+      </c>
+      <c r="G2160" s="0">
+        <v>0.675203725261933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2161">
+      <c r="A2161" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2161" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2161" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2161" s="0">
+        <v>36155</v>
+      </c>
+      <c r="E2161" s="0">
+        <v>0.179687888275931</v>
+      </c>
+      <c r="F2161" s="0">
+        <v>690</v>
+      </c>
+      <c r="G2161" s="0">
+        <v>0.267753201396973</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2162">
+      <c r="A2162" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2162" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2162" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2162" s="0">
+        <v>23825</v>
+      </c>
+      <c r="E2162" s="0">
+        <v>0.118408627801799</v>
+      </c>
+      <c r="F2162" s="0">
+        <v>106</v>
+      </c>
+      <c r="G2162" s="0">
+        <v>4.11331005044626E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2163">
+      <c r="A2163" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2163" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2163" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2163" s="0">
+        <v>1846</v>
+      </c>
+      <c r="E2163" s="0">
+        <v>9.17449430942796E-03</v>
+      </c>
+      <c r="F2163" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2163" s="0">
+        <v>8.92510671323244E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2164">
+      <c r="A2164" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2164" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2164" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2164" s="0">
+        <v>267</v>
+      </c>
+      <c r="E2164" s="0">
+        <v>1.32697182048606E-03</v>
+      </c>
+      <c r="F2164" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2164" s="0">
+        <v>1.55219247186651E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2165">
+      <c r="A2165" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2165" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2165" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2165" s="0">
+        <v>152</v>
+      </c>
+      <c r="E2165" s="0">
+        <v>7.55429650613787E-04</v>
+      </c>
+      <c r="F2165" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2165" s="0">
+        <v>7.76096235933256E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2166">
+      <c r="A2166" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2166" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2166" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2166" s="0">
+        <v>27812</v>
+      </c>
+      <c r="E2166" s="0">
+        <v>0.138223746334675</v>
+      </c>
+      <c r="F2166" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2166" s="0">
+        <v>4.65657741559953E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2167">
+      <c r="A2167" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2167" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2167" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2167" s="0">
+        <v>134818</v>
+      </c>
+      <c r="E2167" s="0">
+        <v>0.670036280502957</v>
+      </c>
+      <c r="F2167" s="0">
+        <v>2415</v>
+      </c>
+      <c r="G2167" s="0">
+        <v>0.937136204889406</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2168">
+      <c r="A2168" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2168" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2168" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2168" s="0">
+        <v>25508</v>
+      </c>
+      <c r="E2168" s="0">
+        <v>0.126773023209582</v>
+      </c>
+      <c r="F2168" s="0">
+        <v>151</v>
+      </c>
+      <c r="G2168" s="0">
+        <v>5.85952658129608E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2169">
+      <c r="A2169" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2169" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2169" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2169" s="0">
+        <v>40884</v>
+      </c>
+      <c r="E2169" s="0">
+        <v>0.203190696287461</v>
+      </c>
+      <c r="F2169" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2169" s="0">
+        <v>4.26852929763291E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2170">
+      <c r="A2170" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2170" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2170" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2170" s="0">
+        <v>103031</v>
+      </c>
+      <c r="E2170" s="0">
+        <v>0.512057054818349</v>
+      </c>
+      <c r="F2170" s="0">
+        <v>1151</v>
+      </c>
+      <c r="G2170" s="0">
+        <v>0.446643383779589</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2171">
+      <c r="A2171" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2171" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2171" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2171" s="0">
+        <v>96394</v>
+      </c>
+      <c r="E2171" s="0">
+        <v>0.479071616718851</v>
+      </c>
+      <c r="F2171" s="0">
+        <v>1426</v>
+      </c>
+      <c r="G2171" s="0">
+        <v>0.553356616220411</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2172">
+      <c r="A2172" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2172" s="1">
+        <v>44108</v>
+      </c>
+      <c r="C2172" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2172" s="0">
+        <v>1785</v>
+      </c>
+      <c r="E2172" s="0">
+        <v>8.87132846280006E-03</v>
+      </c>
+      <c r="F2172" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2172" s="0">
         <v>0</v>
       </c>
     </row>
@@ -51482,11 +54290,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-639</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-749</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-639</Url>
-      <Description>HJYU5V3E37X6-122305290-639</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-749</Url>
+      <Description>HJYU5V3E37X6-122305290-749</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -51509,17 +54317,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{81F50FD0-6361-4E4A-AE47-534DD502FC29}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1C582D5-22FE-41AB-81A2-20E022742470}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D1CC1671-81D8-40FC-9468-6C3A3EE78B59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7797002-4D67-4F85-BCE4-387BA470EC94}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5A51F40D-61AF-4DF6-BACA-024F291E97B7}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4380D5-F99E-4084-BFA2-A0A3C75D2D8A}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9BBB3C32-9665-46C6-AC2C-C4A125F57698}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE171F6D-6F4D-43C1-BB7C-9B62D7D6F5D2}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2172</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2237</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2172"/>
+  <dimension ref="A1:G2237"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -53534,7 +53534,7 @@
         <v>1740</v>
       </c>
       <c r="G2160" s="0">
-        <v>0.675203725261933</v>
+        <v>0.675</v>
       </c>
     </row>
     <row outlineLevel="0" r="2161">
@@ -53561,13 +53561,13 @@
         <v>690</v>
       </c>
       <c r="G2161" s="0">
-        <v>0.267753201396973</v>
+        <v>0.267</v>
       </c>
     </row>
     <row outlineLevel="0" r="2162">
       <c r="A2162" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2162" s="1">
@@ -53579,22 +53579,22 @@
         </is>
       </c>
       <c r="D2162" s="0">
-        <v>23825</v>
+        <v>1846</v>
       </c>
       <c r="E2162" s="0">
-        <v>0.118408627801799</v>
+        <v>9.17449430942796E-03</v>
       </c>
       <c r="F2162" s="0">
-        <v>106</v>
+        <v>23</v>
       </c>
       <c r="G2162" s="0">
-        <v>4.11331005044626E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2163">
       <c r="A2163" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2163" s="1">
@@ -53606,22 +53606,22 @@
         </is>
       </c>
       <c r="D2163" s="0">
-        <v>1846</v>
+        <v>267</v>
       </c>
       <c r="E2163" s="0">
-        <v>9.17449430942796E-03</v>
+        <v>1.32697182048606E-03</v>
       </c>
       <c r="F2163" s="0">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2163" s="0">
-        <v>8.92510671323244E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2164">
       <c r="A2164" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2164" s="1">
@@ -53633,22 +53633,22 @@
         </is>
       </c>
       <c r="D2164" s="0">
-        <v>267</v>
+        <v>152</v>
       </c>
       <c r="E2164" s="0">
-        <v>1.32697182048606E-03</v>
+        <v>7.55429650613787E-04</v>
       </c>
       <c r="F2164" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2164" s="0">
-        <v>1.55219247186651E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2165">
       <c r="A2165" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2165" s="1">
@@ -53660,16 +53660,16 @@
         </is>
       </c>
       <c r="D2165" s="0">
-        <v>152</v>
+        <v>23825</v>
       </c>
       <c r="E2165" s="0">
-        <v>7.55429650613787E-04</v>
+        <v>0.118408627801799</v>
       </c>
       <c r="F2165" s="0">
-        <v>2</v>
+        <v>106</v>
       </c>
       <c r="G2165" s="0">
-        <v>7.76096235933256E-04</v>
+        <v>0.041</v>
       </c>
     </row>
     <row outlineLevel="0" r="2166">
@@ -53696,7 +53696,7 @@
         <v>12</v>
       </c>
       <c r="G2166" s="0">
-        <v>4.65657741559953E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="2167">
@@ -53723,7 +53723,7 @@
         <v>2415</v>
       </c>
       <c r="G2167" s="0">
-        <v>0.937136204889406</v>
+        <v>0.937</v>
       </c>
     </row>
     <row outlineLevel="0" r="2168">
@@ -53750,7 +53750,7 @@
         <v>151</v>
       </c>
       <c r="G2168" s="0">
-        <v>5.85952658129608E-02</v>
+        <v>0.058</v>
       </c>
     </row>
     <row outlineLevel="0" r="2169">
@@ -53777,7 +53777,7 @@
         <v>11</v>
       </c>
       <c r="G2169" s="0">
-        <v>4.26852929763291E-03</v>
+        <v>0.004</v>
       </c>
     </row>
     <row outlineLevel="0" r="2170">
@@ -53804,7 +53804,7 @@
         <v>1151</v>
       </c>
       <c r="G2170" s="0">
-        <v>0.446643383779589</v>
+        <v>0.446</v>
       </c>
     </row>
     <row outlineLevel="0" r="2171">
@@ -53831,7 +53831,7 @@
         <v>1426</v>
       </c>
       <c r="G2171" s="0">
-        <v>0.553356616220411</v>
+        <v>0.553</v>
       </c>
     </row>
     <row outlineLevel="0" r="2172">
@@ -53858,6 +53858,1761 @@
         <v>0</v>
       </c>
       <c r="G2172" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2173">
+      <c r="A2173" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2173" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2173" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2173" s="0">
+        <v>112368</v>
+      </c>
+      <c r="E2173" s="0">
+        <v>0.551637465083285</v>
+      </c>
+      <c r="F2173" s="0">
+        <v>1757</v>
+      </c>
+      <c r="G2173" s="0">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2174">
+      <c r="A2174" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2174" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2174" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2174" s="0">
+        <v>36354</v>
+      </c>
+      <c r="E2174" s="0">
+        <v>0.178469211925439</v>
+      </c>
+      <c r="F2174" s="0">
+        <v>691</v>
+      </c>
+      <c r="G2174" s="0">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2175">
+      <c r="A2175" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2175" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2175" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2175" s="0">
+        <v>1861</v>
+      </c>
+      <c r="E2175" s="0">
+        <v>9.13602914103653E-03</v>
+      </c>
+      <c r="F2175" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2175" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2176">
+      <c r="A2176" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2176" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2176" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2176" s="0">
+        <v>268</v>
+      </c>
+      <c r="E2176" s="0">
+        <v>1.31566674357753E-03</v>
+      </c>
+      <c r="F2176" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2176" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2177">
+      <c r="A2177" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2177" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2177" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2177" s="0">
+        <v>156</v>
+      </c>
+      <c r="E2177" s="0">
+        <v>7.65835865664534E-04</v>
+      </c>
+      <c r="F2177" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2177" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2178">
+      <c r="A2178" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2178" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2178" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2178" s="0">
+        <v>23993</v>
+      </c>
+      <c r="E2178" s="0">
+        <v>0.117786537980059</v>
+      </c>
+      <c r="F2178" s="0">
+        <v>107</v>
+      </c>
+      <c r="G2178" s="0">
+        <v>0.041</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2179">
+      <c r="A2179" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2179" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2179" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2179" s="0">
+        <v>28699</v>
+      </c>
+      <c r="E2179" s="0">
+        <v>0.140889253260939</v>
+      </c>
+      <c r="F2179" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2179" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2180">
+      <c r="A2180" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2180" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2180" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2180" s="0">
+        <v>135812</v>
+      </c>
+      <c r="E2180" s="0">
+        <v>0.666728849920716</v>
+      </c>
+      <c r="F2180" s="0">
+        <v>2434</v>
+      </c>
+      <c r="G2180" s="0">
+        <v>0.937</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2181">
+      <c r="A2181" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2181" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2181" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2181" s="0">
+        <v>25581</v>
+      </c>
+      <c r="E2181" s="0">
+        <v>0.125582354356182</v>
+      </c>
+      <c r="F2181" s="0">
+        <v>151</v>
+      </c>
+      <c r="G2181" s="0">
+        <v>0.058</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2182">
+      <c r="A2182" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2182" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2182" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2182" s="0">
+        <v>42306</v>
+      </c>
+      <c r="E2182" s="0">
+        <v>0.207688795723101</v>
+      </c>
+      <c r="F2182" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2182" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2183">
+      <c r="A2183" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2183" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2183" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2183" s="0">
+        <v>104372</v>
+      </c>
+      <c r="E2183" s="0">
+        <v>0.51238346776371</v>
+      </c>
+      <c r="F2183" s="0">
+        <v>1159</v>
+      </c>
+      <c r="G2183" s="0">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2184">
+      <c r="A2184" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2184" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2184" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2184" s="0">
+        <v>97521</v>
+      </c>
+      <c r="E2184" s="0">
+        <v>0.478750509329943</v>
+      </c>
+      <c r="F2184" s="0">
+        <v>1438</v>
+      </c>
+      <c r="G2184" s="0">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2185">
+      <c r="A2185" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2185" s="1">
+        <v>44109</v>
+      </c>
+      <c r="C2185" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2185" s="0">
+        <v>1806</v>
+      </c>
+      <c r="E2185" s="0">
+        <v>8.86602290634711E-03</v>
+      </c>
+      <c r="F2185" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2185" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2186">
+      <c r="A2186" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2186" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2186" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2186" s="0">
+        <v>113407</v>
+      </c>
+      <c r="E2186" s="0">
+        <v>0.55219476567255</v>
+      </c>
+      <c r="F2186" s="0">
+        <v>1778</v>
+      </c>
+      <c r="G2186" s="0">
+        <v>0.678</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2187">
+      <c r="A2187" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2187" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2187" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2187" s="0">
+        <v>36534</v>
+      </c>
+      <c r="E2187" s="0">
+        <v>0.177889227023737</v>
+      </c>
+      <c r="F2187" s="0">
+        <v>694</v>
+      </c>
+      <c r="G2187" s="0">
+        <v>0.264</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2188">
+      <c r="A2188" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2188" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2188" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2188" s="0">
+        <v>1877</v>
+      </c>
+      <c r="E2188" s="0">
+        <v>9.13937918441875E-03</v>
+      </c>
+      <c r="F2188" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2188" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2189">
+      <c r="A2189" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2189" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2189" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2189" s="0">
+        <v>267</v>
+      </c>
+      <c r="E2189" s="0">
+        <v>1.30006086427267E-03</v>
+      </c>
+      <c r="F2189" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2189" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2190">
+      <c r="A2190" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2190" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2190" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2190" s="0">
+        <v>158</v>
+      </c>
+      <c r="E2190" s="0">
+        <v>7.69324406573341E-04</v>
+      </c>
+      <c r="F2190" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2190" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2191">
+      <c r="A2191" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2191" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2191" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2191" s="0">
+        <v>24040</v>
+      </c>
+      <c r="E2191" s="0">
+        <v>0.117054169202678</v>
+      </c>
+      <c r="F2191" s="0">
+        <v>107</v>
+      </c>
+      <c r="G2191" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2192">
+      <c r="A2192" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2192" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2192" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2192" s="0">
+        <v>29092</v>
+      </c>
+      <c r="E2192" s="0">
+        <v>0.14165307364577</v>
+      </c>
+      <c r="F2192" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2192" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2193">
+      <c r="A2193" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2193" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2193" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2193" s="0">
+        <v>136836</v>
+      </c>
+      <c r="E2193" s="0">
+        <v>0.666273889227024</v>
+      </c>
+      <c r="F2193" s="0">
+        <v>2459</v>
+      </c>
+      <c r="G2193" s="0">
+        <v>0.938</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2194">
+      <c r="A2194" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2194" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2194" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2194" s="0">
+        <v>25622</v>
+      </c>
+      <c r="E2194" s="0">
+        <v>0.124757151552039</v>
+      </c>
+      <c r="F2194" s="0">
+        <v>150</v>
+      </c>
+      <c r="G2194" s="0">
+        <v>0.057</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2195">
+      <c r="A2195" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2195" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2195" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2195" s="0">
+        <v>42917</v>
+      </c>
+      <c r="E2195" s="0">
+        <v>0.208968959220937</v>
+      </c>
+      <c r="F2195" s="0">
+        <v>12</v>
+      </c>
+      <c r="G2195" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2196">
+      <c r="A2196" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2196" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2196" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2196" s="0">
+        <v>105239</v>
+      </c>
+      <c r="E2196" s="0">
+        <v>0.512423615337797</v>
+      </c>
+      <c r="F2196" s="0">
+        <v>1168</v>
+      </c>
+      <c r="G2196" s="0">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2197">
+      <c r="A2197" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2197" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2197" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2197" s="0">
+        <v>98319</v>
+      </c>
+      <c r="E2197" s="0">
+        <v>0.47872915398661</v>
+      </c>
+      <c r="F2197" s="0">
+        <v>1453</v>
+      </c>
+      <c r="G2197" s="0">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2198">
+      <c r="A2198" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2198" s="1">
+        <v>44110</v>
+      </c>
+      <c r="C2198" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2198" s="0">
+        <v>1817</v>
+      </c>
+      <c r="E2198" s="0">
+        <v>8.84723067559343E-03</v>
+      </c>
+      <c r="F2198" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2198" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2199">
+      <c r="A2199" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2199" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2199" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2199" s="0">
+        <v>115336</v>
+      </c>
+      <c r="E2199" s="0">
+        <v>0.555956713504133</v>
+      </c>
+      <c r="F2199" s="0">
+        <v>1798</v>
+      </c>
+      <c r="G2199" s="0">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2200">
+      <c r="A2200" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2200" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2200" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2200" s="0">
+        <v>36948</v>
+      </c>
+      <c r="E2200" s="0">
+        <v>0.178101274975296</v>
+      </c>
+      <c r="F2200" s="0">
+        <v>695</v>
+      </c>
+      <c r="G2200" s="0">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2201">
+      <c r="A2201" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2201" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2201" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2201" s="0">
+        <v>1880</v>
+      </c>
+      <c r="E2201" s="0">
+        <v>9.0622062615989E-03</v>
+      </c>
+      <c r="F2201" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2201" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2202">
+      <c r="A2202" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2202" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2202" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2202" s="0">
+        <v>272</v>
+      </c>
+      <c r="E2202" s="0">
+        <v>1.3111277144441E-03</v>
+      </c>
+      <c r="F2202" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2202" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2203">
+      <c r="A2203" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2203" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2203" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2203" s="0">
+        <v>159</v>
+      </c>
+      <c r="E2203" s="0">
+        <v>7.66431274252247E-04</v>
+      </c>
+      <c r="F2203" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2203" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2204">
+      <c r="A2204" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2204" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2204" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2204" s="0">
+        <v>24178</v>
+      </c>
+      <c r="E2204" s="0">
+        <v>0.116545756911137</v>
+      </c>
+      <c r="F2204" s="0">
+        <v>107</v>
+      </c>
+      <c r="G2204" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2205">
+      <c r="A2205" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2205" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2205" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2205" s="0">
+        <v>28682</v>
+      </c>
+      <c r="E2205" s="0">
+        <v>0.138256489359138</v>
+      </c>
+      <c r="F2205" s="0">
+        <v>13</v>
+      </c>
+      <c r="G2205" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2206">
+      <c r="A2206" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2206" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2206" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2206" s="0">
+        <v>139679</v>
+      </c>
+      <c r="E2206" s="0">
+        <v>0.6732978236244</v>
+      </c>
+      <c r="F2206" s="0">
+        <v>2481</v>
+      </c>
+      <c r="G2206" s="0">
+        <v>0.939</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2207">
+      <c r="A2207" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2207" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2207" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2207" s="0">
+        <v>25735</v>
+      </c>
+      <c r="E2207" s="0">
+        <v>0.124050999011834</v>
+      </c>
+      <c r="F2207" s="0">
+        <v>150</v>
+      </c>
+      <c r="G2207" s="0">
+        <v>0.056</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2208">
+      <c r="A2208" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2208" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2208" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2208" s="0">
+        <v>42041</v>
+      </c>
+      <c r="E2208" s="0">
+        <v>0.202651177363766</v>
+      </c>
+      <c r="F2208" s="0">
+        <v>11</v>
+      </c>
+      <c r="G2208" s="0">
+        <v>0.004</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2209">
+      <c r="A2209" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2209" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2209" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2209" s="0">
+        <v>106246</v>
+      </c>
+      <c r="E2209" s="0">
+        <v>0.512139982164807</v>
+      </c>
+      <c r="F2209" s="0">
+        <v>1170</v>
+      </c>
+      <c r="G2209" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2210">
+      <c r="A2210" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2210" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2210" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2210" s="0">
+        <v>99410</v>
+      </c>
+      <c r="E2210" s="0">
+        <v>0.47918825769444</v>
+      </c>
+      <c r="F2210" s="0">
+        <v>1472</v>
+      </c>
+      <c r="G2210" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2211">
+      <c r="A2211" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2211" s="1">
+        <v>44111</v>
+      </c>
+      <c r="C2211" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2211" s="0">
+        <v>1799</v>
+      </c>
+      <c r="E2211" s="0">
+        <v>8.67176014075342E-03</v>
+      </c>
+      <c r="F2211" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2211" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2212">
+      <c r="A2212" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2212" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2212" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2212" s="0">
+        <v>116545</v>
+      </c>
+      <c r="E2212" s="0">
+        <v>0.556441486390352</v>
+      </c>
+      <c r="F2212" s="0">
+        <v>1826</v>
+      </c>
+      <c r="G2212" s="0">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2213">
+      <c r="A2213" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2213" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2213" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2213" s="0">
+        <v>37106</v>
+      </c>
+      <c r="E2213" s="0">
+        <v>0.177161764073966</v>
+      </c>
+      <c r="F2213" s="0">
+        <v>725</v>
+      </c>
+      <c r="G2213" s="0">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2214">
+      <c r="A2214" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2214" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2214" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2214" s="0">
+        <v>1889</v>
+      </c>
+      <c r="E2214" s="0">
+        <v>9.01898809722746E-03</v>
+      </c>
+      <c r="F2214" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2214" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2215">
+      <c r="A2215" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2215" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2215" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2215" s="0">
+        <v>274</v>
+      </c>
+      <c r="E2215" s="0">
+        <v>1.3082068494655E-03</v>
+      </c>
+      <c r="F2215" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2215" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2216">
+      <c r="A2216" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2216" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2216" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2216" s="0">
+        <v>161</v>
+      </c>
+      <c r="E2216" s="0">
+        <v>7.686908859998E-04</v>
+      </c>
+      <c r="F2216" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2216" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2217">
+      <c r="A2217" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2217" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2217" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2217" s="0">
+        <v>24321</v>
+      </c>
+      <c r="E2217" s="0">
+        <v>0.116120068561498</v>
+      </c>
+      <c r="F2217" s="0">
+        <v>110</v>
+      </c>
+      <c r="G2217" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2218">
+      <c r="A2218" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2218" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2218" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2218" s="0">
+        <v>29151</v>
+      </c>
+      <c r="E2218" s="0">
+        <v>0.139180795141492</v>
+      </c>
+      <c r="F2218" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2218" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2219">
+      <c r="A2219" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2219" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2219" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2219" s="0">
+        <v>140713</v>
+      </c>
+      <c r="E2219" s="0">
+        <v>0.671831059886272</v>
+      </c>
+      <c r="F2219" s="0">
+        <v>2539</v>
+      </c>
+      <c r="G2219" s="0">
+        <v>0.938</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2220">
+      <c r="A2220" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2220" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2220" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2220" s="0">
+        <v>25791</v>
+      </c>
+      <c r="E2220" s="0">
+        <v>0.123138550564105</v>
+      </c>
+      <c r="F2220" s="0">
+        <v>151</v>
+      </c>
+      <c r="G2220" s="0">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2221">
+      <c r="A2221" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2221" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2221" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2221" s="0">
+        <v>42943</v>
+      </c>
+      <c r="E2221" s="0">
+        <v>0.205030389549624</v>
+      </c>
+      <c r="F2221" s="0">
+        <v>15</v>
+      </c>
+      <c r="G2221" s="0">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2222">
+      <c r="A2222" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2222" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2222" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2222" s="0">
+        <v>107299</v>
+      </c>
+      <c r="E2222" s="0">
+        <v>0.51229666693722</v>
+      </c>
+      <c r="F2222" s="0">
+        <v>1200</v>
+      </c>
+      <c r="G2222" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2223">
+      <c r="A2223" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2223" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2223" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2223" s="0">
+        <v>100337</v>
+      </c>
+      <c r="E2223" s="0">
+        <v>0.47905675421467</v>
+      </c>
+      <c r="F2223" s="0">
+        <v>1505</v>
+      </c>
+      <c r="G2223" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2224">
+      <c r="A2224" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2224" s="1">
+        <v>44112</v>
+      </c>
+      <c r="C2224" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2224" s="0">
+        <v>1811</v>
+      </c>
+      <c r="E2224" s="0">
+        <v>8.64657884810955E-03</v>
+      </c>
+      <c r="F2224" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2224" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2225">
+      <c r="A2225" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2225" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2225" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2225" s="0">
+        <v>117751</v>
+      </c>
+      <c r="E2225" s="0">
+        <v>0.558053676961939</v>
+      </c>
+      <c r="F2225" s="0">
+        <v>1845</v>
+      </c>
+      <c r="G2225" s="0">
+        <v>0.675329428989751</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2226">
+      <c r="A2226" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2226" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2226" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2226" s="0">
+        <v>37390</v>
+      </c>
+      <c r="E2226" s="0">
+        <v>0.177201272019829</v>
+      </c>
+      <c r="F2226" s="0">
+        <v>730</v>
+      </c>
+      <c r="G2226" s="0">
+        <v>0.267203513909224</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2227">
+      <c r="A2227" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2227" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2227" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2227" s="0">
+        <v>24616</v>
+      </c>
+      <c r="E2227" s="0">
+        <v>0.116661848409738</v>
+      </c>
+      <c r="F2227" s="0">
+        <v>111</v>
+      </c>
+      <c r="G2227" s="0">
+        <v>4.06295754026354E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2228">
+      <c r="A2228" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2228" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2228" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2228" s="0">
+        <v>1903</v>
+      </c>
+      <c r="E2228" s="0">
+        <v>9.0188291161737E-03</v>
+      </c>
+      <c r="F2228" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2228" s="0">
+        <v>8.41874084919473E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2229">
+      <c r="A2229" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2229" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2229" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2229" s="0">
+        <v>276</v>
+      </c>
+      <c r="E2229" s="0">
+        <v>1.30803827433733E-03</v>
+      </c>
+      <c r="F2229" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2229" s="0">
+        <v>1.46412884333821E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2230">
+      <c r="A2230" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2230" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2230" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2230" s="0">
+        <v>160</v>
+      </c>
+      <c r="E2230" s="0">
+        <v>7.58283057586859E-04</v>
+      </c>
+      <c r="F2230" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2230" s="0">
+        <v>7.32064421669107E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2231">
+      <c r="A2231" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2231" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2231" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2231" s="0">
+        <v>28907</v>
+      </c>
+      <c r="E2231" s="0">
+        <v>0.136998052160396</v>
+      </c>
+      <c r="F2231" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2231" s="0">
+        <v>6.22254758418741E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2232">
+      <c r="A2232" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2232" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2232" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2232" s="0">
+        <v>142023</v>
+      </c>
+      <c r="E2232" s="0">
+        <v>0.673085216797865</v>
+      </c>
+      <c r="F2232" s="0">
+        <v>2563</v>
+      </c>
+      <c r="G2232" s="0">
+        <v>0.93814055636896</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2233">
+      <c r="A2233" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2233" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2233" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2233" s="0">
+        <v>25920</v>
+      </c>
+      <c r="E2233" s="0">
+        <v>0.122841855329071</v>
+      </c>
+      <c r="F2233" s="0">
+        <v>152</v>
+      </c>
+      <c r="G2233" s="0">
+        <v>5.56368960468521E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2234">
+      <c r="A2234" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2234" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2234" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2234" s="0">
+        <v>43060</v>
+      </c>
+      <c r="E2234" s="0">
+        <v>0.204072927873063</v>
+      </c>
+      <c r="F2234" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2234" s="0">
+        <v>6.22254758418741E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2235">
+      <c r="A2235" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2235" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2235" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2235" s="0">
+        <v>108152</v>
+      </c>
+      <c r="E2235" s="0">
+        <v>0.512561432775837</v>
+      </c>
+      <c r="F2235" s="0">
+        <v>1208</v>
+      </c>
+      <c r="G2235" s="0">
+        <v>0.442166910688141</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2236">
+      <c r="A2236" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2236" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2236" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2236" s="0">
+        <v>101043</v>
+      </c>
+      <c r="E2236" s="0">
+        <v>0.478869968673431</v>
+      </c>
+      <c r="F2236" s="0">
+        <v>1524</v>
+      </c>
+      <c r="G2236" s="0">
+        <v>0.557833089311859</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2237">
+      <c r="A2237" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2237" s="1">
+        <v>44113</v>
+      </c>
+      <c r="C2237" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2237" s="0">
+        <v>1808</v>
+      </c>
+      <c r="E2237" s="0">
+        <v>8.56859855073151E-03</v>
+      </c>
+      <c r="F2237" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2237" s="0">
         <v>0</v>
       </c>
     </row>
@@ -54290,11 +56045,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-749</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-824</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-749</Url>
-      <Description>HJYU5V3E37X6-122305290-749</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-824</Url>
+      <Description>HJYU5V3E37X6-122305290-824</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -54317,17 +56072,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B1C582D5-22FE-41AB-81A2-20E022742470}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AF0A36B-8583-430C-A28E-05B900054D4D}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E7797002-4D67-4F85-BCE4-387BA470EC94}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5ACD1E1-0B27-4066-884C-DA8BC1C73073}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB4380D5-F99E-4084-BFA2-A0A3C75D2D8A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435F6E52-6500-403B-803E-3AB7D0FF2E21}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DE171F6D-6F4D-43C1-BB7C-9B62D7D6F5D2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8C9C0B-30A8-4131-9407-C2A2D15426D5}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2237</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2276</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2237"/>
+  <dimension ref="A1:G2276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -55289,7 +55289,7 @@
         <v>1845</v>
       </c>
       <c r="G2225" s="0">
-        <v>0.675329428989751</v>
+        <v>0.675</v>
       </c>
     </row>
     <row outlineLevel="0" r="2226">
@@ -55316,13 +55316,13 @@
         <v>730</v>
       </c>
       <c r="G2226" s="0">
-        <v>0.267203513909224</v>
+        <v>0.267</v>
       </c>
     </row>
     <row outlineLevel="0" r="2227">
       <c r="A2227" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2227" s="1">
@@ -55334,22 +55334,22 @@
         </is>
       </c>
       <c r="D2227" s="0">
-        <v>24616</v>
+        <v>1903</v>
       </c>
       <c r="E2227" s="0">
-        <v>0.116661848409738</v>
+        <v>9.0188291161737E-03</v>
       </c>
       <c r="F2227" s="0">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="G2227" s="0">
-        <v>4.06295754026354E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2228">
       <c r="A2228" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2228" s="1">
@@ -55361,22 +55361,22 @@
         </is>
       </c>
       <c r="D2228" s="0">
-        <v>1903</v>
+        <v>276</v>
       </c>
       <c r="E2228" s="0">
-        <v>9.0188291161737E-03</v>
+        <v>1.30803827433733E-03</v>
       </c>
       <c r="F2228" s="0">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="G2228" s="0">
-        <v>8.41874084919473E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2229">
       <c r="A2229" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2229" s="1">
@@ -55388,22 +55388,22 @@
         </is>
       </c>
       <c r="D2229" s="0">
-        <v>276</v>
+        <v>160</v>
       </c>
       <c r="E2229" s="0">
-        <v>1.30803827433733E-03</v>
+        <v>7.58283057586859E-04</v>
       </c>
       <c r="F2229" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2229" s="0">
-        <v>1.46412884333821E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2230">
       <c r="A2230" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2230" s="1">
@@ -55415,16 +55415,16 @@
         </is>
       </c>
       <c r="D2230" s="0">
-        <v>160</v>
+        <v>24616</v>
       </c>
       <c r="E2230" s="0">
-        <v>7.58283057586859E-04</v>
+        <v>0.116661848409738</v>
       </c>
       <c r="F2230" s="0">
-        <v>2</v>
+        <v>111</v>
       </c>
       <c r="G2230" s="0">
-        <v>7.32064421669107E-04</v>
+        <v>0.04</v>
       </c>
     </row>
     <row outlineLevel="0" r="2231">
@@ -55451,7 +55451,7 @@
         <v>17</v>
       </c>
       <c r="G2231" s="0">
-        <v>6.22254758418741E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="2232">
@@ -55478,7 +55478,7 @@
         <v>2563</v>
       </c>
       <c r="G2232" s="0">
-        <v>0.93814055636896</v>
+        <v>0.938</v>
       </c>
     </row>
     <row outlineLevel="0" r="2233">
@@ -55505,7 +55505,7 @@
         <v>152</v>
       </c>
       <c r="G2233" s="0">
-        <v>5.56368960468521E-02</v>
+        <v>0.055</v>
       </c>
     </row>
     <row outlineLevel="0" r="2234">
@@ -55532,7 +55532,7 @@
         <v>17</v>
       </c>
       <c r="G2234" s="0">
-        <v>6.22254758418741E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="2235">
@@ -55559,7 +55559,7 @@
         <v>1208</v>
       </c>
       <c r="G2235" s="0">
-        <v>0.442166910688141</v>
+        <v>0.442</v>
       </c>
     </row>
     <row outlineLevel="0" r="2236">
@@ -55586,7 +55586,7 @@
         <v>1524</v>
       </c>
       <c r="G2236" s="0">
-        <v>0.557833089311859</v>
+        <v>0.557</v>
       </c>
     </row>
     <row outlineLevel="0" r="2237">
@@ -55613,6 +55613,1059 @@
         <v>0</v>
       </c>
       <c r="G2237" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2238">
+      <c r="A2238" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2238" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2238" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2238" s="0">
+        <v>118785</v>
+      </c>
+      <c r="E2238" s="0">
+        <v>0.558596560529323</v>
+      </c>
+      <c r="F2238" s="0">
+        <v>1867</v>
+      </c>
+      <c r="G2238" s="0">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2239">
+      <c r="A2239" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2239" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2239" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2239" s="0">
+        <v>37540</v>
+      </c>
+      <c r="E2239" s="0">
+        <v>0.176535041312209</v>
+      </c>
+      <c r="F2239" s="0">
+        <v>734</v>
+      </c>
+      <c r="G2239" s="0">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2240">
+      <c r="A2240" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2240" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2240" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2240" s="0">
+        <v>1911</v>
+      </c>
+      <c r="E2240" s="0">
+        <v>8.9866399559838E-03</v>
+      </c>
+      <c r="F2240" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2240" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2241">
+      <c r="A2241" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2241" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2241" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2241" s="0">
+        <v>278</v>
+      </c>
+      <c r="E2241" s="0">
+        <v>1.30731863305259E-03</v>
+      </c>
+      <c r="F2241" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2241" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2242">
+      <c r="A2242" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2242" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2242" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2242" s="0">
+        <v>160</v>
+      </c>
+      <c r="E2242" s="0">
+        <v>7.52413601756886E-04</v>
+      </c>
+      <c r="F2242" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2242" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2243">
+      <c r="A2243" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2243" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2243" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2243" s="0">
+        <v>24677</v>
+      </c>
+      <c r="E2243" s="0">
+        <v>0.116045690315967</v>
+      </c>
+      <c r="F2243" s="0">
+        <v>111</v>
+      </c>
+      <c r="G2243" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2244">
+      <c r="A2244" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2244" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2244" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2244" s="0">
+        <v>29298</v>
+      </c>
+      <c r="E2244" s="0">
+        <v>0.137776335651708</v>
+      </c>
+      <c r="F2244" s="0">
+        <v>17</v>
+      </c>
+      <c r="G2244" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2245">
+      <c r="A2245" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2245" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2245" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2245" s="0">
+        <v>143089</v>
+      </c>
+      <c r="E2245" s="0">
+        <v>0.672888186636194</v>
+      </c>
+      <c r="F2245" s="0">
+        <v>2588</v>
+      </c>
+      <c r="G2245" s="0">
+        <v>0.938</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2246">
+      <c r="A2246" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2246" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2246" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2246" s="0">
+        <v>25988</v>
+      </c>
+      <c r="E2246" s="0">
+        <v>0.122210779265362</v>
+      </c>
+      <c r="F2246" s="0">
+        <v>152</v>
+      </c>
+      <c r="G2246" s="0">
+        <v>0.055</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2247">
+      <c r="A2247" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2247" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2247" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2247" s="0">
+        <v>43572</v>
+      </c>
+      <c r="E2247" s="0">
+        <v>0.204901034098444</v>
+      </c>
+      <c r="F2247" s="0">
+        <v>18</v>
+      </c>
+      <c r="G2247" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2248">
+      <c r="A2248" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2248" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2248" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2248" s="0">
+        <v>109019</v>
+      </c>
+      <c r="E2248" s="0">
+        <v>0.512671115312087</v>
+      </c>
+      <c r="F2248" s="0">
+        <v>1218</v>
+      </c>
+      <c r="G2248" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2249">
+      <c r="A2249" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2249" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2249" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2249" s="0">
+        <v>101809</v>
+      </c>
+      <c r="E2249" s="0">
+        <v>0.478765477382917</v>
+      </c>
+      <c r="F2249" s="0">
+        <v>1540</v>
+      </c>
+      <c r="G2249" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2250">
+      <c r="A2250" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2250" s="1">
+        <v>44114</v>
+      </c>
+      <c r="C2250" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2250" s="0">
+        <v>1821</v>
+      </c>
+      <c r="E2250" s="0">
+        <v>8.56340730499556E-03</v>
+      </c>
+      <c r="F2250" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2250" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2251">
+      <c r="A2251" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2251" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2251" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2251" s="0">
+        <v>119806</v>
+      </c>
+      <c r="E2251" s="0">
+        <v>0.557971655714266</v>
+      </c>
+      <c r="F2251" s="0">
+        <v>1871</v>
+      </c>
+      <c r="G2251" s="0">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2252">
+      <c r="A2252" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2252" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2252" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2252" s="0">
+        <v>37697</v>
+      </c>
+      <c r="E2252" s="0">
+        <v>0.175565977542533</v>
+      </c>
+      <c r="F2252" s="0">
+        <v>738</v>
+      </c>
+      <c r="G2252" s="0">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2253">
+      <c r="A2253" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2253" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2253" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2253" s="0">
+        <v>1920</v>
+      </c>
+      <c r="E2253" s="0">
+        <v>8.94200272917375E-03</v>
+      </c>
+      <c r="F2253" s="0">
+        <v>23</v>
+      </c>
+      <c r="G2253" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2254">
+      <c r="A2254" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2254" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2254" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2254" s="0">
+        <v>280</v>
+      </c>
+      <c r="E2254" s="0">
+        <v>1.30404206467117E-03</v>
+      </c>
+      <c r="F2254" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2254" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2255">
+      <c r="A2255" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2255" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2255" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2255" s="0">
+        <v>160</v>
+      </c>
+      <c r="E2255" s="0">
+        <v>7.45166894097813E-04</v>
+      </c>
+      <c r="F2255" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2255" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2256">
+      <c r="A2256" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2256" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2256" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2256" s="0">
+        <v>24865</v>
+      </c>
+      <c r="E2256" s="0">
+        <v>0.115803592635888</v>
+      </c>
+      <c r="F2256" s="0">
+        <v>111</v>
+      </c>
+      <c r="G2256" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2257">
+      <c r="A2257" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2257" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2257" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2257" s="0">
+        <v>29989</v>
+      </c>
+      <c r="E2257" s="0">
+        <v>0.139667562419371</v>
+      </c>
+      <c r="F2257" s="0">
+        <v>18</v>
+      </c>
+      <c r="G2257" s="0">
+        <v>0.006</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2258">
+      <c r="A2258" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2258" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2258" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2258" s="0">
+        <v>143886</v>
+      </c>
+      <c r="E2258" s="0">
+        <v>0.670119273275987</v>
+      </c>
+      <c r="F2258" s="0">
+        <v>2594</v>
+      </c>
+      <c r="G2258" s="0">
+        <v>0.937</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2259">
+      <c r="A2259" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2259" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2259" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2259" s="0">
+        <v>26047</v>
+      </c>
+      <c r="E2259" s="0">
+        <v>0.121308513066036</v>
+      </c>
+      <c r="F2259" s="0">
+        <v>152</v>
+      </c>
+      <c r="G2259" s="0">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2260">
+      <c r="A2260" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2260" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2260" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2260" s="0">
+        <v>44784</v>
+      </c>
+      <c r="E2260" s="0">
+        <v>0.208572213657978</v>
+      </c>
+      <c r="F2260" s="0">
+        <v>21</v>
+      </c>
+      <c r="G2260" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2261">
+      <c r="A2261" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2261" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2261" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2261" s="0">
+        <v>110166</v>
+      </c>
+      <c r="E2261" s="0">
+        <v>0.513075350344873</v>
+      </c>
+      <c r="F2261" s="0">
+        <v>1223</v>
+      </c>
+      <c r="G2261" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2262">
+      <c r="A2262" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2262" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2262" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2262" s="0">
+        <v>102716</v>
+      </c>
+      <c r="E2262" s="0">
+        <v>0.478378516838443</v>
+      </c>
+      <c r="F2262" s="0">
+        <v>1544</v>
+      </c>
+      <c r="G2262" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2263">
+      <c r="A2263" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2263" s="1">
+        <v>44115</v>
+      </c>
+      <c r="C2263" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2263" s="0">
+        <v>1835</v>
+      </c>
+      <c r="E2263" s="0">
+        <v>8.54613281668429E-03</v>
+      </c>
+      <c r="F2263" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2263" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2264">
+      <c r="A2264" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2264" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2264" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2264" s="0">
+        <v>121114</v>
+      </c>
+      <c r="E2264" s="0">
+        <v>0.556380408118264</v>
+      </c>
+      <c r="F2264" s="0">
+        <v>1875</v>
+      </c>
+      <c r="G2264" s="0">
+        <v>0.675919250180245</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2265">
+      <c r="A2265" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2265" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2265" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2265" s="0">
+        <v>37956</v>
+      </c>
+      <c r="E2265" s="0">
+        <v>0.174364439871005</v>
+      </c>
+      <c r="F2265" s="0">
+        <v>739</v>
+      </c>
+      <c r="G2265" s="0">
+        <v>0.266402307137707</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2266">
+      <c r="A2266" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2266" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2266" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2266" s="0">
+        <v>25084</v>
+      </c>
+      <c r="E2266" s="0">
+        <v>0.115232311353258</v>
+      </c>
+      <c r="F2266" s="0">
+        <v>112</v>
+      </c>
+      <c r="G2266" s="0">
+        <v>4.03749098774333E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2267">
+      <c r="A2267" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2267" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2267" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2267" s="0">
+        <v>1934</v>
+      </c>
+      <c r="E2267" s="0">
+        <v>8.88451962036365E-03</v>
+      </c>
+      <c r="F2267" s="0">
+        <v>24</v>
+      </c>
+      <c r="G2267" s="0">
+        <v>8.65176640230714E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2268">
+      <c r="A2268" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2268" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2268" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2268" s="0">
+        <v>281</v>
+      </c>
+      <c r="E2268" s="0">
+        <v>1.29087384349648E-03</v>
+      </c>
+      <c r="F2268" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2268" s="0">
+        <v>1.44196106705119E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2269">
+      <c r="A2269" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2269" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2269" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2269" s="0">
+        <v>162</v>
+      </c>
+      <c r="E2269" s="0">
+        <v>7.44204849275549E-04</v>
+      </c>
+      <c r="F2269" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2269" s="0">
+        <v>7.20980533525595E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2270">
+      <c r="A2270" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2270" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2270" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2270" s="0">
+        <v>31151</v>
+      </c>
+      <c r="E2270" s="0">
+        <v>0.143103242344337</v>
+      </c>
+      <c r="F2270" s="0">
+        <v>18</v>
+      </c>
+      <c r="G2270" s="0">
+        <v>6.48882480173035E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2271">
+      <c r="A2271" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2271" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2271" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2271" s="0">
+        <v>144831</v>
+      </c>
+      <c r="E2271" s="0">
+        <v>0.665332916823623</v>
+      </c>
+      <c r="F2271" s="0">
+        <v>2599</v>
+      </c>
+      <c r="G2271" s="0">
+        <v>0.93691420331651</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2272">
+      <c r="A2272" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2272" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2272" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2272" s="0">
+        <v>26101</v>
+      </c>
+      <c r="E2272" s="0">
+        <v>0.119904264018155</v>
+      </c>
+      <c r="F2272" s="0">
+        <v>153</v>
+      </c>
+      <c r="G2272" s="0">
+        <v>0.055155010814708</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2273">
+      <c r="A2273" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2273" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2273" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2273" s="0">
+        <v>46750</v>
+      </c>
+      <c r="E2273" s="0">
+        <v>0.214762819158222</v>
+      </c>
+      <c r="F2273" s="0">
+        <v>22</v>
+      </c>
+      <c r="G2273" s="0">
+        <v>7.93078586878154E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2274">
+      <c r="A2274" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2274" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2274" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2274" s="0">
+        <v>111705</v>
+      </c>
+      <c r="E2274" s="0">
+        <v>0.513156806718057</v>
+      </c>
+      <c r="F2274" s="0">
+        <v>1223</v>
+      </c>
+      <c r="G2274" s="0">
+        <v>0.440879596250901</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2275">
+      <c r="A2275" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2275" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2275" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2275" s="0">
+        <v>104135</v>
+      </c>
+      <c r="E2275" s="0">
+        <v>0.478381308514255</v>
+      </c>
+      <c r="F2275" s="0">
+        <v>1551</v>
+      </c>
+      <c r="G2275" s="0">
+        <v>0.559120403749099</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2276">
+      <c r="A2276" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2276" s="1">
+        <v>44116</v>
+      </c>
+      <c r="C2276" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2276" s="0">
+        <v>1842</v>
+      </c>
+      <c r="E2276" s="0">
+        <v>8.46188476768865E-03</v>
+      </c>
+      <c r="F2276" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2276" s="0">
         <v>0</v>
       </c>
     </row>
@@ -56045,11 +57098,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-824</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-860</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-824</Url>
-      <Description>HJYU5V3E37X6-122305290-824</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-860</Url>
+      <Description>HJYU5V3E37X6-122305290-860</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -56072,17 +57125,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2AF0A36B-8583-430C-A28E-05B900054D4D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0919DF31-D0F8-4918-B19C-BE53F9F5C002}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A5ACD1E1-0B27-4066-884C-DA8BC1C73073}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42792A6-57D7-4931-A6BA-68A762B1C085}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{435F6E52-6500-403B-803E-3AB7D0FF2E21}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A932340-651D-4AA9-BC96-82E84CE668EB}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E8C9C0B-30A8-4131-9407-C2A2D15426D5}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{482AD1C6-FFB0-4EF8-8AEC-26CDE4201994}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2276</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2289</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2276"/>
+  <dimension ref="A1:G2289"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -56342,7 +56342,7 @@
         <v>1875</v>
       </c>
       <c r="G2264" s="0">
-        <v>0.675919250180245</v>
+        <v>0.675</v>
       </c>
     </row>
     <row outlineLevel="0" r="2265">
@@ -56369,13 +56369,13 @@
         <v>739</v>
       </c>
       <c r="G2265" s="0">
-        <v>0.266402307137707</v>
+        <v>0.266</v>
       </c>
     </row>
     <row outlineLevel="0" r="2266">
       <c r="A2266" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2266" s="1">
@@ -56387,22 +56387,22 @@
         </is>
       </c>
       <c r="D2266" s="0">
-        <v>25084</v>
+        <v>1934</v>
       </c>
       <c r="E2266" s="0">
-        <v>0.115232311353258</v>
+        <v>8.88451962036365E-03</v>
       </c>
       <c r="F2266" s="0">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="G2266" s="0">
-        <v>4.03749098774333E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2267">
       <c r="A2267" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2267" s="1">
@@ -56414,22 +56414,22 @@
         </is>
       </c>
       <c r="D2267" s="0">
-        <v>1934</v>
+        <v>281</v>
       </c>
       <c r="E2267" s="0">
-        <v>8.88451962036365E-03</v>
+        <v>1.29087384349648E-03</v>
       </c>
       <c r="F2267" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G2267" s="0">
-        <v>8.65176640230714E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2268">
       <c r="A2268" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2268" s="1">
@@ -56441,22 +56441,22 @@
         </is>
       </c>
       <c r="D2268" s="0">
-        <v>281</v>
+        <v>162</v>
       </c>
       <c r="E2268" s="0">
-        <v>1.29087384349648E-03</v>
+        <v>7.44204849275549E-04</v>
       </c>
       <c r="F2268" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2268" s="0">
-        <v>1.44196106705119E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2269">
       <c r="A2269" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2269" s="1">
@@ -56468,16 +56468,16 @@
         </is>
       </c>
       <c r="D2269" s="0">
-        <v>162</v>
+        <v>25084</v>
       </c>
       <c r="E2269" s="0">
-        <v>7.44204849275549E-04</v>
+        <v>0.115232311353258</v>
       </c>
       <c r="F2269" s="0">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="G2269" s="0">
-        <v>7.20980533525595E-04</v>
+        <v>0.04</v>
       </c>
     </row>
     <row outlineLevel="0" r="2270">
@@ -56504,7 +56504,7 @@
         <v>18</v>
       </c>
       <c r="G2270" s="0">
-        <v>6.48882480173035E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="2271">
@@ -56531,7 +56531,7 @@
         <v>2599</v>
       </c>
       <c r="G2271" s="0">
-        <v>0.93691420331651</v>
+        <v>0.936</v>
       </c>
     </row>
     <row outlineLevel="0" r="2272">
@@ -56558,7 +56558,7 @@
         <v>153</v>
       </c>
       <c r="G2272" s="0">
-        <v>0.055155010814708</v>
+        <v>0.055</v>
       </c>
     </row>
     <row outlineLevel="0" r="2273">
@@ -56585,7 +56585,7 @@
         <v>22</v>
       </c>
       <c r="G2273" s="0">
-        <v>7.93078586878154E-03</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="2274">
@@ -56612,7 +56612,7 @@
         <v>1223</v>
       </c>
       <c r="G2274" s="0">
-        <v>0.440879596250901</v>
+        <v>0.44</v>
       </c>
     </row>
     <row outlineLevel="0" r="2275">
@@ -56639,7 +56639,7 @@
         <v>1551</v>
       </c>
       <c r="G2275" s="0">
-        <v>0.559120403749099</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="2276">
@@ -56666,6 +56666,357 @@
         <v>0</v>
       </c>
       <c r="G2276" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2277">
+      <c r="A2277" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2277" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2277" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2277" s="0">
+        <v>121978</v>
+      </c>
+      <c r="E2277" s="0">
+        <v>0.557412408775802</v>
+      </c>
+      <c r="F2277" s="0">
+        <v>1893</v>
+      </c>
+      <c r="G2277" s="0">
+        <v>0.676796567751162</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2278">
+      <c r="A2278" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2278" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2278" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2278" s="0">
+        <v>38063</v>
+      </c>
+      <c r="E2278" s="0">
+        <v>0.173939468717583</v>
+      </c>
+      <c r="F2278" s="0">
+        <v>744</v>
+      </c>
+      <c r="G2278" s="0">
+        <v>0.265999284948159</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2279">
+      <c r="A2279" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2279" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2279" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2279" s="0">
+        <v>25100</v>
+      </c>
+      <c r="E2279" s="0">
+        <v>0.11470143353943</v>
+      </c>
+      <c r="F2279" s="0">
+        <v>112</v>
+      </c>
+      <c r="G2279" s="0">
+        <v>4.00429031104755E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2280">
+      <c r="A2280" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2280" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2280" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2280" s="0">
+        <v>1945</v>
+      </c>
+      <c r="E2280" s="0">
+        <v>8.88821865474869E-03</v>
+      </c>
+      <c r="F2280" s="0">
+        <v>24</v>
+      </c>
+      <c r="G2280" s="0">
+        <v>8.58062209510189E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2281">
+      <c r="A2281" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2281" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2281" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2281" s="0">
+        <v>282</v>
+      </c>
+      <c r="E2281" s="0">
+        <v>1.28867746048284E-03</v>
+      </c>
+      <c r="F2281" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2281" s="0">
+        <v>1.43010368251698E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2282">
+      <c r="A2282" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2282" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2282" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2282" s="0">
+        <v>165</v>
+      </c>
+      <c r="E2282" s="0">
+        <v>7.54013407729323E-04</v>
+      </c>
+      <c r="F2282" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2282" s="0">
+        <v>7.15051841258491E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2283">
+      <c r="A2283" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2283" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2283" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2283" s="0">
+        <v>31296</v>
+      </c>
+      <c r="E2283" s="0">
+        <v>0.143015779444224</v>
+      </c>
+      <c r="F2283" s="0">
+        <v>18</v>
+      </c>
+      <c r="G2283" s="0">
+        <v>6.43546657132642E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2284">
+      <c r="A2284" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2284" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2284" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2284" s="0">
+        <v>145817</v>
+      </c>
+      <c r="E2284" s="0">
+        <v>0.666351351968889</v>
+      </c>
+      <c r="F2284" s="0">
+        <v>2618</v>
+      </c>
+      <c r="G2284" s="0">
+        <v>0.936002860207365</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2285">
+      <c r="A2285" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2285" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2285" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2285" s="0">
+        <v>26161</v>
+      </c>
+      <c r="E2285" s="0">
+        <v>0.119549968240041</v>
+      </c>
+      <c r="F2285" s="0">
+        <v>153</v>
+      </c>
+      <c r="G2285" s="0">
+        <v>5.47014658562746E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2286">
+      <c r="A2286" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2286" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2286" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2286" s="0">
+        <v>46851</v>
+      </c>
+      <c r="E2286" s="0">
+        <v>0.21409867979107</v>
+      </c>
+      <c r="F2286" s="0">
+        <v>26</v>
+      </c>
+      <c r="G2286" s="0">
+        <v>9.29567393636039E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2287">
+      <c r="A2287" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2287" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2287" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2287" s="0">
+        <v>112336</v>
+      </c>
+      <c r="E2287" s="0">
+        <v>0.513350607095038</v>
+      </c>
+      <c r="F2287" s="0">
+        <v>1233</v>
+      </c>
+      <c r="G2287" s="0">
+        <v>0.44082946013586</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2288">
+      <c r="A2288" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2288" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2288" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2288" s="0">
+        <v>104647</v>
+      </c>
+      <c r="E2288" s="0">
+        <v>0.478213582294851</v>
+      </c>
+      <c r="F2288" s="0">
+        <v>1564</v>
+      </c>
+      <c r="G2288" s="0">
+        <v>0.55917053986414</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2289">
+      <c r="A2289" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2289" s="1">
+        <v>44117</v>
+      </c>
+      <c r="C2289" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2289" s="0">
+        <v>1846</v>
+      </c>
+      <c r="E2289" s="0">
+        <v>8.43581061011109E-03</v>
+      </c>
+      <c r="F2289" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2289" s="0">
         <v>0</v>
       </c>
     </row>
@@ -57098,11 +57449,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-860</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-871</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-860</Url>
-      <Description>HJYU5V3E37X6-122305290-860</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-871</Url>
+      <Description>HJYU5V3E37X6-122305290-871</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -57125,17 +57476,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0919DF31-D0F8-4918-B19C-BE53F9F5C002}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5E2372-BB58-423D-ACE6-ADE972816B59}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E42792A6-57D7-4931-A6BA-68A762B1C085}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6429909A-1B4E-4B8F-B0E6-5B0D576DCB1D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A932340-651D-4AA9-BC96-82E84CE668EB}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{418755C4-6FE0-4613-8308-ADC909E8CEBA}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{482AD1C6-FFB0-4EF8-8AEC-26CDE4201994}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B45B79D0-DB04-43F3-9724-DBCD01831E0C}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2289</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2315</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2289"/>
+  <dimension ref="A1:G2315"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -56693,7 +56693,7 @@
         <v>1893</v>
       </c>
       <c r="G2277" s="0">
-        <v>0.676796567751162</v>
+        <v>0.676</v>
       </c>
     </row>
     <row outlineLevel="0" r="2278">
@@ -56720,13 +56720,13 @@
         <v>744</v>
       </c>
       <c r="G2278" s="0">
-        <v>0.265999284948159</v>
+        <v>0.265</v>
       </c>
     </row>
     <row outlineLevel="0" r="2279">
       <c r="A2279" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2279" s="1">
@@ -56738,22 +56738,22 @@
         </is>
       </c>
       <c r="D2279" s="0">
-        <v>25100</v>
+        <v>1945</v>
       </c>
       <c r="E2279" s="0">
-        <v>0.11470143353943</v>
+        <v>8.88821865474869E-03</v>
       </c>
       <c r="F2279" s="0">
-        <v>112</v>
+        <v>24</v>
       </c>
       <c r="G2279" s="0">
-        <v>4.00429031104755E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2280">
       <c r="A2280" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2280" s="1">
@@ -56765,22 +56765,22 @@
         </is>
       </c>
       <c r="D2280" s="0">
-        <v>1945</v>
+        <v>282</v>
       </c>
       <c r="E2280" s="0">
-        <v>8.88821865474869E-03</v>
+        <v>1.28867746048284E-03</v>
       </c>
       <c r="F2280" s="0">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="G2280" s="0">
-        <v>8.58062209510189E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2281">
       <c r="A2281" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2281" s="1">
@@ -56792,22 +56792,22 @@
         </is>
       </c>
       <c r="D2281" s="0">
-        <v>282</v>
+        <v>165</v>
       </c>
       <c r="E2281" s="0">
-        <v>1.28867746048284E-03</v>
+        <v>7.54013407729323E-04</v>
       </c>
       <c r="F2281" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2281" s="0">
-        <v>1.43010368251698E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2282">
       <c r="A2282" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2282" s="1">
@@ -56819,16 +56819,16 @@
         </is>
       </c>
       <c r="D2282" s="0">
-        <v>165</v>
+        <v>25100</v>
       </c>
       <c r="E2282" s="0">
-        <v>7.54013407729323E-04</v>
+        <v>0.11470143353943</v>
       </c>
       <c r="F2282" s="0">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="G2282" s="0">
-        <v>7.15051841258491E-04</v>
+        <v>0.04</v>
       </c>
     </row>
     <row outlineLevel="0" r="2283">
@@ -56855,7 +56855,7 @@
         <v>18</v>
       </c>
       <c r="G2283" s="0">
-        <v>6.43546657132642E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="2284">
@@ -56882,7 +56882,7 @@
         <v>2618</v>
       </c>
       <c r="G2284" s="0">
-        <v>0.936002860207365</v>
+        <v>0.936</v>
       </c>
     </row>
     <row outlineLevel="0" r="2285">
@@ -56909,7 +56909,7 @@
         <v>153</v>
       </c>
       <c r="G2285" s="0">
-        <v>5.47014658562746E-02</v>
+        <v>0.054</v>
       </c>
     </row>
     <row outlineLevel="0" r="2286">
@@ -56936,7 +56936,7 @@
         <v>26</v>
       </c>
       <c r="G2286" s="0">
-        <v>9.29567393636039E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="2287">
@@ -56963,7 +56963,7 @@
         <v>1233</v>
       </c>
       <c r="G2287" s="0">
-        <v>0.44082946013586</v>
+        <v>0.44</v>
       </c>
     </row>
     <row outlineLevel="0" r="2288">
@@ -56990,7 +56990,7 @@
         <v>1564</v>
       </c>
       <c r="G2288" s="0">
-        <v>0.55917053986414</v>
+        <v>0.559</v>
       </c>
     </row>
     <row outlineLevel="0" r="2289">
@@ -57017,6 +57017,708 @@
         <v>0</v>
       </c>
       <c r="G2289" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2290">
+      <c r="A2290" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2290" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2290" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2290" s="0">
+        <v>123977</v>
+      </c>
+      <c r="E2290" s="0">
+        <v>0.562157088574305</v>
+      </c>
+      <c r="F2290" s="0">
+        <v>1912</v>
+      </c>
+      <c r="G2290" s="0">
+        <v>0.676</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2291">
+      <c r="A2291" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2291" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2291" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2291" s="0">
+        <v>38411</v>
+      </c>
+      <c r="E2291" s="0">
+        <v>0.174169530874498</v>
+      </c>
+      <c r="F2291" s="0">
+        <v>752</v>
+      </c>
+      <c r="G2291" s="0">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2292">
+      <c r="A2292" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2292" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2292" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2292" s="0">
+        <v>1960</v>
+      </c>
+      <c r="E2292" s="0">
+        <v>8.88735728083142E-03</v>
+      </c>
+      <c r="F2292" s="0">
+        <v>25</v>
+      </c>
+      <c r="G2292" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2293">
+      <c r="A2293" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2293" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2293" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2293" s="0">
+        <v>285</v>
+      </c>
+      <c r="E2293" s="0">
+        <v>1.29229429848824E-03</v>
+      </c>
+      <c r="F2293" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2293" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2294">
+      <c r="A2294" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2294" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2294" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2294" s="0">
+        <v>166</v>
+      </c>
+      <c r="E2294" s="0">
+        <v>7.52704749294906E-04</v>
+      </c>
+      <c r="F2294" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2294" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2295">
+      <c r="A2295" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2295" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2295" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2295" s="0">
+        <v>25345</v>
+      </c>
+      <c r="E2295" s="0">
+        <v>0.114923505246261</v>
+      </c>
+      <c r="F2295" s="0">
+        <v>113</v>
+      </c>
+      <c r="G2295" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2296">
+      <c r="A2296" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2296" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2296" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2296" s="0">
+        <v>30394</v>
+      </c>
+      <c r="E2296" s="0">
+        <v>0.137817518976322</v>
+      </c>
+      <c r="F2296" s="0">
+        <v>20</v>
+      </c>
+      <c r="G2296" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2297">
+      <c r="A2297" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2297" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2297" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2297" s="0">
+        <v>148609</v>
+      </c>
+      <c r="E2297" s="0">
+        <v>0.673847590891366</v>
+      </c>
+      <c r="F2297" s="0">
+        <v>2648</v>
+      </c>
+      <c r="G2297" s="0">
+        <v>0.936</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2298">
+      <c r="A2298" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2298" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2298" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2298" s="0">
+        <v>26285</v>
+      </c>
+      <c r="E2298" s="0">
+        <v>0.119185809248293</v>
+      </c>
+      <c r="F2298" s="0">
+        <v>153</v>
+      </c>
+      <c r="G2298" s="0">
+        <v>0.054</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2299">
+      <c r="A2299" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2299" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2299" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2299" s="0">
+        <v>45644</v>
+      </c>
+      <c r="E2299" s="0">
+        <v>0.206966599860342</v>
+      </c>
+      <c r="F2299" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2299" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2300">
+      <c r="A2300" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2300" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2300" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2300" s="0">
+        <v>113288</v>
+      </c>
+      <c r="E2300" s="0">
+        <v>0.513689250832056</v>
+      </c>
+      <c r="F2300" s="0">
+        <v>1250</v>
+      </c>
+      <c r="G2300" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2301">
+      <c r="A2301" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2301" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2301" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2301" s="0">
+        <v>105413</v>
+      </c>
+      <c r="E2301" s="0">
+        <v>0.477981118900144</v>
+      </c>
+      <c r="F2301" s="0">
+        <v>1578</v>
+      </c>
+      <c r="G2301" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2302">
+      <c r="A2302" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2302" s="1">
+        <v>44118</v>
+      </c>
+      <c r="C2302" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2302" s="0">
+        <v>1837</v>
+      </c>
+      <c r="E2302" s="0">
+        <v>8.32963026779965E-03</v>
+      </c>
+      <c r="F2302" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2302" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2303">
+      <c r="A2303" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2303" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2303" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2303" s="0">
+        <v>125536</v>
+      </c>
+      <c r="E2303" s="0">
+        <v>0.563378764691891</v>
+      </c>
+      <c r="F2303" s="0">
+        <v>1944</v>
+      </c>
+      <c r="G2303" s="0">
+        <v>0.67877094972067</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2304">
+      <c r="A2304" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2304" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2304" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2304" s="0">
+        <v>38664</v>
+      </c>
+      <c r="E2304" s="0">
+        <v>0.173515776813402</v>
+      </c>
+      <c r="F2304" s="0">
+        <v>757</v>
+      </c>
+      <c r="G2304" s="0">
+        <v>0.264315642458101</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2305">
+      <c r="A2305" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2305" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2305" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2305" s="0">
+        <v>25469</v>
+      </c>
+      <c r="E2305" s="0">
+        <v>0.114299434090124</v>
+      </c>
+      <c r="F2305" s="0">
+        <v>112</v>
+      </c>
+      <c r="G2305" s="0">
+        <v>3.91061452513966E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2306">
+      <c r="A2306" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2306" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2306" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2306" s="0">
+        <v>1971</v>
+      </c>
+      <c r="E2306" s="0">
+        <v>8.84542716995696E-03</v>
+      </c>
+      <c r="F2306" s="0">
+        <v>25</v>
+      </c>
+      <c r="G2306" s="0">
+        <v>8.72905027932961E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2307">
+      <c r="A2307" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2307" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2307" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2307" s="0">
+        <v>286</v>
+      </c>
+      <c r="E2307" s="0">
+        <v>1.28350693587402E-03</v>
+      </c>
+      <c r="F2307" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2307" s="0">
+        <v>1.39664804469274E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2308">
+      <c r="A2308" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2308" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2308" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2308" s="0">
+        <v>168</v>
+      </c>
+      <c r="E2308" s="0">
+        <v>7.53948130163759E-04</v>
+      </c>
+      <c r="F2308" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2308" s="0">
+        <v>6.98324022346369E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2309">
+      <c r="A2309" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2309" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2309" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2309" s="0">
+        <v>30733</v>
+      </c>
+      <c r="E2309" s="0">
+        <v>0.137923142168588</v>
+      </c>
+      <c r="F2309" s="0">
+        <v>20</v>
+      </c>
+      <c r="G2309" s="0">
+        <v>6.98324022346369E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2310">
+      <c r="A2310" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2310" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2310" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2310" s="0">
+        <v>150331</v>
+      </c>
+      <c r="E2310" s="0">
+        <v>0.674653430688382</v>
+      </c>
+      <c r="F2310" s="0">
+        <v>2685</v>
+      </c>
+      <c r="G2310" s="0">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2311">
+      <c r="A2311" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2311" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2311" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2311" s="0">
+        <v>26387</v>
+      </c>
+      <c r="E2311" s="0">
+        <v>0.11841922208709</v>
+      </c>
+      <c r="F2311" s="0">
+        <v>153</v>
+      </c>
+      <c r="G2311" s="0">
+        <v>5.34217877094972E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2312">
+      <c r="A2312" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2312" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2312" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2312" s="0">
+        <v>46109</v>
+      </c>
+      <c r="E2312" s="0">
+        <v>0.206927347224528</v>
+      </c>
+      <c r="F2312" s="0">
+        <v>26</v>
+      </c>
+      <c r="G2312" s="0">
+        <v>9.07821229050279E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2313">
+      <c r="A2313" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2313" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2313" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2313" s="0">
+        <v>114534</v>
+      </c>
+      <c r="E2313" s="0">
+        <v>0.514004137739143</v>
+      </c>
+      <c r="F2313" s="0">
+        <v>1272</v>
+      </c>
+      <c r="G2313" s="0">
+        <v>0.444134078212291</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2314">
+      <c r="A2314" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2314" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2314" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2314" s="0">
+        <v>106445</v>
+      </c>
+      <c r="E2314" s="0">
+        <v>0.477702432829056</v>
+      </c>
+      <c r="F2314" s="0">
+        <v>1592</v>
+      </c>
+      <c r="G2314" s="0">
+        <v>0.55586592178771</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2315">
+      <c r="A2315" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2315" s="1">
+        <v>44119</v>
+      </c>
+      <c r="C2315" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2315" s="0">
+        <v>1848</v>
+      </c>
+      <c r="E2315" s="0">
+        <v>8.29342943180135E-03</v>
+      </c>
+      <c r="F2315" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2315" s="0">
         <v>0</v>
       </c>
     </row>
@@ -57448,13 +58150,6 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-871</_dlc_DocId>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-871</Url>
-      <Description>HJYU5V3E37X6-122305290-871</Description>
-    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -57469,24 +58164,31 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-958</_dlc_DocId>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-958</Url>
+      <Description>HJYU5V3E37X6-122305290-958</Description>
+    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CA5E2372-BB58-423D-ACE6-ADE972816B59}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D42351-9790-432A-8E1F-8A53C9CFEC65}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6429909A-1B4E-4B8F-B0E6-5B0D576DCB1D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5448E63A-1012-4895-AA12-552954C6C08F}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{418755C4-6FE0-4613-8308-ADC909E8CEBA}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FADC945-7140-4EEA-BF7C-8AC30E802E3E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B45B79D0-DB04-43F3-9724-DBCD01831E0C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B1ABA9-3DA4-447C-A131-9AA5FBCE0C6C}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2315</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2328</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2315"/>
+  <dimension ref="A1:G2328"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -57395,7 +57395,7 @@
         <v>1944</v>
       </c>
       <c r="G2303" s="0">
-        <v>0.67877094972067</v>
+        <v>0.678</v>
       </c>
     </row>
     <row outlineLevel="0" r="2304">
@@ -57422,13 +57422,13 @@
         <v>757</v>
       </c>
       <c r="G2304" s="0">
-        <v>0.264315642458101</v>
+        <v>0.264</v>
       </c>
     </row>
     <row outlineLevel="0" r="2305">
       <c r="A2305" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2305" s="1">
@@ -57440,22 +57440,22 @@
         </is>
       </c>
       <c r="D2305" s="0">
-        <v>25469</v>
+        <v>1971</v>
       </c>
       <c r="E2305" s="0">
-        <v>0.114299434090124</v>
+        <v>8.84542716995696E-03</v>
       </c>
       <c r="F2305" s="0">
-        <v>112</v>
+        <v>25</v>
       </c>
       <c r="G2305" s="0">
-        <v>3.91061452513966E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2306">
       <c r="A2306" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2306" s="1">
@@ -57467,22 +57467,22 @@
         </is>
       </c>
       <c r="D2306" s="0">
-        <v>1971</v>
+        <v>286</v>
       </c>
       <c r="E2306" s="0">
-        <v>8.84542716995696E-03</v>
+        <v>1.28350693587402E-03</v>
       </c>
       <c r="F2306" s="0">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="G2306" s="0">
-        <v>8.72905027932961E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2307">
       <c r="A2307" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2307" s="1">
@@ -57494,22 +57494,22 @@
         </is>
       </c>
       <c r="D2307" s="0">
-        <v>286</v>
+        <v>168</v>
       </c>
       <c r="E2307" s="0">
-        <v>1.28350693587402E-03</v>
+        <v>7.53948130163759E-04</v>
       </c>
       <c r="F2307" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2307" s="0">
-        <v>1.39664804469274E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2308">
       <c r="A2308" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2308" s="1">
@@ -57521,16 +57521,16 @@
         </is>
       </c>
       <c r="D2308" s="0">
-        <v>168</v>
+        <v>25469</v>
       </c>
       <c r="E2308" s="0">
-        <v>7.53948130163759E-04</v>
+        <v>0.114299434090124</v>
       </c>
       <c r="F2308" s="0">
-        <v>2</v>
+        <v>112</v>
       </c>
       <c r="G2308" s="0">
-        <v>6.98324022346369E-04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row outlineLevel="0" r="2309">
@@ -57557,7 +57557,7 @@
         <v>20</v>
       </c>
       <c r="G2309" s="0">
-        <v>6.98324022346369E-03</v>
+        <v>0.006</v>
       </c>
     </row>
     <row outlineLevel="0" r="2310">
@@ -57584,7 +57584,7 @@
         <v>2685</v>
       </c>
       <c r="G2310" s="0">
-        <v>0.9375</v>
+        <v>0.937</v>
       </c>
     </row>
     <row outlineLevel="0" r="2311">
@@ -57611,7 +57611,7 @@
         <v>153</v>
       </c>
       <c r="G2311" s="0">
-        <v>5.34217877094972E-02</v>
+        <v>0.053</v>
       </c>
     </row>
     <row outlineLevel="0" r="2312">
@@ -57638,7 +57638,7 @@
         <v>26</v>
       </c>
       <c r="G2312" s="0">
-        <v>9.07821229050279E-03</v>
+        <v>0.009</v>
       </c>
     </row>
     <row outlineLevel="0" r="2313">
@@ -57665,7 +57665,7 @@
         <v>1272</v>
       </c>
       <c r="G2313" s="0">
-        <v>0.444134078212291</v>
+        <v>0.444</v>
       </c>
     </row>
     <row outlineLevel="0" r="2314">
@@ -57692,7 +57692,7 @@
         <v>1592</v>
       </c>
       <c r="G2314" s="0">
-        <v>0.55586592178771</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="2315">
@@ -57719,6 +57719,357 @@
         <v>0</v>
       </c>
       <c r="G2315" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2316">
+      <c r="A2316" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2316" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2316" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2316" s="0">
+        <v>126119</v>
+      </c>
+      <c r="E2316" s="0">
+        <v>0.564308501832272</v>
+      </c>
+      <c r="F2316" s="0">
+        <v>1949</v>
+      </c>
+      <c r="G2316" s="0">
+        <v>0.678857540926506</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2317">
+      <c r="A2317" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2317" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2317" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2317" s="0">
+        <v>38757</v>
+      </c>
+      <c r="E2317" s="0">
+        <v>0.173414827310028</v>
+      </c>
+      <c r="F2317" s="0">
+        <v>758</v>
+      </c>
+      <c r="G2317" s="0">
+        <v>0.264019505398816</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2318">
+      <c r="A2318" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2318" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2318" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2318" s="0">
+        <v>25479</v>
+      </c>
+      <c r="E2318" s="0">
+        <v>0.114003570581629</v>
+      </c>
+      <c r="F2318" s="0">
+        <v>112</v>
+      </c>
+      <c r="G2318" s="0">
+        <v>3.90107976314873E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2319">
+      <c r="A2319" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2319" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2319" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2319" s="0">
+        <v>1985</v>
+      </c>
+      <c r="E2319" s="0">
+        <v>8.8817099416984E-03</v>
+      </c>
+      <c r="F2319" s="0">
+        <v>25</v>
+      </c>
+      <c r="G2319" s="0">
+        <v>8.70776732845698E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2320">
+      <c r="A2320" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2320" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2320" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2320" s="0">
+        <v>284</v>
+      </c>
+      <c r="E2320" s="0">
+        <v>1.27073331155786E-03</v>
+      </c>
+      <c r="F2320" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2320" s="0">
+        <v>1.39324277255312E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2321">
+      <c r="A2321" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2321" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2321" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2321" s="0">
+        <v>168</v>
+      </c>
+      <c r="E2321" s="0">
+        <v>7.51701395569436E-04</v>
+      </c>
+      <c r="F2321" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2321" s="0">
+        <v>6.96621386276559E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2322">
+      <c r="A2322" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2322" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2322" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2322" s="0">
+        <v>30701</v>
+      </c>
+      <c r="E2322" s="0">
+        <v>0.137368955627246</v>
+      </c>
+      <c r="F2322" s="0">
+        <v>21</v>
+      </c>
+      <c r="G2322" s="0">
+        <v>7.31452455590387E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2323">
+      <c r="A2323" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2323" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2323" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2323" s="0">
+        <v>151007</v>
+      </c>
+      <c r="E2323" s="0">
+        <v>0.675667694290201</v>
+      </c>
+      <c r="F2323" s="0">
+        <v>2691</v>
+      </c>
+      <c r="G2323" s="0">
+        <v>0.93730407523511</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2324">
+      <c r="A2324" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2324" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2324" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2324" s="0">
+        <v>26442</v>
+      </c>
+      <c r="E2324" s="0">
+        <v>0.118312430366947</v>
+      </c>
+      <c r="F2324" s="0">
+        <v>153</v>
+      </c>
+      <c r="G2324" s="0">
+        <v>5.32915360501567E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2325">
+      <c r="A2325" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2325" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2325" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2325" s="0">
+        <v>46044</v>
+      </c>
+      <c r="E2325" s="0">
+        <v>0.206019875342852</v>
+      </c>
+      <c r="F2325" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2325" s="0">
+        <v>9.40438871473354E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2326">
+      <c r="A2326" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2326" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2326" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2326" s="0">
+        <v>114879</v>
+      </c>
+      <c r="E2326" s="0">
+        <v>0.514016098938222</v>
+      </c>
+      <c r="F2326" s="0">
+        <v>1274</v>
+      </c>
+      <c r="G2326" s="0">
+        <v>0.443747823058168</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2327">
+      <c r="A2327" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2327" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2327" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2327" s="0">
+        <v>106752</v>
+      </c>
+      <c r="E2327" s="0">
+        <v>0.47765254392755</v>
+      </c>
+      <c r="F2327" s="0">
+        <v>1597</v>
+      </c>
+      <c r="G2327" s="0">
+        <v>0.556252176941832</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2328">
+      <c r="A2328" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2328" s="1">
+        <v>44120</v>
+      </c>
+      <c r="C2328" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2328" s="0">
+        <v>1862</v>
+      </c>
+      <c r="E2328" s="0">
+        <v>8.33135713422792E-03</v>
+      </c>
+      <c r="F2328" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2328" s="0">
         <v>0</v>
       </c>
     </row>
@@ -58150,6 +58501,13 @@
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
+    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-964</_dlc_DocId>
+    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
+    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-964</Url>
+      <Description>HJYU5V3E37X6-122305290-964</Description>
+    </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
     <e67c2c055ae043d09da25150149f3d62 xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00">
@@ -58164,31 +58522,24 @@
     </Assigned_x0020_To0>
     <TaxCatchAll xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00"/>
     <Doc_x0020_Type xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
-    <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
     <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
     <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-958</_dlc_DocId>
-    <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-958</Url>
-      <Description>HJYU5V3E37X6-122305290-958</Description>
-    </_dlc_DocIdUrl>
   </documentManagement>
 </p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{69D42351-9790-432A-8E1F-8A53C9CFEC65}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2887BE80-40C9-47BE-A561-30F0D1509520}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5448E63A-1012-4895-AA12-552954C6C08F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1E347395-CA4D-4EC3-9A31-B4BE49F06F64}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FADC945-7140-4EEA-BF7C-8AC30E802E3E}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB295052-DAC9-46AD-95C2-2A901B837B0E}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84B1ABA9-3DA4-447C-A131-9AA5FBCE0C6C}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4600BE77-2AA1-4BF0-9673-7C607CB45A1B}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2393</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2705</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2393"/>
+  <dimension ref="A1:G2705"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -59501,7 +59501,7 @@
         <v>2026</v>
       </c>
       <c r="G2381" s="0">
-        <v>0.682154882154882</v>
+        <v>0.682</v>
       </c>
     </row>
     <row outlineLevel="0" r="2382">
@@ -59528,13 +59528,13 @@
         <v>765</v>
       </c>
       <c r="G2382" s="0">
-        <v>0.257575757575758</v>
+        <v>0.257</v>
       </c>
     </row>
     <row outlineLevel="0" r="2383">
       <c r="A2383" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2383" s="1">
@@ -59546,22 +59546,22 @@
         </is>
       </c>
       <c r="D2383" s="0">
-        <v>26374</v>
+        <v>2056</v>
       </c>
       <c r="E2383" s="0">
-        <v>0.111820097430266</v>
+        <v>8.71699857119236E-03</v>
       </c>
       <c r="F2383" s="0">
-        <v>116</v>
+        <v>26</v>
       </c>
       <c r="G2383" s="0">
-        <v>3.90572390572391E-02</v>
+        <v>0.008</v>
       </c>
     </row>
     <row outlineLevel="0" r="2384">
       <c r="A2384" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2384" s="1">
@@ -59573,22 +59573,22 @@
         </is>
       </c>
       <c r="D2384" s="0">
-        <v>2056</v>
+        <v>298</v>
       </c>
       <c r="E2384" s="0">
-        <v>8.71699857119236E-03</v>
+        <v>1.26345601858722E-03</v>
       </c>
       <c r="F2384" s="0">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="G2384" s="0">
-        <v>8.75420875420875E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2385">
       <c r="A2385" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2385" s="1">
@@ -59600,22 +59600,22 @@
         </is>
       </c>
       <c r="D2385" s="0">
-        <v>298</v>
+        <v>174</v>
       </c>
       <c r="E2385" s="0">
-        <v>1.26345601858722E-03</v>
+        <v>7.37722641725423E-04</v>
       </c>
       <c r="F2385" s="0">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G2385" s="0">
-        <v>1.34680134680135E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2386">
       <c r="A2386" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2386" s="1">
@@ -59627,16 +59627,16 @@
         </is>
       </c>
       <c r="D2386" s="0">
-        <v>174</v>
+        <v>26374</v>
       </c>
       <c r="E2386" s="0">
-        <v>7.37722641725423E-04</v>
+        <v>0.111820097430266</v>
       </c>
       <c r="F2386" s="0">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="G2386" s="0">
-        <v>6.73400673400673E-04</v>
+        <v>0.039</v>
       </c>
     </row>
     <row outlineLevel="0" r="2387">
@@ -59663,7 +59663,7 @@
         <v>31</v>
       </c>
       <c r="G2387" s="0">
-        <v>1.04377104377104E-02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row outlineLevel="0" r="2388">
@@ -59690,7 +59690,7 @@
         <v>2770</v>
       </c>
       <c r="G2388" s="0">
-        <v>0.932659932659933</v>
+        <v>0.932</v>
       </c>
     </row>
     <row outlineLevel="0" r="2389">
@@ -59717,7 +59717,7 @@
         <v>153</v>
       </c>
       <c r="G2389" s="0">
-        <v>5.15151515151515E-02</v>
+        <v>0.051</v>
       </c>
     </row>
     <row outlineLevel="0" r="2390">
@@ -59744,7 +59744,7 @@
         <v>47</v>
       </c>
       <c r="G2390" s="0">
-        <v>1.58249158249158E-02</v>
+        <v>0.015</v>
       </c>
     </row>
     <row outlineLevel="0" r="2391">
@@ -59771,7 +59771,7 @@
         <v>1320</v>
       </c>
       <c r="G2391" s="0">
-        <v>0.444444444444444</v>
+        <v>0.444</v>
       </c>
     </row>
     <row outlineLevel="0" r="2392">
@@ -59798,7 +59798,7 @@
         <v>1650</v>
       </c>
       <c r="G2392" s="0">
-        <v>0.555555555555556</v>
+        <v>0.555</v>
       </c>
     </row>
     <row outlineLevel="0" r="2393">
@@ -59826,6 +59826,8430 @@
       </c>
       <c r="G2393" s="0">
         <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2394">
+      <c r="A2394" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2394" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2394" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2394" s="0">
+        <v>135291</v>
+      </c>
+      <c r="E2394" s="0">
+        <v>0.568671791918691</v>
+      </c>
+      <c r="F2394" s="0">
+        <v>2061</v>
+      </c>
+      <c r="G2394" s="0">
+        <v>0.684</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2395">
+      <c r="A2395" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2395" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2395" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2395" s="0">
+        <v>40366</v>
+      </c>
+      <c r="E2395" s="0">
+        <v>0.169671342163114</v>
+      </c>
+      <c r="F2395" s="0">
+        <v>770</v>
+      </c>
+      <c r="G2395" s="0">
+        <v>0.255</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2396">
+      <c r="A2396" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2396" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2396" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2396" s="0">
+        <v>2073</v>
+      </c>
+      <c r="E2396" s="0">
+        <v>8.71348888431194E-03</v>
+      </c>
+      <c r="F2396" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2396" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2397">
+      <c r="A2397" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2397" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2397" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2397" s="0">
+        <v>300</v>
+      </c>
+      <c r="E2397" s="0">
+        <v>1.26099694418407E-03</v>
+      </c>
+      <c r="F2397" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2397" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2398">
+      <c r="A2398" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2398" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2398" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2398" s="0">
+        <v>176</v>
+      </c>
+      <c r="E2398" s="0">
+        <v>7.39784873921322E-04</v>
+      </c>
+      <c r="F2398" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2398" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2399">
+      <c r="A2399" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2399" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2399" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2399" s="0">
+        <v>26453</v>
+      </c>
+      <c r="E2399" s="0">
+        <v>0.111190507215004</v>
+      </c>
+      <c r="F2399" s="0">
+        <v>118</v>
+      </c>
+      <c r="G2399" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2400">
+      <c r="A2400" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2400" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2400" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2400" s="0">
+        <v>33248</v>
+      </c>
+      <c r="E2400" s="0">
+        <v>0.139752088000773</v>
+      </c>
+      <c r="F2400" s="0">
+        <v>29</v>
+      </c>
+      <c r="G2400" s="0">
+        <v>0.009</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2401">
+      <c r="A2401" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2401" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2401" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2401" s="0">
+        <v>160825</v>
+      </c>
+      <c r="E2401" s="0">
+        <v>0.675999445161345</v>
+      </c>
+      <c r="F2401" s="0">
+        <v>2810</v>
+      </c>
+      <c r="G2401" s="0">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2402">
+      <c r="A2402" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2402" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2402" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2402" s="0">
+        <v>27009</v>
+      </c>
+      <c r="E2402" s="0">
+        <v>0.113527554884892</v>
+      </c>
+      <c r="F2402" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2402" s="0">
+        <v>0.051</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2403">
+      <c r="A2403" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2403" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2403" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2403" s="0">
+        <v>50073</v>
+      </c>
+      <c r="E2403" s="0">
+        <v>0.210472999953763</v>
+      </c>
+      <c r="F2403" s="0">
+        <v>47</v>
+      </c>
+      <c r="G2403" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2404">
+      <c r="A2404" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2404" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2404" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2404" s="0">
+        <v>122687</v>
+      </c>
+      <c r="E2404" s="0">
+        <v>0.515693106970371</v>
+      </c>
+      <c r="F2404" s="0">
+        <v>1333</v>
+      </c>
+      <c r="G2404" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2405">
+      <c r="A2405" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2405" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2405" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2405" s="0">
+        <v>113299</v>
+      </c>
+      <c r="E2405" s="0">
+        <v>0.476232309263704</v>
+      </c>
+      <c r="F2405" s="0">
+        <v>1678</v>
+      </c>
+      <c r="G2405" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2406">
+      <c r="A2406" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2406" s="1">
+        <v>44126</v>
+      </c>
+      <c r="C2406" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2406" s="0">
+        <v>1921</v>
+      </c>
+      <c r="E2406" s="0">
+        <v>8.07458376592534E-03</v>
+      </c>
+      <c r="F2406" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2406" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2407">
+      <c r="A2407" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2407" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2407" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2407" s="0">
+        <v>137154</v>
+      </c>
+      <c r="E2407" s="0">
+        <v>0.567894895926927</v>
+      </c>
+      <c r="F2407" s="0">
+        <v>2114</v>
+      </c>
+      <c r="G2407" s="0">
+        <v>0.687</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2408">
+      <c r="A2408" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2408" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2408" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2408" s="0">
+        <v>40676</v>
+      </c>
+      <c r="E2408" s="0">
+        <v>0.168421575650172</v>
+      </c>
+      <c r="F2408" s="0">
+        <v>777</v>
+      </c>
+      <c r="G2408" s="0">
+        <v>0.252</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2409">
+      <c r="A2409" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2409" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2409" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2409" s="0">
+        <v>2098</v>
+      </c>
+      <c r="E2409" s="0">
+        <v>8.68690298244815E-03</v>
+      </c>
+      <c r="F2409" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2409" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2410">
+      <c r="A2410" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2410" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2410" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2410" s="0">
+        <v>301</v>
+      </c>
+      <c r="E2410" s="0">
+        <v>0.001246309722458</v>
+      </c>
+      <c r="F2410" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2410" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2411">
+      <c r="A2411" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2411" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2411" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2411" s="0">
+        <v>178</v>
+      </c>
+      <c r="E2411" s="0">
+        <v>7.37020367433637E-04</v>
+      </c>
+      <c r="F2411" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2411" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2412">
+      <c r="A2412" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2412" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2412" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2412" s="0">
+        <v>26793</v>
+      </c>
+      <c r="E2412" s="0">
+        <v>0.11093812755421</v>
+      </c>
+      <c r="F2412" s="0">
+        <v>120</v>
+      </c>
+      <c r="G2412" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2413">
+      <c r="A2413" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2413" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2413" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2413" s="0">
+        <v>34313</v>
+      </c>
+      <c r="E2413" s="0">
+        <v>0.142075167796351</v>
+      </c>
+      <c r="F2413" s="0">
+        <v>32</v>
+      </c>
+      <c r="G2413" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2414">
+      <c r="A2414" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2414" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2414" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2414" s="0">
+        <v>162436</v>
+      </c>
+      <c r="E2414" s="0">
+        <v>0.672576631485676</v>
+      </c>
+      <c r="F2414" s="0">
+        <v>2870</v>
+      </c>
+      <c r="G2414" s="0">
+        <v>0.933</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2415">
+      <c r="A2415" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2415" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2415" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2415" s="0">
+        <v>27132</v>
+      </c>
+      <c r="E2415" s="0">
+        <v>0.112341778703424</v>
+      </c>
+      <c r="F2415" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2415" s="0">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2416">
+      <c r="A2416" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2416" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2416" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2416" s="0">
+        <v>51945</v>
+      </c>
+      <c r="E2416" s="0">
+        <v>0.2150815898109</v>
+      </c>
+      <c r="F2416" s="0">
+        <v>52</v>
+      </c>
+      <c r="G2416" s="0">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2417">
+      <c r="A2417" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2417" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2417" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2417" s="0">
+        <v>124620</v>
+      </c>
+      <c r="E2417" s="0">
+        <v>0.515997068480786</v>
+      </c>
+      <c r="F2417" s="0">
+        <v>1363</v>
+      </c>
+      <c r="G2417" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2418">
+      <c r="A2418" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2418" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2418" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2418" s="0">
+        <v>114951</v>
+      </c>
+      <c r="E2418" s="0">
+        <v>0.475961956499236</v>
+      </c>
+      <c r="F2418" s="0">
+        <v>1713</v>
+      </c>
+      <c r="G2418" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2419">
+      <c r="A2419" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2419" s="1">
+        <v>44127</v>
+      </c>
+      <c r="C2419" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2419" s="0">
+        <v>1942</v>
+      </c>
+      <c r="E2419" s="0">
+        <v>8.04097501997822E-03</v>
+      </c>
+      <c r="F2419" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2419" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2420">
+      <c r="A2420" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2420" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2420" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2420" s="0">
+        <v>138628</v>
+      </c>
+      <c r="E2420" s="0">
+        <v>0.567945035991265</v>
+      </c>
+      <c r="F2420" s="0">
+        <v>2137</v>
+      </c>
+      <c r="G2420" s="0">
+        <v>0.689</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2421">
+      <c r="A2421" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2421" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2421" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2421" s="0">
+        <v>40918</v>
+      </c>
+      <c r="E2421" s="0">
+        <v>0.1676369491206</v>
+      </c>
+      <c r="F2421" s="0">
+        <v>776</v>
+      </c>
+      <c r="G2421" s="0">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2422">
+      <c r="A2422" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2422" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2422" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2422" s="0">
+        <v>2118</v>
+      </c>
+      <c r="E2422" s="0">
+        <v>8.67723393707981E-03</v>
+      </c>
+      <c r="F2422" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2422" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2423">
+      <c r="A2423" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2423" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2423" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2423" s="0">
+        <v>303</v>
+      </c>
+      <c r="E2423" s="0">
+        <v>1.24136066238677E-03</v>
+      </c>
+      <c r="F2423" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2423" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2424">
+      <c r="A2424" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2424" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2424" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2424" s="0">
+        <v>180</v>
+      </c>
+      <c r="E2424" s="0">
+        <v>7.37441977655508E-04</v>
+      </c>
+      <c r="F2424" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2424" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2425">
+      <c r="A2425" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2425" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2425" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2425" s="0">
+        <v>26919</v>
+      </c>
+      <c r="E2425" s="0">
+        <v>0.110284447758381</v>
+      </c>
+      <c r="F2425" s="0">
+        <v>122</v>
+      </c>
+      <c r="G2425" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2426">
+      <c r="A2426" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2426" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2426" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2426" s="0">
+        <v>35021</v>
+      </c>
+      <c r="E2426" s="0">
+        <v>0.143477530552631</v>
+      </c>
+      <c r="F2426" s="0">
+        <v>31</v>
+      </c>
+      <c r="G2426" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2427">
+      <c r="A2427" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2427" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2427" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2427" s="0">
+        <v>163888</v>
+      </c>
+      <c r="E2427" s="0">
+        <v>0.671432726855588</v>
+      </c>
+      <c r="F2427" s="0">
+        <v>2892</v>
+      </c>
+      <c r="G2427" s="0">
+        <v>0.932</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2428">
+      <c r="A2428" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2428" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2428" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2428" s="0">
+        <v>27236</v>
+      </c>
+      <c r="E2428" s="0">
+        <v>0.11158316501903</v>
+      </c>
+      <c r="F2428" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2428" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2429">
+      <c r="A2429" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2429" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2429" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2429" s="0">
+        <v>52963</v>
+      </c>
+      <c r="E2429" s="0">
+        <v>0.216984108125382</v>
+      </c>
+      <c r="F2429" s="0">
+        <v>54</v>
+      </c>
+      <c r="G2429" s="0">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2430">
+      <c r="A2430" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2430" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2430" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2430" s="0">
+        <v>126011</v>
+      </c>
+      <c r="E2430" s="0">
+        <v>0.51625445025749</v>
+      </c>
+      <c r="F2430" s="0">
+        <v>1377</v>
+      </c>
+      <c r="G2430" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2431">
+      <c r="A2431" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2431" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2431" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2431" s="0">
+        <v>116114</v>
+      </c>
+      <c r="E2431" s="0">
+        <v>0.475707432186065</v>
+      </c>
+      <c r="F2431" s="0">
+        <v>1723</v>
+      </c>
+      <c r="G2431" s="0">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2432">
+      <c r="A2432" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2432" s="1">
+        <v>44128</v>
+      </c>
+      <c r="C2432" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2432" s="0">
+        <v>1962</v>
+      </c>
+      <c r="E2432" s="0">
+        <v>8.03811755644504E-03</v>
+      </c>
+      <c r="F2432" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2432" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2433">
+      <c r="A2433" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2433" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2433" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2433" s="0">
+        <v>140340</v>
+      </c>
+      <c r="E2433" s="0">
+        <v>0.566831053326709</v>
+      </c>
+      <c r="F2433" s="0">
+        <v>2163</v>
+      </c>
+      <c r="G2433" s="0">
+        <v>0.69</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2434">
+      <c r="A2434" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2434" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2434" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2434" s="0">
+        <v>41249</v>
+      </c>
+      <c r="E2434" s="0">
+        <v>0.166604062410385</v>
+      </c>
+      <c r="F2434" s="0">
+        <v>778</v>
+      </c>
+      <c r="G2434" s="0">
+        <v>0.248</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2435">
+      <c r="A2435" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2435" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2435" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2435" s="0">
+        <v>2147</v>
+      </c>
+      <c r="E2435" s="0">
+        <v>8.67169924107485E-03</v>
+      </c>
+      <c r="F2435" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2435" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2436">
+      <c r="A2436" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2436" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2436" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2436" s="0">
+        <v>309</v>
+      </c>
+      <c r="E2436" s="0">
+        <v>1.24804614135637E-03</v>
+      </c>
+      <c r="F2436" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2436" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2437">
+      <c r="A2437" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2437" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2437" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2437" s="0">
+        <v>179</v>
+      </c>
+      <c r="E2437" s="0">
+        <v>7.22978185445924E-04</v>
+      </c>
+      <c r="F2437" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2437" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2438">
+      <c r="A2438" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2438" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2438" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2438" s="0">
+        <v>27143</v>
+      </c>
+      <c r="E2438" s="0">
+        <v>0.109630150209825</v>
+      </c>
+      <c r="F2438" s="0">
+        <v>122</v>
+      </c>
+      <c r="G2438" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2439">
+      <c r="A2439" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2439" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2439" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2439" s="0">
+        <v>36220</v>
+      </c>
+      <c r="E2439" s="0">
+        <v>0.146292010485203</v>
+      </c>
+      <c r="F2439" s="0">
+        <v>34</v>
+      </c>
+      <c r="G2439" s="0">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2440">
+      <c r="A2440" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2440" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2440" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2440" s="0">
+        <v>165173</v>
+      </c>
+      <c r="E2440" s="0">
+        <v>0.667131149858434</v>
+      </c>
+      <c r="F2440" s="0">
+        <v>2920</v>
+      </c>
+      <c r="G2440" s="0">
+        <v>0.932</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2441">
+      <c r="A2441" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2441" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2441" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2441" s="0">
+        <v>27354</v>
+      </c>
+      <c r="E2441" s="0">
+        <v>0.110482375892111</v>
+      </c>
+      <c r="F2441" s="0">
+        <v>154</v>
+      </c>
+      <c r="G2441" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2442">
+      <c r="A2442" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2442" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2442" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2442" s="0">
+        <v>55060</v>
+      </c>
+      <c r="E2442" s="0">
+        <v>0.222386474249456</v>
+      </c>
+      <c r="F2442" s="0">
+        <v>57</v>
+      </c>
+      <c r="G2442" s="0">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2443">
+      <c r="A2443" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2443" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2443" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2443" s="0">
+        <v>127920</v>
+      </c>
+      <c r="E2443" s="0">
+        <v>0.516666868615881</v>
+      </c>
+      <c r="F2443" s="0">
+        <v>1393</v>
+      </c>
+      <c r="G2443" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2444">
+      <c r="A2444" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2444" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2444" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2444" s="0">
+        <v>117686</v>
+      </c>
+      <c r="E2444" s="0">
+        <v>0.4753319035329</v>
+      </c>
+      <c r="F2444" s="0">
+        <v>1738</v>
+      </c>
+      <c r="G2444" s="0">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2445">
+      <c r="A2445" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2445" s="1">
+        <v>44129</v>
+      </c>
+      <c r="C2445" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2445" s="0">
+        <v>1981</v>
+      </c>
+      <c r="E2445" s="0">
+        <v>8.00122785121997E-03</v>
+      </c>
+      <c r="F2445" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2445" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2446">
+      <c r="A2446" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2446" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2446" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2446" s="0">
+        <v>141495</v>
+      </c>
+      <c r="E2446" s="0">
+        <v>0.566283527970992</v>
+      </c>
+      <c r="F2446" s="0">
+        <v>2186</v>
+      </c>
+      <c r="G2446" s="0">
+        <v>0.691</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2447">
+      <c r="A2447" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2447" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2447" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2447" s="0">
+        <v>41529</v>
+      </c>
+      <c r="E2447" s="0">
+        <v>0.166205085926056</v>
+      </c>
+      <c r="F2447" s="0">
+        <v>782</v>
+      </c>
+      <c r="G2447" s="0">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2448">
+      <c r="A2448" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2448" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2448" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2448" s="0">
+        <v>2167</v>
+      </c>
+      <c r="E2448" s="0">
+        <v>8.67264853961723E-03</v>
+      </c>
+      <c r="F2448" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2448" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2449">
+      <c r="A2449" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2449" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2449" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2449" s="0">
+        <v>312</v>
+      </c>
+      <c r="E2449" s="0">
+        <v>1.24866928673769E-03</v>
+      </c>
+      <c r="F2449" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2449" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2450">
+      <c r="A2450" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2450" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2450" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2450" s="0">
+        <v>180</v>
+      </c>
+      <c r="E2450" s="0">
+        <v>7.20386126964053E-04</v>
+      </c>
+      <c r="F2450" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2450" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2451">
+      <c r="A2451" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2451" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2451" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2451" s="0">
+        <v>27191</v>
+      </c>
+      <c r="E2451" s="0">
+        <v>0.10882232876822</v>
+      </c>
+      <c r="F2451" s="0">
+        <v>124</v>
+      </c>
+      <c r="G2451" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2452">
+      <c r="A2452" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2452" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2452" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2452" s="0">
+        <v>36992</v>
+      </c>
+      <c r="E2452" s="0">
+        <v>0.148047353381412</v>
+      </c>
+      <c r="F2452" s="0">
+        <v>37</v>
+      </c>
+      <c r="G2452" s="0">
+        <v>0.011</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2453">
+      <c r="A2453" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2453" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2453" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2453" s="0">
+        <v>166050</v>
+      </c>
+      <c r="E2453" s="0">
+        <v>0.664556202124339</v>
+      </c>
+      <c r="F2453" s="0">
+        <v>2939</v>
+      </c>
+      <c r="G2453" s="0">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2454">
+      <c r="A2454" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2454" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2454" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2454" s="0">
+        <v>27415</v>
+      </c>
+      <c r="E2454" s="0">
+        <v>0.109718809281775</v>
+      </c>
+      <c r="F2454" s="0">
+        <v>155</v>
+      </c>
+      <c r="G2454" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2455">
+      <c r="A2455" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2455" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2455" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2455" s="0">
+        <v>56401</v>
+      </c>
+      <c r="E2455" s="0">
+        <v>0.225724988593886</v>
+      </c>
+      <c r="F2455" s="0">
+        <v>69</v>
+      </c>
+      <c r="G2455" s="0">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2456">
+      <c r="A2456" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2456" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2456" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2456" s="0">
+        <v>129127</v>
+      </c>
+      <c r="E2456" s="0">
+        <v>0.516784996758262</v>
+      </c>
+      <c r="F2456" s="0">
+        <v>1406</v>
+      </c>
+      <c r="G2456" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2457">
+      <c r="A2457" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2457" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2457" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2457" s="0">
+        <v>118752</v>
+      </c>
+      <c r="E2457" s="0">
+        <v>0.475262740829084</v>
+      </c>
+      <c r="F2457" s="0">
+        <v>1757</v>
+      </c>
+      <c r="G2457" s="0">
+        <v>0.555</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2458">
+      <c r="A2458" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2458" s="1">
+        <v>44130</v>
+      </c>
+      <c r="C2458" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2458" s="0">
+        <v>1987</v>
+      </c>
+      <c r="E2458" s="0">
+        <v>7.95226241265318E-03</v>
+      </c>
+      <c r="F2458" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2458" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2459">
+      <c r="A2459" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2459" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2459" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2459" s="0">
+        <v>142790</v>
+      </c>
+      <c r="E2459" s="0">
+        <v>0.567135605741657</v>
+      </c>
+      <c r="F2459" s="0">
+        <v>2220</v>
+      </c>
+      <c r="G2459" s="0">
+        <v>0.692</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2460">
+      <c r="A2460" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2460" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2460" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2460" s="0">
+        <v>41762</v>
+      </c>
+      <c r="E2460" s="0">
+        <v>0.16587097952926</v>
+      </c>
+      <c r="F2460" s="0">
+        <v>786</v>
+      </c>
+      <c r="G2460" s="0">
+        <v>0.245</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2461">
+      <c r="A2461" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2461" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2461" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2461" s="0">
+        <v>2180</v>
+      </c>
+      <c r="E2461" s="0">
+        <v>8.65855886628484E-03</v>
+      </c>
+      <c r="F2461" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2461" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2462">
+      <c r="A2462" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2462" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2462" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2462" s="0">
+        <v>314</v>
+      </c>
+      <c r="E2462" s="0">
+        <v>1.24715022202451E-03</v>
+      </c>
+      <c r="F2462" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2462" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2463">
+      <c r="A2463" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2463" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2463" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2463" s="0">
+        <v>183</v>
+      </c>
+      <c r="E2463" s="0">
+        <v>7.26842326848682E-04</v>
+      </c>
+      <c r="F2463" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2463" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2464">
+      <c r="A2464" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2464" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2464" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2464" s="0">
+        <v>27322</v>
+      </c>
+      <c r="E2464" s="0">
+        <v>0.108517956580108</v>
+      </c>
+      <c r="F2464" s="0">
+        <v>125</v>
+      </c>
+      <c r="G2464" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2465">
+      <c r="A2465" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2465" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2465" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2465" s="0">
+        <v>37223</v>
+      </c>
+      <c r="E2465" s="0">
+        <v>0.147842906733817</v>
+      </c>
+      <c r="F2465" s="0">
+        <v>42</v>
+      </c>
+      <c r="G2465" s="0">
+        <v>0.013</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2466">
+      <c r="A2466" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2466" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2466" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2466" s="0">
+        <v>167474</v>
+      </c>
+      <c r="E2466" s="0">
+        <v>0.665175911730361</v>
+      </c>
+      <c r="F2466" s="0">
+        <v>2976</v>
+      </c>
+      <c r="G2466" s="0">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2467">
+      <c r="A2467" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2467" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2467" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2467" s="0">
+        <v>27486</v>
+      </c>
+      <c r="E2467" s="0">
+        <v>0.109169334403076</v>
+      </c>
+      <c r="F2467" s="0">
+        <v>157</v>
+      </c>
+      <c r="G2467" s="0">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2468">
+      <c r="A2468" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2468" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2468" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2468" s="0">
+        <v>56814</v>
+      </c>
+      <c r="E2468" s="0">
+        <v>0.225654753866563</v>
+      </c>
+      <c r="F2468" s="0">
+        <v>74</v>
+      </c>
+      <c r="G2468" s="0">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2469">
+      <c r="A2469" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2469" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2469" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2469" s="0">
+        <v>130218</v>
+      </c>
+      <c r="E2469" s="0">
+        <v>0.517201935068752</v>
+      </c>
+      <c r="F2469" s="0">
+        <v>1422</v>
+      </c>
+      <c r="G2469" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2470">
+      <c r="A2470" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2470" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2470" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2470" s="0">
+        <v>119560</v>
+      </c>
+      <c r="E2470" s="0">
+        <v>0.474870320207805</v>
+      </c>
+      <c r="F2470" s="0">
+        <v>1785</v>
+      </c>
+      <c r="G2470" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2471">
+      <c r="A2471" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2471" s="1">
+        <v>44131</v>
+      </c>
+      <c r="C2471" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2471" s="0">
+        <v>1996</v>
+      </c>
+      <c r="E2471" s="0">
+        <v>7.92774472344245E-03</v>
+      </c>
+      <c r="F2471" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2471" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2472">
+      <c r="A2472" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2472" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2472" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2472" s="0">
+        <v>145295</v>
+      </c>
+      <c r="E2472" s="0">
+        <v>0.571532530878766</v>
+      </c>
+      <c r="F2472" s="0">
+        <v>2247</v>
+      </c>
+      <c r="G2472" s="0">
+        <v>0.693</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2473">
+      <c r="A2473" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2473" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2473" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2473" s="0">
+        <v>42260</v>
+      </c>
+      <c r="E2473" s="0">
+        <v>0.166233970576666</v>
+      </c>
+      <c r="F2473" s="0">
+        <v>791</v>
+      </c>
+      <c r="G2473" s="0">
+        <v>0.244</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2474">
+      <c r="A2474" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2474" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2474" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2474" s="0">
+        <v>2196</v>
+      </c>
+      <c r="E2474" s="0">
+        <v>8.63818739674298E-03</v>
+      </c>
+      <c r="F2474" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2474" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2475">
+      <c r="A2475" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2475" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2475" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2475" s="0">
+        <v>318</v>
+      </c>
+      <c r="E2475" s="0">
+        <v>1.25088506018409E-03</v>
+      </c>
+      <c r="F2475" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2475" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2476">
+      <c r="A2476" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2476" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2476" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2476" s="0">
+        <v>183</v>
+      </c>
+      <c r="E2476" s="0">
+        <v>7.19848949728582E-04</v>
+      </c>
+      <c r="F2476" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2476" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2477">
+      <c r="A2477" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2477" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2477" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2477" s="0">
+        <v>27560</v>
+      </c>
+      <c r="E2477" s="0">
+        <v>0.108410038549288</v>
+      </c>
+      <c r="F2477" s="0">
+        <v>130</v>
+      </c>
+      <c r="G2477" s="0">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2478">
+      <c r="A2478" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2478" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2478" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2478" s="0">
+        <v>36408</v>
+      </c>
+      <c r="E2478" s="0">
+        <v>0.143214538588624</v>
+      </c>
+      <c r="F2478" s="0">
+        <v>39</v>
+      </c>
+      <c r="G2478" s="0">
+        <v>0.012</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2479">
+      <c r="A2479" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2479" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2479" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2479" s="0">
+        <v>170768</v>
+      </c>
+      <c r="E2479" s="0">
+        <v>0.671733144520494</v>
+      </c>
+      <c r="F2479" s="0">
+        <v>3012</v>
+      </c>
+      <c r="G2479" s="0">
+        <v>0.929</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2480">
+      <c r="A2480" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2480" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2480" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2480" s="0">
+        <v>27643</v>
+      </c>
+      <c r="E2480" s="0">
+        <v>0.108736527417198</v>
+      </c>
+      <c r="F2480" s="0">
+        <v>160</v>
+      </c>
+      <c r="G2480" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2481">
+      <c r="A2481" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2481" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2481" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2481" s="0">
+        <v>55809</v>
+      </c>
+      <c r="E2481" s="0">
+        <v>0.219530328062308</v>
+      </c>
+      <c r="F2481" s="0">
+        <v>69</v>
+      </c>
+      <c r="G2481" s="0">
+        <v>0.021</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2482">
+      <c r="A2482" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2482" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2482" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2482" s="0">
+        <v>131548</v>
+      </c>
+      <c r="E2482" s="0">
+        <v>0.517457320431123</v>
+      </c>
+      <c r="F2482" s="0">
+        <v>1434</v>
+      </c>
+      <c r="G2482" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2483">
+      <c r="A2483" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2483" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2483" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2483" s="0">
+        <v>120694</v>
+      </c>
+      <c r="E2483" s="0">
+        <v>0.4747620171505</v>
+      </c>
+      <c r="F2483" s="0">
+        <v>1807</v>
+      </c>
+      <c r="G2483" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2484">
+      <c r="A2484" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2484" s="1">
+        <v>44132</v>
+      </c>
+      <c r="C2484" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2484" s="0">
+        <v>1978</v>
+      </c>
+      <c r="E2484" s="0">
+        <v>7.78066241837778E-03</v>
+      </c>
+      <c r="F2484" s="0">
+        <v>0</v>
+      </c>
+      <c r="G2484" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2485">
+      <c r="A2485" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2485" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2485" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2485" s="0">
+        <v>147024</v>
+      </c>
+      <c r="E2485" s="0">
+        <v>0.57234506384304</v>
+      </c>
+      <c r="F2485" s="0">
+        <v>2261</v>
+      </c>
+      <c r="G2485" s="0">
+        <v>0.692</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2486">
+      <c r="A2486" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2486" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2486" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2486" s="0">
+        <v>42536</v>
+      </c>
+      <c r="E2486" s="0">
+        <v>0.165587044534413</v>
+      </c>
+      <c r="F2486" s="0">
+        <v>792</v>
+      </c>
+      <c r="G2486" s="0">
+        <v>0.242</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2487">
+      <c r="A2487" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2487" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2487" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2487" s="0">
+        <v>2221</v>
+      </c>
+      <c r="E2487" s="0">
+        <v>8.64606041731548E-03</v>
+      </c>
+      <c r="F2487" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2487" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2488">
+      <c r="A2488" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2488" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2488" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2488" s="0">
+        <v>321</v>
+      </c>
+      <c r="E2488" s="0">
+        <v>1.24961071317347E-03</v>
+      </c>
+      <c r="F2488" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2488" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2489">
+      <c r="A2489" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2489" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2489" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2489" s="0">
+        <v>184</v>
+      </c>
+      <c r="E2489" s="0">
+        <v>7.16287760822174E-04</v>
+      </c>
+      <c r="F2489" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2489" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2490">
+      <c r="A2490" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2490" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2490" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2490" s="0">
+        <v>27706</v>
+      </c>
+      <c r="E2490" s="0">
+        <v>0.107855808159452</v>
+      </c>
+      <c r="F2490" s="0">
+        <v>130</v>
+      </c>
+      <c r="G2490" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2491">
+      <c r="A2491" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2491" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2491" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2491" s="0">
+        <v>36888</v>
+      </c>
+      <c r="E2491" s="0">
+        <v>0.143600124571785</v>
+      </c>
+      <c r="F2491" s="0">
+        <v>46</v>
+      </c>
+      <c r="G2491" s="0">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2492">
+      <c r="A2492" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2492" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2492" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2492" s="0">
+        <v>172568</v>
+      </c>
+      <c r="E2492" s="0">
+        <v>0.671784490812831</v>
+      </c>
+      <c r="F2492" s="0">
+        <v>3029</v>
+      </c>
+      <c r="G2492" s="0">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2493">
+      <c r="A2493" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2493" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2493" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2493" s="0">
+        <v>27755</v>
+      </c>
+      <c r="E2493" s="0">
+        <v>0.108046558704453</v>
+      </c>
+      <c r="F2493" s="0">
+        <v>160</v>
+      </c>
+      <c r="G2493" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2494">
+      <c r="A2494" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2494" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2494" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2494" s="0">
+        <v>56557</v>
+      </c>
+      <c r="E2494" s="0">
+        <v>0.220168950482716</v>
+      </c>
+      <c r="F2494" s="0">
+        <v>74</v>
+      </c>
+      <c r="G2494" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2495">
+      <c r="A2495" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2495" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2495" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2495" s="0">
+        <v>132959</v>
+      </c>
+      <c r="E2495" s="0">
+        <v>0.517591871691062</v>
+      </c>
+      <c r="F2495" s="0">
+        <v>1443</v>
+      </c>
+      <c r="G2495" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2496">
+      <c r="A2496" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2496" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2496" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2496" s="0">
+        <v>121925</v>
+      </c>
+      <c r="E2496" s="0">
+        <v>0.474637963251324</v>
+      </c>
+      <c r="F2496" s="0">
+        <v>1819</v>
+      </c>
+      <c r="G2496" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2497">
+      <c r="A2497" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2497" s="1">
+        <v>44133</v>
+      </c>
+      <c r="C2497" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2497" s="0">
+        <v>1996</v>
+      </c>
+      <c r="E2497" s="0">
+        <v>7.77016505761445E-03</v>
+      </c>
+      <c r="F2497" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2497" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2498">
+      <c r="A2498" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2498" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2498" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2498" s="0">
+        <v>148547</v>
+      </c>
+      <c r="E2498" s="0">
+        <v>0.572461925021581</v>
+      </c>
+      <c r="F2498" s="0">
+        <v>2329</v>
+      </c>
+      <c r="G2498" s="0">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2499">
+      <c r="A2499" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2499" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2499" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2499" s="0">
+        <v>42808</v>
+      </c>
+      <c r="E2499" s="0">
+        <v>0.164971019854483</v>
+      </c>
+      <c r="F2499" s="0">
+        <v>798</v>
+      </c>
+      <c r="G2499" s="0">
+        <v>0.238</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2500">
+      <c r="A2500" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2500" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2500" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2500" s="0">
+        <v>2248</v>
+      </c>
+      <c r="E2500" s="0">
+        <v>8.66321371315822E-03</v>
+      </c>
+      <c r="F2500" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2500" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2501">
+      <c r="A2501" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2501" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2501" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2501" s="0">
+        <v>324</v>
+      </c>
+      <c r="E2501" s="0">
+        <v>1.24861265260821E-03</v>
+      </c>
+      <c r="F2501" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2501" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2502">
+      <c r="A2502" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2502" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2502" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2502" s="0">
+        <v>185</v>
+      </c>
+      <c r="E2502" s="0">
+        <v>7.1294240966827E-04</v>
+      </c>
+      <c r="F2502" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2502" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2503">
+      <c r="A2503" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2503" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2503" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2503" s="0">
+        <v>27824</v>
+      </c>
+      <c r="E2503" s="0">
+        <v>0.107226538414108</v>
+      </c>
+      <c r="F2503" s="0">
+        <v>131</v>
+      </c>
+      <c r="G2503" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2504">
+      <c r="A2504" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2504" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2504" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2504" s="0">
+        <v>37552</v>
+      </c>
+      <c r="E2504" s="0">
+        <v>0.144715747934394</v>
+      </c>
+      <c r="F2504" s="0">
+        <v>49</v>
+      </c>
+      <c r="G2504" s="0">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2505">
+      <c r="A2505" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2505" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2505" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2505" s="0">
+        <v>173968</v>
+      </c>
+      <c r="E2505" s="0">
+        <v>0.670427919595511</v>
+      </c>
+      <c r="F2505" s="0">
+        <v>3101</v>
+      </c>
+      <c r="G2505" s="0">
+        <v>0.928</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2506">
+      <c r="A2506" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2506" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2506" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2506" s="0">
+        <v>27855</v>
+      </c>
+      <c r="E2506" s="0">
+        <v>0.107346004439512</v>
+      </c>
+      <c r="F2506" s="0">
+        <v>164</v>
+      </c>
+      <c r="G2506" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2507">
+      <c r="A2507" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2507" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2507" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2507" s="0">
+        <v>57665</v>
+      </c>
+      <c r="E2507" s="0">
+        <v>0.222226075964977</v>
+      </c>
+      <c r="F2507" s="0">
+        <v>76</v>
+      </c>
+      <c r="G2507" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2508">
+      <c r="A2508" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2508" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2508" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2508" s="0">
+        <v>134349</v>
+      </c>
+      <c r="E2508" s="0">
+        <v>0.517746485386608</v>
+      </c>
+      <c r="F2508" s="0">
+        <v>1474</v>
+      </c>
+      <c r="G2508" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2509">
+      <c r="A2509" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2509" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2509" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2509" s="0">
+        <v>123097</v>
+      </c>
+      <c r="E2509" s="0">
+        <v>0.474384171907757</v>
+      </c>
+      <c r="F2509" s="0">
+        <v>1866</v>
+      </c>
+      <c r="G2509" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2510">
+      <c r="A2510" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2510" s="1">
+        <v>44134</v>
+      </c>
+      <c r="C2510" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2510" s="0">
+        <v>2042</v>
+      </c>
+      <c r="E2510" s="0">
+        <v>7.86934270563571E-03</v>
+      </c>
+      <c r="F2510" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2510" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2511">
+      <c r="A2511" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2511" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2511" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2511" s="0">
+        <v>149449</v>
+      </c>
+      <c r="E2511" s="0">
+        <v>0.573322029216794</v>
+      </c>
+      <c r="F2511" s="0">
+        <v>2338</v>
+      </c>
+      <c r="G2511" s="0">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2512">
+      <c r="A2512" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2512" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2512" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2512" s="0">
+        <v>42948</v>
+      </c>
+      <c r="E2512" s="0">
+        <v>0.164758777314019</v>
+      </c>
+      <c r="F2512" s="0">
+        <v>798</v>
+      </c>
+      <c r="G2512" s="0">
+        <v>0.237</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2513">
+      <c r="A2513" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2513" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2513" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2513" s="0">
+        <v>2253</v>
+      </c>
+      <c r="E2513" s="0">
+        <v>8.64304566658483E-03</v>
+      </c>
+      <c r="F2513" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2513" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2514">
+      <c r="A2514" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2514" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2514" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2514" s="0">
+        <v>325</v>
+      </c>
+      <c r="E2514" s="0">
+        <v>1.24677755953842E-03</v>
+      </c>
+      <c r="F2514" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2514" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2515">
+      <c r="A2515" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2515" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2515" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2515" s="0">
+        <v>187</v>
+      </c>
+      <c r="E2515" s="0">
+        <v>7.17376626565185E-04</v>
+      </c>
+      <c r="F2515" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2515" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2516">
+      <c r="A2516" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2516" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2516" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2516" s="0">
+        <v>27918</v>
+      </c>
+      <c r="E2516" s="0">
+        <v>0.107100110483673</v>
+      </c>
+      <c r="F2516" s="0">
+        <v>133</v>
+      </c>
+      <c r="G2516" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2517">
+      <c r="A2517" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2517" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2517" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2517" s="0">
+        <v>37592</v>
+      </c>
+      <c r="E2517" s="0">
+        <v>0.144211883132826</v>
+      </c>
+      <c r="F2517" s="0">
+        <v>50</v>
+      </c>
+      <c r="G2517" s="0">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2518">
+      <c r="A2518" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2518" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2518" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2518" s="0">
+        <v>175050</v>
+      </c>
+      <c r="E2518" s="0">
+        <v>0.671533574760619</v>
+      </c>
+      <c r="F2518" s="0">
+        <v>3110</v>
+      </c>
+      <c r="G2518" s="0">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2519">
+      <c r="A2519" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2519" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2519" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2519" s="0">
+        <v>27922</v>
+      </c>
+      <c r="E2519" s="0">
+        <v>0.107115455438252</v>
+      </c>
+      <c r="F2519" s="0">
+        <v>165</v>
+      </c>
+      <c r="G2519" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2520">
+      <c r="A2520" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2520" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2520" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2520" s="0">
+        <v>57700</v>
+      </c>
+      <c r="E2520" s="0">
+        <v>0.221350969801129</v>
+      </c>
+      <c r="F2520" s="0">
+        <v>78</v>
+      </c>
+      <c r="G2520" s="0">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2521">
+      <c r="A2521" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2521" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2521" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2521" s="0">
+        <v>134976</v>
+      </c>
+      <c r="E2521" s="0">
+        <v>0.517800147311564</v>
+      </c>
+      <c r="F2521" s="0">
+        <v>1480</v>
+      </c>
+      <c r="G2521" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2522">
+      <c r="A2522" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2522" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2522" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2522" s="0">
+        <v>123646</v>
+      </c>
+      <c r="E2522" s="0">
+        <v>0.474335563466732</v>
+      </c>
+      <c r="F2522" s="0">
+        <v>1872</v>
+      </c>
+      <c r="G2522" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2523">
+      <c r="A2523" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2523" s="1">
+        <v>44135</v>
+      </c>
+      <c r="C2523" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2523" s="0">
+        <v>2050</v>
+      </c>
+      <c r="E2523" s="0">
+        <v>7.8642892217039E-03</v>
+      </c>
+      <c r="F2523" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2523" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2524">
+      <c r="A2524" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2524" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2524" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2524" s="0">
+        <v>149853</v>
+      </c>
+      <c r="E2524" s="0">
+        <v>0.573213834890179</v>
+      </c>
+      <c r="F2524" s="0">
+        <v>2338</v>
+      </c>
+      <c r="G2524" s="0">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2525">
+      <c r="A2525" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2525" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2525" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2525" s="0">
+        <v>43013</v>
+      </c>
+      <c r="E2525" s="0">
+        <v>0.164532219442596</v>
+      </c>
+      <c r="F2525" s="0">
+        <v>798</v>
+      </c>
+      <c r="G2525" s="0">
+        <v>0.237</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2526">
+      <c r="A2526" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2526" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2526" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2526" s="0">
+        <v>2264</v>
+      </c>
+      <c r="E2526" s="0">
+        <v>8.66019447185819E-03</v>
+      </c>
+      <c r="F2526" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2526" s="0">
+        <v>0.008</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2527">
+      <c r="A2527" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2527" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2527" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2527" s="0">
+        <v>326</v>
+      </c>
+      <c r="E2527" s="0">
+        <v>1.24700680115979E-03</v>
+      </c>
+      <c r="F2527" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2527" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2528">
+      <c r="A2528" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2528" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2528" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2528" s="0">
+        <v>188</v>
+      </c>
+      <c r="E2528" s="0">
+        <v>7.19132756497058E-04</v>
+      </c>
+      <c r="F2528" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2528" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2529">
+      <c r="A2529" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2529" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2529" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2529" s="0">
+        <v>27957</v>
+      </c>
+      <c r="E2529" s="0">
+        <v>0.106940396135044</v>
+      </c>
+      <c r="F2529" s="0">
+        <v>133</v>
+      </c>
+      <c r="G2529" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2530">
+      <c r="A2530" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2530" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2530" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2530" s="0">
+        <v>37825</v>
+      </c>
+      <c r="E2530" s="0">
+        <v>0.144687215502666</v>
+      </c>
+      <c r="F2530" s="0">
+        <v>50</v>
+      </c>
+      <c r="G2530" s="0">
+        <v>0.014</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2531">
+      <c r="A2531" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2531" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2531" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2531" s="0">
+        <v>175218</v>
+      </c>
+      <c r="E2531" s="0">
+        <v>0.670239379403732</v>
+      </c>
+      <c r="F2531" s="0">
+        <v>3110</v>
+      </c>
+      <c r="G2531" s="0">
+        <v>0.927</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2532">
+      <c r="A2532" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2532" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2532" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2532" s="0">
+        <v>27944</v>
+      </c>
+      <c r="E2532" s="0">
+        <v>0.106890668869967</v>
+      </c>
+      <c r="F2532" s="0">
+        <v>165</v>
+      </c>
+      <c r="G2532" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2533">
+      <c r="A2533" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2533" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2533" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2533" s="0">
+        <v>58264</v>
+      </c>
+      <c r="E2533" s="0">
+        <v>0.222869951726301</v>
+      </c>
+      <c r="F2533" s="0">
+        <v>78</v>
+      </c>
+      <c r="G2533" s="0">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2534">
+      <c r="A2534" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2534" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2534" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2534" s="0">
+        <v>135378</v>
+      </c>
+      <c r="E2534" s="0">
+        <v>0.517844437814142</v>
+      </c>
+      <c r="F2534" s="0">
+        <v>1480</v>
+      </c>
+      <c r="G2534" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2535">
+      <c r="A2535" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2535" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2535" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2535" s="0">
+        <v>123990</v>
+      </c>
+      <c r="E2535" s="0">
+        <v>0.474283353606757</v>
+      </c>
+      <c r="F2535" s="0">
+        <v>1872</v>
+      </c>
+      <c r="G2535" s="0">
+        <v>0.558</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2536">
+      <c r="A2536" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2536" s="1">
+        <v>44136</v>
+      </c>
+      <c r="C2536" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2536" s="0">
+        <v>2058</v>
+      </c>
+      <c r="E2536" s="0">
+        <v>7.87220857910078E-03</v>
+      </c>
+      <c r="F2536" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2536" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2537">
+      <c r="A2537" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2537" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2537" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2537" s="0">
+        <v>151454</v>
+      </c>
+      <c r="E2537" s="0">
+        <v>0.572416634226171</v>
+      </c>
+      <c r="F2537" s="0">
+        <v>2356</v>
+      </c>
+      <c r="G2537" s="0">
+        <v>0.697</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2538">
+      <c r="A2538" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2538" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2538" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2538" s="0">
+        <v>43330</v>
+      </c>
+      <c r="E2538" s="0">
+        <v>0.163764659639362</v>
+      </c>
+      <c r="F2538" s="0">
+        <v>800</v>
+      </c>
+      <c r="G2538" s="0">
+        <v>0.236</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2539">
+      <c r="A2539" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2539" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2539" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2539" s="0">
+        <v>2280</v>
+      </c>
+      <c r="E2539" s="0">
+        <v>8.61720341513377E-03</v>
+      </c>
+      <c r="F2539" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2539" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2540">
+      <c r="A2540" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2540" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2540" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2540" s="0">
+        <v>330</v>
+      </c>
+      <c r="E2540" s="0">
+        <v>1.24722681008515E-03</v>
+      </c>
+      <c r="F2540" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2540" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2541">
+      <c r="A2541" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2541" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2541" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2541" s="0">
+        <v>189</v>
+      </c>
+      <c r="E2541" s="0">
+        <v>7.14320809412405E-04</v>
+      </c>
+      <c r="F2541" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2541" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2542">
+      <c r="A2542" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2542" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2542" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2542" s="0">
+        <v>28205</v>
+      </c>
+      <c r="E2542" s="0">
+        <v>0.10660009751046</v>
+      </c>
+      <c r="F2542" s="0">
+        <v>135</v>
+      </c>
+      <c r="G2542" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2543">
+      <c r="A2543" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2543" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2543" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2543" s="0">
+        <v>38799</v>
+      </c>
+      <c r="E2543" s="0">
+        <v>0.146639857589375</v>
+      </c>
+      <c r="F2543" s="0">
+        <v>54</v>
+      </c>
+      <c r="G2543" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2544">
+      <c r="A2544" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2544" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2544" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2544" s="0">
+        <v>176382</v>
+      </c>
+      <c r="E2544" s="0">
+        <v>0.666631391564967</v>
+      </c>
+      <c r="F2544" s="0">
+        <v>3127</v>
+      </c>
+      <c r="G2544" s="0">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2545">
+      <c r="A2545" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2545" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2545" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2545" s="0">
+        <v>28018</v>
+      </c>
+      <c r="E2545" s="0">
+        <v>0.105893335651411</v>
+      </c>
+      <c r="F2545" s="0">
+        <v>166</v>
+      </c>
+      <c r="G2545" s="0">
+        <v>0.049</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2546">
+      <c r="A2546" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2546" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2546" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2546" s="0">
+        <v>60187</v>
+      </c>
+      <c r="E2546" s="0">
+        <v>0.227475272783621</v>
+      </c>
+      <c r="F2546" s="0">
+        <v>86</v>
+      </c>
+      <c r="G2546" s="0">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2547">
+      <c r="A2547" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2547" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2547" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2547" s="0">
+        <v>137152</v>
+      </c>
+      <c r="E2547" s="0">
+        <v>0.518362580172117</v>
+      </c>
+      <c r="F2547" s="0">
+        <v>1493</v>
+      </c>
+      <c r="G2547" s="0">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2548">
+      <c r="A2548" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2548" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2548" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2548" s="0">
+        <v>125353</v>
+      </c>
+      <c r="E2548" s="0">
+        <v>0.4737685524988</v>
+      </c>
+      <c r="F2548" s="0">
+        <v>1885</v>
+      </c>
+      <c r="G2548" s="0">
+        <v>0.557</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2549">
+      <c r="A2549" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2549" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C2549" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2549" s="0">
+        <v>2082</v>
+      </c>
+      <c r="E2549" s="0">
+        <v>7.86886732908268E-03</v>
+      </c>
+      <c r="F2549" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2549" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2550">
+      <c r="A2550" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2550" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2550" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2550" s="0">
+        <v>152595</v>
+      </c>
+      <c r="E2550" s="0">
+        <v>0.572896526090923</v>
+      </c>
+      <c r="F2550" s="0">
+        <v>2420</v>
+      </c>
+      <c r="G2550" s="0">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2551">
+      <c r="A2551" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2551" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2551" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2551" s="0">
+        <v>43502</v>
+      </c>
+      <c r="E2551" s="0">
+        <v>0.16332215785581</v>
+      </c>
+      <c r="F2551" s="0">
+        <v>808</v>
+      </c>
+      <c r="G2551" s="0">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2552">
+      <c r="A2552" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2552" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2552" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2552" s="0">
+        <v>2301</v>
+      </c>
+      <c r="E2552" s="0">
+        <v>8.63878178534824E-03</v>
+      </c>
+      <c r="F2552" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2552" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2553">
+      <c r="A2553" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2553" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2553" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2553" s="0">
+        <v>332</v>
+      </c>
+      <c r="E2553" s="0">
+        <v>1.24644743708632E-03</v>
+      </c>
+      <c r="F2553" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2553" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2554">
+      <c r="A2554" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2554" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2554" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2554" s="0">
+        <v>189</v>
+      </c>
+      <c r="E2554" s="0">
+        <v>7.09573992799138E-04</v>
+      </c>
+      <c r="F2554" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2554" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2555">
+      <c r="A2555" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2555" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2555" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2555" s="0">
+        <v>28222</v>
+      </c>
+      <c r="E2555" s="0">
+        <v>0.105955540871837</v>
+      </c>
+      <c r="F2555" s="0">
+        <v>138</v>
+      </c>
+      <c r="G2555" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2556">
+      <c r="A2556" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2556" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2556" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2556" s="0">
+        <v>39216</v>
+      </c>
+      <c r="E2556" s="0">
+        <v>0.147230971966196</v>
+      </c>
+      <c r="F2556" s="0">
+        <v>54</v>
+      </c>
+      <c r="G2556" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2557">
+      <c r="A2557" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2557" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2557" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2557" s="0">
+        <v>177810</v>
+      </c>
+      <c r="E2557" s="0">
+        <v>0.667562707193729</v>
+      </c>
+      <c r="F2557" s="0">
+        <v>3197</v>
+      </c>
+      <c r="G2557" s="0">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2558">
+      <c r="A2558" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2558" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2558" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2558" s="0">
+        <v>28127</v>
+      </c>
+      <c r="E2558" s="0">
+        <v>0.105598876695563</v>
+      </c>
+      <c r="F2558" s="0">
+        <v>166</v>
+      </c>
+      <c r="G2558" s="0">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2559">
+      <c r="A2559" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2559" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2559" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2559" s="0">
+        <v>60420</v>
+      </c>
+      <c r="E2559" s="0">
+        <v>0.226838416110709</v>
+      </c>
+      <c r="F2559" s="0">
+        <v>91</v>
+      </c>
+      <c r="G2559" s="0">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2560">
+      <c r="A2560" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2560" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2560" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2560" s="0">
+        <v>138093</v>
+      </c>
+      <c r="E2560" s="0">
+        <v>0.518450800992653</v>
+      </c>
+      <c r="F2560" s="0">
+        <v>1530</v>
+      </c>
+      <c r="G2560" s="0">
+        <v>0.442</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2561">
+      <c r="A2561" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2561" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2561" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2561" s="0">
+        <v>126168</v>
+      </c>
+      <c r="E2561" s="0">
+        <v>0.473680060970802</v>
+      </c>
+      <c r="F2561" s="0">
+        <v>1923</v>
+      </c>
+      <c r="G2561" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2562">
+      <c r="A2562" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2562" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C2562" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2562" s="0">
+        <v>2096</v>
+      </c>
+      <c r="E2562" s="0">
+        <v>7.86913803654494E-03</v>
+      </c>
+      <c r="F2562" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2562" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2563">
+      <c r="A2563" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2563" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2563" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2563" s="0">
+        <v>155188</v>
+      </c>
+      <c r="E2563" s="0">
+        <v>0.575192177967547</v>
+      </c>
+      <c r="F2563" s="0">
+        <v>2441</v>
+      </c>
+      <c r="G2563" s="0">
+        <v>0.701</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2564">
+      <c r="A2564" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2564" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2564" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2564" s="0">
+        <v>44059</v>
+      </c>
+      <c r="E2564" s="0">
+        <v>0.16330123572101</v>
+      </c>
+      <c r="F2564" s="0">
+        <v>811</v>
+      </c>
+      <c r="G2564" s="0">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2565">
+      <c r="A2565" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2565" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2565" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2565" s="0">
+        <v>2331</v>
+      </c>
+      <c r="E2565" s="0">
+        <v>8.63966909066649E-03</v>
+      </c>
+      <c r="F2565" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2565" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2566">
+      <c r="A2566" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2566" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2566" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2566" s="0">
+        <v>339</v>
+      </c>
+      <c r="E2566" s="0">
+        <v>1.25647697200169E-03</v>
+      </c>
+      <c r="F2566" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2566" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2567">
+      <c r="A2567" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2567" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2567" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2567" s="0">
+        <v>190</v>
+      </c>
+      <c r="E2567" s="0">
+        <v>7.04220131800357E-04</v>
+      </c>
+      <c r="F2567" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2567" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2568">
+      <c r="A2568" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2568" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2568" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2568" s="0">
+        <v>28513</v>
+      </c>
+      <c r="E2568" s="0">
+        <v>0.105681203252756</v>
+      </c>
+      <c r="F2568" s="0">
+        <v>139</v>
+      </c>
+      <c r="G2568" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2569">
+      <c r="A2569" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2569" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2569" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2569" s="0">
+        <v>39182</v>
+      </c>
+      <c r="E2569" s="0">
+        <v>0.145225016864219</v>
+      </c>
+      <c r="F2569" s="0">
+        <v>53</v>
+      </c>
+      <c r="G2569" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2570">
+      <c r="A2570" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2570" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2570" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2570" s="0">
+        <v>181317</v>
+      </c>
+      <c r="E2570" s="0">
+        <v>0.672037271777081</v>
+      </c>
+      <c r="F2570" s="0">
+        <v>3224</v>
+      </c>
+      <c r="G2570" s="0">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2571">
+      <c r="A2571" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2571" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2571" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2571" s="0">
+        <v>28295</v>
+      </c>
+      <c r="E2571" s="0">
+        <v>0.104873203312058</v>
+      </c>
+      <c r="F2571" s="0">
+        <v>167</v>
+      </c>
+      <c r="G2571" s="0">
+        <v>0.048</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2572">
+      <c r="A2572" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2572" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2572" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2572" s="0">
+        <v>60190</v>
+      </c>
+      <c r="E2572" s="0">
+        <v>0.223089524910861</v>
+      </c>
+      <c r="F2572" s="0">
+        <v>87</v>
+      </c>
+      <c r="G2572" s="0">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2573">
+      <c r="A2573" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2573" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2573" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2573" s="0">
+        <v>139956</v>
+      </c>
+      <c r="E2573" s="0">
+        <v>0.518735961927636</v>
+      </c>
+      <c r="F2573" s="0">
+        <v>1541</v>
+      </c>
+      <c r="G2573" s="0">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2574">
+      <c r="A2574" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2574" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2574" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2574" s="0">
+        <v>127757</v>
+      </c>
+      <c r="E2574" s="0">
+        <v>0.473521323044307</v>
+      </c>
+      <c r="F2574" s="0">
+        <v>1936</v>
+      </c>
+      <c r="G2574" s="0">
+        <v>0.556</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2575">
+      <c r="A2575" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2575" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C2575" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2575" s="0">
+        <v>2089</v>
+      </c>
+      <c r="E2575" s="0">
+        <v>7.74271502805761E-03</v>
+      </c>
+      <c r="F2575" s="0">
+        <v>1</v>
+      </c>
+      <c r="G2575" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2576">
+      <c r="A2576" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2576" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2576" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2576" s="0">
+        <v>156821</v>
+      </c>
+      <c r="E2576" s="0">
+        <v>0.577033605498747</v>
+      </c>
+      <c r="F2576" s="0">
+        <v>2465</v>
+      </c>
+      <c r="G2576" s="0">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2577">
+      <c r="A2577" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2577" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2577" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2577" s="0">
+        <v>44392</v>
+      </c>
+      <c r="E2577" s="0">
+        <v>0.163343403085686</v>
+      </c>
+      <c r="F2577" s="0">
+        <v>818</v>
+      </c>
+      <c r="G2577" s="0">
+        <v>0.233</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2578">
+      <c r="A2578" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2578" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2578" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2578" s="0">
+        <v>2353</v>
+      </c>
+      <c r="E2578" s="0">
+        <v>8.65802458687645E-03</v>
+      </c>
+      <c r="F2578" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2578" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2579">
+      <c r="A2579" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2579" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2579" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2579" s="0">
+        <v>342</v>
+      </c>
+      <c r="E2579" s="0">
+        <v>1.25841241339216E-03</v>
+      </c>
+      <c r="F2579" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2579" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2580">
+      <c r="A2580" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2580" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2580" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2580" s="0">
+        <v>189</v>
+      </c>
+      <c r="E2580" s="0">
+        <v>6.95438438979876E-04</v>
+      </c>
+      <c r="F2580" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2580" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2581">
+      <c r="A2581" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2581" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2581" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2581" s="0">
+        <v>28625</v>
+      </c>
+      <c r="E2581" s="0">
+        <v>0.105327647173539</v>
+      </c>
+      <c r="F2581" s="0">
+        <v>138</v>
+      </c>
+      <c r="G2581" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2582">
+      <c r="A2582" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2582" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2582" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2582" s="0">
+        <v>39049</v>
+      </c>
+      <c r="E2582" s="0">
+        <v>0.143683468802779</v>
+      </c>
+      <c r="F2582" s="0">
+        <v>54</v>
+      </c>
+      <c r="G2582" s="0">
+        <v>0.015</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2583">
+      <c r="A2583" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2583" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2583" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2583" s="0">
+        <v>183671</v>
+      </c>
+      <c r="E2583" s="0">
+        <v>0.675830018655412</v>
+      </c>
+      <c r="F2583" s="0">
+        <v>3250</v>
+      </c>
+      <c r="G2583" s="0">
+        <v>0.926</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2584">
+      <c r="A2584" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2584" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2584" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2584" s="0">
+        <v>28397</v>
+      </c>
+      <c r="E2584" s="0">
+        <v>0.104488705564611</v>
+      </c>
+      <c r="F2584" s="0">
+        <v>168</v>
+      </c>
+      <c r="G2584" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2585">
+      <c r="A2585" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2585" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2585" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2585" s="0">
+        <v>59703</v>
+      </c>
+      <c r="E2585" s="0">
+        <v>0.219681275779977</v>
+      </c>
+      <c r="F2585" s="0">
+        <v>91</v>
+      </c>
+      <c r="G2585" s="0">
+        <v>0.025</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2586">
+      <c r="A2586" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2586" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2586" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2586" s="0">
+        <v>141051</v>
+      </c>
+      <c r="E2586" s="0">
+        <v>0.51900681088122</v>
+      </c>
+      <c r="F2586" s="0">
+        <v>1561</v>
+      </c>
+      <c r="G2586" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2587">
+      <c r="A2587" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2587" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2587" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2587" s="0">
+        <v>128621</v>
+      </c>
+      <c r="E2587" s="0">
+        <v>0.473269774920797</v>
+      </c>
+      <c r="F2587" s="0">
+        <v>1946</v>
+      </c>
+      <c r="G2587" s="0">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2588">
+      <c r="A2588" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2588" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C2588" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2588" s="0">
+        <v>2099</v>
+      </c>
+      <c r="E2588" s="0">
+        <v>7.72341419798286E-03</v>
+      </c>
+      <c r="F2588" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2588" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2589">
+      <c r="A2589" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2589" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2589" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2589" s="0">
+        <v>157842</v>
+      </c>
+      <c r="E2589" s="0">
+        <v>0.577871013091995</v>
+      </c>
+      <c r="F2589" s="0">
+        <v>2491</v>
+      </c>
+      <c r="G2589" s="0">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2590">
+      <c r="A2590" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2590" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2590" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2590" s="0">
+        <v>44485</v>
+      </c>
+      <c r="E2590" s="0">
+        <v>0.162862812289488</v>
+      </c>
+      <c r="F2590" s="0">
+        <v>820</v>
+      </c>
+      <c r="G2590" s="0">
+        <v>0.231</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2591">
+      <c r="A2591" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2591" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2591" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2591" s="0">
+        <v>2362</v>
+      </c>
+      <c r="E2591" s="0">
+        <v>8.64745335793574E-03</v>
+      </c>
+      <c r="F2591" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2591" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2592">
+      <c r="A2592" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2592" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2592" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2592" s="0">
+        <v>340</v>
+      </c>
+      <c r="E2592" s="0">
+        <v>1.24476466625663E-03</v>
+      </c>
+      <c r="F2592" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2592" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2593">
+      <c r="A2593" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2593" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2593" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2593" s="0">
+        <v>190</v>
+      </c>
+      <c r="E2593" s="0">
+        <v>6.95603784084585E-04</v>
+      </c>
+      <c r="F2593" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2593" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2594">
+      <c r="A2594" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2594" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2594" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2594" s="0">
+        <v>28675</v>
+      </c>
+      <c r="E2594" s="0">
+        <v>0.104981255308555</v>
+      </c>
+      <c r="F2594" s="0">
+        <v>139</v>
+      </c>
+      <c r="G2594" s="0">
+        <v>0.039</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2595">
+      <c r="A2595" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2595" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2595" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2595" s="0">
+        <v>39250</v>
+      </c>
+      <c r="E2595" s="0">
+        <v>0.143697097501684</v>
+      </c>
+      <c r="F2595" s="0">
+        <v>57</v>
+      </c>
+      <c r="G2595" s="0">
+        <v>0.016</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2596">
+      <c r="A2596" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2596" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2596" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2596" s="0">
+        <v>184675</v>
+      </c>
+      <c r="E2596" s="0">
+        <v>0.676108572767478</v>
+      </c>
+      <c r="F2596" s="0">
+        <v>3278</v>
+      </c>
+      <c r="G2596" s="0">
+        <v>0.925</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2597">
+      <c r="A2597" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2597" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2597" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2597" s="0">
+        <v>28471</v>
+      </c>
+      <c r="E2597" s="0">
+        <v>0.104234396508801</v>
+      </c>
+      <c r="F2597" s="0">
+        <v>168</v>
+      </c>
+      <c r="G2597" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2598">
+      <c r="A2598" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2598" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2598" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2598" s="0">
+        <v>59998</v>
+      </c>
+      <c r="E2598" s="0">
+        <v>0.219657030723721</v>
+      </c>
+      <c r="F2598" s="0">
+        <v>95</v>
+      </c>
+      <c r="G2598" s="0">
+        <v>0.026</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2599">
+      <c r="A2599" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2599" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2599" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2599" s="0">
+        <v>141807</v>
+      </c>
+      <c r="E2599" s="0">
+        <v>0.519165714787804</v>
+      </c>
+      <c r="F2599" s="0">
+        <v>1577</v>
+      </c>
+      <c r="G2599" s="0">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2600">
+      <c r="A2600" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2600" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2600" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2600" s="0">
+        <v>129216</v>
+      </c>
+      <c r="E2600" s="0">
+        <v>0.473069150338283</v>
+      </c>
+      <c r="F2600" s="0">
+        <v>1962</v>
+      </c>
+      <c r="G2600" s="0">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2601">
+      <c r="A2601" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2601" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C2601" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2601" s="0">
+        <v>2121</v>
+      </c>
+      <c r="E2601" s="0">
+        <v>7.76513487391266E-03</v>
+      </c>
+      <c r="F2601" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2601" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2602">
+      <c r="A2602" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2602" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2602" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2602" s="0">
+        <v>160630</v>
+      </c>
+      <c r="E2602" s="0">
+        <v>0.577359236561652</v>
+      </c>
+      <c r="F2602" s="0">
+        <v>2525</v>
+      </c>
+      <c r="G2602" s="0">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2603">
+      <c r="A2603" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2603" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2603" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2603" s="0">
+        <v>44904</v>
+      </c>
+      <c r="E2603" s="0">
+        <v>0.161400355839908</v>
+      </c>
+      <c r="F2603" s="0">
+        <v>828</v>
+      </c>
+      <c r="G2603" s="0">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2604">
+      <c r="A2604" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2604" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2604" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2604" s="0">
+        <v>2408</v>
+      </c>
+      <c r="E2604" s="0">
+        <v>8.65517675179268E-03</v>
+      </c>
+      <c r="F2604" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2604" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2605">
+      <c r="A2605" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2605" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2605" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2605" s="0">
+        <v>347</v>
+      </c>
+      <c r="E2605" s="0">
+        <v>1.24723684919936E-03</v>
+      </c>
+      <c r="F2605" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2605" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2606">
+      <c r="A2606" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2606" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2606" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2606" s="0">
+        <v>194</v>
+      </c>
+      <c r="E2606" s="0">
+        <v>6.97302445950075E-04</v>
+      </c>
+      <c r="F2606" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2606" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2607">
+      <c r="A2607" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2607" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2607" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2607" s="0">
+        <v>29126</v>
+      </c>
+      <c r="E2607" s="0">
+        <v>0.104688819797639</v>
+      </c>
+      <c r="F2607" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2607" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2608">
+      <c r="A2608" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2608" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2608" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2608" s="0">
+        <v>40606</v>
+      </c>
+      <c r="E2608" s="0">
+        <v>0.145951871753859</v>
+      </c>
+      <c r="F2608" s="0">
+        <v>63</v>
+      </c>
+      <c r="G2608" s="0">
+        <v>0.017</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2609">
+      <c r="A2609" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2609" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2609" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2609" s="0">
+        <v>186675</v>
+      </c>
+      <c r="E2609" s="0">
+        <v>0.670973887101702</v>
+      </c>
+      <c r="F2609" s="0">
+        <v>3313</v>
+      </c>
+      <c r="G2609" s="0">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2610">
+      <c r="A2610" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2610" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2610" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2610" s="0">
+        <v>28610</v>
+      </c>
+      <c r="E2610" s="0">
+        <v>0.102834139065112</v>
+      </c>
+      <c r="F2610" s="0">
+        <v>169</v>
+      </c>
+      <c r="G2610" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2611">
+      <c r="A2611" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2611" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2611" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2611" s="0">
+        <v>62930</v>
+      </c>
+      <c r="E2611" s="0">
+        <v>0.226191973833187</v>
+      </c>
+      <c r="F2611" s="0">
+        <v>108</v>
+      </c>
+      <c r="G2611" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2612">
+      <c r="A2612" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2612" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2612" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2612" s="0">
+        <v>144600</v>
+      </c>
+      <c r="E2612" s="0">
+        <v>0.519741926208148</v>
+      </c>
+      <c r="F2612" s="0">
+        <v>1599</v>
+      </c>
+      <c r="G2612" s="0">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2613">
+      <c r="A2613" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2613" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2613" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2613" s="0">
+        <v>131451</v>
+      </c>
+      <c r="E2613" s="0">
+        <v>0.472479916611254</v>
+      </c>
+      <c r="F2613" s="0">
+        <v>1989</v>
+      </c>
+      <c r="G2613" s="0">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2614">
+      <c r="A2614" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2614" s="1">
+        <v>44142</v>
+      </c>
+      <c r="C2614" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2614" s="0">
+        <v>2164</v>
+      </c>
+      <c r="E2614" s="0">
+        <v>7.77815718059774E-03</v>
+      </c>
+      <c r="F2614" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2614" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2615">
+      <c r="A2615" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2615" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2615" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2615" s="0">
+        <v>162480</v>
+      </c>
+      <c r="E2615" s="0">
+        <v>0.57647480406314</v>
+      </c>
+      <c r="F2615" s="0">
+        <v>2526</v>
+      </c>
+      <c r="G2615" s="0">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2616">
+      <c r="A2616" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2616" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2616" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2616" s="0">
+        <v>45190</v>
+      </c>
+      <c r="E2616" s="0">
+        <v>0.160332941873543</v>
+      </c>
+      <c r="F2616" s="0">
+        <v>830</v>
+      </c>
+      <c r="G2616" s="0">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2617">
+      <c r="A2617" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2617" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2617" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2617" s="0">
+        <v>2449</v>
+      </c>
+      <c r="E2617" s="0">
+        <v>8.68898815331505E-03</v>
+      </c>
+      <c r="F2617" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2617" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2618">
+      <c r="A2618" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2618" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2618" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2618" s="0">
+        <v>352</v>
+      </c>
+      <c r="E2618" s="0">
+        <v>1.24888682317962E-03</v>
+      </c>
+      <c r="F2618" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2618" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2619">
+      <c r="A2619" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2619" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2619" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2619" s="0">
+        <v>196</v>
+      </c>
+      <c r="E2619" s="0">
+        <v>6.95402890179563E-04</v>
+      </c>
+      <c r="F2619" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2619" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2620">
+      <c r="A2620" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2620" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2620" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2620" s="0">
+        <v>29405</v>
+      </c>
+      <c r="E2620" s="0">
+        <v>0.104328173396582</v>
+      </c>
+      <c r="F2620" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2620" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2621">
+      <c r="A2621" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2621" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2621" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2621" s="0">
+        <v>41779</v>
+      </c>
+      <c r="E2621" s="0">
+        <v>0.148230802800061</v>
+      </c>
+      <c r="F2621" s="0">
+        <v>65</v>
+      </c>
+      <c r="G2621" s="0">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2622">
+      <c r="A2622" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2622" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2622" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2622" s="0">
+        <v>188114</v>
+      </c>
+      <c r="E2622" s="0">
+        <v>0.667423567771624</v>
+      </c>
+      <c r="F2622" s="0">
+        <v>3315</v>
+      </c>
+      <c r="G2622" s="0">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2623">
+      <c r="A2623" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2623" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2623" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2623" s="0">
+        <v>28705</v>
+      </c>
+      <c r="E2623" s="0">
+        <v>0.101844591645941</v>
+      </c>
+      <c r="F2623" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2623" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2624">
+      <c r="A2624" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2624" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2624" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2624" s="0">
+        <v>65032</v>
+      </c>
+      <c r="E2624" s="0">
+        <v>0.230731840582435</v>
+      </c>
+      <c r="F2624" s="0">
+        <v>110</v>
+      </c>
+      <c r="G2624" s="0">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2625">
+      <c r="A2625" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2625" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2625" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2625" s="0">
+        <v>146588</v>
+      </c>
+      <c r="E2625" s="0">
+        <v>0.520090402375723</v>
+      </c>
+      <c r="F2625" s="0">
+        <v>1602</v>
+      </c>
+      <c r="G2625" s="0">
+        <v>0.445</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2626">
+      <c r="A2626" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2626" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2626" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2626" s="0">
+        <v>133081</v>
+      </c>
+      <c r="E2626" s="0">
+        <v>0.472167918510135</v>
+      </c>
+      <c r="F2626" s="0">
+        <v>1991</v>
+      </c>
+      <c r="G2626" s="0">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2627">
+      <c r="A2627" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2627" s="1">
+        <v>44143</v>
+      </c>
+      <c r="C2627" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2627" s="0">
+        <v>2182</v>
+      </c>
+      <c r="E2627" s="0">
+        <v>7.74167911414187E-03</v>
+      </c>
+      <c r="F2627" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2627" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2628">
+      <c r="A2628" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2628" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2628" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2628" s="0">
+        <v>165481</v>
+      </c>
+      <c r="E2628" s="0">
+        <v>0.575046043715467</v>
+      </c>
+      <c r="F2628" s="0">
+        <v>2538</v>
+      </c>
+      <c r="G2628" s="0">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2629">
+      <c r="A2629" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2629" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2629" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2629" s="0">
+        <v>45747</v>
+      </c>
+      <c r="E2629" s="0">
+        <v>0.158970705771971</v>
+      </c>
+      <c r="F2629" s="0">
+        <v>832</v>
+      </c>
+      <c r="G2629" s="0">
+        <v>0.23</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2630">
+      <c r="A2630" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2630" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2630" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2630" s="0">
+        <v>2488</v>
+      </c>
+      <c r="E2630" s="0">
+        <v>8.64579351565486E-03</v>
+      </c>
+      <c r="F2630" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2630" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2631">
+      <c r="A2631" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2631" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2631" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2631" s="0">
+        <v>359</v>
+      </c>
+      <c r="E2631" s="0">
+        <v>1.24752406435695E-03</v>
+      </c>
+      <c r="F2631" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2631" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2632">
+      <c r="A2632" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2632" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2632" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2632" s="0">
+        <v>202</v>
+      </c>
+      <c r="E2632" s="0">
+        <v>7.01949473537895E-04</v>
+      </c>
+      <c r="F2632" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2632" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2633">
+      <c r="A2633" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2633" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2633" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2633" s="0">
+        <v>29881</v>
+      </c>
+      <c r="E2633" s="0">
+        <v>0.103836397122702</v>
+      </c>
+      <c r="F2633" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2633" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2634">
+      <c r="A2634" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2634" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2634" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2634" s="0">
+        <v>43612</v>
+      </c>
+      <c r="E2634" s="0">
+        <v>0.15155158633631</v>
+      </c>
+      <c r="F2634" s="0">
+        <v>66</v>
+      </c>
+      <c r="G2634" s="0">
+        <v>0.018</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2635">
+      <c r="A2635" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2635" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2635" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2635" s="0">
+        <v>190491</v>
+      </c>
+      <c r="E2635" s="0">
+        <v>0.661955728533204</v>
+      </c>
+      <c r="F2635" s="0">
+        <v>3325</v>
+      </c>
+      <c r="G2635" s="0">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2636">
+      <c r="A2636" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2636" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2636" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2636" s="0">
+        <v>28901</v>
+      </c>
+      <c r="E2636" s="0">
+        <v>0.100430899676825</v>
+      </c>
+      <c r="F2636" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2636" s="0">
+        <v>0.047</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2637">
+      <c r="A2637" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2637" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2637" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2637" s="0">
+        <v>68378</v>
+      </c>
+      <c r="E2637" s="0">
+        <v>0.237613371789971</v>
+      </c>
+      <c r="F2637" s="0">
+        <v>115</v>
+      </c>
+      <c r="G2637" s="0">
+        <v>0.031</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2638">
+      <c r="A2638" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2638" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2638" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2638" s="0">
+        <v>149820</v>
+      </c>
+      <c r="E2638" s="0">
+        <v>0.520624109531918</v>
+      </c>
+      <c r="F2638" s="0">
+        <v>1606</v>
+      </c>
+      <c r="G2638" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2639">
+      <c r="A2639" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2639" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2639" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2639" s="0">
+        <v>135727</v>
+      </c>
+      <c r="E2639" s="0">
+        <v>0.471650971261772</v>
+      </c>
+      <c r="F2639" s="0">
+        <v>2002</v>
+      </c>
+      <c r="G2639" s="0">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2640">
+      <c r="A2640" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2640" s="1">
+        <v>44144</v>
+      </c>
+      <c r="C2640" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2640" s="0">
+        <v>2223</v>
+      </c>
+      <c r="E2640" s="0">
+        <v>7.7249192063106E-03</v>
+      </c>
+      <c r="F2640" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2640" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2641">
+      <c r="A2641" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2641" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2641" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2641" s="0">
+        <v>166733</v>
+      </c>
+      <c r="E2641" s="0">
+        <v>0.575439432060162</v>
+      </c>
+      <c r="F2641" s="0">
+        <v>2583</v>
+      </c>
+      <c r="G2641" s="0">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2642">
+      <c r="A2642" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2642" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2642" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2642" s="0">
+        <v>45941</v>
+      </c>
+      <c r="E2642" s="0">
+        <v>0.158554473009398</v>
+      </c>
+      <c r="F2642" s="0">
+        <v>840</v>
+      </c>
+      <c r="G2642" s="0">
+        <v>0.228</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2643">
+      <c r="A2643" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2643" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2643" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2643" s="0">
+        <v>2505</v>
+      </c>
+      <c r="E2643" s="0">
+        <v>8.64541378917615E-03</v>
+      </c>
+      <c r="F2643" s="0">
+        <v>27</v>
+      </c>
+      <c r="G2643" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2644">
+      <c r="A2644" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2644" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2644" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2644" s="0">
+        <v>362</v>
+      </c>
+      <c r="E2644" s="0">
+        <v>1.24935720226817E-03</v>
+      </c>
+      <c r="F2644" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2644" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2645">
+      <c r="A2645" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2645" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2645" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2645" s="0">
+        <v>203</v>
+      </c>
+      <c r="E2645" s="0">
+        <v>7.00606386907289E-04</v>
+      </c>
+      <c r="F2645" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2645" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2646">
+      <c r="A2646" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2646" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2646" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2646" s="0">
+        <v>29989</v>
+      </c>
+      <c r="E2646" s="0">
+        <v>0.103499925797846</v>
+      </c>
+      <c r="F2646" s="0">
+        <v>141</v>
+      </c>
+      <c r="G2646" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2647">
+      <c r="A2647" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2647" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2647" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2647" s="0">
+        <v>44016</v>
+      </c>
+      <c r="E2647" s="0">
+        <v>0.151910791754242</v>
+      </c>
+      <c r="F2647" s="0">
+        <v>74</v>
+      </c>
+      <c r="G2647" s="0">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2648">
+      <c r="A2648" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2648" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2648" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2648" s="0">
+        <v>191679</v>
+      </c>
+      <c r="E2648" s="0">
+        <v>0.661534638600996</v>
+      </c>
+      <c r="F2648" s="0">
+        <v>3376</v>
+      </c>
+      <c r="G2648" s="0">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2649">
+      <c r="A2649" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2649" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2649" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2649" s="0">
+        <v>29014</v>
+      </c>
+      <c r="E2649" s="0">
+        <v>0.100134944382897</v>
+      </c>
+      <c r="F2649" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2649" s="0">
+        <v>0.046</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2650">
+      <c r="A2650" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2650" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2650" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2650" s="0">
+        <v>69056</v>
+      </c>
+      <c r="E2650" s="0">
+        <v>0.238330417016107</v>
+      </c>
+      <c r="F2650" s="0">
+        <v>126</v>
+      </c>
+      <c r="G2650" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2651">
+      <c r="A2651" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2651" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2651" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2651" s="0">
+        <v>150900</v>
+      </c>
+      <c r="E2651" s="0">
+        <v>0.520795585144384</v>
+      </c>
+      <c r="F2651" s="0">
+        <v>1633</v>
+      </c>
+      <c r="G2651" s="0">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2652">
+      <c r="A2652" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2652" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2652" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2652" s="0">
+        <v>136610</v>
+      </c>
+      <c r="E2652" s="0">
+        <v>0.471477037021698</v>
+      </c>
+      <c r="F2652" s="0">
+        <v>2037</v>
+      </c>
+      <c r="G2652" s="0">
+        <v>0.554</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2653">
+      <c r="A2653" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2653" s="1">
+        <v>44145</v>
+      </c>
+      <c r="C2653" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2653" s="0">
+        <v>2239</v>
+      </c>
+      <c r="E2653" s="0">
+        <v>7.72737783391832E-03</v>
+      </c>
+      <c r="F2653" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2653" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2654">
+      <c r="A2654" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2654" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2654" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2654" s="0">
+        <v>168915</v>
+      </c>
+      <c r="E2654" s="0">
+        <v>0.575753031041547</v>
+      </c>
+      <c r="F2654" s="0">
+        <v>2647</v>
+      </c>
+      <c r="G2654" s="0">
+        <v>0.703</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2655">
+      <c r="A2655" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2655" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2655" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2655" s="0">
+        <v>46294</v>
+      </c>
+      <c r="E2655" s="0">
+        <v>0.15779481288836</v>
+      </c>
+      <c r="F2655" s="0">
+        <v>854</v>
+      </c>
+      <c r="G2655" s="0">
+        <v>0.227</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2656">
+      <c r="A2656" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2656" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2656" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2656" s="0">
+        <v>2528</v>
+      </c>
+      <c r="E2656" s="0">
+        <v>8.61678159117325E-03</v>
+      </c>
+      <c r="F2656" s="0">
+        <v>28</v>
+      </c>
+      <c r="G2656" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2657">
+      <c r="A2657" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2657" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2657" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2657" s="0">
+        <v>365</v>
+      </c>
+      <c r="E2657" s="0">
+        <v>1.24411601296607E-03</v>
+      </c>
+      <c r="F2657" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2657" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2658">
+      <c r="A2658" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2658" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2658" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2658" s="0">
+        <v>204</v>
+      </c>
+      <c r="E2658" s="0">
+        <v>6.95341552452272E-04</v>
+      </c>
+      <c r="F2658" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2658" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2659">
+      <c r="A2659" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2659" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2659" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2659" s="0">
+        <v>30204</v>
+      </c>
+      <c r="E2659" s="0">
+        <v>0.102951452207198</v>
+      </c>
+      <c r="F2659" s="0">
+        <v>141</v>
+      </c>
+      <c r="G2659" s="0">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2660">
+      <c r="A2660" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2660" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2660" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2660" s="0">
+        <v>44871</v>
+      </c>
+      <c r="E2660" s="0">
+        <v>0.152944464706303</v>
+      </c>
+      <c r="F2660" s="0">
+        <v>84</v>
+      </c>
+      <c r="G2660" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2661">
+      <c r="A2661" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2661" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2661" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2661" s="0">
+        <v>195009</v>
+      </c>
+      <c r="E2661" s="0">
+        <v>0.664695396089045</v>
+      </c>
+      <c r="F2661" s="0">
+        <v>3454</v>
+      </c>
+      <c r="G2661" s="0">
+        <v>0.918</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2662">
+      <c r="A2662" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2662" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2662" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2662" s="0">
+        <v>29184</v>
+      </c>
+      <c r="E2662" s="0">
+        <v>9.94747444449368E-02</v>
+      </c>
+      <c r="F2662" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2662" s="0">
+        <v>0.045</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2663">
+      <c r="A2663" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2663" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2663" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2663" s="0">
+        <v>69188</v>
+      </c>
+      <c r="E2663" s="0">
+        <v>0.235829859466019</v>
+      </c>
+      <c r="F2663" s="0">
+        <v>137</v>
+      </c>
+      <c r="G2663" s="0">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2664">
+      <c r="A2664" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2664" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2664" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2664" s="0">
+        <v>152903</v>
+      </c>
+      <c r="E2664" s="0">
+        <v>0.521175536248087</v>
+      </c>
+      <c r="F2664" s="0">
+        <v>1682</v>
+      </c>
+      <c r="G2664" s="0">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2665">
+      <c r="A2665" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2665" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2665" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2665" s="0">
+        <v>138231</v>
+      </c>
+      <c r="E2665" s="0">
+        <v>0.471165481063873</v>
+      </c>
+      <c r="F2665" s="0">
+        <v>2077</v>
+      </c>
+      <c r="G2665" s="0">
+        <v>0.552</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2666">
+      <c r="A2666" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2666" s="1">
+        <v>44146</v>
+      </c>
+      <c r="C2666" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2666" s="0">
+        <v>2247</v>
+      </c>
+      <c r="E2666" s="0">
+        <v>7.65898268804047E-03</v>
+      </c>
+      <c r="F2666" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2666" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2667">
+      <c r="A2667" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2667" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2667" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2667" s="0">
+        <v>170855</v>
+      </c>
+      <c r="E2667" s="0">
+        <v>0.57580251074227</v>
+      </c>
+      <c r="F2667" s="0">
+        <v>2671</v>
+      </c>
+      <c r="G2667" s="0">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2668">
+      <c r="A2668" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2668" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2668" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2668" s="0">
+        <v>46557</v>
+      </c>
+      <c r="E2668" s="0">
+        <v>0.156902856179965</v>
+      </c>
+      <c r="F2668" s="0">
+        <v>856</v>
+      </c>
+      <c r="G2668" s="0">
+        <v>0.225</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2669">
+      <c r="A2669" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2669" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2669" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2669" s="0">
+        <v>2546</v>
+      </c>
+      <c r="E2669" s="0">
+        <v>8.58033532732328E-03</v>
+      </c>
+      <c r="F2669" s="0">
+        <v>29</v>
+      </c>
+      <c r="G2669" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2670">
+      <c r="A2670" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2670" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2670" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2670" s="0">
+        <v>364</v>
+      </c>
+      <c r="E2670" s="0">
+        <v>1.22672508214677E-03</v>
+      </c>
+      <c r="F2670" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2670" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2671">
+      <c r="A2671" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2671" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2671" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2671" s="0">
+        <v>207</v>
+      </c>
+      <c r="E2671" s="0">
+        <v>6.97615637374674E-04</v>
+      </c>
+      <c r="F2671" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2671" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2672">
+      <c r="A2672" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2672" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2672" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2672" s="0">
+        <v>30372</v>
+      </c>
+      <c r="E2672" s="0">
+        <v>0.10235740163451</v>
+      </c>
+      <c r="F2672" s="0">
+        <v>141</v>
+      </c>
+      <c r="G2672" s="0">
+        <v>0.037</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2673">
+      <c r="A2673" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2673" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2673" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2673" s="0">
+        <v>45824</v>
+      </c>
+      <c r="E2673" s="0">
+        <v>0.154432555396411</v>
+      </c>
+      <c r="F2673" s="0">
+        <v>84</v>
+      </c>
+      <c r="G2673" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2674">
+      <c r="A2674" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2674" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2674" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2674" s="0">
+        <v>198790</v>
+      </c>
+      <c r="E2674" s="0">
+        <v>0.66994692054933</v>
+      </c>
+      <c r="F2674" s="0">
+        <v>3489</v>
+      </c>
+      <c r="G2674" s="0">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2675">
+      <c r="A2675" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2675" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2675" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2675" s="0">
+        <v>29330</v>
+      </c>
+      <c r="E2675" s="0">
+        <v>9.88457325806723E-02</v>
+      </c>
+      <c r="F2675" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2675" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2676">
+      <c r="A2676" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2676" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2676" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2676" s="0">
+        <v>68605</v>
+      </c>
+      <c r="E2676" s="0">
+        <v>0.231207346869997</v>
+      </c>
+      <c r="F2676" s="0">
+        <v>129</v>
+      </c>
+      <c r="G2676" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2677">
+      <c r="A2677" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2677" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2677" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2677" s="0">
+        <v>154662</v>
+      </c>
+      <c r="E2677" s="0">
+        <v>0.521230095205999</v>
+      </c>
+      <c r="F2677" s="0">
+        <v>1692</v>
+      </c>
+      <c r="G2677" s="0">
+        <v>0.446</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2678">
+      <c r="A2678" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2678" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2678" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2678" s="0">
+        <v>139782</v>
+      </c>
+      <c r="E2678" s="0">
+        <v>0.471082652287472</v>
+      </c>
+      <c r="F2678" s="0">
+        <v>2094</v>
+      </c>
+      <c r="G2678" s="0">
+        <v>0.552</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2679">
+      <c r="A2679" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2679" s="1">
+        <v>44147</v>
+      </c>
+      <c r="C2679" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2679" s="0">
+        <v>2281</v>
+      </c>
+      <c r="E2679" s="0">
+        <v>7.68725250652961E-03</v>
+      </c>
+      <c r="F2679" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2679" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2680">
+      <c r="A2680" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2680" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2680" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2680" s="0">
+        <v>173065</v>
+      </c>
+      <c r="E2680" s="0">
+        <v>0.576003967276624</v>
+      </c>
+      <c r="F2680" s="0">
+        <v>2723</v>
+      </c>
+      <c r="G2680" s="0">
+        <v>0.706</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2681">
+      <c r="A2681" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2681" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2681" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2681" s="0">
+        <v>46878</v>
+      </c>
+      <c r="E2681" s="0">
+        <v>0.156021806708425</v>
+      </c>
+      <c r="F2681" s="0">
+        <v>863</v>
+      </c>
+      <c r="G2681" s="0">
+        <v>0.224</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2682">
+      <c r="A2682" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2682" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2682" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2682" s="0">
+        <v>2572</v>
+      </c>
+      <c r="E2682" s="0">
+        <v>8.56026466261507E-03</v>
+      </c>
+      <c r="F2682" s="0">
+        <v>30</v>
+      </c>
+      <c r="G2682" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2683">
+      <c r="A2683" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2683" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2683" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2683" s="0">
+        <v>370</v>
+      </c>
+      <c r="E2683" s="0">
+        <v>1.23145331460637E-03</v>
+      </c>
+      <c r="F2683" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2683" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2684">
+      <c r="A2684" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2684" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2684" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2684" s="0">
+        <v>209</v>
+      </c>
+      <c r="E2684" s="0">
+        <v>6.95604710142516E-04</v>
+      </c>
+      <c r="F2684" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2684" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2685">
+      <c r="A2685" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2685" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2685" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2685" s="0">
+        <v>30777</v>
+      </c>
+      <c r="E2685" s="0">
+        <v>0.102433618009838</v>
+      </c>
+      <c r="F2685" s="0">
+        <v>141</v>
+      </c>
+      <c r="G2685" s="0">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2686">
+      <c r="A2686" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2686" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2686" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2686" s="0">
+        <v>46587</v>
+      </c>
+      <c r="E2686" s="0">
+        <v>0.155053285317748</v>
+      </c>
+      <c r="F2686" s="0">
+        <v>88</v>
+      </c>
+      <c r="G2686" s="0">
+        <v>0.022</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2687">
+      <c r="A2687" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2687" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2687" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2687" s="0">
+        <v>200520</v>
+      </c>
+      <c r="E2687" s="0">
+        <v>0.667381131472618</v>
+      </c>
+      <c r="F2687" s="0">
+        <v>3549</v>
+      </c>
+      <c r="G2687" s="0">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2688">
+      <c r="A2688" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2688" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2688" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2688" s="0">
+        <v>29479</v>
+      </c>
+      <c r="E2688" s="0">
+        <v>9.81135466521111E-02</v>
+      </c>
+      <c r="F2688" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2688" s="0">
+        <v>0.044</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2689">
+      <c r="A2689" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2689" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2689" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2689" s="0">
+        <v>70459</v>
+      </c>
+      <c r="E2689" s="0">
+        <v>0.23450532187527</v>
+      </c>
+      <c r="F2689" s="0">
+        <v>133</v>
+      </c>
+      <c r="G2689" s="0">
+        <v>0.034</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2690">
+      <c r="A2690" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2690" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2690" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2690" s="0">
+        <v>156641</v>
+      </c>
+      <c r="E2690" s="0">
+        <v>0.521340753116908</v>
+      </c>
+      <c r="F2690" s="0">
+        <v>1725</v>
+      </c>
+      <c r="G2690" s="0">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2691">
+      <c r="A2691" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2691" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2691" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2691" s="0">
+        <v>141491</v>
+      </c>
+      <c r="E2691" s="0">
+        <v>0.47091773226208</v>
+      </c>
+      <c r="F2691" s="0">
+        <v>2125</v>
+      </c>
+      <c r="G2691" s="0">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2692">
+      <c r="A2692" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2692" s="1">
+        <v>44148</v>
+      </c>
+      <c r="C2692" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2692" s="0">
+        <v>2326</v>
+      </c>
+      <c r="E2692" s="0">
+        <v>7.74151462101192E-03</v>
+      </c>
+      <c r="F2692" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2692" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2693">
+      <c r="A2693" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2693" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2693" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2693" s="0">
+        <v>175431</v>
+      </c>
+      <c r="E2693" s="0">
+        <v>0.574957393812271</v>
+      </c>
+      <c r="F2693" s="0">
+        <v>2742</v>
+      </c>
+      <c r="G2693" s="0">
+        <v>0.70724787206603</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2694">
+      <c r="A2694" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2694" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2694" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2694" s="0">
+        <v>47238</v>
+      </c>
+      <c r="E2694" s="0">
+        <v>0.15481777661248</v>
+      </c>
+      <c r="F2694" s="0">
+        <v>866</v>
+      </c>
+      <c r="G2694" s="0">
+        <v>0.223368583956668</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2695">
+      <c r="A2695" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2695" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2695" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2695" s="0">
+        <v>31229</v>
+      </c>
+      <c r="E2695" s="0">
+        <v>0.10234989512323</v>
+      </c>
+      <c r="F2695" s="0">
+        <v>143</v>
+      </c>
+      <c r="G2695" s="0">
+        <v>3.68841888057777E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2696">
+      <c r="A2696" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2696" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2696" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2696" s="0">
+        <v>2600</v>
+      </c>
+      <c r="E2696" s="0">
+        <v>8.52123754588359E-03</v>
+      </c>
+      <c r="F2696" s="0">
+        <v>30</v>
+      </c>
+      <c r="G2696" s="0">
+        <v>7.7379417075058E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2697">
+      <c r="A2697" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2697" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2697" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2697" s="0">
+        <v>375</v>
+      </c>
+      <c r="E2697" s="0">
+        <v>1.2290246460409E-03</v>
+      </c>
+      <c r="F2697" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2697" s="0">
+        <v>1.03172556100077E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2698">
+      <c r="A2698" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2698" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2698" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2698" s="0">
+        <v>210</v>
+      </c>
+      <c r="E2698" s="0">
+        <v>6.88253801782905E-04</v>
+      </c>
+      <c r="F2698" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2698" s="0">
+        <v>7.7379417075058E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2699">
+      <c r="A2699" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2699" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2699" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2699" s="0">
+        <v>48037</v>
+      </c>
+      <c r="E2699" s="0">
+        <v>0.157436418458311</v>
+      </c>
+      <c r="F2699" s="0">
+        <v>89</v>
+      </c>
+      <c r="G2699" s="0">
+        <v>2.29558937322672E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2700">
+      <c r="A2700" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2700" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2700" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2700" s="0">
+        <v>202324</v>
+      </c>
+      <c r="E2700" s="0">
+        <v>0.663096486628212</v>
+      </c>
+      <c r="F2700" s="0">
+        <v>3567</v>
+      </c>
+      <c r="G2700" s="0">
+        <v>0.92004126902244</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2701">
+      <c r="A2701" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2701" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2701" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2701" s="0">
+        <v>29632</v>
+      </c>
+      <c r="E2701" s="0">
+        <v>0.097115888830624</v>
+      </c>
+      <c r="F2701" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2701" s="0">
+        <v>4.38483363425329E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2702">
+      <c r="A2702" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2702" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2702" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2702" s="0">
+        <v>73164</v>
+      </c>
+      <c r="E2702" s="0">
+        <v>0.239787624541164</v>
+      </c>
+      <c r="F2702" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2702" s="0">
+        <v>3.61103946350271E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2703">
+      <c r="A2703" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2703" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2703" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2703" s="0">
+        <v>159160</v>
+      </c>
+      <c r="E2703" s="0">
+        <v>0.52163083377032</v>
+      </c>
+      <c r="F2703" s="0">
+        <v>1738</v>
+      </c>
+      <c r="G2703" s="0">
+        <v>0.448284756254836</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2704">
+      <c r="A2704" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2704" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2704" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2704" s="0">
+        <v>143595</v>
+      </c>
+      <c r="E2704" s="0">
+        <v>0.470618117461982</v>
+      </c>
+      <c r="F2704" s="0">
+        <v>2137</v>
+      </c>
+      <c r="G2704" s="0">
+        <v>0.551199380964663</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2705">
+      <c r="A2705" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2705" s="1">
+        <v>44149</v>
+      </c>
+      <c r="C2705" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2705" s="0">
+        <v>2365</v>
+      </c>
+      <c r="E2705" s="0">
+        <v>7.75104876769795E-03</v>
+      </c>
+      <c r="F2705" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2705" s="0">
+        <v>5.15862780500387E-04</v>
       </c>
     </row>
   </sheetData>
@@ -60257,11 +68681,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1042</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1466</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1042</Url>
-      <Description>HJYU5V3E37X6-122305290-1042</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1466</Url>
+      <Description>HJYU5V3E37X6-122305290-1466</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -60284,17 +68708,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3C583CF9-ABE1-4A41-A860-0A2C277DBBA0}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{682DA46F-E1E5-4FB4-8290-269CAA21A915}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{040FA893-81F4-48B0-B737-48179E3B9FB4}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{339B892A-318F-475E-9EDB-C0462A56BC6A}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9928AC09-7D53-4C55-8B54-4F5BAC47C03B}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6031AA-47A4-4834-91F2-D096D9808801}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C0576A62-B7CE-4363-A5E1-E9EE84B68343}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF6A5A3-C7B2-4808-8D16-9369672AB213}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2705</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2731</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2705"/>
+  <dimension ref="A1:G2731"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -67925,7 +67925,7 @@
         <v>2742</v>
       </c>
       <c r="G2693" s="0">
-        <v>0.70724787206603</v>
+        <v>0.707</v>
       </c>
     </row>
     <row outlineLevel="0" r="2694">
@@ -67952,13 +67952,13 @@
         <v>866</v>
       </c>
       <c r="G2694" s="0">
-        <v>0.223368583956668</v>
+        <v>0.223</v>
       </c>
     </row>
     <row outlineLevel="0" r="2695">
       <c r="A2695" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2695" s="1">
@@ -67970,22 +67970,22 @@
         </is>
       </c>
       <c r="D2695" s="0">
-        <v>31229</v>
+        <v>2600</v>
       </c>
       <c r="E2695" s="0">
-        <v>0.10234989512323</v>
+        <v>8.52123754588359E-03</v>
       </c>
       <c r="F2695" s="0">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="G2695" s="0">
-        <v>3.68841888057777E-02</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="2696">
       <c r="A2696" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2696" s="1">
@@ -67997,22 +67997,22 @@
         </is>
       </c>
       <c r="D2696" s="0">
-        <v>2600</v>
+        <v>375</v>
       </c>
       <c r="E2696" s="0">
-        <v>8.52123754588359E-03</v>
+        <v>1.2290246460409E-03</v>
       </c>
       <c r="F2696" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G2696" s="0">
-        <v>7.7379417075058E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2697">
       <c r="A2697" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2697" s="1">
@@ -68024,22 +68024,22 @@
         </is>
       </c>
       <c r="D2697" s="0">
-        <v>375</v>
+        <v>210</v>
       </c>
       <c r="E2697" s="0">
-        <v>1.2290246460409E-03</v>
+        <v>6.88253801782905E-04</v>
       </c>
       <c r="F2697" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2697" s="0">
-        <v>1.03172556100077E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2698">
       <c r="A2698" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2698" s="1">
@@ -68051,16 +68051,16 @@
         </is>
       </c>
       <c r="D2698" s="0">
-        <v>210</v>
+        <v>31229</v>
       </c>
       <c r="E2698" s="0">
-        <v>6.88253801782905E-04</v>
+        <v>0.10234989512323</v>
       </c>
       <c r="F2698" s="0">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="G2698" s="0">
-        <v>7.7379417075058E-04</v>
+        <v>0.036</v>
       </c>
     </row>
     <row outlineLevel="0" r="2699">
@@ -68087,7 +68087,7 @@
         <v>89</v>
       </c>
       <c r="G2699" s="0">
-        <v>2.29558937322672E-02</v>
+        <v>0.022</v>
       </c>
     </row>
     <row outlineLevel="0" r="2700">
@@ -68114,7 +68114,7 @@
         <v>3567</v>
       </c>
       <c r="G2700" s="0">
-        <v>0.92004126902244</v>
+        <v>0.92</v>
       </c>
     </row>
     <row outlineLevel="0" r="2701">
@@ -68141,7 +68141,7 @@
         <v>170</v>
       </c>
       <c r="G2701" s="0">
-        <v>4.38483363425329E-02</v>
+        <v>0.043</v>
       </c>
     </row>
     <row outlineLevel="0" r="2702">
@@ -68168,7 +68168,7 @@
         <v>140</v>
       </c>
       <c r="G2702" s="0">
-        <v>3.61103946350271E-02</v>
+        <v>0.036</v>
       </c>
     </row>
     <row outlineLevel="0" r="2703">
@@ -68195,7 +68195,7 @@
         <v>1738</v>
       </c>
       <c r="G2703" s="0">
-        <v>0.448284756254836</v>
+        <v>0.448</v>
       </c>
     </row>
     <row outlineLevel="0" r="2704">
@@ -68222,7 +68222,7 @@
         <v>2137</v>
       </c>
       <c r="G2704" s="0">
-        <v>0.551199380964663</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="2705">
@@ -68249,7 +68249,709 @@
         <v>2</v>
       </c>
       <c r="G2705" s="0">
-        <v>5.15862780500387E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2706">
+      <c r="A2706" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2706" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2706" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2706" s="0">
+        <v>178022</v>
+      </c>
+      <c r="E2706" s="0">
+        <v>0.572533985984299</v>
+      </c>
+      <c r="F2706" s="0">
+        <v>2755</v>
+      </c>
+      <c r="G2706" s="0">
+        <v>0.707</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2707">
+      <c r="A2707" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2707" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2707" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2707" s="0">
+        <v>47680</v>
+      </c>
+      <c r="E2707" s="0">
+        <v>0.153342960149484</v>
+      </c>
+      <c r="F2707" s="0">
+        <v>868</v>
+      </c>
+      <c r="G2707" s="0">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2708">
+      <c r="A2708" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2708" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2708" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2708" s="0">
+        <v>2633</v>
+      </c>
+      <c r="E2708" s="0">
+        <v>8.46795331530181E-03</v>
+      </c>
+      <c r="F2708" s="0">
+        <v>30</v>
+      </c>
+      <c r="G2708" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2709">
+      <c r="A2709" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2709" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2709" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2709" s="0">
+        <v>378</v>
+      </c>
+      <c r="E2709" s="0">
+        <v>1.21568034682267E-03</v>
+      </c>
+      <c r="F2709" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2709" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2710">
+      <c r="A2710" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2710" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2710" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2710" s="0">
+        <v>210</v>
+      </c>
+      <c r="E2710" s="0">
+        <v>6.75377970457038E-04</v>
+      </c>
+      <c r="F2710" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2710" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2711">
+      <c r="A2711" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2711" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2711" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2711" s="0">
+        <v>31716</v>
+      </c>
+      <c r="E2711" s="0">
+        <v>0.102001370052454</v>
+      </c>
+      <c r="F2711" s="0">
+        <v>143</v>
+      </c>
+      <c r="G2711" s="0">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2712">
+      <c r="A2712" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2712" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2712" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2712" s="0">
+        <v>50298</v>
+      </c>
+      <c r="E2712" s="0">
+        <v>0.161762672181181</v>
+      </c>
+      <c r="F2712" s="0">
+        <v>90</v>
+      </c>
+      <c r="G2712" s="0">
+        <v>0.023</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2713">
+      <c r="A2713" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2713" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2713" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2713" s="0">
+        <v>204082</v>
+      </c>
+      <c r="E2713" s="0">
+        <v>0.656345176032444</v>
+      </c>
+      <c r="F2713" s="0">
+        <v>3583</v>
+      </c>
+      <c r="G2713" s="0">
+        <v>0.92</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2714">
+      <c r="A2714" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2714" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2714" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2714" s="0">
+        <v>29772</v>
+      </c>
+      <c r="E2714" s="0">
+        <v>9.57492996973663E-02</v>
+      </c>
+      <c r="F2714" s="0">
+        <v>170</v>
+      </c>
+      <c r="G2714" s="0">
+        <v>0.043</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2715">
+      <c r="A2715" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2715" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2715" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2715" s="0">
+        <v>77083</v>
+      </c>
+      <c r="E2715" s="0">
+        <v>0.24790552427019</v>
+      </c>
+      <c r="F2715" s="0">
+        <v>140</v>
+      </c>
+      <c r="G2715" s="0">
+        <v>0.035</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2716">
+      <c r="A2716" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2716" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2716" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2716" s="0">
+        <v>162289</v>
+      </c>
+      <c r="E2716" s="0">
+        <v>0.521935311654772</v>
+      </c>
+      <c r="F2716" s="0">
+        <v>1744</v>
+      </c>
+      <c r="G2716" s="0">
+        <v>0.447</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2717">
+      <c r="A2717" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2717" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2717" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2717" s="0">
+        <v>146236</v>
+      </c>
+      <c r="E2717" s="0">
+        <v>0.470307489941692</v>
+      </c>
+      <c r="F2717" s="0">
+        <v>2147</v>
+      </c>
+      <c r="G2717" s="0">
+        <v>0.551</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2718">
+      <c r="A2718" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2718" s="1">
+        <v>44150</v>
+      </c>
+      <c r="C2718" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2718" s="0">
+        <v>2412</v>
+      </c>
+      <c r="E2718" s="0">
+        <v>7.75719840353512E-03</v>
+      </c>
+      <c r="F2718" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2718" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2719">
+      <c r="A2719" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2719" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2719" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2719" s="0">
+        <v>181900</v>
+      </c>
+      <c r="E2719" s="0">
+        <v>0.570419708486992</v>
+      </c>
+      <c r="F2719" s="0">
+        <v>2774</v>
+      </c>
+      <c r="G2719" s="0">
+        <v>0.707111904154983</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2720">
+      <c r="A2720" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2720" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2720" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2720" s="0">
+        <v>48376</v>
+      </c>
+      <c r="E2720" s="0">
+        <v>0.151702165023457</v>
+      </c>
+      <c r="F2720" s="0">
+        <v>875</v>
+      </c>
+      <c r="G2720" s="0">
+        <v>0.223043589089982</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2721">
+      <c r="A2721" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2721" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2721" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2721" s="0">
+        <v>32303</v>
+      </c>
+      <c r="E2721" s="0">
+        <v>0.101298888638017</v>
+      </c>
+      <c r="F2721" s="0">
+        <v>143</v>
+      </c>
+      <c r="G2721" s="0">
+        <v>3.64516951312771E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2722">
+      <c r="A2722" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2722" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2722" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2722" s="0">
+        <v>2698</v>
+      </c>
+      <c r="E2722" s="0">
+        <v>8.46065076139585E-03</v>
+      </c>
+      <c r="F2722" s="0">
+        <v>30</v>
+      </c>
+      <c r="G2722" s="0">
+        <v>7.64720876879939E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2723">
+      <c r="A2723" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2723" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2723" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2723" s="0">
+        <v>391</v>
+      </c>
+      <c r="E2723" s="0">
+        <v>1.22613582198139E-03</v>
+      </c>
+      <c r="F2723" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2723" s="0">
+        <v>1.01962783583992E-03</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2724">
+      <c r="A2724" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2724" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2724" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2724" s="0">
+        <v>211</v>
+      </c>
+      <c r="E2724" s="0">
+        <v>6.61674318255939E-04</v>
+      </c>
+      <c r="F2724" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2724" s="0">
+        <v>7.64720876879939E-04</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2725">
+      <c r="A2725" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2725" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2725" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2725" s="0">
+        <v>53009</v>
+      </c>
+      <c r="E2725" s="0">
+        <v>0.166230776949901</v>
+      </c>
+      <c r="F2725" s="0">
+        <v>94</v>
+      </c>
+      <c r="G2725" s="0">
+        <v>2.39612541422381E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2726">
+      <c r="A2726" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2726" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2726" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2726" s="0">
+        <v>206898</v>
+      </c>
+      <c r="E2726" s="0">
+        <v>0.648810867765485</v>
+      </c>
+      <c r="F2726" s="0">
+        <v>3606</v>
+      </c>
+      <c r="G2726" s="0">
+        <v>0.919194494009686</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2727">
+      <c r="A2727" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2727" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2727" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2727" s="0">
+        <v>30052</v>
+      </c>
+      <c r="E2727" s="0">
+        <v>9.42399839442061E-02</v>
+      </c>
+      <c r="F2727" s="0">
+        <v>171</v>
+      </c>
+      <c r="G2727" s="0">
+        <v>4.35890899821565E-02</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2728">
+      <c r="A2728" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2728" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2728" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2728" s="0">
+        <v>81938</v>
+      </c>
+      <c r="E2728" s="0">
+        <v>0.256949148290309</v>
+      </c>
+      <c r="F2728" s="0">
+        <v>146</v>
+      </c>
+      <c r="G2728" s="0">
+        <v>0.037216416008157</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2729">
+      <c r="A2729" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2729" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2729" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2729" s="0">
+        <v>166542</v>
+      </c>
+      <c r="E2729" s="0">
+        <v>0.52225859863024</v>
+      </c>
+      <c r="F2729" s="0">
+        <v>1756</v>
+      </c>
+      <c r="G2729" s="0">
+        <v>0.447616619933724</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2730">
+      <c r="A2730" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2730" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2730" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2730" s="0">
+        <v>149854</v>
+      </c>
+      <c r="E2730" s="0">
+        <v>0.469926745440405</v>
+      </c>
+      <c r="F2730" s="0">
+        <v>2165</v>
+      </c>
+      <c r="G2730" s="0">
+        <v>0.551873566148356</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2731">
+      <c r="A2731" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2731" s="1">
+        <v>44151</v>
+      </c>
+      <c r="C2731" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2731" s="0">
+        <v>2492</v>
+      </c>
+      <c r="E2731" s="0">
+        <v>7.81465592935451E-03</v>
+      </c>
+      <c r="F2731" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2731" s="0">
+        <v>5.09813917919959E-04</v>
       </c>
     </row>
   </sheetData>
@@ -68681,11 +69383,11 @@
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <Home xmlns="f83d9bd0-d5f5-484c-bfdf-0c10f1e052c8">false</Home>
-    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1466</_dlc_DocId>
+    <_dlc_DocId xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">HJYU5V3E37X6-122305290-1488</_dlc_DocId>
     <Present xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2">false</Present>
     <_dlc_DocIdUrl xmlns="98a58c6c-0c6a-4735-9794-66dbf75df29f">
-      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1466</Url>
-      <Description>HJYU5V3E37X6-122305290-1466</Description>
+      <Url>https://tennessee.sharepoint.com/sites/health/PRG/COVID/_layouts/15/DocIdRedir.aspx?ID=HJYU5V3E37X6-122305290-1488</Url>
+      <Description>HJYU5V3E37X6-122305290-1488</Description>
     </_dlc_DocIdUrl>
     <Project_x0020_ID xmlns="4fcd0e8f-9e8d-4d61-8b29-f5c2c64ff0a2" xsi:nil="true"/>
     <Doc_x0020_Subject xmlns="2773c6ec-81e5-4cca-8f30-56e38046ef00" xsi:nil="true"/>
@@ -68708,17 +69410,17 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{682DA46F-E1E5-4FB4-8290-269CAA21A915}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB600F61-7E7F-4490-84D9-40BA97316C9B}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{339B892A-318F-475E-9EDB-C0462A56BC6A}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D6E9827E-2E60-4331-8101-B438E7AF9085}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8E6031AA-47A4-4834-91F2-D096D9808801}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1EC614B6-B34E-4241-8D30-A461F6BDD627}"/>
 </file>
 
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FBF6A5A3-C7B2-4808-8D16-9369672AB213}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C63BEC2-239B-42CC-B154-9DA7FA304994}"/>
 </file>
--- a/TNDeptHealth_Demographics.xlsx
+++ b/TNDeptHealth_Demographics.xlsx
@@ -10,7 +10,7 @@
     <sheet sheetId="1" r:id="rId1" name="ALL_RACEETHSEX_FINAL"/>
   </sheets>
   <definedNames>
-    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2731</definedName>
+    <definedName name="ALL_RACEETHSEX_FINAL">'ALL_RACEETHSEX_FINAL'!$A$1:$G$2757</definedName>
   </definedNames>
   <calcPr calcId="125725" fullCalcOnLoad="true"/>
 </workbook>
@@ -347,7 +347,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2731"/>
+  <dimension ref="A1:G2757"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" rightToLeft="false">
       <selection activeCell="C5" sqref="C5"/>
@@ -68627,7 +68627,7 @@
         <v>2774</v>
       </c>
       <c r="G2719" s="0">
-        <v>0.707111904154983</v>
+        <v>0.707</v>
       </c>
     </row>
     <row outlineLevel="0" r="2720">
@@ -68654,13 +68654,13 @@
         <v>875</v>
       </c>
       <c r="G2720" s="0">
-        <v>0.223043589089982</v>
+        <v>0.223</v>
       </c>
     </row>
     <row outlineLevel="0" r="2721">
       <c r="A2721" s="0" t="inlineStr">
         <is>
-          <t>Other/Multiracial</t>
+          <t>Asian</t>
         </is>
       </c>
       <c r="B2721" s="1">
@@ -68672,22 +68672,22 @@
         </is>
       </c>
       <c r="D2721" s="0">
-        <v>32303</v>
+        <v>2698</v>
       </c>
       <c r="E2721" s="0">
-        <v>0.101298888638017</v>
+        <v>8.46065076139585E-03</v>
       </c>
       <c r="F2721" s="0">
-        <v>143</v>
+        <v>30</v>
       </c>
       <c r="G2721" s="0">
-        <v>3.64516951312771E-02</v>
+        <v>0.007</v>
       </c>
     </row>
     <row outlineLevel="0" r="2722">
       <c r="A2722" s="0" t="inlineStr">
         <is>
-          <t>Asian</t>
+          <t>American Indian or Alaska Native</t>
         </is>
       </c>
       <c r="B2722" s="1">
@@ -68699,22 +68699,22 @@
         </is>
       </c>
       <c r="D2722" s="0">
-        <v>2698</v>
+        <v>391</v>
       </c>
       <c r="E2722" s="0">
-        <v>8.46065076139585E-03</v>
+        <v>1.22613582198139E-03</v>
       </c>
       <c r="F2722" s="0">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="G2722" s="0">
-        <v>7.64720876879939E-03</v>
+        <v>0.001</v>
       </c>
     </row>
     <row outlineLevel="0" r="2723">
       <c r="A2723" s="0" t="inlineStr">
         <is>
-          <t>American Indian or Alaska Native</t>
+          <t>Native Hawaiian or Other Pacific Islander</t>
         </is>
       </c>
       <c r="B2723" s="1">
@@ -68726,22 +68726,22 @@
         </is>
       </c>
       <c r="D2723" s="0">
-        <v>391</v>
+        <v>211</v>
       </c>
       <c r="E2723" s="0">
-        <v>1.22613582198139E-03</v>
+        <v>6.61674318255939E-04</v>
       </c>
       <c r="F2723" s="0">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G2723" s="0">
-        <v>1.01962783583992E-03</v>
+        <v>0</v>
       </c>
     </row>
     <row outlineLevel="0" r="2724">
       <c r="A2724" s="0" t="inlineStr">
         <is>
-          <t>Native Hawaiian or Other Pacific Islander</t>
+          <t>Other/Multiracial</t>
         </is>
       </c>
       <c r="B2724" s="1">
@@ -68753,16 +68753,16 @@
         </is>
       </c>
       <c r="D2724" s="0">
-        <v>211</v>
+        <v>32303</v>
       </c>
       <c r="E2724" s="0">
-        <v>6.61674318255939E-04</v>
+        <v>0.101298888638017</v>
       </c>
       <c r="F2724" s="0">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="G2724" s="0">
-        <v>7.64720876879939E-04</v>
+        <v>0.036</v>
       </c>
     </row>
     <row outlineLevel="0" r="2725">
@@ -68789,7 +68789,7 @@
         <v>94</v>
       </c>
       <c r="G2725" s="0">
-        <v>2.39612541422381E-02</v>
+        <v>0.023</v>
       </c>
     </row>
     <row outlineLevel="0" r="2726">
@@ -68816,7 +68816,7 @@
         <v>3606</v>
       </c>
       <c r="G2726" s="0">
-        <v>0.919194494009686</v>
+        <v>0.919</v>
       </c>
     </row>
     <row outlineLevel="0" r="2727">
@@ -68843,7 +68843,7 @@
         <v>171</v>
       </c>
       <c r="G2727" s="0">
-        <v>4.35890899821565E-02</v>
+        <v>0.043</v>
       </c>
     </row>
     <row outlineLevel="0" r="2728">
@@ -68870,7 +68870,7 @@
         <v>146</v>
       </c>
       <c r="G2728" s="0">
-        <v>0.037216416008157</v>
+        <v>0.037</v>
       </c>
     </row>
     <row outlineLevel="0" r="2729">
@@ -68897,7 +68897,7 @@
         <v>1756</v>
       </c>
       <c r="G2729" s="0">
-        <v>0.447616619933724</v>
+        <v>0.447</v>
       </c>
     </row>
     <row outlineLevel="0" r="2730">
@@ -68924,7 +68924,7 @@
         <v>2165</v>
       </c>
       <c r="G2730" s="0">
-        <v>0.551873566148356</v>
+        <v>0.551</v>
       </c>
     </row>
     <row outlineLevel="0" r="2731">
@@ -68951,7 +68951,709 @@
         <v>2</v>
       </c>
       <c r="G2731" s="0">
-        <v>5.09813917919959E-04</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2732">
+      <c r="A2732" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2732" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2732" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2732" s="0">
+        <v>183043</v>
+      </c>
+      <c r="E2732" s="0">
+        <v>0.570709228039872</v>
+      </c>
+      <c r="F2732" s="0">
+        <v>2829</v>
+      </c>
+      <c r="G2732" s="0">
+        <v>0.708</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2733">
+      <c r="A2733" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2733" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2733" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2733" s="0">
+        <v>48536</v>
+      </c>
+      <c r="E2733" s="0">
+        <v>0.151330250772459</v>
+      </c>
+      <c r="F2733" s="0">
+        <v>889</v>
+      </c>
+      <c r="G2733" s="0">
+        <v>0.222</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2734">
+      <c r="A2734" s="0" t="inlineStr">
+        <is>
+          <t>Asian</t>
+        </is>
+      </c>
+      <c r="B2734" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2734" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2734" s="0">
+        <v>2711</v>
+      </c>
+      <c r="E2734" s="0">
+        <v>8.45261887761942E-03</v>
+      </c>
+      <c r="F2734" s="0">
+        <v>30</v>
+      </c>
+      <c r="G2734" s="0">
+        <v>0.007</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2735">
+      <c r="A2735" s="0" t="inlineStr">
+        <is>
+          <t>American Indian or Alaska Native</t>
+        </is>
+      </c>
+      <c r="B2735" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2735" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2735" s="0">
+        <v>393</v>
+      </c>
+      <c r="E2735" s="0">
+        <v>1.22533353703594E-03</v>
+      </c>
+      <c r="F2735" s="0">
+        <v>4</v>
+      </c>
+      <c r="G2735" s="0">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2736">
+      <c r="A2736" s="0" t="inlineStr">
+        <is>
+          <t>Native Hawaiian or Other Pacific Islander</t>
+        </is>
+      </c>
+      <c r="B2736" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2736" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2736" s="0">
+        <v>212</v>
+      </c>
+      <c r="E2736" s="0">
+        <v>6.60994172650431E-04</v>
+      </c>
+      <c r="F2736" s="0">
+        <v>3</v>
+      </c>
+      <c r="G2736" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2737">
+      <c r="A2737" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2737" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2737" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2737" s="0">
+        <v>32331</v>
+      </c>
+      <c r="E2737" s="0">
+        <v>0.100804729226231</v>
+      </c>
+      <c r="F2737" s="0">
+        <v>144</v>
+      </c>
+      <c r="G2737" s="0">
+        <v>0.036</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2738">
+      <c r="A2738" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2738" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2738" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2738" s="0">
+        <v>53503</v>
+      </c>
+      <c r="E2738" s="0">
+        <v>0.166816845374132</v>
+      </c>
+      <c r="F2738" s="0">
+        <v>96</v>
+      </c>
+      <c r="G2738" s="0">
+        <v>0.024</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2739">
+      <c r="A2739" s="0" t="inlineStr">
+        <is>
+          <t>Not Hispanic or Latino</t>
+        </is>
+      </c>
+      <c r="B2739" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2739" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2739" s="0">
+        <v>207927</v>
+      </c>
+      <c r="E2739" s="0">
+        <v>0.648294978003236</v>
+      </c>
+      <c r="F2739" s="0">
+        <v>3672</v>
+      </c>
+      <c r="G2739" s="0">
+        <v>0.919</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2740">
+      <c r="A2740" s="0" t="inlineStr">
+        <is>
+          <t>Hispanic</t>
+        </is>
+      </c>
+      <c r="B2740" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2740" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2740" s="0">
+        <v>30111</v>
+      </c>
+      <c r="E2740" s="0">
+        <v>9.38829977956468E-02</v>
+      </c>
+      <c r="F2740" s="0">
+        <v>171</v>
+      </c>
+      <c r="G2740" s="0">
+        <v>0.042</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2741">
+      <c r="A2741" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2741" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2741" s="0" t="inlineStr">
+        <is>
+          <t>ETHNICITY</t>
+        </is>
+      </c>
+      <c r="D2741" s="0">
+        <v>82691</v>
+      </c>
+      <c r="E2741" s="0">
+        <v>0.257822024201117</v>
+      </c>
+      <c r="F2741" s="0">
+        <v>152</v>
+      </c>
+      <c r="G2741" s="0">
+        <v>0.038</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2742">
+      <c r="A2742" s="0" t="inlineStr">
+        <is>
+          <t>Female</t>
+        </is>
+      </c>
+      <c r="B2742" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2742" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2742" s="0">
+        <v>167542</v>
+      </c>
+      <c r="E2742" s="0">
+        <v>0.52237870601037</v>
+      </c>
+      <c r="F2742" s="0">
+        <v>1794</v>
+      </c>
+      <c r="G2742" s="0">
+        <v>0.449</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2743">
+      <c r="A2743" s="0" t="inlineStr">
+        <is>
+          <t>Male</t>
+        </is>
+      </c>
+      <c r="B2743" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2743" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2743" s="0">
+        <v>150674</v>
+      </c>
+      <c r="E2743" s="0">
+        <v>0.46978601872609</v>
+      </c>
+      <c r="F2743" s="0">
+        <v>2199</v>
+      </c>
+      <c r="G2743" s="0">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2744">
+      <c r="A2744" s="0" t="inlineStr">
+        <is>
+          <t>Pending</t>
+        </is>
+      </c>
+      <c r="B2744" s="1">
+        <v>44152</v>
+      </c>
+      <c r="C2744" s="0" t="inlineStr">
+        <is>
+          <t>SEX</t>
+        </is>
+      </c>
+      <c r="D2744" s="0">
+        <v>2513</v>
+      </c>
+      <c r="E2744" s="0">
+        <v>7.83527526354025E-03</v>
+      </c>
+      <c r="F2744" s="0">
+        <v>2</v>
+      </c>
+      <c r="G2744" s="0">
+        <v>0</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2745">
+      <c r="A2745" s="0" t="inlineStr">
+        <is>
+          <t>White</t>
+        </is>
+      </c>
+      <c r="B2745" s="1">
+        <v>44153</v>
+      </c>
+      <c r="C2745" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2745" s="0">
+        <v>185622</v>
+      </c>
+      <c r="E2745" s="0">
+        <v>0.570791602731849</v>
+      </c>
+      <c r="F2745" s="0">
+        <v>2868</v>
+      </c>
+      <c r="G2745" s="0">
+        <v>0.708498023715415</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2746">
+      <c r="A2746" s="0" t="inlineStr">
+        <is>
+          <t>Black or African American</t>
+        </is>
+      </c>
+      <c r="B2746" s="1">
+        <v>44153</v>
+      </c>
+      <c r="C2746" s="0" t="inlineStr">
+        <is>
+          <t>RACE</t>
+        </is>
+      </c>
+      <c r="D2746" s="0">
+        <v>48940</v>
+      </c>
+      <c r="E2746" s="0">
+        <v>0.150491542153929</v>
+      </c>
+      <c r="F2746" s="0">
+        <v>897</v>
+      </c>
+      <c r="G2746" s="0">
+        <v>0.221590909090909</v>
+      </c>
+    </row>
+    <row outlineLevel="0" r="2747">
+      <c r="A2747" s="0" t="inlineStr">
+        <is>
+          <t>Other/Multiracial</t>
+        </is>
+      </c>
+      <c r="B2747" s="1">
+        <v>44153</v>
+      </c>
+      <c r="C2747" s="0" t="inlineStr">
+        <is>
+